--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -8097,7 +8097,9 @@
       <c r="K27" t="s">
         <v>139</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>136</v>
+      </c>
       <c r="M27" t="n">
         <v>1270</v>
       </c>
@@ -8158,9 +8160,15 @@
       <c r="AL27" t="n">
         <v>0.373535739885151</v>
       </c>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>72</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>4.9</v>
+      </c>
       <c r="AP27"/>
       <c r="AQ27"/>
       <c r="AR27"/>
@@ -13831,7 +13839,9 @@
       <c r="K58" t="s">
         <v>135</v>
       </c>
-      <c r="L58"/>
+      <c r="L58" t="s">
+        <v>136</v>
+      </c>
       <c r="M58" t="n">
         <v>720</v>
       </c>
@@ -13870,9 +13880,15 @@
       <c r="AL58" t="n">
         <v>0.486111111111111</v>
       </c>
-      <c r="AM58"/>
-      <c r="AN58"/>
-      <c r="AO58"/>
+      <c r="AM58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>7.12</v>
+      </c>
       <c r="AP58"/>
       <c r="AQ58"/>
       <c r="AR58"/>
@@ -20642,16 +20658,16 @@
         <v>0</v>
       </c>
       <c r="AP95" t="n">
-        <v>3183</v>
+        <v>5160</v>
       </c>
       <c r="AQ95" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR95" t="n">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT95" t="n">
         <v>2</v>
@@ -21371,13 +21387,13 @@
         <v>0.459454828124283</v>
       </c>
       <c r="AM99" t="n">
-        <v>30.5</v>
+        <v>1</v>
       </c>
       <c r="AN99" t="n">
-        <v>562.3</v>
+        <v>121</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="AP99"/>
       <c r="AQ99"/>
@@ -27341,7 +27357,9 @@
       <c r="K132" t="s">
         <v>119</v>
       </c>
-      <c r="L132"/>
+      <c r="L132" t="s">
+        <v>136</v>
+      </c>
       <c r="M132" t="n">
         <v>2000</v>
       </c>
@@ -27380,9 +27398,15 @@
       <c r="AL132" t="n">
         <v>0.500334586414949</v>
       </c>
-      <c r="AM132"/>
-      <c r="AN132"/>
-      <c r="AO132"/>
+      <c r="AM132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>9.6</v>
+      </c>
       <c r="AP132"/>
       <c r="AQ132"/>
       <c r="AR132"/>
@@ -31813,7 +31837,9 @@
       <c r="K157" t="s">
         <v>119</v>
       </c>
-      <c r="L157"/>
+      <c r="L157" t="s">
+        <v>120</v>
+      </c>
       <c r="M157" t="n">
         <v>1600</v>
       </c>
@@ -31852,9 +31878,15 @@
       <c r="AL157" t="n">
         <v>7.80672810087733</v>
       </c>
-      <c r="AM157"/>
-      <c r="AN157"/>
-      <c r="AO157"/>
+      <c r="AM157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>290</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>2.96</v>
+      </c>
       <c r="AP157"/>
       <c r="AQ157"/>
       <c r="AR157"/>
@@ -35580,19 +35612,19 @@
         <v>4.34</v>
       </c>
       <c r="AP175" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ175" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR175" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS175" t="n">
         <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU175" t="n">
         <v>16.4689342343353</v>
@@ -35816,19 +35848,19 @@
         <v>4.34</v>
       </c>
       <c r="AP176" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ176" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR176" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS176" t="n">
         <v>2</v>
       </c>
       <c r="AT176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU176" t="n">
         <v>5.02791791960905</v>
@@ -36066,19 +36098,19 @@
         <v>4.34</v>
       </c>
       <c r="AP177" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ177" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR177" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS177" t="n">
         <v>2</v>
       </c>
       <c r="AT177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU177" t="n">
         <v>8.32889509087664</v>
@@ -36328,19 +36360,19 @@
         <v>4.34</v>
       </c>
       <c r="AP178" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ178" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR178" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS178" t="n">
         <v>2</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU178" t="n">
         <v>6.8178325763492</v>
@@ -36578,19 +36610,19 @@
         <v>4.34</v>
       </c>
       <c r="AP179" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ179" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR179" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS179" t="n">
         <v>2</v>
       </c>
       <c r="AT179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU179" t="n">
         <v>6.76225</v>
@@ -36822,19 +36854,19 @@
         <v>4.34</v>
       </c>
       <c r="AP180" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ180" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR180" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS180" t="n">
         <v>2</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU180" t="n">
         <v>19.9229671604103</v>
@@ -37072,19 +37104,19 @@
         <v>4.34</v>
       </c>
       <c r="AP181" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ181" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR181" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS181" t="n">
         <v>2</v>
       </c>
       <c r="AT181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU181" t="n">
         <v>13.3399793819018</v>
@@ -37322,19 +37354,19 @@
         <v>4.34</v>
       </c>
       <c r="AP182" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ182" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR182" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS182" t="n">
         <v>2</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU182" t="n">
         <v>7.43109671677929</v>
@@ -37586,19 +37618,19 @@
         <v>4.34</v>
       </c>
       <c r="AP183" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ183" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR183" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS183" t="n">
         <v>2</v>
       </c>
       <c r="AT183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU183" t="n">
         <v>10.6565721793744</v>
@@ -37836,19 +37868,19 @@
         <v>4.34</v>
       </c>
       <c r="AP184" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ184" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR184" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS184" t="n">
         <v>2</v>
       </c>
       <c r="AT184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU184" t="n">
         <v>15.6839951257736</v>
@@ -38086,19 +38118,19 @@
         <v>4.34</v>
       </c>
       <c r="AP185" t="n">
-        <v>11045.5</v>
+        <v>10178</v>
       </c>
       <c r="AQ185" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR185" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="AS185" t="n">
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU185" t="n">
         <v>10.1441567377626</v>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="796">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t xml:space="preserve">Calicotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drought-semideciduous</t>
   </si>
   <si>
     <t xml:space="preserve">Calluna vulgaris</t>
@@ -3673,7 +3676,9 @@
       <c r="K4" t="s">
         <v>119</v>
       </c>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
       <c r="M4" t="n">
         <v>1280</v>
       </c>
@@ -5245,7 +5250,9 @@
       <c r="K11" t="s">
         <v>119</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
@@ -5415,7 +5422,9 @@
       <c r="K12" t="s">
         <v>135</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
       <c r="M12" t="n">
         <v>1175</v>
       </c>
@@ -5575,7 +5584,9 @@
       <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
       <c r="M13" t="n">
         <v>1550</v>
       </c>
@@ -5775,7 +5786,9 @@
       <c r="K14" t="s">
         <v>135</v>
       </c>
-      <c r="L14"/>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
       <c r="M14" t="n">
         <v>170</v>
       </c>
@@ -5971,7 +5984,9 @@
       <c r="K15" t="s">
         <v>135</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
       <c r="M15" t="n">
         <v>80</v>
       </c>
@@ -6119,7 +6134,9 @@
       <c r="K16" t="s">
         <v>139</v>
       </c>
-      <c r="L16"/>
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
       <c r="M16" t="n">
         <v>50</v>
       </c>
@@ -6301,7 +6318,9 @@
       <c r="K17" t="s">
         <v>119</v>
       </c>
-      <c r="L17"/>
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
       <c r="M17" t="n">
         <v>20</v>
       </c>
@@ -6443,7 +6462,9 @@
       <c r="K18" t="s">
         <v>135</v>
       </c>
-      <c r="L18"/>
+      <c r="L18" t="s">
+        <v>120</v>
+      </c>
       <c r="M18" t="n">
         <v>920</v>
       </c>
@@ -6593,7 +6614,9 @@
       <c r="K19" t="s">
         <v>139</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>120</v>
+      </c>
       <c r="M19" t="n">
         <v>790</v>
       </c>
@@ -6785,7 +6808,9 @@
       <c r="K20" t="s">
         <v>139</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
       <c r="M20" t="n">
         <v>540</v>
       </c>
@@ -6983,7 +7008,9 @@
       <c r="K21" t="s">
         <v>119</v>
       </c>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
       <c r="M21" t="n">
         <v>10</v>
       </c>
@@ -7171,7 +7198,9 @@
       <c r="K22" t="s">
         <v>119</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>136</v>
+      </c>
       <c r="M22" t="n">
         <v>30</v>
       </c>
@@ -7375,7 +7404,9 @@
       <c r="K23" t="s">
         <v>119</v>
       </c>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>120</v>
+      </c>
       <c r="M23" t="n">
         <v>50</v>
       </c>
@@ -7547,7 +7578,9 @@
       <c r="K24" t="s">
         <v>139</v>
       </c>
-      <c r="L24"/>
+      <c r="L24" t="s">
+        <v>136</v>
+      </c>
       <c r="M24" t="n">
         <v>30</v>
       </c>
@@ -7725,7 +7758,9 @@
       <c r="K25" t="s">
         <v>119</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
@@ -7911,7 +7946,9 @@
       <c r="K26" t="s">
         <v>139</v>
       </c>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>136</v>
+      </c>
       <c r="M26" t="n">
         <v>80</v>
       </c>
@@ -8325,7 +8362,9 @@
       <c r="K28" t="s">
         <v>139</v>
       </c>
-      <c r="L28"/>
+      <c r="L28" t="s">
+        <v>120</v>
+      </c>
       <c r="M28" t="n">
         <v>40</v>
       </c>
@@ -8499,7 +8538,9 @@
       <c r="K29" t="s">
         <v>119</v>
       </c>
-      <c r="L29"/>
+      <c r="L29" t="s">
+        <v>120</v>
+      </c>
       <c r="M29" t="n">
         <v>200</v>
       </c>
@@ -8691,7 +8732,9 @@
       <c r="K30" t="s">
         <v>119</v>
       </c>
-      <c r="L30"/>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
       <c r="M30" t="n">
         <v>120</v>
       </c>
@@ -8831,16 +8874,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" t="n">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
         <v>190</v>
@@ -8863,7 +8906,9 @@
       <c r="K31" t="s">
         <v>119</v>
       </c>
-      <c r="L31"/>
+      <c r="L31" t="s">
+        <v>120</v>
+      </c>
       <c r="M31" t="n">
         <v>40</v>
       </c>
@@ -9019,16 +9064,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C32" t="n">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
         <v>160</v>
@@ -9051,7 +9096,9 @@
       <c r="K32" t="s">
         <v>135</v>
       </c>
-      <c r="L32"/>
+      <c r="L32" t="s">
+        <v>136</v>
+      </c>
       <c r="M32" t="n">
         <v>875</v>
       </c>
@@ -9193,22 +9240,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" t="n">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
         <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
         <v>128</v>
@@ -9225,7 +9272,9 @@
       <c r="K33" t="s">
         <v>135</v>
       </c>
-      <c r="L33"/>
+      <c r="L33" t="s">
+        <v>136</v>
+      </c>
       <c r="M33" t="n">
         <v>1290</v>
       </c>
@@ -9383,16 +9432,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C34" t="n">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E34" t="s">
         <v>113</v>
@@ -9415,7 +9464,9 @@
       <c r="K34" t="s">
         <v>119</v>
       </c>
-      <c r="L34"/>
+      <c r="L34" t="s">
+        <v>120</v>
+      </c>
       <c r="M34" t="n">
         <v>1450</v>
       </c>
@@ -9555,16 +9606,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C35" t="n">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E35" t="s">
         <v>113</v>
@@ -9587,7 +9638,9 @@
       <c r="K35" t="s">
         <v>119</v>
       </c>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>120</v>
+      </c>
       <c r="M35" t="n">
         <v>1640</v>
       </c>
@@ -9727,16 +9780,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C36" t="n">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
         <v>113</v>
@@ -9759,7 +9812,9 @@
       <c r="K36" t="s">
         <v>119</v>
       </c>
-      <c r="L36"/>
+      <c r="L36" t="s">
+        <v>120</v>
+      </c>
       <c r="M36" t="n">
         <v>1250</v>
       </c>
@@ -9897,22 +9952,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C37" t="n">
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
         <v>165</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G37" t="s">
         <v>128</v>
@@ -9929,7 +9984,9 @@
       <c r="K37" t="s">
         <v>135</v>
       </c>
-      <c r="L37"/>
+      <c r="L37" t="s">
+        <v>136</v>
+      </c>
       <c r="M37" t="n">
         <v>750</v>
       </c>
@@ -10079,16 +10136,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C38" t="n">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E38" t="s">
         <v>126</v>
@@ -10111,7 +10168,9 @@
       <c r="K38" t="s">
         <v>135</v>
       </c>
-      <c r="L38"/>
+      <c r="L38" t="s">
+        <v>120</v>
+      </c>
       <c r="M38" t="n">
         <v>510</v>
       </c>
@@ -10263,22 +10322,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C39" t="n">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E39" t="s">
         <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G39" t="s">
         <v>115</v>
@@ -10290,12 +10349,14 @@
         <v>117</v>
       </c>
       <c r="J39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s">
         <v>119</v>
       </c>
-      <c r="L39"/>
+      <c r="L39" t="s">
+        <v>120</v>
+      </c>
       <c r="M39" t="n">
         <v>1500</v>
       </c>
@@ -10427,16 +10488,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C40" t="n">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
         <v>126</v>
@@ -10459,7 +10520,9 @@
       <c r="K40" t="s">
         <v>139</v>
       </c>
-      <c r="L40"/>
+      <c r="L40" t="s">
+        <v>120</v>
+      </c>
       <c r="M40" t="n">
         <v>200</v>
       </c>
@@ -10595,22 +10658,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C41" t="n">
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G41" t="s">
         <v>128</v>
@@ -10627,7 +10690,9 @@
       <c r="K41" t="s">
         <v>135</v>
       </c>
-      <c r="L41"/>
+      <c r="L41" t="s">
+        <v>120</v>
+      </c>
       <c r="M41" t="n">
         <v>80</v>
       </c>
@@ -10767,16 +10832,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C42" t="n">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E42" t="s">
         <v>126</v>
@@ -10799,7 +10864,9 @@
       <c r="K42" t="s">
         <v>119</v>
       </c>
-      <c r="L42"/>
+      <c r="L42" t="s">
+        <v>120</v>
+      </c>
       <c r="M42" t="n">
         <v>50</v>
       </c>
@@ -10933,22 +11000,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C43" t="n">
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G43" t="s">
         <v>128</v>
@@ -10965,7 +11032,9 @@
       <c r="K43" t="s">
         <v>139</v>
       </c>
-      <c r="L43"/>
+      <c r="L43" t="s">
+        <v>120</v>
+      </c>
       <c r="M43" t="n">
         <v>60</v>
       </c>
@@ -11133,22 +11202,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C44" t="n">
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G44" t="s">
         <v>128</v>
@@ -11165,7 +11234,9 @@
       <c r="K44" t="s">
         <v>119</v>
       </c>
-      <c r="L44"/>
+      <c r="L44" t="s">
+        <v>120</v>
+      </c>
       <c r="M44" t="n">
         <v>50</v>
       </c>
@@ -11333,22 +11404,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C45" t="n">
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G45" t="s">
         <v>128</v>
@@ -11365,7 +11436,9 @@
       <c r="K45" t="s">
         <v>139</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" t="s">
+        <v>120</v>
+      </c>
       <c r="M45" t="n">
         <v>72</v>
       </c>
@@ -11527,22 +11600,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C46" t="n">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G46" t="s">
         <v>128</v>
@@ -11559,7 +11632,9 @@
       <c r="K46" t="s">
         <v>139</v>
       </c>
-      <c r="L46"/>
+      <c r="L46" t="s">
+        <v>120</v>
+      </c>
       <c r="M46" t="n">
         <v>30</v>
       </c>
@@ -11727,22 +11802,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C47" t="n">
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G47" t="s">
         <v>128</v>
@@ -11759,7 +11834,9 @@
       <c r="K47" t="s">
         <v>139</v>
       </c>
-      <c r="L47"/>
+      <c r="L47" t="s">
+        <v>120</v>
+      </c>
       <c r="M47" t="n">
         <v>150</v>
       </c>
@@ -11927,22 +12004,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C48" t="n">
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G48" t="s">
         <v>128</v>
@@ -11959,7 +12036,9 @@
       <c r="K48" t="s">
         <v>139</v>
       </c>
-      <c r="L48"/>
+      <c r="L48" t="s">
+        <v>120</v>
+      </c>
       <c r="M48" t="n">
         <v>100</v>
       </c>
@@ -12127,22 +12206,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" t="n">
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G49" t="s">
         <v>128</v>
@@ -12159,7 +12238,9 @@
       <c r="K49" t="s">
         <v>119</v>
       </c>
-      <c r="L49"/>
+      <c r="L49" t="s">
+        <v>120</v>
+      </c>
       <c r="M49" t="n">
         <v>80</v>
       </c>
@@ -12327,22 +12408,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C50" t="n">
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G50" t="s">
         <v>128</v>
@@ -12359,7 +12440,9 @@
       <c r="K50" t="s">
         <v>139</v>
       </c>
-      <c r="L50"/>
+      <c r="L50" t="s">
+        <v>120</v>
+      </c>
       <c r="M50" t="n">
         <v>80</v>
       </c>
@@ -12527,22 +12610,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C51" t="n">
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G51" t="s">
         <v>128</v>
@@ -12559,7 +12642,9 @@
       <c r="K51" t="s">
         <v>139</v>
       </c>
-      <c r="L51"/>
+      <c r="L51" t="s">
+        <v>120</v>
+      </c>
       <c r="M51" t="n">
         <v>50</v>
       </c>
@@ -12721,22 +12806,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C52" t="n">
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G52" t="s">
         <v>128</v>
@@ -12753,7 +12838,9 @@
       <c r="K52" t="s">
         <v>139</v>
       </c>
-      <c r="L52"/>
+      <c r="L52" t="s">
+        <v>120</v>
+      </c>
       <c r="M52" t="n">
         <v>40</v>
       </c>
@@ -12921,22 +13008,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C53" t="n">
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E53" t="s">
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G53" t="s">
         <v>128</v>
@@ -12953,7 +13040,9 @@
       <c r="K53" t="s">
         <v>135</v>
       </c>
-      <c r="L53"/>
+      <c r="L53" t="s">
+        <v>120</v>
+      </c>
       <c r="M53" t="n">
         <v>150</v>
       </c>
@@ -13083,16 +13172,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C54" t="n">
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E54" t="s">
         <v>126</v>
@@ -13115,7 +13204,9 @@
       <c r="K54" t="s">
         <v>139</v>
       </c>
-      <c r="L54"/>
+      <c r="L54" t="s">
+        <v>136</v>
+      </c>
       <c r="M54" t="n">
         <v>80</v>
       </c>
@@ -13253,22 +13344,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C55" t="n">
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G55" t="s">
         <v>128</v>
@@ -13285,7 +13376,9 @@
       <c r="K55" t="s">
         <v>139</v>
       </c>
-      <c r="L55"/>
+      <c r="L55" t="s">
+        <v>136</v>
+      </c>
       <c r="M55" t="n">
         <v>100</v>
       </c>
@@ -13429,22 +13522,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C56" t="n">
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E56" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F56" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G56" t="s">
         <v>128</v>
@@ -13461,7 +13554,9 @@
       <c r="K56" t="s">
         <v>135</v>
       </c>
-      <c r="L56"/>
+      <c r="L56" t="s">
+        <v>136</v>
+      </c>
       <c r="M56" t="n">
         <v>150</v>
       </c>
@@ -13633,16 +13728,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C57" t="n">
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E57" t="s">
         <v>126</v>
@@ -13665,7 +13760,9 @@
       <c r="K57" t="s">
         <v>119</v>
       </c>
-      <c r="L57"/>
+      <c r="L57" t="s">
+        <v>120</v>
+      </c>
       <c r="M57" t="n">
         <v>40</v>
       </c>
@@ -13807,16 +13904,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C58" t="n">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E58" t="s">
         <v>160</v>
@@ -13991,16 +14088,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C59" t="n">
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
         <v>165</v>
@@ -14023,7 +14120,9 @@
       <c r="K59" t="s">
         <v>119</v>
       </c>
-      <c r="L59"/>
+      <c r="L59" t="s">
+        <v>136</v>
+      </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
@@ -14175,16 +14274,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C60" t="n">
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E60" t="s">
         <v>165</v>
@@ -14207,7 +14306,9 @@
       <c r="K60" t="s">
         <v>139</v>
       </c>
-      <c r="L60"/>
+      <c r="L60" t="s">
+        <v>136</v>
+      </c>
       <c r="M60" t="n">
         <v>580</v>
       </c>
@@ -14355,22 +14456,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C61" t="n">
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E61" t="s">
         <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G61" t="s">
         <v>115</v>
@@ -14382,12 +14483,14 @@
         <v>117</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K61" t="s">
         <v>119</v>
       </c>
-      <c r="L61"/>
+      <c r="L61" t="s">
+        <v>120</v>
+      </c>
       <c r="M61" t="n">
         <v>800</v>
       </c>
@@ -14531,22 +14634,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C62" t="n">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E62" t="s">
         <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G62" t="s">
         <v>115</v>
@@ -14558,12 +14661,14 @@
         <v>117</v>
       </c>
       <c r="J62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K62" t="s">
         <v>119</v>
       </c>
-      <c r="L62"/>
+      <c r="L62" t="s">
+        <v>120</v>
+      </c>
       <c r="M62" t="n">
         <v>625</v>
       </c>
@@ -14707,22 +14812,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C63" t="n">
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E63" t="s">
         <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G63" t="s">
         <v>115</v>
@@ -14739,7 +14844,9 @@
       <c r="K63" t="s">
         <v>119</v>
       </c>
-      <c r="L63"/>
+      <c r="L63" t="s">
+        <v>120</v>
+      </c>
       <c r="M63" t="n">
         <v>1225</v>
       </c>
@@ -14883,22 +14990,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C64" t="n">
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E64" t="s">
         <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G64" t="s">
         <v>115</v>
@@ -14910,12 +15017,14 @@
         <v>117</v>
       </c>
       <c r="J64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K64" t="s">
         <v>119</v>
       </c>
-      <c r="L64"/>
+      <c r="L64" t="s">
+        <v>120</v>
+      </c>
       <c r="M64" t="n">
         <v>850</v>
       </c>
@@ -15059,16 +15168,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C65" t="n">
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E65" t="s">
         <v>126</v>
@@ -15091,7 +15200,9 @@
       <c r="K65" t="s">
         <v>119</v>
       </c>
-      <c r="L65"/>
+      <c r="L65" t="s">
+        <v>136</v>
+      </c>
       <c r="M65" t="n">
         <v>80</v>
       </c>
@@ -15231,16 +15342,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C66" t="n">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E66" t="s">
         <v>126</v>
@@ -15263,7 +15374,9 @@
       <c r="K66" t="s">
         <v>119</v>
       </c>
-      <c r="L66"/>
+      <c r="L66" t="s">
+        <v>136</v>
+      </c>
       <c r="M66" t="n">
         <v>180</v>
       </c>
@@ -15413,16 +15526,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C67" t="n">
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E67" t="s">
         <v>126</v>
@@ -15445,7 +15558,9 @@
       <c r="K67" t="s">
         <v>119</v>
       </c>
-      <c r="L67"/>
+      <c r="L67" t="s">
+        <v>136</v>
+      </c>
       <c r="M67" t="n">
         <v>130</v>
       </c>
@@ -15595,16 +15710,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C68" t="n">
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E68" t="s">
         <v>126</v>
@@ -15627,7 +15742,9 @@
       <c r="K68" t="s">
         <v>119</v>
       </c>
-      <c r="L68"/>
+      <c r="L68" t="s">
+        <v>136</v>
+      </c>
       <c r="M68" t="n">
         <v>72</v>
       </c>
@@ -15777,16 +15894,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C69" t="n">
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E69" t="s">
         <v>126</v>
@@ -15809,7 +15926,9 @@
       <c r="K69" t="s">
         <v>119</v>
       </c>
-      <c r="L69"/>
+      <c r="L69" t="s">
+        <v>136</v>
+      </c>
       <c r="M69" t="n">
         <v>72</v>
       </c>
@@ -15959,16 +16078,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C70" t="n">
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E70" t="s">
         <v>126</v>
@@ -15991,7 +16110,9 @@
       <c r="K70" t="s">
         <v>119</v>
       </c>
-      <c r="L70"/>
+      <c r="L70" t="s">
+        <v>235</v>
+      </c>
       <c r="M70" t="n">
         <v>100</v>
       </c>
@@ -16141,16 +16262,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C71" t="n">
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E71" t="s">
         <v>126</v>
@@ -16173,7 +16294,9 @@
       <c r="K71" t="s">
         <v>119</v>
       </c>
-      <c r="L71"/>
+      <c r="L71" t="s">
+        <v>235</v>
+      </c>
       <c r="M71" t="n">
         <v>60</v>
       </c>
@@ -16329,16 +16452,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E72" t="s">
         <v>126</v>
@@ -16361,7 +16484,9 @@
       <c r="K72" t="s">
         <v>119</v>
       </c>
-      <c r="L72"/>
+      <c r="L72" t="s">
+        <v>120</v>
+      </c>
       <c r="M72" t="n">
         <v>110</v>
       </c>
@@ -16517,16 +16642,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C73" t="n">
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E73" t="s">
         <v>126</v>
@@ -16549,7 +16674,9 @@
       <c r="K73" t="s">
         <v>119</v>
       </c>
-      <c r="L73"/>
+      <c r="L73" t="s">
+        <v>120</v>
+      </c>
       <c r="M73" t="n">
         <v>170</v>
       </c>
@@ -16705,16 +16832,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B74" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C74" t="n">
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E74" t="s">
         <v>126</v>
@@ -16737,7 +16864,9 @@
       <c r="K74" t="s">
         <v>119</v>
       </c>
-      <c r="L74"/>
+      <c r="L74" t="s">
+        <v>136</v>
+      </c>
       <c r="M74" t="n">
         <v>130</v>
       </c>
@@ -16893,16 +17022,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C75" t="n">
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E75" t="s">
         <v>190</v>
@@ -16925,7 +17054,9 @@
       <c r="K75" t="s">
         <v>119</v>
       </c>
-      <c r="L75"/>
+      <c r="L75" t="s">
+        <v>120</v>
+      </c>
       <c r="M75" t="n">
         <v>30</v>
       </c>
@@ -17043,22 +17174,22 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C76" t="n">
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G76" t="s">
         <v>128</v>
@@ -17075,7 +17206,9 @@
       <c r="K76" t="s">
         <v>139</v>
       </c>
-      <c r="L76"/>
+      <c r="L76" t="s">
+        <v>120</v>
+      </c>
       <c r="M76" t="n">
         <v>50</v>
       </c>
@@ -17235,16 +17368,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C77" t="n">
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E77" t="s">
         <v>126</v>
@@ -17267,7 +17400,9 @@
       <c r="K77" t="s">
         <v>119</v>
       </c>
-      <c r="L77"/>
+      <c r="L77" t="s">
+        <v>136</v>
+      </c>
       <c r="M77" t="n">
         <v>30</v>
       </c>
@@ -17417,16 +17552,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C78" t="n">
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E78" t="s">
         <v>180</v>
@@ -17449,7 +17584,9 @@
       <c r="K78" t="s">
         <v>135</v>
       </c>
-      <c r="L78"/>
+      <c r="L78" t="s">
+        <v>136</v>
+      </c>
       <c r="M78" t="n">
         <v>971</v>
       </c>
@@ -17565,22 +17702,22 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C79" t="n">
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G79" t="s">
         <v>128</v>
@@ -17597,7 +17734,9 @@
       <c r="K79" t="s">
         <v>139</v>
       </c>
-      <c r="L79"/>
+      <c r="L79" t="s">
+        <v>136</v>
+      </c>
       <c r="M79" t="n">
         <v>50</v>
       </c>
@@ -17721,22 +17860,22 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C80" t="n">
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G80" t="s">
         <v>115</v>
@@ -17748,12 +17887,14 @@
         <v>152</v>
       </c>
       <c r="J80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K80" t="s">
         <v>139</v>
       </c>
-      <c r="L80"/>
+      <c r="L80" t="s">
+        <v>120</v>
+      </c>
       <c r="M80" t="n">
         <v>60</v>
       </c>
@@ -17891,16 +18032,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C81" t="n">
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E81" t="s">
         <v>190</v>
@@ -17923,7 +18064,9 @@
       <c r="K81" t="s">
         <v>119</v>
       </c>
-      <c r="L81"/>
+      <c r="L81" t="s">
+        <v>120</v>
+      </c>
       <c r="M81" t="n">
         <v>100</v>
       </c>
@@ -18089,16 +18232,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C82" t="n">
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E82" t="s">
         <v>190</v>
@@ -18121,7 +18264,9 @@
       <c r="K82" t="s">
         <v>119</v>
       </c>
-      <c r="L82"/>
+      <c r="L82" t="s">
+        <v>120</v>
+      </c>
       <c r="M82" t="n">
         <v>100</v>
       </c>
@@ -18283,16 +18428,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C83" t="n">
         <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E83" t="s">
         <v>190</v>
@@ -18315,7 +18460,9 @@
       <c r="K83" t="s">
         <v>119</v>
       </c>
-      <c r="L83"/>
+      <c r="L83" t="s">
+        <v>120</v>
+      </c>
       <c r="M83" t="n">
         <v>40</v>
       </c>
@@ -18471,16 +18618,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C84" t="n">
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E84" t="s">
         <v>190</v>
@@ -18503,7 +18650,9 @@
       <c r="K84" t="s">
         <v>119</v>
       </c>
-      <c r="L84"/>
+      <c r="L84" t="s">
+        <v>120</v>
+      </c>
       <c r="M84" t="n">
         <v>30</v>
       </c>
@@ -18665,16 +18814,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C85" t="n">
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E85" t="s">
         <v>190</v>
@@ -18697,7 +18846,9 @@
       <c r="K85" t="s">
         <v>119</v>
       </c>
-      <c r="L85"/>
+      <c r="L85" t="s">
+        <v>120</v>
+      </c>
       <c r="M85" t="n">
         <v>70</v>
       </c>
@@ -18853,16 +19004,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B86" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C86" t="n">
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -18880,12 +19031,14 @@
         <v>117</v>
       </c>
       <c r="J86" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K86" t="s">
         <v>139</v>
       </c>
-      <c r="L86"/>
+      <c r="L86" t="s">
+        <v>120</v>
+      </c>
       <c r="M86" t="n">
         <v>90</v>
       </c>
@@ -19047,16 +19200,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B87" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C87" t="n">
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E87" t="s">
         <v>190</v>
@@ -19079,7 +19232,9 @@
       <c r="K87" t="s">
         <v>119</v>
       </c>
-      <c r="L87"/>
+      <c r="L87" t="s">
+        <v>120</v>
+      </c>
       <c r="M87" t="n">
         <v>130</v>
       </c>
@@ -19245,16 +19400,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B88" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C88" t="n">
         <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E88" t="s">
         <v>190</v>
@@ -19277,7 +19432,9 @@
       <c r="K88" t="s">
         <v>119</v>
       </c>
-      <c r="L88"/>
+      <c r="L88" t="s">
+        <v>120</v>
+      </c>
       <c r="M88" t="n">
         <v>20</v>
       </c>
@@ -19433,16 +19590,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C89" t="n">
         <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E89" t="s">
         <v>190</v>
@@ -19465,7 +19622,9 @@
       <c r="K89" t="s">
         <v>119</v>
       </c>
-      <c r="L89"/>
+      <c r="L89" t="s">
+        <v>120</v>
+      </c>
       <c r="M89" t="n">
         <v>50</v>
       </c>
@@ -19621,16 +19780,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B90" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C90" t="n">
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E90" t="s">
         <v>190</v>
@@ -19653,7 +19812,9 @@
       <c r="K90" t="s">
         <v>119</v>
       </c>
-      <c r="L90"/>
+      <c r="L90" t="s">
+        <v>120</v>
+      </c>
       <c r="M90" t="n">
         <v>30</v>
       </c>
@@ -19815,16 +19976,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C91" t="n">
         <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E91" t="s">
         <v>126</v>
@@ -19847,7 +20008,9 @@
       <c r="K91" t="s">
         <v>119</v>
       </c>
-      <c r="L91"/>
+      <c r="L91" t="s">
+        <v>136</v>
+      </c>
       <c r="M91" t="n">
         <v>20</v>
       </c>
@@ -19983,22 +20146,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B92" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C92" t="n">
         <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E92" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F92" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G92" t="s">
         <v>128</v>
@@ -20015,7 +20178,9 @@
       <c r="K92" t="s">
         <v>135</v>
       </c>
-      <c r="L92"/>
+      <c r="L92" t="s">
+        <v>120</v>
+      </c>
       <c r="M92" t="n">
         <v>1940</v>
       </c>
@@ -20203,22 +20368,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C93" t="n">
         <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E93" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F93" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G93" t="s">
         <v>128</v>
@@ -20235,7 +20400,9 @@
       <c r="K93" t="s">
         <v>135</v>
       </c>
-      <c r="L93"/>
+      <c r="L93" t="s">
+        <v>136</v>
+      </c>
       <c r="M93" t="n">
         <v>150</v>
       </c>
@@ -20375,22 +20542,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B94" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C94" t="n">
         <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E94" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F94" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G94" t="s">
         <v>128</v>
@@ -20407,7 +20574,9 @@
       <c r="K94" t="s">
         <v>119</v>
       </c>
-      <c r="L94"/>
+      <c r="L94" t="s">
+        <v>120</v>
+      </c>
       <c r="M94" t="n">
         <v>30</v>
       </c>
@@ -20551,22 +20720,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B95" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C95" t="n">
         <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E95" t="s">
         <v>160</v>
       </c>
       <c r="F95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G95" t="s">
         <v>128</v>
@@ -20793,22 +20962,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C96" t="n">
         <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E96" t="s">
         <v>165</v>
       </c>
       <c r="F96" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G96" t="s">
         <v>128</v>
@@ -20825,7 +20994,9 @@
       <c r="K96" t="s">
         <v>135</v>
       </c>
-      <c r="L96"/>
+      <c r="L96" t="s">
+        <v>136</v>
+      </c>
       <c r="M96" t="n">
         <v>510</v>
       </c>
@@ -20979,22 +21150,22 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B97" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C97" t="n">
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E97" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F97" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G97" t="s">
         <v>128</v>
@@ -21011,7 +21182,9 @@
       <c r="K97" t="s">
         <v>139</v>
       </c>
-      <c r="L97"/>
+      <c r="L97" t="s">
+        <v>136</v>
+      </c>
       <c r="M97" t="n">
         <v>160</v>
       </c>
@@ -21129,22 +21302,22 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C98" t="n">
         <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E98" t="s">
         <v>165</v>
       </c>
       <c r="F98" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G98" t="s">
         <v>128</v>
@@ -21161,7 +21334,9 @@
       <c r="K98" t="s">
         <v>139</v>
       </c>
-      <c r="L98"/>
+      <c r="L98" t="s">
+        <v>136</v>
+      </c>
       <c r="M98" t="n">
         <v>150</v>
       </c>
@@ -21301,22 +21476,22 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B99" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C99" t="n">
         <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E99" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F99" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G99" t="s">
         <v>128</v>
@@ -21511,16 +21686,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B100" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C100" t="n">
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E100" t="s">
         <v>126</v>
@@ -21543,7 +21718,9 @@
       <c r="K100" t="s">
         <v>119</v>
       </c>
-      <c r="L100"/>
+      <c r="L100" t="s">
+        <v>136</v>
+      </c>
       <c r="M100" t="n">
         <v>72</v>
       </c>
@@ -21689,16 +21866,16 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B101" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C101" t="n">
         <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E101" t="s">
         <v>126</v>
@@ -21721,7 +21898,9 @@
       <c r="K101" t="s">
         <v>119</v>
       </c>
-      <c r="L101"/>
+      <c r="L101" t="s">
+        <v>136</v>
+      </c>
       <c r="M101" t="n">
         <v>80</v>
       </c>
@@ -21873,16 +22052,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B102" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C102" t="n">
         <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E102" t="s">
         <v>126</v>
@@ -21905,7 +22084,9 @@
       <c r="K102" t="s">
         <v>119</v>
       </c>
-      <c r="L102"/>
+      <c r="L102" t="s">
+        <v>136</v>
+      </c>
       <c r="M102" t="n">
         <v>72</v>
       </c>
@@ -22051,16 +22232,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B103" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C103" t="n">
         <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E103" t="s">
         <v>126</v>
@@ -22083,7 +22264,9 @@
       <c r="K103" t="s">
         <v>119</v>
       </c>
-      <c r="L103"/>
+      <c r="L103" t="s">
+        <v>136</v>
+      </c>
       <c r="M103" t="n">
         <v>85</v>
       </c>
@@ -22229,16 +22412,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B104" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C104" t="n">
         <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E104" t="s">
         <v>126</v>
@@ -22261,7 +22444,9 @@
       <c r="K104" t="s">
         <v>119</v>
       </c>
-      <c r="L104"/>
+      <c r="L104" t="s">
+        <v>136</v>
+      </c>
       <c r="M104" t="n">
         <v>200</v>
       </c>
@@ -22407,16 +22592,16 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B105" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C105" t="n">
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E105" t="s">
         <v>126</v>
@@ -22439,7 +22624,9 @@
       <c r="K105" t="s">
         <v>119</v>
       </c>
-      <c r="L105"/>
+      <c r="L105" t="s">
+        <v>136</v>
+      </c>
       <c r="M105" t="n">
         <v>60</v>
       </c>
@@ -22585,16 +22772,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B106" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C106" t="n">
         <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E106" t="s">
         <v>126</v>
@@ -22617,7 +22804,9 @@
       <c r="K106" t="s">
         <v>119</v>
       </c>
-      <c r="L106"/>
+      <c r="L106" t="s">
+        <v>136</v>
+      </c>
       <c r="M106" t="n">
         <v>20</v>
       </c>
@@ -22763,16 +22952,16 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B107" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C107" t="n">
         <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E107" t="s">
         <v>126</v>
@@ -22795,7 +22984,9 @@
       <c r="K107" t="s">
         <v>119</v>
       </c>
-      <c r="L107"/>
+      <c r="L107" t="s">
+        <v>136</v>
+      </c>
       <c r="M107" t="n">
         <v>30</v>
       </c>
@@ -22941,16 +23132,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B108" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C108" t="n">
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E108" t="s">
         <v>126</v>
@@ -22973,7 +23164,9 @@
       <c r="K108" t="s">
         <v>119</v>
       </c>
-      <c r="L108"/>
+      <c r="L108" t="s">
+        <v>136</v>
+      </c>
       <c r="M108" t="n">
         <v>72</v>
       </c>
@@ -23119,16 +23312,16 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B109" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C109" t="n">
         <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E109" t="s">
         <v>126</v>
@@ -23151,7 +23344,9 @@
       <c r="K109" t="s">
         <v>119</v>
       </c>
-      <c r="L109"/>
+      <c r="L109" t="s">
+        <v>136</v>
+      </c>
       <c r="M109" t="n">
         <v>75</v>
       </c>
@@ -23303,16 +23498,16 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B110" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C110" t="n">
         <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E110" t="s">
         <v>126</v>
@@ -23335,7 +23530,9 @@
       <c r="K110" t="s">
         <v>119</v>
       </c>
-      <c r="L110"/>
+      <c r="L110" t="s">
+        <v>136</v>
+      </c>
       <c r="M110" t="n">
         <v>50</v>
       </c>
@@ -23487,16 +23684,16 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B111" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C111" t="n">
         <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E111" t="s">
         <v>126</v>
@@ -23519,7 +23716,9 @@
       <c r="K111" t="s">
         <v>119</v>
       </c>
-      <c r="L111"/>
+      <c r="L111" t="s">
+        <v>120</v>
+      </c>
       <c r="M111" t="n">
         <v>50</v>
       </c>
@@ -23671,16 +23870,16 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B112" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C112" t="n">
         <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E112" t="s">
         <v>126</v>
@@ -23703,7 +23902,9 @@
       <c r="K112" t="s">
         <v>119</v>
       </c>
-      <c r="L112"/>
+      <c r="L112" t="s">
+        <v>136</v>
+      </c>
       <c r="M112" t="n">
         <v>70</v>
       </c>
@@ -23849,16 +24050,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B113" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C113" t="n">
         <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E113" t="s">
         <v>126</v>
@@ -23881,7 +24082,9 @@
       <c r="K113" t="s">
         <v>119</v>
       </c>
-      <c r="L113"/>
+      <c r="L113" t="s">
+        <v>136</v>
+      </c>
       <c r="M113" t="n">
         <v>50</v>
       </c>
@@ -24033,16 +24236,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B114" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C114" t="n">
         <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E114" t="s">
         <v>126</v>
@@ -24065,7 +24268,9 @@
       <c r="K114" t="s">
         <v>119</v>
       </c>
-      <c r="L114"/>
+      <c r="L114" t="s">
+        <v>120</v>
+      </c>
       <c r="M114" t="n">
         <v>55</v>
       </c>
@@ -24217,16 +24422,16 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B115" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C115" t="n">
         <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E115" t="s">
         <v>126</v>
@@ -24249,7 +24454,9 @@
       <c r="K115" t="s">
         <v>119</v>
       </c>
-      <c r="L115"/>
+      <c r="L115" t="s">
+        <v>136</v>
+      </c>
       <c r="M115" t="n">
         <v>50</v>
       </c>
@@ -24363,16 +24570,16 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C116" t="n">
         <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E116" t="s">
         <v>126</v>
@@ -24395,7 +24602,9 @@
       <c r="K116" t="s">
         <v>119</v>
       </c>
-      <c r="L116"/>
+      <c r="L116" t="s">
+        <v>136</v>
+      </c>
       <c r="M116" t="n">
         <v>1750</v>
       </c>
@@ -24519,22 +24728,22 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B117" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C117" t="n">
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E117" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F117" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G117" t="s">
         <v>128</v>
@@ -24551,7 +24760,9 @@
       <c r="K117" t="s">
         <v>119</v>
       </c>
-      <c r="L117"/>
+      <c r="L117" t="s">
+        <v>120</v>
+      </c>
       <c r="M117" t="n">
         <v>50</v>
       </c>
@@ -24695,22 +24906,22 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B118" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C118" t="n">
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F118" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G118" t="s">
         <v>128</v>
@@ -24727,7 +24938,9 @@
       <c r="K118" t="s">
         <v>119</v>
       </c>
-      <c r="L118"/>
+      <c r="L118" t="s">
+        <v>120</v>
+      </c>
       <c r="M118" t="n">
         <v>30</v>
       </c>
@@ -24869,22 +25082,22 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B119" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C119" t="n">
         <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E119" t="s">
         <v>190</v>
       </c>
       <c r="F119" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G119" t="s">
         <v>128</v>
@@ -24901,7 +25114,9 @@
       <c r="K119" t="s">
         <v>135</v>
       </c>
-      <c r="L119"/>
+      <c r="L119" t="s">
+        <v>120</v>
+      </c>
       <c r="M119" t="n">
         <v>750</v>
       </c>
@@ -25025,22 +25240,22 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B120" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C120" t="n">
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G120" t="s">
         <v>128</v>
@@ -25057,7 +25272,9 @@
       <c r="K120" t="s">
         <v>119</v>
       </c>
-      <c r="L120"/>
+      <c r="L120" t="s">
+        <v>120</v>
+      </c>
       <c r="M120" t="n">
         <v>10</v>
       </c>
@@ -25207,16 +25424,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B121" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C121" t="n">
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E121" t="s">
         <v>200</v>
@@ -25239,7 +25456,9 @@
       <c r="K121" t="s">
         <v>119</v>
       </c>
-      <c r="L121"/>
+      <c r="L121" t="s">
+        <v>120</v>
+      </c>
       <c r="M121" t="n">
         <v>30</v>
       </c>
@@ -25381,22 +25600,22 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B122" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C122" t="n">
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E122" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F122" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G122" t="s">
         <v>128</v>
@@ -25413,7 +25632,9 @@
       <c r="K122" t="s">
         <v>119</v>
       </c>
-      <c r="L122"/>
+      <c r="L122" t="s">
+        <v>120</v>
+      </c>
       <c r="M122" t="n">
         <v>100</v>
       </c>
@@ -25559,22 +25780,22 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B123" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C123" t="n">
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E123" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F123" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -25787,22 +26008,22 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B124" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C124" t="n">
         <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E124" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F124" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G124" t="s">
         <v>128</v>
@@ -25819,7 +26040,9 @@
       <c r="K124" t="s">
         <v>139</v>
       </c>
-      <c r="L124"/>
+      <c r="L124" t="s">
+        <v>120</v>
+      </c>
       <c r="M124" t="n">
         <v>60</v>
       </c>
@@ -25963,22 +26186,22 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B125" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C125" t="n">
         <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E125" t="s">
         <v>160</v>
       </c>
       <c r="F125" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G125" t="s">
         <v>128</v>
@@ -25995,7 +26218,9 @@
       <c r="K125" t="s">
         <v>135</v>
       </c>
-      <c r="L125"/>
+      <c r="L125" t="s">
+        <v>136</v>
+      </c>
       <c r="M125" t="n">
         <v>1150</v>
       </c>
@@ -26145,22 +26370,22 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B126" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C126" t="n">
         <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E126" t="s">
         <v>113</v>
       </c>
       <c r="F126" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G126" t="s">
         <v>115</v>
@@ -26177,7 +26402,9 @@
       <c r="K126" t="s">
         <v>119</v>
       </c>
-      <c r="L126"/>
+      <c r="L126" t="s">
+        <v>120</v>
+      </c>
       <c r="M126" t="n">
         <v>1045</v>
       </c>
@@ -26335,22 +26562,22 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B127" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C127" t="n">
         <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E127" t="s">
         <v>113</v>
       </c>
       <c r="F127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G127" t="s">
         <v>115</v>
@@ -26367,7 +26594,9 @@
       <c r="K127" t="s">
         <v>119</v>
       </c>
-      <c r="L127"/>
+      <c r="L127" t="s">
+        <v>120</v>
+      </c>
       <c r="M127" t="n">
         <v>250</v>
       </c>
@@ -26553,22 +26782,22 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B128" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C128" t="n">
         <v>126</v>
       </c>
       <c r="D128" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E128" t="s">
         <v>113</v>
       </c>
       <c r="F128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G128" t="s">
         <v>115</v>
@@ -26585,7 +26814,9 @@
       <c r="K128" t="s">
         <v>119</v>
       </c>
-      <c r="L128"/>
+      <c r="L128" t="s">
+        <v>120</v>
+      </c>
       <c r="M128" t="n">
         <v>490</v>
       </c>
@@ -26771,22 +27002,22 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B129" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C129" t="n">
         <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E129" t="s">
         <v>113</v>
       </c>
       <c r="F129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G129" t="s">
         <v>115</v>
@@ -26803,7 +27034,9 @@
       <c r="K129" t="s">
         <v>119</v>
       </c>
-      <c r="L129"/>
+      <c r="L129" t="s">
+        <v>120</v>
+      </c>
       <c r="M129" t="n">
         <v>300</v>
       </c>
@@ -26981,22 +27214,22 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B130" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C130" t="n">
         <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E130" t="s">
         <v>113</v>
       </c>
       <c r="F130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G130" t="s">
         <v>115</v>
@@ -27008,12 +27241,14 @@
         <v>117</v>
       </c>
       <c r="J130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K130" t="s">
         <v>119</v>
       </c>
-      <c r="L130"/>
+      <c r="L130" t="s">
+        <v>120</v>
+      </c>
       <c r="M130" t="n">
         <v>550</v>
       </c>
@@ -27185,16 +27420,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B131" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C131" t="n">
         <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E131" t="s">
         <v>200</v>
@@ -27217,7 +27452,9 @@
       <c r="K131" t="s">
         <v>139</v>
       </c>
-      <c r="L131"/>
+      <c r="L131" t="s">
+        <v>136</v>
+      </c>
       <c r="M131" t="n">
         <v>80</v>
       </c>
@@ -27325,16 +27562,16 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B132" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C132" t="n">
         <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E132" t="s">
         <v>113</v>
@@ -27525,16 +27762,16 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B133" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C133" t="n">
         <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E133" t="s">
         <v>185</v>
@@ -27557,7 +27794,9 @@
       <c r="K133" t="s">
         <v>139</v>
       </c>
-      <c r="L133"/>
+      <c r="L133" t="s">
+        <v>120</v>
+      </c>
       <c r="M133" t="n">
         <v>1200</v>
       </c>
@@ -27693,16 +27932,16 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B134" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C134" t="n">
         <v>132</v>
       </c>
       <c r="D134" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E134" t="s">
         <v>185</v>
@@ -27725,7 +27964,9 @@
       <c r="K134" t="s">
         <v>139</v>
       </c>
-      <c r="L134"/>
+      <c r="L134" t="s">
+        <v>120</v>
+      </c>
       <c r="M134" t="n">
         <v>960</v>
       </c>
@@ -27883,22 +28124,22 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B135" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C135" t="n">
         <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E135" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F135" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G135" t="s">
         <v>128</v>
@@ -27915,7 +28156,9 @@
       <c r="K135" t="s">
         <v>119</v>
       </c>
-      <c r="L135"/>
+      <c r="L135" t="s">
+        <v>120</v>
+      </c>
       <c r="M135" t="n">
         <v>40</v>
       </c>
@@ -28063,22 +28306,22 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B136" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C136" t="n">
         <v>134</v>
       </c>
       <c r="D136" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E136" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F136" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G136" t="s">
         <v>128</v>
@@ -28095,7 +28338,9 @@
       <c r="K136" t="s">
         <v>139</v>
       </c>
-      <c r="L136"/>
+      <c r="L136" t="s">
+        <v>136</v>
+      </c>
       <c r="M136" t="n">
         <v>100</v>
       </c>
@@ -28261,22 +28506,22 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B137" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C137" t="n">
         <v>135</v>
       </c>
       <c r="D137" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E137" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F137" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G137" t="s">
         <v>128</v>
@@ -28293,7 +28538,9 @@
       <c r="K137" t="s">
         <v>119</v>
       </c>
-      <c r="L137"/>
+      <c r="L137" t="s">
+        <v>120</v>
+      </c>
       <c r="M137" t="n">
         <v>30</v>
       </c>
@@ -28423,22 +28670,22 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B138" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C138" t="n">
         <v>136</v>
       </c>
       <c r="D138" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E138" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F138" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G138" t="s">
         <v>128</v>
@@ -28455,7 +28702,9 @@
       <c r="K138" t="s">
         <v>139</v>
       </c>
-      <c r="L138"/>
+      <c r="L138" t="s">
+        <v>136</v>
+      </c>
       <c r="M138" t="n">
         <v>100</v>
       </c>
@@ -28617,16 +28866,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B139" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C139" t="n">
         <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E139" t="s">
         <v>165</v>
@@ -28649,7 +28898,9 @@
       <c r="K139" t="s">
         <v>139</v>
       </c>
-      <c r="L139"/>
+      <c r="L139" t="s">
+        <v>136</v>
+      </c>
       <c r="M139" t="n">
         <v>650</v>
       </c>
@@ -28789,22 +29040,22 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B140" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C140" t="n">
         <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E140" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G140" t="s">
         <v>128</v>
@@ -28821,7 +29072,9 @@
       <c r="K140" t="s">
         <v>135</v>
       </c>
-      <c r="L140"/>
+      <c r="L140" t="s">
+        <v>120</v>
+      </c>
       <c r="M140" t="n">
         <v>150</v>
       </c>
@@ -28973,16 +29226,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B141" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C141" t="n">
         <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E141" t="s">
         <v>126</v>
@@ -29005,7 +29258,9 @@
       <c r="K141" t="s">
         <v>139</v>
       </c>
-      <c r="L141"/>
+      <c r="L141" t="s">
+        <v>136</v>
+      </c>
       <c r="M141" t="n">
         <v>100</v>
       </c>
@@ -29155,22 +29410,22 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C142" t="n">
         <v>140</v>
       </c>
       <c r="D142" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E142" t="s">
         <v>165</v>
       </c>
       <c r="F142" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G142" t="s">
         <v>128</v>
@@ -29187,7 +29442,9 @@
       <c r="K142" t="s">
         <v>135</v>
       </c>
-      <c r="L142"/>
+      <c r="L142" t="s">
+        <v>136</v>
+      </c>
       <c r="M142" t="n">
         <v>750</v>
       </c>
@@ -29319,22 +29576,22 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B143" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C143" t="n">
         <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E143" t="s">
         <v>160</v>
       </c>
       <c r="F143" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G143" t="s">
         <v>128</v>
@@ -29351,7 +29608,9 @@
       <c r="K143" t="s">
         <v>139</v>
       </c>
-      <c r="L143"/>
+      <c r="L143" t="s">
+        <v>120</v>
+      </c>
       <c r="M143" t="n">
         <v>900</v>
       </c>
@@ -29485,22 +29744,22 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B144" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C144" t="n">
         <v>142</v>
       </c>
       <c r="D144" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E144" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F144" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G144" t="s">
         <v>128</v>
@@ -29517,7 +29776,9 @@
       <c r="K144" t="s">
         <v>139</v>
       </c>
-      <c r="L144"/>
+      <c r="L144" t="s">
+        <v>120</v>
+      </c>
       <c r="M144" t="n">
         <v>100</v>
       </c>
@@ -29679,22 +29940,22 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B145" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C145" t="n">
         <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E145" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F145" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G145" t="s">
         <v>128</v>
@@ -29711,7 +29972,9 @@
       <c r="K145" t="s">
         <v>135</v>
       </c>
-      <c r="L145"/>
+      <c r="L145" t="s">
+        <v>120</v>
+      </c>
       <c r="M145" t="n">
         <v>200</v>
       </c>
@@ -29857,16 +30120,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B146" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C146" t="n">
         <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E146" t="s">
         <v>185</v>
@@ -29889,7 +30152,9 @@
       <c r="K146" t="s">
         <v>135</v>
       </c>
-      <c r="L146"/>
+      <c r="L146" t="s">
+        <v>120</v>
+      </c>
       <c r="M146" t="n">
         <v>1260</v>
       </c>
@@ -30031,22 +30296,22 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B147" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C147" t="n">
         <v>145</v>
       </c>
       <c r="D147" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E147" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F147" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G147" t="s">
         <v>128</v>
@@ -30063,7 +30328,9 @@
       <c r="K147" t="s">
         <v>139</v>
       </c>
-      <c r="L147"/>
+      <c r="L147" t="s">
+        <v>120</v>
+      </c>
       <c r="M147" t="n">
         <v>550</v>
       </c>
@@ -30245,16 +30512,16 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B148" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C148" t="n">
         <v>146</v>
       </c>
       <c r="D148" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E148" t="s">
         <v>126</v>
@@ -30277,7 +30544,9 @@
       <c r="K148" t="s">
         <v>119</v>
       </c>
-      <c r="L148"/>
+      <c r="L148" t="s">
+        <v>120</v>
+      </c>
       <c r="M148" t="n">
         <v>30</v>
       </c>
@@ -30423,22 +30692,22 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B149" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C149" t="n">
         <v>147</v>
       </c>
       <c r="D149" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E149" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F149" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G149" t="s">
         <v>128</v>
@@ -30455,7 +30724,9 @@
       <c r="K149" t="s">
         <v>119</v>
       </c>
-      <c r="L149"/>
+      <c r="L149" t="s">
+        <v>120</v>
+      </c>
       <c r="M149" t="n">
         <v>60</v>
       </c>
@@ -30591,22 +30862,22 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B150" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C150" t="n">
         <v>148</v>
       </c>
       <c r="D150" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E150" t="s">
         <v>165</v>
       </c>
       <c r="F150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G150" t="s">
         <v>128</v>
@@ -30623,7 +30894,9 @@
       <c r="K150" t="s">
         <v>119</v>
       </c>
-      <c r="L150"/>
+      <c r="L150" t="s">
+        <v>136</v>
+      </c>
       <c r="M150" t="n">
         <v>100</v>
       </c>
@@ -30757,16 +31030,16 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B151" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C151" t="n">
         <v>149</v>
       </c>
       <c r="D151" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E151" t="s">
         <v>185</v>
@@ -30789,7 +31062,9 @@
       <c r="K151" t="s">
         <v>139</v>
       </c>
-      <c r="L151"/>
+      <c r="L151" t="s">
+        <v>120</v>
+      </c>
       <c r="M151" t="n">
         <v>1550</v>
       </c>
@@ -30925,22 +31200,22 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B152" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C152" t="n">
         <v>150</v>
       </c>
       <c r="D152" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E152" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F152" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G152" t="s">
         <v>128</v>
@@ -30957,7 +31232,9 @@
       <c r="K152" t="s">
         <v>139</v>
       </c>
-      <c r="L152"/>
+      <c r="L152" t="s">
+        <v>120</v>
+      </c>
       <c r="M152" t="n">
         <v>100</v>
       </c>
@@ -31125,22 +31402,22 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B153" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C153" t="n">
         <v>151</v>
       </c>
       <c r="D153" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E153" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F153" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G153" t="s">
         <v>128</v>
@@ -31157,7 +31434,9 @@
       <c r="K153" t="s">
         <v>139</v>
       </c>
-      <c r="L153"/>
+      <c r="L153" t="s">
+        <v>120</v>
+      </c>
       <c r="M153" t="n">
         <v>480</v>
       </c>
@@ -31315,22 +31594,22 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B154" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C154" t="n">
         <v>152</v>
       </c>
       <c r="D154" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E154" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F154" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G154" t="s">
         <v>128</v>
@@ -31347,7 +31626,9 @@
       <c r="K154" t="s">
         <v>139</v>
       </c>
-      <c r="L154"/>
+      <c r="L154" t="s">
+        <v>120</v>
+      </c>
       <c r="M154" t="n">
         <v>50</v>
       </c>
@@ -31501,22 +31782,22 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B155" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C155" t="n">
         <v>153</v>
       </c>
       <c r="D155" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G155" t="s">
         <v>128</v>
@@ -31533,7 +31814,9 @@
       <c r="K155" t="s">
         <v>135</v>
       </c>
-      <c r="L155"/>
+      <c r="L155" t="s">
+        <v>120</v>
+      </c>
       <c r="M155" t="n">
         <v>730</v>
       </c>
@@ -31655,22 +31938,22 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B156" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C156" t="n">
         <v>154</v>
       </c>
       <c r="D156" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E156" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G156" t="s">
         <v>128</v>
@@ -31687,7 +31970,9 @@
       <c r="K156" t="s">
         <v>135</v>
       </c>
-      <c r="L156"/>
+      <c r="L156" t="s">
+        <v>120</v>
+      </c>
       <c r="M156" t="n">
         <v>1000</v>
       </c>
@@ -31805,16 +32090,16 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B157" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C157" t="n">
         <v>155</v>
       </c>
       <c r="D157" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E157" t="s">
         <v>113</v>
@@ -32007,16 +32292,16 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B158" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C158" t="n">
         <v>156</v>
       </c>
       <c r="D158" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E158" t="s">
         <v>113</v>
@@ -32039,7 +32324,9 @@
       <c r="K158" t="s">
         <v>139</v>
       </c>
-      <c r="L158"/>
+      <c r="L158" t="s">
+        <v>120</v>
+      </c>
       <c r="M158" t="n">
         <v>1450</v>
       </c>
@@ -32219,16 +32506,16 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B159" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C159" t="n">
         <v>157</v>
       </c>
       <c r="D159" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E159" t="s">
         <v>113</v>
@@ -32251,7 +32538,9 @@
       <c r="K159" t="s">
         <v>119</v>
       </c>
-      <c r="L159"/>
+      <c r="L159" t="s">
+        <v>120</v>
+      </c>
       <c r="M159" t="n">
         <v>900</v>
       </c>
@@ -32439,16 +32728,16 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B160" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C160" t="n">
         <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E160" t="s">
         <v>113</v>
@@ -32471,7 +32760,9 @@
       <c r="K160" t="s">
         <v>119</v>
       </c>
-      <c r="L160"/>
+      <c r="L160" t="s">
+        <v>120</v>
+      </c>
       <c r="M160" t="n">
         <v>1000</v>
       </c>
@@ -32671,16 +32962,16 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B161" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C161" t="n">
         <v>159</v>
       </c>
       <c r="D161" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E161" t="s">
         <v>113</v>
@@ -32703,7 +32994,9 @@
       <c r="K161" t="s">
         <v>139</v>
       </c>
-      <c r="L161"/>
+      <c r="L161" t="s">
+        <v>120</v>
+      </c>
       <c r="M161" t="n">
         <v>1200</v>
       </c>
@@ -32891,16 +33184,16 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B162" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C162" t="n">
         <v>160</v>
       </c>
       <c r="D162" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E162" t="s">
         <v>113</v>
@@ -32923,7 +33216,9 @@
       <c r="K162" t="s">
         <v>119</v>
       </c>
-      <c r="L162"/>
+      <c r="L162" t="s">
+        <v>120</v>
+      </c>
       <c r="M162" t="n">
         <v>900</v>
       </c>
@@ -33111,16 +33406,16 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B163" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C163" t="n">
         <v>161</v>
       </c>
       <c r="D163" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E163" t="s">
         <v>113</v>
@@ -33143,7 +33438,9 @@
       <c r="K163" t="s">
         <v>139</v>
       </c>
-      <c r="L163"/>
+      <c r="L163" t="s">
+        <v>120</v>
+      </c>
       <c r="M163" t="n">
         <v>1950</v>
       </c>
@@ -33331,16 +33628,16 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B164" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C164" t="n">
         <v>162</v>
       </c>
       <c r="D164" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E164" t="s">
         <v>113</v>
@@ -33363,7 +33660,9 @@
       <c r="K164" t="s">
         <v>119</v>
       </c>
-      <c r="L164"/>
+      <c r="L164" t="s">
+        <v>120</v>
+      </c>
       <c r="M164" t="n">
         <v>1150</v>
       </c>
@@ -33563,16 +33862,16 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B165" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C165" t="n">
         <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E165" t="s">
         <v>113</v>
@@ -33595,7 +33894,9 @@
       <c r="K165" t="s">
         <v>139</v>
       </c>
-      <c r="L165"/>
+      <c r="L165" t="s">
+        <v>120</v>
+      </c>
       <c r="M165" t="n">
         <v>1050</v>
       </c>
@@ -33783,22 +34084,22 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B166" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C166" t="n">
         <v>164</v>
       </c>
       <c r="D166" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E166" t="s">
         <v>133</v>
       </c>
       <c r="F166" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G166" t="s">
         <v>128</v>
@@ -33815,7 +34116,9 @@
       <c r="K166" t="s">
         <v>139</v>
       </c>
-      <c r="L166"/>
+      <c r="L166" t="s">
+        <v>136</v>
+      </c>
       <c r="M166" t="n">
         <v>1050</v>
       </c>
@@ -33975,22 +34278,22 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B167" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C167" t="n">
         <v>165</v>
       </c>
       <c r="D167" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E167" t="s">
         <v>133</v>
       </c>
       <c r="F167" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G167" t="s">
         <v>128</v>
@@ -34007,7 +34310,9 @@
       <c r="K167" t="s">
         <v>139</v>
       </c>
-      <c r="L167"/>
+      <c r="L167" t="s">
+        <v>120</v>
+      </c>
       <c r="M167" t="n">
         <v>100</v>
       </c>
@@ -34177,22 +34482,22 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B168" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C168" t="n">
         <v>166</v>
       </c>
       <c r="D168" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E168" t="s">
         <v>133</v>
       </c>
       <c r="F168" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G168" t="s">
         <v>128</v>
@@ -34209,7 +34514,9 @@
       <c r="K168" t="s">
         <v>135</v>
       </c>
-      <c r="L168"/>
+      <c r="L168" t="s">
+        <v>136</v>
+      </c>
       <c r="M168" t="n">
         <v>200</v>
       </c>
@@ -34383,22 +34690,22 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B169" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C169" t="n">
         <v>167</v>
       </c>
       <c r="D169" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E169" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F169" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G169" t="s">
         <v>128</v>
@@ -34415,7 +34722,9 @@
       <c r="K169" t="s">
         <v>135</v>
       </c>
-      <c r="L169"/>
+      <c r="L169" t="s">
+        <v>136</v>
+      </c>
       <c r="M169" t="n">
         <v>2150</v>
       </c>
@@ -34563,22 +34872,22 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B170" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C170" t="n">
         <v>168</v>
       </c>
       <c r="D170" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E170" t="s">
         <v>190</v>
       </c>
       <c r="F170" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G170" t="s">
         <v>128</v>
@@ -34595,7 +34904,9 @@
       <c r="K170" t="s">
         <v>135</v>
       </c>
-      <c r="L170"/>
+      <c r="L170" t="s">
+        <v>120</v>
+      </c>
       <c r="M170" t="n">
         <v>971</v>
       </c>
@@ -34709,22 +35020,22 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B171" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C171" t="n">
         <v>169</v>
       </c>
       <c r="D171" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E171" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F171" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G171" t="s">
         <v>128</v>
@@ -34741,7 +35052,9 @@
       <c r="K171" t="s">
         <v>135</v>
       </c>
-      <c r="L171"/>
+      <c r="L171" t="s">
+        <v>136</v>
+      </c>
       <c r="M171" t="n">
         <v>2000</v>
       </c>
@@ -34911,16 +35224,16 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B172" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C172" t="n">
         <v>170</v>
       </c>
       <c r="D172" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E172" t="s">
         <v>165</v>
@@ -34943,7 +35256,9 @@
       <c r="K172" t="s">
         <v>135</v>
       </c>
-      <c r="L172"/>
+      <c r="L172" t="s">
+        <v>136</v>
+      </c>
       <c r="M172" t="n">
         <v>180</v>
       </c>
@@ -35131,16 +35446,16 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B173" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C173" t="n">
         <v>171</v>
       </c>
       <c r="D173" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E173" t="s">
         <v>113</v>
@@ -35163,7 +35478,9 @@
       <c r="K173" t="s">
         <v>119</v>
       </c>
-      <c r="L173"/>
+      <c r="L173" t="s">
+        <v>120</v>
+      </c>
       <c r="M173" t="n">
         <v>1700</v>
       </c>
@@ -35317,16 +35634,16 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B174" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C174" t="n">
         <v>172</v>
       </c>
       <c r="D174" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E174" t="s">
         <v>165</v>
@@ -35349,7 +35666,9 @@
       <c r="K174" t="s">
         <v>139</v>
       </c>
-      <c r="L174"/>
+      <c r="L174" t="s">
+        <v>136</v>
+      </c>
       <c r="M174" t="n">
         <v>450</v>
       </c>
@@ -35505,22 +35824,22 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B175" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C175" t="n">
         <v>173</v>
       </c>
       <c r="D175" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E175" t="s">
         <v>160</v>
       </c>
       <c r="F175" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G175" t="s">
         <v>128</v>
@@ -35755,22 +36074,22 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B176" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C176" t="n">
         <v>174</v>
       </c>
       <c r="D176" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E176" t="s">
         <v>160</v>
       </c>
       <c r="F176" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G176" t="s">
         <v>128</v>
@@ -35788,7 +36107,7 @@
         <v>139</v>
       </c>
       <c r="L176" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M176" t="n">
         <v>80</v>
@@ -35991,22 +36310,22 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B177" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C177" t="n">
         <v>175</v>
       </c>
       <c r="D177" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E177" t="s">
         <v>160</v>
       </c>
       <c r="F177" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G177" t="s">
         <v>128</v>
@@ -36241,22 +36560,22 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B178" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C178" t="n">
         <v>176</v>
       </c>
       <c r="D178" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E178" t="s">
         <v>160</v>
       </c>
       <c r="F178" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G178" t="s">
         <v>128</v>
@@ -36274,7 +36593,7 @@
         <v>139</v>
       </c>
       <c r="L178" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M178" t="n">
         <v>600</v>
@@ -36503,22 +36822,22 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B179" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C179" t="n">
         <v>177</v>
       </c>
       <c r="D179" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E179" t="s">
         <v>160</v>
       </c>
       <c r="F179" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G179" t="s">
         <v>128</v>
@@ -36747,22 +37066,22 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B180" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C180" t="n">
         <v>178</v>
       </c>
       <c r="D180" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E180" t="s">
         <v>160</v>
       </c>
       <c r="F180" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G180" t="s">
         <v>128</v>
@@ -36997,22 +37316,22 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B181" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C181" t="n">
         <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E181" t="s">
         <v>160</v>
       </c>
       <c r="F181" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G181" t="s">
         <v>128</v>
@@ -37247,22 +37566,22 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B182" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C182" t="n">
         <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E182" t="s">
         <v>160</v>
       </c>
       <c r="F182" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G182" t="s">
         <v>128</v>
@@ -37497,22 +37816,22 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B183" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C183" t="n">
         <v>181</v>
       </c>
       <c r="D183" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E183" t="s">
         <v>160</v>
       </c>
       <c r="F183" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G183" t="s">
         <v>128</v>
@@ -37761,22 +38080,22 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B184" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C184" t="n">
         <v>182</v>
       </c>
       <c r="D184" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E184" t="s">
         <v>160</v>
       </c>
       <c r="F184" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G184" t="s">
         <v>128</v>
@@ -38011,22 +38330,22 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B185" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C185" t="n">
         <v>183</v>
       </c>
       <c r="D185" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E185" t="s">
         <v>160</v>
       </c>
       <c r="F185" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G185" t="s">
         <v>128</v>
@@ -38044,7 +38363,7 @@
         <v>139</v>
       </c>
       <c r="L185" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M185" t="n">
         <v>760</v>
@@ -38261,16 +38580,16 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B186" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C186" t="n">
         <v>184</v>
       </c>
       <c r="D186" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E186" t="s">
         <v>126</v>
@@ -38293,7 +38612,9 @@
       <c r="K186" t="s">
         <v>119</v>
       </c>
-      <c r="L186"/>
+      <c r="L186" t="s">
+        <v>120</v>
+      </c>
       <c r="M186" t="n">
         <v>130</v>
       </c>
@@ -38437,22 +38758,22 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B187" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C187" t="n">
         <v>185</v>
       </c>
       <c r="D187" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E187" t="s">
         <v>165</v>
       </c>
       <c r="F187" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G187" t="s">
         <v>128</v>
@@ -38469,7 +38790,9 @@
       <c r="K187" t="s">
         <v>135</v>
       </c>
-      <c r="L187"/>
+      <c r="L187" t="s">
+        <v>120</v>
+      </c>
       <c r="M187" t="n">
         <v>100</v>
       </c>
@@ -38637,16 +38960,16 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B188" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C188" t="n">
         <v>186</v>
       </c>
       <c r="D188" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E188" t="s">
         <v>190</v>
@@ -38669,7 +38992,9 @@
       <c r="K188" t="s">
         <v>139</v>
       </c>
-      <c r="L188"/>
+      <c r="L188" t="s">
+        <v>120</v>
+      </c>
       <c r="M188" t="n">
         <v>40</v>
       </c>
@@ -38837,22 +39162,22 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B189" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C189" t="n">
         <v>187</v>
       </c>
       <c r="D189" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E189" t="s">
         <v>133</v>
       </c>
       <c r="F189" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G189" t="s">
         <v>128</v>
@@ -38869,7 +39194,9 @@
       <c r="K189" t="s">
         <v>135</v>
       </c>
-      <c r="L189"/>
+      <c r="L189" t="s">
+        <v>120</v>
+      </c>
       <c r="M189" t="n">
         <v>1300</v>
       </c>
@@ -39015,22 +39342,22 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B190" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C190" t="n">
         <v>188</v>
       </c>
       <c r="D190" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E190" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F190" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G190" t="s">
         <v>128</v>
@@ -39047,7 +39374,9 @@
       <c r="K190" t="s">
         <v>139</v>
       </c>
-      <c r="L190"/>
+      <c r="L190" t="s">
+        <v>136</v>
+      </c>
       <c r="M190" t="n">
         <v>70</v>
       </c>
@@ -39207,16 +39536,16 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B191" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C191" t="n">
         <v>189</v>
       </c>
       <c r="D191" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E191" t="s">
         <v>126</v>
@@ -39239,7 +39568,9 @@
       <c r="K191" t="s">
         <v>135</v>
       </c>
-      <c r="L191"/>
+      <c r="L191" t="s">
+        <v>136</v>
+      </c>
       <c r="M191" t="n">
         <v>1600</v>
       </c>
@@ -39393,16 +39724,16 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B192" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C192" t="n">
         <v>190</v>
       </c>
       <c r="D192" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E192" t="s">
         <v>165</v>
@@ -39425,7 +39756,9 @@
       <c r="K192" t="s">
         <v>139</v>
       </c>
-      <c r="L192"/>
+      <c r="L192" t="s">
+        <v>136</v>
+      </c>
       <c r="M192" t="n">
         <v>110</v>
       </c>
@@ -39587,16 +39920,16 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B193" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C193" t="n">
         <v>191</v>
       </c>
       <c r="D193" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E193" t="s">
         <v>165</v>
@@ -39619,7 +39952,9 @@
       <c r="K193" t="s">
         <v>135</v>
       </c>
-      <c r="L193"/>
+      <c r="L193" t="s">
+        <v>136</v>
+      </c>
       <c r="M193" t="n">
         <v>100</v>
       </c>
@@ -39783,22 +40118,22 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C194" t="n">
         <v>192</v>
       </c>
       <c r="D194" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E194" t="s">
         <v>212</v>
       </c>
       <c r="F194" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G194" t="s">
         <v>128</v>
@@ -39815,7 +40150,9 @@
       <c r="K194" t="s">
         <v>139</v>
       </c>
-      <c r="L194"/>
+      <c r="L194" t="s">
+        <v>136</v>
+      </c>
       <c r="M194" t="n">
         <v>125</v>
       </c>
@@ -39973,16 +40310,16 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C195" t="n">
         <v>193</v>
       </c>
       <c r="D195" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E195" t="s">
         <v>180</v>
@@ -40005,7 +40342,9 @@
       <c r="K195" t="s">
         <v>139</v>
       </c>
-      <c r="L195"/>
+      <c r="L195" t="s">
+        <v>120</v>
+      </c>
       <c r="M195" t="n">
         <v>50</v>
       </c>
@@ -40143,22 +40482,22 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B196" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C196" t="n">
         <v>194</v>
       </c>
       <c r="D196" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E196" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F196" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G196" t="s">
         <v>128</v>
@@ -40175,7 +40514,9 @@
       <c r="K196" t="s">
         <v>139</v>
       </c>
-      <c r="L196"/>
+      <c r="L196" t="s">
+        <v>136</v>
+      </c>
       <c r="M196" t="n">
         <v>970</v>
       </c>
@@ -40355,22 +40696,22 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B197" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C197" t="n">
         <v>195</v>
       </c>
       <c r="D197" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E197" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F197" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G197" t="s">
         <v>128</v>
@@ -40387,7 +40728,9 @@
       <c r="K197" t="s">
         <v>139</v>
       </c>
-      <c r="L197"/>
+      <c r="L197" t="s">
+        <v>136</v>
+      </c>
       <c r="M197" t="n">
         <v>70</v>
       </c>
@@ -40553,22 +40896,22 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B198" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C198" t="n">
         <v>196</v>
       </c>
       <c r="D198" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E198" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F198" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G198" t="s">
         <v>128</v>
@@ -40585,7 +40928,9 @@
       <c r="K198" t="s">
         <v>135</v>
       </c>
-      <c r="L198"/>
+      <c r="L198" t="s">
+        <v>136</v>
+      </c>
       <c r="M198" t="n">
         <v>600</v>
       </c>
@@ -40749,16 +41094,16 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B199" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C199" t="n">
         <v>197</v>
       </c>
       <c r="D199" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E199" t="s">
         <v>200</v>
@@ -40781,7 +41126,9 @@
       <c r="K199" t="s">
         <v>119</v>
       </c>
-      <c r="L199"/>
+      <c r="L199" t="s">
+        <v>120</v>
+      </c>
       <c r="M199" t="n">
         <v>30</v>
       </c>
@@ -40919,22 +41266,22 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B200" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C200" t="n">
         <v>198</v>
       </c>
       <c r="D200" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E200" t="s">
         <v>190</v>
       </c>
       <c r="F200" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G200" t="s">
         <v>128</v>
@@ -40951,7 +41298,9 @@
       <c r="K200" t="s">
         <v>135</v>
       </c>
-      <c r="L200"/>
+      <c r="L200" t="s">
+        <v>120</v>
+      </c>
       <c r="M200" t="n">
         <v>971</v>
       </c>
@@ -41077,16 +41426,16 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B201" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C201" t="n">
         <v>199</v>
       </c>
       <c r="D201" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E201" t="s">
         <v>126</v>
@@ -41109,7 +41458,9 @@
       <c r="K201" t="s">
         <v>139</v>
       </c>
-      <c r="L201"/>
+      <c r="L201" t="s">
+        <v>136</v>
+      </c>
       <c r="M201" t="n">
         <v>1300</v>
       </c>
@@ -41237,16 +41588,16 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B202" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C202" t="n">
         <v>200</v>
       </c>
       <c r="D202" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E202" t="s">
         <v>165</v>
@@ -41269,7 +41620,9 @@
       <c r="K202" t="s">
         <v>135</v>
       </c>
-      <c r="L202"/>
+      <c r="L202" t="s">
+        <v>136</v>
+      </c>
       <c r="M202" t="n">
         <v>850</v>
       </c>
@@ -41423,16 +41776,16 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B203" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C203" t="n">
         <v>201</v>
       </c>
       <c r="D203" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E203" t="s">
         <v>126</v>
@@ -41455,7 +41808,9 @@
       <c r="K203" t="s">
         <v>119</v>
       </c>
-      <c r="L203"/>
+      <c r="L203" t="s">
+        <v>120</v>
+      </c>
       <c r="M203" t="n">
         <v>100</v>
       </c>
@@ -41589,16 +41944,16 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B204" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C204" t="n">
         <v>202</v>
       </c>
       <c r="D204" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E204" t="s">
         <v>165</v>
@@ -41621,7 +41976,9 @@
       <c r="K204" t="s">
         <v>139</v>
       </c>
-      <c r="L204"/>
+      <c r="L204" t="s">
+        <v>136</v>
+      </c>
       <c r="M204" t="n">
         <v>50</v>
       </c>
@@ -41763,22 +42120,22 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B205" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C205" t="n">
         <v>203</v>
       </c>
       <c r="D205" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E205" t="s">
         <v>212</v>
       </c>
       <c r="F205" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G205" t="s">
         <v>128</v>
@@ -41795,7 +42152,9 @@
       <c r="K205" t="s">
         <v>119</v>
       </c>
-      <c r="L205"/>
+      <c r="L205" t="s">
+        <v>136</v>
+      </c>
       <c r="M205" t="n">
         <v>730</v>
       </c>
@@ -41935,22 +42294,22 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B206" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C206" t="n">
         <v>204</v>
       </c>
       <c r="D206" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E206" t="s">
         <v>113</v>
       </c>
       <c r="F206" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G206" t="s">
         <v>115</v>
@@ -41967,7 +42326,9 @@
       <c r="K206" t="s">
         <v>119</v>
       </c>
-      <c r="L206"/>
+      <c r="L206" t="s">
+        <v>120</v>
+      </c>
       <c r="M206" t="n">
         <v>750</v>
       </c>
@@ -42111,16 +42472,16 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B207" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C207" t="n">
         <v>205</v>
       </c>
       <c r="D207" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E207" t="s">
         <v>126</v>
@@ -42143,7 +42504,9 @@
       <c r="K207" t="s">
         <v>119</v>
       </c>
-      <c r="L207"/>
+      <c r="L207" t="s">
+        <v>120</v>
+      </c>
       <c r="M207" t="n">
         <v>130</v>
       </c>
@@ -42275,22 +42638,22 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B208" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C208" t="n">
         <v>206</v>
       </c>
       <c r="D208" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E208" t="s">
         <v>113</v>
       </c>
       <c r="F208" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G208" t="s">
         <v>115</v>
@@ -42302,12 +42665,14 @@
         <v>117</v>
       </c>
       <c r="J208" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K208" t="s">
         <v>119</v>
       </c>
-      <c r="L208"/>
+      <c r="L208" t="s">
+        <v>120</v>
+      </c>
       <c r="M208" t="n">
         <v>620</v>
       </c>
@@ -42433,22 +42798,22 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B209" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C209" t="n">
         <v>207</v>
       </c>
       <c r="D209" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E209" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F209" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G209" t="s">
         <v>128</v>
@@ -42465,7 +42830,9 @@
       <c r="K209" t="s">
         <v>119</v>
       </c>
-      <c r="L209"/>
+      <c r="L209" t="s">
+        <v>120</v>
+      </c>
       <c r="M209" t="n">
         <v>20</v>
       </c>
@@ -42613,22 +42980,22 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B210" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C210" t="n">
         <v>208</v>
       </c>
       <c r="D210" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E210" t="s">
         <v>113</v>
       </c>
       <c r="F210" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G210" t="s">
         <v>115</v>
@@ -42645,7 +43012,9 @@
       <c r="K210" t="s">
         <v>119</v>
       </c>
-      <c r="L210"/>
+      <c r="L210" t="s">
+        <v>120</v>
+      </c>
       <c r="M210" t="n">
         <v>850</v>
       </c>
@@ -42801,22 +43170,22 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B211" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C211" t="n">
         <v>209</v>
       </c>
       <c r="D211" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E211" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F211" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G211" t="s">
         <v>128</v>
@@ -42833,7 +43202,9 @@
       <c r="K211" t="s">
         <v>119</v>
       </c>
-      <c r="L211"/>
+      <c r="L211" t="s">
+        <v>120</v>
+      </c>
       <c r="M211" t="n">
         <v>40</v>
       </c>
@@ -42969,22 +43340,22 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B212" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C212" t="n">
         <v>210</v>
       </c>
       <c r="D212" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E212" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F212" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G212" t="s">
         <v>128</v>
@@ -43001,7 +43372,9 @@
       <c r="K212" t="s">
         <v>119</v>
       </c>
-      <c r="L212"/>
+      <c r="L212" t="s">
+        <v>120</v>
+      </c>
       <c r="M212" t="n">
         <v>20</v>
       </c>
@@ -43159,22 +43532,22 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B213" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C213" t="n">
         <v>211</v>
       </c>
       <c r="D213" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E213" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F213" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G213" t="s">
         <v>128</v>
@@ -43191,7 +43564,9 @@
       <c r="K213" t="s">
         <v>135</v>
       </c>
-      <c r="L213"/>
+      <c r="L213" t="s">
+        <v>136</v>
+      </c>
       <c r="M213" t="n">
         <v>1220</v>
       </c>
@@ -43343,16 +43718,16 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B214" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C214" t="n">
         <v>212</v>
       </c>
       <c r="D214" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E214" t="s">
         <v>126</v>
@@ -43375,7 +43750,9 @@
       <c r="K214" t="s">
         <v>119</v>
       </c>
-      <c r="L214"/>
+      <c r="L214" t="s">
+        <v>120</v>
+      </c>
       <c r="M214" t="n">
         <v>80</v>
       </c>
@@ -43527,22 +43904,22 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B215" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C215" t="n">
         <v>213</v>
       </c>
       <c r="D215" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E215" t="s">
         <v>165</v>
       </c>
       <c r="F215" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G215" t="s">
         <v>128</v>
@@ -43559,7 +43936,9 @@
       <c r="K215" t="s">
         <v>135</v>
       </c>
-      <c r="L215"/>
+      <c r="L215" t="s">
+        <v>136</v>
+      </c>
       <c r="M215" t="n">
         <v>1100</v>
       </c>
@@ -43707,16 +44086,16 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B216" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C216" t="n">
         <v>214</v>
       </c>
       <c r="D216" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E216" t="s">
         <v>190</v>
@@ -43739,7 +44118,9 @@
       <c r="K216" t="s">
         <v>139</v>
       </c>
-      <c r="L216"/>
+      <c r="L216" t="s">
+        <v>136</v>
+      </c>
       <c r="M216" t="n">
         <v>20</v>
       </c>
@@ -43897,22 +44278,22 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B217" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C217" t="n">
         <v>215</v>
       </c>
       <c r="D217" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E217" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F217" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G217" t="s">
         <v>128</v>
@@ -43929,7 +44310,9 @@
       <c r="K217" t="s">
         <v>119</v>
       </c>
-      <c r="L217"/>
+      <c r="L217" t="s">
+        <v>136</v>
+      </c>
       <c r="M217" t="n">
         <v>30</v>
       </c>
@@ -44059,22 +44442,22 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B218" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C218" t="n">
         <v>216</v>
       </c>
       <c r="D218" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E218" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F218" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G218" t="s">
         <v>128</v>
@@ -44091,7 +44474,9 @@
       <c r="K218" t="s">
         <v>139</v>
       </c>
-      <c r="L218"/>
+      <c r="L218" t="s">
+        <v>136</v>
+      </c>
       <c r="M218" t="n">
         <v>100</v>
       </c>
@@ -44259,22 +44644,22 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B219" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C219" t="n">
         <v>217</v>
       </c>
       <c r="D219" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E219" t="s">
         <v>190</v>
       </c>
       <c r="F219" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G219" t="s">
         <v>128</v>
@@ -44291,7 +44676,9 @@
       <c r="K219" t="s">
         <v>135</v>
       </c>
-      <c r="L219"/>
+      <c r="L219" t="s">
+        <v>120</v>
+      </c>
       <c r="M219" t="n">
         <v>700</v>
       </c>
@@ -44407,22 +44794,22 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B220" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C220" t="n">
         <v>218</v>
       </c>
       <c r="D220" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E220" t="s">
         <v>165</v>
       </c>
       <c r="F220" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G220" t="s">
         <v>128</v>
@@ -44439,7 +44826,9 @@
       <c r="K220" t="s">
         <v>119</v>
       </c>
-      <c r="L220"/>
+      <c r="L220" t="s">
+        <v>136</v>
+      </c>
       <c r="M220" t="n">
         <v>75</v>
       </c>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3893,7 +3893,7 @@
         <v>0.617699085106406</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.204466579574901</v>
+        <v>0.202972768675046</v>
       </c>
     </row>
     <row r="5">
@@ -4123,7 +4123,7 @@
         <v>0.433806505230387</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0284513368446427</v>
+        <v>0.0259115146393629</v>
       </c>
     </row>
     <row r="6">
@@ -4353,7 +4353,7 @@
         <v>0.386182306975254</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.10636074357709</v>
+        <v>0.0898170298771426</v>
       </c>
     </row>
     <row r="7">
@@ -4583,7 +4583,7 @@
         <v>0.307578750451452</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.423647324292156</v>
+        <v>0.413858813141511</v>
       </c>
     </row>
     <row r="8">
@@ -4813,7 +4813,7 @@
         <v>0.47184184769196</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.122012075817373</v>
+        <v>0.0933775868303732</v>
       </c>
     </row>
     <row r="9">
@@ -5273,7 +5273,7 @@
         <v>0.590394965043777</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0138144464038952</v>
+        <v>0.0124743967825534</v>
       </c>
     </row>
     <row r="11">
@@ -5445,7 +5445,7 @@
         <v>0.331309518822034</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.120120106458784</v>
+        <v>0.0842883657401931</v>
       </c>
     </row>
     <row r="12">
@@ -5607,7 +5607,7 @@
         <v>0.31076548725735</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0579784870682519</v>
+        <v>0.0573073350128521</v>
       </c>
     </row>
     <row r="13">
@@ -5809,7 +5809,7 @@
         <v>0.390503487522601</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.000415306833218122</v>
+        <v>0.00040939397701231</v>
       </c>
     </row>
     <row r="14">
@@ -6007,7 +6007,7 @@
         <v>0.396053339335325</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.491275599562524</v>
+        <v>0.467475900047783</v>
       </c>
     </row>
     <row r="15">
@@ -6157,7 +6157,7 @@
         <v>0.433325481582199</v>
       </c>
       <c r="DF15" t="n">
-        <v>2.24952478767167</v>
+        <v>2.16272100503954</v>
       </c>
     </row>
     <row r="16">
@@ -6501,7 +6501,7 @@
         <v>0.179038372927466</v>
       </c>
       <c r="DF17" t="n">
-        <v>1.16492849564695</v>
+        <v>1.0768441098367</v>
       </c>
     </row>
     <row r="18">
@@ -7187,7 +7187,7 @@
         <v>0.297898068847283</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.321624077893964</v>
+        <v>0.25603194795577</v>
       </c>
     </row>
     <row r="22">
@@ -7377,7 +7377,7 @@
         <v>0.307369381027264</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.709179642765846</v>
+        <v>0.691219491862125</v>
       </c>
     </row>
     <row r="23">
@@ -7583,7 +7583,7 @@
         <v>0.196946802609599</v>
       </c>
       <c r="DF23" t="n">
-        <v>2.72228640084552</v>
+        <v>2.66660943007274</v>
       </c>
     </row>
     <row r="24">
@@ -7757,7 +7757,7 @@
         <v>0.242556379307087</v>
       </c>
       <c r="DF24" t="n">
-        <v>0.534992468681742</v>
+        <v>0.353900001545795</v>
       </c>
     </row>
     <row r="25">
@@ -7937,7 +7937,7 @@
         <v>0.359040188988818</v>
       </c>
       <c r="DF25" t="n">
-        <v>1.01556236568147</v>
+        <v>1.01408532681789</v>
       </c>
     </row>
     <row r="26">
@@ -8125,7 +8125,7 @@
         <v>0.202923539511783</v>
       </c>
       <c r="DF26" t="n">
-        <v>1.93724751508427</v>
+        <v>1.92859431842386</v>
       </c>
     </row>
     <row r="27">
@@ -8313,7 +8313,7 @@
         <v>0.334631195964594</v>
       </c>
       <c r="DF27" t="n">
-        <v>1.11303583617903</v>
+        <v>0.884907913454822</v>
       </c>
     </row>
     <row r="28">
@@ -8541,7 +8541,7 @@
         <v>0.819648625575946</v>
       </c>
       <c r="DF28" t="n">
-        <v>0.0243078551103755</v>
+        <v>0.0243078276132564</v>
       </c>
     </row>
     <row r="29">
@@ -8717,7 +8717,7 @@
         <v>0.235650656199025</v>
       </c>
       <c r="DF29" t="n">
-        <v>0.472462066009333</v>
+        <v>0.425426294492076</v>
       </c>
     </row>
     <row r="30">
@@ -8911,7 +8911,7 @@
         <v>0.379283027711907</v>
       </c>
       <c r="DF30" t="n">
-        <v>0.160264008427327</v>
+        <v>0.136591802614448</v>
       </c>
     </row>
     <row r="31">
@@ -9085,7 +9085,7 @@
         <v>0.259265509202602</v>
       </c>
       <c r="DF31" t="n">
-        <v>0.673671099613219</v>
+        <v>0.593396989470192</v>
       </c>
     </row>
     <row r="32">
@@ -9275,7 +9275,7 @@
         <v>0.389465809599075</v>
       </c>
       <c r="DF32" t="n">
-        <v>0.0686086978401292</v>
+        <v>0.0681905485106011</v>
       </c>
     </row>
     <row r="33">
@@ -9643,7 +9643,7 @@
         <v>0.585910830219089</v>
       </c>
       <c r="DF34" t="n">
-        <v>0.00000324423257700492</v>
+        <v>0.00000313369889907135</v>
       </c>
     </row>
     <row r="35">
@@ -9983,7 +9983,7 @@
         <v>0.388378203988486</v>
       </c>
       <c r="DF36" t="n">
-        <v>2.66060538673781</v>
+        <v>2.37927953073695</v>
       </c>
     </row>
     <row r="37">
@@ -10167,7 +10167,7 @@
         <v>0.261780099380896</v>
       </c>
       <c r="DF37" t="n">
-        <v>0.0774927053176218</v>
+        <v>0.0705474633305855</v>
       </c>
     </row>
     <row r="38">
@@ -10353,7 +10353,7 @@
         <v>0.239269733608423</v>
       </c>
       <c r="DF38" t="n">
-        <v>1.21368530616183</v>
+        <v>1.04404277536418</v>
       </c>
     </row>
     <row r="39">
@@ -10863,7 +10863,7 @@
         <v>0.290351868092503</v>
       </c>
       <c r="DF41" t="n">
-        <v>2.24494057510218</v>
+        <v>1.73049017249886</v>
       </c>
     </row>
     <row r="42">
@@ -11233,7 +11233,7 @@
         <v>0.226192112240943</v>
       </c>
       <c r="DF43" t="n">
-        <v>0.775120851350223</v>
+        <v>0.722538795268883</v>
       </c>
     </row>
     <row r="44">
@@ -11435,7 +11435,7 @@
         <v>0.192096221013802</v>
       </c>
       <c r="DF44" t="n">
-        <v>1.42809390754239</v>
+        <v>1.35780379861902</v>
       </c>
     </row>
     <row r="45">
@@ -11833,7 +11833,7 @@
         <v>0.352071902490665</v>
       </c>
       <c r="DF46" t="n">
-        <v>1.95822168616923</v>
+        <v>1.81490786472878</v>
       </c>
     </row>
     <row r="47">
@@ -12035,7 +12035,7 @@
         <v>0.312655245741407</v>
       </c>
       <c r="DF47" t="n">
-        <v>1.93116854535144</v>
+        <v>1.84800999715729</v>
       </c>
     </row>
     <row r="48">
@@ -12237,7 +12237,7 @@
         <v>0.360833845701912</v>
       </c>
       <c r="DF48" t="n">
-        <v>1.24566286987585</v>
+        <v>1.21179040790974</v>
       </c>
     </row>
     <row r="49">
@@ -12635,7 +12635,7 @@
         <v>0.291387400945258</v>
       </c>
       <c r="DF50" t="n">
-        <v>0.00000116987861382417</v>
+        <v>0.00000113880712903</v>
       </c>
     </row>
     <row r="51">
@@ -13235,7 +13235,7 @@
         <v>0.283598267677611</v>
       </c>
       <c r="DF53" t="n">
-        <v>0.505303509323963</v>
+        <v>0.433778890298381</v>
       </c>
     </row>
     <row r="54">
@@ -13597,7 +13597,7 @@
         <v>0.338835946644463</v>
       </c>
       <c r="DF55" t="n">
-        <v>0.152156669164683</v>
+        <v>0.0975637227836233</v>
       </c>
     </row>
     <row r="56">
@@ -13769,7 +13769,7 @@
         <v>0.320810769000466</v>
       </c>
       <c r="DF56" t="n">
-        <v>0.227707152196065</v>
+        <v>0.210214431373208</v>
       </c>
     </row>
     <row r="57">
@@ -13931,7 +13931,7 @@
         <v>0.487254414817919</v>
       </c>
       <c r="DF57" t="n">
-        <v>4.95246441226273</v>
+        <v>4.69939641998694</v>
       </c>
     </row>
     <row r="58">
@@ -14109,7 +14109,7 @@
         <v>0.354279083444176</v>
       </c>
       <c r="DF58" t="n">
-        <v>0.409535758115242</v>
+        <v>0.292542608807056</v>
       </c>
     </row>
     <row r="59">
@@ -14315,7 +14315,7 @@
         <v>0.391253443157219</v>
       </c>
       <c r="DF59" t="n">
-        <v>0.0352003206549584</v>
+        <v>0.0283485669783674</v>
       </c>
     </row>
     <row r="60">
@@ -14491,7 +14491,7 @@
         <v>0.231983114427747</v>
       </c>
       <c r="DF60" t="n">
-        <v>0.500604672645015</v>
+        <v>0.411631776794125</v>
       </c>
     </row>
     <row r="61">
@@ -14675,7 +14675,7 @@
         <v>0.491066747901667</v>
       </c>
       <c r="DF61" t="n">
-        <v>0.0000907906001729627</v>
+        <v>0.000087566580523235</v>
       </c>
     </row>
     <row r="62">
@@ -15043,7 +15043,7 @@
         <v>0.36718619793743</v>
       </c>
       <c r="DF63" t="n">
-        <v>0.0330915643501228</v>
+        <v>0.0307280140670805</v>
       </c>
     </row>
     <row r="64">
@@ -15221,7 +15221,7 @@
         <v>0.247736190039737</v>
       </c>
       <c r="DF64" t="n">
-        <v>0.0302840388499257</v>
+        <v>0.029808692186745</v>
       </c>
     </row>
     <row r="65">
@@ -15395,7 +15395,7 @@
         <v>0.282678259891049</v>
       </c>
       <c r="DF65" t="n">
-        <v>0.806971743065718</v>
+        <v>0.792550298440409</v>
       </c>
     </row>
     <row r="66">
@@ -16505,7 +16505,7 @@
         <v>0.554863566543644</v>
       </c>
       <c r="DF71" t="n">
-        <v>23.4324198572775</v>
+        <v>19.2439022250984</v>
       </c>
     </row>
     <row r="72">
@@ -17253,7 +17253,7 @@
         <v>0.281607760221891</v>
       </c>
       <c r="DF75" t="n">
-        <v>0.177252282528435</v>
+        <v>0.168480244503458</v>
       </c>
     </row>
     <row r="76">
@@ -17817,7 +17817,7 @@
         <v>0.64168796088017</v>
       </c>
       <c r="DF78" t="n">
-        <v>12.578633693025</v>
+        <v>12.3051537668592</v>
       </c>
     </row>
     <row r="79">
@@ -18163,7 +18163,7 @@
         <v>0.299210816151574</v>
       </c>
       <c r="DF80" t="n">
-        <v>0.213381290915955</v>
+        <v>0.199787374159608</v>
       </c>
     </row>
     <row r="81">
@@ -18495,7 +18495,7 @@
         <v>0.235059601535887</v>
       </c>
       <c r="DF82" t="n">
-        <v>0.61830075061824</v>
+        <v>0.558149160789767</v>
       </c>
     </row>
     <row r="83">
@@ -18975,7 +18975,7 @@
         <v>0.561955873547836</v>
       </c>
       <c r="DF85" t="n">
-        <v>10.5239880496649</v>
+        <v>9.93683143283434</v>
       </c>
     </row>
     <row r="86">
@@ -19175,7 +19175,7 @@
         <v>0.339823281126317</v>
       </c>
       <c r="DF86" t="n">
-        <v>0.104526961017443</v>
+        <v>0.0936925162314627</v>
       </c>
     </row>
     <row r="87">
@@ -20143,7 +20143,7 @@
         <v>0.257086234582607</v>
       </c>
       <c r="DF91" t="n">
-        <v>0.869363875918756</v>
+        <v>0.794397135721368</v>
       </c>
     </row>
     <row r="92">
@@ -20343,7 +20343,7 @@
         <v>0.375187915115427</v>
       </c>
       <c r="DF92" t="n">
-        <v>0.243525483872219</v>
+        <v>0.229613269515226</v>
       </c>
     </row>
     <row r="93">
@@ -20919,7 +20919,7 @@
         <v>0.418833595536286</v>
       </c>
       <c r="DF95" t="n">
-        <v>0.0252192526038161</v>
+        <v>0.025186664007639</v>
       </c>
     </row>
     <row r="96">
@@ -21089,7 +21089,7 @@
         <v>0.328693470119622</v>
       </c>
       <c r="DF96" t="n">
-        <v>0.970413068764409</v>
+        <v>0.945858960002315</v>
       </c>
     </row>
     <row r="97">
@@ -21311,7 +21311,7 @@
         <v>0.276860689733814</v>
       </c>
       <c r="DF97" t="n">
-        <v>0.0183916149015157</v>
+        <v>0.018380737633379</v>
       </c>
     </row>
     <row r="98">
@@ -21485,7 +21485,7 @@
         <v>0.425254323743114</v>
       </c>
       <c r="DF98" t="n">
-        <v>0.0102659922599207</v>
+        <v>0.0102460642469291</v>
       </c>
     </row>
     <row r="99">
@@ -21663,7 +21663,7 @@
         <v>0.274527517845319</v>
       </c>
       <c r="DF99" t="n">
-        <v>0.0222647596069771</v>
+        <v>0.022010794028527</v>
       </c>
     </row>
     <row r="100">
@@ -21905,7 +21905,7 @@
         <v>0.481458131822998</v>
       </c>
       <c r="DF100" t="n">
-        <v>0.0000026228333956119</v>
+        <v>0.0000026203786692153</v>
       </c>
     </row>
     <row r="101">
@@ -22093,7 +22093,7 @@
         <v>0.287272013636854</v>
       </c>
       <c r="DF101" t="n">
-        <v>0.338992946792599</v>
+        <v>0.214560207798638</v>
       </c>
     </row>
     <row r="102">
@@ -22267,7 +22267,7 @@
         <v>0.579863442023865</v>
       </c>
       <c r="DF102" t="n">
-        <v>0.0102748589079637</v>
+        <v>0.00988464233997867</v>
       </c>
     </row>
     <row r="103">
@@ -22477,7 +22477,7 @@
         <v>0.371864789836011</v>
       </c>
       <c r="DF103" t="n">
-        <v>0.0360510458683943</v>
+        <v>0.0298118169657962</v>
       </c>
     </row>
     <row r="104">
@@ -22663,7 +22663,7 @@
         <v>0.276970124284989</v>
       </c>
       <c r="DF104" t="n">
-        <v>0.836587241546642</v>
+        <v>0.733527895496667</v>
       </c>
     </row>
     <row r="105">
@@ -22969,7 +22969,7 @@
         <v>0.640504683244008</v>
       </c>
       <c r="DF106" t="n">
-        <v>0.630364023973168</v>
+        <v>0.599346769253847</v>
       </c>
     </row>
     <row r="107">
@@ -23147,7 +23147,7 @@
         <v>0.210499618048058</v>
       </c>
       <c r="DF107" t="n">
-        <v>1.24895090283684</v>
+        <v>1.15779658162259</v>
       </c>
     </row>
     <row r="108">
@@ -23323,7 +23323,7 @@
         <v>0.214758491256613</v>
       </c>
       <c r="DF108" t="n">
-        <v>0.774175067718534</v>
+        <v>0.752384777924833</v>
       </c>
     </row>
     <row r="109">
@@ -23481,7 +23481,7 @@
         <v>0.671015293863275</v>
       </c>
       <c r="DF109" t="n">
-        <v>0.223466474305906</v>
+        <v>0.226264133973691</v>
       </c>
     </row>
     <row r="110">
@@ -23657,7 +23657,7 @@
         <v>0.399563548294162</v>
       </c>
       <c r="DF110" t="n">
-        <v>0.000000000000000000000000000000116624949110455</v>
+        <v>0.0000000000000000000000000000000931197901923488</v>
       </c>
     </row>
     <row r="111">
@@ -23841,7 +23841,7 @@
         <v>0.236201569143038</v>
       </c>
       <c r="DF111" t="n">
-        <v>0.92745501549808</v>
+        <v>0.892330621356579</v>
       </c>
     </row>
     <row r="112">
@@ -24017,7 +24017,7 @@
         <v>0.215480647323727</v>
       </c>
       <c r="DF112" t="n">
-        <v>1.02833205582897</v>
+        <v>0.996204916952556</v>
       </c>
     </row>
     <row r="113">
@@ -24425,7 +24425,7 @@
         <v>0.50241705843317</v>
       </c>
       <c r="DF114" t="n">
-        <v>0.00000000000000000486628554367535</v>
+        <v>0.00000000000000000474564371121371</v>
       </c>
     </row>
     <row r="115">
@@ -24787,7 +24787,7 @@
         <v>0.332435379209956</v>
       </c>
       <c r="DF116" t="n">
-        <v>0.375258314766908</v>
+        <v>0.375047700180621</v>
       </c>
     </row>
     <row r="117">
@@ -25199,7 +25199,7 @@
         <v>0.393447115790041</v>
       </c>
       <c r="DF118" t="n">
-        <v>0.42426191251597</v>
+        <v>0.353098902822976</v>
       </c>
     </row>
     <row r="119">
@@ -25419,7 +25419,7 @@
         <v>0.236538522323717</v>
       </c>
       <c r="DF119" t="n">
-        <v>0.788014021239284</v>
+        <v>0.72533473464141</v>
       </c>
     </row>
     <row r="120">
@@ -25631,7 +25631,7 @@
         <v>0.257029068762959</v>
       </c>
       <c r="DF120" t="n">
-        <v>0.546002580072076</v>
+        <v>0.501921249916612</v>
       </c>
     </row>
     <row r="121">
@@ -25837,7 +25837,7 @@
         <v>0.321394280074118</v>
       </c>
       <c r="DF121" t="n">
-        <v>1.19143923074436</v>
+        <v>1.13952755865281</v>
       </c>
     </row>
     <row r="122">
@@ -26541,7 +26541,7 @@
         <v>0.522928441499185</v>
       </c>
       <c r="DF125" t="n">
-        <v>0.0084848733077361</v>
+        <v>0.00848121542805317</v>
       </c>
     </row>
     <row r="126">
@@ -26723,7 +26723,7 @@
         <v>0.300014655195464</v>
       </c>
       <c r="DF126" t="n">
-        <v>0.885404918021283</v>
+        <v>0.851299032046989</v>
       </c>
     </row>
     <row r="127">
@@ -26923,7 +26923,7 @@
         <v>0.36926225677371</v>
       </c>
       <c r="DF127" t="n">
-        <v>0.0675839432298948</v>
+        <v>0.0507532724036355</v>
       </c>
     </row>
     <row r="128">
@@ -27287,7 +27287,7 @@
         <v>0.310790689317874</v>
       </c>
       <c r="DF129" t="n">
-        <v>0.115464362246433</v>
+        <v>0.0805142065947628</v>
       </c>
     </row>
     <row r="130">
@@ -27461,7 +27461,7 @@
         <v>0.397874364430865</v>
       </c>
       <c r="DF130" t="n">
-        <v>0.0563622717718577</v>
+        <v>0.0560867165912951</v>
       </c>
     </row>
     <row r="131">
@@ -27647,7 +27647,7 @@
       <c r="DD131"/>
       <c r="DE131"/>
       <c r="DF131" t="n">
-        <v>1.07466918539132</v>
+        <v>1.0219467427998</v>
       </c>
     </row>
     <row r="132">
@@ -27831,7 +27831,7 @@
         <v>0.257118259468965</v>
       </c>
       <c r="DF132" t="n">
-        <v>1.17640399148822</v>
+        <v>0.770811925988258</v>
       </c>
     </row>
     <row r="133">
@@ -27997,7 +27997,7 @@
         <v>0.354507179017616</v>
       </c>
       <c r="DF133" t="n">
-        <v>1.54205920435883</v>
+        <v>1.4865985566367</v>
       </c>
     </row>
     <row r="134">
@@ -28361,7 +28361,7 @@
         <v>0.31321411508511</v>
       </c>
       <c r="DF135" t="n">
-        <v>1.12933285682809</v>
+        <v>0.767535640541786</v>
       </c>
     </row>
     <row r="136">
@@ -28541,7 +28541,7 @@
         <v>0.252763919380892</v>
       </c>
       <c r="DF136" t="n">
-        <v>0.382911443260555</v>
+        <v>0.358761175864525</v>
       </c>
     </row>
     <row r="137">
@@ -28933,7 +28933,7 @@
         <v>0.272340251759248</v>
       </c>
       <c r="DF138" t="n">
-        <v>1.27734709971958</v>
+        <v>1.04215442420502</v>
       </c>
     </row>
     <row r="139">
@@ -29113,7 +29113,7 @@
         <v>0.239737810983344</v>
       </c>
       <c r="DF139" t="n">
-        <v>0.599895953934094</v>
+        <v>0.565915913874661</v>
       </c>
     </row>
     <row r="140">
@@ -29283,7 +29283,7 @@
         <v>0.203921927065583</v>
       </c>
       <c r="DF140" t="n">
-        <v>0.59210276321417</v>
+        <v>0.467447913959059</v>
       </c>
     </row>
     <row r="141">
@@ -29451,7 +29451,7 @@
         <v>0.283020274344341</v>
       </c>
       <c r="DF141" t="n">
-        <v>1.4244956925837</v>
+        <v>1.31361721296263</v>
       </c>
     </row>
     <row r="142">
@@ -29989,7 +29989,7 @@
         <v>0.266320600509125</v>
       </c>
       <c r="DF144" t="n">
-        <v>1.05778105403792</v>
+        <v>0.958690462240916</v>
       </c>
     </row>
     <row r="145">
@@ -30181,7 +30181,7 @@
         <v>0.346424019667326</v>
       </c>
       <c r="DF145" t="n">
-        <v>0.137075483152703</v>
+        <v>0.10089151214265</v>
       </c>
     </row>
     <row r="146">
@@ -30369,7 +30369,7 @@
         <v>0.378930161865923</v>
       </c>
       <c r="DF146" t="n">
-        <v>1.33436173475967</v>
+        <v>1.35871956242313</v>
       </c>
     </row>
     <row r="147">
@@ -30525,7 +30525,7 @@
         <v>0.237100644329312</v>
       </c>
       <c r="DF147" t="n">
-        <v>3.97991179594608</v>
+        <v>3.91892388954269</v>
       </c>
     </row>
     <row r="148">
@@ -30879,7 +30879,7 @@
         <v>0.524259910311986</v>
       </c>
       <c r="DF149" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000140474538592411</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000012181022181252</v>
       </c>
     </row>
     <row r="150">
@@ -31315,7 +31315,7 @@
         <v>0.202252533880686</v>
       </c>
       <c r="DF151" t="n">
-        <v>1.00119623245547</v>
+        <v>0.941001301179344</v>
       </c>
     </row>
     <row r="152">
@@ -31549,7 +31549,7 @@
         <v>0.360346665901462</v>
       </c>
       <c r="DF152" t="n">
-        <v>0.84388202693592</v>
+        <v>0.79901716683571</v>
       </c>
     </row>
     <row r="153">
@@ -31993,7 +31993,7 @@
         <v>0.284674772731136</v>
       </c>
       <c r="DF154" t="n">
-        <v>1.39757771654188</v>
+        <v>1.31041820949807</v>
       </c>
     </row>
     <row r="155">
@@ -32215,7 +32215,7 @@
         <v>0.624446143580587</v>
       </c>
       <c r="DF155" t="n">
-        <v>0.0252529587784463</v>
+        <v>0.0210488005477779</v>
       </c>
     </row>
     <row r="156">
@@ -32449,7 +32449,7 @@
         <v>0.415210972814812</v>
       </c>
       <c r="DF156" t="n">
-        <v>0.619634860651392</v>
+        <v>0.539012709896322</v>
       </c>
     </row>
     <row r="157">
@@ -32865,7 +32865,7 @@
         <v>0.512039079098228</v>
       </c>
       <c r="DF158" t="n">
-        <v>9.79209277886947</v>
+        <v>9.49670727671944</v>
       </c>
     </row>
     <row r="159">
@@ -33069,7 +33069,7 @@
         <v>0.218309705672105</v>
       </c>
       <c r="DF159" t="n">
-        <v>0.827096392921832</v>
+        <v>0.653965083236531</v>
       </c>
     </row>
     <row r="160">
@@ -33277,7 +33277,7 @@
         <v>0.278122434552822</v>
       </c>
       <c r="DF160" t="n">
-        <v>0.476638265562526</v>
+        <v>0.456098632308297</v>
       </c>
     </row>
     <row r="161">
@@ -33459,7 +33459,7 @@
         <v>0.468617170644519</v>
       </c>
       <c r="DF161" t="n">
-        <v>0.844089421139766</v>
+        <v>0.754504762335476</v>
       </c>
     </row>
     <row r="162">
@@ -33811,7 +33811,7 @@
         <v>0.271364342185317</v>
       </c>
       <c r="DF163" t="n">
-        <v>0.591939881389298</v>
+        <v>0.546078326607666</v>
       </c>
     </row>
     <row r="164">
@@ -34033,7 +34033,7 @@
         <v>0.352416649608975</v>
       </c>
       <c r="DF164" t="n">
-        <v>0.0642818665695131</v>
+        <v>0.0577496201177218</v>
       </c>
     </row>
     <row r="165">
@@ -34645,7 +34645,7 @@
         <v>0.588394924234988</v>
       </c>
       <c r="DF167" t="n">
-        <v>0.325916303229321</v>
+        <v>0.257621166597875</v>
       </c>
     </row>
     <row r="168">
@@ -34881,7 +34881,7 @@
         <v>0.223018939785865</v>
       </c>
       <c r="DF168" t="n">
-        <v>0.970772739283756</v>
+        <v>0.860058608570319</v>
       </c>
     </row>
     <row r="169">
@@ -35131,7 +35131,7 @@
         <v>0.356975782574774</v>
       </c>
       <c r="DF169" t="n">
-        <v>0.300409074221189</v>
+        <v>0.259609321978627</v>
       </c>
     </row>
     <row r="170">
@@ -35367,7 +35367,7 @@
         <v>0.556147088825461</v>
       </c>
       <c r="DF170" t="n">
-        <v>3.58448808742815</v>
+        <v>3.24859584199377</v>
       </c>
     </row>
     <row r="171">
@@ -35629,7 +35629,7 @@
         <v>0.28604085643059</v>
       </c>
       <c r="DF171" t="n">
-        <v>0.395073915285454</v>
+        <v>0.310497646529775</v>
       </c>
     </row>
     <row r="172">
@@ -36373,7 +36373,7 @@
         <v>0.424439633737349</v>
       </c>
       <c r="DF174" t="n">
-        <v>0.244626862101737</v>
+        <v>0.196852229359193</v>
       </c>
     </row>
     <row r="175">
@@ -36623,7 +36623,7 @@
         <v>0.393782406915101</v>
       </c>
       <c r="DF175" t="n">
-        <v>0.233816967225344</v>
+        <v>0.208187721758421</v>
       </c>
     </row>
     <row r="176">
@@ -36887,7 +36887,7 @@
         <v>0.794687400132384</v>
       </c>
       <c r="DF176" t="n">
-        <v>0.00810269373810816</v>
+        <v>0.00799298887684659</v>
       </c>
     </row>
     <row r="177">
@@ -37137,7 +37137,7 @@
         <v>0.856352712427544</v>
       </c>
       <c r="DF177" t="n">
-        <v>0.00000000000000000002141370453603</v>
+        <v>0.0000000000000000000214136386088253</v>
       </c>
     </row>
     <row r="178">
@@ -37387,7 +37387,7 @@
         <v>0.358358102037862</v>
       </c>
       <c r="DF178" t="n">
-        <v>0.852251172744819</v>
+        <v>0.717506593416845</v>
       </c>
     </row>
     <row r="179">
@@ -37565,7 +37565,7 @@
         <v>0.258530601051742</v>
       </c>
       <c r="DF179" t="n">
-        <v>0.659593229800562</v>
+        <v>0.637540718758244</v>
       </c>
     </row>
     <row r="180">
@@ -37767,7 +37767,7 @@
         <v>0.240212845055763</v>
       </c>
       <c r="DF180" t="n">
-        <v>0.850219451107534</v>
+        <v>0.790567782899774</v>
       </c>
     </row>
     <row r="181">
@@ -38149,7 +38149,7 @@
         <v>0.507268151056885</v>
       </c>
       <c r="DF182" t="n">
-        <v>0.147343373185927</v>
+        <v>0.143573142581725</v>
       </c>
     </row>
     <row r="183">
@@ -38343,7 +38343,7 @@
         <v>0.517047032391439</v>
       </c>
       <c r="DF183" t="n">
-        <v>0.0587535271101858</v>
+        <v>0.0587461532239949</v>
       </c>
     </row>
     <row r="184">
@@ -38531,7 +38531,7 @@
         <v>0.36520227143131</v>
       </c>
       <c r="DF184" t="n">
-        <v>0.0000316982177414655</v>
+        <v>0.0000283798779086701</v>
       </c>
     </row>
     <row r="185">
@@ -38727,7 +38727,7 @@
         <v>0.347569558213314</v>
       </c>
       <c r="DF185" t="n">
-        <v>0.0843349549957024</v>
+        <v>0.0762583673783732</v>
       </c>
     </row>
     <row r="186">
@@ -38925,7 +38925,7 @@
         <v>0.345452867504081</v>
       </c>
       <c r="DF186" t="n">
-        <v>0.00846626628756465</v>
+        <v>0.00843247806443335</v>
       </c>
     </row>
     <row r="187">
@@ -39621,7 +39621,7 @@
         <v>0.379409186479596</v>
       </c>
       <c r="DF190" t="n">
-        <v>0.0180572293649269</v>
+        <v>0.0169523263924387</v>
       </c>
     </row>
     <row r="191">
@@ -39835,7 +39835,7 @@
         <v>0.351189097719601</v>
       </c>
       <c r="DF191" t="n">
-        <v>0.121305853706686</v>
+        <v>0.120381133419857</v>
       </c>
     </row>
     <row r="192">
@@ -40213,7 +40213,7 @@
         <v>0.209594590195157</v>
       </c>
       <c r="DF193" t="n">
-        <v>0.798326796458614</v>
+        <v>0.721692325849846</v>
       </c>
     </row>
     <row r="194">
@@ -40411,7 +40411,7 @@
         <v>0.366640951516112</v>
       </c>
       <c r="DF194" t="n">
-        <v>0.0189361615818778</v>
+        <v>0.011478940823528</v>
       </c>
     </row>
     <row r="195">
@@ -40583,7 +40583,7 @@
         <v>0.266049906543236</v>
       </c>
       <c r="DF195" t="n">
-        <v>1.03495845896715</v>
+        <v>1.03253175316326</v>
       </c>
     </row>
     <row r="196">
@@ -41209,7 +41209,7 @@
         <v>0.342955199878842</v>
       </c>
       <c r="DF199" t="n">
-        <v>0.0844445391084887</v>
+        <v>0.0653637988525445</v>
       </c>
     </row>
     <row r="200">
@@ -41559,7 +41559,7 @@
         <v>0.472225717335208</v>
       </c>
       <c r="DF201" t="n">
-        <v>0.0852398174822987</v>
+        <v>0.0811870658223867</v>
       </c>
     </row>
     <row r="202">
@@ -41727,7 +41727,7 @@
         <v>0.194090926490194</v>
       </c>
       <c r="DF202" t="n">
-        <v>0.433154139340879</v>
+        <v>0.386013517776626</v>
       </c>
     </row>
     <row r="203">
@@ -41903,7 +41903,7 @@
         <v>0.367438884778083</v>
       </c>
       <c r="DF203" t="n">
-        <v>0.177444306476508</v>
+        <v>0.165829160415196</v>
       </c>
     </row>
     <row r="204">
@@ -42077,7 +42077,7 @@
         <v>0.216710495976302</v>
       </c>
       <c r="DF204" t="n">
-        <v>0.709901382029258</v>
+        <v>0.710501620292551</v>
       </c>
     </row>
     <row r="205">
@@ -42763,7 +42763,7 @@
         <v>0.295903452474099</v>
       </c>
       <c r="DF208" t="n">
-        <v>5.82511294569912</v>
+        <v>5.58139394553485</v>
       </c>
     </row>
     <row r="209">
@@ -42953,7 +42953,7 @@
         <v>0.528529078821624</v>
       </c>
       <c r="DF209" t="n">
-        <v>1.75219486862209</v>
+        <v>1.73600842019506</v>
       </c>
     </row>
     <row r="210">
@@ -43123,7 +43123,7 @@
         <v>0.209985410340511</v>
       </c>
       <c r="DF210" t="n">
-        <v>1.07481130812857</v>
+        <v>1.01060897902896</v>
       </c>
     </row>
     <row r="211">
@@ -43315,7 +43315,7 @@
         <v>0.221252288960444</v>
       </c>
       <c r="DF211" t="n">
-        <v>0.907438198850661</v>
+        <v>0.859218639497494</v>
       </c>
     </row>
     <row r="212">
@@ -43501,7 +43501,7 @@
         <v>0.596697934827486</v>
       </c>
       <c r="DF212" t="n">
-        <v>0.0538990711767724</v>
+        <v>0.035790513835316</v>
       </c>
     </row>
     <row r="213">
@@ -43687,7 +43687,7 @@
         <v>0.294371076232159</v>
       </c>
       <c r="DF213" t="n">
-        <v>0.115681745643184</v>
+        <v>0.10804093165906</v>
       </c>
     </row>
     <row r="214">
@@ -43869,7 +43869,7 @@
         <v>0.285258984932927</v>
       </c>
       <c r="DF214" t="n">
-        <v>0.107828200018178</v>
+        <v>0.0899769660064658</v>
       </c>
     </row>
     <row r="215">
@@ -44061,7 +44061,7 @@
         <v>0.544773528584396</v>
       </c>
       <c r="DF215" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000885708057243004</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000757274401421249</v>
       </c>
     </row>
     <row r="216">
@@ -44219,7 +44219,7 @@
         <v>0.754548340800393</v>
       </c>
       <c r="DF216" t="n">
-        <v>1.34377995626531</v>
+        <v>1.39242225967325</v>
       </c>
     </row>
     <row r="217">
@@ -44421,7 +44421,7 @@
         <v>0.35524844965522</v>
       </c>
       <c r="DF217" t="n">
-        <v>0.122932172554751</v>
+        <v>0.100328950656661</v>
       </c>
     </row>
     <row r="218">
@@ -45051,7 +45051,7 @@
         <v>0.370348375302039</v>
       </c>
       <c r="DF221" t="n">
-        <v>8.33708079857648</v>
+        <v>8.12374072089242</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -605,7 +605,7 @@
     <t xml:space="preserve">Ericaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Arbutus unedo </t>
+    <t xml:space="preserve">Arbutus unedo</t>
   </si>
   <si>
     <t xml:space="preserve">68</t>
@@ -3473,7 +3473,7 @@
         <v>0.849248547179157</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0592376224384745</v>
+        <v>0.247861157172976</v>
       </c>
     </row>
     <row r="3">
@@ -3901,7 +3901,7 @@
         <v>0.617699085106406</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.255457856225477</v>
+        <v>0.605944673261304</v>
       </c>
     </row>
     <row r="5">
@@ -4135,7 +4135,7 @@
         <v>0.433806505230387</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0278496338119761</v>
+        <v>0.230435255224956</v>
       </c>
     </row>
     <row r="6">
@@ -4369,7 +4369,7 @@
         <v>0.386182306975254</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0949229251922269</v>
+        <v>1.11351211360797</v>
       </c>
     </row>
     <row r="7">
@@ -4603,7 +4603,7 @@
         <v>0.307578750451452</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.422688215364743</v>
+        <v>1.48512870003196</v>
       </c>
     </row>
     <row r="8">
@@ -4837,7 +4837,7 @@
         <v>0.47184184769196</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0967629840063585</v>
+        <v>0.819661481201307</v>
       </c>
     </row>
     <row r="9">
@@ -5071,7 +5071,7 @@
         <v>0.842735020659727</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.00620147938163984</v>
+        <v>0.516774033704573</v>
       </c>
     </row>
     <row r="10">
@@ -5305,7 +5305,7 @@
         <v>0.590394965043777</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0136074440497234</v>
+        <v>0.249573013919507</v>
       </c>
     </row>
     <row r="11">
@@ -5479,7 +5479,7 @@
         <v>0.331309518822034</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0945979151356143</v>
+        <v>0.120281474409919</v>
       </c>
     </row>
     <row r="12">
@@ -5643,7 +5643,7 @@
         <v>0.31076548725735</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0481874054506812</v>
+        <v>0.167731555250666</v>
       </c>
     </row>
     <row r="13">
@@ -5849,7 +5849,7 @@
         <v>0.390503487522601</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.00077106246803917</v>
+        <v>0.00332591013937959</v>
       </c>
     </row>
     <row r="14">
@@ -6049,7 +6049,7 @@
         <v>0.396053339335325</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.544310236716128</v>
+        <v>4.02817802216822</v>
       </c>
     </row>
     <row r="15">
@@ -6201,7 +6201,7 @@
         <v>0.433325481582199</v>
       </c>
       <c r="DH15" t="n">
-        <v>2.90351534596185</v>
+        <v>5.83945152933721</v>
       </c>
     </row>
     <row r="16">
@@ -6553,7 +6553,7 @@
         <v>0.179038372927466</v>
       </c>
       <c r="DH17" t="n">
-        <v>1.64728486307216</v>
+        <v>6.25307933390377</v>
       </c>
     </row>
     <row r="18">
@@ -7251,7 +7251,7 @@
         <v>0.297898068847283</v>
       </c>
       <c r="DH21" t="n">
-        <v>0.276387505380191</v>
+        <v>0.956393275648706</v>
       </c>
     </row>
     <row r="22">
@@ -7443,7 +7443,7 @@
         <v>0.307369381027264</v>
       </c>
       <c r="DH22" t="n">
-        <v>0.856352055761364</v>
+        <v>6.21054983383629</v>
       </c>
     </row>
     <row r="23">
@@ -7653,7 +7653,7 @@
         <v>0.196946802609599</v>
       </c>
       <c r="DH23" t="n">
-        <v>3.59187684249793</v>
+        <v>7.25990714985105</v>
       </c>
     </row>
     <row r="24">
@@ -7829,7 +7829,7 @@
         <v>0.242556379307087</v>
       </c>
       <c r="DH24" t="n">
-        <v>0.430814901076677</v>
+        <v>1.22764161015264</v>
       </c>
     </row>
     <row r="25">
@@ -8011,7 +8011,7 @@
         <v>0.359040188988818</v>
       </c>
       <c r="DH25" t="n">
-        <v>1.8832705331279</v>
+        <v>3.59541421754008</v>
       </c>
     </row>
     <row r="26">
@@ -8201,7 +8201,7 @@
         <v>0.202923539511783</v>
       </c>
       <c r="DH26" t="n">
-        <v>3.48916810224006</v>
+        <v>7.03111543154876</v>
       </c>
     </row>
     <row r="27">
@@ -8391,7 +8391,7 @@
         <v>0.334631195964594</v>
       </c>
       <c r="DH27" t="n">
-        <v>0.881761996150309</v>
+        <v>3.73467046224907</v>
       </c>
     </row>
     <row r="28">
@@ -8623,7 +8623,7 @@
         <v>0.819648625575946</v>
       </c>
       <c r="DH28" t="n">
-        <v>0.0412249346396059</v>
+        <v>0.248919558983471</v>
       </c>
     </row>
     <row r="29">
@@ -8801,7 +8801,7 @@
         <v>0.235650656199025</v>
       </c>
       <c r="DH29" t="n">
-        <v>0.651450012958585</v>
+        <v>3.0775554737417</v>
       </c>
     </row>
     <row r="30">
@@ -8999,7 +8999,7 @@
         <v>0.379283027711907</v>
       </c>
       <c r="DH30" t="n">
-        <v>0.165284478779235</v>
+        <v>1.64840943251984</v>
       </c>
     </row>
     <row r="31">
@@ -9175,7 +9175,7 @@
         <v>0.259265509202602</v>
       </c>
       <c r="DH31" t="n">
-        <v>0.650930182942942</v>
+        <v>1.99391019414522</v>
       </c>
     </row>
     <row r="32">
@@ -9367,7 +9367,7 @@
         <v>0.389465809599075</v>
       </c>
       <c r="DH32" t="n">
-        <v>0.120554682036429</v>
+        <v>0.582150022000327</v>
       </c>
     </row>
     <row r="33">
@@ -9743,7 +9743,7 @@
         <v>0.585910830219089</v>
       </c>
       <c r="DH34" t="n">
-        <v>0.00000660048965604902</v>
+        <v>0.0000160962778756257</v>
       </c>
     </row>
     <row r="35">
@@ -9919,7 +9919,7 @@
         <v>0.388378203988486</v>
       </c>
       <c r="DH35" t="n">
-        <v>2.44198384651923</v>
+        <v>3.74360166715774</v>
       </c>
     </row>
     <row r="36">
@@ -10107,7 +10107,7 @@
         <v>0.261780099380896</v>
       </c>
       <c r="DH36" t="n">
-        <v>0.0675163623626868</v>
+        <v>0.514530190567401</v>
       </c>
     </row>
     <row r="37">
@@ -10295,7 +10295,7 @@
         <v>0.239269733608423</v>
       </c>
       <c r="DH37" t="n">
-        <v>2.3243471921375</v>
+        <v>5.65549398029559</v>
       </c>
     </row>
     <row r="38">
@@ -10813,7 +10813,7 @@
         <v>0.290351868092503</v>
       </c>
       <c r="DH40" t="n">
-        <v>2.4649119793794</v>
+        <v>4.90566263270359</v>
       </c>
     </row>
     <row r="41">
@@ -10983,7 +10983,7 @@
         <v>0.383175406671159</v>
       </c>
       <c r="DH41" t="n">
-        <v>1.09707987272956</v>
+        <v>3.03719350956195</v>
       </c>
     </row>
     <row r="42">
@@ -11187,7 +11187,7 @@
         <v>0.226192112240943</v>
       </c>
       <c r="DH42" t="n">
-        <v>0.938110087250032</v>
+        <v>3.21997626250945</v>
       </c>
     </row>
     <row r="43">
@@ -11391,7 +11391,7 @@
         <v>0.192096221013802</v>
       </c>
       <c r="DH43" t="n">
-        <v>2.61098283733505</v>
+        <v>12.0032415369529</v>
       </c>
     </row>
     <row r="44">
@@ -11793,7 +11793,7 @@
         <v>0.352071902490665</v>
       </c>
       <c r="DH45" t="n">
-        <v>2.02825327003969</v>
+        <v>6.44414412992723</v>
       </c>
     </row>
     <row r="46">
@@ -11997,7 +11997,7 @@
         <v>0.312655245741407</v>
       </c>
       <c r="DH46" t="n">
-        <v>2.5983002778578</v>
+        <v>5.55555800672117</v>
       </c>
     </row>
     <row r="47">
@@ -12201,7 +12201,7 @@
         <v>0.360833845701912</v>
       </c>
       <c r="DH47" t="n">
-        <v>1.59075461457512</v>
+        <v>5.95831142420055</v>
       </c>
     </row>
     <row r="48">
@@ -12603,7 +12603,7 @@
         <v>0.291387400945258</v>
       </c>
       <c r="DH49" t="n">
-        <v>0.00000110598941088628</v>
+        <v>0.00000114063622563519</v>
       </c>
     </row>
     <row r="50">
@@ -12807,7 +12807,7 @@
         <v>0.348201498639596</v>
       </c>
       <c r="DH50" t="n">
-        <v>0.893772589403003</v>
+        <v>2.41290800587834</v>
       </c>
     </row>
     <row r="51">
@@ -13209,7 +13209,7 @@
         <v>0.283598267677611</v>
       </c>
       <c r="DH52" t="n">
-        <v>0.488788338765742</v>
+        <v>2.66118685796081</v>
       </c>
     </row>
     <row r="53">
@@ -13577,7 +13577,7 @@
         <v>0.338835946644463</v>
       </c>
       <c r="DH54" t="n">
-        <v>0.124441130125386</v>
+        <v>0.415157034422965</v>
       </c>
     </row>
     <row r="55">
@@ -13751,7 +13751,7 @@
         <v>0.320810769000466</v>
       </c>
       <c r="DH55" t="n">
-        <v>0.283453514649725</v>
+        <v>1.89153705558191</v>
       </c>
     </row>
     <row r="56">
@@ -13917,7 +13917,7 @@
         <v>0.487254414817919</v>
       </c>
       <c r="DH56" t="n">
-        <v>5.42635146860291</v>
+        <v>20.1028394205632</v>
       </c>
     </row>
     <row r="57">
@@ -14097,7 +14097,7 @@
         <v>0.354279083444176</v>
       </c>
       <c r="DH57" t="n">
-        <v>0.306463163611774</v>
+        <v>1.05149549813578</v>
       </c>
     </row>
     <row r="58">
@@ -14307,7 +14307,7 @@
         <v>0.391253443157219</v>
       </c>
       <c r="DH58" t="n">
-        <v>0.0288857966501845</v>
+        <v>0.224612369935489</v>
       </c>
     </row>
     <row r="59">
@@ -14485,7 +14485,7 @@
         <v>0.231983114427747</v>
       </c>
       <c r="DH59" t="n">
-        <v>0.452826025987562</v>
+        <v>2.54855923445594</v>
       </c>
     </row>
     <row r="60">
@@ -14671,7 +14671,7 @@
         <v>0.491066747901667</v>
       </c>
       <c r="DH60" t="n">
-        <v>0.000297882523657657</v>
+        <v>0.00067392734562077</v>
       </c>
     </row>
     <row r="61">
@@ -14859,7 +14859,7 @@
         <v>0.3231419471789</v>
       </c>
       <c r="DH61" t="n">
-        <v>0.138421814030226</v>
+        <v>2.48630370626577</v>
       </c>
     </row>
     <row r="62">
@@ -15041,7 +15041,7 @@
         <v>0.36718619793743</v>
       </c>
       <c r="DH62" t="n">
-        <v>0.0339586930899028</v>
+        <v>0.387525743765635</v>
       </c>
     </row>
     <row r="63">
@@ -15223,7 +15223,7 @@
         <v>0.247736190039737</v>
       </c>
       <c r="DH63" t="n">
-        <v>0.0293502488266466</v>
+        <v>0.123232826273149</v>
       </c>
     </row>
     <row r="64">
@@ -15399,7 +15399,7 @@
         <v>0.282678259891049</v>
       </c>
       <c r="DH64" t="n">
-        <v>1.0257715895345</v>
+        <v>4.91253803529441</v>
       </c>
     </row>
     <row r="65">
@@ -16521,7 +16521,7 @@
         <v>0.554863566543644</v>
       </c>
       <c r="DH70" t="n">
-        <v>16.6941297779926</v>
+        <v>23.3568470753539</v>
       </c>
     </row>
     <row r="71">
@@ -17085,7 +17085,7 @@
         <v>0.453762838984264</v>
       </c>
       <c r="DH73" t="n">
-        <v>0.200460438761205</v>
+        <v>6.2290873870534</v>
       </c>
     </row>
     <row r="74">
@@ -17277,7 +17277,7 @@
         <v>0.281607760221891</v>
       </c>
       <c r="DH74" t="n">
-        <v>0.207598835840432</v>
+        <v>0.7754549804659</v>
       </c>
     </row>
     <row r="75">
@@ -17469,7 +17469,7 @@
         <v>0.627518676729448</v>
       </c>
       <c r="DH75" t="n">
-        <v>24.485191175366</v>
+        <v>40.3116002142947</v>
       </c>
     </row>
     <row r="76">
@@ -17847,7 +17847,7 @@
         <v>0.64168796088017</v>
       </c>
       <c r="DH77" t="n">
-        <v>12.2895745603356</v>
+        <v>28.1644058985384</v>
       </c>
     </row>
     <row r="78">
@@ -18001,7 +18001,7 @@
         <v>0.486209734665479</v>
       </c>
       <c r="DH78" t="n">
-        <v>0.0290213033601427</v>
+        <v>0.122098728097281</v>
       </c>
     </row>
     <row r="79">
@@ -18195,7 +18195,7 @@
         <v>0.299210816151574</v>
       </c>
       <c r="DH79" t="n">
-        <v>0.227999629364124</v>
+        <v>0.987702114819719</v>
       </c>
     </row>
     <row r="80">
@@ -18531,7 +18531,7 @@
         <v>0.235059601535887</v>
       </c>
       <c r="DH81" t="n">
-        <v>0.84902023824307</v>
+        <v>4.47051626106422</v>
       </c>
     </row>
     <row r="82">
@@ -18843,7 +18843,7 @@
         <v>0.348029383020084</v>
       </c>
       <c r="DH83" t="n">
-        <v>0.0000000000000000197472473965885</v>
+        <v>0.0000000000000000197472473965883</v>
       </c>
     </row>
     <row r="84">
@@ -19017,7 +19017,7 @@
         <v>0.561955873547836</v>
       </c>
       <c r="DH84" t="n">
-        <v>17.1871791087645</v>
+        <v>19.1370320491347</v>
       </c>
     </row>
     <row r="85">
@@ -19219,7 +19219,7 @@
         <v>0.339823281126317</v>
       </c>
       <c r="DH85" t="n">
-        <v>0.135187754493618</v>
+        <v>0.613964190697722</v>
       </c>
     </row>
     <row r="86">
@@ -19417,7 +19417,7 @@
         <v>0.362007698003751</v>
       </c>
       <c r="DH86" t="n">
-        <v>0.491712020494212</v>
+        <v>2.07867178697575</v>
       </c>
     </row>
     <row r="87">
@@ -19807,7 +19807,7 @@
         <v>0.46237023317734</v>
       </c>
       <c r="DH88" t="n">
-        <v>0.0556894536524825</v>
+        <v>0.275470406858012</v>
       </c>
     </row>
     <row r="89">
@@ -20197,7 +20197,7 @@
         <v>0.257086234582607</v>
       </c>
       <c r="DH90" t="n">
-        <v>0.99314304702021</v>
+        <v>3.75301635756219</v>
       </c>
     </row>
     <row r="91">
@@ -20399,7 +20399,7 @@
         <v>0.375187915115427</v>
       </c>
       <c r="DH91" t="n">
-        <v>0.233202253460616</v>
+        <v>2.87518600809999</v>
       </c>
     </row>
     <row r="92">
@@ -20981,7 +20981,7 @@
         <v>0.418833595536286</v>
       </c>
       <c r="DH94" t="n">
-        <v>0.0398309467532398</v>
+        <v>0.135796316182994</v>
       </c>
     </row>
     <row r="95">
@@ -21153,7 +21153,7 @@
         <v>0.328693470119622</v>
       </c>
       <c r="DH95" t="n">
-        <v>1.02315236986887</v>
+        <v>4.44850472657913</v>
       </c>
     </row>
     <row r="96">
@@ -21379,7 +21379,7 @@
         <v>0.276860689733814</v>
       </c>
       <c r="DH96" t="n">
-        <v>0.041017427178783</v>
+        <v>0.111674333866338</v>
       </c>
     </row>
     <row r="97">
@@ -21555,7 +21555,7 @@
         <v>0.425254323743114</v>
       </c>
       <c r="DH97" t="n">
-        <v>0.0116793828634839</v>
+        <v>0.383578718315989</v>
       </c>
     </row>
     <row r="98">
@@ -21735,7 +21735,7 @@
         <v>0.274527517845319</v>
       </c>
       <c r="DH98" t="n">
-        <v>0.0245029796019428</v>
+        <v>0.0267019330738257</v>
       </c>
     </row>
     <row r="99">
@@ -21979,7 +21979,7 @@
         <v>0.481458131822998</v>
       </c>
       <c r="DH99" t="n">
-        <v>0.00000540814403170222</v>
+        <v>0.0000132900306022714</v>
       </c>
     </row>
     <row r="100">
@@ -22171,7 +22171,7 @@
         <v>0.287272013636854</v>
       </c>
       <c r="DH100" t="n">
-        <v>0.269729826380364</v>
+        <v>0.540699420603793</v>
       </c>
     </row>
     <row r="101">
@@ -22347,7 +22347,7 @@
         <v>0.579863442023865</v>
       </c>
       <c r="DH101" t="n">
-        <v>0.0209444946078732</v>
+        <v>0.0886286240471053</v>
       </c>
     </row>
     <row r="102">
@@ -22559,7 +22559,7 @@
         <v>0.371864789836011</v>
       </c>
       <c r="DH102" t="n">
-        <v>0.0316890575967851</v>
+        <v>0.0882075765431212</v>
       </c>
     </row>
     <row r="103">
@@ -22747,7 +22747,7 @@
         <v>0.276970124284989</v>
       </c>
       <c r="DH103" t="n">
-        <v>0.914097711615373</v>
+        <v>4.72216430426175</v>
       </c>
     </row>
     <row r="104">
@@ -22897,7 +22897,7 @@
         <v>0.313689909265754</v>
       </c>
       <c r="DH104" t="n">
-        <v>0.356848341813555</v>
+        <v>5.27630559624177</v>
       </c>
     </row>
     <row r="105">
@@ -23053,7 +23053,7 @@
         <v>0.640504683244008</v>
       </c>
       <c r="DH105" t="n">
-        <v>0.862477186665641</v>
+        <v>3.26923846948338</v>
       </c>
     </row>
     <row r="106">
@@ -23233,7 +23233,7 @@
         <v>0.210499618048058</v>
       </c>
       <c r="DH106" t="n">
-        <v>1.9103298635701</v>
+        <v>6.92162014928282</v>
       </c>
     </row>
     <row r="107">
@@ -23411,7 +23411,7 @@
         <v>0.214758491256613</v>
       </c>
       <c r="DH107" t="n">
-        <v>1.09749060524517</v>
+        <v>4.11202517366611</v>
       </c>
     </row>
     <row r="108">
@@ -23571,7 +23571,7 @@
         <v>0.671015293863275</v>
       </c>
       <c r="DH108" t="n">
-        <v>0.260248112829203</v>
+        <v>0.306786507578872</v>
       </c>
     </row>
     <row r="109">
@@ -23749,7 +23749,7 @@
         <v>0.399563548294162</v>
       </c>
       <c r="DH109" t="n">
-        <v>0.0000000000000000000000000000507474430429546</v>
+        <v>0.0000000000000000000000000000570600973884709</v>
       </c>
     </row>
     <row r="110">
@@ -23935,7 +23935,7 @@
         <v>0.236201569143038</v>
       </c>
       <c r="DH110" t="n">
-        <v>1.33517789573842</v>
+        <v>8.37092573033674</v>
       </c>
     </row>
     <row r="111">
@@ -24113,7 +24113,7 @@
         <v>0.215480647323727</v>
       </c>
       <c r="DH111" t="n">
-        <v>1.34187370289983</v>
+        <v>5.99196250970708</v>
       </c>
     </row>
     <row r="112">
@@ -24527,7 +24527,7 @@
         <v>0.50241705843317</v>
       </c>
       <c r="DH113" t="n">
-        <v>0.0000000000000000138352569394884</v>
+        <v>0.0000000000000000189234775728007</v>
       </c>
     </row>
     <row r="114">
@@ -24707,7 +24707,7 @@
         <v>0.334823268011629</v>
       </c>
       <c r="DH114" t="n">
-        <v>1.51576383755717</v>
+        <v>2.84124494540655</v>
       </c>
     </row>
     <row r="115">
@@ -24895,7 +24895,7 @@
         <v>0.332435379209956</v>
       </c>
       <c r="DH115" t="n">
-        <v>0.386534589506528</v>
+        <v>0.661780083551056</v>
       </c>
     </row>
     <row r="116">
@@ -25315,7 +25315,7 @@
         <v>0.393447115790041</v>
       </c>
       <c r="DH117" t="n">
-        <v>0.388487017107168</v>
+        <v>2.06112207410699</v>
       </c>
     </row>
     <row r="118">
@@ -25539,7 +25539,7 @@
         <v>0.236538522323717</v>
       </c>
       <c r="DH118" t="n">
-        <v>1.07835541491551</v>
+        <v>5.76417159445154</v>
       </c>
     </row>
     <row r="119">
@@ -25755,7 +25755,7 @@
         <v>0.257029068762959</v>
       </c>
       <c r="DH119" t="n">
-        <v>0.792473576437279</v>
+        <v>6.59018507045822</v>
       </c>
     </row>
     <row r="120">
@@ -25965,7 +25965,7 @@
         <v>0.321394280074118</v>
       </c>
       <c r="DH120" t="n">
-        <v>1.52983441028106</v>
+        <v>9.52616815657627</v>
       </c>
     </row>
     <row r="121">
@@ -26313,7 +26313,7 @@
         <v>0.577092077364368</v>
       </c>
       <c r="DH122" t="n">
-        <v>0.037670927031704</v>
+        <v>0.086962804809728</v>
       </c>
     </row>
     <row r="123">
@@ -26679,7 +26679,7 @@
         <v>0.522928441499185</v>
       </c>
       <c r="DH124" t="n">
-        <v>0.0178653595175431</v>
+        <v>0.0429714296565785</v>
       </c>
     </row>
     <row r="125">
@@ -26863,7 +26863,7 @@
         <v>0.300014655195464</v>
       </c>
       <c r="DH125" t="n">
-        <v>1.06757684014885</v>
+        <v>5.52940696112687</v>
       </c>
     </row>
     <row r="126">
@@ -27067,7 +27067,7 @@
         <v>0.36926225677371</v>
       </c>
       <c r="DH126" t="n">
-        <v>0.0556994243224323</v>
+        <v>0.401333091343846</v>
       </c>
     </row>
     <row r="127">
@@ -27435,7 +27435,7 @@
         <v>0.310790689317874</v>
       </c>
       <c r="DH128" t="n">
-        <v>0.107468189958884</v>
+        <v>0.438925168708009</v>
       </c>
     </row>
     <row r="129">
@@ -27611,7 +27611,7 @@
         <v>0.397874364430865</v>
       </c>
       <c r="DH129" t="n">
-        <v>0.0584804122252199</v>
+        <v>1.15351402446247</v>
       </c>
     </row>
     <row r="130">
@@ -27799,7 +27799,7 @@
       <c r="DF130"/>
       <c r="DG130"/>
       <c r="DH130" t="n">
-        <v>1.01078576814904</v>
+        <v>1.95803297874915</v>
       </c>
     </row>
     <row r="131">
@@ -27983,7 +27983,7 @@
         <v>0.257118259468965</v>
       </c>
       <c r="DH131" t="n">
-        <v>0.800220379423779</v>
+        <v>1.17611029856336</v>
       </c>
     </row>
     <row r="132">
@@ -28149,7 +28149,7 @@
         <v>0.354507179017616</v>
       </c>
       <c r="DH132" t="n">
-        <v>1.40729659141447</v>
+        <v>3.41403232682741</v>
       </c>
     </row>
     <row r="133">
@@ -28517,7 +28517,7 @@
         <v>0.31321411508511</v>
       </c>
       <c r="DH134" t="n">
-        <v>0.779952849553189</v>
+        <v>2.4239520139114</v>
       </c>
     </row>
     <row r="135">
@@ -28699,7 +28699,7 @@
         <v>0.252763919380892</v>
       </c>
       <c r="DH135" t="n">
-        <v>0.528549340075001</v>
+        <v>1.2233040098301</v>
       </c>
     </row>
     <row r="136">
@@ -29097,7 +29097,7 @@
         <v>0.272340251759248</v>
       </c>
       <c r="DH137" t="n">
-        <v>1.54458248764083</v>
+        <v>3.33689022471722</v>
       </c>
     </row>
     <row r="138">
@@ -29279,7 +29279,7 @@
         <v>0.239737810983344</v>
       </c>
       <c r="DH138" t="n">
-        <v>0.909870612107793</v>
+        <v>4.74602890123255</v>
       </c>
     </row>
     <row r="139">
@@ -29451,7 +29451,7 @@
         <v>0.203921927065583</v>
       </c>
       <c r="DH139" t="n">
-        <v>0.519198773798294</v>
+        <v>2.33999285593005</v>
       </c>
     </row>
     <row r="140">
@@ -29621,7 +29621,7 @@
         <v>0.283020274344341</v>
       </c>
       <c r="DH140" t="n">
-        <v>1.374376862132</v>
+        <v>3.77354902067409</v>
       </c>
     </row>
     <row r="141">
@@ -30167,7 +30167,7 @@
         <v>0.266320600509125</v>
       </c>
       <c r="DH143" t="n">
-        <v>1.1101581487807</v>
+        <v>3.83151917234452</v>
       </c>
     </row>
     <row r="144">
@@ -30361,7 +30361,7 @@
         <v>0.346424019667326</v>
       </c>
       <c r="DH144" t="n">
-        <v>0.108447302705039</v>
+        <v>0.507649761232982</v>
       </c>
     </row>
     <row r="145">
@@ -30551,7 +30551,7 @@
         <v>0.378930161865923</v>
       </c>
       <c r="DH145" t="n">
-        <v>1.60954899696342</v>
+        <v>2.99154878319377</v>
       </c>
     </row>
     <row r="146">
@@ -30709,7 +30709,7 @@
         <v>0.237100644329312</v>
       </c>
       <c r="DH146" t="n">
-        <v>4.40019721290769</v>
+        <v>8.73505631483942</v>
       </c>
     </row>
     <row r="147">
@@ -31069,7 +31069,7 @@
         <v>0.524259910311986</v>
       </c>
       <c r="DH148" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000022762880514889</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000302100258360983</v>
       </c>
     </row>
     <row r="149">
@@ -31513,7 +31513,7 @@
         <v>0.202252533880686</v>
       </c>
       <c r="DH150" t="n">
-        <v>1.66086724926715</v>
+        <v>6.28873608891069</v>
       </c>
     </row>
     <row r="151">
@@ -31751,7 +31751,7 @@
         <v>0.360346665901462</v>
       </c>
       <c r="DH151" t="n">
-        <v>0.997136522725034</v>
+        <v>4.37462482011748</v>
       </c>
     </row>
     <row r="152">
@@ -31977,7 +31977,7 @@
         <v>0.331914213985618</v>
       </c>
       <c r="DH152" t="n">
-        <v>0.194919068770597</v>
+        <v>0.918057721491553</v>
       </c>
     </row>
     <row r="153">
@@ -32203,7 +32203,7 @@
         <v>0.284674772731136</v>
       </c>
       <c r="DH153" t="n">
-        <v>1.83817630330576</v>
+        <v>5.3260000103898</v>
       </c>
     </row>
     <row r="154">
@@ -32429,7 +32429,7 @@
         <v>0.624446143580587</v>
       </c>
       <c r="DH154" t="n">
-        <v>0.0249828885833414</v>
+        <v>0.156454837016057</v>
       </c>
     </row>
     <row r="155">
@@ -32667,7 +32667,7 @@
         <v>0.415210972814812</v>
       </c>
       <c r="DH155" t="n">
-        <v>0.590554915606726</v>
+        <v>2.92993067314268</v>
       </c>
     </row>
     <row r="156">
@@ -32893,7 +32893,7 @@
         <v>0.565949522085827</v>
       </c>
       <c r="DH156" t="n">
-        <v>1.04066142015684</v>
+        <v>6.97707829652636</v>
       </c>
     </row>
     <row r="157">
@@ -33089,7 +33089,7 @@
         <v>0.512039079098228</v>
       </c>
       <c r="DH157" t="n">
-        <v>10.1920902298586</v>
+        <v>15.7255753372643</v>
       </c>
     </row>
     <row r="158">
@@ -33295,7 +33295,7 @@
         <v>0.218309705672105</v>
       </c>
       <c r="DH158" t="n">
-        <v>0.834309845503792</v>
+        <v>2.67736819376553</v>
       </c>
     </row>
     <row r="159">
@@ -33505,7 +33505,7 @@
         <v>0.278122434552822</v>
       </c>
       <c r="DH159" t="n">
-        <v>0.660927429953682</v>
+        <v>4.20420866133614</v>
       </c>
     </row>
     <row r="160">
@@ -33691,7 +33691,7 @@
         <v>0.468617170644519</v>
       </c>
       <c r="DH160" t="n">
-        <v>0.722990039984349</v>
+        <v>0.971921495752767</v>
       </c>
     </row>
     <row r="161">
@@ -34049,7 +34049,7 @@
         <v>0.271364342185317</v>
       </c>
       <c r="DH162" t="n">
-        <v>0.552801778750706</v>
+        <v>0.871067363122695</v>
       </c>
     </row>
     <row r="163">
@@ -34275,7 +34275,7 @@
         <v>0.352416649608975</v>
       </c>
       <c r="DH163" t="n">
-        <v>0.0644156456521182</v>
+        <v>0.493705733304254</v>
       </c>
     </row>
     <row r="164">
@@ -34645,7 +34645,7 @@
         <v>0.401378181030458</v>
       </c>
       <c r="DH165" t="n">
-        <v>0.0310730788120431</v>
+        <v>0.19407997757395</v>
       </c>
     </row>
     <row r="166">
@@ -34899,7 +34899,7 @@
         <v>0.588394924234988</v>
       </c>
       <c r="DH166" t="n">
-        <v>0.256880777112947</v>
+        <v>1.03965324818082</v>
       </c>
     </row>
     <row r="167">
@@ -35139,7 +35139,7 @@
         <v>0.223018939785865</v>
       </c>
       <c r="DH167" t="n">
-        <v>1.34287559792036</v>
+        <v>5.07303679709755</v>
       </c>
     </row>
     <row r="168">
@@ -35393,7 +35393,7 @@
         <v>0.356975782574774</v>
       </c>
       <c r="DH168" t="n">
-        <v>0.262037606742098</v>
+        <v>1.62537248643407</v>
       </c>
     </row>
     <row r="169">
@@ -35633,7 +35633,7 @@
         <v>0.556147088825461</v>
       </c>
       <c r="DH169" t="n">
-        <v>3.51180303900775</v>
+        <v>9.43163529414932</v>
       </c>
     </row>
     <row r="170">
@@ -35899,7 +35899,7 @@
         <v>0.28604085643059</v>
       </c>
       <c r="DH170" t="n">
-        <v>0.352358759266654</v>
+        <v>1.578623575154</v>
       </c>
     </row>
     <row r="171">
@@ -36401,7 +36401,7 @@
         <v>0.526596526077613</v>
       </c>
       <c r="DH172" t="n">
-        <v>0.0566952786371319</v>
+        <v>0.575262630187314</v>
       </c>
     </row>
     <row r="173">
@@ -36655,7 +36655,7 @@
         <v>0.424439633737349</v>
       </c>
       <c r="DH173" t="n">
-        <v>0.205595085545317</v>
+        <v>0.838574260321945</v>
       </c>
     </row>
     <row r="174">
@@ -36909,7 +36909,7 @@
         <v>0.393782406915101</v>
       </c>
       <c r="DH174" t="n">
-        <v>0.261983609814388</v>
+        <v>0.92069807356093</v>
       </c>
     </row>
     <row r="175">
@@ -37177,7 +37177,7 @@
         <v>0.794687400132384</v>
       </c>
       <c r="DH175" t="n">
-        <v>0.0144412978384089</v>
+        <v>0.0671171150774347</v>
       </c>
     </row>
     <row r="176">
@@ -37431,7 +37431,7 @@
         <v>0.856352712427544</v>
       </c>
       <c r="DH176" t="n">
-        <v>0.000000000000000000607765385171867</v>
+        <v>0.000000000000000000920307078224943</v>
       </c>
     </row>
     <row r="177">
@@ -37685,7 +37685,7 @@
         <v>0.358358102037862</v>
       </c>
       <c r="DH177" t="n">
-        <v>0.849834207560911</v>
+        <v>2.35944938281625</v>
       </c>
     </row>
     <row r="178">
@@ -37865,7 +37865,7 @@
         <v>0.258530601051742</v>
       </c>
       <c r="DH178" t="n">
-        <v>0.766981249699615</v>
+        <v>2.38046552617037</v>
       </c>
     </row>
     <row r="179">
@@ -38071,7 +38071,7 @@
         <v>0.240212845055763</v>
       </c>
       <c r="DH179" t="n">
-        <v>1.27305679540811</v>
+        <v>4.33636783363907</v>
       </c>
     </row>
     <row r="180">
@@ -38275,7 +38275,7 @@
         <v>0.980954075466942</v>
       </c>
       <c r="DH180" t="n">
-        <v>0.162851941307014</v>
+        <v>0.534872786152838</v>
       </c>
     </row>
     <row r="181">
@@ -38459,7 +38459,7 @@
         <v>0.507268151056885</v>
       </c>
       <c r="DH181" t="n">
-        <v>0.174382229831248</v>
+        <v>0.272554063262336</v>
       </c>
     </row>
     <row r="182">
@@ -38655,7 +38655,7 @@
         <v>0.517047032391439</v>
       </c>
       <c r="DH182" t="n">
-        <v>0.0628998864274357</v>
+        <v>0.451546873415004</v>
       </c>
     </row>
     <row r="183">
@@ -38847,7 +38847,7 @@
         <v>0.36520227143131</v>
       </c>
       <c r="DH183" t="n">
-        <v>0.0000270621954804502</v>
+        <v>0.0000657306094453125</v>
       </c>
     </row>
     <row r="184">
@@ -39045,7 +39045,7 @@
         <v>0.347569558213314</v>
       </c>
       <c r="DH184" t="n">
-        <v>0.0867177663378462</v>
+        <v>0.53038708039293</v>
       </c>
     </row>
     <row r="185">
@@ -39245,7 +39245,7 @@
         <v>0.345452867504081</v>
       </c>
       <c r="DH185" t="n">
-        <v>0.0147083131888226</v>
+        <v>0.0566479095686877</v>
       </c>
     </row>
     <row r="186">
@@ -39439,7 +39439,7 @@
         <v>0.480846045039467</v>
       </c>
       <c r="DH186" t="n">
-        <v>0.00000000000912474639200606</v>
+        <v>0.0000000000091250136732505</v>
       </c>
     </row>
     <row r="187">
@@ -39613,7 +39613,7 @@
         <v>0.379409186479596</v>
       </c>
       <c r="DH187" t="n">
-        <v>0.0185068556879409</v>
+        <v>0.155189150857499</v>
       </c>
     </row>
     <row r="188">
@@ -39831,7 +39831,7 @@
         <v>0.351189097719601</v>
       </c>
       <c r="DH188" t="n">
-        <v>0.125097494112402</v>
+        <v>0.321582176829529</v>
       </c>
     </row>
     <row r="189">
@@ -40215,7 +40215,7 @@
         <v>0.209594590195157</v>
       </c>
       <c r="DH190" t="n">
-        <v>1.27718758103379</v>
+        <v>5.10590949155663</v>
       </c>
     </row>
     <row r="191">
@@ -40415,7 +40415,7 @@
         <v>0.366640951516112</v>
       </c>
       <c r="DH191" t="n">
-        <v>0.0115065467242755</v>
+        <v>0.0317223949995745</v>
       </c>
     </row>
     <row r="192">
@@ -40589,7 +40589,7 @@
         <v>0.266049906543236</v>
       </c>
       <c r="DH192" t="n">
-        <v>1.13897475288058</v>
+        <v>6.9860514744288</v>
       </c>
     </row>
     <row r="193">
@@ -41229,7 +41229,7 @@
         <v>0.342955199878842</v>
       </c>
       <c r="DH196" t="n">
-        <v>0.0789605241123359</v>
+        <v>0.270422455534575</v>
       </c>
     </row>
     <row r="197">
@@ -41585,7 +41585,7 @@
         <v>0.472225717335208</v>
       </c>
       <c r="DH198" t="n">
-        <v>0.0879373204764826</v>
+        <v>0.717180834670996</v>
       </c>
     </row>
     <row r="199">
@@ -41755,7 +41755,7 @@
         <v>0.194090926490194</v>
       </c>
       <c r="DH199" t="n">
-        <v>0.452357077109904</v>
+        <v>1.15485354490264</v>
       </c>
     </row>
     <row r="200">
@@ -41933,7 +41933,7 @@
         <v>0.367438884778083</v>
       </c>
       <c r="DH200" t="n">
-        <v>0.180307706204793</v>
+        <v>1.65664745156604</v>
       </c>
     </row>
     <row r="201">
@@ -42109,7 +42109,7 @@
         <v>0.216710495976302</v>
       </c>
       <c r="DH201" t="n">
-        <v>0.923941115424619</v>
+        <v>1.79094708907876</v>
       </c>
     </row>
     <row r="202">
@@ -42291,7 +42291,7 @@
         <v>0.568952349816495</v>
       </c>
       <c r="DH202" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000787051772794754</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197718305976818</v>
       </c>
     </row>
     <row r="203">
@@ -42459,7 +42459,7 @@
         <v>0.421628951524912</v>
       </c>
       <c r="DH203" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000211834891070425</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000598286844243004</v>
       </c>
     </row>
     <row r="204">
@@ -42805,7 +42805,7 @@
         <v>0.295903452474099</v>
       </c>
       <c r="DH205" t="n">
-        <v>6.08652770926263</v>
+        <v>8.01877892695812</v>
       </c>
     </row>
     <row r="206">
@@ -42995,7 +42995,7 @@
         <v>0.528529078821624</v>
       </c>
       <c r="DH206" t="n">
-        <v>2.64581806869371</v>
+        <v>9.09390004391097</v>
       </c>
     </row>
     <row r="207">
@@ -43167,7 +43167,7 @@
         <v>0.209985410340511</v>
       </c>
       <c r="DH207" t="n">
-        <v>1.71280090265588</v>
+        <v>11.4883350080007</v>
       </c>
     </row>
     <row r="208">
@@ -43361,7 +43361,7 @@
         <v>0.221252288960444</v>
       </c>
       <c r="DH208" t="n">
-        <v>1.14744518759596</v>
+        <v>6.52310856252763</v>
       </c>
     </row>
     <row r="209">
@@ -43551,7 +43551,7 @@
         <v>0.596697934827486</v>
       </c>
       <c r="DH209" t="n">
-        <v>0.0428589841722392</v>
+        <v>0.942569084671982</v>
       </c>
     </row>
     <row r="210">
@@ -43739,7 +43739,7 @@
         <v>0.294371076232159</v>
       </c>
       <c r="DH210" t="n">
-        <v>0.158702773324595</v>
+        <v>0.536073791432251</v>
       </c>
     </row>
     <row r="211">
@@ -43925,7 +43925,7 @@
         <v>0.285258984932927</v>
       </c>
       <c r="DH211" t="n">
-        <v>0.103748359217866</v>
+        <v>0.336826076411536</v>
       </c>
     </row>
     <row r="212">
@@ -44121,7 +44121,7 @@
         <v>0.544773528584396</v>
       </c>
       <c r="DH212" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000015588295325427</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000419743484850191</v>
       </c>
     </row>
     <row r="213">
@@ -44287,7 +44287,7 @@
         <v>0.754548340800393</v>
       </c>
       <c r="DH213" t="n">
-        <v>1.17914787173583</v>
+        <v>1.90226334556212</v>
       </c>
     </row>
     <row r="214">
@@ -44491,7 +44491,7 @@
         <v>0.35524844965522</v>
       </c>
       <c r="DH214" t="n">
-        <v>0.104689115510824</v>
+        <v>0.570478297958726</v>
       </c>
     </row>
     <row r="215">
@@ -45129,7 +45129,7 @@
         <v>0.370348375302039</v>
       </c>
       <c r="DH218" t="n">
-        <v>8.09746439255698</v>
+        <v>45.6357611936672</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3286,10 +3286,10 @@
         <v>1300</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R2" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S2"/>
       <c r="T2"/>
@@ -3524,7 +3524,7 @@
         <v>1300</v>
       </c>
       <c r="Q3" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R3" t="n">
         <v>100</v>
@@ -3754,7 +3754,7 @@
         <v>5456</v>
       </c>
       <c r="Q4" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
         <v>160</v>
@@ -3952,10 +3952,10 @@
         <v>2870</v>
       </c>
       <c r="Q5" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="R5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
@@ -4186,10 +4186,10 @@
         <v>2870</v>
       </c>
       <c r="Q6" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="R6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S6"/>
       <c r="T6"/>
@@ -4420,10 +4420,10 @@
         <v>2819</v>
       </c>
       <c r="Q7" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="R7" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="S7"/>
       <c r="T7"/>
@@ -4654,10 +4654,10 @@
         <v>2870</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
@@ -4888,10 +4888,10 @@
         <v>2870</v>
       </c>
       <c r="Q9" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="R9" t="n">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -5122,10 +5122,10 @@
         <v>2870</v>
       </c>
       <c r="Q10" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="R10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="S10"/>
       <c r="T10"/>
@@ -5530,10 +5530,10 @@
         <v>273</v>
       </c>
       <c r="Q12" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R12" t="n">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -5694,10 +5694,10 @@
         <v>400</v>
       </c>
       <c r="Q13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R13" t="n">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -5900,10 +5900,10 @@
         <v>2397</v>
       </c>
       <c r="Q14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R14" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S14" t="n">
         <v>3.69338756115308</v>
@@ -6750,10 +6750,10 @@
         <v>2397</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R19" t="n">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
@@ -6904,10 +6904,10 @@
         <v>1367</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="R20" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="S20"/>
       <c r="T20"/>
@@ -7100,10 +7100,10 @@
         <v>1367</v>
       </c>
       <c r="Q21" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R21" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="S21"/>
       <c r="T21"/>
@@ -8442,10 +8442,10 @@
         <v>524</v>
       </c>
       <c r="Q28" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="R28" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="S28" t="n">
         <v>5.84575248906206</v>
@@ -8852,10 +8852,10 @@
         <v>1100</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R30" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S30" t="n">
         <v>0.973449929454582</v>
@@ -9418,10 +9418,10 @@
         <v>2397</v>
       </c>
       <c r="Q33" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="R33" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
@@ -9598,10 +9598,10 @@
         <v>2397</v>
       </c>
       <c r="Q34" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="R34" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -9794,10 +9794,10 @@
         <v>2400</v>
       </c>
       <c r="Q35" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R35" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="S35"/>
       <c r="T35"/>
@@ -9970,10 +9970,10 @@
         <v>3086</v>
       </c>
       <c r="Q36" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="R36" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S36"/>
       <c r="T36"/>
@@ -10158,10 +10158,10 @@
         <v>2397</v>
       </c>
       <c r="Q37" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="R37" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S37"/>
       <c r="T37"/>
@@ -10346,10 +10346,10 @@
         <v>1100</v>
       </c>
       <c r="Q38" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R38" t="n">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="S38"/>
       <c r="T38"/>
@@ -10691,7 +10691,7 @@
         <v>100</v>
       </c>
       <c r="R40" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S40" t="n">
         <v>3.69338756115308</v>
@@ -14148,10 +14148,10 @@
         <v>914</v>
       </c>
       <c r="Q58" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R58" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S58" t="n">
         <v>3.69338756115308</v>
@@ -14536,10 +14536,10 @@
         <v>1828</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R60" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S60"/>
       <c r="T60"/>
@@ -14910,10 +14910,10 @@
         <v>2862</v>
       </c>
       <c r="Q62" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R62" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S62"/>
       <c r="T62"/>
@@ -15092,10 +15092,10 @@
         <v>5680</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R63" t="n">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="S63"/>
       <c r="T63"/>
@@ -18582,10 +18582,10 @@
         <v>2397</v>
       </c>
       <c r="Q82" t="n">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="R82" t="n">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="S82"/>
       <c r="T82"/>
@@ -19068,10 +19068,10 @@
         <v>2000</v>
       </c>
       <c r="Q85" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R85" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S85" t="n">
         <v>7.58803134009261</v>
@@ -20248,10 +20248,10 @@
         <v>900</v>
       </c>
       <c r="Q91" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="R91" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S91" t="n">
         <v>30.708769920371</v>
@@ -21204,10 +21204,10 @@
         <v>6230</v>
       </c>
       <c r="Q96" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="R96" t="n">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="S96" t="n">
         <v>5.84575248906206</v>
@@ -21433,7 +21433,7 @@
         <v>50</v>
       </c>
       <c r="R97" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S97"/>
       <c r="T97"/>
@@ -21786,10 +21786,10 @@
         <v>867</v>
       </c>
       <c r="Q99" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="R99" t="n">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="S99"/>
       <c r="T99"/>
@@ -22030,10 +22030,10 @@
         <v>4343</v>
       </c>
       <c r="Q100" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="R100" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="S100"/>
       <c r="T100"/>
@@ -22222,10 +22222,10 @@
         <v>2397</v>
       </c>
       <c r="Q101" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R101" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S101"/>
       <c r="T101"/>
@@ -22398,7 +22398,7 @@
         <v>2286</v>
       </c>
       <c r="Q102" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="R102" t="n">
         <v>160</v>
@@ -22946,10 +22946,10 @@
         <v>3231</v>
       </c>
       <c r="Q105" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="R105" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="S105"/>
       <c r="T105"/>
@@ -23462,10 +23462,10 @@
         <v>2397</v>
       </c>
       <c r="Q108" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R108" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="S108"/>
       <c r="T108"/>
@@ -24346,10 +24346,10 @@
         <v>180</v>
       </c>
       <c r="Q113" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="R113" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S113" t="n">
         <v>5.84575248906206</v>
@@ -24758,10 +24758,10 @@
         <v>3294</v>
       </c>
       <c r="Q115" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="R115" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S115"/>
       <c r="T115"/>
@@ -24946,10 +24946,10 @@
         <v>1735</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R116" t="n">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="S116"/>
       <c r="T116"/>
@@ -25142,10 +25142,10 @@
         <v>980</v>
       </c>
       <c r="Q117" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R117" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S117" t="n">
         <v>1.00828875514752</v>
@@ -25366,10 +25366,10 @@
         <v>1680</v>
       </c>
       <c r="Q118" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R118" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S118" t="n">
         <v>5.84575248906206</v>
@@ -25590,10 +25590,10 @@
         <v>2500</v>
       </c>
       <c r="Q119" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R119" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S119" t="n">
         <v>5.84575248906206</v>
@@ -25806,10 +25806,10 @@
         <v>1735</v>
       </c>
       <c r="Q120" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="R120" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S120"/>
       <c r="T120"/>
@@ -26160,10 +26160,10 @@
         <v>918</v>
       </c>
       <c r="Q122" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R122" t="n">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="S122"/>
       <c r="T122"/>
@@ -26536,10 +26536,10 @@
         <v>2397</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R124" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="S124" t="n">
         <v>5.84575248906206</v>
@@ -27284,10 +27284,10 @@
         <v>2397</v>
       </c>
       <c r="Q128" t="n">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="R128" t="n">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="S128" t="n">
         <v>1.00828875514752</v>
@@ -27486,10 +27486,10 @@
         <v>3124</v>
       </c>
       <c r="Q129" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="R129" t="n">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="S129"/>
       <c r="T129"/>
@@ -28034,10 +28034,10 @@
         <v>2896</v>
       </c>
       <c r="Q132" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="R132" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S132"/>
       <c r="T132"/>
@@ -28200,10 +28200,10 @@
         <v>2397</v>
       </c>
       <c r="Q133" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R133" t="n">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="S133"/>
       <c r="T133"/>
@@ -28370,10 +28370,10 @@
         <v>1133</v>
       </c>
       <c r="Q134" t="n">
+        <v>60</v>
+      </c>
+      <c r="R134" t="n">
         <v>100</v>
-      </c>
-      <c r="R134" t="n">
-        <v>160</v>
       </c>
       <c r="S134" t="n">
         <v>5.84575248906206</v>
@@ -28750,10 +28750,10 @@
         <v>2397</v>
       </c>
       <c r="Q136" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="R136" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S136"/>
       <c r="T136"/>
@@ -28930,10 +28930,10 @@
         <v>2397</v>
       </c>
       <c r="Q137" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="R137" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S137" t="n">
         <v>5.84575248906206</v>
@@ -29840,7 +29840,7 @@
         <v>2397</v>
       </c>
       <c r="Q142" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R142" t="n">
         <v>160</v>
@@ -30218,10 +30218,10 @@
         <v>2397</v>
       </c>
       <c r="Q144" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R144" t="n">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="S144"/>
       <c r="T144"/>
@@ -30602,10 +30602,10 @@
         <v>2397</v>
       </c>
       <c r="Q146" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="R146" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S146"/>
       <c r="T146"/>
@@ -30760,10 +30760,10 @@
         <v>2397</v>
       </c>
       <c r="Q147" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R147" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="S147"/>
       <c r="T147"/>
@@ -30914,10 +30914,10 @@
         <v>1208</v>
       </c>
       <c r="Q148" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R148" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="S148"/>
       <c r="T148"/>
@@ -31120,10 +31120,10 @@
         <v>1854</v>
       </c>
       <c r="Q149" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="R149" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="S149"/>
       <c r="T149"/>
@@ -31338,10 +31338,10 @@
         <v>7500</v>
       </c>
       <c r="Q150" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="R150" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="S150"/>
       <c r="T150"/>
@@ -31564,10 +31564,10 @@
         <v>813</v>
       </c>
       <c r="Q151" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R151" t="n">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="S151"/>
       <c r="T151"/>
@@ -31802,10 +31802,10 @@
         <v>1770</v>
       </c>
       <c r="Q152" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="R152" t="n">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="S152"/>
       <c r="T152"/>
@@ -32028,10 +32028,10 @@
         <v>5000</v>
       </c>
       <c r="Q153" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="R153" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S153"/>
       <c r="T153"/>
@@ -32257,7 +32257,7 @@
         <v>40</v>
       </c>
       <c r="R154" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="S154"/>
       <c r="T154"/>
@@ -32480,10 +32480,10 @@
         <v>1921</v>
       </c>
       <c r="Q155" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R155" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="S155"/>
       <c r="T155"/>
@@ -32718,10 +32718,10 @@
         <v>1854</v>
       </c>
       <c r="Q156" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="R156" t="n">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="S156"/>
       <c r="T156"/>
@@ -32944,10 +32944,10 @@
         <v>1700</v>
       </c>
       <c r="Q157" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R157" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S157"/>
       <c r="T157"/>
@@ -33346,10 +33346,10 @@
         <v>1700</v>
       </c>
       <c r="Q159" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R159" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S159" t="n">
         <v>5.84575248906206</v>
@@ -33556,10 +33556,10 @@
         <v>2743</v>
       </c>
       <c r="Q160" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R160" t="n">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="S160"/>
       <c r="T160"/>
@@ -33892,10 +33892,10 @@
         <v>2376</v>
       </c>
       <c r="Q162" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="R162" t="n">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="S162"/>
       <c r="T162"/>
@@ -34100,10 +34100,10 @@
         <v>3577</v>
       </c>
       <c r="Q163" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R163" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S163" t="n">
         <v>5.84575248906206</v>
@@ -34326,10 +34326,10 @@
         <v>1121</v>
       </c>
       <c r="Q164" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R164" t="n">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="S164"/>
       <c r="T164"/>
@@ -34518,10 +34518,10 @@
         <v>2397</v>
       </c>
       <c r="Q165" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R165" t="n">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="S165"/>
       <c r="T165"/>
@@ -34696,10 +34696,10 @@
         <v>4533</v>
       </c>
       <c r="Q166" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="R166" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="S166"/>
       <c r="T166"/>
@@ -35190,10 +35190,10 @@
         <v>4533</v>
       </c>
       <c r="Q168" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="R168" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S168"/>
       <c r="T168"/>
@@ -35684,10 +35684,10 @@
         <v>5020</v>
       </c>
       <c r="Q170" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="R170" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S170" t="n">
         <v>1.85748624915521</v>
@@ -35950,10 +35950,10 @@
         <v>4533</v>
       </c>
       <c r="Q171" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="R171" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S171"/>
       <c r="T171"/>
@@ -36198,10 +36198,10 @@
         <v>1040</v>
       </c>
       <c r="Q172" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="R172" t="n">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="S172"/>
       <c r="T172"/>
@@ -36452,10 +36452,10 @@
         <v>4533</v>
       </c>
       <c r="Q173" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="R173" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="S173"/>
       <c r="T173"/>
@@ -36706,10 +36706,10 @@
         <v>600</v>
       </c>
       <c r="Q174" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R174" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="S174"/>
       <c r="T174"/>
@@ -36960,10 +36960,10 @@
         <v>836</v>
       </c>
       <c r="Q175" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R175" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S175" t="n">
         <v>5.84575248906206</v>
@@ -37228,10 +37228,10 @@
         <v>4533</v>
       </c>
       <c r="Q176" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R176" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="S176"/>
       <c r="T176"/>
@@ -37482,7 +37482,7 @@
         <v>3667</v>
       </c>
       <c r="Q177" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="R177" t="n">
         <v>100</v>
@@ -37916,10 +37916,10 @@
         <v>225</v>
       </c>
       <c r="Q179" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R179" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S179" t="n">
         <v>5.84575248906206</v>
@@ -38326,10 +38326,10 @@
         <v>1947</v>
       </c>
       <c r="Q181" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="R181" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="S181"/>
       <c r="T181"/>
@@ -38706,10 +38706,10 @@
         <v>3991</v>
       </c>
       <c r="Q183" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="R183" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="S183"/>
       <c r="T183"/>
@@ -39664,10 +39664,10 @@
         <v>1207</v>
       </c>
       <c r="Q188" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="R188" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="S188" t="n">
         <v>5.84575248906206</v>
@@ -40266,10 +40266,10 @@
         <v>2397</v>
       </c>
       <c r="Q191" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R191" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="S191" t="n">
         <v>5.84575248906206</v>
@@ -40952,10 +40952,10 @@
         <v>2397</v>
       </c>
       <c r="Q195" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="R195" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="S195"/>
       <c r="T195"/>
@@ -41280,10 +41280,10 @@
         <v>225</v>
       </c>
       <c r="Q197" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R197" t="n">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="S197"/>
       <c r="T197"/>
@@ -41444,10 +41444,10 @@
         <v>2397</v>
       </c>
       <c r="Q198" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="R198" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="S198"/>
       <c r="T198"/>
@@ -41984,10 +41984,10 @@
         <v>4007</v>
       </c>
       <c r="Q201" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R201" t="n">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="S201"/>
       <c r="T201"/>
@@ -42160,10 +42160,10 @@
         <v>1600</v>
       </c>
       <c r="Q202" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="R202" t="n">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="S202"/>
       <c r="T202"/>
@@ -42510,10 +42510,10 @@
         <v>2397</v>
       </c>
       <c r="Q204" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="R204" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="S204"/>
       <c r="T204"/>
@@ -42854,10 +42854,10 @@
         <v>918</v>
       </c>
       <c r="Q206" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="R206" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="S206"/>
       <c r="T206"/>
@@ -43412,10 +43412,10 @@
         <v>1676</v>
       </c>
       <c r="Q209" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="R209" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="S209"/>
       <c r="T209"/>
@@ -43790,10 +43790,10 @@
         <v>4826</v>
       </c>
       <c r="Q211" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R211" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S211"/>
       <c r="T211"/>
@@ -44542,10 +44542,10 @@
         <v>2397</v>
       </c>
       <c r="Q215" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R215" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="S215"/>
       <c r="T215"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3496,7 +3496,7 @@
         <v>92.58500965</v>
       </c>
       <c r="CP2" t="n">
-        <v>13.1429144607362</v>
+        <v>13.0469018381866</v>
       </c>
       <c r="CQ2" t="n">
         <v>3.56342857142857</v>
@@ -3507,7 +3507,9 @@
       <c r="CS2" t="n">
         <v>0.493866666666667</v>
       </c>
-      <c r="CT2"/>
+      <c r="CT2" t="n">
+        <v>0.011804336421227</v>
+      </c>
       <c r="CU2"/>
       <c r="CV2"/>
       <c r="CW2" t="n">
@@ -3739,7 +3741,7 @@
         <v>92.58500965</v>
       </c>
       <c r="CP3" t="n">
-        <v>13.937954521445</v>
+        <v>13.9389667970344</v>
       </c>
       <c r="CQ3" t="n">
         <v>3.56342857142857</v>
@@ -3750,7 +3752,9 @@
       <c r="CS3" t="n">
         <v>0.505120833333333</v>
       </c>
-      <c r="CT3"/>
+      <c r="CT3" t="n">
+        <v>0.011804336421227</v>
+      </c>
       <c r="CU3"/>
       <c r="CV3"/>
       <c r="CW3" t="n">
@@ -3950,7 +3954,7 @@
         <v>113.0531827587</v>
       </c>
       <c r="CP4" t="n">
-        <v>25.5867588721623</v>
+        <v>25.147592234078</v>
       </c>
       <c r="CQ4"/>
       <c r="CR4" t="n">
@@ -3959,7 +3963,9 @@
       <c r="CS4" t="n">
         <v>0.436866428571429</v>
       </c>
-      <c r="CT4"/>
+      <c r="CT4" t="n">
+        <v>0.0317315789946626</v>
+      </c>
       <c r="CU4"/>
       <c r="CV4"/>
       <c r="CW4"/>
@@ -4193,7 +4199,7 @@
         <v>84.8316485571875</v>
       </c>
       <c r="CP5" t="n">
-        <v>21.8045629371992</v>
+        <v>21.6715675992139</v>
       </c>
       <c r="CQ5" t="n">
         <v>3.482</v>
@@ -4204,7 +4210,9 @@
       <c r="CS5" t="n">
         <v>0.483775</v>
       </c>
-      <c r="CT5"/>
+      <c r="CT5" t="n">
+        <v>0.0273349173971845</v>
+      </c>
       <c r="CU5"/>
       <c r="CV5"/>
       <c r="CW5" t="n">
@@ -4455,7 +4463,9 @@
       <c r="CS6" t="n">
         <v>0.483775</v>
       </c>
-      <c r="CT6"/>
+      <c r="CT6" t="n">
+        <v>0.0273349173971845</v>
+      </c>
       <c r="CU6"/>
       <c r="CV6"/>
       <c r="CW6" t="n">
@@ -4706,7 +4716,9 @@
       <c r="CS7" t="n">
         <v>0.4867</v>
       </c>
-      <c r="CT7"/>
+      <c r="CT7" t="n">
+        <v>0.0273349173971845</v>
+      </c>
       <c r="CU7"/>
       <c r="CV7"/>
       <c r="CW7" t="n">
@@ -4957,7 +4969,9 @@
       <c r="CS8" t="n">
         <v>0.483775</v>
       </c>
-      <c r="CT8"/>
+      <c r="CT8" t="n">
+        <v>0.0273349173971845</v>
+      </c>
       <c r="CU8"/>
       <c r="CV8"/>
       <c r="CW8" t="n">
@@ -5208,7 +5222,9 @@
       <c r="CS9" t="n">
         <v>0.483775</v>
       </c>
-      <c r="CT9"/>
+      <c r="CT9" t="n">
+        <v>0.0359649414571146</v>
+      </c>
       <c r="CU9"/>
       <c r="CV9"/>
       <c r="CW9" t="n">
@@ -5448,7 +5464,7 @@
         <v>131.195769230769</v>
       </c>
       <c r="CP10" t="n">
-        <v>23.9728856072034</v>
+        <v>25.3039417344038</v>
       </c>
       <c r="CQ10" t="n">
         <v>3.482</v>
@@ -5459,7 +5475,9 @@
       <c r="CS10" t="n">
         <v>0.468</v>
       </c>
-      <c r="CT10"/>
+      <c r="CT10" t="n">
+        <v>0.0490416339456</v>
+      </c>
       <c r="CU10"/>
       <c r="CV10"/>
       <c r="CW10" t="n">
@@ -6036,7 +6054,9 @@
       <c r="CS13" t="n">
         <v>0.46625</v>
       </c>
-      <c r="CT13"/>
+      <c r="CT13" t="n">
+        <v>0.05746255776</v>
+      </c>
       <c r="CU13"/>
       <c r="CV13"/>
       <c r="CW13" t="n">
@@ -7495,7 +7515,7 @@
         <v>98.5</v>
       </c>
       <c r="CP21" t="n">
-        <v>14.3124063712715</v>
+        <v>13.9212910603058</v>
       </c>
       <c r="CQ21" t="n">
         <v>2.78</v>
@@ -7917,7 +7937,7 @@
       </c>
       <c r="CO23"/>
       <c r="CP23" t="n">
-        <v>24.1431527897589</v>
+        <v>24.273540179119</v>
       </c>
       <c r="CQ23"/>
       <c r="CR23" t="n">
@@ -7926,7 +7946,9 @@
       <c r="CS23" t="n">
         <v>0.469156622886658</v>
       </c>
-      <c r="CT23"/>
+      <c r="CT23" t="n">
+        <v>0.0758497114944</v>
+      </c>
       <c r="CU23"/>
       <c r="CV23"/>
       <c r="CW23" t="n">
@@ -8295,14 +8317,16 @@
       </c>
       <c r="CO25"/>
       <c r="CP25" t="n">
-        <v>40.5837975695582</v>
+        <v>40.7966407233239</v>
       </c>
       <c r="CQ25"/>
       <c r="CR25" t="n">
         <v>20.0766666666667</v>
       </c>
       <c r="CS25"/>
-      <c r="CT25"/>
+      <c r="CT25" t="n">
+        <v>0.0515230819585503</v>
+      </c>
       <c r="CU25"/>
       <c r="CV25"/>
       <c r="CW25"/>
@@ -8492,14 +8516,16 @@
       <c r="CN26"/>
       <c r="CO26"/>
       <c r="CP26" t="n">
-        <v>19.3332548029029</v>
+        <v>20.6625691552405</v>
       </c>
       <c r="CQ26"/>
       <c r="CR26"/>
       <c r="CS26" t="n">
         <v>0.434984516816981</v>
       </c>
-      <c r="CT26"/>
+      <c r="CT26" t="n">
+        <v>0.0558769486647266</v>
+      </c>
       <c r="CU26"/>
       <c r="CV26"/>
       <c r="CW26"/>
@@ -8932,18 +8958,20 @@
         <v>118.999715799789</v>
       </c>
       <c r="CP28" t="n">
-        <v>24.6611082721896</v>
+        <v>24.5043118609979</v>
       </c>
       <c r="CQ28" t="n">
-        <v>14.3431034482759</v>
+        <v>12.534</v>
       </c>
       <c r="CR28" t="n">
-        <v>10.4093535770836</v>
+        <v>9.70847378005995</v>
       </c>
       <c r="CS28" t="n">
         <v>0.4777</v>
       </c>
-      <c r="CT28"/>
+      <c r="CT28" t="n">
+        <v>0.0492117783170956</v>
+      </c>
       <c r="CU28"/>
       <c r="CV28"/>
       <c r="CW28" t="n">
@@ -9716,12 +9744,10 @@
         <v>45.48</v>
       </c>
       <c r="CP32" t="n">
-        <v>13.86990821552</v>
+        <v>13.900727056166</v>
       </c>
       <c r="CQ32"/>
-      <c r="CR32" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="CR32"/>
       <c r="CS32" t="n">
         <v>0.523274722222222</v>
       </c>
@@ -9915,14 +9941,16 @@
         <v>80.53109936</v>
       </c>
       <c r="CP33" t="n">
-        <v>22.2521263378525</v>
+        <v>22.4787673237643</v>
       </c>
       <c r="CQ33"/>
       <c r="CR33" t="n">
         <v>10.4615</v>
       </c>
       <c r="CS33"/>
-      <c r="CT33"/>
+      <c r="CT33" t="n">
+        <v>0.0431565859872</v>
+      </c>
       <c r="CU33"/>
       <c r="CV33"/>
       <c r="CW33"/>
@@ -10112,7 +10140,7 @@
         <v>59</v>
       </c>
       <c r="CP34" t="n">
-        <v>21.9592043010789</v>
+        <v>22.2310823529451</v>
       </c>
       <c r="CQ34"/>
       <c r="CR34" t="n">
@@ -10121,7 +10149,9 @@
       <c r="CS34" t="n">
         <v>0.482704166666667</v>
       </c>
-      <c r="CT34"/>
+      <c r="CT34" t="n">
+        <v>0.03562765056</v>
+      </c>
       <c r="CU34"/>
       <c r="CV34"/>
       <c r="CW34"/>
@@ -10501,7 +10531,9 @@
       <c r="CS36" t="n">
         <v>0.476675</v>
       </c>
-      <c r="CT36"/>
+      <c r="CT36" t="n">
+        <v>0.0380943858187636</v>
+      </c>
       <c r="CU36"/>
       <c r="CV36"/>
       <c r="CW36" t="n">
@@ -10693,7 +10725,7 @@
       <c r="CN37"/>
       <c r="CO37"/>
       <c r="CP37" t="n">
-        <v>18.06</v>
+        <v>15.2</v>
       </c>
       <c r="CQ37"/>
       <c r="CR37"/>
@@ -13105,7 +13137,7 @@
         <v>167</v>
       </c>
       <c r="CP49" t="n">
-        <v>16.9614154545455</v>
+        <v>15.6018</v>
       </c>
       <c r="CQ49"/>
       <c r="CR49"/>
@@ -13531,7 +13563,7 @@
         <v>167</v>
       </c>
       <c r="CP51" t="n">
-        <v>16.5982398783448</v>
+        <v>16.3348562911437</v>
       </c>
       <c r="CQ51"/>
       <c r="CR51"/>
@@ -13738,7 +13770,7 @@
         <v>167</v>
       </c>
       <c r="CP52" t="n">
-        <v>16.5982398783448</v>
+        <v>16.3348562911437</v>
       </c>
       <c r="CQ52"/>
       <c r="CR52"/>
@@ -14124,12 +14156,14 @@
       </c>
       <c r="CO54"/>
       <c r="CP54" t="n">
-        <v>22.5817809394327</v>
+        <v>22.7049225232814</v>
       </c>
       <c r="CQ54"/>
       <c r="CR54"/>
       <c r="CS54"/>
-      <c r="CT54"/>
+      <c r="CT54" t="n">
+        <v>0.0282928512384</v>
+      </c>
       <c r="CU54"/>
       <c r="CV54"/>
       <c r="CW54"/>
@@ -14670,7 +14704,9 @@
       <c r="CQ57"/>
       <c r="CR57"/>
       <c r="CS57"/>
-      <c r="CT57"/>
+      <c r="CT57" t="n">
+        <v>0.037529016984</v>
+      </c>
       <c r="CU57"/>
       <c r="CV57"/>
       <c r="CW57"/>
@@ -14882,14 +14918,16 @@
         <v>85.256940525</v>
       </c>
       <c r="CP58" t="n">
-        <v>22.1769825753718</v>
+        <v>21.2284816073368</v>
       </c>
       <c r="CQ58"/>
       <c r="CR58" t="n">
         <v>7.81280136568781</v>
       </c>
       <c r="CS58"/>
-      <c r="CT58"/>
+      <c r="CT58" t="n">
+        <v>0.0269318125770026</v>
+      </c>
       <c r="CU58"/>
       <c r="CV58"/>
       <c r="CW58" t="n">
@@ -15071,7 +15109,7 @@
       <c r="CN59"/>
       <c r="CO59"/>
       <c r="CP59" t="n">
-        <v>13.86</v>
+        <v>18.7</v>
       </c>
       <c r="CQ59"/>
       <c r="CR59" t="n">
@@ -15266,12 +15304,14 @@
       </c>
       <c r="CO60"/>
       <c r="CP60" t="n">
-        <v>22.7632285714286</v>
+        <v>23.4094848484848</v>
       </c>
       <c r="CQ60"/>
       <c r="CR60"/>
       <c r="CS60"/>
-      <c r="CT60"/>
+      <c r="CT60" t="n">
+        <v>0.0223620008465991</v>
+      </c>
       <c r="CU60"/>
       <c r="CV60"/>
       <c r="CW60" t="n">
@@ -15841,7 +15881,7 @@
       <c r="CN63"/>
       <c r="CO63"/>
       <c r="CP63" t="n">
-        <v>10.0554848484833</v>
+        <v>10.5010333333317</v>
       </c>
       <c r="CQ63"/>
       <c r="CR63" t="n">
@@ -19303,7 +19343,7 @@
       <c r="CN81"/>
       <c r="CO81"/>
       <c r="CP81" t="n">
-        <v>26.817106</v>
+        <v>29.8463825</v>
       </c>
       <c r="CQ81"/>
       <c r="CR81"/>
@@ -19633,7 +19673,7 @@
       <c r="CN83"/>
       <c r="CO83"/>
       <c r="CP83" t="n">
-        <v>23.4548571428571</v>
+        <v>23.6</v>
       </c>
       <c r="CQ83"/>
       <c r="CR83"/>
@@ -20228,7 +20268,7 @@
       <c r="CN86"/>
       <c r="CO86"/>
       <c r="CP86" t="n">
-        <v>8.97867384206412</v>
+        <v>9.02572746498087</v>
       </c>
       <c r="CQ86"/>
       <c r="CR86"/>
@@ -20636,7 +20676,7 @@
       <c r="CN88"/>
       <c r="CO88"/>
       <c r="CP88" t="n">
-        <v>12.6118055555556</v>
+        <v>11.9219696969697</v>
       </c>
       <c r="CQ88"/>
       <c r="CR88"/>
@@ -21255,7 +21295,7 @@
       <c r="CN91"/>
       <c r="CO91"/>
       <c r="CP91" t="n">
-        <v>14.5428571428571</v>
+        <v>13.6</v>
       </c>
       <c r="CQ91"/>
       <c r="CR91"/>
@@ -21663,7 +21703,7 @@
       <c r="CN93"/>
       <c r="CO93"/>
       <c r="CP93" t="n">
-        <v>8.97867384206412</v>
+        <v>9.02572746498087</v>
       </c>
       <c r="CQ93"/>
       <c r="CR93"/>
@@ -22278,14 +22318,16 @@
         <v>147.585608009878</v>
       </c>
       <c r="CP96" t="n">
-        <v>13.5261659414874</v>
+        <v>13.3174953162222</v>
       </c>
       <c r="CQ96"/>
       <c r="CR96"/>
       <c r="CS96" t="n">
         <v>0.418166052083333</v>
       </c>
-      <c r="CT96"/>
+      <c r="CT96" t="n">
+        <v>0.0230095463340979</v>
+      </c>
       <c r="CU96"/>
       <c r="CV96"/>
       <c r="CW96"/>
@@ -22652,7 +22694,7 @@
       <c r="CN98"/>
       <c r="CO98"/>
       <c r="CP98" t="n">
-        <v>24.413768510827</v>
+        <v>24.4185983605435</v>
       </c>
       <c r="CQ98"/>
       <c r="CR98" t="n">
@@ -22903,10 +22945,10 @@
         <v>89.8262177317391</v>
       </c>
       <c r="CP99" t="n">
-        <v>23.4957936691876</v>
+        <v>23.4561670336071</v>
       </c>
       <c r="CQ99" t="n">
-        <v>14.0333333333333</v>
+        <v>8.875</v>
       </c>
       <c r="CR99" t="n">
         <v>11.511125</v>
@@ -22914,7 +22956,9 @@
       <c r="CS99" t="n">
         <v>0.481976315789474</v>
       </c>
-      <c r="CT99"/>
+      <c r="CT99" t="n">
+        <v>0.0211986338533469</v>
+      </c>
       <c r="CU99"/>
       <c r="CV99"/>
       <c r="CW99" t="n">
@@ -23117,7 +23161,9 @@
       <c r="CS100" t="n">
         <v>0.450664285714286</v>
       </c>
-      <c r="CT100"/>
+      <c r="CT100" t="n">
+        <v>0.0391513889033087</v>
+      </c>
       <c r="CU100"/>
       <c r="CV100"/>
       <c r="CW100" t="n">
@@ -23516,7 +23562,7 @@
         <v>149.982301131622</v>
       </c>
       <c r="CP102" t="n">
-        <v>23.577442601459</v>
+        <v>23.7249735142833</v>
       </c>
       <c r="CQ102"/>
       <c r="CR102" t="n">
@@ -23525,7 +23571,9 @@
       <c r="CS102" t="n">
         <v>0.48496</v>
       </c>
-      <c r="CT102"/>
+      <c r="CT102" t="n">
+        <v>0.02987156153889</v>
+      </c>
       <c r="CU102"/>
       <c r="CV102"/>
       <c r="CW102" t="n">
@@ -24769,7 +24817,7 @@
         <v>72.10560624</v>
       </c>
       <c r="CP109" t="n">
-        <v>15.4875254629294</v>
+        <v>15.6797220384727</v>
       </c>
       <c r="CQ109"/>
       <c r="CR109"/>
@@ -25338,14 +25386,16 @@
       </c>
       <c r="CO112"/>
       <c r="CP112" t="n">
-        <v>23.1890530930041</v>
+        <v>23.9421267329851</v>
       </c>
       <c r="CQ112"/>
       <c r="CR112"/>
       <c r="CS112" t="n">
         <v>0.454716666666666</v>
       </c>
-      <c r="CT112"/>
+      <c r="CT112" t="n">
+        <v>0.0279394509826875</v>
+      </c>
       <c r="CU112"/>
       <c r="CV112"/>
       <c r="CW112" t="n">
@@ -25579,7 +25629,7 @@
         <v>76.2404400806452</v>
       </c>
       <c r="CP113" t="n">
-        <v>15.9839310611604</v>
+        <v>16.0949357256219</v>
       </c>
       <c r="CQ113"/>
       <c r="CR113" t="n">
@@ -25588,7 +25638,9 @@
       <c r="CS113" t="n">
         <v>0.458</v>
       </c>
-      <c r="CT113"/>
+      <c r="CT113" t="n">
+        <v>0.0377221956891429</v>
+      </c>
       <c r="CU113"/>
       <c r="CV113"/>
       <c r="CW113" t="n">
@@ -25969,7 +26021,7 @@
         <v>106.940436168043</v>
       </c>
       <c r="CP115" t="n">
-        <v>25.2611044496926</v>
+        <v>25.4476916561168</v>
       </c>
       <c r="CQ115"/>
       <c r="CR115"/>
@@ -26178,7 +26230,7 @@
       </c>
       <c r="CO116"/>
       <c r="CP116" t="n">
-        <v>11.5277756398871</v>
+        <v>11.3870262361635</v>
       </c>
       <c r="CQ116"/>
       <c r="CR116" t="n">
@@ -26187,7 +26239,9 @@
       <c r="CS116" t="n">
         <v>0.50205</v>
       </c>
-      <c r="CT116"/>
+      <c r="CT116" t="n">
+        <v>0.0109097050036749</v>
+      </c>
       <c r="CU116"/>
       <c r="CV116"/>
       <c r="CW116" t="n">
@@ -26407,7 +26461,7 @@
       </c>
       <c r="CO117"/>
       <c r="CP117" t="n">
-        <v>12.1067945800671</v>
+        <v>11.5446359363524</v>
       </c>
       <c r="CQ117"/>
       <c r="CR117" t="n">
@@ -26416,7 +26470,9 @@
       <c r="CS117" t="n">
         <v>0.50205</v>
       </c>
-      <c r="CT117"/>
+      <c r="CT117" t="n">
+        <v>0.0109097050036749</v>
+      </c>
       <c r="CU117"/>
       <c r="CV117"/>
       <c r="CW117" t="n">
@@ -26642,7 +26698,7 @@
       </c>
       <c r="CO118"/>
       <c r="CP118" t="n">
-        <v>8.54908</v>
+        <v>8.26779166666667</v>
       </c>
       <c r="CQ118"/>
       <c r="CR118" t="n">
@@ -26651,7 +26707,9 @@
       <c r="CS118" t="n">
         <v>0.50205</v>
       </c>
-      <c r="CT118"/>
+      <c r="CT118" t="n">
+        <v>0.0109097050036749</v>
+      </c>
       <c r="CU118"/>
       <c r="CV118"/>
       <c r="CW118" t="n">
@@ -26878,7 +26936,9 @@
       <c r="CS119" t="n">
         <v>0.5212</v>
       </c>
-      <c r="CT119"/>
+      <c r="CT119" t="n">
+        <v>0.0109097050036749</v>
+      </c>
       <c r="CU119"/>
       <c r="CV119"/>
       <c r="CW119" t="n">
@@ -27099,7 +27159,9 @@
       <c r="CS120" t="n">
         <v>0.50205</v>
       </c>
-      <c r="CT120"/>
+      <c r="CT120" t="n">
+        <v>0.0109097050036749</v>
+      </c>
       <c r="CU120"/>
       <c r="CV120"/>
       <c r="CW120" t="n">
@@ -27456,16 +27518,18 @@
         <v>86.5573446507407</v>
       </c>
       <c r="CP122" t="n">
-        <v>19.765796680761</v>
+        <v>19.8688549686565</v>
       </c>
       <c r="CQ122"/>
       <c r="CR122" t="n">
-        <v>11.6060065801784</v>
+        <v>11.322015600662</v>
       </c>
       <c r="CS122" t="n">
         <v>0.48636</v>
       </c>
-      <c r="CT122"/>
+      <c r="CT122" t="n">
+        <v>0.0367006749452745</v>
+      </c>
       <c r="CU122"/>
       <c r="CV122"/>
       <c r="CW122"/>
@@ -28033,7 +28097,7 @@
       <c r="CN125"/>
       <c r="CO125"/>
       <c r="CP125" t="n">
-        <v>15.9821955555333</v>
+        <v>16.5616380952143</v>
       </c>
       <c r="CQ125"/>
       <c r="CR125"/>
@@ -28628,14 +28692,16 @@
       </c>
       <c r="CO128"/>
       <c r="CP128" t="n">
-        <v>19.9915070379984</v>
+        <v>19.7858257466356</v>
       </c>
       <c r="CQ128"/>
       <c r="CR128" t="n">
         <v>14.2875</v>
       </c>
       <c r="CS128"/>
-      <c r="CT128"/>
+      <c r="CT128" t="n">
+        <v>0.0367866432055544</v>
+      </c>
       <c r="CU128"/>
       <c r="CV128"/>
       <c r="CW128"/>
@@ -29019,7 +29085,9 @@
         <v>11.57930678519</v>
       </c>
       <c r="CS130"/>
-      <c r="CT130"/>
+      <c r="CT130" t="n">
+        <v>0.0103172098987573</v>
+      </c>
       <c r="CU130"/>
       <c r="CV130"/>
       <c r="CW130" t="n">
@@ -29380,7 +29448,7 @@
       <c r="CN132"/>
       <c r="CO132"/>
       <c r="CP132" t="n">
-        <v>25.3684115789474</v>
+        <v>26.46248875</v>
       </c>
       <c r="CQ132"/>
       <c r="CR132"/>
@@ -30146,14 +30214,16 @@
         <v>51.6308685822222</v>
       </c>
       <c r="CP136" t="n">
-        <v>21.4683094301103</v>
+        <v>21.5012436019635</v>
       </c>
       <c r="CQ136"/>
       <c r="CR136"/>
       <c r="CS136" t="n">
         <v>0.478183333333333</v>
       </c>
-      <c r="CT136"/>
+      <c r="CT136" t="n">
+        <v>0.0149180021907266</v>
+      </c>
       <c r="CU136"/>
       <c r="CV136"/>
       <c r="CW136" t="n">
@@ -30369,7 +30439,7 @@
         <v>93.9999584</v>
       </c>
       <c r="CP137" t="n">
-        <v>16.6964569357379</v>
+        <v>16.1105739326778</v>
       </c>
       <c r="CQ137"/>
       <c r="CR137"/>
@@ -31287,7 +31357,9 @@
         <v>13.856382766</v>
       </c>
       <c r="CS142"/>
-      <c r="CT142"/>
+      <c r="CT142" t="n">
+        <v>0.0142283445497308</v>
+      </c>
       <c r="CU142"/>
       <c r="CV142"/>
       <c r="CW142" t="n">
@@ -31489,7 +31561,7 @@
         <v>146.270075</v>
       </c>
       <c r="CP143" t="n">
-        <v>13.9463053703333</v>
+        <v>13.2636174509412</v>
       </c>
       <c r="CQ143" t="n">
         <v>2.78</v>
@@ -31694,7 +31766,7 @@
         <v>146.270075</v>
       </c>
       <c r="CP144" t="n">
-        <v>16.1342732727273</v>
+        <v>16.0917006</v>
       </c>
       <c r="CQ144" t="n">
         <v>2.78</v>
@@ -31900,7 +31972,9 @@
       <c r="CQ145"/>
       <c r="CR145"/>
       <c r="CS145"/>
-      <c r="CT145"/>
+      <c r="CT145" t="n">
+        <v>0.0499632639993274</v>
+      </c>
       <c r="CU145"/>
       <c r="CV145"/>
       <c r="CW145" t="n">
@@ -32062,7 +32136,7 @@
       <c r="CN146"/>
       <c r="CO146"/>
       <c r="CP146" t="n">
-        <v>13.4632653061224</v>
+        <v>13.6</v>
       </c>
       <c r="CQ146"/>
       <c r="CR146"/>
@@ -32436,18 +32510,20 @@
         <v>137.720171126791</v>
       </c>
       <c r="CP148" t="n">
-        <v>12.6614539492193</v>
+        <v>12.6236495429653</v>
       </c>
       <c r="CQ148" t="n">
-        <v>0.387227272727273</v>
+        <v>0.45</v>
       </c>
       <c r="CR148" t="n">
-        <v>12.3025925925926</v>
+        <v>12.0271698113208</v>
       </c>
       <c r="CS148" t="n">
         <v>0.478428947368421</v>
       </c>
-      <c r="CT148"/>
+      <c r="CT148" t="n">
+        <v>0.00915736819700804</v>
+      </c>
       <c r="CU148"/>
       <c r="CV148"/>
       <c r="CW148" t="n">
@@ -32670,15 +32746,17 @@
         <v>12.2240375</v>
       </c>
       <c r="CQ149" t="n">
-        <v>0.968119065561417</v>
+        <v>1.26556</v>
       </c>
       <c r="CR149" t="n">
-        <v>9.60824462605252</v>
+        <v>9.18747596834945</v>
       </c>
       <c r="CS149" t="n">
         <v>0.503422639225182</v>
       </c>
-      <c r="CT149"/>
+      <c r="CT149" t="n">
+        <v>0.0121060694584471</v>
+      </c>
       <c r="CU149"/>
       <c r="CV149"/>
       <c r="CW149" t="n">
@@ -32910,18 +32988,20 @@
         <v>128.987462279786</v>
       </c>
       <c r="CP150" t="n">
-        <v>11.9458083441982</v>
+        <v>11.9150749014455</v>
       </c>
       <c r="CQ150" t="n">
-        <v>0.968119065561417</v>
+        <v>1.26556</v>
       </c>
       <c r="CR150" t="n">
-        <v>9.60824462605252</v>
+        <v>9.18747596834945</v>
       </c>
       <c r="CS150" t="n">
         <v>0.497994300518135</v>
       </c>
-      <c r="CT150"/>
+      <c r="CT150" t="n">
+        <v>0.0121060694584471</v>
+      </c>
       <c r="CU150"/>
       <c r="CV150"/>
       <c r="CW150" t="n">
@@ -33165,18 +33245,20 @@
         <v>128.987462279786</v>
       </c>
       <c r="CP151" t="n">
-        <v>10.232811115119</v>
+        <v>10.2182769977453</v>
       </c>
       <c r="CQ151" t="n">
-        <v>0.968119065561417</v>
+        <v>1.26556</v>
       </c>
       <c r="CR151" t="n">
-        <v>9.60824462605252</v>
+        <v>9.18747596834945</v>
       </c>
       <c r="CS151" t="n">
         <v>0.506614795918367</v>
       </c>
-      <c r="CT151"/>
+      <c r="CT151" t="n">
+        <v>0.0121060694584471</v>
+      </c>
       <c r="CU151"/>
       <c r="CV151"/>
       <c r="CW151" t="n">
@@ -33408,18 +33490,20 @@
         <v>101.005</v>
       </c>
       <c r="CP152" t="n">
-        <v>9.80559016393443</v>
+        <v>9.79652991452991</v>
       </c>
       <c r="CQ152" t="n">
         <v>1.5171</v>
       </c>
       <c r="CR152" t="n">
-        <v>9.60824462605252</v>
+        <v>9.18747596834945</v>
       </c>
       <c r="CS152" t="n">
         <v>0.507330769230769</v>
       </c>
-      <c r="CT152"/>
+      <c r="CT152" t="n">
+        <v>0.0121060694584471</v>
+      </c>
       <c r="CU152"/>
       <c r="CV152"/>
       <c r="CW152" t="n">
@@ -33654,15 +33738,17 @@
         <v>11.5956124031008</v>
       </c>
       <c r="CQ153" t="n">
-        <v>0.968119065561417</v>
+        <v>1.26556</v>
       </c>
       <c r="CR153" t="n">
-        <v>9.60824462605252</v>
+        <v>9.18747596834945</v>
       </c>
       <c r="CS153" t="n">
         <v>0.508892682926829</v>
       </c>
-      <c r="CT153"/>
+      <c r="CT153" t="n">
+        <v>0.0121060694584471</v>
+      </c>
       <c r="CU153"/>
       <c r="CV153"/>
       <c r="CW153" t="n">
@@ -33894,10 +33980,10 @@
         <v>91.7582094676316</v>
       </c>
       <c r="CP154" t="n">
-        <v>13.075306425972</v>
+        <v>12.9762829845591</v>
       </c>
       <c r="CQ154" t="n">
-        <v>0.968119065561417</v>
+        <v>1.26556</v>
       </c>
       <c r="CR154" t="n">
         <v>7.36666666666667</v>
@@ -33905,7 +33991,9 @@
       <c r="CS154" t="n">
         <v>0.49685</v>
       </c>
-      <c r="CT154"/>
+      <c r="CT154" t="n">
+        <v>0.00663856073490305</v>
+      </c>
       <c r="CU154"/>
       <c r="CV154"/>
       <c r="CW154" t="n">
@@ -34149,18 +34237,20 @@
         <v>171.176828028342</v>
       </c>
       <c r="CP155" t="n">
-        <v>13.2548649290208</v>
+        <v>13.1598951745588</v>
       </c>
       <c r="CQ155" t="n">
-        <v>0.968119065561417</v>
+        <v>1.26556</v>
       </c>
       <c r="CR155" t="n">
-        <v>9.94234699153103</v>
+        <v>9.64265384615385</v>
       </c>
       <c r="CS155" t="n">
         <v>0.505008333333333</v>
       </c>
-      <c r="CT155"/>
+      <c r="CT155" t="n">
+        <v>0.0139729918926329</v>
+      </c>
       <c r="CU155"/>
       <c r="CV155"/>
       <c r="CW155" t="n">
@@ -34395,15 +34485,17 @@
         <v>10.9512955974843</v>
       </c>
       <c r="CQ156" t="n">
-        <v>0.968119065561417</v>
+        <v>1.26556</v>
       </c>
       <c r="CR156" t="n">
-        <v>9.60824462605252</v>
+        <v>9.18747596834945</v>
       </c>
       <c r="CS156" t="n">
         <v>0.502513793103448</v>
       </c>
-      <c r="CT156"/>
+      <c r="CT156" t="n">
+        <v>0.0121060694584471</v>
+      </c>
       <c r="CU156"/>
       <c r="CV156"/>
       <c r="CW156" t="n">
@@ -34607,12 +34699,14 @@
         <v>140.34195955</v>
       </c>
       <c r="CP157" t="n">
-        <v>16.2976077394835</v>
+        <v>15.4352750941042</v>
       </c>
       <c r="CQ157"/>
       <c r="CR157"/>
       <c r="CS157"/>
-      <c r="CT157"/>
+      <c r="CT157" t="n">
+        <v>0.0325139554627229</v>
+      </c>
       <c r="CU157"/>
       <c r="CV157"/>
       <c r="CW157" t="n">
@@ -34827,7 +34921,9 @@
       <c r="CQ158"/>
       <c r="CR158"/>
       <c r="CS158"/>
-      <c r="CT158"/>
+      <c r="CT158" t="n">
+        <v>0.0176032825327911</v>
+      </c>
       <c r="CU158"/>
       <c r="CV158"/>
       <c r="CW158" t="n">
@@ -35041,12 +35137,14 @@
         <v>140.34195955</v>
       </c>
       <c r="CP159" t="n">
-        <v>21.839802083375</v>
+        <v>20.8538361111667</v>
       </c>
       <c r="CQ159"/>
       <c r="CR159"/>
       <c r="CS159"/>
-      <c r="CT159"/>
+      <c r="CT159" t="n">
+        <v>0.0474246283926546</v>
+      </c>
       <c r="CU159"/>
       <c r="CV159"/>
       <c r="CW159" t="n">
@@ -35241,7 +35339,9 @@
       <c r="CS160" t="n">
         <v>0.4856</v>
       </c>
-      <c r="CT160"/>
+      <c r="CT160" t="n">
+        <v>0.0169381090501101</v>
+      </c>
       <c r="CU160"/>
       <c r="CV160"/>
       <c r="CW160" t="n">
@@ -35608,18 +35708,20 @@
         <v>120.874017308077</v>
       </c>
       <c r="CP162" t="n">
-        <v>22.5276416169189</v>
+        <v>22.3251204215748</v>
       </c>
       <c r="CQ162" t="n">
-        <v>0.501366409109394</v>
+        <v>0.472644867549669</v>
       </c>
       <c r="CR162" t="n">
-        <v>13.6035301985671</v>
+        <v>12.8826480398625</v>
       </c>
       <c r="CS162" t="n">
         <v>0.479157142857143</v>
       </c>
-      <c r="CT162"/>
+      <c r="CT162" t="n">
+        <v>0.06117497404818</v>
+      </c>
       <c r="CU162"/>
       <c r="CV162"/>
       <c r="CW162" t="n">
@@ -35847,7 +35949,7 @@
         <v>107.579938742467</v>
       </c>
       <c r="CP163" t="n">
-        <v>23.9415983760956</v>
+        <v>22.8819188147247</v>
       </c>
       <c r="CQ163"/>
       <c r="CR163" t="n">
@@ -35856,7 +35958,9 @@
       <c r="CS163" t="n">
         <v>0.478575</v>
       </c>
-      <c r="CT163"/>
+      <c r="CT163" t="n">
+        <v>0.019027899182825</v>
+      </c>
       <c r="CU163"/>
       <c r="CV163"/>
       <c r="CW163" t="n">
@@ -36050,10 +36154,10 @@
       </c>
       <c r="CO164"/>
       <c r="CP164" t="n">
-        <v>12.2568694875269</v>
+        <v>12.2867985117838</v>
       </c>
       <c r="CQ164" t="n">
-        <v>1.37038461538462</v>
+        <v>1.40714285714286</v>
       </c>
       <c r="CR164" t="n">
         <v>8.71</v>
@@ -36241,7 +36345,7 @@
       </c>
       <c r="CO165"/>
       <c r="CP165" t="n">
-        <v>20.0755654977688</v>
+        <v>19.7563707948379</v>
       </c>
       <c r="CQ165"/>
       <c r="CR165"/>
@@ -36502,18 +36606,20 @@
         <v>125.537049907594</v>
       </c>
       <c r="CP166" t="n">
-        <v>19.3005454545455</v>
+        <v>21.1051111111111</v>
       </c>
       <c r="CQ166" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR166" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS166" t="n">
         <v>0.485781818181818</v>
       </c>
-      <c r="CT166"/>
+      <c r="CT166" t="n">
+        <v>0.026477456432368</v>
+      </c>
       <c r="CU166"/>
       <c r="CV166"/>
       <c r="CW166" t="n">
@@ -36755,18 +36861,20 @@
         <v>125.537049907594</v>
       </c>
       <c r="CP167" t="n">
-        <v>13.0329743589487</v>
+        <v>12.94665277775</v>
       </c>
       <c r="CQ167" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR167" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS167" t="n">
         <v>0.475009438202247</v>
       </c>
-      <c r="CT167"/>
+      <c r="CT167" t="n">
+        <v>0.026477456432368</v>
+      </c>
       <c r="CU167"/>
       <c r="CV167"/>
       <c r="CW167" t="n">
@@ -37022,18 +37130,20 @@
         <v>125.537049907594</v>
       </c>
       <c r="CP168" t="n">
-        <v>20.27</v>
+        <v>20.8518285714286</v>
       </c>
       <c r="CQ168" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR168" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS168" t="n">
         <v>0.480466666666667</v>
       </c>
-      <c r="CT168"/>
+      <c r="CT168" t="n">
+        <v>0.026477456432368</v>
+      </c>
       <c r="CU168"/>
       <c r="CV168"/>
       <c r="CW168" t="n">
@@ -37275,18 +37385,20 @@
         <v>125.537049907594</v>
       </c>
       <c r="CP169" t="n">
-        <v>19.2996223335437</v>
+        <v>19.323167575011</v>
       </c>
       <c r="CQ169" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR169" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS169" t="n">
         <v>0.475009438202247</v>
       </c>
-      <c r="CT169"/>
+      <c r="CT169" t="n">
+        <v>0.026477456432368</v>
+      </c>
       <c r="CU169"/>
       <c r="CV169"/>
       <c r="CW169" t="n">
@@ -37554,18 +37666,20 @@
         <v>103.068982595</v>
       </c>
       <c r="CP170" t="n">
-        <v>14.1876481401174</v>
+        <v>14.1198330685549</v>
       </c>
       <c r="CQ170" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR170" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS170" t="n">
         <v>0.474009583333333</v>
       </c>
-      <c r="CT170"/>
+      <c r="CT170" t="n">
+        <v>0.0175780790517355</v>
+      </c>
       <c r="CU170"/>
       <c r="CV170"/>
       <c r="CW170" t="n">
@@ -37827,12 +37941,14 @@
         <v>5.6615</v>
       </c>
       <c r="CR171" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS171" t="n">
         <v>0.475009438202247</v>
       </c>
-      <c r="CT171"/>
+      <c r="CT171" t="n">
+        <v>0.026477456432368</v>
+      </c>
       <c r="CU171"/>
       <c r="CV171"/>
       <c r="CW171" t="n">
@@ -38082,7 +38198,7 @@
         <v>161.51085483871</v>
       </c>
       <c r="CP172" t="n">
-        <v>21.4200324882173</v>
+        <v>21.5857870958768</v>
       </c>
       <c r="CQ172" t="n">
         <v>5.6615</v>
@@ -38093,7 +38209,9 @@
       <c r="CS172" t="n">
         <v>0.47815</v>
       </c>
-      <c r="CT172"/>
+      <c r="CT172" t="n">
+        <v>0.0367835203694769</v>
+      </c>
       <c r="CU172"/>
       <c r="CV172"/>
       <c r="CW172" t="n">
@@ -38355,12 +38473,14 @@
         <v>5.6615</v>
       </c>
       <c r="CR173" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS173" t="n">
         <v>0.475009438202247</v>
       </c>
-      <c r="CT173"/>
+      <c r="CT173" t="n">
+        <v>0.026477456432368</v>
+      </c>
       <c r="CU173"/>
       <c r="CV173"/>
       <c r="CW173" t="n">
@@ -38616,18 +38736,20 @@
         <v>134.00375</v>
       </c>
       <c r="CP174" t="n">
-        <v>18.8794533474171</v>
+        <v>19.1972206720149</v>
       </c>
       <c r="CQ174" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR174" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS174" t="n">
         <v>0.48216875</v>
       </c>
-      <c r="CT174"/>
+      <c r="CT174" t="n">
+        <v>0.0297744813159442</v>
+      </c>
       <c r="CU174"/>
       <c r="CV174"/>
       <c r="CW174" t="n">
@@ -38897,7 +39019,7 @@
         <v>143.000251524</v>
       </c>
       <c r="CP175" t="n">
-        <v>22.303404895265</v>
+        <v>22.2178752696655</v>
       </c>
       <c r="CQ175" t="n">
         <v>5.6615</v>
@@ -38908,7 +39030,9 @@
       <c r="CS175" t="n">
         <v>0.472</v>
       </c>
-      <c r="CT175"/>
+      <c r="CT175" t="n">
+        <v>0.0340489200333913</v>
+      </c>
       <c r="CU175"/>
       <c r="CV175"/>
       <c r="CW175" t="n">
@@ -39164,18 +39288,20 @@
         <v>92.7242513847059</v>
       </c>
       <c r="CP176" t="n">
-        <v>21.7220785265997</v>
+        <v>21.8078227225859</v>
       </c>
       <c r="CQ176" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR176" t="n">
-        <v>5.4</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS176" t="n">
         <v>0.48075</v>
       </c>
-      <c r="CT176"/>
+      <c r="CT176" t="n">
+        <v>0.0320942147565892</v>
+      </c>
       <c r="CU176"/>
       <c r="CV176"/>
       <c r="CW176" t="n">
@@ -39431,18 +39557,20 @@
         <v>103.08</v>
       </c>
       <c r="CP177" t="n">
-        <v>16.1810898746565</v>
+        <v>16.2333351255533</v>
       </c>
       <c r="CQ177" t="n">
         <v>5.6615</v>
       </c>
       <c r="CR177" t="n">
-        <v>12.0390730086981</v>
+        <v>12.1667474896346</v>
       </c>
       <c r="CS177" t="n">
         <v>0.471562903225806</v>
       </c>
-      <c r="CT177"/>
+      <c r="CT177" t="n">
+        <v>0.026477456432368</v>
+      </c>
       <c r="CU177"/>
       <c r="CV177"/>
       <c r="CW177" t="n">
@@ -39839,14 +39967,16 @@
       </c>
       <c r="CO179"/>
       <c r="CP179" t="n">
-        <v>21.9668849728981</v>
+        <v>21.8756197634355</v>
       </c>
       <c r="CQ179"/>
       <c r="CR179" t="n">
         <v>16.7</v>
       </c>
       <c r="CS179"/>
-      <c r="CT179"/>
+      <c r="CT179" t="n">
+        <v>0.0499058029023283</v>
+      </c>
       <c r="CU179"/>
       <c r="CV179"/>
       <c r="CW179" t="n">
@@ -40054,12 +40184,14 @@
         <v>82.013975714</v>
       </c>
       <c r="CP180" t="n">
-        <v>14.0725357045378</v>
+        <v>14.1101513648648</v>
       </c>
       <c r="CQ180"/>
       <c r="CR180"/>
       <c r="CS180"/>
-      <c r="CT180"/>
+      <c r="CT180" t="n">
+        <v>0.0140973264483835</v>
+      </c>
       <c r="CU180"/>
       <c r="CV180"/>
       <c r="CW180"/>
@@ -40243,7 +40375,7 @@
       <c r="CN181"/>
       <c r="CO181"/>
       <c r="CP181" t="n">
-        <v>18.523783209373</v>
+        <v>19.0908452395234</v>
       </c>
       <c r="CQ181"/>
       <c r="CR181" t="n">
@@ -40450,7 +40582,7 @@
         <v>91.02589348</v>
       </c>
       <c r="CP182" t="n">
-        <v>21.7170055419823</v>
+        <v>21.8884473163452</v>
       </c>
       <c r="CQ182"/>
       <c r="CR182" t="n">
@@ -40658,7 +40790,9 @@
       <c r="CS183" t="n">
         <v>0.415</v>
       </c>
-      <c r="CT183"/>
+      <c r="CT183" t="n">
+        <v>0.0591988208589673</v>
+      </c>
       <c r="CU183"/>
       <c r="CV183"/>
       <c r="CW183"/>
@@ -40856,7 +40990,7 @@
         <v>75.5490836766667</v>
       </c>
       <c r="CP184" t="n">
-        <v>18.6978382012095</v>
+        <v>19.1559564302989</v>
       </c>
       <c r="CQ184"/>
       <c r="CR184" t="n">
@@ -41069,14 +41203,16 @@
         <v>99.9809451475</v>
       </c>
       <c r="CP185" t="n">
-        <v>22.2527415800037</v>
+        <v>22.1687384451091</v>
       </c>
       <c r="CQ185"/>
       <c r="CR185" t="n">
         <v>15.2007121362912</v>
       </c>
       <c r="CS185"/>
-      <c r="CT185"/>
+      <c r="CT185" t="n">
+        <v>0.0259411845119918</v>
+      </c>
       <c r="CU185"/>
       <c r="CV185"/>
       <c r="CW185" t="n">
@@ -41281,7 +41417,9 @@
       <c r="CS186" t="n">
         <v>0.44166</v>
       </c>
-      <c r="CT186"/>
+      <c r="CT186" t="n">
+        <v>0.0728326599405792</v>
+      </c>
       <c r="CU186"/>
       <c r="CV186"/>
       <c r="CW186" t="n">
@@ -41682,7 +41820,7 @@
         <v>204.616844241763</v>
       </c>
       <c r="CP188" t="n">
-        <v>23.6647365474905</v>
+        <v>23.742029134948</v>
       </c>
       <c r="CQ188"/>
       <c r="CR188" t="n">
@@ -41691,7 +41829,9 @@
       <c r="CS188" t="n">
         <v>0.478971428571429</v>
       </c>
-      <c r="CT188"/>
+      <c r="CT188" t="n">
+        <v>0.0507894128585862</v>
+      </c>
       <c r="CU188"/>
       <c r="CV188"/>
       <c r="CW188" t="n">
@@ -41881,7 +42021,7 @@
       <c r="CN189"/>
       <c r="CO189"/>
       <c r="CP189" t="n">
-        <v>24.5844609537574</v>
+        <v>23.7970446580839</v>
       </c>
       <c r="CQ189"/>
       <c r="CR189" t="n">
@@ -42295,7 +42435,7 @@
       <c r="CN191"/>
       <c r="CO191"/>
       <c r="CP191" t="n">
-        <v>36.4645626164999</v>
+        <v>33.9620242181195</v>
       </c>
       <c r="CQ191"/>
       <c r="CR191"/>
@@ -43520,7 +43660,7 @@
       <c r="CN198"/>
       <c r="CO198"/>
       <c r="CP198" t="n">
-        <v>23.5731675757058</v>
+        <v>23.5408755919771</v>
       </c>
       <c r="CQ198"/>
       <c r="CR198" t="n">
@@ -43884,12 +44024,14 @@
         <v>92.51250073</v>
       </c>
       <c r="CP200" t="n">
-        <v>20.1937109513089</v>
+        <v>19.5454119468824</v>
       </c>
       <c r="CQ200"/>
       <c r="CR200"/>
       <c r="CS200"/>
-      <c r="CT200"/>
+      <c r="CT200" t="n">
+        <v>0.0659548233504</v>
+      </c>
       <c r="CU200"/>
       <c r="CV200"/>
       <c r="CW200"/>
@@ -44067,7 +44209,7 @@
       <c r="CN201"/>
       <c r="CO201"/>
       <c r="CP201" t="n">
-        <v>19.199551022943</v>
+        <v>20.7341493506688</v>
       </c>
       <c r="CQ201"/>
       <c r="CR201"/>
@@ -44256,7 +44398,7 @@
       </c>
       <c r="CO202"/>
       <c r="CP202" t="n">
-        <v>20.1948830409561</v>
+        <v>20.7168209876759</v>
       </c>
       <c r="CQ202"/>
       <c r="CR202"/>
@@ -44992,7 +45134,7 @@
       <c r="CN206"/>
       <c r="CO206"/>
       <c r="CP206" t="n">
-        <v>11.5965152236765</v>
+        <v>11.3163543878462</v>
       </c>
       <c r="CQ206" t="n">
         <v>5.2</v>
@@ -45003,7 +45145,9 @@
       <c r="CS206" t="n">
         <v>0.51164</v>
       </c>
-      <c r="CT206"/>
+      <c r="CT206" t="n">
+        <v>0.0185926840969606</v>
+      </c>
       <c r="CU206"/>
       <c r="CV206"/>
       <c r="CW206"/>
@@ -45579,7 +45723,7 @@
       <c r="CN209"/>
       <c r="CO209"/>
       <c r="CP209" t="n">
-        <v>25.3056086847262</v>
+        <v>25.3661953996413</v>
       </c>
       <c r="CQ209"/>
       <c r="CR209" t="n">
@@ -45588,7 +45732,9 @@
       <c r="CS209" t="n">
         <v>0.498077777777778</v>
       </c>
-      <c r="CT209"/>
+      <c r="CT209" t="n">
+        <v>0.026127873513698</v>
+      </c>
       <c r="CU209"/>
       <c r="CV209"/>
       <c r="CW209" t="n">
@@ -45780,7 +45926,7 @@
       <c r="CN210"/>
       <c r="CO210"/>
       <c r="CP210" t="n">
-        <v>27.6654909561318</v>
+        <v>27.2605026455635</v>
       </c>
       <c r="CQ210"/>
       <c r="CR210"/>
@@ -45971,7 +46117,7 @@
         <v>98.8753291611111</v>
       </c>
       <c r="CP211" t="n">
-        <v>23.0603646419255</v>
+        <v>23.3550960128818</v>
       </c>
       <c r="CQ211"/>
       <c r="CR211" t="n">
@@ -46176,7 +46322,7 @@
         <v>74.4960893225</v>
       </c>
       <c r="CP212" t="n">
-        <v>17.1129712099464</v>
+        <v>16.9429059568743</v>
       </c>
       <c r="CQ212"/>
       <c r="CR212" t="n">
@@ -46185,7 +46331,9 @@
       <c r="CS212" t="n">
         <v>0.511422083333333</v>
       </c>
-      <c r="CT212"/>
+      <c r="CT212" t="n">
+        <v>0.0246450641040191</v>
+      </c>
       <c r="CU212"/>
       <c r="CV212"/>
       <c r="CW212"/>
@@ -46564,7 +46712,7 @@
       </c>
       <c r="CO214"/>
       <c r="CP214" t="n">
-        <v>18.787209365382</v>
+        <v>19.0297919947431</v>
       </c>
       <c r="CQ214"/>
       <c r="CR214" t="n">
@@ -46917,7 +47065,9 @@
       <c r="CQ216"/>
       <c r="CR216"/>
       <c r="CS216"/>
-      <c r="CT216"/>
+      <c r="CT216" t="n">
+        <v>0.03683829888</v>
+      </c>
       <c r="CU216"/>
       <c r="CV216"/>
       <c r="CW216" t="n">

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3404,7 +3404,7 @@
         <v>7.76817359419285</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.269585354535</v>
+        <v>0.41330791965</v>
       </c>
       <c r="AW2" t="n">
         <v>0.495627428400038</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="BC2"/>
       <c r="BD2" t="n">
-        <v>0.219398058252427</v>
+        <v>0.220441176470588</v>
       </c>
       <c r="BE2" t="n">
         <v>3621.21833333333</v>
@@ -3649,7 +3649,7 @@
         <v>3.42060330105</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.407177230115968</v>
+        <v>0.413428662131434</v>
       </c>
       <c r="AW3" t="n">
         <v>0.437800434530527</v>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="O4"/>
       <c r="P4" t="n">
-        <v>5456</v>
+        <v>4807</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -3872,10 +3872,10 @@
         <v>6.70128749904507</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.4683081907202</v>
+        <v>0.47306220647578</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.760284728309594</v>
+        <v>0.747285876820229</v>
       </c>
       <c r="AX4"/>
       <c r="AY4" t="n">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="BC4"/>
       <c r="BD4" t="n">
-        <v>0.627348484848485</v>
+        <v>0.801489361702128</v>
       </c>
       <c r="BE4" t="n">
         <v>14208.3333333333</v>
@@ -3948,10 +3948,10 @@
       <c r="CL4"/>
       <c r="CM4"/>
       <c r="CN4" t="n">
-        <v>81.184028067224</v>
+        <v>81.6942813766275</v>
       </c>
       <c r="CO4" t="n">
-        <v>113.0531827587</v>
+        <v>113.778070037503</v>
       </c>
       <c r="CP4" t="n">
         <v>25.147592234078</v>
@@ -3961,7 +3961,7 @@
         <v>10.7</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.436866428571429</v>
+        <v>0.435718545454545</v>
       </c>
       <c r="CT4" t="n">
         <v>0.0317315789946626</v>
@@ -4109,7 +4109,7 @@
         <v>14.1189111551917</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.315626347971264</v>
+        <v>0.283664798898773</v>
       </c>
       <c r="AW5" t="n">
         <v>0.57798790066464</v>
@@ -4154,7 +4154,7 @@
       <c r="BO5"/>
       <c r="BP5"/>
       <c r="BQ5" t="n">
-        <v>9.95094485312913</v>
+        <v>9.90437038817068</v>
       </c>
       <c r="BR5"/>
       <c r="BS5"/>
@@ -4193,10 +4193,10 @@
       <c r="CL5"/>
       <c r="CM5"/>
       <c r="CN5" t="n">
-        <v>36.6319073920622</v>
+        <v>35.4719936517273</v>
       </c>
       <c r="CO5" t="n">
-        <v>84.8316485571875</v>
+        <v>77.0197655998851</v>
       </c>
       <c r="CP5" t="n">
         <v>21.6715675992139</v>
@@ -4393,7 +4393,7 @@
         <v>160.16</v>
       </c>
       <c r="BI6" t="n">
-        <v>-1.24877439007994</v>
+        <v>-1.25038367261158</v>
       </c>
       <c r="BJ6" t="n">
         <v>7.35289743589744</v>
@@ -4407,7 +4407,7 @@
       <c r="BO6"/>
       <c r="BP6"/>
       <c r="BQ6" t="n">
-        <v>9.95094485312913</v>
+        <v>9.90437038817068</v>
       </c>
       <c r="BR6"/>
       <c r="BS6"/>
@@ -4446,10 +4446,10 @@
       <c r="CL6"/>
       <c r="CM6"/>
       <c r="CN6" t="n">
-        <v>36.6319073920622</v>
+        <v>35.4719936517273</v>
       </c>
       <c r="CO6" t="n">
-        <v>84.8316485571875</v>
+        <v>77.0197655998851</v>
       </c>
       <c r="CP6" t="n">
         <v>19.3935333333333</v>
@@ -4585,7 +4585,7 @@
         <v>0.5285</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.504950220154558</v>
+        <v>0.484782162699793</v>
       </c>
       <c r="AM7" t="n">
         <v>82.6</v>
@@ -4615,10 +4615,10 @@
         <v>24.7998019148801</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.734311588084293</v>
+        <v>0.796058481620382</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.46018541731466</v>
+        <v>0.438311921511089</v>
       </c>
       <c r="AX7"/>
       <c r="AY7" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="BC7"/>
       <c r="BD7" t="n">
-        <v>17.33</v>
+        <v>8.29707647058824</v>
       </c>
       <c r="BE7" t="n">
         <v>1050.69173135331</v>
@@ -4646,7 +4646,7 @@
         <v>98</v>
       </c>
       <c r="BI7" t="n">
-        <v>-1.24877439007994</v>
+        <v>-1.25038367261158</v>
       </c>
       <c r="BJ7" t="n">
         <v>7.35289743589744</v>
@@ -4660,7 +4660,7 @@
       <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7" t="n">
-        <v>9.95094485312913</v>
+        <v>9.90437038817068</v>
       </c>
       <c r="BR7"/>
       <c r="BS7"/>
@@ -4699,10 +4699,10 @@
       <c r="CL7"/>
       <c r="CM7"/>
       <c r="CN7" t="n">
-        <v>36.6319073920622</v>
+        <v>35.4719936517273</v>
       </c>
       <c r="CO7" t="n">
-        <v>84.8316485571875</v>
+        <v>77.0197655998851</v>
       </c>
       <c r="CP7" t="n">
         <v>27.2014232342395</v>
@@ -4868,7 +4868,7 @@
         <v>21.6349417135682</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.462967720188646</v>
+        <v>0.465788569213565</v>
       </c>
       <c r="AW8" t="n">
         <v>0.712488950545513</v>
@@ -4899,7 +4899,7 @@
         <v>98</v>
       </c>
       <c r="BI8" t="n">
-        <v>-1.24877439007994</v>
+        <v>-1.25038367261158</v>
       </c>
       <c r="BJ8" t="n">
         <v>7.35289743589744</v>
@@ -4913,7 +4913,7 @@
       <c r="BO8"/>
       <c r="BP8"/>
       <c r="BQ8" t="n">
-        <v>9.95094485312913</v>
+        <v>9.90437038817068</v>
       </c>
       <c r="BR8"/>
       <c r="BS8"/>
@@ -4952,10 +4952,10 @@
       <c r="CL8"/>
       <c r="CM8"/>
       <c r="CN8" t="n">
-        <v>36.6319073920622</v>
+        <v>35.4719936517273</v>
       </c>
       <c r="CO8" t="n">
-        <v>84.8316485571875</v>
+        <v>77.0197655998851</v>
       </c>
       <c r="CP8" t="n">
         <v>17.71</v>
@@ -5121,7 +5121,7 @@
         <v>19.8055167938077</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.365134023149489</v>
+        <v>0.4376854414175</v>
       </c>
       <c r="AW9" t="n">
         <v>0.545989232074141</v>
@@ -5166,7 +5166,7 @@
       <c r="BO9"/>
       <c r="BP9"/>
       <c r="BQ9" t="n">
-        <v>9.95094485312913</v>
+        <v>9.90437038817068</v>
       </c>
       <c r="BR9"/>
       <c r="BS9"/>
@@ -5208,7 +5208,7 @@
         <v>24.3448927299294</v>
       </c>
       <c r="CO9" t="n">
-        <v>84.8316485571875</v>
+        <v>77.0197655998851</v>
       </c>
       <c r="CP9" t="n">
         <v>21.2436403533772</v>
@@ -5374,7 +5374,7 @@
         <v>15.9615415937707</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.346991927170361</v>
+        <v>0.382418470666433</v>
       </c>
       <c r="AW10" t="n">
         <v>0.54266782172945</v>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="BC10"/>
       <c r="BD10" t="n">
-        <v>8.87960928961749</v>
+        <v>8.29707647058824</v>
       </c>
       <c r="BE10" t="n">
         <v>839.541513407619</v>
@@ -5405,7 +5405,7 @@
         <v>98</v>
       </c>
       <c r="BI10" t="n">
-        <v>-1.24877439007994</v>
+        <v>-1.25038367261158</v>
       </c>
       <c r="BJ10" t="n">
         <v>7.35289743589744</v>
@@ -5419,7 +5419,7 @@
       <c r="BO10"/>
       <c r="BP10"/>
       <c r="BQ10" t="n">
-        <v>9.95094485312913</v>
+        <v>9.90437038817068</v>
       </c>
       <c r="BR10"/>
       <c r="BS10"/>
@@ -5458,10 +5458,10 @@
       <c r="CL10"/>
       <c r="CM10"/>
       <c r="CN10" t="n">
-        <v>67.2564086956522</v>
+        <v>60.2604222222222</v>
       </c>
       <c r="CO10" t="n">
-        <v>131.195769230769</v>
+        <v>118.974</v>
       </c>
       <c r="CP10" t="n">
         <v>25.3039417344038</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="O19"/>
       <c r="P19" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q19" t="n">
         <v>60</v>
@@ -7429,7 +7429,7 @@
         <v>8.07309529455826</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.505949489657704</v>
+        <v>0.518578979951089</v>
       </c>
       <c r="AW21" t="n">
         <v>0.73992930674222</v>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="O22"/>
       <c r="P22" t="n">
-        <v>3591</v>
+        <v>2000</v>
       </c>
       <c r="Q22"/>
       <c r="R22"/>
@@ -7853,7 +7853,7 @@
         <v>15.411548822972</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.284056475267259</v>
+        <v>0.275761277758568</v>
       </c>
       <c r="AW23" t="n">
         <v>0.398057142857143</v>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="BC23"/>
       <c r="BD23" t="n">
-        <v>2.19308101851852</v>
+        <v>2.74110416666667</v>
       </c>
       <c r="BE23" t="n">
         <v>6556.18105416505</v>
@@ -7894,7 +7894,7 @@
       <c r="BO23"/>
       <c r="BP23"/>
       <c r="BQ23" t="n">
-        <v>22.3176666666666</v>
+        <v>20.8802222222222</v>
       </c>
       <c r="BR23"/>
       <c r="BS23"/>
@@ -8088,7 +8088,7 @@
       <c r="BB24"/>
       <c r="BC24"/>
       <c r="BD24" t="n">
-        <v>0.0425</v>
+        <v>0.065</v>
       </c>
       <c r="BE24"/>
       <c r="BF24"/>
@@ -8259,7 +8259,7 @@
         <v>18.7080812469824</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.321800224880372</v>
+        <v>0.336902683890423</v>
       </c>
       <c r="AW25" t="n">
         <v>0.31626</v>
@@ -8273,7 +8273,7 @@
       <c r="BB25"/>
       <c r="BC25"/>
       <c r="BD25" t="n">
-        <v>1.9355594852272</v>
+        <v>0.951230117575683</v>
       </c>
       <c r="BE25" t="n">
         <v>3111.03875</v>
@@ -8452,10 +8452,10 @@
         <v>10.3934057994854</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.17650789105585</v>
+        <v>0.18137929575108</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.508488281339849</v>
+        <v>0.546835445333367</v>
       </c>
       <c r="AX26"/>
       <c r="AY26"/>
@@ -8850,7 +8850,7 @@
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28" t="n">
-        <v>0.373535739885151</v>
+        <v>0.371978485921592</v>
       </c>
       <c r="AM28" t="n">
         <v>1</v>
@@ -8870,10 +8870,10 @@
         <v>22.9939924948747</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.490702177405203</v>
+        <v>0.51008739268757</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.638159210260023</v>
+        <v>0.636140833275621</v>
       </c>
       <c r="AX28"/>
       <c r="AY28" t="n">
@@ -8901,7 +8901,7 @@
         <v>94.15</v>
       </c>
       <c r="BI28" t="n">
-        <v>-0.896</v>
+        <v>-1.0313</v>
       </c>
       <c r="BJ28" t="n">
         <v>3.41733333333333</v>
@@ -8913,7 +8913,7 @@
       <c r="BO28"/>
       <c r="BP28"/>
       <c r="BQ28" t="n">
-        <v>19.1061550774102</v>
+        <v>12.8908159494486</v>
       </c>
       <c r="BR28"/>
       <c r="BS28"/>
@@ -8952,7 +8952,7 @@
       <c r="CL28"/>
       <c r="CM28"/>
       <c r="CN28" t="n">
-        <v>67.8580955753327</v>
+        <v>66.833827773087</v>
       </c>
       <c r="CO28" t="n">
         <v>118.999715799789</v>
@@ -9102,7 +9102,7 @@
         <v>0.315135327489147</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.169658272349764</v>
+        <v>0.183185649486286</v>
       </c>
       <c r="AX29"/>
       <c r="AY29"/>
@@ -9113,7 +9113,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
       <c r="BD29" t="n">
-        <v>0.380833333333333</v>
+        <v>0.406363636363636</v>
       </c>
       <c r="BE29"/>
       <c r="BF29"/>
@@ -9664,7 +9664,7 @@
       <c r="AJ32"/>
       <c r="AK32"/>
       <c r="AL32" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AM32"/>
       <c r="AN32"/>
@@ -9738,7 +9738,7 @@
       <c r="CL32"/>
       <c r="CM32"/>
       <c r="CN32" t="n">
-        <v>15.06</v>
+        <v>14.73</v>
       </c>
       <c r="CO32" t="n">
         <v>45.48</v>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q33" t="n">
         <v>44</v>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q34" t="n">
         <v>50</v>
@@ -10147,7 +10147,7 @@
         <v>14.3</v>
       </c>
       <c r="CS34" t="n">
-        <v>0.482704166666667</v>
+        <v>0.480573913043478</v>
       </c>
       <c r="CT34" t="n">
         <v>0.03562765056</v>
@@ -10277,7 +10277,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
       <c r="BD35" t="n">
-        <v>0.1175</v>
+        <v>0.1</v>
       </c>
       <c r="BE35"/>
       <c r="BF35"/>
@@ -10452,10 +10452,10 @@
         <v>23.8685556025</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.416806994578377</v>
+        <v>0.194</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.587030303030303</v>
+        <v>0.616733333333333</v>
       </c>
       <c r="AX36"/>
       <c r="AY36" t="n">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q37" t="n">
         <v>40</v>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q39"/>
       <c r="R39"/>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="O40"/>
       <c r="P40" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q40" t="n">
         <v>100</v>
@@ -11578,10 +11578,10 @@
         <v>7.86080905150617</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.1256586969676</v>
+        <v>0.130086293005556</v>
       </c>
       <c r="AW42" t="n">
-        <v>0.192362478000928</v>
+        <v>0.203381813926559</v>
       </c>
       <c r="AX42"/>
       <c r="AY42"/>
@@ -11794,7 +11794,7 @@
         <v>0.333913678821</v>
       </c>
       <c r="AW43" t="n">
-        <v>0.173011171856868</v>
+        <v>0.190786241028416</v>
       </c>
       <c r="AX43"/>
       <c r="AY43"/>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="BC43"/>
       <c r="BD43" t="n">
-        <v>0.202727272727273</v>
+        <v>0.213</v>
       </c>
       <c r="BE43"/>
       <c r="BF43"/>
@@ -12004,7 +12004,7 @@
         <v>7.34888295318127</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW44" t="n">
         <v>0.71</v>
@@ -12211,10 +12211,10 @@
         <v>9.4653773318</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW45" t="n">
-        <v>0.273499056084023</v>
+        <v>0.317241901202932</v>
       </c>
       <c r="AX45"/>
       <c r="AY45"/>
@@ -12637,10 +12637,10 @@
         <v>4.71830166605766</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.11</v>
+        <v>0.317241901202932</v>
       </c>
       <c r="AX47"/>
       <c r="AY47"/>
@@ -12850,10 +12850,10 @@
         <v>3.6895</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.273499056084023</v>
+        <v>0.317241901202932</v>
       </c>
       <c r="AX48"/>
       <c r="AY48"/>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="BC48"/>
       <c r="BD48" t="n">
-        <v>0.225</v>
+        <v>0.15</v>
       </c>
       <c r="BE48"/>
       <c r="BF48"/>
@@ -13057,7 +13057,7 @@
         <v>6.25849691023115</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW49" t="n">
         <v>0.78</v>
@@ -13270,10 +13270,10 @@
         <v>4.8515</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW50" t="n">
-        <v>0.273499056084023</v>
+        <v>0.317241901202932</v>
       </c>
       <c r="AX50"/>
       <c r="AY50"/>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="BC50"/>
       <c r="BD50" t="n">
-        <v>1.05725</v>
+        <v>1.10236842105263</v>
       </c>
       <c r="BE50"/>
       <c r="BF50"/>
@@ -13483,10 +13483,10 @@
         <v>6.46462858846602</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.273499056084023</v>
+        <v>0.317241901202932</v>
       </c>
       <c r="AX51"/>
       <c r="AY51"/>
@@ -13690,10 +13690,10 @@
         <v>6.46462858846602</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW52" t="n">
-        <v>0.273499056084023</v>
+        <v>0.317241901202932</v>
       </c>
       <c r="AX52"/>
       <c r="AY52"/>
@@ -13708,7 +13708,7 @@
       </c>
       <c r="BC52"/>
       <c r="BD52" t="n">
-        <v>1.05725</v>
+        <v>1.10236842105263</v>
       </c>
       <c r="BE52"/>
       <c r="BF52"/>
@@ -13903,10 +13903,10 @@
         <v>6.05284088156626</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.235580099581714</v>
+        <v>0.2430685879295</v>
       </c>
       <c r="AW53" t="n">
-        <v>0.273499056084023</v>
+        <v>0.317241901202932</v>
       </c>
       <c r="AX53"/>
       <c r="AY53"/>
@@ -13921,7 +13921,7 @@
       </c>
       <c r="BC53"/>
       <c r="BD53" t="n">
-        <v>1.05725</v>
+        <v>1.10236842105263</v>
       </c>
       <c r="BE53"/>
       <c r="BF53"/>
@@ -14101,7 +14101,7 @@
         <v>0.258157001953593</v>
       </c>
       <c r="AW54" t="n">
-        <v>0.316666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="AX54"/>
       <c r="AY54" t="n">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q55"/>
       <c r="R55"/>
@@ -14418,7 +14418,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q56"/>
       <c r="R56"/>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q57"/>
       <c r="R57"/>
@@ -14839,7 +14839,7 @@
         <v>0.309258955231562</v>
       </c>
       <c r="AW58" t="n">
-        <v>0.622270073152053</v>
+        <v>0.608292579248057</v>
       </c>
       <c r="AX58"/>
       <c r="AY58" t="n">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="BC58"/>
       <c r="BD58" t="n">
-        <v>4.96090775193798</v>
+        <v>4.99635</v>
       </c>
       <c r="BE58" t="n">
         <v>1475.95766754372</v>
@@ -14876,9 +14876,7 @@
       <c r="BN58"/>
       <c r="BO58"/>
       <c r="BP58"/>
-      <c r="BQ58" t="n">
-        <v>3.88845724303431</v>
-      </c>
+      <c r="BQ58"/>
       <c r="BR58"/>
       <c r="BS58"/>
       <c r="BT58"/>
@@ -15053,7 +15051,7 @@
         <v>14.3160302388571</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.143888312947915</v>
+        <v>0.155413608270455</v>
       </c>
       <c r="AW59"/>
       <c r="AX59"/>
@@ -15190,7 +15188,7 @@
       </c>
       <c r="O60"/>
       <c r="P60" t="n">
-        <v>1828</v>
+        <v>150</v>
       </c>
       <c r="Q60" t="n">
         <v>60</v>
@@ -15627,7 +15625,7 @@
         <v>0.509628380758535</v>
       </c>
       <c r="AW62" t="n">
-        <v>0.658480638958679</v>
+        <v>0.633557064644653</v>
       </c>
       <c r="AX62"/>
       <c r="AY62"/>
@@ -15888,7 +15886,7 @@
         <v>8.3</v>
       </c>
       <c r="CS63" t="n">
-        <v>0.47136</v>
+        <v>0.4842</v>
       </c>
       <c r="CT63"/>
       <c r="CU63"/>
@@ -15964,7 +15962,7 @@
       </c>
       <c r="O64"/>
       <c r="P64" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q64"/>
       <c r="R64"/>
@@ -18712,7 +18710,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q78"/>
       <c r="R78"/>
@@ -19286,7 +19284,7 @@
         <v>0.242137549388095</v>
       </c>
       <c r="AW81" t="n">
-        <v>0.257244258234884</v>
+        <v>0.290549720746433</v>
       </c>
       <c r="AX81"/>
       <c r="AY81"/>
@@ -19299,7 +19297,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
       <c r="BD81" t="n">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="BE81"/>
       <c r="BF81"/>
@@ -19426,7 +19424,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q82" t="n">
         <v>54</v>
@@ -20005,7 +20003,7 @@
       </c>
       <c r="BC85"/>
       <c r="BD85" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE85"/>
       <c r="BF85"/>
@@ -20182,7 +20180,7 @@
       <c r="AJ86"/>
       <c r="AK86"/>
       <c r="AL86" t="n">
-        <v>1.65</v>
+        <v>1.3125</v>
       </c>
       <c r="AM86"/>
       <c r="AN86"/>
@@ -20212,7 +20210,7 @@
       </c>
       <c r="BC86"/>
       <c r="BD86" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE86"/>
       <c r="BF86"/>
@@ -20389,7 +20387,7 @@
       <c r="AJ87"/>
       <c r="AK87"/>
       <c r="AL87" t="n">
-        <v>1.65</v>
+        <v>1.3125</v>
       </c>
       <c r="AM87"/>
       <c r="AN87"/>
@@ -20419,7 +20417,7 @@
       </c>
       <c r="BC87"/>
       <c r="BD87" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE87"/>
       <c r="BF87"/>
@@ -20590,7 +20588,7 @@
       <c r="AJ88"/>
       <c r="AK88"/>
       <c r="AL88" t="n">
-        <v>3</v>
+        <v>1.3125</v>
       </c>
       <c r="AM88"/>
       <c r="AN88"/>
@@ -20620,7 +20618,7 @@
       </c>
       <c r="BC88"/>
       <c r="BD88" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE88"/>
       <c r="BF88"/>
@@ -20827,7 +20825,7 @@
       </c>
       <c r="BC89"/>
       <c r="BD89" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE89"/>
       <c r="BF89"/>
@@ -21028,7 +21026,7 @@
       </c>
       <c r="BC90"/>
       <c r="BD90" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE90"/>
       <c r="BF90"/>
@@ -21209,7 +21207,7 @@
       <c r="AJ91"/>
       <c r="AK91"/>
       <c r="AL91" t="n">
-        <v>1.65</v>
+        <v>1.3125</v>
       </c>
       <c r="AM91"/>
       <c r="AN91"/>
@@ -21239,7 +21237,7 @@
       </c>
       <c r="BC91"/>
       <c r="BD91" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE91"/>
       <c r="BF91"/>
@@ -21446,7 +21444,7 @@
       </c>
       <c r="BC92"/>
       <c r="BD92" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE92"/>
       <c r="BF92"/>
@@ -21617,7 +21615,7 @@
       <c r="AJ93"/>
       <c r="AK93"/>
       <c r="AL93" t="n">
-        <v>1.65</v>
+        <v>1.3125</v>
       </c>
       <c r="AM93"/>
       <c r="AN93"/>
@@ -21647,7 +21645,7 @@
       </c>
       <c r="BC93"/>
       <c r="BD93" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE93"/>
       <c r="BF93"/>
@@ -21818,7 +21816,7 @@
       <c r="AJ94"/>
       <c r="AK94"/>
       <c r="AL94" t="n">
-        <v>1.65</v>
+        <v>1.3125</v>
       </c>
       <c r="AM94"/>
       <c r="AN94"/>
@@ -21848,7 +21846,7 @@
       </c>
       <c r="BC94"/>
       <c r="BD94" t="n">
-        <v>0.112435897435897</v>
+        <v>0.141730769230769</v>
       </c>
       <c r="BE94"/>
       <c r="BF94"/>
@@ -21987,7 +21985,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q95"/>
       <c r="R95"/>
@@ -22166,7 +22164,7 @@
       </c>
       <c r="O96"/>
       <c r="P96" t="n">
-        <v>6230</v>
+        <v>6172</v>
       </c>
       <c r="Q96" t="n">
         <v>70</v>
@@ -22230,10 +22228,10 @@
         <v>9.40921649421461</v>
       </c>
       <c r="AV96" t="n">
-        <v>0.430990448805209</v>
+        <v>0.438144393142039</v>
       </c>
       <c r="AW96" t="n">
-        <v>0.800943771252996</v>
+        <v>0.801488261185103</v>
       </c>
       <c r="AX96"/>
       <c r="AY96" t="n">
@@ -22323,7 +22321,7 @@
       <c r="CQ96"/>
       <c r="CR96"/>
       <c r="CS96" t="n">
-        <v>0.418166052083333</v>
+        <v>0.4163421625</v>
       </c>
       <c r="CT96" t="n">
         <v>0.0230095463340979</v>
@@ -22401,7 +22399,7 @@
       </c>
       <c r="O97"/>
       <c r="P97" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q97" t="n">
         <v>50</v>
@@ -22429,7 +22427,7 @@
       <c r="AJ97"/>
       <c r="AK97"/>
       <c r="AL97" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AM97"/>
       <c r="AN97"/>
@@ -22638,10 +22636,10 @@
         <v>22.4223894701306</v>
       </c>
       <c r="AV98" t="n">
-        <v>0.387657375678352</v>
+        <v>0.409119257981955</v>
       </c>
       <c r="AW98" t="n">
-        <v>0.414683365941569</v>
+        <v>0.422620172855801</v>
       </c>
       <c r="AX98"/>
       <c r="AY98"/>
@@ -22652,10 +22650,10 @@
       <c r="BB98"/>
       <c r="BC98"/>
       <c r="BD98" t="n">
-        <v>1.54137017302098</v>
+        <v>1.45948619047619</v>
       </c>
       <c r="BE98" t="n">
-        <v>10166.4685714286</v>
+        <v>11670.995</v>
       </c>
       <c r="BF98"/>
       <c r="BG98"/>
@@ -22857,7 +22855,7 @@
         <v>28.4445300486109</v>
       </c>
       <c r="AV99" t="n">
-        <v>0.462719432026164</v>
+        <v>0.462852876741958</v>
       </c>
       <c r="AW99" t="n">
         <v>0.679402099121699</v>
@@ -22939,10 +22937,10 @@
       <c r="CL99"/>
       <c r="CM99"/>
       <c r="CN99" t="n">
-        <v>41.3395955149335</v>
+        <v>40.2821534173799</v>
       </c>
       <c r="CO99" t="n">
-        <v>89.8262177317391</v>
+        <v>89.1773734849254</v>
       </c>
       <c r="CP99" t="n">
         <v>23.4561670336071</v>
@@ -22954,7 +22952,7 @@
         <v>11.511125</v>
       </c>
       <c r="CS99" t="n">
-        <v>0.481976315789474</v>
+        <v>0.480582857142857</v>
       </c>
       <c r="CT99" t="n">
         <v>0.0211986338533469</v>
@@ -23062,7 +23060,7 @@
       <c r="AJ100"/>
       <c r="AK100"/>
       <c r="AL100" t="n">
-        <v>0.742683997220352</v>
+        <v>0.689228769003879</v>
       </c>
       <c r="AM100"/>
       <c r="AN100"/>
@@ -23149,7 +23147,7 @@
         <v>50.2526956206639</v>
       </c>
       <c r="CO100" t="n">
-        <v>77.5095760726054</v>
+        <v>79.0816409823744</v>
       </c>
       <c r="CP100" t="n">
         <v>27.6006777778</v>
@@ -23159,7 +23157,7 @@
         <v>7.1105603279</v>
       </c>
       <c r="CS100" t="n">
-        <v>0.450664285714286</v>
+        <v>0.4561</v>
       </c>
       <c r="CT100" t="n">
         <v>0.0391513889033087</v>
@@ -23239,7 +23237,7 @@
       </c>
       <c r="O101"/>
       <c r="P101" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q101" t="n">
         <v>57</v>
@@ -23267,7 +23265,7 @@
       <c r="AJ101"/>
       <c r="AK101"/>
       <c r="AL101" t="n">
-        <v>0.413055555555556</v>
+        <v>0.452916666666667</v>
       </c>
       <c r="AM101"/>
       <c r="AN101"/>
@@ -23507,7 +23505,7 @@
       <c r="BG102"/>
       <c r="BH102"/>
       <c r="BI102" t="n">
-        <v>-1.95672653997158</v>
+        <v>-2.00159035657282</v>
       </c>
       <c r="BJ102" t="n">
         <v>7.96666666666667</v>
@@ -23556,10 +23554,10 @@
       <c r="CL102"/>
       <c r="CM102"/>
       <c r="CN102" t="n">
-        <v>78.0491735960944</v>
+        <v>94.706391620303</v>
       </c>
       <c r="CO102" t="n">
-        <v>149.982301131622</v>
+        <v>156.069861196286</v>
       </c>
       <c r="CP102" t="n">
         <v>23.7249735142833</v>
@@ -23844,7 +23842,7 @@
       </c>
       <c r="O104"/>
       <c r="P104" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q104"/>
       <c r="R104"/>
@@ -24223,7 +24221,7 @@
         <v>0.366796677551</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.175543144504233</v>
+        <v>0.200640272477243</v>
       </c>
       <c r="AX106"/>
       <c r="AY106"/>
@@ -24278,9 +24276,7 @@
       </c>
       <c r="CQ106"/>
       <c r="CR106"/>
-      <c r="CS106" t="n">
-        <v>0.506</v>
-      </c>
+      <c r="CS106"/>
       <c r="CT106"/>
       <c r="CU106"/>
       <c r="CV106"/>
@@ -24355,7 +24351,7 @@
       </c>
       <c r="O107"/>
       <c r="P107" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q107"/>
       <c r="R107"/>
@@ -24415,7 +24411,7 @@
       <c r="BB107"/>
       <c r="BC107"/>
       <c r="BD107" t="n">
-        <v>0.54952380952381</v>
+        <v>0.307777777777778</v>
       </c>
       <c r="BE107"/>
       <c r="BF107"/>
@@ -24542,7 +24538,7 @@
       </c>
       <c r="O108"/>
       <c r="P108" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q108" t="n">
         <v>60</v>
@@ -24711,7 +24707,7 @@
       </c>
       <c r="O109"/>
       <c r="P109" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q109"/>
       <c r="R109"/>
@@ -24749,7 +24745,7 @@
         <v>14.7053692758333</v>
       </c>
       <c r="AV109" t="n">
-        <v>0.305925038239569</v>
+        <v>0.291925018895552</v>
       </c>
       <c r="AW109" t="n">
         <v>0.342066363586402</v>
@@ -24761,7 +24757,7 @@
       <c r="BB109"/>
       <c r="BC109"/>
       <c r="BD109" t="n">
-        <v>9.51229090909091</v>
+        <v>9.93038571428571</v>
       </c>
       <c r="BE109"/>
       <c r="BF109"/>
@@ -24948,10 +24944,10 @@
         <v>12.7693511371724</v>
       </c>
       <c r="AV110" t="n">
-        <v>0.26605460045097</v>
+        <v>0.264006088591953</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.216577794761464</v>
+        <v>0.229864499357667</v>
       </c>
       <c r="AX110"/>
       <c r="AY110"/>
@@ -25333,7 +25329,7 @@
         <v>0.284031736244114</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.800275600835946</v>
+        <v>0.707913401253918</v>
       </c>
       <c r="AX112"/>
       <c r="AY112"/>
@@ -25381,9 +25377,7 @@
       <c r="CK112"/>
       <c r="CL112"/>
       <c r="CM112"/>
-      <c r="CN112" t="n">
-        <v>5.573635943</v>
-      </c>
+      <c r="CN112"/>
       <c r="CO112"/>
       <c r="CP112" t="n">
         <v>23.9421267329851</v>
@@ -25521,7 +25515,7 @@
       <c r="AJ113"/>
       <c r="AK113"/>
       <c r="AL113" t="n">
-        <v>1.4993799655062</v>
+        <v>1.332644406118</v>
       </c>
       <c r="AM113" t="n">
         <v>79.7</v>
@@ -25541,10 +25535,10 @@
         <v>10.5117149073459</v>
       </c>
       <c r="AV113" t="n">
-        <v>0.368714466024278</v>
+        <v>0.363509892260892</v>
       </c>
       <c r="AW113" t="n">
-        <v>0.568579995604464</v>
+        <v>0.566707397140503</v>
       </c>
       <c r="AX113"/>
       <c r="AY113" t="n">
@@ -25626,7 +25620,7 @@
         <v>31.7241261830769</v>
       </c>
       <c r="CO113" t="n">
-        <v>76.2404400806452</v>
+        <v>72.0093219666667</v>
       </c>
       <c r="CP113" t="n">
         <v>16.0949357256219</v>
@@ -25636,7 +25630,7 @@
         <v>14.32445</v>
       </c>
       <c r="CS113" t="n">
-        <v>0.458</v>
+        <v>0.44</v>
       </c>
       <c r="CT113" t="n">
         <v>0.0377221956891429</v>
@@ -25952,7 +25946,7 @@
         <v>0.50172372059303</v>
       </c>
       <c r="AW115" t="n">
-        <v>0.506882481518954</v>
+        <v>0.500983694482468</v>
       </c>
       <c r="AX115"/>
       <c r="AY115" t="n">
@@ -25965,7 +25959,7 @@
       </c>
       <c r="BC115"/>
       <c r="BD115" t="n">
-        <v>24.75</v>
+        <v>13</v>
       </c>
       <c r="BE115"/>
       <c r="BF115"/>
@@ -26015,10 +26009,10 @@
       <c r="CL115"/>
       <c r="CM115"/>
       <c r="CN115" t="n">
-        <v>58.5866110276087</v>
+        <v>63.7306573019512</v>
       </c>
       <c r="CO115" t="n">
-        <v>106.940436168043</v>
+        <v>111.903373575116</v>
       </c>
       <c r="CP115" t="n">
         <v>25.4476916561168</v>
@@ -26026,7 +26020,7 @@
       <c r="CQ115"/>
       <c r="CR115"/>
       <c r="CS115" t="n">
-        <v>0.483477777777778</v>
+        <v>0.489854545454545</v>
       </c>
       <c r="CT115"/>
       <c r="CU115"/>
@@ -26130,7 +26124,7 @@
       <c r="AJ116"/>
       <c r="AK116"/>
       <c r="AL116" t="n">
-        <v>3.56856340007025</v>
+        <v>2.68913242009132</v>
       </c>
       <c r="AM116"/>
       <c r="AN116"/>
@@ -26164,7 +26158,7 @@
       </c>
       <c r="BC116"/>
       <c r="BD116" t="n">
-        <v>0.12823275862069</v>
+        <v>0.149642857142857</v>
       </c>
       <c r="BE116" t="n">
         <v>3824.27076923077</v>
@@ -26395,7 +26389,7 @@
       </c>
       <c r="BC117"/>
       <c r="BD117" t="n">
-        <v>0.14125</v>
+        <v>0.132857142857143</v>
       </c>
       <c r="BE117" t="n">
         <v>3824.27076923077</v>
@@ -26844,7 +26838,7 @@
         <v>0.321860216540675</v>
       </c>
       <c r="AW119" t="n">
-        <v>0.685</v>
+        <v>0.655833333333333</v>
       </c>
       <c r="AX119"/>
       <c r="AY119" t="n">
@@ -26861,7 +26855,7 @@
       </c>
       <c r="BC119"/>
       <c r="BD119" t="n">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="BE119" t="n">
         <v>3824.27076923077</v>
@@ -27084,7 +27078,7 @@
       </c>
       <c r="BC120"/>
       <c r="BD120" t="n">
-        <v>0.12823275862069</v>
+        <v>0.149642857142857</v>
       </c>
       <c r="BE120" t="n">
         <v>3824.27076923077</v>
@@ -27237,7 +27231,7 @@
       </c>
       <c r="O121"/>
       <c r="P121" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q121"/>
       <c r="R121"/>
@@ -27416,7 +27410,7 @@
       <c r="AJ122"/>
       <c r="AK122"/>
       <c r="AL122" t="n">
-        <v>0.500334586414949</v>
+        <v>0.500473997421177</v>
       </c>
       <c r="AM122" t="n">
         <v>1</v>
@@ -27452,7 +27446,7 @@
       </c>
       <c r="BC122"/>
       <c r="BD122" t="n">
-        <v>0.194545454545455</v>
+        <v>0.1645</v>
       </c>
       <c r="BE122"/>
       <c r="BF122"/>
@@ -27515,7 +27509,7 @@
         <v>43.3551868634343</v>
       </c>
       <c r="CO122" t="n">
-        <v>86.5573446507407</v>
+        <v>80.8746327603846</v>
       </c>
       <c r="CP122" t="n">
         <v>19.8688549686565</v>
@@ -27782,7 +27776,7 @@
       </c>
       <c r="O124"/>
       <c r="P124" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q124" t="n">
         <v>60</v>
@@ -28037,10 +28031,10 @@
         <v>14.0467274198531</v>
       </c>
       <c r="AV125" t="n">
-        <v>0.0886347465197</v>
+        <v>0.10477904769725</v>
       </c>
       <c r="AW125" t="n">
-        <v>0.284790981879994</v>
+        <v>0.296896385094444</v>
       </c>
       <c r="AX125"/>
       <c r="AY125"/>
@@ -28178,7 +28172,7 @@
       </c>
       <c r="O126"/>
       <c r="P126" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q126"/>
       <c r="R126"/>
@@ -28233,7 +28227,7 @@
         <v>0.357906634510954</v>
       </c>
       <c r="AW126" t="n">
-        <v>0.653767757128772</v>
+        <v>0.649265040527013</v>
       </c>
       <c r="AX126"/>
       <c r="AY126" t="n">
@@ -28562,7 +28556,7 @@
       </c>
       <c r="O128"/>
       <c r="P128" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q128" t="n">
         <v>54</v>
@@ -28621,7 +28615,7 @@
         <v>0.305342140030457</v>
       </c>
       <c r="AW128" t="n">
-        <v>0.291478465967228</v>
+        <v>0.338596938071415</v>
       </c>
       <c r="AX128"/>
       <c r="AY128"/>
@@ -28688,7 +28682,7 @@
       <c r="CL128"/>
       <c r="CM128"/>
       <c r="CN128" t="n">
-        <v>32.2607145499935</v>
+        <v>39.9271684529158</v>
       </c>
       <c r="CO128"/>
       <c r="CP128" t="n">
@@ -29223,7 +29217,7 @@
       <c r="BB131"/>
       <c r="BC131"/>
       <c r="BD131" t="n">
-        <v>1.1634295187464</v>
+        <v>1.20796669949625</v>
       </c>
       <c r="BE131" t="n">
         <v>32534.1</v>
@@ -29527,7 +29521,7 @@
       </c>
       <c r="O133"/>
       <c r="P133" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q133" t="n">
         <v>50</v>
@@ -29911,7 +29905,7 @@
       </c>
       <c r="O135"/>
       <c r="P135" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q135"/>
       <c r="R135"/>
@@ -30102,7 +30096,7 @@
       </c>
       <c r="O136"/>
       <c r="P136" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q136" t="n">
         <v>66</v>
@@ -30144,10 +30138,10 @@
         <v>12.6511494772805</v>
       </c>
       <c r="AV136" t="n">
-        <v>0.427822466287997</v>
+        <v>0.42839993848202</v>
       </c>
       <c r="AW136" t="n">
-        <v>0.507387772016953</v>
+        <v>0.504045695843504</v>
       </c>
       <c r="AX136"/>
       <c r="AY136" t="n">
@@ -30192,7 +30186,7 @@
         <v>-1.96743555566667</v>
       </c>
       <c r="BZ136" t="n">
-        <v>33.5606204495093</v>
+        <v>24.8198359710215</v>
       </c>
       <c r="CA136"/>
       <c r="CB136"/>
@@ -30208,10 +30202,10 @@
       <c r="CL136"/>
       <c r="CM136"/>
       <c r="CN136" t="n">
-        <v>32.0220785400667</v>
+        <v>25.06176484175</v>
       </c>
       <c r="CO136" t="n">
-        <v>51.6308685822222</v>
+        <v>59.1343062166667</v>
       </c>
       <c r="CP136" t="n">
         <v>21.5012436019635</v>
@@ -30293,7 +30287,7 @@
       </c>
       <c r="O137"/>
       <c r="P137" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q137" t="n">
         <v>40</v>
@@ -30575,7 +30569,7 @@
         <v>0.322788534543643</v>
       </c>
       <c r="AW138" t="n">
-        <v>0.347747559274756</v>
+        <v>0.41</v>
       </c>
       <c r="AX138"/>
       <c r="AY138"/>
@@ -30709,7 +30703,7 @@
       </c>
       <c r="O139"/>
       <c r="P139" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q139"/>
       <c r="R139"/>
@@ -30888,7 +30882,7 @@
       </c>
       <c r="O140"/>
       <c r="P140" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q140"/>
       <c r="R140"/>
@@ -31242,7 +31236,7 @@
       </c>
       <c r="O142"/>
       <c r="P142" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q142" t="n">
         <v>60</v>
@@ -31429,7 +31423,7 @@
       </c>
       <c r="O143"/>
       <c r="P143" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q143"/>
       <c r="R143"/>
@@ -31644,7 +31638,7 @@
       </c>
       <c r="O144"/>
       <c r="P144" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q144" t="n">
         <v>45</v>
@@ -32050,7 +32044,7 @@
       </c>
       <c r="O146"/>
       <c r="P146" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q146" t="n">
         <v>47</v>
@@ -32215,7 +32209,7 @@
       </c>
       <c r="O147"/>
       <c r="P147" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q147" t="n">
         <v>62</v>
@@ -32442,7 +32436,7 @@
       </c>
       <c r="BC148"/>
       <c r="BD148" t="n">
-        <v>0.138325842696629</v>
+        <v>0.161188679245283</v>
       </c>
       <c r="BE148"/>
       <c r="BF148"/>
@@ -32504,7 +32498,7 @@
       <c r="CL148"/>
       <c r="CM148"/>
       <c r="CN148" t="n">
-        <v>71.0128174840835</v>
+        <v>71.6470550505379</v>
       </c>
       <c r="CO148" t="n">
         <v>137.720171126791</v>
@@ -32599,7 +32593,7 @@
       </c>
       <c r="O149"/>
       <c r="P149" t="n">
-        <v>1854</v>
+        <v>1881</v>
       </c>
       <c r="Q149" t="n">
         <v>40</v>
@@ -32631,7 +32625,7 @@
         <v>0.6716</v>
       </c>
       <c r="AL149" t="n">
-        <v>2.86443365622795</v>
+        <v>2.91926994023465</v>
       </c>
       <c r="AM149"/>
       <c r="AN149"/>
@@ -32737,10 +32731,10 @@
       <c r="CL149"/>
       <c r="CM149"/>
       <c r="CN149" t="n">
-        <v>62.8175433087094</v>
+        <v>58.8994789583385</v>
       </c>
       <c r="CO149" t="n">
-        <v>128.987462279786</v>
+        <v>119.927295526496</v>
       </c>
       <c r="CP149" t="n">
         <v>12.2240375</v>
@@ -32752,7 +32746,7 @@
         <v>9.18747596834945</v>
       </c>
       <c r="CS149" t="n">
-        <v>0.503422639225182</v>
+        <v>0.503551593137255</v>
       </c>
       <c r="CT149" t="n">
         <v>0.0121060694584471</v>
@@ -32893,7 +32887,7 @@
         <v>0.298284198327184</v>
       </c>
       <c r="AW150" t="n">
-        <v>0.607794957664872</v>
+        <v>0.607701574791806</v>
       </c>
       <c r="AX150"/>
       <c r="AY150" t="n">
@@ -32910,7 +32904,7 @@
       </c>
       <c r="BC150"/>
       <c r="BD150" t="n">
-        <v>0.7</v>
+        <v>0.138477222222222</v>
       </c>
       <c r="BE150" t="n">
         <v>3172.57230178519</v>
@@ -32982,10 +32976,10 @@
       <c r="CL150"/>
       <c r="CM150"/>
       <c r="CN150" t="n">
-        <v>62.8175433087094</v>
+        <v>58.8994789583385</v>
       </c>
       <c r="CO150" t="n">
-        <v>128.987462279786</v>
+        <v>119.927295526496</v>
       </c>
       <c r="CP150" t="n">
         <v>11.9150749014455</v>
@@ -33147,7 +33141,7 @@
         <v>4.56950833432204</v>
       </c>
       <c r="AV151" t="n">
-        <v>0.32180871845847</v>
+        <v>0.319723224312651</v>
       </c>
       <c r="AW151" t="n">
         <v>0.613710418616713</v>
@@ -33167,7 +33161,7 @@
       </c>
       <c r="BC151"/>
       <c r="BD151" t="n">
-        <v>1</v>
+        <v>0.138477222222222</v>
       </c>
       <c r="BE151" t="n">
         <v>3172.57230178519</v>
@@ -33239,10 +33233,10 @@
       <c r="CL151"/>
       <c r="CM151"/>
       <c r="CN151" t="n">
-        <v>62.8175433087094</v>
+        <v>58.8994789583385</v>
       </c>
       <c r="CO151" t="n">
-        <v>128.987462279786</v>
+        <v>119.927295526496</v>
       </c>
       <c r="CP151" t="n">
         <v>10.2182769977453</v>
@@ -33254,7 +33248,7 @@
         <v>9.18747596834945</v>
       </c>
       <c r="CS151" t="n">
-        <v>0.506614795918367</v>
+        <v>0.506828205128205</v>
       </c>
       <c r="CT151" t="n">
         <v>0.0121060694584471</v>
@@ -33395,7 +33389,7 @@
         <v>0.247121647324712</v>
       </c>
       <c r="AW152" t="n">
-        <v>0.503793334432781</v>
+        <v>0.506869419106317</v>
       </c>
       <c r="AX152"/>
       <c r="AY152" t="n">
@@ -33640,7 +33634,7 @@
         <v>0.606021216745</v>
       </c>
       <c r="AW153" t="n">
-        <v>0.588198788610223</v>
+        <v>0.588821133122266</v>
       </c>
       <c r="AX153"/>
       <c r="AY153" t="n">
@@ -33657,7 +33651,7 @@
       </c>
       <c r="BC153"/>
       <c r="BD153" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="BE153" t="n">
         <v>3172.57230178519</v>
@@ -33729,10 +33723,10 @@
       <c r="CL153"/>
       <c r="CM153"/>
       <c r="CN153" t="n">
-        <v>62.8175433087094</v>
+        <v>58.8994789583385</v>
       </c>
       <c r="CO153" t="n">
-        <v>128.987462279786</v>
+        <v>119.927295526496</v>
       </c>
       <c r="CP153" t="n">
         <v>11.5956124031008</v>
@@ -33868,7 +33862,7 @@
         <v>0.6353</v>
       </c>
       <c r="AL154" t="n">
-        <v>2.86443365622795</v>
+        <v>2.91926994023465</v>
       </c>
       <c r="AM154"/>
       <c r="AN154"/>
@@ -33885,7 +33879,7 @@
         <v>0.409902669376675</v>
       </c>
       <c r="AW154" t="n">
-        <v>0.456753246753247</v>
+        <v>0.473428571428571</v>
       </c>
       <c r="AX154"/>
       <c r="AY154" t="n">
@@ -33974,10 +33968,10 @@
       <c r="CL154"/>
       <c r="CM154"/>
       <c r="CN154" t="n">
-        <v>54.574925137234</v>
+        <v>58.2586391034884</v>
       </c>
       <c r="CO154" t="n">
-        <v>91.7582094676316</v>
+        <v>99.2184503151613</v>
       </c>
       <c r="CP154" t="n">
         <v>12.9762829845591</v>
@@ -34073,7 +34067,7 @@
       </c>
       <c r="O155"/>
       <c r="P155" t="n">
-        <v>1921</v>
+        <v>2006</v>
       </c>
       <c r="Q155" t="n">
         <v>40</v>
@@ -34139,10 +34133,10 @@
         <v>4.89794276570372</v>
       </c>
       <c r="AV155" t="n">
-        <v>0.306979914834038</v>
+        <v>0.282270422265755</v>
       </c>
       <c r="AW155" t="n">
-        <v>0.543432782747141</v>
+        <v>0.543072435848797</v>
       </c>
       <c r="AX155"/>
       <c r="AY155" t="n">
@@ -34231,10 +34225,10 @@
       <c r="CL155"/>
       <c r="CM155"/>
       <c r="CN155" t="n">
-        <v>76.2592788893745</v>
+        <v>68.4553020829763</v>
       </c>
       <c r="CO155" t="n">
-        <v>171.176828028342</v>
+        <v>147.684836420211</v>
       </c>
       <c r="CP155" t="n">
         <v>13.1598951745588</v>
@@ -34246,7 +34240,7 @@
         <v>9.64265384615385</v>
       </c>
       <c r="CS155" t="n">
-        <v>0.505008333333333</v>
+        <v>0.50431161971831</v>
       </c>
       <c r="CT155" t="n">
         <v>0.0139729918926329</v>
@@ -34330,7 +34324,7 @@
       </c>
       <c r="O156"/>
       <c r="P156" t="n">
-        <v>1854</v>
+        <v>1881</v>
       </c>
       <c r="Q156" t="n">
         <v>40</v>
@@ -34370,7 +34364,7 @@
         <v>0.6716</v>
       </c>
       <c r="AL156" t="n">
-        <v>2.86443365622795</v>
+        <v>2.91926994023465</v>
       </c>
       <c r="AM156"/>
       <c r="AN156"/>
@@ -34384,10 +34378,10 @@
         <v>3.80438987942203</v>
       </c>
       <c r="AV156" t="n">
-        <v>0.32180871845847</v>
+        <v>0.319723224312651</v>
       </c>
       <c r="AW156" t="n">
-        <v>0.515676351447958</v>
+        <v>0.514828156495359</v>
       </c>
       <c r="AX156"/>
       <c r="AY156" t="n">
@@ -34476,10 +34470,10 @@
       <c r="CL156"/>
       <c r="CM156"/>
       <c r="CN156" t="n">
-        <v>62.8175433087094</v>
+        <v>58.8994789583385</v>
       </c>
       <c r="CO156" t="n">
-        <v>128.987462279786</v>
+        <v>119.927295526496</v>
       </c>
       <c r="CP156" t="n">
         <v>10.9512955974843</v>
@@ -35417,7 +35411,7 @@
       </c>
       <c r="O161"/>
       <c r="P161" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q161" t="n">
         <v>150</v>
@@ -35574,7 +35568,7 @@
       </c>
       <c r="O162"/>
       <c r="P162" t="n">
-        <v>2376</v>
+        <v>1942</v>
       </c>
       <c r="Q162" t="n">
         <v>60</v>
@@ -35624,10 +35618,10 @@
         <v>14.2169035836918</v>
       </c>
       <c r="AV162" t="n">
-        <v>0.50724807925992</v>
+        <v>0.514054231310578</v>
       </c>
       <c r="AW162" t="n">
-        <v>0.41327458034987</v>
+        <v>0.41256353058514</v>
       </c>
       <c r="AX162"/>
       <c r="AY162" t="n">
@@ -35640,7 +35634,7 @@
       </c>
       <c r="BC162"/>
       <c r="BD162" t="n">
-        <v>6.27666949152542</v>
+        <v>6.32604273504274</v>
       </c>
       <c r="BE162" t="n">
         <v>6913.29195926331</v>
@@ -35702,10 +35696,10 @@
       <c r="CL162"/>
       <c r="CM162"/>
       <c r="CN162" t="n">
-        <v>62.9706623329754</v>
+        <v>63.0790186679553</v>
       </c>
       <c r="CO162" t="n">
-        <v>120.874017308077</v>
+        <v>122.646551473581</v>
       </c>
       <c r="CP162" t="n">
         <v>22.3251204215748</v>
@@ -35847,7 +35841,7 @@
       <c r="AJ163"/>
       <c r="AK163"/>
       <c r="AL163" t="n">
-        <v>0.511118674995596</v>
+        <v>0.432322667895288</v>
       </c>
       <c r="AM163"/>
       <c r="AN163"/>
@@ -35861,10 +35855,10 @@
         <v>15.1636921796637</v>
       </c>
       <c r="AV163" t="n">
-        <v>0.440997223509054</v>
+        <v>0.438196125111628</v>
       </c>
       <c r="AW163" t="n">
-        <v>0.591324726321289</v>
+        <v>0.592685111396654</v>
       </c>
       <c r="AX163"/>
       <c r="AY163" t="n">
@@ -35879,7 +35873,7 @@
       </c>
       <c r="BC163"/>
       <c r="BD163" t="n">
-        <v>3.2822049689441</v>
+        <v>3.32606092436975</v>
       </c>
       <c r="BE163" t="n">
         <v>7455.37606533296</v>
@@ -35943,10 +35937,10 @@
       <c r="CL163"/>
       <c r="CM163"/>
       <c r="CN163" t="n">
-        <v>58.2686148402165</v>
+        <v>56.8791875717954</v>
       </c>
       <c r="CO163" t="n">
-        <v>107.579938742467</v>
+        <v>107.400151795135</v>
       </c>
       <c r="CP163" t="n">
         <v>22.8819188147247</v>
@@ -36081,7 +36075,7 @@
         <v>0.26003896668</v>
       </c>
       <c r="AW164" t="n">
-        <v>0.455971664405635</v>
+        <v>0.459971086128199</v>
       </c>
       <c r="AX164"/>
       <c r="AY164" t="n">
@@ -36094,7 +36088,7 @@
       </c>
       <c r="BC164"/>
       <c r="BD164" t="n">
-        <v>0.210791666666667</v>
+        <v>0.1395</v>
       </c>
       <c r="BE164" t="n">
         <v>3195.98666666667</v>
@@ -36239,7 +36233,7 @@
       </c>
       <c r="O165"/>
       <c r="P165" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q165" t="n">
         <v>49</v>
@@ -36309,9 +36303,7 @@
       <c r="BN165"/>
       <c r="BO165"/>
       <c r="BP165"/>
-      <c r="BQ165" t="n">
-        <v>25.6913333333333</v>
-      </c>
+      <c r="BQ165"/>
       <c r="BR165"/>
       <c r="BS165"/>
       <c r="BT165"/>
@@ -36426,7 +36418,7 @@
       </c>
       <c r="O166"/>
       <c r="P166" t="n">
-        <v>4533</v>
+        <v>4510</v>
       </c>
       <c r="Q166" t="n">
         <v>56</v>
@@ -36528,10 +36520,10 @@
       </c>
       <c r="BC166"/>
       <c r="BD166" t="n">
-        <v>4.62867969090963</v>
+        <v>4.60309092196018</v>
       </c>
       <c r="BE166" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF166"/>
       <c r="BG166" t="n">
@@ -36600,10 +36592,10 @@
       <c r="CL166"/>
       <c r="CM166"/>
       <c r="CN166" t="n">
-        <v>63.9180271952762</v>
+        <v>62.7809963658907</v>
       </c>
       <c r="CO166" t="n">
-        <v>125.537049907594</v>
+        <v>118.448644833144</v>
       </c>
       <c r="CP166" t="n">
         <v>21.1051111111111</v>
@@ -36695,7 +36687,7 @@
       </c>
       <c r="O167"/>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>4510</v>
       </c>
       <c r="Q167"/>
       <c r="R167"/>
@@ -36763,7 +36755,7 @@
         <v>4.98008436387803</v>
       </c>
       <c r="AV167" t="n">
-        <v>0.387126216572674</v>
+        <v>0.370967862300809</v>
       </c>
       <c r="AW167" t="n">
         <v>0.438910593474687</v>
@@ -36786,7 +36778,7 @@
         <v>1.37610846560847</v>
       </c>
       <c r="BE167" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF167"/>
       <c r="BG167" t="n">
@@ -36855,10 +36847,10 @@
       <c r="CL167"/>
       <c r="CM167"/>
       <c r="CN167" t="n">
-        <v>63.9180271952762</v>
+        <v>62.7809963658907</v>
       </c>
       <c r="CO167" t="n">
-        <v>125.537049907594</v>
+        <v>118.448644833144</v>
       </c>
       <c r="CP167" t="n">
         <v>12.94665277775</v>
@@ -36870,7 +36862,7 @@
         <v>12.1667474896346</v>
       </c>
       <c r="CS167" t="n">
-        <v>0.475009438202247</v>
+        <v>0.474917792792793</v>
       </c>
       <c r="CT167" t="n">
         <v>0.026477456432368</v>
@@ -36950,7 +36942,7 @@
       </c>
       <c r="O168"/>
       <c r="P168" t="n">
-        <v>4533</v>
+        <v>4510</v>
       </c>
       <c r="Q168" t="n">
         <v>40</v>
@@ -37052,10 +37044,10 @@
       </c>
       <c r="BC168"/>
       <c r="BD168" t="n">
-        <v>4.62867969090963</v>
+        <v>4.60309092196018</v>
       </c>
       <c r="BE168" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF168"/>
       <c r="BG168" t="n">
@@ -37124,10 +37116,10 @@
       <c r="CL168"/>
       <c r="CM168"/>
       <c r="CN168" t="n">
-        <v>63.9180271952762</v>
+        <v>62.7809963658907</v>
       </c>
       <c r="CO168" t="n">
-        <v>125.537049907594</v>
+        <v>118.448644833144</v>
       </c>
       <c r="CP168" t="n">
         <v>20.8518285714286</v>
@@ -37219,7 +37211,7 @@
       </c>
       <c r="O169"/>
       <c r="P169" t="n">
-        <v>4533</v>
+        <v>4510</v>
       </c>
       <c r="Q169"/>
       <c r="R169"/>
@@ -37257,7 +37249,7 @@
       <c r="AJ169"/>
       <c r="AK169"/>
       <c r="AL169" t="n">
-        <v>0.884824522933923</v>
+        <v>0.822724447091808</v>
       </c>
       <c r="AM169" t="n">
         <v>54.5</v>
@@ -37287,10 +37279,10 @@
         <v>11.595373530886</v>
       </c>
       <c r="AV169" t="n">
-        <v>0.466055411831665</v>
+        <v>0.465893741798851</v>
       </c>
       <c r="AW169" t="n">
-        <v>0.801058939363501</v>
+        <v>0.802353411325127</v>
       </c>
       <c r="AX169"/>
       <c r="AY169" t="n">
@@ -37307,10 +37299,10 @@
       </c>
       <c r="BC169"/>
       <c r="BD169" t="n">
-        <v>4.62867969090963</v>
+        <v>4.60309092196018</v>
       </c>
       <c r="BE169" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF169"/>
       <c r="BG169" t="n">
@@ -37379,10 +37371,10 @@
       <c r="CL169"/>
       <c r="CM169"/>
       <c r="CN169" t="n">
-        <v>63.9180271952762</v>
+        <v>62.7809963658907</v>
       </c>
       <c r="CO169" t="n">
-        <v>125.537049907594</v>
+        <v>118.448644833144</v>
       </c>
       <c r="CP169" t="n">
         <v>19.323167575011</v>
@@ -37394,7 +37386,7 @@
         <v>12.1667474896346</v>
       </c>
       <c r="CS169" t="n">
-        <v>0.475009438202247</v>
+        <v>0.474917792792793</v>
       </c>
       <c r="CT169" t="n">
         <v>0.026477456432368</v>
@@ -37538,7 +37530,7 @@
         <v>0.7974</v>
       </c>
       <c r="AL170" t="n">
-        <v>2.14540172270652</v>
+        <v>2.18383741030659</v>
       </c>
       <c r="AM170" t="n">
         <v>54.5</v>
@@ -37568,10 +37560,10 @@
         <v>6.8509511840751</v>
       </c>
       <c r="AV170" t="n">
-        <v>0.5200298178545</v>
+        <v>0.489339229426632</v>
       </c>
       <c r="AW170" t="n">
-        <v>0.901366206564586</v>
+        <v>0.900826437407037</v>
       </c>
       <c r="AX170"/>
       <c r="AY170" t="n">
@@ -37591,7 +37583,7 @@
         <v>1.7674358974359</v>
       </c>
       <c r="BE170" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF170"/>
       <c r="BG170" t="n">
@@ -37660,7 +37652,7 @@
       <c r="CL170"/>
       <c r="CM170"/>
       <c r="CN170" t="n">
-        <v>41.0151757772811</v>
+        <v>41.8091245971873</v>
       </c>
       <c r="CO170" t="n">
         <v>103.068982595</v>
@@ -37755,7 +37747,7 @@
       </c>
       <c r="O171"/>
       <c r="P171" t="n">
-        <v>4533</v>
+        <v>4510</v>
       </c>
       <c r="Q171" t="n">
         <v>54</v>
@@ -37807,7 +37799,7 @@
         <v>0.7974</v>
       </c>
       <c r="AL171" t="n">
-        <v>0.884824522933923</v>
+        <v>0.822724447091808</v>
       </c>
       <c r="AM171" t="n">
         <v>54.5</v>
@@ -37837,7 +37829,7 @@
         <v>6.76225</v>
       </c>
       <c r="AV171" t="n">
-        <v>0.466055411831665</v>
+        <v>0.465893741798851</v>
       </c>
       <c r="AW171" t="n">
         <v>0.7</v>
@@ -37857,10 +37849,10 @@
       </c>
       <c r="BC171"/>
       <c r="BD171" t="n">
-        <v>4.62867969090963</v>
+        <v>4.60309092196018</v>
       </c>
       <c r="BE171" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF171"/>
       <c r="BG171" t="n">
@@ -37929,10 +37921,10 @@
       <c r="CL171"/>
       <c r="CM171"/>
       <c r="CN171" t="n">
-        <v>63.9180271952762</v>
+        <v>62.7809963658907</v>
       </c>
       <c r="CO171" t="n">
-        <v>125.537049907594</v>
+        <v>118.448644833144</v>
       </c>
       <c r="CP171" t="n">
         <v>14.4</v>
@@ -37944,7 +37936,7 @@
         <v>12.1667474896346</v>
       </c>
       <c r="CS171" t="n">
-        <v>0.475009438202247</v>
+        <v>0.474917792792793</v>
       </c>
       <c r="CT171" t="n">
         <v>0.026477456432368</v>
@@ -38123,7 +38115,7 @@
         <v>7.33333333333333</v>
       </c>
       <c r="BE172" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF172"/>
       <c r="BG172" t="n">
@@ -38192,10 +38184,10 @@
       <c r="CL172"/>
       <c r="CM172"/>
       <c r="CN172" t="n">
-        <v>73.8239991525424</v>
+        <v>67.7878757009346</v>
       </c>
       <c r="CO172" t="n">
-        <v>161.51085483871</v>
+        <v>150.793481481481</v>
       </c>
       <c r="CP172" t="n">
         <v>21.5857870958768</v>
@@ -38287,7 +38279,7 @@
       </c>
       <c r="O173"/>
       <c r="P173" t="n">
-        <v>4533</v>
+        <v>4510</v>
       </c>
       <c r="Q173" t="n">
         <v>50</v>
@@ -38369,7 +38361,7 @@
         <v>12.5937285228144</v>
       </c>
       <c r="AV173" t="n">
-        <v>0.466055411831665</v>
+        <v>0.465893741798851</v>
       </c>
       <c r="AW173" t="n">
         <v>0.730213269297118</v>
@@ -38389,10 +38381,10 @@
       </c>
       <c r="BC173"/>
       <c r="BD173" t="n">
-        <v>4.62867969090963</v>
+        <v>4.60309092196018</v>
       </c>
       <c r="BE173" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF173"/>
       <c r="BG173" t="n">
@@ -38461,10 +38453,10 @@
       <c r="CL173"/>
       <c r="CM173"/>
       <c r="CN173" t="n">
-        <v>63.9180271952762</v>
+        <v>62.7809963658907</v>
       </c>
       <c r="CO173" t="n">
-        <v>125.537049907594</v>
+        <v>118.448644833144</v>
       </c>
       <c r="CP173" t="n">
         <v>19.09473125</v>
@@ -38476,7 +38468,7 @@
         <v>12.1667474896346</v>
       </c>
       <c r="CS173" t="n">
-        <v>0.475009438202247</v>
+        <v>0.474917792792793</v>
       </c>
       <c r="CT173" t="n">
         <v>0.026477456432368</v>
@@ -38641,7 +38633,7 @@
         <v>0.52912207121561</v>
       </c>
       <c r="AW174" t="n">
-        <v>0.77185618729097</v>
+        <v>0.772802013422819</v>
       </c>
       <c r="AX174"/>
       <c r="AY174" t="n">
@@ -38658,10 +38650,10 @@
       </c>
       <c r="BC174"/>
       <c r="BD174" t="n">
-        <v>4.62867969090963</v>
+        <v>4.60309092196018</v>
       </c>
       <c r="BE174" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF174"/>
       <c r="BG174" t="n">
@@ -38944,7 +38936,7 @@
         <v>6</v>
       </c>
       <c r="BE175" t="n">
-        <v>827.217232913262</v>
+        <v>909.72002375821</v>
       </c>
       <c r="BF175"/>
       <c r="BG175" t="n">
@@ -39013,10 +39005,10 @@
       <c r="CL175"/>
       <c r="CM175"/>
       <c r="CN175" t="n">
-        <v>84.400880338983</v>
+        <v>69.1585508333333</v>
       </c>
       <c r="CO175" t="n">
-        <v>143.000251524</v>
+        <v>128.811966888372</v>
       </c>
       <c r="CP175" t="n">
         <v>22.2178752696655</v>
@@ -39108,7 +39100,7 @@
       </c>
       <c r="O176"/>
       <c r="P176" t="n">
-        <v>4533</v>
+        <v>4510</v>
       </c>
       <c r="Q176" t="n">
         <v>50</v>
@@ -39193,7 +39185,7 @@
         <v>0.440885710893261</v>
       </c>
       <c r="AW176" t="n">
-        <v>0.583333406891986</v>
+        <v>0.593000306619318</v>
       </c>
       <c r="AX176"/>
       <c r="AY176" t="n">
@@ -39213,7 +39205,7 @@
         <v>10.75</v>
       </c>
       <c r="BE176" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF176"/>
       <c r="BG176" t="n">
@@ -39282,10 +39274,10 @@
       <c r="CL176"/>
       <c r="CM176"/>
       <c r="CN176" t="n">
-        <v>48.8454142158633</v>
+        <v>49.3771273544801</v>
       </c>
       <c r="CO176" t="n">
-        <v>92.7242513847059</v>
+        <v>96.084507296087</v>
       </c>
       <c r="CP176" t="n">
         <v>21.8078227225859</v>
@@ -39462,7 +39454,7 @@
         <v>0.577363436524393</v>
       </c>
       <c r="AW177" t="n">
-        <v>0.828859639094792</v>
+        <v>0.836171263462044</v>
       </c>
       <c r="AX177"/>
       <c r="AY177" t="n">
@@ -39479,10 +39471,10 @@
       </c>
       <c r="BC177"/>
       <c r="BD177" t="n">
-        <v>4.62867969090963</v>
+        <v>4.60309092196018</v>
       </c>
       <c r="BE177" t="n">
-        <v>4066.8027955483</v>
+        <v>4398.81184253555</v>
       </c>
       <c r="BF177"/>
       <c r="BG177" t="n">
@@ -39646,7 +39638,7 @@
       </c>
       <c r="O178"/>
       <c r="P178" t="n">
-        <v>4400</v>
+        <v>1600</v>
       </c>
       <c r="Q178"/>
       <c r="R178"/>
@@ -39892,7 +39884,7 @@
         <v>0.360902332998578</v>
       </c>
       <c r="AW179" t="n">
-        <v>0.560312626246629</v>
+        <v>0.576997999561016</v>
       </c>
       <c r="AX179"/>
       <c r="AY179" t="n">
@@ -39909,7 +39901,7 @@
       </c>
       <c r="BC179"/>
       <c r="BD179" t="n">
-        <v>2.282</v>
+        <v>2.25901818181818</v>
       </c>
       <c r="BE179"/>
       <c r="BF179"/>
@@ -40052,7 +40044,7 @@
       </c>
       <c r="O180"/>
       <c r="P180" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q180"/>
       <c r="R180"/>
@@ -40090,7 +40082,7 @@
       <c r="AJ180"/>
       <c r="AK180"/>
       <c r="AL180" t="n">
-        <v>1.74425711274941</v>
+        <v>1.31638566912411</v>
       </c>
       <c r="AM180"/>
       <c r="AN180"/>
@@ -40122,10 +40114,10 @@
       <c r="BB180"/>
       <c r="BC180"/>
       <c r="BD180" t="n">
-        <v>1.81935483870968</v>
+        <v>1.92068965517241</v>
       </c>
       <c r="BE180" t="n">
-        <v>1289.69717467345</v>
+        <v>1218.7320465055</v>
       </c>
       <c r="BF180"/>
       <c r="BG180" t="n">
@@ -40321,7 +40313,7 @@
       </c>
       <c r="BC181"/>
       <c r="BD181" t="n">
-        <v>2.81268292682927</v>
+        <v>2.672375</v>
       </c>
       <c r="BE181"/>
       <c r="BF181"/>
@@ -40458,7 +40450,7 @@
       </c>
       <c r="O182"/>
       <c r="P182" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q182"/>
       <c r="R182"/>
@@ -40918,10 +40910,10 @@
         <v>18.5976133017188</v>
       </c>
       <c r="AV184" t="n">
-        <v>0.445276695016111</v>
+        <v>0.450990080667256</v>
       </c>
       <c r="AW184" t="n">
-        <v>0.560564846906129</v>
+        <v>0.59365307546</v>
       </c>
       <c r="AX184"/>
       <c r="AY184"/>
@@ -41127,10 +41119,10 @@
         <v>19.7401069645411</v>
       </c>
       <c r="AV185" t="n">
-        <v>0.430550145135036</v>
+        <v>0.433732805375334</v>
       </c>
       <c r="AW185" t="n">
-        <v>0.315389161289527</v>
+        <v>0.336630279042895</v>
       </c>
       <c r="AX185"/>
       <c r="AY185"/>
@@ -41340,7 +41332,7 @@
         <v>10.7093587492646</v>
       </c>
       <c r="AV186" t="n">
-        <v>0.172626859838824</v>
+        <v>0.173564598714045</v>
       </c>
       <c r="AW186" t="n">
         <v>0.200756827903916</v>
@@ -41402,7 +41394,7 @@
       <c r="CL186"/>
       <c r="CM186"/>
       <c r="CN186" t="n">
-        <v>49.1</v>
+        <v>50.96</v>
       </c>
       <c r="CO186" t="n">
         <v>118.506666666667</v>
@@ -41495,7 +41487,7 @@
       </c>
       <c r="O187"/>
       <c r="P187" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q187"/>
       <c r="R187"/>
@@ -41676,7 +41668,7 @@
       </c>
       <c r="O188"/>
       <c r="P188" t="n">
-        <v>1207</v>
+        <v>932</v>
       </c>
       <c r="Q188" t="n">
         <v>60</v>
@@ -41750,7 +41742,7 @@
       </c>
       <c r="BC188"/>
       <c r="BD188" t="n">
-        <v>1.50616018518519</v>
+        <v>1.57834653465347</v>
       </c>
       <c r="BE188" t="n">
         <v>2750.36562994357</v>
@@ -41814,10 +41806,10 @@
       <c r="CL188"/>
       <c r="CM188"/>
       <c r="CN188" t="n">
-        <v>59.7044664929411</v>
+        <v>60.2710274552854</v>
       </c>
       <c r="CO188" t="n">
-        <v>204.616844241763</v>
+        <v>199.366040868396</v>
       </c>
       <c r="CP188" t="n">
         <v>23.742029134948</v>
@@ -41973,7 +41965,7 @@
       </c>
       <c r="BC189"/>
       <c r="BD189" t="n">
-        <v>0.295673865431595</v>
+        <v>0.362675828731121</v>
       </c>
       <c r="BE189" t="n">
         <v>5900.74333333333</v>
@@ -42001,7 +41993,7 @@
         <v>-2.505</v>
       </c>
       <c r="BZ189" t="n">
-        <v>27.3081095975339</v>
+        <v>11.0759731947895</v>
       </c>
       <c r="CA189"/>
       <c r="CB189"/>
@@ -42146,10 +42138,10 @@
         <v>10.7954983132172</v>
       </c>
       <c r="AV190" t="n">
-        <v>0.341111457957087</v>
+        <v>0.308120031646094</v>
       </c>
       <c r="AW190" t="n">
-        <v>0.395375833503924</v>
+        <v>0.397312428449606</v>
       </c>
       <c r="AX190"/>
       <c r="AY190" t="n">
@@ -42307,7 +42299,7 @@
       </c>
       <c r="O191"/>
       <c r="P191" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q191" t="n">
         <v>50</v>
@@ -42363,10 +42355,10 @@
         <v>21.5186740299352</v>
       </c>
       <c r="AV191" t="n">
-        <v>0.454143682062288</v>
+        <v>0.560058242749717</v>
       </c>
       <c r="AW191" t="n">
-        <v>0.396401530429153</v>
+        <v>0.412898170290893</v>
       </c>
       <c r="AX191"/>
       <c r="AY191"/>
@@ -42695,7 +42687,7 @@
       </c>
       <c r="O193"/>
       <c r="P193" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q193"/>
       <c r="R193"/>
@@ -43023,7 +43015,7 @@
       </c>
       <c r="O195"/>
       <c r="P195" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q195" t="n">
         <v>54</v>
@@ -43540,7 +43532,7 @@
       </c>
       <c r="O198"/>
       <c r="P198" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q198" t="n">
         <v>60</v>
@@ -43741,7 +43733,7 @@
       </c>
       <c r="O199"/>
       <c r="P199" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q199"/>
       <c r="R199"/>
@@ -43980,7 +43972,7 @@
       <c r="BB200"/>
       <c r="BC200"/>
       <c r="BD200" t="n">
-        <v>1.551</v>
+        <v>1.603125</v>
       </c>
       <c r="BE200"/>
       <c r="BF200"/>
@@ -44105,7 +44097,7 @@
       </c>
       <c r="O201"/>
       <c r="P201" t="n">
-        <v>4007</v>
+        <v>3775</v>
       </c>
       <c r="Q201" t="n">
         <v>50</v>
@@ -44155,7 +44147,7 @@
       <c r="BB201"/>
       <c r="BC201"/>
       <c r="BD201" t="n">
-        <v>0.138333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="BE201"/>
       <c r="BF201"/>
@@ -44344,7 +44336,7 @@
       <c r="BB202"/>
       <c r="BC202"/>
       <c r="BD202" t="n">
-        <v>2.25</v>
+        <v>0.292857142857143</v>
       </c>
       <c r="BE202"/>
       <c r="BF202"/>
@@ -44477,7 +44469,7 @@
       </c>
       <c r="O203"/>
       <c r="P203" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q203"/>
       <c r="R203"/>
@@ -44652,7 +44644,7 @@
       </c>
       <c r="O204"/>
       <c r="P204" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q204" t="n">
         <v>100</v>
@@ -44873,10 +44865,10 @@
         <v>9.93980394218537</v>
       </c>
       <c r="AV205" t="n">
-        <v>0.301031597228507</v>
+        <v>0.304283391835435</v>
       </c>
       <c r="AW205" t="n">
-        <v>0.25576847160623</v>
+        <v>0.31203345131309</v>
       </c>
       <c r="AX205"/>
       <c r="AY205"/>
@@ -45044,7 +45036,7 @@
       <c r="AJ206"/>
       <c r="AK206"/>
       <c r="AL206" t="n">
-        <v>2.89253719603889</v>
+        <v>2.33880579405833</v>
       </c>
       <c r="AM206"/>
       <c r="AN206"/>
@@ -45454,10 +45446,10 @@
         <v>11.1435015409193</v>
       </c>
       <c r="AV208" t="n">
-        <v>0.336353398887089</v>
+        <v>0.324478710109473</v>
       </c>
       <c r="AW208" t="n">
-        <v>0.207466726652593</v>
+        <v>0.219616991300849</v>
       </c>
       <c r="AX208"/>
       <c r="AY208"/>
@@ -45657,7 +45649,7 @@
         <v>24.4588181650942</v>
       </c>
       <c r="AV209" t="n">
-        <v>0.381801954797403</v>
+        <v>0.362466986224273</v>
       </c>
       <c r="AW209" t="n">
         <v>0.431500060981273</v>
@@ -45730,7 +45722,7 @@
         <v>9.060375</v>
       </c>
       <c r="CS209" t="n">
-        <v>0.498077777777778</v>
+        <v>0.485242857142857</v>
       </c>
       <c r="CT209" t="n">
         <v>0.026127873513698</v>
@@ -45863,7 +45855,7 @@
         <v>0.452193349305219</v>
       </c>
       <c r="AW210" t="n">
-        <v>0.532072157932511</v>
+        <v>0.667108200028755</v>
       </c>
       <c r="AX210"/>
       <c r="AY210"/>
@@ -46055,7 +46047,7 @@
         <v>18.5287525673484</v>
       </c>
       <c r="AV211" t="n">
-        <v>0.419982472936935</v>
+        <v>0.425273075439477</v>
       </c>
       <c r="AW211" t="n">
         <v>0.563971092218233</v>
@@ -46114,7 +46106,7 @@
         <v>52.3918365853846</v>
       </c>
       <c r="CO211" t="n">
-        <v>98.8753291611111</v>
+        <v>74.2879538642857</v>
       </c>
       <c r="CP211" t="n">
         <v>23.3550960128818</v>
@@ -46238,7 +46230,7 @@
       <c r="AJ212"/>
       <c r="AK212"/>
       <c r="AL212" t="n">
-        <v>0.374041408816994</v>
+        <v>0.382832172013631</v>
       </c>
       <c r="AM212"/>
       <c r="AN212"/>
@@ -46255,7 +46247,7 @@
         <v>0.378610286521543</v>
       </c>
       <c r="AW212" t="n">
-        <v>0.509512982418176</v>
+        <v>0.547132878712679</v>
       </c>
       <c r="AX212"/>
       <c r="AY212" t="n">
@@ -46270,7 +46262,7 @@
       <c r="BB212"/>
       <c r="BC212"/>
       <c r="BD212" t="n">
-        <v>0.985</v>
+        <v>0.933898305084746</v>
       </c>
       <c r="BE212"/>
       <c r="BF212"/>
@@ -46316,10 +46308,10 @@
       <c r="CL212"/>
       <c r="CM212"/>
       <c r="CN212" t="n">
-        <v>34.3966242589583</v>
+        <v>31.6692623109524</v>
       </c>
       <c r="CO212" t="n">
-        <v>74.4960893225</v>
+        <v>85.003307187</v>
       </c>
       <c r="CP212" t="n">
         <v>16.9429059568743</v>
@@ -46407,7 +46399,7 @@
       </c>
       <c r="O213"/>
       <c r="P213" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q213"/>
       <c r="R213"/>
@@ -46580,7 +46572,7 @@
       </c>
       <c r="O214"/>
       <c r="P214" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q214"/>
       <c r="R214"/>
@@ -46618,7 +46610,7 @@
       <c r="AJ214"/>
       <c r="AK214"/>
       <c r="AL214" t="n">
-        <v>0.501346204092729</v>
+        <v>0.500685060706086</v>
       </c>
       <c r="AM214"/>
       <c r="AN214"/>
@@ -46632,7 +46624,7 @@
         <v>16.4814842519974</v>
       </c>
       <c r="AV214" t="n">
-        <v>0.399946674545569</v>
+        <v>0.400050637637605</v>
       </c>
       <c r="AW214" t="n">
         <v>0.600720166449789</v>
@@ -46795,7 +46787,7 @@
       </c>
       <c r="O215"/>
       <c r="P215" t="n">
-        <v>2397</v>
+        <v>2353</v>
       </c>
       <c r="Q215" t="n">
         <v>59</v>
@@ -47306,7 +47298,7 @@
       </c>
       <c r="O218"/>
       <c r="P218" t="n">
-        <v>925</v>
+        <v>812</v>
       </c>
       <c r="Q218"/>
       <c r="R218"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -635,7 +635,7 @@
     <t xml:space="preserve">Ericaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Arbutus unedo </t>
+    <t xml:space="preserve">Arbutus unedo</t>
   </si>
   <si>
     <t xml:space="preserve">68</t>
@@ -3439,11 +3439,11 @@
       </c>
       <c r="BA2"/>
       <c r="BB2" t="n">
-        <v>17006.455650565</v>
+        <v>7194.245</v>
       </c>
       <c r="BC2"/>
       <c r="BD2" t="n">
-        <v>0.220441176470588</v>
+        <v>0.2204412</v>
       </c>
       <c r="BE2" t="n">
         <v>3621.21833333333</v>
@@ -3476,29 +3476,37 @@
       <c r="BS2"/>
       <c r="BT2"/>
       <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
+      <c r="BV2" t="n">
+        <v>0.0966599289887532</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-0.00432805652188447</v>
+      </c>
       <c r="BX2" t="n">
-        <v>-1.10504507344589</v>
+        <v>-1.8</v>
       </c>
       <c r="BY2" t="n">
         <v>-3.74711270489309</v>
       </c>
       <c r="BZ2" t="n">
-        <v>5.055555556</v>
-      </c>
-      <c r="CA2"/>
+        <v>10.8483769999843</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.216079537113281</v>
+      </c>
       <c r="CB2" t="n">
         <v>0.00391201428571428</v>
       </c>
       <c r="CC2" t="n">
         <v>0.23</v>
       </c>
-      <c r="CD2"/>
+      <c r="CD2" t="n">
+        <v>6</v>
+      </c>
       <c r="CE2"/>
       <c r="CF2"/>
       <c r="CG2" t="n">
-        <v>1.299505</v>
+        <v>1.3</v>
       </c>
       <c r="CH2" t="n">
         <v>6.71321934665495</v>
@@ -3510,10 +3518,10 @@
       <c r="CK2"/>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>32.73155256</v>
+        <v>58.0871168833344</v>
       </c>
       <c r="CN2" t="n">
-        <v>92.58500965</v>
+        <v>103.282348181433</v>
       </c>
       <c r="CO2" t="n">
         <v>13.0469018381866</v>
@@ -3538,7 +3546,9 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2"/>
+      <c r="CZ2" t="n">
+        <v>0.0065</v>
+      </c>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -3546,22 +3556,32 @@
       <c r="DE2" t="n">
         <v>0.88</v>
       </c>
-      <c r="DF2"/>
+      <c r="DF2" t="n">
+        <v>0.0016</v>
+      </c>
       <c r="DG2"/>
-      <c r="DH2"/>
+      <c r="DH2" t="n">
+        <v>0.0368015083102309</v>
+      </c>
       <c r="DI2" t="n">
-        <v>-4.01406496221369</v>
+        <v>-5.91753597335721</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.849248547179157</v>
+        <v>0.793026166706136</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.247861157172976</v>
-      </c>
-      <c r="DL2"/>
-      <c r="DM2"/>
+        <v>0.247191710132187</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>9.31047946570973</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>683.378855316643</v>
+      </c>
       <c r="DN2"/>
-      <c r="DO2"/>
+      <c r="DO2" t="n">
+        <v>260.008917814737</v>
+      </c>
       <c r="DP2"/>
       <c r="DQ2"/>
       <c r="DR2"/>
@@ -3626,10 +3646,18 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
+      <c r="Z3" t="n">
+        <v>0.123113793319351</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.45240421815065</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
       <c r="AD3" t="n">
         <v>2.36476</v>
       </c>
@@ -3734,9 +3762,7 @@
       <c r="BY3" t="n">
         <v>-4.15016666669445</v>
       </c>
-      <c r="BZ3" t="n">
-        <v>5.055555556</v>
-      </c>
+      <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3" t="n">
         <v>0.00391201428571428</v>
@@ -3808,10 +3834,16 @@
       <c r="DK3" t="n">
         <v>0</v>
       </c>
-      <c r="DL3"/>
-      <c r="DM3"/>
+      <c r="DL3" t="n">
+        <v>9.39752066115702</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>438.099177809786</v>
+      </c>
       <c r="DN3"/>
-      <c r="DO3"/>
+      <c r="DO3" t="n">
+        <v>266.222814163636</v>
+      </c>
       <c r="DP3"/>
       <c r="DQ3"/>
       <c r="DR3"/>
@@ -4010,20 +4042,28 @@
       <c r="DE4"/>
       <c r="DF4"/>
       <c r="DG4"/>
-      <c r="DH4"/>
+      <c r="DH4" t="n">
+        <v>0.0745083414909447</v>
+      </c>
       <c r="DI4" t="n">
-        <v>4.28542867826523</v>
+        <v>4.7302138260594</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.617699085106406</v>
+        <v>0.734345817282358</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.605944673261308</v>
-      </c>
-      <c r="DL4"/>
-      <c r="DM4"/>
+        <v>0.809895089821375</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>9.24382417811929</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>921.885180491361</v>
+      </c>
       <c r="DN4"/>
-      <c r="DO4"/>
+      <c r="DO4" t="n">
+        <v>416.435490609023</v>
+      </c>
       <c r="DP4"/>
       <c r="DQ4"/>
       <c r="DR4"/>
@@ -4268,20 +4308,28 @@
       </c>
       <c r="DF5"/>
       <c r="DG5"/>
-      <c r="DH5"/>
+      <c r="DH5" t="n">
+        <v>0.0176566426488501</v>
+      </c>
       <c r="DI5" t="n">
-        <v>-0.344544827992266</v>
+        <v>-4.43451445284373</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.433806505230387</v>
+        <v>0.404603482771155</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.230435255224958</v>
-      </c>
-      <c r="DL5"/>
-      <c r="DM5"/>
+        <v>0.549022857432834</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>9.20594704184704</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>775.126032752014</v>
+      </c>
       <c r="DN5"/>
-      <c r="DO5"/>
+      <c r="DO5" t="n">
+        <v>206.959300749818</v>
+      </c>
       <c r="DP5"/>
       <c r="DQ5"/>
       <c r="DR5"/>
@@ -4526,20 +4574,28 @@
       </c>
       <c r="DF6"/>
       <c r="DG6"/>
-      <c r="DH6"/>
+      <c r="DH6" t="n">
+        <v>0.0252321137541521</v>
+      </c>
       <c r="DI6" t="n">
-        <v>-0.718626221201636</v>
+        <v>-6.80434214323759</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.386182306975254</v>
+        <v>0.407089382410049</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.11351211360799</v>
-      </c>
-      <c r="DL6"/>
-      <c r="DM6"/>
+        <v>5.34778076410294</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>8.92982142857143</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>658.171428884779</v>
+      </c>
       <c r="DN6"/>
-      <c r="DO6"/>
+      <c r="DO6" t="n">
+        <v>193.714302355714</v>
+      </c>
       <c r="DP6"/>
       <c r="DQ6"/>
       <c r="DR6"/>
@@ -4792,12 +4848,18 @@
         <v>0.307578750451452</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.48512870003198</v>
-      </c>
-      <c r="DL7"/>
-      <c r="DM7"/>
+        <v>1.48512870003196</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>650</v>
+      </c>
       <c r="DN7"/>
-      <c r="DO7"/>
+      <c r="DO7" t="n">
+        <v>127.3239546</v>
+      </c>
       <c r="DP7"/>
       <c r="DQ7"/>
       <c r="DR7"/>
@@ -5042,20 +5104,28 @@
       </c>
       <c r="DF8"/>
       <c r="DG8"/>
-      <c r="DH8"/>
+      <c r="DH8" t="n">
+        <v>0.0249347397209538</v>
+      </c>
       <c r="DI8" t="n">
-        <v>-1.80546562495557</v>
+        <v>-2.43925900004981</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.47184184769196</v>
+        <v>0.33184886882111</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.819661481201309</v>
-      </c>
-      <c r="DL8"/>
-      <c r="DM8"/>
+        <v>3.45537204499882</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>9.26752587991718</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>767.021740603398</v>
+      </c>
       <c r="DN8"/>
-      <c r="DO8"/>
+      <c r="DO8" t="n">
+        <v>204.03466016646</v>
+      </c>
       <c r="DP8"/>
       <c r="DQ8"/>
       <c r="DR8"/>
@@ -5308,12 +5378,18 @@
         <v>0.842735020659727</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.516774033704572</v>
-      </c>
-      <c r="DL9"/>
-      <c r="DM9"/>
+        <v>0.516774033704573</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>8.96309523809524</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>947.142855326334</v>
+      </c>
       <c r="DN9"/>
-      <c r="DO9"/>
+      <c r="DO9" t="n">
+        <v>181.891363714286</v>
+      </c>
       <c r="DP9"/>
       <c r="DQ9"/>
       <c r="DR9"/>
@@ -5558,20 +5634,28 @@
       </c>
       <c r="DF10"/>
       <c r="DG10"/>
-      <c r="DH10"/>
+      <c r="DH10" t="n">
+        <v>0.0187411834936001</v>
+      </c>
       <c r="DI10" t="n">
-        <v>-0.418795936486938</v>
+        <v>0.526757721966584</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.590394965043777</v>
+        <v>0.674870063832876</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.24957301391951</v>
-      </c>
-      <c r="DL10"/>
-      <c r="DM10"/>
+        <v>1.64466732036729</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>9.2952736318408</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>918.039804287811</v>
+      </c>
       <c r="DN10"/>
-      <c r="DO10"/>
+      <c r="DO10" t="n">
+        <v>188.135395602985</v>
+      </c>
       <c r="DP10"/>
       <c r="DQ10"/>
       <c r="DR10"/>
@@ -5752,7 +5836,7 @@
         <v>0.331309518822034</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.120281474409918</v>
+        <v>0.120281474409919</v>
       </c>
       <c r="DL11"/>
       <c r="DM11"/>
@@ -5932,10 +6016,16 @@
       <c r="DK12" t="n">
         <v>0.167731555250666</v>
       </c>
-      <c r="DL12"/>
-      <c r="DM12"/>
+      <c r="DL12" t="n">
+        <v>9.92685185185185</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>925.000010596381</v>
+      </c>
       <c r="DN12"/>
-      <c r="DO12"/>
+      <c r="DO12" t="n">
+        <v>721.5024094</v>
+      </c>
       <c r="DP12"/>
       <c r="DQ12"/>
       <c r="DR12"/>
@@ -6146,20 +6236,28 @@
       </c>
       <c r="DF13"/>
       <c r="DG13"/>
-      <c r="DH13"/>
+      <c r="DH13" t="n">
+        <v>0.0103423548231054</v>
+      </c>
       <c r="DI13" t="n">
-        <v>0.087622003717856</v>
+        <v>-1.32768900692463</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.390503487522601</v>
+        <v>0.334353223443031</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.00332591013937963</v>
-      </c>
-      <c r="DL13"/>
-      <c r="DM13"/>
+        <v>1.01149241626263</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>9.65887292730004</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>898.835348950259</v>
+      </c>
       <c r="DN13"/>
-      <c r="DO13"/>
+      <c r="DO13" t="n">
+        <v>319.064771606324</v>
+      </c>
       <c r="DP13"/>
       <c r="DQ13"/>
       <c r="DR13"/>
@@ -6312,9 +6410,7 @@
       <c r="BY14" t="n">
         <v>-6.87277777772222</v>
       </c>
-      <c r="BZ14" t="n">
-        <v>2.73880597</v>
-      </c>
+      <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
       <c r="CC14"/>
@@ -6366,12 +6462,18 @@
         <v>0.396053339335325</v>
       </c>
       <c r="DK14" t="n">
-        <v>4.02817802216827</v>
-      </c>
-      <c r="DL14"/>
-      <c r="DM14"/>
+        <v>4.02817802216822</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>600</v>
+      </c>
       <c r="DN14"/>
-      <c r="DO14"/>
+      <c r="DO14" t="n">
+        <v>127.3239546</v>
+      </c>
       <c r="DP14"/>
       <c r="DQ14"/>
       <c r="DR14"/>
@@ -7224,10 +7326,16 @@
       <c r="DI19"/>
       <c r="DJ19"/>
       <c r="DK19"/>
-      <c r="DL19"/>
-      <c r="DM19"/>
+      <c r="DL19" t="n">
+        <v>8.84444444444444</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>698.888889948527</v>
+      </c>
       <c r="DN19"/>
-      <c r="DO19"/>
+      <c r="DO19" t="n">
+        <v>141.471060666667</v>
+      </c>
       <c r="DP19"/>
       <c r="DQ19"/>
       <c r="DR19"/>
@@ -7436,10 +7544,16 @@
       <c r="DI20"/>
       <c r="DJ20"/>
       <c r="DK20"/>
-      <c r="DL20"/>
-      <c r="DM20"/>
+      <c r="DL20" t="n">
+        <v>9.4775</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>633.000003099442</v>
+      </c>
       <c r="DN20"/>
-      <c r="DO20"/>
+      <c r="DO20" t="n">
+        <v>229.18311828</v>
+      </c>
       <c r="DP20"/>
       <c r="DQ20"/>
       <c r="DR20"/>
@@ -7644,20 +7758,28 @@
       </c>
       <c r="DF21"/>
       <c r="DG21"/>
-      <c r="DH21"/>
+      <c r="DH21" t="n">
+        <v>0.0633582437542227</v>
+      </c>
       <c r="DI21" t="n">
-        <v>1.97724686438387</v>
+        <v>0.312989649828523</v>
       </c>
       <c r="DJ21" t="n">
-        <v>0.297898068847283</v>
+        <v>0.262231258036797</v>
       </c>
       <c r="DK21" t="n">
-        <v>0.95639327564871</v>
-      </c>
-      <c r="DL21"/>
-      <c r="DM21"/>
+        <v>0.152182073775969</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>8.67977512682587</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>508.728059567779</v>
+      </c>
       <c r="DN21"/>
-      <c r="DO21"/>
+      <c r="DO21" t="n">
+        <v>288.811069295644</v>
+      </c>
       <c r="DP21"/>
       <c r="DQ21"/>
       <c r="DR21"/>
@@ -8018,9 +8140,7 @@
       <c r="BY23" t="n">
         <v>-3.42759898128712</v>
       </c>
-      <c r="BZ23" t="n">
-        <v>4.705882353</v>
-      </c>
+      <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
       <c r="CC23" t="n">
@@ -8082,7 +8202,7 @@
         <v>0.196946802609599</v>
       </c>
       <c r="DK23" t="n">
-        <v>7.25990714985104</v>
+        <v>7.25990714985105</v>
       </c>
       <c r="DL23"/>
       <c r="DM23"/>
@@ -8268,7 +8388,7 @@
         <v>0.242556379307087</v>
       </c>
       <c r="DK24" t="n">
-        <v>1.22764161015263</v>
+        <v>1.22764161015264</v>
       </c>
       <c r="DL24"/>
       <c r="DM24"/>
@@ -8816,9 +8936,7 @@
       <c r="BY27" t="n">
         <v>-4.5</v>
       </c>
-      <c r="BZ27" t="n">
-        <v>4.039735099</v>
-      </c>
+      <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27" t="n">
         <v>0.00165</v>
@@ -8872,7 +8990,7 @@
         <v>0.334631195964594</v>
       </c>
       <c r="DK27" t="n">
-        <v>3.73467046224901</v>
+        <v>3.73467046224907</v>
       </c>
       <c r="DL27"/>
       <c r="DM27"/>
@@ -9116,20 +9234,28 @@
       </c>
       <c r="DF28"/>
       <c r="DG28"/>
-      <c r="DH28"/>
+      <c r="DH28" t="n">
+        <v>0.0224632655697402</v>
+      </c>
       <c r="DI28" t="n">
-        <v>-2.1732961145311</v>
+        <v>-6.76107284426689</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0.819648625575946</v>
+        <v>0.314923778176308</v>
       </c>
       <c r="DK28" t="n">
-        <v>0.248919558983473</v>
-      </c>
-      <c r="DL28"/>
-      <c r="DM28"/>
+        <v>0.561152815818787</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>9.36467107579371</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>905.827324480683</v>
+      </c>
       <c r="DN28"/>
-      <c r="DO28"/>
+      <c r="DO28" t="n">
+        <v>336.061784016346</v>
+      </c>
       <c r="DP28"/>
       <c r="DQ28"/>
       <c r="DR28"/>
@@ -9518,20 +9644,28 @@
       </c>
       <c r="DF30"/>
       <c r="DG30"/>
-      <c r="DH30"/>
+      <c r="DH30" t="n">
+        <v>0.0383707599546935</v>
+      </c>
       <c r="DI30" t="n">
-        <v>-2.19922617759481</v>
+        <v>-0.597009032964706</v>
       </c>
       <c r="DJ30" t="n">
-        <v>0.379283027711907</v>
+        <v>0.678792677819729</v>
       </c>
       <c r="DK30" t="n">
-        <v>1.64840943251986</v>
-      </c>
-      <c r="DL30"/>
-      <c r="DM30"/>
+        <v>6.94381891191006</v>
+      </c>
+      <c r="DL30" t="n">
+        <v>8.20248611111111</v>
+      </c>
+      <c r="DM30" t="n">
+        <v>525.368055038982</v>
+      </c>
       <c r="DN30"/>
-      <c r="DO30"/>
+      <c r="DO30" t="n">
+        <v>199.47419554</v>
+      </c>
       <c r="DP30"/>
       <c r="DQ30"/>
       <c r="DR30"/>
@@ -9920,7 +10054,7 @@
         <v>0.389465809599075</v>
       </c>
       <c r="DK32" t="n">
-        <v>0.582150022000328</v>
+        <v>0.582150022000327</v>
       </c>
       <c r="DL32"/>
       <c r="DM32"/>
@@ -10320,20 +10454,28 @@
       </c>
       <c r="DF34"/>
       <c r="DG34"/>
-      <c r="DH34"/>
+      <c r="DH34" t="n">
+        <v>0.0227669054748548</v>
+      </c>
       <c r="DI34" t="n">
-        <v>1.60612311206081</v>
+        <v>-0.897151036188006</v>
       </c>
       <c r="DJ34" t="n">
-        <v>0.585910830219089</v>
+        <v>0.519037058176948</v>
       </c>
       <c r="DK34" t="n">
-        <v>0.000016096277875626</v>
-      </c>
-      <c r="DL34"/>
-      <c r="DM34"/>
+        <v>0.651053802082161</v>
+      </c>
+      <c r="DL34" t="n">
+        <v>9.5712087352219</v>
+      </c>
+      <c r="DM34" t="n">
+        <v>827.155552143589</v>
+      </c>
       <c r="DN34"/>
-      <c r="DO34"/>
+      <c r="DO34" t="n">
+        <v>366.865631898305</v>
+      </c>
       <c r="DP34"/>
       <c r="DQ34"/>
       <c r="DR34"/>
@@ -10398,18 +10540,42 @@
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
+      <c r="Z35" t="n">
+        <v>0.123113793319351</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.45240421815065</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.36476</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-0.763</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>-0.02285</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.000074049</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-0.01018</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>-0.27004</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.09636482208082</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.538</v>
+      </c>
       <c r="AL35"/>
       <c r="AM35"/>
       <c r="AN35"/>
@@ -10520,10 +10686,16 @@
       <c r="DK35" t="n">
         <v>3.74360166715774</v>
       </c>
-      <c r="DL35"/>
-      <c r="DM35"/>
+      <c r="DL35" t="n">
+        <v>9.74895833333333</v>
+      </c>
+      <c r="DM35" t="n">
+        <v>758.611111508475</v>
+      </c>
       <c r="DN35"/>
-      <c r="DO35"/>
+      <c r="DO35" t="n">
+        <v>201.59626145</v>
+      </c>
       <c r="DP35"/>
       <c r="DQ35"/>
       <c r="DR35"/>
@@ -10722,12 +10894,18 @@
         <v>0.261780099380896</v>
       </c>
       <c r="DK36" t="n">
-        <v>0.514530190567404</v>
-      </c>
-      <c r="DL36"/>
-      <c r="DM36"/>
+        <v>0.514530190567401</v>
+      </c>
+      <c r="DL36" t="n">
+        <v>9.51631578947368</v>
+      </c>
+      <c r="DM36" t="n">
+        <v>604.342106601648</v>
+      </c>
       <c r="DN36"/>
-      <c r="DO36"/>
+      <c r="DO36" t="n">
+        <v>328.361777652632</v>
+      </c>
       <c r="DP36"/>
       <c r="DQ36"/>
       <c r="DR36"/>
@@ -10870,9 +11048,7 @@
       <c r="BY37" t="n">
         <v>-7.08023809522619</v>
       </c>
-      <c r="BZ37" t="n">
-        <v>2.88037</v>
-      </c>
+      <c r="BZ37"/>
       <c r="CA37"/>
       <c r="CB37"/>
       <c r="CC37"/>
@@ -10914,20 +11090,28 @@
       <c r="DE37"/>
       <c r="DF37"/>
       <c r="DG37"/>
-      <c r="DH37"/>
+      <c r="DH37" t="n">
+        <v>0.320754665640006</v>
+      </c>
       <c r="DI37" t="n">
-        <v>6.79198946172541</v>
+        <v>2.33327242732048</v>
       </c>
       <c r="DJ37" t="n">
-        <v>0.239269733608423</v>
+        <v>1.40670137107372</v>
       </c>
       <c r="DK37" t="n">
-        <v>5.6554939802956</v>
-      </c>
-      <c r="DL37"/>
-      <c r="DM37"/>
+        <v>6.68649649620056</v>
+      </c>
+      <c r="DL37" t="n">
+        <v>9.25855263157895</v>
+      </c>
+      <c r="DM37" t="n">
+        <v>393.135962203929</v>
+      </c>
       <c r="DN37"/>
-      <c r="DO37"/>
+      <c r="DO37" t="n">
+        <v>177.583410363158</v>
+      </c>
       <c r="DP37"/>
       <c r="DQ37"/>
       <c r="DR37"/>
@@ -11108,10 +11292,16 @@
       <c r="DK38" t="n">
         <v>0</v>
       </c>
-      <c r="DL38"/>
-      <c r="DM38"/>
+      <c r="DL38" t="n">
+        <v>9.63179012345679</v>
+      </c>
+      <c r="DM38" t="n">
+        <v>669.274694831283</v>
+      </c>
       <c r="DN38"/>
-      <c r="DO38"/>
+      <c r="DO38" t="n">
+        <v>233.4272501</v>
+      </c>
       <c r="DP38"/>
       <c r="DQ38"/>
       <c r="DR38"/>
@@ -11478,12 +11668,18 @@
         <v>0.290351868092503</v>
       </c>
       <c r="DK40" t="n">
-        <v>4.90566263270362</v>
-      </c>
-      <c r="DL40"/>
-      <c r="DM40"/>
+        <v>4.90566263270359</v>
+      </c>
+      <c r="DL40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="DM40" t="n">
+        <v>235.000002384186</v>
+      </c>
       <c r="DN40"/>
-      <c r="DO40"/>
+      <c r="DO40" t="n">
+        <v>254.6479092</v>
+      </c>
       <c r="DP40"/>
       <c r="DQ40"/>
       <c r="DR40"/>
@@ -11660,7 +11856,7 @@
         <v>0.383175406671159</v>
       </c>
       <c r="DK41" t="n">
-        <v>3.03719350956188</v>
+        <v>3.03719350956195</v>
       </c>
       <c r="DL41"/>
       <c r="DM41"/>
@@ -12092,7 +12288,7 @@
         <v>0.192096221013802</v>
       </c>
       <c r="DK43" t="n">
-        <v>12.003241536953</v>
+        <v>12.0032415369529</v>
       </c>
       <c r="DL43"/>
       <c r="DM43"/>
@@ -12518,7 +12714,7 @@
         <v>0.352071902490665</v>
       </c>
       <c r="DK45" t="n">
-        <v>6.44414412992718</v>
+        <v>6.44414412992723</v>
       </c>
       <c r="DL45"/>
       <c r="DM45"/>
@@ -12950,7 +13146,7 @@
         <v>0.360833845701912</v>
       </c>
       <c r="DK47" t="n">
-        <v>5.95831142420048</v>
+        <v>5.95831142420055</v>
       </c>
       <c r="DL47"/>
       <c r="DM47"/>
@@ -13592,7 +13788,7 @@
         <v>0.348201498639596</v>
       </c>
       <c r="DK50" t="n">
-        <v>2.41290800587832</v>
+        <v>2.41290800587834</v>
       </c>
       <c r="DL50"/>
       <c r="DM50"/>
@@ -14018,7 +14214,7 @@
         <v>0.283598267677611</v>
       </c>
       <c r="DK52" t="n">
-        <v>2.6611868579608</v>
+        <v>2.66118685796081</v>
       </c>
       <c r="DL52"/>
       <c r="DM52"/>
@@ -14412,7 +14608,7 @@
         <v>0.338835946644463</v>
       </c>
       <c r="DK54" t="n">
-        <v>0.415157034422966</v>
+        <v>0.415157034422965</v>
       </c>
       <c r="DL54"/>
       <c r="DM54"/>
@@ -14598,7 +14794,7 @@
         <v>0.320810769000466</v>
       </c>
       <c r="DK55" t="n">
-        <v>1.89153705558193</v>
+        <v>1.89153705558191</v>
       </c>
       <c r="DL55"/>
       <c r="DM55"/>
@@ -15192,12 +15388,18 @@
         <v>0.391253443157219</v>
       </c>
       <c r="DK58" t="n">
-        <v>0.224612369935491</v>
-      </c>
-      <c r="DL58"/>
-      <c r="DM58"/>
+        <v>0.224612369935489</v>
+      </c>
+      <c r="DL58" t="n">
+        <v>8.21875</v>
+      </c>
+      <c r="DM58" t="n">
+        <v>493.75</v>
+      </c>
       <c r="DN58"/>
-      <c r="DO58"/>
+      <c r="DO58" t="n">
+        <v>127.3239546</v>
+      </c>
       <c r="DP58"/>
       <c r="DQ58"/>
       <c r="DR58"/>
@@ -15382,7 +15584,7 @@
         <v>0.231983114427747</v>
       </c>
       <c r="DK59" t="n">
-        <v>2.54855923445595</v>
+        <v>2.54855923445594</v>
       </c>
       <c r="DL59"/>
       <c r="DM59"/>
@@ -15576,20 +15778,28 @@
       </c>
       <c r="DF60"/>
       <c r="DG60"/>
-      <c r="DH60"/>
+      <c r="DH60" t="n">
+        <v>0.0816156468790107</v>
+      </c>
       <c r="DI60" t="n">
-        <v>-1.7639612052759</v>
+        <v>-4.18328488627111</v>
       </c>
       <c r="DJ60" t="n">
-        <v>0.491066747901667</v>
+        <v>0.31962282100228</v>
       </c>
       <c r="DK60" t="n">
-        <v>0.000673927345620782</v>
-      </c>
-      <c r="DL60"/>
-      <c r="DM60"/>
+        <v>0.0439587862708545</v>
+      </c>
+      <c r="DL60" t="n">
+        <v>8.72424006619692</v>
+      </c>
+      <c r="DM60" t="n">
+        <v>720.428024859551</v>
+      </c>
       <c r="DN60"/>
-      <c r="DO60"/>
+      <c r="DO60" t="n">
+        <v>386.970725758891</v>
+      </c>
       <c r="DP60"/>
       <c r="DQ60"/>
       <c r="DR60"/>
@@ -15784,7 +15994,7 @@
         <v>0.3231419471789</v>
       </c>
       <c r="DK61" t="n">
-        <v>2.48630370626578</v>
+        <v>2.48630370626577</v>
       </c>
       <c r="DL61"/>
       <c r="DM61"/>
@@ -15972,20 +16182,28 @@
       </c>
       <c r="DF62"/>
       <c r="DG62"/>
-      <c r="DH62"/>
+      <c r="DH62" t="n">
+        <v>0.0289779214238505</v>
+      </c>
       <c r="DI62" t="n">
-        <v>-0.261063980672578</v>
+        <v>-0.416376141894362</v>
       </c>
       <c r="DJ62" t="n">
-        <v>0.36718619793743</v>
+        <v>0.44331319668876</v>
       </c>
       <c r="DK62" t="n">
-        <v>0.387525743765636</v>
-      </c>
-      <c r="DL62"/>
-      <c r="DM62"/>
+        <v>0.566782125374536</v>
+      </c>
+      <c r="DL62" t="n">
+        <v>8.93101279492297</v>
+      </c>
+      <c r="DM62" t="n">
+        <v>586.043953143836</v>
+      </c>
       <c r="DN62"/>
-      <c r="DO62"/>
+      <c r="DO62" t="n">
+        <v>212.409902703952</v>
+      </c>
       <c r="DP62"/>
       <c r="DQ62"/>
       <c r="DR62"/>
@@ -16050,10 +16268,18 @@
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
+      <c r="Z63" t="n">
+        <v>0.230827770459304</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.791981150129859</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
       <c r="AD63"/>
       <c r="AE63"/>
       <c r="AF63"/>
@@ -16168,20 +16394,28 @@
       </c>
       <c r="DF63"/>
       <c r="DG63"/>
-      <c r="DH63"/>
+      <c r="DH63" t="n">
+        <v>0.0439881551746409</v>
+      </c>
       <c r="DI63" t="n">
-        <v>1.18797313212662</v>
+        <v>0.755688214782825</v>
       </c>
       <c r="DJ63" t="n">
-        <v>0.247736190039737</v>
+        <v>0.217545980159988</v>
       </c>
       <c r="DK63" t="n">
-        <v>0.123232826273149</v>
-      </c>
-      <c r="DL63"/>
-      <c r="DM63"/>
+        <v>0.685603548198357</v>
+      </c>
+      <c r="DL63" t="n">
+        <v>9.40181547619048</v>
+      </c>
+      <c r="DM63" t="n">
+        <v>557.630951844511</v>
+      </c>
       <c r="DN63"/>
-      <c r="DO63"/>
+      <c r="DO63" t="n">
+        <v>245.098612605</v>
+      </c>
       <c r="DP63"/>
       <c r="DQ63"/>
       <c r="DR63"/>
@@ -16362,7 +16596,7 @@
         <v>0.282678259891049</v>
       </c>
       <c r="DK64" t="n">
-        <v>4.91253803529436</v>
+        <v>4.91253803529441</v>
       </c>
       <c r="DL64"/>
       <c r="DM64"/>
@@ -18174,7 +18408,7 @@
         <v>0.453762838984264</v>
       </c>
       <c r="DK73" t="n">
-        <v>6.22908738705341</v>
+        <v>6.2290873870534</v>
       </c>
       <c r="DL73"/>
       <c r="DM73"/>
@@ -18380,7 +18614,7 @@
         <v>0.281607760221891</v>
       </c>
       <c r="DK74" t="n">
-        <v>0.775454980465905</v>
+        <v>0.7754549804659</v>
       </c>
       <c r="DL74"/>
       <c r="DM74"/>
@@ -18992,7 +19226,7 @@
         <v>0.64168796088017</v>
       </c>
       <c r="DK77" t="n">
-        <v>28.1644058985385</v>
+        <v>28.1644058985384</v>
       </c>
       <c r="DL77"/>
       <c r="DM77"/>
@@ -19158,7 +19392,7 @@
         <v>0.486209734665479</v>
       </c>
       <c r="DK78" t="n">
-        <v>0.122098728097283</v>
+        <v>0.122098728097281</v>
       </c>
       <c r="DL78"/>
       <c r="DM78"/>
@@ -19364,7 +19598,7 @@
         <v>0.299210816151574</v>
       </c>
       <c r="DK79" t="n">
-        <v>0.987702114819725</v>
+        <v>0.987702114819719</v>
       </c>
       <c r="DL79"/>
       <c r="DM79"/>
@@ -19724,7 +19958,7 @@
         <v>0.235059601535887</v>
       </c>
       <c r="DK81" t="n">
-        <v>4.47051626106425</v>
+        <v>4.47051626106422</v>
       </c>
       <c r="DL81"/>
       <c r="DM81"/>
@@ -20056,7 +20290,7 @@
         <v>0.348029383020084</v>
       </c>
       <c r="DK83" t="n">
-        <v>0.0000000000000000197472473965885</v>
+        <v>0.0000000000000000197472473965883</v>
       </c>
       <c r="DL83"/>
       <c r="DM83"/>
@@ -20240,7 +20474,7 @@
         <v>0.561955873547836</v>
       </c>
       <c r="DK84" t="n">
-        <v>19.1370320491348</v>
+        <v>19.1370320491347</v>
       </c>
       <c r="DL84"/>
       <c r="DM84"/>
@@ -20448,20 +20682,28 @@
       </c>
       <c r="DF85"/>
       <c r="DG85"/>
-      <c r="DH85"/>
+      <c r="DH85" t="n">
+        <v>0.0711449215017124</v>
+      </c>
       <c r="DI85" t="n">
-        <v>-0.823046178132936</v>
+        <v>4.96825420692563</v>
       </c>
       <c r="DJ85" t="n">
-        <v>0.339823281126317</v>
+        <v>0.68863357424736</v>
       </c>
       <c r="DK85" t="n">
-        <v>0.613964190697728</v>
-      </c>
-      <c r="DL85"/>
-      <c r="DM85"/>
+        <v>16.0255496565998</v>
+      </c>
+      <c r="DL85" t="n">
+        <v>9.0516503650013</v>
+      </c>
+      <c r="DM85" t="n">
+        <v>596.925170528368</v>
+      </c>
       <c r="DN85"/>
-      <c r="DO85"/>
+      <c r="DO85" t="n">
+        <v>534.397690684561</v>
+      </c>
       <c r="DP85"/>
       <c r="DQ85"/>
       <c r="DR85"/>
@@ -20668,7 +20910,7 @@
         <v>0.362007698003751</v>
       </c>
       <c r="DK86" t="n">
-        <v>2.07867178697574</v>
+        <v>2.07867178697575</v>
       </c>
       <c r="DL86"/>
       <c r="DM86"/>
@@ -21504,7 +21746,7 @@
         <v>0.257086234582607</v>
       </c>
       <c r="DK90" t="n">
-        <v>3.7530163575622</v>
+        <v>3.75301635756219</v>
       </c>
       <c r="DL90"/>
       <c r="DM90"/>
@@ -21720,12 +21962,18 @@
         <v>0.375187915115427</v>
       </c>
       <c r="DK91" t="n">
-        <v>2.87518600809998</v>
-      </c>
-      <c r="DL91"/>
-      <c r="DM91"/>
+        <v>2.87518600809999</v>
+      </c>
+      <c r="DL91" t="n">
+        <v>8.80041649526944</v>
+      </c>
+      <c r="DM91" t="n">
+        <v>556.068226400618</v>
+      </c>
       <c r="DN91"/>
-      <c r="DO91"/>
+      <c r="DO91" t="n">
+        <v>871.679381492308</v>
+      </c>
       <c r="DP91"/>
       <c r="DQ91"/>
       <c r="DR91"/>
@@ -22526,7 +22774,7 @@
         <v>0.328693470119622</v>
       </c>
       <c r="DK95" t="n">
-        <v>4.44850472657912</v>
+        <v>4.44850472657913</v>
       </c>
       <c r="DL95"/>
       <c r="DM95"/>
@@ -22756,20 +23004,28 @@
       <c r="DE96"/>
       <c r="DF96"/>
       <c r="DG96"/>
-      <c r="DH96"/>
+      <c r="DH96" t="n">
+        <v>0.0597863024819252</v>
+      </c>
       <c r="DI96" t="n">
-        <v>5.25155074297133</v>
+        <v>-1.25606605907882</v>
       </c>
       <c r="DJ96" t="n">
-        <v>0.276860689733814</v>
+        <v>0.159895798821166</v>
       </c>
       <c r="DK96" t="n">
-        <v>0.111674333866339</v>
-      </c>
-      <c r="DL96"/>
-      <c r="DM96"/>
+        <v>0.0546833015529896</v>
+      </c>
+      <c r="DL96" t="n">
+        <v>9.61991045750566</v>
+      </c>
+      <c r="DM96" t="n">
+        <v>1192.50261432068</v>
+      </c>
       <c r="DN96"/>
-      <c r="DO96"/>
+      <c r="DO96" t="n">
+        <v>418.392027690649</v>
+      </c>
       <c r="DP96"/>
       <c r="DQ96"/>
       <c r="DR96"/>
@@ -22954,12 +23210,18 @@
         <v>0.425254323743114</v>
       </c>
       <c r="DK97" t="n">
-        <v>0.383578718315992</v>
-      </c>
-      <c r="DL97"/>
-      <c r="DM97"/>
+        <v>0.383578718315989</v>
+      </c>
+      <c r="DL97" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="DM97" t="n">
+        <v>400</v>
+      </c>
       <c r="DN97"/>
-      <c r="DO97"/>
+      <c r="DO97" t="n">
+        <v>127.3239546</v>
+      </c>
       <c r="DP97"/>
       <c r="DQ97"/>
       <c r="DR97"/>
@@ -23280,7 +23542,7 @@
         <v>2</v>
       </c>
       <c r="AU99" t="n">
-        <v>28.4445300486109</v>
+        <v>18.32</v>
       </c>
       <c r="AV99" t="n">
         <v>0.462852876741958</v>
@@ -23296,10 +23558,12 @@
         <v>2.30255761549402</v>
       </c>
       <c r="BA99"/>
-      <c r="BB99"/>
+      <c r="BB99" t="n">
+        <v>2076.12026998997</v>
+      </c>
       <c r="BC99"/>
       <c r="BD99" t="n">
-        <v>5.11772222222222</v>
+        <v>5.1177222</v>
       </c>
       <c r="BE99" t="n">
         <v>522.100995703278</v>
@@ -23332,42 +23596,60 @@
       <c r="BS99"/>
       <c r="BT99"/>
       <c r="BU99"/>
-      <c r="BV99"/>
-      <c r="BW99"/>
+      <c r="BV99" t="n">
+        <v>0.164744204494917</v>
+      </c>
+      <c r="BW99" t="n">
+        <v>-0.00737660617141417</v>
+      </c>
       <c r="BX99" t="n">
-        <v>-1.38676335451574</v>
+        <v>-1.4284</v>
       </c>
       <c r="BY99" t="n">
-        <v>-2.68566255365755</v>
-      </c>
-      <c r="BZ99"/>
-      <c r="CA99"/>
+        <v>-3.1481</v>
+      </c>
+      <c r="BZ99" t="n">
+        <v>6.68403793418649</v>
+      </c>
+      <c r="CA99" t="n">
+        <v>0.213735227077758</v>
+      </c>
       <c r="CB99" t="n">
-        <v>0.0036705561905</v>
+        <v>0.00447333333333333</v>
       </c>
       <c r="CC99" t="n">
-        <v>0.284875</v>
-      </c>
-      <c r="CD99"/>
-      <c r="CE99"/>
-      <c r="CF99"/>
+        <v>0.335</v>
+      </c>
+      <c r="CD99" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE99" t="n">
+        <v>1.87313046170314</v>
+      </c>
+      <c r="CF99" t="n">
+        <v>-1.73708216216216</v>
+      </c>
       <c r="CG99" t="n">
-        <v>1.83</v>
+        <v>0.9</v>
       </c>
       <c r="CH99" t="n">
-        <v>6.9103407815918</v>
+        <v>7.314708</v>
       </c>
       <c r="CI99" t="n">
-        <v>-3.34865094624042</v>
+        <v>-3.311856</v>
       </c>
       <c r="CJ99"/>
-      <c r="CK99"/>
-      <c r="CL99"/>
+      <c r="CK99" t="n">
+        <v>1.87313046170314</v>
+      </c>
+      <c r="CL99" t="n">
+        <v>-1.04726429132728</v>
+      </c>
       <c r="CM99" t="n">
-        <v>40.2821534173799</v>
+        <v>94.5</v>
       </c>
       <c r="CN99" t="n">
-        <v>89.1773734849254</v>
+        <v>159.9</v>
       </c>
       <c r="CO99" t="n">
         <v>23.4561670336071</v>
@@ -23384,7 +23666,9 @@
       <c r="CS99" t="n">
         <v>0.0211986338533469</v>
       </c>
-      <c r="CT99"/>
+      <c r="CT99" t="n">
+        <v>0.0000459432683519661</v>
+      </c>
       <c r="CU99"/>
       <c r="CV99" t="n">
         <v>1.473</v>
@@ -23392,30 +23676,44 @@
       <c r="CW99"/>
       <c r="CX99"/>
       <c r="CY99"/>
-      <c r="CZ99"/>
+      <c r="CZ99" t="n">
+        <v>0.002</v>
+      </c>
       <c r="DA99"/>
       <c r="DB99"/>
-      <c r="DC99"/>
+      <c r="DC99" t="n">
+        <v>0.000164806842803955</v>
+      </c>
       <c r="DD99"/>
       <c r="DE99" t="n">
         <v>0.873</v>
       </c>
-      <c r="DF99"/>
+      <c r="DF99" t="n">
+        <v>0.0016</v>
+      </c>
       <c r="DG99"/>
-      <c r="DH99"/>
+      <c r="DH99" t="n">
+        <v>0.0230568468839951</v>
+      </c>
       <c r="DI99" t="n">
-        <v>-1.39287193028934</v>
+        <v>-3.65454244613647</v>
       </c>
       <c r="DJ99" t="n">
-        <v>0.481458131822998</v>
+        <v>0.346317592263222</v>
       </c>
       <c r="DK99" t="n">
-        <v>0.0000132900306022717</v>
-      </c>
-      <c r="DL99"/>
-      <c r="DM99"/>
+        <v>0.20540226995945</v>
+      </c>
+      <c r="DL99" t="n">
+        <v>9.32977796193625</v>
+      </c>
+      <c r="DM99" t="n">
+        <v>847.500653512742</v>
+      </c>
       <c r="DN99"/>
-      <c r="DO99"/>
+      <c r="DO99" t="n">
+        <v>307.083547583831</v>
+      </c>
       <c r="DP99"/>
       <c r="DQ99"/>
       <c r="DR99"/>
@@ -23554,9 +23852,7 @@
       <c r="BY100" t="n">
         <v>-1.43634661727807</v>
       </c>
-      <c r="BZ100" t="n">
-        <v>4.180299</v>
-      </c>
+      <c r="BZ100"/>
       <c r="CA100"/>
       <c r="CB100" t="n">
         <v>0.006402</v>
@@ -23610,20 +23906,28 @@
       <c r="DE100"/>
       <c r="DF100"/>
       <c r="DG100"/>
-      <c r="DH100"/>
+      <c r="DH100" t="n">
+        <v>0.00109656644632927</v>
+      </c>
       <c r="DI100" t="n">
-        <v>2.94832443302328</v>
+        <v>11.3195643881696</v>
       </c>
       <c r="DJ100" t="n">
-        <v>0.287272013636854</v>
+        <v>1.13830556551149</v>
       </c>
       <c r="DK100" t="n">
-        <v>0.540699420603796</v>
-      </c>
-      <c r="DL100"/>
-      <c r="DM100"/>
+        <v>22.3341766224577</v>
+      </c>
+      <c r="DL100" t="n">
+        <v>9.22467532467532</v>
+      </c>
+      <c r="DM100" t="n">
+        <v>511.280993415304</v>
+      </c>
       <c r="DN100"/>
-      <c r="DO100"/>
+      <c r="DO100" t="n">
+        <v>324.097338981818</v>
+      </c>
       <c r="DP100"/>
       <c r="DQ100"/>
       <c r="DR100"/>
@@ -23800,20 +24104,28 @@
       </c>
       <c r="DF101"/>
       <c r="DG101"/>
-      <c r="DH101"/>
+      <c r="DH101" t="n">
+        <v>0.0691129613555115</v>
+      </c>
       <c r="DI101" t="n">
-        <v>1.07332234268839</v>
+        <v>-1.63505910336971</v>
       </c>
       <c r="DJ101" t="n">
-        <v>0.579863442023865</v>
+        <v>0.387281185388565</v>
       </c>
       <c r="DK101" t="n">
-        <v>0.0886286240471057</v>
-      </c>
-      <c r="DL101"/>
-      <c r="DM101"/>
+        <v>10.8085979223251</v>
+      </c>
+      <c r="DL101" t="n">
+        <v>9.00706018518519</v>
+      </c>
+      <c r="DM101" t="n">
+        <v>653.009257272438</v>
+      </c>
       <c r="DN101"/>
-      <c r="DO101"/>
+      <c r="DO101" t="n">
+        <v>190.9859319</v>
+      </c>
       <c r="DP101"/>
       <c r="DQ101"/>
       <c r="DR101"/>
@@ -24030,20 +24342,28 @@
       </c>
       <c r="DF102"/>
       <c r="DG102"/>
-      <c r="DH102"/>
+      <c r="DH102" t="n">
+        <v>0.0168069019786299</v>
+      </c>
       <c r="DI102" t="n">
-        <v>-1.25613592238002</v>
+        <v>-4.28554237294619</v>
       </c>
       <c r="DJ102" t="n">
-        <v>0.371864789836011</v>
+        <v>0.308542514596287</v>
       </c>
       <c r="DK102" t="n">
-        <v>0.0882075765431216</v>
-      </c>
-      <c r="DL102"/>
-      <c r="DM102"/>
+        <v>0.113629886186414</v>
+      </c>
+      <c r="DL102" t="n">
+        <v>9.38739892519041</v>
+      </c>
+      <c r="DM102" t="n">
+        <v>885.981831434435</v>
+      </c>
       <c r="DN102"/>
-      <c r="DO102"/>
+      <c r="DO102" t="n">
+        <v>210.113073061883</v>
+      </c>
       <c r="DP102"/>
       <c r="DQ102"/>
       <c r="DR102"/>
@@ -24238,7 +24558,7 @@
         <v>0.276970124284989</v>
       </c>
       <c r="DK103" t="n">
-        <v>4.72216430426178</v>
+        <v>4.72216430426175</v>
       </c>
       <c r="DL103"/>
       <c r="DM103"/>
@@ -24398,7 +24718,7 @@
         <v>0.313689909265754</v>
       </c>
       <c r="DK104" t="n">
-        <v>5.27630559624168</v>
+        <v>5.27630559624177</v>
       </c>
       <c r="DL104"/>
       <c r="DM104"/>
@@ -24570,7 +24890,7 @@
         <v>0.640504683244008</v>
       </c>
       <c r="DK105" t="n">
-        <v>3.26923846948341</v>
+        <v>3.26923846948338</v>
       </c>
       <c r="DL105"/>
       <c r="DM105"/>
@@ -24948,7 +25268,7 @@
         <v>0.214758491256613</v>
       </c>
       <c r="DK107" t="n">
-        <v>4.11202517366609</v>
+        <v>4.11202517366611</v>
       </c>
       <c r="DL107"/>
       <c r="DM107"/>
@@ -25120,12 +25440,18 @@
         <v>0.671015293863275</v>
       </c>
       <c r="DK108" t="n">
-        <v>0.306786507578874</v>
-      </c>
-      <c r="DL108"/>
-      <c r="DM108"/>
+        <v>0.306786507578872</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>10</v>
+      </c>
+      <c r="DM108" t="n">
+        <v>650</v>
+      </c>
       <c r="DN108"/>
-      <c r="DO108"/>
+      <c r="DO108" t="n">
+        <v>127.3239546</v>
+      </c>
       <c r="DP108"/>
       <c r="DQ108"/>
       <c r="DR108"/>
@@ -25308,7 +25634,7 @@
         <v>0.399563548294162</v>
       </c>
       <c r="DK109" t="n">
-        <v>0.0000000000000000000000000000570600973884692</v>
+        <v>0.0000000000000000000000000000570600973884709</v>
       </c>
       <c r="DL109"/>
       <c r="DM109"/>
@@ -25510,7 +25836,7 @@
         <v>0.236201569143038</v>
       </c>
       <c r="DK110" t="n">
-        <v>8.37092573033663</v>
+        <v>8.37092573033674</v>
       </c>
       <c r="DL110"/>
       <c r="DM110"/>
@@ -25698,7 +26024,7 @@
         <v>0.215480647323727</v>
       </c>
       <c r="DK111" t="n">
-        <v>5.99196250970709</v>
+        <v>5.99196250970708</v>
       </c>
       <c r="DL111"/>
       <c r="DM111"/>
@@ -26134,20 +26460,28 @@
       </c>
       <c r="DF113"/>
       <c r="DG113"/>
-      <c r="DH113"/>
+      <c r="DH113" t="n">
+        <v>0.0372221761238241</v>
+      </c>
       <c r="DI113" t="n">
-        <v>-0.469470674883236</v>
+        <v>-2.44169418997357</v>
       </c>
       <c r="DJ113" t="n">
-        <v>0.50241705843317</v>
+        <v>0.342461252265036</v>
       </c>
       <c r="DK113" t="n">
-        <v>0.0000000000000000189234775728005</v>
-      </c>
-      <c r="DL113"/>
-      <c r="DM113"/>
+        <v>0.193872688562609</v>
+      </c>
+      <c r="DL113" t="n">
+        <v>9.04238461502757</v>
+      </c>
+      <c r="DM113" t="n">
+        <v>642.349923373607</v>
+      </c>
       <c r="DN113"/>
-      <c r="DO113"/>
+      <c r="DO113" t="n">
+        <v>299.2483060875</v>
+      </c>
       <c r="DP113"/>
       <c r="DQ113"/>
       <c r="DR113"/>
@@ -26336,7 +26670,7 @@
         <v>0.334823268011629</v>
       </c>
       <c r="DK114" t="n">
-        <v>2.84124494540657</v>
+        <v>2.84124494540655</v>
       </c>
       <c r="DL114"/>
       <c r="DM114"/>
@@ -26536,12 +26870,18 @@
         <v>0.332435379209956</v>
       </c>
       <c r="DK115" t="n">
-        <v>0.661780083551053</v>
-      </c>
-      <c r="DL115"/>
-      <c r="DM115"/>
+        <v>0.661780083551056</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>9.94615384615385</v>
+      </c>
+      <c r="DM115" t="n">
+        <v>742.69230732551</v>
+      </c>
       <c r="DN115"/>
-      <c r="DO115"/>
+      <c r="DO115" t="n">
+        <v>137.118104953846</v>
+      </c>
       <c r="DP115"/>
       <c r="DQ115"/>
       <c r="DR115"/>
@@ -26984,20 +27324,28 @@
       </c>
       <c r="DF117"/>
       <c r="DG117"/>
-      <c r="DH117"/>
+      <c r="DH117" t="n">
+        <v>0.0103183204609409</v>
+      </c>
       <c r="DI117" t="n">
-        <v>-3.5861904315515</v>
+        <v>-2.59646502581358</v>
       </c>
       <c r="DJ117" t="n">
-        <v>0.393447115790041</v>
+        <v>0.413352941645645</v>
       </c>
       <c r="DK117" t="n">
-        <v>2.06112207410699</v>
-      </c>
-      <c r="DL117"/>
-      <c r="DM117"/>
+        <v>1.43552882495212</v>
+      </c>
+      <c r="DL117" t="n">
+        <v>8.55237684729064</v>
+      </c>
+      <c r="DM117" t="n">
+        <v>419.439244567859</v>
+      </c>
       <c r="DN117"/>
-      <c r="DO117"/>
+      <c r="DO117" t="n">
+        <v>156.17568815468</v>
+      </c>
       <c r="DP117"/>
       <c r="DQ117"/>
       <c r="DR117"/>
@@ -27226,20 +27574,28 @@
       </c>
       <c r="DF118"/>
       <c r="DG118"/>
-      <c r="DH118"/>
+      <c r="DH118" t="n">
+        <v>0.0218054203190139</v>
+      </c>
       <c r="DI118" t="n">
-        <v>0.794012530789795</v>
+        <v>0.396531537175179</v>
       </c>
       <c r="DJ118" t="n">
-        <v>0.236538522323717</v>
+        <v>0.271744459867477</v>
       </c>
       <c r="DK118" t="n">
-        <v>5.76417159445154</v>
-      </c>
-      <c r="DL118"/>
-      <c r="DM118"/>
+        <v>7.84016381204128</v>
+      </c>
+      <c r="DL118" t="n">
+        <v>8.86184735921094</v>
+      </c>
+      <c r="DM118" t="n">
+        <v>407.261798451973</v>
+      </c>
       <c r="DN118"/>
-      <c r="DO118"/>
+      <c r="DO118" t="n">
+        <v>190.84414575902</v>
+      </c>
       <c r="DP118"/>
       <c r="DQ118"/>
       <c r="DR118"/>
@@ -27318,10 +27674,18 @@
       <c r="Y119" t="n">
         <v>0.718581009506409</v>
       </c>
-      <c r="Z119"/>
-      <c r="AA119"/>
-      <c r="AB119"/>
-      <c r="AC119"/>
+      <c r="Z119" t="n">
+        <v>0.230827770459304</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0.791981150129859</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
       <c r="AD119"/>
       <c r="AE119"/>
       <c r="AF119"/>
@@ -27460,20 +27824,28 @@
       </c>
       <c r="DF119"/>
       <c r="DG119"/>
-      <c r="DH119"/>
+      <c r="DH119" t="n">
+        <v>0.0320635735631492</v>
+      </c>
       <c r="DI119" t="n">
-        <v>0.482490467766618</v>
+        <v>-3.43666414538948</v>
       </c>
       <c r="DJ119" t="n">
-        <v>0.257029068762959</v>
+        <v>0.314399158549681</v>
       </c>
       <c r="DK119" t="n">
-        <v>6.59018507045826</v>
-      </c>
-      <c r="DL119"/>
-      <c r="DM119"/>
+        <v>1.68333404511935</v>
+      </c>
+      <c r="DL119" t="n">
+        <v>8.66741139846743</v>
+      </c>
+      <c r="DM119" t="n">
+        <v>379.13074695259</v>
+      </c>
       <c r="DN119"/>
-      <c r="DO119"/>
+      <c r="DO119" t="n">
+        <v>183.851399961207</v>
+      </c>
       <c r="DP119"/>
       <c r="DQ119"/>
       <c r="DR119"/>
@@ -27688,20 +28060,28 @@
       </c>
       <c r="DF120"/>
       <c r="DG120"/>
-      <c r="DH120"/>
+      <c r="DH120" t="n">
+        <v>0.0209052250365038</v>
+      </c>
       <c r="DI120" t="n">
-        <v>-0.0384674329649318</v>
+        <v>-2.90367153400494</v>
       </c>
       <c r="DJ120" t="n">
-        <v>0.321394280074118</v>
+        <v>0.318428218786538</v>
       </c>
       <c r="DK120" t="n">
-        <v>9.5261681565763</v>
-      </c>
-      <c r="DL120"/>
-      <c r="DM120"/>
+        <v>12.8073303466182</v>
+      </c>
+      <c r="DL120" t="n">
+        <v>9.06498081023454</v>
+      </c>
+      <c r="DM120" t="n">
+        <v>442.292821421213</v>
+      </c>
       <c r="DN120"/>
-      <c r="DO120"/>
+      <c r="DO120" t="n">
+        <v>181.674179996418</v>
+      </c>
       <c r="DP120"/>
       <c r="DQ120"/>
       <c r="DR120"/>
@@ -27920,10 +28300,18 @@
       <c r="W122"/>
       <c r="X122"/>
       <c r="Y122"/>
-      <c r="Z122"/>
-      <c r="AA122"/>
-      <c r="AB122"/>
-      <c r="AC122"/>
+      <c r="Z122" t="n">
+        <v>0.230827770459304</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0.791981150129859</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>0</v>
+      </c>
       <c r="AD122"/>
       <c r="AE122"/>
       <c r="AF122"/>
@@ -28062,20 +28450,28 @@
       </c>
       <c r="DF122"/>
       <c r="DG122"/>
-      <c r="DH122"/>
+      <c r="DH122" t="n">
+        <v>0.319221341470724</v>
+      </c>
       <c r="DI122" t="n">
-        <v>0.546007468284878</v>
+        <v>6.71992470783955</v>
       </c>
       <c r="DJ122" t="n">
-        <v>0.577092077364368</v>
+        <v>1.46209409320727</v>
       </c>
       <c r="DK122" t="n">
-        <v>0.086962804809728</v>
-      </c>
-      <c r="DL122"/>
-      <c r="DM122"/>
+        <v>6.62376417140073</v>
+      </c>
+      <c r="DL122" t="n">
+        <v>9.80555555555556</v>
+      </c>
+      <c r="DM122" t="n">
+        <v>788.571436443026</v>
+      </c>
       <c r="DN122"/>
-      <c r="DO122"/>
+      <c r="DO122" t="n">
+        <v>181.891363714286</v>
+      </c>
       <c r="DP122"/>
       <c r="DQ122"/>
       <c r="DR122"/>
@@ -28450,20 +28846,28 @@
       <c r="DE124"/>
       <c r="DF124"/>
       <c r="DG124"/>
-      <c r="DH124"/>
+      <c r="DH124" t="n">
+        <v>0.0302471264717958</v>
+      </c>
       <c r="DI124" t="n">
-        <v>3.43458553942767</v>
+        <v>6.70694224075727</v>
       </c>
       <c r="DJ124" t="n">
-        <v>0.522928441499185</v>
+        <v>0.639762286948763</v>
       </c>
       <c r="DK124" t="n">
-        <v>0.0429714296565788</v>
-      </c>
-      <c r="DL124"/>
-      <c r="DM124"/>
+        <v>0.162670934701175</v>
+      </c>
+      <c r="DL124" t="n">
+        <v>9.24580651565465</v>
+      </c>
+      <c r="DM124" t="n">
+        <v>776.656754283219</v>
+      </c>
       <c r="DN124"/>
-      <c r="DO124"/>
+      <c r="DO124" t="n">
+        <v>298.675818734579</v>
+      </c>
       <c r="DP124"/>
       <c r="DQ124"/>
       <c r="DR124"/>
@@ -28654,7 +29058,7 @@
         <v>0.300014655195464</v>
       </c>
       <c r="DK125" t="n">
-        <v>5.52940696112685</v>
+        <v>5.52940696112687</v>
       </c>
       <c r="DL125"/>
       <c r="DM125"/>
@@ -28870,7 +29274,7 @@
         <v>0.36926225677371</v>
       </c>
       <c r="DK126" t="n">
-        <v>0.401333091343855</v>
+        <v>0.401333091343846</v>
       </c>
       <c r="DL126"/>
       <c r="DM126"/>
@@ -29204,9 +29608,7 @@
       <c r="BY128" t="n">
         <v>-5.51415115901988</v>
       </c>
-      <c r="BZ128" t="n">
-        <v>3.955223881</v>
-      </c>
+      <c r="BZ128"/>
       <c r="CA128"/>
       <c r="CB128"/>
       <c r="CC128"/>
@@ -29264,7 +29666,7 @@
         <v>0.310790689317874</v>
       </c>
       <c r="DK128" t="n">
-        <v>0.438925168708011</v>
+        <v>0.438925168708009</v>
       </c>
       <c r="DL128"/>
       <c r="DM128"/>
@@ -29444,20 +29846,28 @@
       </c>
       <c r="DF129"/>
       <c r="DG129"/>
-      <c r="DH129"/>
+      <c r="DH129" t="n">
+        <v>0.0190639413943191</v>
+      </c>
       <c r="DI129" t="n">
-        <v>-0.795776895546481</v>
+        <v>1.22087795769876</v>
       </c>
       <c r="DJ129" t="n">
-        <v>0.397874364430865</v>
+        <v>0.925223821494313</v>
       </c>
       <c r="DK129" t="n">
-        <v>1.15351402446247</v>
-      </c>
-      <c r="DL129"/>
-      <c r="DM129"/>
+        <v>6.15815396932876</v>
+      </c>
+      <c r="DL129" t="n">
+        <v>8.86364087301587</v>
+      </c>
+      <c r="DM129" t="n">
+        <v>560.813491306608</v>
+      </c>
       <c r="DN129"/>
-      <c r="DO129"/>
+      <c r="DO129" t="n">
+        <v>201.59626145</v>
+      </c>
       <c r="DP129"/>
       <c r="DQ129"/>
       <c r="DR129"/>
@@ -29656,7 +30066,7 @@
       <c r="DI130"/>
       <c r="DJ130"/>
       <c r="DK130" t="n">
-        <v>1.95803297874917</v>
+        <v>1.95803297874915</v>
       </c>
       <c r="DL130"/>
       <c r="DM130"/>
@@ -29854,7 +30264,7 @@
         <v>0.257118259468965</v>
       </c>
       <c r="DK131" t="n">
-        <v>1.17611029856337</v>
+        <v>1.17611029856336</v>
       </c>
       <c r="DL131"/>
       <c r="DM131"/>
@@ -30032,7 +30442,7 @@
         <v>0.354507179017616</v>
       </c>
       <c r="DK132" t="n">
-        <v>3.41403232682743</v>
+        <v>3.41403232682741</v>
       </c>
       <c r="DL132"/>
       <c r="DM132"/>
@@ -30214,14 +30624,28 @@
       </c>
       <c r="DF133"/>
       <c r="DG133"/>
-      <c r="DH133"/>
-      <c r="DI133"/>
-      <c r="DJ133"/>
-      <c r="DK133"/>
-      <c r="DL133"/>
-      <c r="DM133"/>
+      <c r="DH133" t="n">
+        <v>0.0812636576884017</v>
+      </c>
+      <c r="DI133" t="n">
+        <v>5.05760688319802</v>
+      </c>
+      <c r="DJ133" t="n">
+        <v>0.70839974835515</v>
+      </c>
+      <c r="DK133" t="n">
+        <v>15.8551349592209</v>
+      </c>
+      <c r="DL133" t="n">
+        <v>9.24118862046679</v>
+      </c>
+      <c r="DM133" t="n">
+        <v>654.812629351146</v>
+      </c>
       <c r="DN133"/>
-      <c r="DO133"/>
+      <c r="DO133" t="n">
+        <v>424.413182</v>
+      </c>
       <c r="DP133"/>
       <c r="DQ133"/>
       <c r="DR133"/>
@@ -30426,10 +30850,16 @@
       <c r="DK134" t="n">
         <v>2.4239520139114</v>
       </c>
-      <c r="DL134"/>
-      <c r="DM134"/>
+      <c r="DL134" t="n">
+        <v>8.825</v>
+      </c>
+      <c r="DM134" t="n">
+        <v>550</v>
+      </c>
       <c r="DN134"/>
-      <c r="DO134"/>
+      <c r="DO134" t="n">
+        <v>127.3239546</v>
+      </c>
       <c r="DP134"/>
       <c r="DQ134"/>
       <c r="DR134"/>
@@ -30762,9 +31192,7 @@
       <c r="BY136" t="n">
         <v>-1.20783609339541</v>
       </c>
-      <c r="BZ136" t="n">
-        <v>24.8198359710215</v>
-      </c>
+      <c r="BZ136"/>
       <c r="CA136"/>
       <c r="CB136"/>
       <c r="CC136"/>
@@ -30814,10 +31242,16 @@
       <c r="DI136"/>
       <c r="DJ136"/>
       <c r="DK136"/>
-      <c r="DL136"/>
-      <c r="DM136"/>
+      <c r="DL136" t="n">
+        <v>9.11458333333333</v>
+      </c>
+      <c r="DM136" t="n">
+        <v>919.16667620341</v>
+      </c>
       <c r="DN136"/>
-      <c r="DO136"/>
+      <c r="DO136" t="n">
+        <v>445.6338411</v>
+      </c>
       <c r="DP136"/>
       <c r="DQ136"/>
       <c r="DR136"/>
@@ -30984,9 +31418,7 @@
       <c r="BY137" t="n">
         <v>-7.57741023230938</v>
       </c>
-      <c r="BZ137" t="n">
-        <v>2.203619</v>
-      </c>
+      <c r="BZ137"/>
       <c r="CA137"/>
       <c r="CB137"/>
       <c r="CC137"/>
@@ -31034,20 +31466,28 @@
       <c r="DE137"/>
       <c r="DF137"/>
       <c r="DG137"/>
-      <c r="DH137"/>
+      <c r="DH137" t="n">
+        <v>0.0276808074008854</v>
+      </c>
       <c r="DI137" t="n">
-        <v>3.49686845801093</v>
+        <v>4.97318075151752</v>
       </c>
       <c r="DJ137" t="n">
-        <v>0.272340251759248</v>
+        <v>0.309310295056847</v>
       </c>
       <c r="DK137" t="n">
-        <v>3.33689022471722</v>
-      </c>
-      <c r="DL137"/>
-      <c r="DM137"/>
+        <v>7.90420561301563</v>
+      </c>
+      <c r="DL137" t="n">
+        <v>9.19628549614117</v>
+      </c>
+      <c r="DM137" t="n">
+        <v>485.739782883636</v>
+      </c>
       <c r="DN137"/>
-      <c r="DO137"/>
+      <c r="DO137" t="n">
+        <v>254.897075451663</v>
+      </c>
       <c r="DP137"/>
       <c r="DQ137"/>
       <c r="DR137"/>
@@ -31234,7 +31674,7 @@
         <v>0.239737810983344</v>
       </c>
       <c r="DK138" t="n">
-        <v>4.74602890123258</v>
+        <v>4.74602890123255</v>
       </c>
       <c r="DL138"/>
       <c r="DM138"/>
@@ -31416,7 +31856,7 @@
         <v>0.203921927065583</v>
       </c>
       <c r="DK139" t="n">
-        <v>2.33999285593007</v>
+        <v>2.33999285593005</v>
       </c>
       <c r="DL139"/>
       <c r="DM139"/>
@@ -31598,7 +32038,7 @@
         <v>0.283020274344341</v>
       </c>
       <c r="DK140" t="n">
-        <v>3.77354902067407</v>
+        <v>3.77354902067409</v>
       </c>
       <c r="DL140"/>
       <c r="DM140"/>
@@ -31966,14 +32406,28 @@
       </c>
       <c r="DF142"/>
       <c r="DG142"/>
-      <c r="DH142"/>
-      <c r="DI142"/>
-      <c r="DJ142"/>
-      <c r="DK142"/>
-      <c r="DL142"/>
-      <c r="DM142"/>
+      <c r="DH142" t="n">
+        <v>0.071916969990233</v>
+      </c>
+      <c r="DI142" t="n">
+        <v>5.64311142443963</v>
+      </c>
+      <c r="DJ142" t="n">
+        <v>0.707551318666209</v>
+      </c>
+      <c r="DK142" t="n">
+        <v>14.6905381175811</v>
+      </c>
+      <c r="DL142" t="n">
+        <v>9.50848484848485</v>
+      </c>
+      <c r="DM142" t="n">
+        <v>857.248916522765</v>
+      </c>
       <c r="DN142"/>
-      <c r="DO142"/>
+      <c r="DO142" t="n">
+        <v>240.096600102857</v>
+      </c>
       <c r="DP142"/>
       <c r="DQ142"/>
       <c r="DR142"/>
@@ -32186,7 +32640,7 @@
         <v>0.266320600509125</v>
       </c>
       <c r="DK143" t="n">
-        <v>3.83151917234446</v>
+        <v>3.83151917234452</v>
       </c>
       <c r="DL143"/>
       <c r="DM143"/>
@@ -32386,20 +32840,28 @@
       <c r="DE144"/>
       <c r="DF144"/>
       <c r="DG144"/>
-      <c r="DH144"/>
+      <c r="DH144" t="n">
+        <v>0.0532440640083152</v>
+      </c>
       <c r="DI144" t="n">
-        <v>1.23181919618086</v>
+        <v>-3.12861575931311</v>
       </c>
       <c r="DJ144" t="n">
-        <v>0.346424019667326</v>
+        <v>0.296246185898781</v>
       </c>
       <c r="DK144" t="n">
-        <v>0.507649761232983</v>
-      </c>
-      <c r="DL144"/>
-      <c r="DM144"/>
+        <v>0.522948980331421</v>
+      </c>
+      <c r="DL144" t="n">
+        <v>8.59643732757239</v>
+      </c>
+      <c r="DM144" t="n">
+        <v>525.436668722576</v>
+      </c>
       <c r="DN144"/>
-      <c r="DO144"/>
+      <c r="DO144" t="n">
+        <v>235.134659452874</v>
+      </c>
       <c r="DP144"/>
       <c r="DQ144"/>
       <c r="DR144"/>
@@ -32598,7 +33060,7 @@
         <v>0.378930161865923</v>
       </c>
       <c r="DK145" t="n">
-        <v>2.99154878319378</v>
+        <v>2.99154878319377</v>
       </c>
       <c r="DL145"/>
       <c r="DM145"/>
@@ -32720,9 +33182,7 @@
       <c r="BW146"/>
       <c r="BX146"/>
       <c r="BY146"/>
-      <c r="BZ146" t="n">
-        <v>3.962648</v>
-      </c>
+      <c r="BZ146"/>
       <c r="CA146"/>
       <c r="CB146"/>
       <c r="CC146"/>
@@ -32768,10 +33228,16 @@
       <c r="DK146" t="n">
         <v>8.73505631483942</v>
       </c>
-      <c r="DL146"/>
-      <c r="DM146"/>
+      <c r="DL146" t="n">
+        <v>12</v>
+      </c>
+      <c r="DM146" t="n">
+        <v>0</v>
+      </c>
       <c r="DN146"/>
-      <c r="DO146"/>
+      <c r="DO146" t="n">
+        <v>127.3239546</v>
+      </c>
       <c r="DP146"/>
       <c r="DQ146"/>
       <c r="DR146"/>
@@ -32934,10 +33400,16 @@
       <c r="DI147"/>
       <c r="DJ147"/>
       <c r="DK147"/>
-      <c r="DL147"/>
-      <c r="DM147"/>
+      <c r="DL147" t="n">
+        <v>9.22416666666667</v>
+      </c>
+      <c r="DM147" t="n">
+        <v>800.624999602635</v>
+      </c>
       <c r="DN147"/>
-      <c r="DO147"/>
+      <c r="DO147" t="n">
+        <v>222.81692055</v>
+      </c>
       <c r="DP147"/>
       <c r="DQ147"/>
       <c r="DR147"/>
@@ -33002,18 +33474,42 @@
       <c r="W148"/>
       <c r="X148"/>
       <c r="Y148"/>
-      <c r="Z148"/>
-      <c r="AA148"/>
-      <c r="AB148"/>
-      <c r="AC148"/>
-      <c r="AD148"/>
-      <c r="AE148"/>
-      <c r="AF148"/>
-      <c r="AG148"/>
-      <c r="AH148"/>
-      <c r="AI148"/>
-      <c r="AJ148"/>
-      <c r="AK148"/>
+      <c r="Z148" t="n">
+        <v>0.123113793319351</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>1.45240421815065</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>2.36476</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>-0.763</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>-0.02285</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>0.000074049</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>-0.01018</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>-0.27004</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.09636482208082</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>0.538</v>
+      </c>
       <c r="AL148" t="n">
         <v>7.80672810087733</v>
       </c>
@@ -33086,9 +33582,7 @@
       <c r="BY148" t="n">
         <v>-3.73186069494048</v>
       </c>
-      <c r="BZ148" t="n">
-        <v>5.161290323</v>
-      </c>
+      <c r="BZ148"/>
       <c r="CA148"/>
       <c r="CB148" t="n">
         <v>0.00246917186596825</v>
@@ -33158,12 +33652,18 @@
         <v>0.524259910311986</v>
       </c>
       <c r="DK148" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000302100258360949</v>
-      </c>
-      <c r="DL148"/>
-      <c r="DM148"/>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000302100258360983</v>
+      </c>
+      <c r="DL148" t="n">
+        <v>9.38425925925926</v>
+      </c>
+      <c r="DM148" t="n">
+        <v>636.018524346529</v>
+      </c>
       <c r="DN148"/>
-      <c r="DO148"/>
+      <c r="DO148" t="n">
+        <v>282.942121333333</v>
+      </c>
       <c r="DP148"/>
       <c r="DQ148"/>
       <c r="DR148"/>
@@ -33324,9 +33824,7 @@
       <c r="BY149" t="n">
         <v>-3.36640882431438</v>
       </c>
-      <c r="BZ149" t="n">
-        <v>3.849903</v>
-      </c>
+      <c r="BZ149"/>
       <c r="CA149"/>
       <c r="CB149" t="n">
         <v>0.00301552169505141</v>
@@ -33392,20 +33890,28 @@
       </c>
       <c r="DF149"/>
       <c r="DG149"/>
-      <c r="DH149"/>
+      <c r="DH149" t="n">
+        <v>0.334621749547577</v>
+      </c>
       <c r="DI149" t="n">
-        <v>2.45128250947053</v>
+        <v>1.5907711670465</v>
       </c>
       <c r="DJ149" t="n">
-        <v>0.426358642863898</v>
+        <v>0.488933607474078</v>
       </c>
       <c r="DK149" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL149"/>
-      <c r="DM149"/>
+        <v>27.5725296931341</v>
+      </c>
+      <c r="DL149" t="n">
+        <v>9.72110033848008</v>
+      </c>
+      <c r="DM149" t="n">
+        <v>511.541433884824</v>
+      </c>
       <c r="DN149"/>
-      <c r="DO149"/>
+      <c r="DO149" t="n">
+        <v>215.322535880506</v>
+      </c>
       <c r="DP149"/>
       <c r="DQ149"/>
       <c r="DR149"/>
@@ -33458,10 +33964,10 @@
         <v>7500</v>
       </c>
       <c r="Q150" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R150" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="S150"/>
       <c r="T150"/>
@@ -33529,7 +34035,7 @@
       </c>
       <c r="BC150"/>
       <c r="BD150" t="n">
-        <v>0.138477222222222</v>
+        <v>0.1384772</v>
       </c>
       <c r="BE150" t="n">
         <v>3172.57230178519</v>
@@ -33566,44 +34072,60 @@
       <c r="BS150"/>
       <c r="BT150"/>
       <c r="BU150"/>
-      <c r="BV150"/>
-      <c r="BW150"/>
+      <c r="BV150" t="n">
+        <v>0.17510139909403</v>
+      </c>
+      <c r="BW150" t="n">
+        <v>-0.00784036115346405</v>
+      </c>
       <c r="BX150" t="n">
-        <v>-1.59617621719962</v>
+        <v>-2.303</v>
       </c>
       <c r="BY150" t="n">
-        <v>-3.81685175259256</v>
+        <v>-5.14</v>
       </c>
       <c r="BZ150" t="n">
-        <v>3.849903</v>
-      </c>
-      <c r="CA150"/>
+        <v>6.10708010272808</v>
+      </c>
+      <c r="CA150" t="n">
+        <v>0.683103159777322</v>
+      </c>
       <c r="CB150" t="n">
-        <v>0.00203125</v>
+        <v>0.00308666666666667</v>
       </c>
       <c r="CC150" t="n">
-        <v>0.194083333333333</v>
-      </c>
-      <c r="CD150"/>
-      <c r="CE150"/>
-      <c r="CF150"/>
+        <v>0.285</v>
+      </c>
+      <c r="CD150" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE150" t="n">
+        <v>11.1370511477809</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>-2.38084853333333</v>
+      </c>
       <c r="CG150" t="n">
         <v>0.15</v>
       </c>
       <c r="CH150" t="n">
-        <v>7.45888260783272</v>
+        <v>12.71</v>
       </c>
       <c r="CI150" t="n">
-        <v>-4.48139154060324</v>
+        <v>-5.29</v>
       </c>
       <c r="CJ150"/>
-      <c r="CK150"/>
-      <c r="CL150"/>
+      <c r="CK150" t="n">
+        <v>11.1370511477809</v>
+      </c>
+      <c r="CL150" t="n">
+        <v>-3.06556886615644</v>
+      </c>
       <c r="CM150" t="n">
-        <v>58.8994789583385</v>
+        <v>72.196165126121</v>
       </c>
       <c r="CN150" t="n">
-        <v>119.927295526496</v>
+        <v>124.168650923789</v>
       </c>
       <c r="CO150" t="n">
         <v>11.9150749014455</v>
@@ -33620,7 +34142,9 @@
       <c r="CS150" t="n">
         <v>0.0121060694584471</v>
       </c>
-      <c r="CT150"/>
+      <c r="CT150" t="n">
+        <v>0.0000474434397426703</v>
+      </c>
       <c r="CU150"/>
       <c r="CV150" t="n">
         <v>1.5905</v>
@@ -33632,30 +34156,44 @@
         <v>1.3</v>
       </c>
       <c r="CY150"/>
-      <c r="CZ150"/>
+      <c r="CZ150" t="n">
+        <v>0.0025</v>
+      </c>
       <c r="DA150"/>
       <c r="DB150"/>
-      <c r="DC150"/>
+      <c r="DC150" t="n">
+        <v>0.00013062293242112</v>
+      </c>
       <c r="DD150"/>
       <c r="DE150" t="n">
         <v>0.31125</v>
       </c>
-      <c r="DF150"/>
+      <c r="DF150" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="DG150"/>
-      <c r="DH150"/>
+      <c r="DH150" t="n">
+        <v>0.0295447893043153</v>
+      </c>
       <c r="DI150" t="n">
-        <v>2.03570295951583</v>
+        <v>0.170871719717979</v>
       </c>
       <c r="DJ150" t="n">
-        <v>0.202252533880686</v>
+        <v>0.136042580008507</v>
       </c>
       <c r="DK150" t="n">
-        <v>6.28873608891069</v>
-      </c>
-      <c r="DL150"/>
-      <c r="DM150"/>
+        <v>4.55614618957043</v>
+      </c>
+      <c r="DL150" t="n">
+        <v>9.3980031827344</v>
+      </c>
+      <c r="DM150" t="n">
+        <v>569.241175140369</v>
+      </c>
       <c r="DN150"/>
-      <c r="DO150"/>
+      <c r="DO150" t="n">
+        <v>246.2535300635</v>
+      </c>
       <c r="DP150"/>
       <c r="DQ150"/>
       <c r="DR150"/>
@@ -33708,10 +34246,10 @@
         <v>813</v>
       </c>
       <c r="Q151" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R151" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="S151"/>
       <c r="T151"/>
@@ -33791,7 +34329,7 @@
       </c>
       <c r="BC151"/>
       <c r="BD151" t="n">
-        <v>0.138477222222222</v>
+        <v>0.1384772</v>
       </c>
       <c r="BE151" t="n">
         <v>3172.57230178519</v>
@@ -33828,44 +34366,60 @@
       <c r="BS151"/>
       <c r="BT151"/>
       <c r="BU151"/>
-      <c r="BV151"/>
-      <c r="BW151"/>
+      <c r="BV151" t="n">
+        <v>0.170302155659776</v>
+      </c>
+      <c r="BW151" t="n">
+        <v>-0.00762546965640789</v>
+      </c>
       <c r="BX151" t="n">
-        <v>-1.25238441657201</v>
+        <v>-1.91</v>
       </c>
       <c r="BY151" t="n">
-        <v>-3.41824180676342</v>
+        <v>-2.999</v>
       </c>
       <c r="BZ151" t="n">
-        <v>3.849903</v>
-      </c>
-      <c r="CA151"/>
+        <v>6.10308471574503</v>
+      </c>
+      <c r="CA151" t="n">
+        <v>0.281098786311853</v>
+      </c>
       <c r="CB151" t="n">
-        <v>0.00301552169505141</v>
+        <v>0.00308666666666667</v>
       </c>
       <c r="CC151" t="n">
-        <v>0.194083333333333</v>
-      </c>
-      <c r="CD151"/>
-      <c r="CE151"/>
-      <c r="CF151"/>
+        <v>0.236666666666667</v>
+      </c>
+      <c r="CD151" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE151" t="n">
+        <v>2.23604102343717</v>
+      </c>
+      <c r="CF151" t="n">
+        <v>-2.253816</v>
+      </c>
       <c r="CG151" t="n">
-        <v>0.407</v>
+        <v>0.41</v>
       </c>
       <c r="CH151" t="n">
-        <v>3.57394567479595</v>
+        <v>3.14</v>
       </c>
       <c r="CI151" t="n">
-        <v>-3.21987665224318</v>
+        <v>-3.37</v>
       </c>
       <c r="CJ151"/>
-      <c r="CK151"/>
-      <c r="CL151"/>
+      <c r="CK151" t="n">
+        <v>2.23604102343717</v>
+      </c>
+      <c r="CL151" t="n">
+        <v>-2.1621010914743</v>
+      </c>
       <c r="CM151" t="n">
-        <v>58.8994789583385</v>
+        <v>68.5029549657468</v>
       </c>
       <c r="CN151" t="n">
-        <v>119.927295526496</v>
+        <v>118.767134080218</v>
       </c>
       <c r="CO151" t="n">
         <v>10.2182769977453</v>
@@ -33882,7 +34436,9 @@
       <c r="CS151" t="n">
         <v>0.0121060694584471</v>
       </c>
-      <c r="CT151"/>
+      <c r="CT151" t="n">
+        <v>0.0000499295217200038</v>
+      </c>
       <c r="CU151"/>
       <c r="CV151" t="n">
         <v>1.5905</v>
@@ -33894,30 +34450,44 @@
         <v>1.3</v>
       </c>
       <c r="CY151"/>
-      <c r="CZ151"/>
+      <c r="CZ151" t="n">
+        <v>0.0015</v>
+      </c>
       <c r="DA151"/>
       <c r="DB151"/>
-      <c r="DC151"/>
+      <c r="DC151" t="n">
+        <v>0.000134372954358598</v>
+      </c>
       <c r="DD151"/>
       <c r="DE151" t="n">
         <v>0.4425</v>
       </c>
-      <c r="DF151"/>
+      <c r="DF151" t="n">
+        <v>0.0015</v>
+      </c>
       <c r="DG151"/>
-      <c r="DH151"/>
+      <c r="DH151" t="n">
+        <v>0.0275884267361</v>
+      </c>
       <c r="DI151" t="n">
-        <v>-0.470073029940779</v>
+        <v>-2.73434263110001</v>
       </c>
       <c r="DJ151" t="n">
-        <v>0.360346665901462</v>
+        <v>0.307334489395427</v>
       </c>
       <c r="DK151" t="n">
-        <v>4.37462482011749</v>
-      </c>
-      <c r="DL151"/>
-      <c r="DM151"/>
+        <v>1.74761678712735</v>
+      </c>
+      <c r="DL151" t="n">
+        <v>9.40458014515099</v>
+      </c>
+      <c r="DM151" t="n">
+        <v>562.339848883984</v>
+      </c>
       <c r="DN151"/>
-      <c r="DO151"/>
+      <c r="DO151" t="n">
+        <v>292.909275937107</v>
+      </c>
       <c r="DP151"/>
       <c r="DQ151"/>
       <c r="DR151"/>
@@ -34086,9 +34656,7 @@
       <c r="BY152" t="n">
         <v>-3.40317337136186</v>
       </c>
-      <c r="BZ152" t="n">
-        <v>3.849903</v>
-      </c>
+      <c r="BZ152"/>
       <c r="CA152"/>
       <c r="CB152" t="n">
         <v>0.00301552169505141</v>
@@ -34154,20 +34722,28 @@
       </c>
       <c r="DF152"/>
       <c r="DG152"/>
-      <c r="DH152"/>
+      <c r="DH152" t="n">
+        <v>0.0179904127524909</v>
+      </c>
       <c r="DI152" t="n">
-        <v>0.73555052280426</v>
+        <v>-3.6473059207201</v>
       </c>
       <c r="DJ152" t="n">
-        <v>0.331914213985618</v>
+        <v>0.175644814968109</v>
       </c>
       <c r="DK152" t="n">
-        <v>0.918057721491563</v>
-      </c>
-      <c r="DL152"/>
-      <c r="DM152"/>
+        <v>0.365681126713753</v>
+      </c>
+      <c r="DL152" t="n">
+        <v>9.70022970037699</v>
+      </c>
+      <c r="DM152" t="n">
+        <v>687.090983443747</v>
+      </c>
       <c r="DN152"/>
-      <c r="DO152"/>
+      <c r="DO152" t="n">
+        <v>320.418653876992</v>
+      </c>
       <c r="DP152"/>
       <c r="DQ152"/>
       <c r="DR152"/>
@@ -34220,10 +34796,10 @@
         <v>5000</v>
       </c>
       <c r="Q153" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R153" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="S153"/>
       <c r="T153"/>
@@ -34328,29 +34904,41 @@
       <c r="BS153"/>
       <c r="BT153"/>
       <c r="BU153"/>
-      <c r="BV153"/>
-      <c r="BW153"/>
+      <c r="BV153" t="n">
+        <v>0.226210124443911</v>
+      </c>
+      <c r="BW153" t="n">
+        <v>-0.0101288115422646</v>
+      </c>
       <c r="BX153" t="n">
-        <v>-1.35669955529816</v>
+        <v>-2.20991818181818</v>
       </c>
       <c r="BY153" t="n">
         <v>-3.48773719601154</v>
       </c>
       <c r="BZ153" t="n">
-        <v>3.849903</v>
-      </c>
-      <c r="CA153"/>
+        <v>5.52754612140329</v>
+      </c>
+      <c r="CA153" t="n">
+        <v>0.631887248396383</v>
+      </c>
       <c r="CB153" t="n">
-        <v>0.00301552169505141</v>
+        <v>0.00308666666666667</v>
       </c>
       <c r="CC153" t="n">
-        <v>0.194083333333333</v>
-      </c>
-      <c r="CD153"/>
-      <c r="CE153"/>
-      <c r="CF153"/>
+        <v>0.236666666666667</v>
+      </c>
+      <c r="CD153" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE153" t="n">
+        <v>11.1370511477809</v>
+      </c>
+      <c r="CF153" t="n">
+        <v>-2.38084853333333</v>
+      </c>
       <c r="CG153" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="CH153" t="n">
         <v>7.1091049151417</v>
@@ -34359,13 +34947,17 @@
         <v>-4.4317940559495</v>
       </c>
       <c r="CJ153"/>
-      <c r="CK153"/>
-      <c r="CL153"/>
+      <c r="CK153" t="n">
+        <v>11.1370511477809</v>
+      </c>
+      <c r="CL153" t="n">
+        <v>-3.06556886615644</v>
+      </c>
       <c r="CM153" t="n">
-        <v>58.8994789583385</v>
+        <v>72.4217252350715</v>
       </c>
       <c r="CN153" t="n">
-        <v>119.927295526496</v>
+        <v>124.497154310971</v>
       </c>
       <c r="CO153" t="n">
         <v>11.5956124031008</v>
@@ -34394,7 +34986,9 @@
         <v>1.3</v>
       </c>
       <c r="CY153"/>
-      <c r="CZ153"/>
+      <c r="CZ153" t="n">
+        <v>0.0025</v>
+      </c>
       <c r="DA153"/>
       <c r="DB153"/>
       <c r="DC153"/>
@@ -34402,22 +34996,32 @@
       <c r="DE153" t="n">
         <v>0.390488372093023</v>
       </c>
-      <c r="DF153"/>
+      <c r="DF153" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="DG153"/>
-      <c r="DH153"/>
+      <c r="DH153" t="n">
+        <v>0.0103058441804855</v>
+      </c>
       <c r="DI153" t="n">
-        <v>2.57328016549349</v>
+        <v>-0.243414584674224</v>
       </c>
       <c r="DJ153" t="n">
-        <v>0.284674772731136</v>
+        <v>0.279565662241027</v>
       </c>
       <c r="DK153" t="n">
-        <v>5.3260000103898</v>
-      </c>
-      <c r="DL153"/>
-      <c r="DM153"/>
+        <v>9.65644872019194</v>
+      </c>
+      <c r="DL153" t="n">
+        <v>9.7283123452745</v>
+      </c>
+      <c r="DM153" t="n">
+        <v>458.268104192626</v>
+      </c>
       <c r="DN153"/>
-      <c r="DO153"/>
+      <c r="DO153" t="n">
+        <v>237.593507941651</v>
+      </c>
       <c r="DP153"/>
       <c r="DQ153"/>
       <c r="DR153"/>
@@ -34586,9 +35190,7 @@
       <c r="BY154" t="n">
         <v>-3.36640882431438</v>
       </c>
-      <c r="BZ154" t="n">
-        <v>3.849903</v>
-      </c>
+      <c r="BZ154"/>
       <c r="CA154"/>
       <c r="CB154" t="n">
         <v>0.0013468</v>
@@ -34654,20 +35256,28 @@
       </c>
       <c r="DF154"/>
       <c r="DG154"/>
-      <c r="DH154"/>
+      <c r="DH154" t="n">
+        <v>0.0122720801531935</v>
+      </c>
       <c r="DI154" t="n">
-        <v>2.63426215540279</v>
+        <v>-3.68436969849443</v>
       </c>
       <c r="DJ154" t="n">
-        <v>0.624446143580587</v>
+        <v>0.461519450571708</v>
       </c>
       <c r="DK154" t="n">
-        <v>0.156454837016058</v>
-      </c>
-      <c r="DL154"/>
-      <c r="DM154"/>
+        <v>0.8289566305491</v>
+      </c>
+      <c r="DL154" t="n">
+        <v>9.93923510702022</v>
+      </c>
+      <c r="DM154" t="n">
+        <v>833.280202411382</v>
+      </c>
       <c r="DN154"/>
-      <c r="DO154"/>
+      <c r="DO154" t="n">
+        <v>343.41861235892</v>
+      </c>
       <c r="DP154"/>
       <c r="DQ154"/>
       <c r="DR154"/>
@@ -34720,10 +35330,10 @@
         <v>2006</v>
       </c>
       <c r="Q155" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R155" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="S155"/>
       <c r="T155"/>
@@ -34803,7 +35413,7 @@
       </c>
       <c r="BC155"/>
       <c r="BD155" t="n">
-        <v>0.147868421052632</v>
+        <v>0.1478684</v>
       </c>
       <c r="BE155" t="n">
         <v>3172.57230178519</v>
@@ -34840,44 +35450,60 @@
       <c r="BS155"/>
       <c r="BT155"/>
       <c r="BU155"/>
-      <c r="BV155"/>
-      <c r="BW155"/>
+      <c r="BV155" t="n">
+        <v>0.161019282218628</v>
+      </c>
+      <c r="BW155" t="n">
+        <v>-0.00720981860680424</v>
+      </c>
       <c r="BX155" t="n">
-        <v>-1.25084963174778</v>
+        <v>-1.764</v>
       </c>
       <c r="BY155" t="n">
-        <v>-3.18925006887492</v>
+        <v>-3.087</v>
       </c>
       <c r="BZ155" t="n">
-        <v>3.849903</v>
-      </c>
-      <c r="CA155"/>
+        <v>7.36607628608067</v>
+      </c>
+      <c r="CA155" t="n">
+        <v>0.322647579841181</v>
+      </c>
       <c r="CB155" t="n">
-        <v>0.00149778974727935</v>
+        <v>0.00308666666666667</v>
       </c>
       <c r="CC155" t="n">
-        <v>0.2075</v>
-      </c>
-      <c r="CD155"/>
-      <c r="CE155"/>
-      <c r="CF155"/>
+        <v>0.236666666666667</v>
+      </c>
+      <c r="CD155" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE155" t="n">
+        <v>2.44818637740268</v>
+      </c>
+      <c r="CF155" t="n">
+        <v>-2.05008693333333</v>
+      </c>
       <c r="CG155" t="n">
-        <v>0.447944484933333</v>
+        <v>0.45</v>
       </c>
       <c r="CH155" t="n">
-        <v>6.3464119736079</v>
+        <v>10.24</v>
       </c>
       <c r="CI155" t="n">
-        <v>-3.6973086552703</v>
+        <v>-3.2</v>
       </c>
       <c r="CJ155"/>
-      <c r="CK155"/>
-      <c r="CL155"/>
+      <c r="CK155" t="n">
+        <v>2.44818637740268</v>
+      </c>
+      <c r="CL155" t="n">
+        <v>-2.08108287950425</v>
+      </c>
       <c r="CM155" t="n">
-        <v>68.4553020829763</v>
+        <v>83</v>
       </c>
       <c r="CN155" t="n">
-        <v>147.684836420211</v>
+        <v>143</v>
       </c>
       <c r="CO155" t="n">
         <v>13.1598951745588</v>
@@ -34894,7 +35520,9 @@
       <c r="CS155" t="n">
         <v>0.0139729918926329</v>
       </c>
-      <c r="CT155"/>
+      <c r="CT155" t="n">
+        <v>0.0000532102600955789</v>
+      </c>
       <c r="CU155"/>
       <c r="CV155" t="n">
         <v>1.5905</v>
@@ -34906,30 +35534,44 @@
         <v>1.3</v>
       </c>
       <c r="CY155"/>
-      <c r="CZ155"/>
+      <c r="CZ155" t="n">
+        <v>0.002</v>
+      </c>
       <c r="DA155"/>
       <c r="DB155"/>
-      <c r="DC155"/>
+      <c r="DC155" t="n">
+        <v>0.0000888774769562883</v>
+      </c>
       <c r="DD155"/>
       <c r="DE155" t="n">
         <v>0.36725</v>
       </c>
-      <c r="DF155"/>
+      <c r="DF155" t="n">
+        <v>0.003</v>
+      </c>
       <c r="DG155"/>
-      <c r="DH155"/>
+      <c r="DH155" t="n">
+        <v>0.0267084057735979</v>
+      </c>
       <c r="DI155" t="n">
-        <v>-2.60769902359356</v>
+        <v>-6.49686616659164</v>
       </c>
       <c r="DJ155" t="n">
-        <v>0.415210972814812</v>
+        <v>0.342163726687431</v>
       </c>
       <c r="DK155" t="n">
-        <v>2.92993067314267</v>
-      </c>
-      <c r="DL155"/>
-      <c r="DM155"/>
+        <v>3.2994314879179</v>
+      </c>
+      <c r="DL155" t="n">
+        <v>9.56340371202421</v>
+      </c>
+      <c r="DM155" t="n">
+        <v>624.886158335465</v>
+      </c>
       <c r="DN155"/>
-      <c r="DO155"/>
+      <c r="DO155" t="n">
+        <v>291.920317892626</v>
+      </c>
       <c r="DP155"/>
       <c r="DQ155"/>
       <c r="DR155"/>
@@ -34982,10 +35624,10 @@
         <v>1881</v>
       </c>
       <c r="Q156" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R156" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="S156"/>
       <c r="T156"/>
@@ -35090,27 +35732,39 @@
       <c r="BS156"/>
       <c r="BT156"/>
       <c r="BU156"/>
-      <c r="BV156"/>
-      <c r="BW156"/>
+      <c r="BV156" t="n">
+        <v>0.180169233658882</v>
+      </c>
+      <c r="BW156" t="n">
+        <v>-0.00806727911905443</v>
+      </c>
       <c r="BX156" t="n">
-        <v>-1.35669955529816</v>
+        <v>-2.20991818181818</v>
       </c>
       <c r="BY156" t="n">
         <v>-4.17995</v>
       </c>
       <c r="BZ156" t="n">
-        <v>3.849903</v>
-      </c>
-      <c r="CA156"/>
+        <v>7.08424233050072</v>
+      </c>
+      <c r="CA156" t="n">
+        <v>0.256285097861383</v>
+      </c>
       <c r="CB156" t="n">
-        <v>0.00301552169505141</v>
+        <v>0.00308666666666667</v>
       </c>
       <c r="CC156" t="n">
-        <v>0.194083333333333</v>
-      </c>
-      <c r="CD156"/>
-      <c r="CE156"/>
-      <c r="CF156"/>
+        <v>0.236666666666667</v>
+      </c>
+      <c r="CD156" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE156" t="n">
+        <v>2.44818637740268</v>
+      </c>
+      <c r="CF156" t="n">
+        <v>-2.05008693333333</v>
+      </c>
       <c r="CG156" t="n">
         <v>0.689537624043571</v>
       </c>
@@ -35121,13 +35775,17 @@
         <v>-4.26971171367455</v>
       </c>
       <c r="CJ156"/>
-      <c r="CK156"/>
-      <c r="CL156"/>
+      <c r="CK156" t="n">
+        <v>2.44818637740268</v>
+      </c>
+      <c r="CL156" t="n">
+        <v>-2.08108287950425</v>
+      </c>
       <c r="CM156" t="n">
-        <v>58.8994789583385</v>
+        <v>73.4127461440193</v>
       </c>
       <c r="CN156" t="n">
-        <v>119.927295526496</v>
+        <v>125.938619943322</v>
       </c>
       <c r="CO156" t="n">
         <v>10.9512955974843</v>
@@ -35144,7 +35802,9 @@
       <c r="CS156" t="n">
         <v>0.0121060694584471</v>
       </c>
-      <c r="CT156"/>
+      <c r="CT156" t="n">
+        <v>0.0000491310154824414</v>
+      </c>
       <c r="CU156"/>
       <c r="CV156" t="n">
         <v>1.5905</v>
@@ -35156,30 +35816,44 @@
         <v>1.3</v>
       </c>
       <c r="CY156"/>
-      <c r="CZ156"/>
+      <c r="CZ156" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="DA156"/>
       <c r="DB156"/>
-      <c r="DC156"/>
+      <c r="DC156" t="n">
+        <v>0.000219253225948436</v>
+      </c>
       <c r="DD156"/>
       <c r="DE156" t="n">
         <v>0.285</v>
       </c>
-      <c r="DF156"/>
+      <c r="DF156" t="n">
+        <v>0.004</v>
+      </c>
       <c r="DG156"/>
-      <c r="DH156"/>
+      <c r="DH156" t="n">
+        <v>0.0387662390082072</v>
+      </c>
       <c r="DI156" t="n">
-        <v>-5.56341108517213</v>
+        <v>-7.24845750723779</v>
       </c>
       <c r="DJ156" t="n">
-        <v>0.565949522085827</v>
+        <v>0.29209339576698</v>
       </c>
       <c r="DK156" t="n">
-        <v>6.97707829652632</v>
-      </c>
-      <c r="DL156"/>
-      <c r="DM156"/>
+        <v>7.85137165283279</v>
+      </c>
+      <c r="DL156" t="n">
+        <v>9.48204096567797</v>
+      </c>
+      <c r="DM156" t="n">
+        <v>548.314488471008</v>
+      </c>
       <c r="DN156"/>
-      <c r="DO156"/>
+      <c r="DO156" t="n">
+        <v>310.516989090395</v>
+      </c>
       <c r="DP156"/>
       <c r="DQ156"/>
       <c r="DR156"/>
@@ -35322,9 +35996,7 @@
       <c r="BY157" t="n">
         <v>-6.01895837230635</v>
       </c>
-      <c r="BZ157" t="n">
-        <v>2.339255</v>
-      </c>
+      <c r="BZ157"/>
       <c r="CA157"/>
       <c r="CB157" t="n">
         <v>0.012229938272</v>
@@ -35544,9 +36216,7 @@
       <c r="BY158" t="n">
         <v>-5.09153316247266</v>
       </c>
-      <c r="BZ158" t="n">
-        <v>2.339255</v>
-      </c>
+      <c r="BZ158"/>
       <c r="CA158"/>
       <c r="CB158" t="n">
         <v>0.012229938272</v>
@@ -35608,7 +36278,7 @@
         <v>0.218309705672105</v>
       </c>
       <c r="DK158" t="n">
-        <v>2.67736819376552</v>
+        <v>2.67736819376553</v>
       </c>
       <c r="DL158"/>
       <c r="DM158"/>
@@ -35770,9 +36440,7 @@
       <c r="BY159" t="n">
         <v>-8.42166666666667</v>
       </c>
-      <c r="BZ159" t="n">
-        <v>2.339255</v>
-      </c>
+      <c r="BZ159"/>
       <c r="CA159"/>
       <c r="CB159" t="n">
         <v>0.012229938272</v>
@@ -35826,20 +36494,28 @@
       </c>
       <c r="DF159"/>
       <c r="DG159"/>
-      <c r="DH159"/>
+      <c r="DH159" t="n">
+        <v>0.0334288429879507</v>
+      </c>
       <c r="DI159" t="n">
-        <v>1.8812008842555</v>
+        <v>-5.75266096293926</v>
       </c>
       <c r="DJ159" t="n">
-        <v>0.278122434552822</v>
+        <v>0.349321931600571</v>
       </c>
       <c r="DK159" t="n">
-        <v>4.20420866133617</v>
-      </c>
-      <c r="DL159"/>
-      <c r="DM159"/>
+        <v>12.7575021266937</v>
+      </c>
+      <c r="DL159" t="n">
+        <v>8.81833333333333</v>
+      </c>
+      <c r="DM159" t="n">
+        <v>436.800002257029</v>
+      </c>
       <c r="DN159"/>
-      <c r="DO159"/>
+      <c r="DO159" t="n">
+        <v>168.067620072</v>
+      </c>
       <c r="DP159"/>
       <c r="DQ159"/>
       <c r="DR159"/>
@@ -36038,10 +36714,16 @@
       <c r="DK160" t="n">
         <v>0.971921495752767</v>
       </c>
-      <c r="DL160"/>
-      <c r="DM160"/>
+      <c r="DL160" t="n">
+        <v>9.39948979591837</v>
+      </c>
+      <c r="DM160" t="n">
+        <v>1143.92856870379</v>
+      </c>
       <c r="DN160"/>
-      <c r="DO160"/>
+      <c r="DO160" t="n">
+        <v>254.6479092</v>
+      </c>
       <c r="DP160"/>
       <c r="DQ160"/>
       <c r="DR160"/>
@@ -36352,9 +37034,7 @@
       <c r="BY162" t="n">
         <v>-1.7329545635006</v>
       </c>
-      <c r="BZ162" t="n">
-        <v>3.157782</v>
-      </c>
+      <c r="BZ162"/>
       <c r="CA162"/>
       <c r="CB162" t="n">
         <v>0.008668045751</v>
@@ -36416,20 +37096,28 @@
       </c>
       <c r="DF162"/>
       <c r="DG162"/>
-      <c r="DH162"/>
+      <c r="DH162" t="n">
+        <v>0.015156971203553</v>
+      </c>
       <c r="DI162" t="n">
-        <v>0.721802433658806</v>
+        <v>-5.1057802403476</v>
       </c>
       <c r="DJ162" t="n">
-        <v>0.271364342185317</v>
+        <v>0.284624213169539</v>
       </c>
       <c r="DK162" t="n">
-        <v>0.870749217471122</v>
-      </c>
-      <c r="DL162"/>
-      <c r="DM162"/>
+        <v>1.56954602696069</v>
+      </c>
+      <c r="DL162" t="n">
+        <v>9.91716497139826</v>
+      </c>
+      <c r="DM162" t="n">
+        <v>951.933807983212</v>
+      </c>
       <c r="DN162"/>
-      <c r="DO162"/>
+      <c r="DO162" t="n">
+        <v>250.393648187112</v>
+      </c>
       <c r="DP162"/>
       <c r="DQ162"/>
       <c r="DR162"/>
@@ -36660,20 +37348,28 @@
       </c>
       <c r="DF163"/>
       <c r="DG163"/>
-      <c r="DH163"/>
+      <c r="DH163" t="n">
+        <v>0.0101124750012525</v>
+      </c>
       <c r="DI163" t="n">
-        <v>-0.666550410822588</v>
+        <v>-0.764438852667809</v>
       </c>
       <c r="DJ163" t="n">
-        <v>0.352416649608975</v>
+        <v>0.287832826375961</v>
       </c>
       <c r="DK163" t="n">
-        <v>0.493705733304258</v>
-      </c>
-      <c r="DL163"/>
-      <c r="DM163"/>
+        <v>0.279744848608971</v>
+      </c>
+      <c r="DL163" t="n">
+        <v>9.32048953662182</v>
+      </c>
+      <c r="DM163" t="n">
+        <v>676.400597710246</v>
+      </c>
       <c r="DN163"/>
-      <c r="DO163"/>
+      <c r="DO163" t="n">
+        <v>195.268127682511</v>
+      </c>
       <c r="DP163"/>
       <c r="DQ163"/>
       <c r="DR163"/>
@@ -36738,18 +37434,42 @@
       <c r="W164"/>
       <c r="X164"/>
       <c r="Y164"/>
-      <c r="Z164"/>
-      <c r="AA164"/>
-      <c r="AB164"/>
-      <c r="AC164"/>
-      <c r="AD164"/>
-      <c r="AE164"/>
-      <c r="AF164"/>
-      <c r="AG164"/>
-      <c r="AH164"/>
-      <c r="AI164"/>
-      <c r="AJ164"/>
-      <c r="AK164"/>
+      <c r="Z164" t="n">
+        <v>0.123113793319351</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>1.45240421815065</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>2.36476</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>-0.763</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>-0.02285</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>0.000074049</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>-0.01018</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>-0.27004</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.09636482208082</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>0.538</v>
+      </c>
       <c r="AL164" t="n">
         <v>5.39022595431107</v>
       </c>
@@ -36868,20 +37588,28 @@
       </c>
       <c r="DF164"/>
       <c r="DG164"/>
-      <c r="DH164"/>
+      <c r="DH164" t="n">
+        <v>0.0352092731830101</v>
+      </c>
       <c r="DI164" t="n">
-        <v>0.364694417728619</v>
+        <v>-3.04664814358974</v>
       </c>
       <c r="DJ164" t="n">
-        <v>0.409486783119624</v>
+        <v>0.306082750453071</v>
       </c>
       <c r="DK164" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL164"/>
-      <c r="DM164"/>
+        <v>0.716550590379028</v>
+      </c>
+      <c r="DL164" t="n">
+        <v>9.82622427983539</v>
+      </c>
+      <c r="DM164" t="n">
+        <v>781.981481161628</v>
+      </c>
       <c r="DN164"/>
-      <c r="DO164"/>
+      <c r="DO164" t="n">
+        <v>309.664432792593</v>
+      </c>
       <c r="DP164"/>
       <c r="DQ164"/>
       <c r="DR164"/>
@@ -37058,20 +37786,28 @@
       </c>
       <c r="DF165"/>
       <c r="DG165"/>
-      <c r="DH165"/>
+      <c r="DH165" t="n">
+        <v>0.00660417959197535</v>
+      </c>
       <c r="DI165" t="n">
-        <v>0.0958057449808852</v>
+        <v>-2.98541642592083</v>
       </c>
       <c r="DJ165" t="n">
-        <v>0.401378181030458</v>
+        <v>0.803558757104356</v>
       </c>
       <c r="DK165" t="n">
-        <v>0.194079977573951</v>
-      </c>
-      <c r="DL165"/>
-      <c r="DM165"/>
+        <v>5.91558025773879</v>
+      </c>
+      <c r="DL165" t="n">
+        <v>9.49471861471861</v>
+      </c>
+      <c r="DM165" t="n">
+        <v>602.381676901643</v>
+      </c>
       <c r="DN165"/>
-      <c r="DO165"/>
+      <c r="DO165" t="n">
+        <v>204.489987690909</v>
+      </c>
       <c r="DP165"/>
       <c r="DQ165"/>
       <c r="DR165"/>
@@ -37268,9 +38004,7 @@
       <c r="BY166" t="n">
         <v>-2.51928489304212</v>
       </c>
-      <c r="BZ166" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ166"/>
       <c r="CA166"/>
       <c r="CB166" t="n">
         <v>0.006003125635375</v>
@@ -37340,12 +38074,18 @@
         <v>0.588394924234988</v>
       </c>
       <c r="DK166" t="n">
-        <v>1.03965324818083</v>
-      </c>
-      <c r="DL166"/>
-      <c r="DM166"/>
+        <v>1.03965324818082</v>
+      </c>
+      <c r="DL166" t="n">
+        <v>9.33163265306122</v>
+      </c>
+      <c r="DM166" t="n">
+        <v>640.663264965524</v>
+      </c>
       <c r="DN166"/>
-      <c r="DO166"/>
+      <c r="DO166" t="n">
+        <v>200.080500085714</v>
+      </c>
       <c r="DP166"/>
       <c r="DQ166"/>
       <c r="DR166"/>
@@ -37528,9 +38268,7 @@
       <c r="BY167" t="n">
         <v>-6.95092049684074</v>
       </c>
-      <c r="BZ167" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ167"/>
       <c r="CA167"/>
       <c r="CB167" t="n">
         <v>0.010455246914</v>
@@ -37600,7 +38338,7 @@
         <v>0.223018939785865</v>
       </c>
       <c r="DK167" t="n">
-        <v>5.07303679709759</v>
+        <v>5.07303679709755</v>
       </c>
       <c r="DL167"/>
       <c r="DM167"/>
@@ -37757,7 +38495,7 @@
       </c>
       <c r="BC168"/>
       <c r="BD168" t="n">
-        <v>4.60309092196018</v>
+        <v>3</v>
       </c>
       <c r="BE168" t="n">
         <v>4398.81184253555</v>
@@ -37794,29 +38532,41 @@
       <c r="BS168"/>
       <c r="BT168"/>
       <c r="BU168"/>
-      <c r="BV168"/>
-      <c r="BW168"/>
+      <c r="BV168" t="n">
+        <v>0.156082448592279</v>
+      </c>
+      <c r="BW168" t="n">
+        <v>-0.00698876635487814</v>
+      </c>
       <c r="BX168" t="n">
-        <v>-1.78955910505266</v>
+        <v>-2.915</v>
       </c>
       <c r="BY168" t="n">
-        <v>-2.002118806</v>
+        <v>-4.805</v>
       </c>
       <c r="BZ168" t="n">
-        <v>3.289704</v>
-      </c>
-      <c r="CA168"/>
+        <v>5.49938059988341</v>
+      </c>
+      <c r="CA168" t="n">
+        <v>0.331222820709359</v>
+      </c>
       <c r="CB168" t="n">
         <v>0.006003125635375</v>
       </c>
       <c r="CC168" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="CD168"/>
-      <c r="CE168"/>
-      <c r="CF168"/>
+        <v>0.27875</v>
+      </c>
+      <c r="CD168" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE168" t="n">
+        <v>2.18143268610738</v>
+      </c>
+      <c r="CF168" t="n">
+        <v>-2.324744</v>
+      </c>
       <c r="CG168" t="n">
-        <v>1.98122620582857</v>
+        <v>0.7</v>
       </c>
       <c r="CH168" t="n">
         <v>3.5377842588649</v>
@@ -37825,13 +38575,17 @@
         <v>-4.12651206029877</v>
       </c>
       <c r="CJ168"/>
-      <c r="CK168"/>
-      <c r="CL168"/>
+      <c r="CK168" t="n">
+        <v>2.18143268610738</v>
+      </c>
+      <c r="CL168" t="n">
+        <v>-1.37077072326225</v>
+      </c>
       <c r="CM168" t="n">
-        <v>62.7809963658907</v>
+        <v>71.2153456498992</v>
       </c>
       <c r="CN168" t="n">
-        <v>118.448644833144</v>
+        <v>122.738361855986</v>
       </c>
       <c r="CO168" t="n">
         <v>20.8518285714286</v>
@@ -37856,7 +38610,9 @@
       <c r="CW168"/>
       <c r="CX168"/>
       <c r="CY168"/>
-      <c r="CZ168"/>
+      <c r="CZ168" t="n">
+        <v>0.0025</v>
+      </c>
       <c r="DA168"/>
       <c r="DB168"/>
       <c r="DC168"/>
@@ -37864,22 +38620,32 @@
       <c r="DE168" t="n">
         <v>0.515201754385965</v>
       </c>
-      <c r="DF168"/>
+      <c r="DF168" t="n">
+        <v>0.0016</v>
+      </c>
       <c r="DG168"/>
-      <c r="DH168"/>
+      <c r="DH168" t="n">
+        <v>0.0305346913123757</v>
+      </c>
       <c r="DI168" t="n">
-        <v>0.119099153334444</v>
+        <v>-2.01326511800289</v>
       </c>
       <c r="DJ168" t="n">
-        <v>0.356975782574774</v>
+        <v>0.186915054917336</v>
       </c>
       <c r="DK168" t="n">
-        <v>1.62537248643407</v>
-      </c>
-      <c r="DL168"/>
-      <c r="DM168"/>
+        <v>0.703868985176086</v>
+      </c>
+      <c r="DL168" t="n">
+        <v>9.0205882112514</v>
+      </c>
+      <c r="DM168" t="n">
+        <v>530.447375281681</v>
+      </c>
       <c r="DN168"/>
-      <c r="DO168"/>
+      <c r="DO168" t="n">
+        <v>292.103343124218</v>
+      </c>
       <c r="DP168"/>
       <c r="DQ168"/>
       <c r="DR168"/>
@@ -38062,9 +38828,7 @@
       <c r="BY169" t="n">
         <v>-2.51928489304212</v>
       </c>
-      <c r="BZ169" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ169"/>
       <c r="CA169"/>
       <c r="CB169" t="n">
         <v>0.006003125635375</v>
@@ -38134,7 +38898,7 @@
         <v>0.556147088825461</v>
       </c>
       <c r="DK169" t="n">
-        <v>9.43163529414928</v>
+        <v>9.43163529414932</v>
       </c>
       <c r="DL169"/>
       <c r="DM169"/>
@@ -38280,7 +39044,7 @@
         <v>2</v>
       </c>
       <c r="AU170" t="n">
-        <v>6.8509511840751</v>
+        <v>6.34</v>
       </c>
       <c r="AV170" t="n">
         <v>0.489339229426632</v>
@@ -38299,11 +39063,11 @@
         <v>0.00026</v>
       </c>
       <c r="BB170" t="n">
-        <v>2512.56281407035</v>
+        <v>3908.82325895699</v>
       </c>
       <c r="BC170"/>
       <c r="BD170" t="n">
-        <v>1.7674358974359</v>
+        <v>1.7674359</v>
       </c>
       <c r="BE170" t="n">
         <v>4398.81184253555</v>
@@ -38340,44 +39104,60 @@
       <c r="BS170"/>
       <c r="BT170"/>
       <c r="BU170"/>
-      <c r="BV170"/>
-      <c r="BW170"/>
+      <c r="BV170" t="n">
+        <v>0.112393713548418</v>
+      </c>
+      <c r="BW170" t="n">
+        <v>-0.00503255433798888</v>
+      </c>
       <c r="BX170" t="n">
-        <v>-1.84276497895931</v>
+        <v>-1.964</v>
       </c>
       <c r="BY170" t="n">
-        <v>-2.96882517380544</v>
+        <v>-6.965</v>
       </c>
       <c r="BZ170" t="n">
-        <v>1.720883</v>
-      </c>
-      <c r="CA170"/>
+        <v>7.56458771667625</v>
+      </c>
+      <c r="CA170" t="n">
+        <v>0.238744860298757</v>
+      </c>
       <c r="CB170" t="n">
-        <v>0.006003125635375</v>
+        <v>0.00447333333333333</v>
       </c>
       <c r="CC170" t="n">
         <v>0.200722222222222</v>
       </c>
-      <c r="CD170"/>
-      <c r="CE170"/>
-      <c r="CF170"/>
+      <c r="CD170" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE170" t="n">
+        <v>1.33937039880051</v>
+      </c>
+      <c r="CF170" t="n">
+        <v>-2.58227868852459</v>
+      </c>
       <c r="CG170" t="n">
-        <v>0.7735834408</v>
+        <v>0.4</v>
       </c>
       <c r="CH170" t="n">
-        <v>2.55835811492333</v>
+        <v>3.56</v>
       </c>
       <c r="CI170" t="n">
-        <v>-5.10349189275997</v>
+        <v>-7.72</v>
       </c>
       <c r="CJ170"/>
-      <c r="CK170"/>
-      <c r="CL170"/>
+      <c r="CK170" t="n">
+        <v>1.33937039880051</v>
+      </c>
+      <c r="CL170" t="n">
+        <v>-2.21408142604772</v>
+      </c>
       <c r="CM170" t="n">
-        <v>41.8091245971873</v>
+        <v>68.5159959927983</v>
       </c>
       <c r="CN170" t="n">
-        <v>103.068982595</v>
+        <v>118.786284392165</v>
       </c>
       <c r="CO170" t="n">
         <v>14.1198330685549</v>
@@ -38402,7 +39182,9 @@
       <c r="CW170"/>
       <c r="CX170"/>
       <c r="CY170"/>
-      <c r="CZ170"/>
+      <c r="CZ170" t="n">
+        <v>0.0025</v>
+      </c>
       <c r="DA170"/>
       <c r="DB170"/>
       <c r="DC170"/>
@@ -38410,22 +39192,32 @@
       <c r="DE170" t="n">
         <v>0.6035</v>
       </c>
-      <c r="DF170"/>
+      <c r="DF170" t="n">
+        <v>0.0016</v>
+      </c>
       <c r="DG170"/>
-      <c r="DH170"/>
+      <c r="DH170" t="n">
+        <v>0.03591124354347</v>
+      </c>
       <c r="DI170" t="n">
-        <v>0.405868049169129</v>
+        <v>-4.19574975459597</v>
       </c>
       <c r="DJ170" t="n">
-        <v>0.28604085643059</v>
+        <v>0.180528464345738</v>
       </c>
       <c r="DK170" t="n">
-        <v>1.57862357515403</v>
-      </c>
-      <c r="DL170"/>
-      <c r="DM170"/>
+        <v>0.235939785753335</v>
+      </c>
+      <c r="DL170" t="n">
+        <v>8.94416070711556</v>
+      </c>
+      <c r="DM170" t="n">
+        <v>472.362921427596</v>
+      </c>
       <c r="DN170"/>
-      <c r="DO170"/>
+      <c r="DO170" t="n">
+        <v>352.266810794962</v>
+      </c>
       <c r="DP170"/>
       <c r="DQ170"/>
       <c r="DR170"/>
@@ -38622,9 +39414,7 @@
       <c r="BY171" t="n">
         <v>-2.51928489304212</v>
       </c>
-      <c r="BZ171" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ171"/>
       <c r="CA171"/>
       <c r="CB171" t="n">
         <v>0.006003125635375</v>
@@ -38890,9 +39680,7 @@
       <c r="BY172" t="n">
         <v>-3.4062103631674</v>
       </c>
-      <c r="BZ172" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ172"/>
       <c r="CA172"/>
       <c r="CB172" t="n">
         <v>0.004756</v>
@@ -38954,20 +39742,28 @@
       </c>
       <c r="DF172"/>
       <c r="DG172"/>
-      <c r="DH172"/>
+      <c r="DH172" t="n">
+        <v>0.0184827353362619</v>
+      </c>
       <c r="DI172" t="n">
-        <v>-1.63371753459627</v>
+        <v>-2.39817205630905</v>
       </c>
       <c r="DJ172" t="n">
-        <v>0.526596526077613</v>
+        <v>0.32168715894383</v>
       </c>
       <c r="DK172" t="n">
-        <v>0.575262630187325</v>
-      </c>
-      <c r="DL172"/>
-      <c r="DM172"/>
+        <v>2.67078861853838</v>
+      </c>
+      <c r="DL172" t="n">
+        <v>9.40613266109038</v>
+      </c>
+      <c r="DM172" t="n">
+        <v>660.600781237444</v>
+      </c>
       <c r="DN172"/>
-      <c r="DO172"/>
+      <c r="DO172" t="n">
+        <v>276.990167618182</v>
+      </c>
       <c r="DP172"/>
       <c r="DQ172"/>
       <c r="DR172"/>
@@ -39096,7 +39892,7 @@
         <v>2</v>
       </c>
       <c r="AU173" t="n">
-        <v>12.5937285228144</v>
+        <v>11.8</v>
       </c>
       <c r="AV173" t="n">
         <v>0.465893741798851</v>
@@ -39115,11 +39911,11 @@
         <v>0.0966466666666667</v>
       </c>
       <c r="BB173" t="n">
-        <v>4189.32530052043</v>
+        <v>6031.58220410242</v>
       </c>
       <c r="BC173"/>
       <c r="BD173" t="n">
-        <v>4.60309092196018</v>
+        <v>4</v>
       </c>
       <c r="BE173" t="n">
         <v>4398.81184253555</v>
@@ -39156,44 +39952,60 @@
       <c r="BS173"/>
       <c r="BT173"/>
       <c r="BU173"/>
-      <c r="BV173"/>
-      <c r="BW173"/>
+      <c r="BV173" t="n">
+        <v>0.144715085220897</v>
+      </c>
+      <c r="BW173" t="n">
+        <v>-0.00647977993526404</v>
+      </c>
       <c r="BX173" t="n">
-        <v>-1.93843323300301</v>
+        <v>-1.96</v>
       </c>
       <c r="BY173" t="n">
-        <v>-2.96505626698113</v>
+        <v>-4.805</v>
       </c>
       <c r="BZ173" t="n">
-        <v>3.289704</v>
-      </c>
-      <c r="CA173"/>
+        <v>4.97809119106478</v>
+      </c>
+      <c r="CA173" t="n">
+        <v>0.312323442578508</v>
+      </c>
       <c r="CB173" t="n">
-        <v>0.006003125635375</v>
+        <v>0.00447333333333333</v>
       </c>
       <c r="CC173" t="n">
         <v>0.27875</v>
       </c>
-      <c r="CD173"/>
-      <c r="CE173"/>
-      <c r="CF173"/>
+      <c r="CD173" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE173" t="n">
+        <v>2.18143268610738</v>
+      </c>
+      <c r="CF173" t="n">
+        <v>-2.324744</v>
+      </c>
       <c r="CG173" t="n">
-        <v>1.65</v>
+        <v>0.7</v>
       </c>
       <c r="CH173" t="n">
-        <v>6.22957695562847</v>
+        <v>10.27</v>
       </c>
       <c r="CI173" t="n">
-        <v>-4.44315803356597</v>
+        <v>-4.98</v>
       </c>
       <c r="CJ173"/>
-      <c r="CK173"/>
-      <c r="CL173"/>
+      <c r="CK173" t="n">
+        <v>2.18143268610738</v>
+      </c>
+      <c r="CL173" t="n">
+        <v>-1.37077072326225</v>
+      </c>
       <c r="CM173" t="n">
-        <v>62.7809963658907</v>
+        <v>57.3391881702308</v>
       </c>
       <c r="CN173" t="n">
-        <v>118.448644833144</v>
+        <v>102.1548402557</v>
       </c>
       <c r="CO173" t="n">
         <v>19.09473125</v>
@@ -39210,7 +40022,9 @@
       <c r="CS173" t="n">
         <v>0.026477456432368</v>
       </c>
-      <c r="CT173"/>
+      <c r="CT173" t="n">
+        <v>0.0000512658063636304</v>
+      </c>
       <c r="CU173"/>
       <c r="CV173" t="n">
         <v>1.49</v>
@@ -39218,30 +40032,44 @@
       <c r="CW173"/>
       <c r="CX173"/>
       <c r="CY173"/>
-      <c r="CZ173"/>
+      <c r="CZ173" t="n">
+        <v>0.003</v>
+      </c>
       <c r="DA173"/>
       <c r="DB173"/>
-      <c r="DC173"/>
+      <c r="DC173" t="n">
+        <v>0.000192639762195341</v>
+      </c>
       <c r="DD173"/>
       <c r="DE173" t="n">
         <v>0.47925</v>
       </c>
-      <c r="DF173"/>
+      <c r="DF173" t="n">
+        <v>0.0016</v>
+      </c>
       <c r="DG173"/>
-      <c r="DH173"/>
+      <c r="DH173" t="n">
+        <v>0.0335272491609842</v>
+      </c>
       <c r="DI173" t="n">
-        <v>-1.44793864556334</v>
+        <v>-4.84854997694492</v>
       </c>
       <c r="DJ173" t="n">
-        <v>0.424439633737349</v>
+        <v>0.347226962447166</v>
       </c>
       <c r="DK173" t="n">
-        <v>0.838574260321951</v>
-      </c>
-      <c r="DL173"/>
-      <c r="DM173"/>
+        <v>0.827098354697227</v>
+      </c>
+      <c r="DL173" t="n">
+        <v>9.20014021991553</v>
+      </c>
+      <c r="DM173" t="n">
+        <v>616.67619616544</v>
+      </c>
       <c r="DN173"/>
-      <c r="DO173"/>
+      <c r="DO173" t="n">
+        <v>246.124570090413</v>
+      </c>
       <c r="DP173"/>
       <c r="DQ173"/>
       <c r="DR173"/>
@@ -39438,9 +40266,7 @@
       <c r="BY174" t="n">
         <v>-2.51928489304212</v>
       </c>
-      <c r="BZ174" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ174"/>
       <c r="CA174"/>
       <c r="CB174" t="n">
         <v>0.006003125635375</v>
@@ -39502,20 +40328,28 @@
       </c>
       <c r="DF174"/>
       <c r="DG174"/>
-      <c r="DH174"/>
+      <c r="DH174" t="n">
+        <v>0.0405975984579136</v>
+      </c>
       <c r="DI174" t="n">
-        <v>-0.372878125834871</v>
+        <v>-5.82456371340422</v>
       </c>
       <c r="DJ174" t="n">
-        <v>0.393782406915101</v>
+        <v>0.293009136854712</v>
       </c>
       <c r="DK174" t="n">
-        <v>0.920698073560933</v>
-      </c>
-      <c r="DL174"/>
-      <c r="DM174"/>
+        <v>0.368425017196074</v>
+      </c>
+      <c r="DL174" t="n">
+        <v>9.19440056341756</v>
+      </c>
+      <c r="DM174" t="n">
+        <v>638.635385231734</v>
+      </c>
       <c r="DN174"/>
-      <c r="DO174"/>
+      <c r="DO174" t="n">
+        <v>387.568521145055</v>
+      </c>
       <c r="DP174"/>
       <c r="DQ174"/>
       <c r="DR174"/>
@@ -39726,9 +40560,7 @@
       <c r="BY175" t="n">
         <v>-3.25439388567045</v>
       </c>
-      <c r="BZ175" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ175"/>
       <c r="CA175"/>
       <c r="CB175" t="n">
         <v>0.0035432857145</v>
@@ -39790,20 +40622,28 @@
       </c>
       <c r="DF175"/>
       <c r="DG175"/>
-      <c r="DH175"/>
+      <c r="DH175" t="n">
+        <v>0.0196369572915763</v>
+      </c>
       <c r="DI175" t="n">
-        <v>1.32224728393961</v>
+        <v>-3.9256953150034</v>
       </c>
       <c r="DJ175" t="n">
-        <v>0.794687400132384</v>
+        <v>0.677714765071869</v>
       </c>
       <c r="DK175" t="n">
-        <v>0.0671171150774347</v>
-      </c>
-      <c r="DL175"/>
-      <c r="DM175"/>
+        <v>0.0762147158384323</v>
+      </c>
+      <c r="DL175" t="n">
+        <v>9.47126193646391</v>
+      </c>
+      <c r="DM175" t="n">
+        <v>730.516846516884</v>
+      </c>
       <c r="DN175"/>
-      <c r="DO175"/>
+      <c r="DO175" t="n">
+        <v>274.695461775222</v>
+      </c>
       <c r="DP175"/>
       <c r="DQ175"/>
       <c r="DR175"/>
@@ -40000,9 +40840,7 @@
       <c r="BY176" t="n">
         <v>-2.07006700833942</v>
       </c>
-      <c r="BZ176" t="n">
-        <v>3.289704</v>
-      </c>
+      <c r="BZ176"/>
       <c r="CA176"/>
       <c r="CB176" t="n">
         <v>0.002279699248</v>
@@ -40064,20 +40902,28 @@
       </c>
       <c r="DF176"/>
       <c r="DG176"/>
-      <c r="DH176"/>
+      <c r="DH176" t="n">
+        <v>0.0375859989876306</v>
+      </c>
       <c r="DI176" t="n">
-        <v>3.35820214531638</v>
+        <v>4.63122244245231</v>
       </c>
       <c r="DJ176" t="n">
-        <v>0.856352712427544</v>
+        <v>1.43132904236257</v>
       </c>
       <c r="DK176" t="n">
-        <v>0.000000000000000000920307078225021</v>
-      </c>
-      <c r="DL176"/>
-      <c r="DM176"/>
+        <v>4.83566633308714</v>
+      </c>
+      <c r="DL176" t="n">
+        <v>9.51448794261294</v>
+      </c>
+      <c r="DM176" t="n">
+        <v>970.615080343207</v>
+      </c>
       <c r="DN176"/>
-      <c r="DO176"/>
+      <c r="DO176" t="n">
+        <v>274.236209907692</v>
+      </c>
       <c r="DP176"/>
       <c r="DQ176"/>
       <c r="DR176"/>
@@ -40229,7 +41075,7 @@
       </c>
       <c r="BC177"/>
       <c r="BD177" t="n">
-        <v>4.60309092196018</v>
+        <v>2</v>
       </c>
       <c r="BE177" t="n">
         <v>4398.81184253555</v>
@@ -40266,29 +41112,41 @@
       <c r="BS177"/>
       <c r="BT177"/>
       <c r="BU177"/>
-      <c r="BV177"/>
-      <c r="BW177"/>
+      <c r="BV177" t="n">
+        <v>0.132213217794522</v>
+      </c>
+      <c r="BW177" t="n">
+        <v>-0.00591999482662038</v>
+      </c>
       <c r="BX177" t="n">
-        <v>-1.83355627001393</v>
+        <v>-2.98666666666667</v>
       </c>
       <c r="BY177" t="n">
         <v>-5.2</v>
       </c>
       <c r="BZ177" t="n">
-        <v>2.999605</v>
-      </c>
-      <c r="CA177"/>
+        <v>7.01232049527474</v>
+      </c>
+      <c r="CA177" t="n">
+        <v>0.384176515625916</v>
+      </c>
       <c r="CB177" t="n">
         <v>0.006003125635375</v>
       </c>
       <c r="CC177" t="n">
         <v>0.28625</v>
       </c>
-      <c r="CD177"/>
-      <c r="CE177"/>
-      <c r="CF177"/>
+      <c r="CD177" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE177" t="n">
+        <v>1.33937039880051</v>
+      </c>
+      <c r="CF177" t="n">
+        <v>-2.58227868852459</v>
+      </c>
       <c r="CG177" t="n">
-        <v>1.98122620582857</v>
+        <v>0.4</v>
       </c>
       <c r="CH177" t="n">
         <v>4.96734218179151</v>
@@ -40297,13 +41155,17 @@
         <v>-5.59818888643863</v>
       </c>
       <c r="CJ177"/>
-      <c r="CK177"/>
-      <c r="CL177"/>
+      <c r="CK177" t="n">
+        <v>1.33937039880051</v>
+      </c>
+      <c r="CL177" t="n">
+        <v>-2.21408142604772</v>
+      </c>
       <c r="CM177" t="n">
-        <v>47.65</v>
+        <v>70.2783307709581</v>
       </c>
       <c r="CN177" t="n">
-        <v>103.08</v>
+        <v>121.369133842606</v>
       </c>
       <c r="CO177" t="n">
         <v>16.2333351255533</v>
@@ -40328,7 +41190,9 @@
       <c r="CW177"/>
       <c r="CX177"/>
       <c r="CY177"/>
-      <c r="CZ177"/>
+      <c r="CZ177" t="n">
+        <v>0.003</v>
+      </c>
       <c r="DA177"/>
       <c r="DB177"/>
       <c r="DC177"/>
@@ -40336,22 +41200,32 @@
       <c r="DE177" t="n">
         <v>0.515201754385965</v>
       </c>
-      <c r="DF177"/>
+      <c r="DF177" t="n">
+        <v>0.004</v>
+      </c>
       <c r="DG177"/>
-      <c r="DH177"/>
+      <c r="DH177" t="n">
+        <v>0.0100890570955537</v>
+      </c>
       <c r="DI177" t="n">
-        <v>2.73876549781723</v>
+        <v>-0.219497292954857</v>
       </c>
       <c r="DJ177" t="n">
-        <v>0.358358102037862</v>
+        <v>0.349672189892724</v>
       </c>
       <c r="DK177" t="n">
-        <v>2.35944938281627</v>
-      </c>
-      <c r="DL177"/>
-      <c r="DM177"/>
+        <v>2.64732006399985</v>
+      </c>
+      <c r="DL177" t="n">
+        <v>9.40208018655431</v>
+      </c>
+      <c r="DM177" t="n">
+        <v>453.748026173006</v>
+      </c>
       <c r="DN177"/>
-      <c r="DO177"/>
+      <c r="DO177" t="n">
+        <v>207.034276761937</v>
+      </c>
       <c r="DP177"/>
       <c r="DQ177"/>
       <c r="DR177"/>
@@ -40536,7 +41410,7 @@
         <v>0.258530601051742</v>
       </c>
       <c r="DK178" t="n">
-        <v>2.38046552617039</v>
+        <v>2.38046552617037</v>
       </c>
       <c r="DL178"/>
       <c r="DM178"/>
@@ -40752,20 +41626,28 @@
       </c>
       <c r="DF179"/>
       <c r="DG179"/>
-      <c r="DH179"/>
+      <c r="DH179" t="n">
+        <v>0.159066976458374</v>
+      </c>
       <c r="DI179" t="n">
-        <v>1.46123588314216</v>
+        <v>5.12120605563662</v>
       </c>
       <c r="DJ179" t="n">
-        <v>0.240212845055763</v>
+        <v>0.657552279007794</v>
       </c>
       <c r="DK179" t="n">
-        <v>4.33636783363908</v>
-      </c>
-      <c r="DL179"/>
-      <c r="DM179"/>
+        <v>5.35645904252306</v>
+      </c>
+      <c r="DL179" t="n">
+        <v>9.23955128205128</v>
+      </c>
+      <c r="DM179" t="n">
+        <v>576.346154009175</v>
+      </c>
       <c r="DN179"/>
-      <c r="DO179"/>
+      <c r="DO179" t="n">
+        <v>215.471307784615</v>
+      </c>
       <c r="DP179"/>
       <c r="DQ179"/>
       <c r="DR179"/>
@@ -40978,7 +41860,7 @@
         <v>0.980954075466942</v>
       </c>
       <c r="DK180" t="n">
-        <v>0.534872786152835</v>
+        <v>0.534872786152838</v>
       </c>
       <c r="DL180"/>
       <c r="DM180"/>
@@ -41176,7 +42058,7 @@
         <v>0.507268151056885</v>
       </c>
       <c r="DK181" t="n">
-        <v>0.272554063262339</v>
+        <v>0.272554063262336</v>
       </c>
       <c r="DL181"/>
       <c r="DM181"/>
@@ -41328,9 +42210,7 @@
       <c r="BY182" t="n">
         <v>-3.56583333333333</v>
       </c>
-      <c r="BZ182" t="n">
-        <v>3.197674419</v>
-      </c>
+      <c r="BZ182"/>
       <c r="CA182"/>
       <c r="CB182"/>
       <c r="CC182"/>
@@ -41386,7 +42266,7 @@
         <v>0.517047032391439</v>
       </c>
       <c r="DK182" t="n">
-        <v>0.451546873415013</v>
+        <v>0.451546873415004</v>
       </c>
       <c r="DL182"/>
       <c r="DM182"/>
@@ -41586,20 +42466,28 @@
       </c>
       <c r="DF183"/>
       <c r="DG183"/>
-      <c r="DH183"/>
+      <c r="DH183" t="n">
+        <v>0.0292899013914302</v>
+      </c>
       <c r="DI183" t="n">
-        <v>2.26816306482662</v>
+        <v>5.29713249595477</v>
       </c>
       <c r="DJ183" t="n">
-        <v>0.36520227143131</v>
+        <v>0.995592234351421</v>
       </c>
       <c r="DK183" t="n">
-        <v>0.0000657306094453126</v>
-      </c>
-      <c r="DL183"/>
-      <c r="DM183"/>
+        <v>1.5470991242404</v>
+      </c>
+      <c r="DL183" t="n">
+        <v>9.37675108745421</v>
+      </c>
+      <c r="DM183" t="n">
+        <v>1001.51631302668</v>
+      </c>
       <c r="DN183"/>
-      <c r="DO183"/>
+      <c r="DO183" t="n">
+        <v>296.273048203846</v>
+      </c>
       <c r="DP183"/>
       <c r="DQ183"/>
       <c r="DR183"/>
@@ -41808,7 +42696,7 @@
         <v>0.347569558213314</v>
       </c>
       <c r="DK184" t="n">
-        <v>0.530387080392932</v>
+        <v>0.53038708039293</v>
       </c>
       <c r="DL184"/>
       <c r="DM184"/>
@@ -41966,9 +42854,7 @@
       <c r="BY185" t="n">
         <v>-1.58222222222222</v>
       </c>
-      <c r="BZ185" t="n">
-        <v>3.564899452</v>
-      </c>
+      <c r="BZ185"/>
       <c r="CA185"/>
       <c r="CB185"/>
       <c r="CC185"/>
@@ -42026,7 +42912,7 @@
         <v>0.345452867504081</v>
       </c>
       <c r="DK185" t="n">
-        <v>0.0566479095686878</v>
+        <v>0.0566479095686877</v>
       </c>
       <c r="DL185"/>
       <c r="DM185"/>
@@ -42236,7 +43122,7 @@
         <v>0.480846045039467</v>
       </c>
       <c r="DK186" t="n">
-        <v>0.0000000000091250136732504</v>
+        <v>0.0000000000091250136732505</v>
       </c>
       <c r="DL186"/>
       <c r="DM186"/>
@@ -42420,7 +43306,7 @@
         <v>0.379409186479596</v>
       </c>
       <c r="DK187" t="n">
-        <v>0.1551891508575</v>
+        <v>0.155189150857499</v>
       </c>
       <c r="DL187"/>
       <c r="DM187"/>
@@ -42588,9 +43474,7 @@
       <c r="BY188" t="n">
         <v>-1.62938554562254</v>
       </c>
-      <c r="BZ188" t="n">
-        <v>4.094488189</v>
-      </c>
+      <c r="BZ188"/>
       <c r="CA188"/>
       <c r="CB188"/>
       <c r="CC188" t="n">
@@ -42648,20 +43532,28 @@
       </c>
       <c r="DF188"/>
       <c r="DG188"/>
-      <c r="DH188"/>
+      <c r="DH188" t="n">
+        <v>0.017076016090419</v>
+      </c>
       <c r="DI188" t="n">
-        <v>-1.01618101862109</v>
+        <v>-4.69595291149071</v>
       </c>
       <c r="DJ188" t="n">
-        <v>0.351189097719601</v>
+        <v>0.363297260119842</v>
       </c>
       <c r="DK188" t="n">
-        <v>0.321582176829531</v>
-      </c>
-      <c r="DL188"/>
-      <c r="DM188"/>
+        <v>0.297113219335614</v>
+      </c>
+      <c r="DL188" t="n">
+        <v>9.53578070737161</v>
+      </c>
+      <c r="DM188" t="n">
+        <v>782.407695183472</v>
+      </c>
       <c r="DN188"/>
-      <c r="DO188"/>
+      <c r="DO188" t="n">
+        <v>297.417720574923</v>
+      </c>
       <c r="DP188"/>
       <c r="DQ188"/>
       <c r="DR188"/>
@@ -42804,9 +43696,7 @@
       <c r="BY189" t="n">
         <v>-2.505</v>
       </c>
-      <c r="BZ189" t="n">
-        <v>11.0759731947895</v>
-      </c>
+      <c r="BZ189"/>
       <c r="CA189"/>
       <c r="CB189"/>
       <c r="CC189"/>
@@ -43062,7 +43952,7 @@
         <v>0.209594590195157</v>
       </c>
       <c r="DK190" t="n">
-        <v>5.10590949155664</v>
+        <v>5.10590949155663</v>
       </c>
       <c r="DL190"/>
       <c r="DM190"/>
@@ -43220,9 +44110,7 @@
       <c r="BY191" t="n">
         <v>-1.44187499998611</v>
       </c>
-      <c r="BZ191" t="n">
-        <v>3.117283951</v>
-      </c>
+      <c r="BZ191"/>
       <c r="CA191"/>
       <c r="CB191"/>
       <c r="CC191"/>
@@ -43266,20 +44154,28 @@
       </c>
       <c r="DF191"/>
       <c r="DG191"/>
-      <c r="DH191"/>
+      <c r="DH191" t="n">
+        <v>0.11765664558321</v>
+      </c>
       <c r="DI191" t="n">
-        <v>-1.72496715787934</v>
+        <v>2.97893168032169</v>
       </c>
       <c r="DJ191" t="n">
-        <v>0.366640951516112</v>
+        <v>0.299842014908791</v>
       </c>
       <c r="DK191" t="n">
-        <v>0.0317223949995746</v>
-      </c>
-      <c r="DL191"/>
-      <c r="DM191"/>
+        <v>20.7568312436342</v>
+      </c>
+      <c r="DL191" t="n">
+        <v>9.19084148727984</v>
+      </c>
+      <c r="DM191" t="n">
+        <v>563.637312401064</v>
+      </c>
       <c r="DN191"/>
-      <c r="DO191"/>
+      <c r="DO191" t="n">
+        <v>188.369686257534</v>
+      </c>
       <c r="DP191"/>
       <c r="DQ191"/>
       <c r="DR191"/>
@@ -43458,7 +44354,7 @@
         <v>0.266049906543236</v>
       </c>
       <c r="DK192" t="n">
-        <v>6.98605147442886</v>
+        <v>6.9860514744288</v>
       </c>
       <c r="DL192"/>
       <c r="DM192"/>
@@ -44144,7 +45040,7 @@
         <v>0.342955199878842</v>
       </c>
       <c r="DK196" t="n">
-        <v>0.270422455534582</v>
+        <v>0.270422455534575</v>
       </c>
       <c r="DL196"/>
       <c r="DM196"/>
@@ -44520,20 +45416,28 @@
       </c>
       <c r="DF198"/>
       <c r="DG198"/>
-      <c r="DH198"/>
+      <c r="DH198" t="n">
+        <v>0.0204977602909923</v>
+      </c>
       <c r="DI198" t="n">
-        <v>-2.19437225770179</v>
+        <v>-5.10811109143318</v>
       </c>
       <c r="DJ198" t="n">
-        <v>0.472225717335208</v>
+        <v>0.595635832425874</v>
       </c>
       <c r="DK198" t="n">
-        <v>0.717180834670994</v>
-      </c>
-      <c r="DL198"/>
-      <c r="DM198"/>
+        <v>0.238531704832822</v>
+      </c>
+      <c r="DL198" t="n">
+        <v>9.08102929373997</v>
+      </c>
+      <c r="DM198" t="n">
+        <v>723.020197793148</v>
+      </c>
       <c r="DN198"/>
-      <c r="DO198"/>
+      <c r="DO198" t="n">
+        <v>202.430781751685</v>
+      </c>
       <c r="DP198"/>
       <c r="DQ198"/>
       <c r="DR198"/>
@@ -44900,7 +45804,7 @@
         <v>0.367438884778083</v>
       </c>
       <c r="DK200" t="n">
-        <v>1.65664745156605</v>
+        <v>1.65664745156604</v>
       </c>
       <c r="DL200"/>
       <c r="DM200"/>
@@ -45080,20 +45984,28 @@
       </c>
       <c r="DF201"/>
       <c r="DG201"/>
-      <c r="DH201"/>
+      <c r="DH201" t="n">
+        <v>0.366156582650608</v>
+      </c>
       <c r="DI201" t="n">
-        <v>3.88947794892571</v>
+        <v>0.188830698330422</v>
       </c>
       <c r="DJ201" t="n">
-        <v>0.216710495976302</v>
+        <v>0.296795212081933</v>
       </c>
       <c r="DK201" t="n">
-        <v>1.79094708907878</v>
-      </c>
-      <c r="DL201"/>
-      <c r="DM201"/>
+        <v>8.35937868314028</v>
+      </c>
+      <c r="DL201" t="n">
+        <v>9.39718937433731</v>
+      </c>
+      <c r="DM201" t="n">
+        <v>582.020671455398</v>
+      </c>
       <c r="DN201"/>
-      <c r="DO201"/>
+      <c r="DO201" t="n">
+        <v>481.241387725424</v>
+      </c>
       <c r="DP201"/>
       <c r="DQ201"/>
       <c r="DR201"/>
@@ -45158,18 +46070,42 @@
       <c r="W202"/>
       <c r="X202"/>
       <c r="Y202"/>
-      <c r="Z202"/>
-      <c r="AA202"/>
-      <c r="AB202"/>
-      <c r="AC202"/>
-      <c r="AD202"/>
-      <c r="AE202"/>
-      <c r="AF202"/>
-      <c r="AG202"/>
-      <c r="AH202"/>
-      <c r="AI202"/>
-      <c r="AJ202"/>
-      <c r="AK202"/>
+      <c r="Z202" t="n">
+        <v>0.123113793319351</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>1.45240421815065</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>2.36476</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>-0.763</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>-0.02285</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>0.000074049</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>-0.01018</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>-0.27004</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.09636482208082</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>0.538</v>
+      </c>
       <c r="AL202" t="n">
         <v>2.77777777777778</v>
       </c>
@@ -45282,12 +46218,18 @@
         <v>0.568952349816495</v>
       </c>
       <c r="DK202" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197718305976796</v>
-      </c>
-      <c r="DL202"/>
-      <c r="DM202"/>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197718305976818</v>
+      </c>
+      <c r="DL202" t="n">
+        <v>9.6015625</v>
+      </c>
+      <c r="DM202" t="n">
+        <v>520.3125</v>
+      </c>
       <c r="DN202"/>
-      <c r="DO202"/>
+      <c r="DO202" t="n">
+        <v>190.9859319</v>
+      </c>
       <c r="DP202"/>
       <c r="DQ202"/>
       <c r="DR202"/>
@@ -45460,7 +46402,7 @@
         <v>0.421628951524912</v>
       </c>
       <c r="DK203" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000598286844243021</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000598286844243004</v>
       </c>
       <c r="DL203"/>
       <c r="DM203"/>
@@ -45830,7 +46772,7 @@
         <v>0.295903452474099</v>
       </c>
       <c r="DK205" t="n">
-        <v>8.01877892695816</v>
+        <v>8.01877892695812</v>
       </c>
       <c r="DL205"/>
       <c r="DM205"/>
@@ -46040,7 +46982,7 @@
         <v>0.528529078821624</v>
       </c>
       <c r="DK206" t="n">
-        <v>9.093900043911</v>
+        <v>9.09390004391097</v>
       </c>
       <c r="DL206"/>
       <c r="DM206"/>
@@ -46224,7 +47166,7 @@
         <v>0.209985410340511</v>
       </c>
       <c r="DK207" t="n">
-        <v>11.4883350080008</v>
+        <v>11.4883350080007</v>
       </c>
       <c r="DL207"/>
       <c r="DM207"/>
@@ -46634,20 +47576,28 @@
       </c>
       <c r="DF209"/>
       <c r="DG209"/>
-      <c r="DH209"/>
+      <c r="DH209" t="n">
+        <v>0.0308051203849278</v>
+      </c>
       <c r="DI209" t="n">
-        <v>-0.460989607076597</v>
+        <v>-0.238942250609398</v>
       </c>
       <c r="DJ209" t="n">
-        <v>0.596697934827486</v>
+        <v>0.345049068331718</v>
       </c>
       <c r="DK209" t="n">
-        <v>0.942569084671986</v>
-      </c>
-      <c r="DL209"/>
-      <c r="DM209"/>
+        <v>1.5446390658617</v>
+      </c>
+      <c r="DL209" t="n">
+        <v>9.40570402298851</v>
+      </c>
+      <c r="DM209" t="n">
+        <v>807.655170731161</v>
+      </c>
       <c r="DN209"/>
-      <c r="DO209"/>
+      <c r="DO209" t="n">
+        <v>188.790691303448</v>
+      </c>
       <c r="DP209"/>
       <c r="DQ209"/>
       <c r="DR209"/>
@@ -46842,7 +47792,7 @@
         <v>0.294371076232159</v>
       </c>
       <c r="DK210" t="n">
-        <v>0.536073791432254</v>
+        <v>0.536073791432251</v>
       </c>
       <c r="DL210"/>
       <c r="DM210"/>
@@ -47034,20 +47984,28 @@
       </c>
       <c r="DF211"/>
       <c r="DG211"/>
-      <c r="DH211"/>
+      <c r="DH211" t="n">
+        <v>0.0139481764045924</v>
+      </c>
       <c r="DI211" t="n">
-        <v>-0.0491799520104938</v>
+        <v>0.465495645919593</v>
       </c>
       <c r="DJ211" t="n">
-        <v>0.285258984932927</v>
+        <v>0.33079636952349</v>
       </c>
       <c r="DK211" t="n">
-        <v>0.336826076411537</v>
-      </c>
-      <c r="DL211"/>
-      <c r="DM211"/>
+        <v>0.305783992383885</v>
+      </c>
+      <c r="DL211" t="n">
+        <v>9.30221357850071</v>
+      </c>
+      <c r="DM211" t="n">
+        <v>769.10357348427</v>
+      </c>
       <c r="DN211"/>
-      <c r="DO211"/>
+      <c r="DO211" t="n">
+        <v>225.653345281188</v>
+      </c>
       <c r="DP211"/>
       <c r="DQ211"/>
       <c r="DR211"/>
@@ -47254,7 +48212,7 @@
         <v>0.544773528584396</v>
       </c>
       <c r="DK212" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000419743484850393</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000419743484850191</v>
       </c>
       <c r="DL212"/>
       <c r="DM212"/>
@@ -47650,7 +48608,7 @@
         <v>0.35524844965522</v>
       </c>
       <c r="DK214" t="n">
-        <v>0.570478297958724</v>
+        <v>0.570478297958726</v>
       </c>
       <c r="DL214"/>
       <c r="DM214"/>
@@ -47816,10 +48774,16 @@
       <c r="DI215"/>
       <c r="DJ215"/>
       <c r="DK215"/>
-      <c r="DL215"/>
-      <c r="DM215"/>
+      <c r="DL215" t="n">
+        <v>9.495</v>
+      </c>
+      <c r="DM215" t="n">
+        <v>565.166666507721</v>
+      </c>
       <c r="DN215"/>
-      <c r="DO215"/>
+      <c r="DO215" t="n">
+        <v>381.9718638</v>
+      </c>
       <c r="DP215"/>
       <c r="DQ215"/>
       <c r="DR215"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3546,9 +3546,7 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2" t="n">
-        <v>0.0065</v>
-      </c>
+      <c r="CZ2"/>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -23667,7 +23665,7 @@
         <v>0.0211986338533469</v>
       </c>
       <c r="CT99" t="n">
-        <v>0.0000459432683519661</v>
+        <v>0.0000478476285934448</v>
       </c>
       <c r="CU99"/>
       <c r="CV99" t="n">
@@ -23676,13 +23674,13 @@
       <c r="CW99"/>
       <c r="CX99"/>
       <c r="CY99"/>
-      <c r="CZ99" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="DA99"/>
+      <c r="CZ99"/>
+      <c r="DA99" t="n">
+        <v>0.00242026150226593</v>
+      </c>
       <c r="DB99"/>
       <c r="DC99" t="n">
-        <v>0.000164806842803955</v>
+        <v>0.000130660941982875</v>
       </c>
       <c r="DD99"/>
       <c r="DE99" t="n">
@@ -34143,7 +34141,7 @@
         <v>0.0121060694584471</v>
       </c>
       <c r="CT150" t="n">
-        <v>0.0000474434397426703</v>
+        <v>0.0000417534853001843</v>
       </c>
       <c r="CU150"/>
       <c r="CV150" t="n">
@@ -34156,13 +34154,13 @@
         <v>1.3</v>
       </c>
       <c r="CY150"/>
-      <c r="CZ150" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="DA150"/>
+      <c r="CZ150"/>
+      <c r="DA150" t="n">
+        <v>0.00139515639324673</v>
+      </c>
       <c r="DB150"/>
       <c r="DC150" t="n">
-        <v>0.00013062293242112</v>
+        <v>0.000144732299838215</v>
       </c>
       <c r="DD150"/>
       <c r="DE150" t="n">
@@ -34437,7 +34435,7 @@
         <v>0.0121060694584471</v>
       </c>
       <c r="CT151" t="n">
-        <v>0.0000499295217200038</v>
+        <v>0.0000551165807278915</v>
       </c>
       <c r="CU151"/>
       <c r="CV151" t="n">
@@ -34450,13 +34448,13 @@
         <v>1.3</v>
       </c>
       <c r="CY151"/>
-      <c r="CZ151" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="DA151"/>
+      <c r="CZ151"/>
+      <c r="DA151" t="n">
+        <v>0.00089229641240776</v>
+      </c>
       <c r="DB151"/>
       <c r="DC151" t="n">
-        <v>0.000134372954358598</v>
+        <v>0.00013106117189112</v>
       </c>
       <c r="DD151"/>
       <c r="DE151" t="n">
@@ -34986,9 +34984,7 @@
         <v>1.3</v>
       </c>
       <c r="CY153"/>
-      <c r="CZ153" t="n">
-        <v>0.0025</v>
-      </c>
+      <c r="CZ153"/>
       <c r="DA153"/>
       <c r="DB153"/>
       <c r="DC153"/>
@@ -35521,7 +35517,7 @@
         <v>0.0139729918926329</v>
       </c>
       <c r="CT155" t="n">
-        <v>0.0000532102600955789</v>
+        <v>0.000060778004058552</v>
       </c>
       <c r="CU155"/>
       <c r="CV155" t="n">
@@ -35534,13 +35530,13 @@
         <v>1.3</v>
       </c>
       <c r="CY155"/>
-      <c r="CZ155" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="DA155"/>
+      <c r="CZ155"/>
+      <c r="DA155" t="n">
+        <v>0.00197650032874662</v>
+      </c>
       <c r="DB155"/>
       <c r="DC155" t="n">
-        <v>0.0000888774769562883</v>
+        <v>0.000175151905022213</v>
       </c>
       <c r="DD155"/>
       <c r="DE155" t="n">
@@ -35803,7 +35799,7 @@
         <v>0.0121060694584471</v>
       </c>
       <c r="CT156" t="n">
-        <v>0.0000491310154824414</v>
+        <v>0.0000456782179429761</v>
       </c>
       <c r="CU156"/>
       <c r="CV156" t="n">
@@ -35816,13 +35812,13 @@
         <v>1.3</v>
       </c>
       <c r="CY156"/>
-      <c r="CZ156" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="DA156"/>
+      <c r="CZ156"/>
+      <c r="DA156" t="n">
+        <v>0.0129212303905496</v>
+      </c>
       <c r="DB156"/>
       <c r="DC156" t="n">
-        <v>0.000219253225948436</v>
+        <v>0.000150663171021314</v>
       </c>
       <c r="DD156"/>
       <c r="DE156" t="n">
@@ -38610,9 +38606,7 @@
       <c r="CW168"/>
       <c r="CX168"/>
       <c r="CY168"/>
-      <c r="CZ168" t="n">
-        <v>0.0025</v>
-      </c>
+      <c r="CZ168"/>
       <c r="DA168"/>
       <c r="DB168"/>
       <c r="DC168"/>
@@ -39182,9 +39176,7 @@
       <c r="CW170"/>
       <c r="CX170"/>
       <c r="CY170"/>
-      <c r="CZ170" t="n">
-        <v>0.0025</v>
-      </c>
+      <c r="CZ170"/>
       <c r="DA170"/>
       <c r="DB170"/>
       <c r="DC170"/>
@@ -40023,7 +40015,7 @@
         <v>0.026477456432368</v>
       </c>
       <c r="CT173" t="n">
-        <v>0.0000512658063636304</v>
+        <v>0.0000414103269577026</v>
       </c>
       <c r="CU173"/>
       <c r="CV173" t="n">
@@ -40032,13 +40024,13 @@
       <c r="CW173"/>
       <c r="CX173"/>
       <c r="CY173"/>
-      <c r="CZ173" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="DA173"/>
+      <c r="CZ173"/>
+      <c r="DA173" t="n">
+        <v>0.00265019641088256</v>
+      </c>
       <c r="DB173"/>
       <c r="DC173" t="n">
-        <v>0.000192639762195341</v>
+        <v>0.000177145004272461</v>
       </c>
       <c r="DD173"/>
       <c r="DE173" t="n">
@@ -41190,9 +41182,7 @@
       <c r="CW177"/>
       <c r="CX177"/>
       <c r="CY177"/>
-      <c r="CZ177" t="n">
-        <v>0.003</v>
-      </c>
+      <c r="CZ177"/>
       <c r="DA177"/>
       <c r="DB177"/>
       <c r="DC177"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3547,7 +3547,9 @@
       <c r="CX2"/>
       <c r="CY2"/>
       <c r="CZ2"/>
-      <c r="DA2"/>
+      <c r="DA2" t="n">
+        <v>0.0185412864653872</v>
+      </c>
       <c r="DB2"/>
       <c r="DC2"/>
       <c r="DD2"/>
@@ -3813,7 +3815,9 @@
       <c r="CX3"/>
       <c r="CY3"/>
       <c r="CZ3"/>
-      <c r="DA3"/>
+      <c r="DA3" t="n">
+        <v>0.00943928097345784</v>
+      </c>
       <c r="DB3"/>
       <c r="DC3"/>
       <c r="DD3"/>
@@ -4033,7 +4037,9 @@
       <c r="CX4"/>
       <c r="CY4"/>
       <c r="CZ4"/>
-      <c r="DA4"/>
+      <c r="DA4" t="n">
+        <v>0.0297166434573314</v>
+      </c>
       <c r="DB4"/>
       <c r="DC4"/>
       <c r="DD4"/>
@@ -4297,7 +4303,9 @@
       </c>
       <c r="CY5"/>
       <c r="CZ5"/>
-      <c r="DA5"/>
+      <c r="DA5" t="n">
+        <v>0.00894085173693071</v>
+      </c>
       <c r="DB5"/>
       <c r="DC5"/>
       <c r="DD5"/>
@@ -4563,7 +4571,9 @@
       </c>
       <c r="CY6"/>
       <c r="CZ6"/>
-      <c r="DA6"/>
+      <c r="DA6" t="n">
+        <v>0.00487725810093112</v>
+      </c>
       <c r="DB6"/>
       <c r="DC6"/>
       <c r="DD6"/>
@@ -4829,7 +4839,9 @@
       </c>
       <c r="CY7"/>
       <c r="CZ7"/>
-      <c r="DA7"/>
+      <c r="DA7" t="n">
+        <v>0.0267039662000926</v>
+      </c>
       <c r="DB7"/>
       <c r="DC7"/>
       <c r="DD7"/>
@@ -5093,7 +5105,9 @@
       </c>
       <c r="CY8"/>
       <c r="CZ8"/>
-      <c r="DA8"/>
+      <c r="DA8" t="n">
+        <v>0.00903652342368808</v>
+      </c>
       <c r="DB8"/>
       <c r="DC8"/>
       <c r="DD8"/>
@@ -5359,7 +5373,9 @@
       </c>
       <c r="CY9"/>
       <c r="CZ9"/>
-      <c r="DA9"/>
+      <c r="DA9" t="n">
+        <v>0.0188720781980903</v>
+      </c>
       <c r="DB9"/>
       <c r="DC9"/>
       <c r="DD9"/>
@@ -5623,7 +5639,9 @@
       </c>
       <c r="CY10"/>
       <c r="CZ10"/>
-      <c r="DA10"/>
+      <c r="DA10" t="n">
+        <v>0.0173948869128689</v>
+      </c>
       <c r="DB10"/>
       <c r="DC10"/>
       <c r="DD10"/>
@@ -6225,7 +6243,9 @@
       <c r="CX13"/>
       <c r="CY13"/>
       <c r="CZ13"/>
-      <c r="DA13"/>
+      <c r="DA13" t="n">
+        <v>0.0178783349494097</v>
+      </c>
       <c r="DB13"/>
       <c r="DC13"/>
       <c r="DD13"/>
@@ -7313,7 +7333,9 @@
       <c r="CX19"/>
       <c r="CY19"/>
       <c r="CZ19"/>
-      <c r="DA19"/>
+      <c r="DA19" t="n">
+        <v>0.031469860646663</v>
+      </c>
       <c r="DB19"/>
       <c r="DC19"/>
       <c r="DD19"/>
@@ -7529,7 +7551,9 @@
       <c r="CX20"/>
       <c r="CY20"/>
       <c r="CZ20"/>
-      <c r="DA20"/>
+      <c r="DA20" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB20"/>
       <c r="DC20"/>
       <c r="DD20"/>
@@ -7747,7 +7771,9 @@
       <c r="CX21"/>
       <c r="CY21"/>
       <c r="CZ21"/>
-      <c r="DA21"/>
+      <c r="DA21" t="n">
+        <v>0.00218270709960886</v>
+      </c>
       <c r="DB21"/>
       <c r="DC21"/>
       <c r="DD21"/>
@@ -9223,7 +9249,9 @@
       <c r="CX28"/>
       <c r="CY28"/>
       <c r="CZ28"/>
-      <c r="DA28"/>
+      <c r="DA28" t="n">
+        <v>0.00949306133827686</v>
+      </c>
       <c r="DB28"/>
       <c r="DC28"/>
       <c r="DD28"/>
@@ -9633,7 +9661,9 @@
       <c r="CX30"/>
       <c r="CY30"/>
       <c r="CZ30"/>
-      <c r="DA30"/>
+      <c r="DA30" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB30"/>
       <c r="DC30"/>
       <c r="DD30"/>
@@ -10443,7 +10473,9 @@
       <c r="CX34"/>
       <c r="CY34"/>
       <c r="CZ34"/>
-      <c r="DA34"/>
+      <c r="DA34" t="n">
+        <v>0.0215147718497681</v>
+      </c>
       <c r="DB34"/>
       <c r="DC34"/>
       <c r="DD34"/>
@@ -10665,7 +10697,9 @@
       <c r="CX35"/>
       <c r="CY35"/>
       <c r="CZ35"/>
-      <c r="DA35"/>
+      <c r="DA35" t="n">
+        <v>0.0447679106267458</v>
+      </c>
       <c r="DB35"/>
       <c r="DC35"/>
       <c r="DD35"/>
@@ -10875,7 +10909,9 @@
       <c r="CX36"/>
       <c r="CY36"/>
       <c r="CZ36"/>
-      <c r="DA36"/>
+      <c r="DA36" t="n">
+        <v>0.0191208310201366</v>
+      </c>
       <c r="DB36"/>
       <c r="DC36"/>
       <c r="DD36"/>
@@ -11081,7 +11117,9 @@
       <c r="CX37"/>
       <c r="CY37"/>
       <c r="CZ37"/>
-      <c r="DA37"/>
+      <c r="DA37" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB37"/>
       <c r="DC37"/>
       <c r="DD37"/>
@@ -11271,7 +11309,9 @@
       <c r="CX38"/>
       <c r="CY38"/>
       <c r="CZ38"/>
-      <c r="DA38"/>
+      <c r="DA38" t="n">
+        <v>0.0405837675909772</v>
+      </c>
       <c r="DB38"/>
       <c r="DC38"/>
       <c r="DD38"/>
@@ -15767,7 +15807,9 @@
       <c r="CX60"/>
       <c r="CY60"/>
       <c r="CZ60"/>
-      <c r="DA60"/>
+      <c r="DA60" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB60"/>
       <c r="DC60"/>
       <c r="DD60"/>
@@ -16171,7 +16213,9 @@
       <c r="CX62"/>
       <c r="CY62"/>
       <c r="CZ62"/>
-      <c r="DA62"/>
+      <c r="DA62" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB62"/>
       <c r="DC62"/>
       <c r="DD62"/>
@@ -16383,7 +16427,9 @@
       <c r="CX63"/>
       <c r="CY63"/>
       <c r="CZ63"/>
-      <c r="DA63"/>
+      <c r="DA63" t="n">
+        <v>0.0192485563219761</v>
+      </c>
       <c r="DB63"/>
       <c r="DC63"/>
       <c r="DD63"/>
@@ -20671,7 +20717,9 @@
       <c r="CX85"/>
       <c r="CY85"/>
       <c r="CZ85"/>
-      <c r="DA85"/>
+      <c r="DA85" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB85"/>
       <c r="DC85"/>
       <c r="DD85"/>
@@ -21943,7 +21991,9 @@
       <c r="CX91"/>
       <c r="CY91"/>
       <c r="CZ91"/>
-      <c r="DA91"/>
+      <c r="DA91" t="n">
+        <v>0.00658357973055852</v>
+      </c>
       <c r="DB91"/>
       <c r="DC91"/>
       <c r="DD91"/>
@@ -22995,7 +23045,9 @@
       <c r="CX96"/>
       <c r="CY96"/>
       <c r="CZ96"/>
-      <c r="DA96"/>
+      <c r="DA96" t="n">
+        <v>0.0442440141903579</v>
+      </c>
       <c r="DB96"/>
       <c r="DC96"/>
       <c r="DD96"/>
@@ -23191,7 +23243,9 @@
       <c r="CX97"/>
       <c r="CY97"/>
       <c r="CZ97"/>
-      <c r="DA97"/>
+      <c r="DA97" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB97"/>
       <c r="DC97"/>
       <c r="DD97"/>
@@ -23664,9 +23718,7 @@
       <c r="CS99" t="n">
         <v>0.0211986338533469</v>
       </c>
-      <c r="CT99" t="n">
-        <v>0.0000478476285934448</v>
-      </c>
+      <c r="CT99"/>
       <c r="CU99"/>
       <c r="CV99" t="n">
         <v>1.473</v>
@@ -23676,12 +23728,10 @@
       <c r="CY99"/>
       <c r="CZ99"/>
       <c r="DA99" t="n">
-        <v>0.00242026150226593</v>
+        <v>0.00953071503424308</v>
       </c>
       <c r="DB99"/>
-      <c r="DC99" t="n">
-        <v>0.000130660941982875</v>
-      </c>
+      <c r="DC99"/>
       <c r="DD99"/>
       <c r="DE99" t="n">
         <v>0.873</v>
@@ -23897,7 +23947,9 @@
       <c r="CX100"/>
       <c r="CY100"/>
       <c r="CZ100"/>
-      <c r="DA100"/>
+      <c r="DA100" t="n">
+        <v>0.00767826001419054</v>
+      </c>
       <c r="DB100"/>
       <c r="DC100"/>
       <c r="DD100"/>
@@ -24093,7 +24145,9 @@
       <c r="CX101"/>
       <c r="CY101"/>
       <c r="CZ101"/>
-      <c r="DA101"/>
+      <c r="DA101" t="n">
+        <v>0.00134666109680985</v>
+      </c>
       <c r="DB101"/>
       <c r="DC101"/>
       <c r="DD101"/>
@@ -24331,7 +24385,9 @@
       <c r="CX102"/>
       <c r="CY102"/>
       <c r="CZ102"/>
-      <c r="DA102"/>
+      <c r="DA102" t="n">
+        <v>0.0165381320445633</v>
+      </c>
       <c r="DB102"/>
       <c r="DC102"/>
       <c r="DD102"/>
@@ -25423,7 +25479,9 @@
       <c r="CX108"/>
       <c r="CY108"/>
       <c r="CZ108"/>
-      <c r="DA108"/>
+      <c r="DA108" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB108"/>
       <c r="DC108"/>
       <c r="DD108"/>
@@ -26449,7 +26507,9 @@
       <c r="CX113"/>
       <c r="CY113"/>
       <c r="CZ113"/>
-      <c r="DA113"/>
+      <c r="DA113" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB113"/>
       <c r="DC113"/>
       <c r="DD113"/>
@@ -26851,7 +26911,9 @@
       <c r="CX115"/>
       <c r="CY115"/>
       <c r="CZ115"/>
-      <c r="DA115"/>
+      <c r="DA115" t="n">
+        <v>0.0169850510446537</v>
+      </c>
       <c r="DB115"/>
       <c r="DC115"/>
       <c r="DD115"/>
@@ -27077,7 +27139,9 @@
       <c r="CX116"/>
       <c r="CY116"/>
       <c r="CZ116"/>
-      <c r="DA116"/>
+      <c r="DA116" t="n">
+        <v>0.0463130647829715</v>
+      </c>
       <c r="DB116"/>
       <c r="DC116"/>
       <c r="DD116"/>
@@ -27313,7 +27377,9 @@
       <c r="CX117"/>
       <c r="CY117"/>
       <c r="CZ117"/>
-      <c r="DA117"/>
+      <c r="DA117" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB117"/>
       <c r="DC117"/>
       <c r="DD117"/>
@@ -27563,7 +27629,9 @@
       <c r="CX118"/>
       <c r="CY118"/>
       <c r="CZ118"/>
-      <c r="DA118"/>
+      <c r="DA118" t="n">
+        <v>0.00211703951749223</v>
+      </c>
       <c r="DB118"/>
       <c r="DC118"/>
       <c r="DD118"/>
@@ -27813,7 +27881,9 @@
       <c r="CX119"/>
       <c r="CY119"/>
       <c r="CZ119"/>
-      <c r="DA119"/>
+      <c r="DA119" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB119"/>
       <c r="DC119"/>
       <c r="DD119"/>
@@ -28049,7 +28119,9 @@
       <c r="CX120"/>
       <c r="CY120"/>
       <c r="CZ120"/>
-      <c r="DA120"/>
+      <c r="DA120" t="n">
+        <v>0.0032783789990315</v>
+      </c>
       <c r="DB120"/>
       <c r="DC120"/>
       <c r="DD120"/>
@@ -28439,7 +28511,9 @@
       <c r="CX122"/>
       <c r="CY122"/>
       <c r="CZ122"/>
-      <c r="DA122"/>
+      <c r="DA122" t="n">
+        <v>0.0245600879397743</v>
+      </c>
       <c r="DB122"/>
       <c r="DC122"/>
       <c r="DD122"/>
@@ -28837,7 +28911,9 @@
       <c r="CX124"/>
       <c r="CY124"/>
       <c r="CZ124"/>
-      <c r="DA124"/>
+      <c r="DA124" t="n">
+        <v>0.0142615184344021</v>
+      </c>
       <c r="DB124"/>
       <c r="DC124"/>
       <c r="DD124"/>
@@ -29835,7 +29911,9 @@
       <c r="CX129"/>
       <c r="CY129"/>
       <c r="CZ129"/>
-      <c r="DA129"/>
+      <c r="DA129" t="n">
+        <v>0.0039995400616972</v>
+      </c>
       <c r="DB129"/>
       <c r="DC129"/>
       <c r="DD129"/>
@@ -30423,7 +30501,9 @@
       <c r="CX132"/>
       <c r="CY132"/>
       <c r="CZ132"/>
-      <c r="DA132"/>
+      <c r="DA132" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB132"/>
       <c r="DC132"/>
       <c r="DD132"/>
@@ -30613,7 +30693,9 @@
       <c r="CX133"/>
       <c r="CY133"/>
       <c r="CZ133"/>
-      <c r="DA133"/>
+      <c r="DA133" t="n">
+        <v>0.00338826248734824</v>
+      </c>
       <c r="DB133"/>
       <c r="DC133"/>
       <c r="DD133"/>
@@ -31457,7 +31539,9 @@
       <c r="CX137"/>
       <c r="CY137"/>
       <c r="CZ137"/>
-      <c r="DA137"/>
+      <c r="DA137" t="n">
+        <v>0.00548522060473069</v>
+      </c>
       <c r="DB137"/>
       <c r="DC137"/>
       <c r="DD137"/>
@@ -32395,7 +32479,9 @@
       <c r="CX142"/>
       <c r="CY142"/>
       <c r="CZ142"/>
-      <c r="DA142"/>
+      <c r="DA142" t="n">
+        <v>0.017435426055098</v>
+      </c>
       <c r="DB142"/>
       <c r="DC142"/>
       <c r="DD142"/>
@@ -32831,7 +32917,9 @@
       <c r="CX144"/>
       <c r="CY144"/>
       <c r="CZ144"/>
-      <c r="DA144"/>
+      <c r="DA144" t="n">
+        <v>0.00219067553148549</v>
+      </c>
       <c r="DB144"/>
       <c r="DC144"/>
       <c r="DD144"/>
@@ -33209,7 +33297,9 @@
       <c r="CX146"/>
       <c r="CY146"/>
       <c r="CZ146"/>
-      <c r="DA146"/>
+      <c r="DA146" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB146"/>
       <c r="DC146"/>
       <c r="DD146"/>
@@ -33387,7 +33477,9 @@
       <c r="CX147"/>
       <c r="CY147"/>
       <c r="CZ147"/>
-      <c r="DA147"/>
+      <c r="DA147" t="n">
+        <v>0.0161926299519751</v>
+      </c>
       <c r="DB147"/>
       <c r="DC147"/>
       <c r="DD147"/>
@@ -33633,7 +33725,9 @@
       <c r="CX148"/>
       <c r="CY148"/>
       <c r="CZ148"/>
-      <c r="DA148"/>
+      <c r="DA148" t="n">
+        <v>0.0405777842927489</v>
+      </c>
       <c r="DB148"/>
       <c r="DC148"/>
       <c r="DD148"/>
@@ -33879,7 +33973,9 @@
       </c>
       <c r="CY149"/>
       <c r="CZ149"/>
-      <c r="DA149"/>
+      <c r="DA149" t="n">
+        <v>0.00698804665186501</v>
+      </c>
       <c r="DB149"/>
       <c r="DC149"/>
       <c r="DD149"/>
@@ -34140,9 +34236,7 @@
       <c r="CS150" t="n">
         <v>0.0121060694584471</v>
       </c>
-      <c r="CT150" t="n">
-        <v>0.0000417534853001843</v>
-      </c>
+      <c r="CT150"/>
       <c r="CU150"/>
       <c r="CV150" t="n">
         <v>1.5905</v>
@@ -34156,12 +34250,10 @@
       <c r="CY150"/>
       <c r="CZ150"/>
       <c r="DA150" t="n">
-        <v>0.00139515639324673</v>
+        <v>0.0165298816143721</v>
       </c>
       <c r="DB150"/>
-      <c r="DC150" t="n">
-        <v>0.000144732299838215</v>
-      </c>
+      <c r="DC150"/>
       <c r="DD150"/>
       <c r="DE150" t="n">
         <v>0.31125</v>
@@ -34434,9 +34526,7 @@
       <c r="CS151" t="n">
         <v>0.0121060694584471</v>
       </c>
-      <c r="CT151" t="n">
-        <v>0.0000551165807278915</v>
-      </c>
+      <c r="CT151"/>
       <c r="CU151"/>
       <c r="CV151" t="n">
         <v>1.5905</v>
@@ -34450,12 +34540,10 @@
       <c r="CY151"/>
       <c r="CZ151"/>
       <c r="DA151" t="n">
-        <v>0.00089229641240776</v>
+        <v>0.0129182770958841</v>
       </c>
       <c r="DB151"/>
-      <c r="DC151" t="n">
-        <v>0.00013106117189112</v>
-      </c>
+      <c r="DC151"/>
       <c r="DD151"/>
       <c r="DE151" t="n">
         <v>0.4425</v>
@@ -34711,7 +34799,9 @@
       </c>
       <c r="CY152"/>
       <c r="CZ152"/>
-      <c r="DA152"/>
+      <c r="DA152" t="n">
+        <v>0.0280856009231051</v>
+      </c>
       <c r="DB152"/>
       <c r="DC152"/>
       <c r="DD152"/>
@@ -34985,7 +35075,9 @@
       </c>
       <c r="CY153"/>
       <c r="CZ153"/>
-      <c r="DA153"/>
+      <c r="DA153" t="n">
+        <v>0.0216494872591064</v>
+      </c>
       <c r="DB153"/>
       <c r="DC153"/>
       <c r="DD153"/>
@@ -35243,7 +35335,9 @@
       </c>
       <c r="CY154"/>
       <c r="CZ154"/>
-      <c r="DA154"/>
+      <c r="DA154" t="n">
+        <v>0.0512082431155543</v>
+      </c>
       <c r="DB154"/>
       <c r="DC154"/>
       <c r="DD154"/>
@@ -35516,9 +35610,7 @@
       <c r="CS155" t="n">
         <v>0.0139729918926329</v>
       </c>
-      <c r="CT155" t="n">
-        <v>0.000060778004058552</v>
-      </c>
+      <c r="CT155"/>
       <c r="CU155"/>
       <c r="CV155" t="n">
         <v>1.5905</v>
@@ -35532,12 +35624,10 @@
       <c r="CY155"/>
       <c r="CZ155"/>
       <c r="DA155" t="n">
-        <v>0.00197650032874662</v>
+        <v>0.0149674251822736</v>
       </c>
       <c r="DB155"/>
-      <c r="DC155" t="n">
-        <v>0.000175151905022213</v>
-      </c>
+      <c r="DC155"/>
       <c r="DD155"/>
       <c r="DE155" t="n">
         <v>0.36725</v>
@@ -35798,9 +35888,7 @@
       <c r="CS156" t="n">
         <v>0.0121060694584471</v>
       </c>
-      <c r="CT156" t="n">
-        <v>0.0000456782179429761</v>
-      </c>
+      <c r="CT156"/>
       <c r="CU156"/>
       <c r="CV156" t="n">
         <v>1.5905</v>
@@ -35814,12 +35902,10 @@
       <c r="CY156"/>
       <c r="CZ156"/>
       <c r="DA156" t="n">
-        <v>0.0129212303905496</v>
+        <v>0.00728079653944783</v>
       </c>
       <c r="DB156"/>
-      <c r="DC156" t="n">
-        <v>0.000150663171021314</v>
-      </c>
+      <c r="DC156"/>
       <c r="DD156"/>
       <c r="DE156" t="n">
         <v>0.285</v>
@@ -36481,7 +36567,9 @@
       <c r="CX159"/>
       <c r="CY159"/>
       <c r="CZ159"/>
-      <c r="DA159"/>
+      <c r="DA159" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB159"/>
       <c r="DC159"/>
       <c r="DD159"/>
@@ -36691,7 +36779,9 @@
       <c r="CX160"/>
       <c r="CY160"/>
       <c r="CZ160"/>
-      <c r="DA160"/>
+      <c r="DA160" t="n">
+        <v>0.0371462181992677</v>
+      </c>
       <c r="DB160"/>
       <c r="DC160"/>
       <c r="DD160"/>
@@ -37083,7 +37173,9 @@
       <c r="CX162"/>
       <c r="CY162"/>
       <c r="CZ162"/>
-      <c r="DA162"/>
+      <c r="DA162" t="n">
+        <v>0.0416329446791545</v>
+      </c>
       <c r="DB162"/>
       <c r="DC162"/>
       <c r="DD162"/>
@@ -37335,7 +37427,9 @@
       <c r="CX163"/>
       <c r="CY163"/>
       <c r="CZ163"/>
-      <c r="DA163"/>
+      <c r="DA163" t="n">
+        <v>0.0167386555659603</v>
+      </c>
       <c r="DB163"/>
       <c r="DC163"/>
       <c r="DD163"/>
@@ -37575,7 +37669,9 @@
       <c r="CX164"/>
       <c r="CY164"/>
       <c r="CZ164"/>
-      <c r="DA164"/>
+      <c r="DA164" t="n">
+        <v>0.0478264765423964</v>
+      </c>
       <c r="DB164"/>
       <c r="DC164"/>
       <c r="DD164"/>
@@ -37773,7 +37869,9 @@
       <c r="CX165"/>
       <c r="CY165"/>
       <c r="CZ165"/>
-      <c r="DA165"/>
+      <c r="DA165" t="n">
+        <v>0.00504933124022009</v>
+      </c>
       <c r="DB165"/>
       <c r="DC165"/>
       <c r="DD165"/>
@@ -38053,7 +38151,9 @@
       <c r="CX166"/>
       <c r="CY166"/>
       <c r="CZ166"/>
-      <c r="DA166"/>
+      <c r="DA166" t="n">
+        <v>0.0164787444377378</v>
+      </c>
       <c r="DB166"/>
       <c r="DC166"/>
       <c r="DD166"/>
@@ -38607,7 +38707,9 @@
       <c r="CX168"/>
       <c r="CY168"/>
       <c r="CZ168"/>
-      <c r="DA168"/>
+      <c r="DA168" t="n">
+        <v>0.00549639169848067</v>
+      </c>
       <c r="DB168"/>
       <c r="DC168"/>
       <c r="DD168"/>
@@ -39177,7 +39279,9 @@
       <c r="CX170"/>
       <c r="CY170"/>
       <c r="CZ170"/>
-      <c r="DA170"/>
+      <c r="DA170" t="n">
+        <v>0.00479881016166605</v>
+      </c>
       <c r="DB170"/>
       <c r="DC170"/>
       <c r="DD170"/>
@@ -39725,7 +39829,9 @@
       <c r="CX172"/>
       <c r="CY172"/>
       <c r="CZ172"/>
-      <c r="DA172"/>
+      <c r="DA172" t="n">
+        <v>0.00961930792113113</v>
+      </c>
       <c r="DB172"/>
       <c r="DC172"/>
       <c r="DD172"/>
@@ -40014,9 +40120,7 @@
       <c r="CS173" t="n">
         <v>0.026477456432368</v>
       </c>
-      <c r="CT173" t="n">
-        <v>0.0000414103269577026</v>
-      </c>
+      <c r="CT173"/>
       <c r="CU173"/>
       <c r="CV173" t="n">
         <v>1.49</v>
@@ -40026,12 +40130,10 @@
       <c r="CY173"/>
       <c r="CZ173"/>
       <c r="DA173" t="n">
-        <v>0.00265019641088256</v>
+        <v>0.00679869167374925</v>
       </c>
       <c r="DB173"/>
-      <c r="DC173" t="n">
-        <v>0.000177145004272461</v>
-      </c>
+      <c r="DC173"/>
       <c r="DD173"/>
       <c r="DE173" t="n">
         <v>0.47925</v>
@@ -40311,7 +40413,9 @@
       <c r="CX174"/>
       <c r="CY174"/>
       <c r="CZ174"/>
-      <c r="DA174"/>
+      <c r="DA174" t="n">
+        <v>0.00840929987848948</v>
+      </c>
       <c r="DB174"/>
       <c r="DC174"/>
       <c r="DD174"/>
@@ -40605,7 +40709,9 @@
       <c r="CX175"/>
       <c r="CY175"/>
       <c r="CZ175"/>
-      <c r="DA175"/>
+      <c r="DA175" t="n">
+        <v>0.0179790907786833</v>
+      </c>
       <c r="DB175"/>
       <c r="DC175"/>
       <c r="DD175"/>
@@ -40885,7 +40991,9 @@
       <c r="CX176"/>
       <c r="CY176"/>
       <c r="CZ176"/>
-      <c r="DA176"/>
+      <c r="DA176" t="n">
+        <v>0.0440405218226397</v>
+      </c>
       <c r="DB176"/>
       <c r="DC176"/>
       <c r="DD176"/>
@@ -41183,7 +41291,9 @@
       <c r="CX177"/>
       <c r="CY177"/>
       <c r="CZ177"/>
-      <c r="DA177"/>
+      <c r="DA177" t="n">
+        <v>0.00913112642510691</v>
+      </c>
       <c r="DB177"/>
       <c r="DC177"/>
       <c r="DD177"/>
@@ -41607,7 +41717,9 @@
       <c r="CX179"/>
       <c r="CY179"/>
       <c r="CZ179"/>
-      <c r="DA179"/>
+      <c r="DA179" t="n">
+        <v>0.00324511926032899</v>
+      </c>
       <c r="DB179"/>
       <c r="DC179"/>
       <c r="DD179"/>
@@ -42447,7 +42559,9 @@
       <c r="CX183"/>
       <c r="CY183"/>
       <c r="CZ183"/>
-      <c r="DA183"/>
+      <c r="DA183" t="n">
+        <v>0.0281039333066873</v>
+      </c>
       <c r="DB183"/>
       <c r="DC183"/>
       <c r="DD183"/>
@@ -43513,7 +43627,9 @@
       <c r="CX188"/>
       <c r="CY188"/>
       <c r="CZ188"/>
-      <c r="DA188"/>
+      <c r="DA188" t="n">
+        <v>0.0204080632326422</v>
+      </c>
       <c r="DB188"/>
       <c r="DC188"/>
       <c r="DD188"/>
@@ -44135,7 +44251,9 @@
       <c r="CX191"/>
       <c r="CY191"/>
       <c r="CZ191"/>
-      <c r="DA191"/>
+      <c r="DA191" t="n">
+        <v>0.0111449602670183</v>
+      </c>
       <c r="DB191"/>
       <c r="DC191"/>
       <c r="DD191"/>
@@ -45397,7 +45515,9 @@
       <c r="CX198"/>
       <c r="CY198"/>
       <c r="CZ198"/>
-      <c r="DA198"/>
+      <c r="DA198" t="n">
+        <v>0.00451509253831476</v>
+      </c>
       <c r="DB198"/>
       <c r="DC198"/>
       <c r="DD198"/>
@@ -45965,7 +46085,9 @@
       <c r="CX201"/>
       <c r="CY201"/>
       <c r="CZ201"/>
-      <c r="DA201"/>
+      <c r="DA201" t="n">
+        <v>0.0148536339160678</v>
+      </c>
       <c r="DB201"/>
       <c r="DC201"/>
       <c r="DD201"/>
@@ -46191,7 +46313,9 @@
       <c r="CX202"/>
       <c r="CY202"/>
       <c r="CZ202"/>
-      <c r="DA202"/>
+      <c r="DA202" t="n">
+        <v>0.00623260504923278</v>
+      </c>
       <c r="DB202"/>
       <c r="DC202"/>
       <c r="DD202"/>
@@ -46955,7 +47079,9 @@
       <c r="CX206"/>
       <c r="CY206"/>
       <c r="CZ206"/>
-      <c r="DA206"/>
+      <c r="DA206" t="n">
+        <v>0.001</v>
+      </c>
       <c r="DB206"/>
       <c r="DC206"/>
       <c r="DD206"/>
@@ -47557,7 +47683,9 @@
       <c r="CX209"/>
       <c r="CY209"/>
       <c r="CZ209"/>
-      <c r="DA209"/>
+      <c r="DA209" t="n">
+        <v>0.0132734803069994</v>
+      </c>
       <c r="DB209"/>
       <c r="DC209"/>
       <c r="DD209"/>
@@ -47965,7 +48093,9 @@
       <c r="CX211"/>
       <c r="CY211"/>
       <c r="CZ211"/>
-      <c r="DA211"/>
+      <c r="DA211" t="n">
+        <v>0.0166269011476636</v>
+      </c>
       <c r="DB211"/>
       <c r="DC211"/>
       <c r="DD211"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3548,7 +3548,7 @@
       <c r="CY2"/>
       <c r="CZ2"/>
       <c r="DA2" t="n">
-        <v>0.0185412864653872</v>
+        <v>0.00356056177655031</v>
       </c>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -3816,7 +3816,7 @@
       <c r="CY3"/>
       <c r="CZ3"/>
       <c r="DA3" t="n">
-        <v>0.00943928097345784</v>
+        <v>0.00233400207271247</v>
       </c>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -4038,7 +4038,7 @@
       <c r="CY4"/>
       <c r="CZ4"/>
       <c r="DA4" t="n">
-        <v>0.0297166434573314</v>
+        <v>0.00506652027926436</v>
       </c>
       <c r="DB4"/>
       <c r="DC4"/>
@@ -4304,7 +4304,7 @@
       <c r="CY5"/>
       <c r="CZ5"/>
       <c r="DA5" t="n">
-        <v>0.00894085173693071</v>
+        <v>0.00226683520302854</v>
       </c>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -4572,7 +4572,7 @@
       <c r="CY6"/>
       <c r="CZ6"/>
       <c r="DA6" t="n">
-        <v>0.00487725810093112</v>
+        <v>0.00171923718069067</v>
       </c>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -4840,7 +4840,7 @@
       <c r="CY7"/>
       <c r="CZ7"/>
       <c r="DA7" t="n">
-        <v>0.0267039662000926</v>
+        <v>0.00466054068194658</v>
       </c>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -5106,7 +5106,7 @@
       <c r="CY8"/>
       <c r="CZ8"/>
       <c r="DA8" t="n">
-        <v>0.00903652342368808</v>
+        <v>0.00227972764040169</v>
       </c>
       <c r="DB8"/>
       <c r="DC8"/>
@@ -5374,7 +5374,7 @@
       <c r="CY9"/>
       <c r="CZ9"/>
       <c r="DA9" t="n">
-        <v>0.0188720781980903</v>
+        <v>0.00360513830532257</v>
       </c>
       <c r="DB9"/>
       <c r="DC9"/>
@@ -5640,7 +5640,7 @@
       <c r="CY10"/>
       <c r="CZ10"/>
       <c r="DA10" t="n">
-        <v>0.0173948869128689</v>
+        <v>0.00340607631761892</v>
       </c>
       <c r="DB10"/>
       <c r="DC10"/>
@@ -6244,7 +6244,7 @@
       <c r="CY13"/>
       <c r="CZ13"/>
       <c r="DA13" t="n">
-        <v>0.0178783349494097</v>
+        <v>0.00347122436450224</v>
       </c>
       <c r="DB13"/>
       <c r="DC13"/>
@@ -7334,7 +7334,7 @@
       <c r="CY19"/>
       <c r="CZ19"/>
       <c r="DA19" t="n">
-        <v>0.031469860646663</v>
+        <v>0.00530277871246535</v>
       </c>
       <c r="DB19"/>
       <c r="DC19"/>
@@ -7552,7 +7552,7 @@
       <c r="CY20"/>
       <c r="CZ20"/>
       <c r="DA20" t="n">
-        <v>0.001</v>
+        <v>0.000728380858987673</v>
       </c>
       <c r="DB20"/>
       <c r="DC20"/>
@@ -7772,7 +7772,7 @@
       <c r="CY21"/>
       <c r="CZ21"/>
       <c r="DA21" t="n">
-        <v>0.00218270709960886</v>
+        <v>0.00135612734944652</v>
       </c>
       <c r="DB21"/>
       <c r="DC21"/>
@@ -9250,7 +9250,7 @@
       <c r="CY28"/>
       <c r="CZ28"/>
       <c r="DA28" t="n">
-        <v>0.00949306133827686</v>
+        <v>0.00234124935776445</v>
       </c>
       <c r="DB28"/>
       <c r="DC28"/>
@@ -9662,7 +9662,7 @@
       <c r="CY30"/>
       <c r="CZ30"/>
       <c r="DA30" t="n">
-        <v>0.001</v>
+        <v>0.0005</v>
       </c>
       <c r="DB30"/>
       <c r="DC30"/>
@@ -10474,7 +10474,7 @@
       <c r="CY34"/>
       <c r="CZ34"/>
       <c r="DA34" t="n">
-        <v>0.0215147718497681</v>
+        <v>0.00396125999142902</v>
       </c>
       <c r="DB34"/>
       <c r="DC34"/>
@@ -10698,7 +10698,7 @@
       <c r="CY35"/>
       <c r="CZ35"/>
       <c r="DA35" t="n">
-        <v>0.0447679106267458</v>
+        <v>0.00709478512903515</v>
       </c>
       <c r="DB35"/>
       <c r="DC35"/>
@@ -10910,7 +10910,7 @@
       <c r="CY36"/>
       <c r="CZ36"/>
       <c r="DA36" t="n">
-        <v>0.0191208310201366</v>
+        <v>0.00363865950985364</v>
       </c>
       <c r="DB36"/>
       <c r="DC36"/>
@@ -11118,7 +11118,7 @@
       <c r="CY37"/>
       <c r="CZ37"/>
       <c r="DA37" t="n">
-        <v>0.001</v>
+        <v>0.00109133287897206</v>
       </c>
       <c r="DB37"/>
       <c r="DC37"/>
@@ -11310,7 +11310,7 @@
       <c r="CY38"/>
       <c r="CZ38"/>
       <c r="DA38" t="n">
-        <v>0.0405837675909772</v>
+        <v>0.00653094222130257</v>
       </c>
       <c r="DB38"/>
       <c r="DC38"/>
@@ -15808,7 +15808,7 @@
       <c r="CY60"/>
       <c r="CZ60"/>
       <c r="DA60" t="n">
-        <v>0.001</v>
+        <v>0.00115686013763088</v>
       </c>
       <c r="DB60"/>
       <c r="DC60"/>
@@ -16214,7 +16214,7 @@
       <c r="CY62"/>
       <c r="CZ62"/>
       <c r="DA62" t="n">
-        <v>0.001</v>
+        <v>0.000877568129804568</v>
       </c>
       <c r="DB62"/>
       <c r="DC62"/>
@@ -16428,7 +16428,7 @@
       <c r="CY63"/>
       <c r="CZ63"/>
       <c r="DA63" t="n">
-        <v>0.0192485563219761</v>
+        <v>0.00365587139887478</v>
       </c>
       <c r="DB63"/>
       <c r="DC63"/>
@@ -20718,7 +20718,7 @@
       <c r="CY85"/>
       <c r="CZ85"/>
       <c r="DA85" t="n">
-        <v>0.001</v>
+        <v>0.00116365297965452</v>
       </c>
       <c r="DB85"/>
       <c r="DC85"/>
@@ -21992,7 +21992,7 @@
       <c r="CY91"/>
       <c r="CZ91"/>
       <c r="DA91" t="n">
-        <v>0.00658357973055852</v>
+        <v>0.00194917610508965</v>
       </c>
       <c r="DB91"/>
       <c r="DC91"/>
@@ -23046,7 +23046,7 @@
       <c r="CY96"/>
       <c r="CZ96"/>
       <c r="DA96" t="n">
-        <v>0.0442440141903579</v>
+        <v>0.00702418637380177</v>
       </c>
       <c r="DB96"/>
       <c r="DC96"/>
@@ -23244,7 +23244,7 @@
       <c r="CY97"/>
       <c r="CZ97"/>
       <c r="DA97" t="n">
-        <v>0.001</v>
+        <v>0.000861087250704147</v>
       </c>
       <c r="DB97"/>
       <c r="DC97"/>
@@ -23728,7 +23728,7 @@
       <c r="CY99"/>
       <c r="CZ99"/>
       <c r="DA99" t="n">
-        <v>0.00953071503424308</v>
+        <v>0.00234632345997343</v>
       </c>
       <c r="DB99"/>
       <c r="DC99"/>
@@ -23948,7 +23948,7 @@
       <c r="CY100"/>
       <c r="CZ100"/>
       <c r="DA100" t="n">
-        <v>0.00767826001419054</v>
+        <v>0.00209669202624344</v>
       </c>
       <c r="DB100"/>
       <c r="DC100"/>
@@ -24146,7 +24146,7 @@
       <c r="CY101"/>
       <c r="CZ101"/>
       <c r="DA101" t="n">
-        <v>0.00134666109680985</v>
+        <v>0.0012434642293795</v>
       </c>
       <c r="DB101"/>
       <c r="DC101"/>
@@ -24386,7 +24386,7 @@
       <c r="CY102"/>
       <c r="CZ102"/>
       <c r="DA102" t="n">
-        <v>0.0165381320445633</v>
+        <v>0.00329062253125696</v>
       </c>
       <c r="DB102"/>
       <c r="DC102"/>
@@ -25480,7 +25480,7 @@
       <c r="CY108"/>
       <c r="CZ108"/>
       <c r="DA108" t="n">
-        <v>0.001</v>
+        <v>0.000725760483009801</v>
       </c>
       <c r="DB108"/>
       <c r="DC108"/>
@@ -26508,7 +26508,7 @@
       <c r="CY113"/>
       <c r="CZ113"/>
       <c r="DA113" t="n">
-        <v>0.001</v>
+        <v>0.000969041266551267</v>
       </c>
       <c r="DB113"/>
       <c r="DC113"/>
@@ -26912,7 +26912,7 @@
       <c r="CY115"/>
       <c r="CZ115"/>
       <c r="DA115" t="n">
-        <v>0.0169850510446537</v>
+        <v>0.00335084803176632</v>
       </c>
       <c r="DB115"/>
       <c r="DC115"/>
@@ -27140,7 +27140,7 @@
       <c r="CY116"/>
       <c r="CZ116"/>
       <c r="DA116" t="n">
-        <v>0.0463130647829715</v>
+        <v>0.00730300559494505</v>
       </c>
       <c r="DB116"/>
       <c r="DC116"/>
@@ -27378,7 +27378,7 @@
       <c r="CY117"/>
       <c r="CZ117"/>
       <c r="DA117" t="n">
-        <v>0.001</v>
+        <v>0.000709924152843509</v>
       </c>
       <c r="DB117"/>
       <c r="DC117"/>
@@ -27630,7 +27630,7 @@
       <c r="CY118"/>
       <c r="CZ118"/>
       <c r="DA118" t="n">
-        <v>0.00211703951749223</v>
+        <v>0.00134727817767398</v>
       </c>
       <c r="DB118"/>
       <c r="DC118"/>
@@ -27882,7 +27882,7 @@
       <c r="CY119"/>
       <c r="CZ119"/>
       <c r="DA119" t="n">
-        <v>0.001</v>
+        <v>0.000841553156410563</v>
       </c>
       <c r="DB119"/>
       <c r="DC119"/>
@@ -28120,7 +28120,7 @@
       <c r="CY120"/>
       <c r="CZ120"/>
       <c r="DA120" t="n">
-        <v>0.0032783789990315</v>
+        <v>0.00150377689785109</v>
       </c>
       <c r="DB120"/>
       <c r="DC120"/>
@@ -28512,7 +28512,7 @@
       <c r="CY122"/>
       <c r="CZ122"/>
       <c r="DA122" t="n">
-        <v>0.0245600879397743</v>
+        <v>0.00437163790262261</v>
       </c>
       <c r="DB122"/>
       <c r="DC122"/>
@@ -28912,7 +28912,7 @@
       <c r="CY124"/>
       <c r="CZ124"/>
       <c r="DA124" t="n">
-        <v>0.0142615184344021</v>
+        <v>0.00298383272346038</v>
       </c>
       <c r="DB124"/>
       <c r="DC124"/>
@@ -29912,7 +29912,7 @@
       <c r="CY129"/>
       <c r="CZ129"/>
       <c r="DA129" t="n">
-        <v>0.0039995400616972</v>
+        <v>0.00160095845857712</v>
       </c>
       <c r="DB129"/>
       <c r="DC129"/>
@@ -30502,7 +30502,7 @@
       <c r="CY132"/>
       <c r="CZ132"/>
       <c r="DA132" t="n">
-        <v>0.001</v>
+        <v>0.0005</v>
       </c>
       <c r="DB132"/>
       <c r="DC132"/>
@@ -30694,7 +30694,7 @@
       <c r="CY133"/>
       <c r="CZ133"/>
       <c r="DA133" t="n">
-        <v>0.00338826248734824</v>
+        <v>0.00151858447613765</v>
       </c>
       <c r="DB133"/>
       <c r="DC133"/>
@@ -31540,7 +31540,7 @@
       <c r="CY137"/>
       <c r="CZ137"/>
       <c r="DA137" t="n">
-        <v>0.00548522060473069</v>
+        <v>0.00180116443389505</v>
       </c>
       <c r="DB137"/>
       <c r="DC137"/>
@@ -32480,7 +32480,7 @@
       <c r="CY142"/>
       <c r="CZ142"/>
       <c r="DA142" t="n">
-        <v>0.017435426055098</v>
+        <v>0.00341153925414764</v>
       </c>
       <c r="DB142"/>
       <c r="DC142"/>
@@ -32918,7 +32918,7 @@
       <c r="CY144"/>
       <c r="CZ144"/>
       <c r="DA144" t="n">
-        <v>0.00219067553148549</v>
+        <v>0.00135720115207731</v>
       </c>
       <c r="DB144"/>
       <c r="DC144"/>
@@ -33298,7 +33298,7 @@
       <c r="CY146"/>
       <c r="CZ146"/>
       <c r="DA146" t="n">
-        <v>0.001</v>
+        <v>0.0005</v>
       </c>
       <c r="DB146"/>
       <c r="DC146"/>
@@ -33478,7 +33478,7 @@
       <c r="CY147"/>
       <c r="CZ147"/>
       <c r="DA147" t="n">
-        <v>0.0161926299519751</v>
+        <v>0.00324406367730592</v>
       </c>
       <c r="DB147"/>
       <c r="DC147"/>
@@ -33726,7 +33726,7 @@
       <c r="CY148"/>
       <c r="CZ148"/>
       <c r="DA148" t="n">
-        <v>0.0405777842927489</v>
+        <v>0.00653013592949035</v>
       </c>
       <c r="DB148"/>
       <c r="DC148"/>
@@ -33974,7 +33974,7 @@
       <c r="CY149"/>
       <c r="CZ149"/>
       <c r="DA149" t="n">
-        <v>0.00698804665186501</v>
+        <v>0.00200368088732141</v>
       </c>
       <c r="DB149"/>
       <c r="DC149"/>
@@ -34250,7 +34250,7 @@
       <c r="CY150"/>
       <c r="CZ150"/>
       <c r="DA150" t="n">
-        <v>0.0165298816143721</v>
+        <v>0.00328951072735608</v>
       </c>
       <c r="DB150"/>
       <c r="DC150"/>
@@ -34540,7 +34540,7 @@
       <c r="CY151"/>
       <c r="CZ151"/>
       <c r="DA151" t="n">
-        <v>0.0129182770958841</v>
+        <v>0.00280282143975854</v>
       </c>
       <c r="DB151"/>
       <c r="DC151"/>
@@ -34800,7 +34800,7 @@
       <c r="CY152"/>
       <c r="CZ152"/>
       <c r="DA152" t="n">
-        <v>0.0280856009231051</v>
+        <v>0.00484672574612533</v>
       </c>
       <c r="DB152"/>
       <c r="DC152"/>
@@ -35076,7 +35076,7 @@
       <c r="CY153"/>
       <c r="CZ153"/>
       <c r="DA153" t="n">
-        <v>0.0216494872591064</v>
+        <v>0.00397941384694217</v>
       </c>
       <c r="DB153"/>
       <c r="DC153"/>
@@ -35336,7 +35336,7 @@
       <c r="CY154"/>
       <c r="CZ154"/>
       <c r="DA154" t="n">
-        <v>0.0512082431155543</v>
+        <v>0.00796266554474074</v>
       </c>
       <c r="DB154"/>
       <c r="DC154"/>
@@ -35624,7 +35624,7 @@
       <c r="CY155"/>
       <c r="CZ155"/>
       <c r="DA155" t="n">
-        <v>0.0149674251822736</v>
+        <v>0.00307895865723115</v>
       </c>
       <c r="DB155"/>
       <c r="DC155"/>
@@ -35902,7 +35902,7 @@
       <c r="CY156"/>
       <c r="CZ156"/>
       <c r="DA156" t="n">
-        <v>0.00728079653944783</v>
+        <v>0.00204313100803717</v>
       </c>
       <c r="DB156"/>
       <c r="DC156"/>
@@ -36568,7 +36568,7 @@
       <c r="CY159"/>
       <c r="CZ159"/>
       <c r="DA159" t="n">
-        <v>0.001</v>
+        <v>0.00100605351660978</v>
       </c>
       <c r="DB159"/>
       <c r="DC159"/>
@@ -36780,7 +36780,7 @@
       <c r="CY160"/>
       <c r="CZ160"/>
       <c r="DA160" t="n">
-        <v>0.0371462181992677</v>
+        <v>0.00606770809476181</v>
       </c>
       <c r="DB160"/>
       <c r="DC160"/>
@@ -37174,7 +37174,7 @@
       <c r="CY162"/>
       <c r="CZ162"/>
       <c r="DA162" t="n">
-        <v>0.0416329446791545</v>
+        <v>0.00667232626459822</v>
       </c>
       <c r="DB162"/>
       <c r="DC162"/>
@@ -37428,7 +37428,7 @@
       <c r="CY163"/>
       <c r="CZ163"/>
       <c r="DA163" t="n">
-        <v>0.0167386555659603</v>
+        <v>0.00331764449594764</v>
       </c>
       <c r="DB163"/>
       <c r="DC163"/>
@@ -37670,7 +37670,7 @@
       <c r="CY164"/>
       <c r="CZ164"/>
       <c r="DA164" t="n">
-        <v>0.0478264765423964</v>
+        <v>0.00750694854807455</v>
       </c>
       <c r="DB164"/>
       <c r="DC164"/>
@@ -37870,7 +37870,7 @@
       <c r="CY165"/>
       <c r="CZ165"/>
       <c r="DA165" t="n">
-        <v>0.00504933124022009</v>
+        <v>0.00174242525489606</v>
       </c>
       <c r="DB165"/>
       <c r="DC165"/>
@@ -38152,7 +38152,7 @@
       <c r="CY166"/>
       <c r="CZ166"/>
       <c r="DA166" t="n">
-        <v>0.0164787444377378</v>
+        <v>0.00328261963063203</v>
       </c>
       <c r="DB166"/>
       <c r="DC166"/>
@@ -38708,7 +38708,7 @@
       <c r="CY168"/>
       <c r="CZ168"/>
       <c r="DA168" t="n">
-        <v>0.00549639169848067</v>
+        <v>0.00180266981789571</v>
       </c>
       <c r="DB168"/>
       <c r="DC168"/>
@@ -39280,7 +39280,7 @@
       <c r="CY170"/>
       <c r="CZ170"/>
       <c r="DA170" t="n">
-        <v>0.00479881016166605</v>
+        <v>0.00170866576527711</v>
       </c>
       <c r="DB170"/>
       <c r="DC170"/>
@@ -39830,7 +39830,7 @@
       <c r="CY172"/>
       <c r="CZ172"/>
       <c r="DA172" t="n">
-        <v>0.00961930792113113</v>
+        <v>0.00235826197892949</v>
       </c>
       <c r="DB172"/>
       <c r="DC172"/>
@@ -40130,7 +40130,7 @@
       <c r="CY173"/>
       <c r="CZ173"/>
       <c r="DA173" t="n">
-        <v>0.00679869167374925</v>
+        <v>0.00197816396293768</v>
       </c>
       <c r="DB173"/>
       <c r="DC173"/>
@@ -40414,7 +40414,7 @@
       <c r="CY174"/>
       <c r="CZ174"/>
       <c r="DA174" t="n">
-        <v>0.00840929987848948</v>
+        <v>0.00219520482545492</v>
       </c>
       <c r="DB174"/>
       <c r="DC174"/>
@@ -40710,7 +40710,7 @@
       <c r="CY175"/>
       <c r="CZ175"/>
       <c r="DA175" t="n">
-        <v>0.0179790907786833</v>
+        <v>0.00348480192608725</v>
       </c>
       <c r="DB175"/>
       <c r="DC175"/>
@@ -40992,7 +40992,7 @@
       <c r="CY176"/>
       <c r="CZ176"/>
       <c r="DA176" t="n">
-        <v>0.0440405218226397</v>
+        <v>0.00699676433604285</v>
       </c>
       <c r="DB176"/>
       <c r="DC176"/>
@@ -41292,7 +41292,7 @@
       <c r="CY177"/>
       <c r="CZ177"/>
       <c r="DA177" t="n">
-        <v>0.00913112642510691</v>
+        <v>0.00229247606485665</v>
       </c>
       <c r="DB177"/>
       <c r="DC177"/>
@@ -41718,7 +41718,7 @@
       <c r="CY179"/>
       <c r="CZ179"/>
       <c r="DA179" t="n">
-        <v>0.00324511926032899</v>
+        <v>0.00149929491250304</v>
       </c>
       <c r="DB179"/>
       <c r="DC179"/>
@@ -42560,7 +42560,7 @@
       <c r="CY183"/>
       <c r="CZ183"/>
       <c r="DA183" t="n">
-        <v>0.0281039333066873</v>
+        <v>0.00484919616464981</v>
       </c>
       <c r="DB183"/>
       <c r="DC183"/>
@@ -43628,7 +43628,7 @@
       <c r="CY188"/>
       <c r="CZ188"/>
       <c r="DA188" t="n">
-        <v>0.0204080632326422</v>
+        <v>0.00381212316714779</v>
       </c>
       <c r="DB188"/>
       <c r="DC188"/>
@@ -44252,7 +44252,7 @@
       <c r="CY191"/>
       <c r="CZ191"/>
       <c r="DA191" t="n">
-        <v>0.0111449602670183</v>
+        <v>0.00256385443777717</v>
       </c>
       <c r="DB191"/>
       <c r="DC191"/>
@@ -45516,7 +45516,7 @@
       <c r="CY198"/>
       <c r="CZ198"/>
       <c r="DA198" t="n">
-        <v>0.00451509253831476</v>
+        <v>0.00167043280613642</v>
       </c>
       <c r="DB198"/>
       <c r="DC198"/>
@@ -46086,7 +46086,7 @@
       <c r="CY201"/>
       <c r="CZ201"/>
       <c r="DA201" t="n">
-        <v>0.0148536339160678</v>
+        <v>0.00306362447819769</v>
       </c>
       <c r="DB201"/>
       <c r="DC201"/>
@@ -46314,7 +46314,7 @@
       <c r="CY202"/>
       <c r="CZ202"/>
       <c r="DA202" t="n">
-        <v>0.00623260504923278</v>
+        <v>0.00190187978104731</v>
       </c>
       <c r="DB202"/>
       <c r="DC202"/>
@@ -47080,7 +47080,7 @@
       <c r="CY206"/>
       <c r="CZ206"/>
       <c r="DA206" t="n">
-        <v>0.001</v>
+        <v>0.000757991556706471</v>
       </c>
       <c r="DB206"/>
       <c r="DC206"/>
@@ -47684,7 +47684,7 @@
       <c r="CY209"/>
       <c r="CZ209"/>
       <c r="DA209" t="n">
-        <v>0.0132734803069994</v>
+        <v>0.00285068758813805</v>
       </c>
       <c r="DB209"/>
       <c r="DC209"/>
@@ -48094,7 +48094,7 @@
       <c r="CY211"/>
       <c r="CZ211"/>
       <c r="DA211" t="n">
-        <v>0.0166269011476636</v>
+        <v>0.00330258479659566</v>
       </c>
       <c r="DB211"/>
       <c r="DC211"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3548,7 +3548,7 @@
       <c r="CY2"/>
       <c r="CZ2"/>
       <c r="DA2" t="n">
-        <v>0.00356056177655031</v>
+        <v>0.00208649635445642</v>
       </c>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -3816,7 +3816,7 @@
       <c r="CY3"/>
       <c r="CZ3"/>
       <c r="DA3" t="n">
-        <v>0.00233400207271247</v>
+        <v>0.00541140413646241</v>
       </c>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -4037,9 +4037,7 @@
       <c r="CX4"/>
       <c r="CY4"/>
       <c r="CZ4"/>
-      <c r="DA4" t="n">
-        <v>0.00506652027926436</v>
-      </c>
+      <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
       <c r="DD4"/>
@@ -4304,7 +4302,7 @@
       <c r="CY5"/>
       <c r="CZ5"/>
       <c r="DA5" t="n">
-        <v>0.00226683520302854</v>
+        <v>0.00157991532182683</v>
       </c>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -4572,7 +4570,7 @@
       <c r="CY6"/>
       <c r="CZ6"/>
       <c r="DA6" t="n">
-        <v>0.00171923718069067</v>
+        <v>0.00104629510698032</v>
       </c>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -4840,7 +4838,7 @@
       <c r="CY7"/>
       <c r="CZ7"/>
       <c r="DA7" t="n">
-        <v>0.00466054068194658</v>
+        <v>0.00342109137573859</v>
       </c>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -5106,7 +5104,7 @@
       <c r="CY8"/>
       <c r="CZ8"/>
       <c r="DA8" t="n">
-        <v>0.00227972764040169</v>
+        <v>0.00170652309252545</v>
       </c>
       <c r="DB8"/>
       <c r="DC8"/>
@@ -5374,7 +5372,7 @@
       <c r="CY9"/>
       <c r="CZ9"/>
       <c r="DA9" t="n">
-        <v>0.00360513830532257</v>
+        <v>0.00197513529743135</v>
       </c>
       <c r="DB9"/>
       <c r="DC9"/>
@@ -5640,7 +5638,7 @@
       <c r="CY10"/>
       <c r="CZ10"/>
       <c r="DA10" t="n">
-        <v>0.00340607631761892</v>
+        <v>0.00201619115607833</v>
       </c>
       <c r="DB10"/>
       <c r="DC10"/>
@@ -6244,7 +6242,7 @@
       <c r="CY13"/>
       <c r="CZ13"/>
       <c r="DA13" t="n">
-        <v>0.00347122436450224</v>
+        <v>0.0020664773002519</v>
       </c>
       <c r="DB13"/>
       <c r="DC13"/>
@@ -7333,9 +7331,7 @@
       <c r="CX19"/>
       <c r="CY19"/>
       <c r="CZ19"/>
-      <c r="DA19" t="n">
-        <v>0.00530277871246535</v>
-      </c>
+      <c r="DA19"/>
       <c r="DB19"/>
       <c r="DC19"/>
       <c r="DD19"/>
@@ -7551,9 +7547,7 @@
       <c r="CX20"/>
       <c r="CY20"/>
       <c r="CZ20"/>
-      <c r="DA20" t="n">
-        <v>0.000728380858987673</v>
-      </c>
+      <c r="DA20"/>
       <c r="DB20"/>
       <c r="DC20"/>
       <c r="DD20"/>
@@ -7772,7 +7766,7 @@
       <c r="CY21"/>
       <c r="CZ21"/>
       <c r="DA21" t="n">
-        <v>0.00135612734944652</v>
+        <v>0.000990409654489454</v>
       </c>
       <c r="DB21"/>
       <c r="DC21"/>
@@ -9250,7 +9244,7 @@
       <c r="CY28"/>
       <c r="CZ28"/>
       <c r="DA28" t="n">
-        <v>0.00234124935776445</v>
+        <v>0.00100478237705914</v>
       </c>
       <c r="DB28"/>
       <c r="DC28"/>
@@ -9662,7 +9656,7 @@
       <c r="CY30"/>
       <c r="CZ30"/>
       <c r="DA30" t="n">
-        <v>0.0005</v>
+        <v>0.000805386302436502</v>
       </c>
       <c r="DB30"/>
       <c r="DC30"/>
@@ -10474,7 +10468,7 @@
       <c r="CY34"/>
       <c r="CZ34"/>
       <c r="DA34" t="n">
-        <v>0.00396125999142902</v>
+        <v>0.0019369501839975</v>
       </c>
       <c r="DB34"/>
       <c r="DC34"/>
@@ -10698,7 +10692,7 @@
       <c r="CY35"/>
       <c r="CZ35"/>
       <c r="DA35" t="n">
-        <v>0.00709478512903515</v>
+        <v>0.00410743851571631</v>
       </c>
       <c r="DB35"/>
       <c r="DC35"/>
@@ -10910,7 +10904,7 @@
       <c r="CY36"/>
       <c r="CZ36"/>
       <c r="DA36" t="n">
-        <v>0.00363865950985364</v>
+        <v>0.00263627952336136</v>
       </c>
       <c r="DB36"/>
       <c r="DC36"/>
@@ -11118,7 +11112,7 @@
       <c r="CY37"/>
       <c r="CZ37"/>
       <c r="DA37" t="n">
-        <v>0.00109133287897206</v>
+        <v>0.00114683417221073</v>
       </c>
       <c r="DB37"/>
       <c r="DC37"/>
@@ -11309,9 +11303,7 @@
       <c r="CX38"/>
       <c r="CY38"/>
       <c r="CZ38"/>
-      <c r="DA38" t="n">
-        <v>0.00653094222130257</v>
-      </c>
+      <c r="DA38"/>
       <c r="DB38"/>
       <c r="DC38"/>
       <c r="DD38"/>
@@ -15808,7 +15800,7 @@
       <c r="CY60"/>
       <c r="CZ60"/>
       <c r="DA60" t="n">
-        <v>0.00115686013763088</v>
+        <v>0.00074532289803413</v>
       </c>
       <c r="DB60"/>
       <c r="DC60"/>
@@ -16214,7 +16206,7 @@
       <c r="CY62"/>
       <c r="CZ62"/>
       <c r="DA62" t="n">
-        <v>0.000877568129804568</v>
+        <v>0.000744145863669112</v>
       </c>
       <c r="DB62"/>
       <c r="DC62"/>
@@ -16428,7 +16420,7 @@
       <c r="CY63"/>
       <c r="CZ63"/>
       <c r="DA63" t="n">
-        <v>0.00365587139887478</v>
+        <v>0.00190596751156624</v>
       </c>
       <c r="DB63"/>
       <c r="DC63"/>
@@ -20717,9 +20709,7 @@
       <c r="CX85"/>
       <c r="CY85"/>
       <c r="CZ85"/>
-      <c r="DA85" t="n">
-        <v>0.00116365297965452</v>
-      </c>
+      <c r="DA85"/>
       <c r="DB85"/>
       <c r="DC85"/>
       <c r="DD85"/>
@@ -21991,9 +21981,7 @@
       <c r="CX91"/>
       <c r="CY91"/>
       <c r="CZ91"/>
-      <c r="DA91" t="n">
-        <v>0.00194917610508965</v>
-      </c>
+      <c r="DA91"/>
       <c r="DB91"/>
       <c r="DC91"/>
       <c r="DD91"/>
@@ -23046,7 +23034,7 @@
       <c r="CY96"/>
       <c r="CZ96"/>
       <c r="DA96" t="n">
-        <v>0.00702418637380177</v>
+        <v>0.0031118003933913</v>
       </c>
       <c r="DB96"/>
       <c r="DC96"/>
@@ -23243,9 +23231,7 @@
       <c r="CX97"/>
       <c r="CY97"/>
       <c r="CZ97"/>
-      <c r="DA97" t="n">
-        <v>0.000861087250704147</v>
-      </c>
+      <c r="DA97"/>
       <c r="DB97"/>
       <c r="DC97"/>
       <c r="DD97"/>
@@ -23728,7 +23714,7 @@
       <c r="CY99"/>
       <c r="CZ99"/>
       <c r="DA99" t="n">
-        <v>0.00234632345997343</v>
+        <v>0.00287045527228856</v>
       </c>
       <c r="DB99"/>
       <c r="DC99"/>
@@ -23948,7 +23934,7 @@
       <c r="CY100"/>
       <c r="CZ100"/>
       <c r="DA100" t="n">
-        <v>0.00209669202624344</v>
+        <v>0.00104102511675227</v>
       </c>
       <c r="DB100"/>
       <c r="DC100"/>
@@ -24145,9 +24131,7 @@
       <c r="CX101"/>
       <c r="CY101"/>
       <c r="CZ101"/>
-      <c r="DA101" t="n">
-        <v>0.0012434642293795</v>
-      </c>
+      <c r="DA101"/>
       <c r="DB101"/>
       <c r="DC101"/>
       <c r="DD101"/>
@@ -24386,7 +24370,7 @@
       <c r="CY102"/>
       <c r="CZ102"/>
       <c r="DA102" t="n">
-        <v>0.00329062253125696</v>
+        <v>0.00187488315753809</v>
       </c>
       <c r="DB102"/>
       <c r="DC102"/>
@@ -25479,9 +25463,7 @@
       <c r="CX108"/>
       <c r="CY108"/>
       <c r="CZ108"/>
-      <c r="DA108" t="n">
-        <v>0.000725760483009801</v>
-      </c>
+      <c r="DA108"/>
       <c r="DB108"/>
       <c r="DC108"/>
       <c r="DD108"/>
@@ -26508,7 +26490,7 @@
       <c r="CY113"/>
       <c r="CZ113"/>
       <c r="DA113" t="n">
-        <v>0.000969041266551267</v>
+        <v>0.000922875020622103</v>
       </c>
       <c r="DB113"/>
       <c r="DC113"/>
@@ -26912,7 +26894,7 @@
       <c r="CY115"/>
       <c r="CZ115"/>
       <c r="DA115" t="n">
-        <v>0.00335084803176632</v>
+        <v>0.00174130265562682</v>
       </c>
       <c r="DB115"/>
       <c r="DC115"/>
@@ -27139,9 +27121,7 @@
       <c r="CX116"/>
       <c r="CY116"/>
       <c r="CZ116"/>
-      <c r="DA116" t="n">
-        <v>0.00730300559494505</v>
-      </c>
+      <c r="DA116"/>
       <c r="DB116"/>
       <c r="DC116"/>
       <c r="DD116"/>
@@ -27378,7 +27358,7 @@
       <c r="CY117"/>
       <c r="CZ117"/>
       <c r="DA117" t="n">
-        <v>0.000709924152843509</v>
+        <v>0.000679791900724173</v>
       </c>
       <c r="DB117"/>
       <c r="DC117"/>
@@ -27630,7 +27610,7 @@
       <c r="CY118"/>
       <c r="CZ118"/>
       <c r="DA118" t="n">
-        <v>0.00134727817767398</v>
+        <v>0.000775490619980894</v>
       </c>
       <c r="DB118"/>
       <c r="DC118"/>
@@ -27882,7 +27862,7 @@
       <c r="CY119"/>
       <c r="CZ119"/>
       <c r="DA119" t="n">
-        <v>0.000841553156410563</v>
+        <v>0.000670305107362669</v>
       </c>
       <c r="DB119"/>
       <c r="DC119"/>
@@ -28120,7 +28100,7 @@
       <c r="CY120"/>
       <c r="CZ120"/>
       <c r="DA120" t="n">
-        <v>0.00150377689785109</v>
+        <v>0.000773867908124838</v>
       </c>
       <c r="DB120"/>
       <c r="DC120"/>
@@ -28512,7 +28492,7 @@
       <c r="CY122"/>
       <c r="CZ122"/>
       <c r="DA122" t="n">
-        <v>0.00437163790262261</v>
+        <v>0.00250034335645265</v>
       </c>
       <c r="DB122"/>
       <c r="DC122"/>
@@ -28911,9 +28891,7 @@
       <c r="CX124"/>
       <c r="CY124"/>
       <c r="CZ124"/>
-      <c r="DA124" t="n">
-        <v>0.00298383272346038</v>
-      </c>
+      <c r="DA124"/>
       <c r="DB124"/>
       <c r="DC124"/>
       <c r="DD124"/>
@@ -29912,7 +29890,7 @@
       <c r="CY129"/>
       <c r="CZ129"/>
       <c r="DA129" t="n">
-        <v>0.00160095845857712</v>
+        <v>0.000983367873404511</v>
       </c>
       <c r="DB129"/>
       <c r="DC129"/>
@@ -30501,9 +30479,7 @@
       <c r="CX132"/>
       <c r="CY132"/>
       <c r="CZ132"/>
-      <c r="DA132" t="n">
-        <v>0.0005</v>
-      </c>
+      <c r="DA132"/>
       <c r="DB132"/>
       <c r="DC132"/>
       <c r="DD132"/>
@@ -30693,9 +30669,7 @@
       <c r="CX133"/>
       <c r="CY133"/>
       <c r="CZ133"/>
-      <c r="DA133" t="n">
-        <v>0.00151858447613765</v>
-      </c>
+      <c r="DA133"/>
       <c r="DB133"/>
       <c r="DC133"/>
       <c r="DD133"/>
@@ -31540,7 +31514,7 @@
       <c r="CY137"/>
       <c r="CZ137"/>
       <c r="DA137" t="n">
-        <v>0.00180116443389505</v>
+        <v>0.000561195094839645</v>
       </c>
       <c r="DB137"/>
       <c r="DC137"/>
@@ -32479,9 +32453,7 @@
       <c r="CX142"/>
       <c r="CY142"/>
       <c r="CZ142"/>
-      <c r="DA142" t="n">
-        <v>0.00341153925414764</v>
-      </c>
+      <c r="DA142"/>
       <c r="DB142"/>
       <c r="DC142"/>
       <c r="DD142"/>
@@ -32918,7 +32890,7 @@
       <c r="CY144"/>
       <c r="CZ144"/>
       <c r="DA144" t="n">
-        <v>0.00135720115207731</v>
+        <v>0.000845588709140148</v>
       </c>
       <c r="DB144"/>
       <c r="DC144"/>
@@ -33297,9 +33269,7 @@
       <c r="CX146"/>
       <c r="CY146"/>
       <c r="CZ146"/>
-      <c r="DA146" t="n">
-        <v>0.0005</v>
-      </c>
+      <c r="DA146"/>
       <c r="DB146"/>
       <c r="DC146"/>
       <c r="DD146"/>
@@ -33477,9 +33447,7 @@
       <c r="CX147"/>
       <c r="CY147"/>
       <c r="CZ147"/>
-      <c r="DA147" t="n">
-        <v>0.00324406367730592</v>
-      </c>
+      <c r="DA147"/>
       <c r="DB147"/>
       <c r="DC147"/>
       <c r="DD147"/>
@@ -33726,7 +33694,7 @@
       <c r="CY148"/>
       <c r="CZ148"/>
       <c r="DA148" t="n">
-        <v>0.00653013592949035</v>
+        <v>0.00298912793143386</v>
       </c>
       <c r="DB148"/>
       <c r="DC148"/>
@@ -33973,9 +33941,7 @@
       </c>
       <c r="CY149"/>
       <c r="CZ149"/>
-      <c r="DA149" t="n">
-        <v>0.00200368088732141</v>
-      </c>
+      <c r="DA149"/>
       <c r="DB149"/>
       <c r="DC149"/>
       <c r="DD149"/>
@@ -34250,7 +34216,7 @@
       <c r="CY150"/>
       <c r="CZ150"/>
       <c r="DA150" t="n">
-        <v>0.00328951072735608</v>
+        <v>0.00247516722331096</v>
       </c>
       <c r="DB150"/>
       <c r="DC150"/>
@@ -34540,7 +34506,7 @@
       <c r="CY151"/>
       <c r="CZ151"/>
       <c r="DA151" t="n">
-        <v>0.00280282143975854</v>
+        <v>0.00182427252412565</v>
       </c>
       <c r="DB151"/>
       <c r="DC151"/>
@@ -34800,7 +34766,7 @@
       <c r="CY152"/>
       <c r="CZ152"/>
       <c r="DA152" t="n">
-        <v>0.00484672574612533</v>
+        <v>0.00345089470603112</v>
       </c>
       <c r="DB152"/>
       <c r="DC152"/>
@@ -35076,7 +35042,7 @@
       <c r="CY153"/>
       <c r="CZ153"/>
       <c r="DA153" t="n">
-        <v>0.00397941384694217</v>
+        <v>0.00249418909410628</v>
       </c>
       <c r="DB153"/>
       <c r="DC153"/>
@@ -35336,7 +35302,7 @@
       <c r="CY154"/>
       <c r="CZ154"/>
       <c r="DA154" t="n">
-        <v>0.00796266554474074</v>
+        <v>0.00864654403075331</v>
       </c>
       <c r="DB154"/>
       <c r="DC154"/>
@@ -35624,7 +35590,7 @@
       <c r="CY155"/>
       <c r="CZ155"/>
       <c r="DA155" t="n">
-        <v>0.00307895865723115</v>
+        <v>0.00318642248360167</v>
       </c>
       <c r="DB155"/>
       <c r="DC155"/>
@@ -35902,7 +35868,7 @@
       <c r="CY156"/>
       <c r="CZ156"/>
       <c r="DA156" t="n">
-        <v>0.00204313100803717</v>
+        <v>0.00238292902029059</v>
       </c>
       <c r="DB156"/>
       <c r="DC156"/>
@@ -36568,7 +36534,7 @@
       <c r="CY159"/>
       <c r="CZ159"/>
       <c r="DA159" t="n">
-        <v>0.00100605351660978</v>
+        <v>0.000864733893415942</v>
       </c>
       <c r="DB159"/>
       <c r="DC159"/>
@@ -36780,7 +36746,7 @@
       <c r="CY160"/>
       <c r="CZ160"/>
       <c r="DA160" t="n">
-        <v>0.00606770809476181</v>
+        <v>0.00346072906638648</v>
       </c>
       <c r="DB160"/>
       <c r="DC160"/>
@@ -37174,7 +37140,7 @@
       <c r="CY162"/>
       <c r="CZ162"/>
       <c r="DA162" t="n">
-        <v>0.00667232626459822</v>
+        <v>0.00281889371078842</v>
       </c>
       <c r="DB162"/>
       <c r="DC162"/>
@@ -37428,7 +37394,7 @@
       <c r="CY163"/>
       <c r="CZ163"/>
       <c r="DA163" t="n">
-        <v>0.00331764449594764</v>
+        <v>0.00164319387075626</v>
       </c>
       <c r="DB163"/>
       <c r="DC163"/>
@@ -37670,7 +37636,7 @@
       <c r="CY164"/>
       <c r="CZ164"/>
       <c r="DA164" t="n">
-        <v>0.00750694854807455</v>
+        <v>0.00478099525379898</v>
       </c>
       <c r="DB164"/>
       <c r="DC164"/>
@@ -37870,7 +37836,7 @@
       <c r="CY165"/>
       <c r="CZ165"/>
       <c r="DA165" t="n">
-        <v>0.00174242525489606</v>
+        <v>0.00149855827982982</v>
       </c>
       <c r="DB165"/>
       <c r="DC165"/>
@@ -38152,7 +38118,7 @@
       <c r="CY166"/>
       <c r="CZ166"/>
       <c r="DA166" t="n">
-        <v>0.00328261963063203</v>
+        <v>0.00188401951890941</v>
       </c>
       <c r="DB166"/>
       <c r="DC166"/>
@@ -38708,7 +38674,7 @@
       <c r="CY168"/>
       <c r="CZ168"/>
       <c r="DA168" t="n">
-        <v>0.00180266981789571</v>
+        <v>0.00120315572719097</v>
       </c>
       <c r="DB168"/>
       <c r="DC168"/>
@@ -39280,7 +39246,7 @@
       <c r="CY170"/>
       <c r="CZ170"/>
       <c r="DA170" t="n">
-        <v>0.00170866576527711</v>
+        <v>0.00100711788349216</v>
       </c>
       <c r="DB170"/>
       <c r="DC170"/>
@@ -39830,7 +39796,7 @@
       <c r="CY172"/>
       <c r="CZ172"/>
       <c r="DA172" t="n">
-        <v>0.00235826197892949</v>
+        <v>0.00124700238778517</v>
       </c>
       <c r="DB172"/>
       <c r="DC172"/>
@@ -40130,7 +40096,7 @@
       <c r="CY173"/>
       <c r="CZ173"/>
       <c r="DA173" t="n">
-        <v>0.00197816396293768</v>
+        <v>0.00116489773657126</v>
       </c>
       <c r="DB173"/>
       <c r="DC173"/>
@@ -40414,7 +40380,7 @@
       <c r="CY174"/>
       <c r="CZ174"/>
       <c r="DA174" t="n">
-        <v>0.00219520482545492</v>
+        <v>0.00138903037021725</v>
       </c>
       <c r="DB174"/>
       <c r="DC174"/>
@@ -40710,7 +40676,7 @@
       <c r="CY175"/>
       <c r="CZ175"/>
       <c r="DA175" t="n">
-        <v>0.00348480192608725</v>
+        <v>0.00180705659611069</v>
       </c>
       <c r="DB175"/>
       <c r="DC175"/>
@@ -40992,7 +40958,7 @@
       <c r="CY176"/>
       <c r="CZ176"/>
       <c r="DA176" t="n">
-        <v>0.00699676433604285</v>
+        <v>0.00125128849766263</v>
       </c>
       <c r="DB176"/>
       <c r="DC176"/>
@@ -41292,7 +41258,7 @@
       <c r="CY177"/>
       <c r="CZ177"/>
       <c r="DA177" t="n">
-        <v>0.00229247606485665</v>
+        <v>0.00102952955577404</v>
       </c>
       <c r="DB177"/>
       <c r="DC177"/>
@@ -41718,7 +41684,7 @@
       <c r="CY179"/>
       <c r="CZ179"/>
       <c r="DA179" t="n">
-        <v>0.00149929491250304</v>
+        <v>0.00109286247939468</v>
       </c>
       <c r="DB179"/>
       <c r="DC179"/>
@@ -42560,7 +42526,7 @@
       <c r="CY183"/>
       <c r="CZ183"/>
       <c r="DA183" t="n">
-        <v>0.00484919616464981</v>
+        <v>0.00286424147522188</v>
       </c>
       <c r="DB183"/>
       <c r="DC183"/>
@@ -43628,7 +43594,7 @@
       <c r="CY188"/>
       <c r="CZ188"/>
       <c r="DA188" t="n">
-        <v>0.00381212316714779</v>
+        <v>0.00161739483068106</v>
       </c>
       <c r="DB188"/>
       <c r="DC188"/>
@@ -44252,7 +44218,7 @@
       <c r="CY191"/>
       <c r="CZ191"/>
       <c r="DA191" t="n">
-        <v>0.00256385443777717</v>
+        <v>0.00275307686981761</v>
       </c>
       <c r="DB191"/>
       <c r="DC191"/>
@@ -45516,7 +45482,7 @@
       <c r="CY198"/>
       <c r="CZ198"/>
       <c r="DA198" t="n">
-        <v>0.00167043280613642</v>
+        <v>0.00113405052604335</v>
       </c>
       <c r="DB198"/>
       <c r="DC198"/>
@@ -46085,9 +46051,7 @@
       <c r="CX201"/>
       <c r="CY201"/>
       <c r="CZ201"/>
-      <c r="DA201" t="n">
-        <v>0.00306362447819769</v>
-      </c>
+      <c r="DA201"/>
       <c r="DB201"/>
       <c r="DC201"/>
       <c r="DD201"/>
@@ -46314,7 +46278,7 @@
       <c r="CY202"/>
       <c r="CZ202"/>
       <c r="DA202" t="n">
-        <v>0.00190187978104731</v>
+        <v>0.000625044411359914</v>
       </c>
       <c r="DB202"/>
       <c r="DC202"/>
@@ -47079,9 +47043,7 @@
       <c r="CX206"/>
       <c r="CY206"/>
       <c r="CZ206"/>
-      <c r="DA206" t="n">
-        <v>0.000757991556706471</v>
-      </c>
+      <c r="DA206"/>
       <c r="DB206"/>
       <c r="DC206"/>
       <c r="DD206"/>
@@ -47684,7 +47646,7 @@
       <c r="CY209"/>
       <c r="CZ209"/>
       <c r="DA209" t="n">
-        <v>0.00285068758813805</v>
+        <v>0.00193859004594042</v>
       </c>
       <c r="DB209"/>
       <c r="DC209"/>
@@ -48094,7 +48056,7 @@
       <c r="CY211"/>
       <c r="CZ211"/>
       <c r="DA211" t="n">
-        <v>0.00330258479659566</v>
+        <v>0.00118395501236878</v>
       </c>
       <c r="DB211"/>
       <c r="DC211"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3548,7 +3548,7 @@
       <c r="CY2"/>
       <c r="CZ2"/>
       <c r="DA2" t="n">
-        <v>0.00208649635445642</v>
+        <v>0.005</v>
       </c>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -9244,7 +9244,7 @@
       <c r="CY28"/>
       <c r="CZ28"/>
       <c r="DA28" t="n">
-        <v>0.00100478237705914</v>
+        <v>0.00174594301593737</v>
       </c>
       <c r="DB28"/>
       <c r="DC28"/>
@@ -10468,7 +10468,7 @@
       <c r="CY34"/>
       <c r="CZ34"/>
       <c r="DA34" t="n">
-        <v>0.0019369501839975</v>
+        <v>0.00294678751347697</v>
       </c>
       <c r="DB34"/>
       <c r="DC34"/>
@@ -23034,7 +23034,7 @@
       <c r="CY96"/>
       <c r="CZ96"/>
       <c r="DA96" t="n">
-        <v>0.0031118003933913</v>
+        <v>0.00446026223217329</v>
       </c>
       <c r="DB96"/>
       <c r="DC96"/>
@@ -23723,7 +23723,7 @@
         <v>0.873</v>
       </c>
       <c r="DF99" t="n">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
       <c r="DG99"/>
       <c r="DH99" t="n">
@@ -24370,7 +24370,7 @@
       <c r="CY102"/>
       <c r="CZ102"/>
       <c r="DA102" t="n">
-        <v>0.00187488315753809</v>
+        <v>0.00286683104357139</v>
       </c>
       <c r="DB102"/>
       <c r="DC102"/>
@@ -26894,7 +26894,7 @@
       <c r="CY115"/>
       <c r="CZ115"/>
       <c r="DA115" t="n">
-        <v>0.00174130265562682</v>
+        <v>0.00269474892541116</v>
       </c>
       <c r="DB115"/>
       <c r="DC115"/>
@@ -34225,7 +34225,7 @@
         <v>0.31125</v>
       </c>
       <c r="DF150" t="n">
-        <v>0.0035</v>
+        <v>0.004</v>
       </c>
       <c r="DG150"/>
       <c r="DH150" t="n">
@@ -34766,7 +34766,7 @@
       <c r="CY152"/>
       <c r="CZ152"/>
       <c r="DA152" t="n">
-        <v>0.00345089470603112</v>
+        <v>0.00595665724363303</v>
       </c>
       <c r="DB152"/>
       <c r="DC152"/>
@@ -35599,7 +35599,7 @@
         <v>0.36725</v>
       </c>
       <c r="DF155" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="DG155"/>
       <c r="DH155" t="n">
@@ -35868,7 +35868,7 @@
       <c r="CY156"/>
       <c r="CZ156"/>
       <c r="DA156" t="n">
-        <v>0.00238292902029059</v>
+        <v>0.004</v>
       </c>
       <c r="DB156"/>
       <c r="DC156"/>
@@ -36746,7 +36746,7 @@
       <c r="CY160"/>
       <c r="CZ160"/>
       <c r="DA160" t="n">
-        <v>0.00346072906638648</v>
+        <v>0.00490976185432422</v>
       </c>
       <c r="DB160"/>
       <c r="DC160"/>
@@ -37140,7 +37140,7 @@
       <c r="CY162"/>
       <c r="CZ162"/>
       <c r="DA162" t="n">
-        <v>0.00281889371078842</v>
+        <v>0.00408293169632106</v>
       </c>
       <c r="DB162"/>
       <c r="DC162"/>
@@ -37394,7 +37394,7 @@
       <c r="CY163"/>
       <c r="CZ163"/>
       <c r="DA163" t="n">
-        <v>0.00164319387075626</v>
+        <v>0.00256836245980357</v>
       </c>
       <c r="DB163"/>
       <c r="DC163"/>
@@ -38683,7 +38683,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF168" t="n">
-        <v>0.0016</v>
+        <v>0.0008</v>
       </c>
       <c r="DG168"/>
       <c r="DH168" t="n">
@@ -39246,7 +39246,7 @@
       <c r="CY170"/>
       <c r="CZ170"/>
       <c r="DA170" t="n">
-        <v>0.00100711788349216</v>
+        <v>0.0008</v>
       </c>
       <c r="DB170"/>
       <c r="DC170"/>
@@ -39255,7 +39255,7 @@
         <v>0.6035</v>
       </c>
       <c r="DF170" t="n">
-        <v>0.0016</v>
+        <v>0.0008</v>
       </c>
       <c r="DG170"/>
       <c r="DH170" t="n">
@@ -40105,7 +40105,7 @@
         <v>0.47925</v>
       </c>
       <c r="DF173" t="n">
-        <v>0.0016</v>
+        <v>0.001</v>
       </c>
       <c r="DG173"/>
       <c r="DH173" t="n">
@@ -41258,7 +41258,7 @@
       <c r="CY177"/>
       <c r="CZ177"/>
       <c r="DA177" t="n">
-        <v>0.00102952955577404</v>
+        <v>0.0008</v>
       </c>
       <c r="DB177"/>
       <c r="DC177"/>
@@ -41267,7 +41267,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF177" t="n">
-        <v>0.004</v>
+        <v>0.0016</v>
       </c>
       <c r="DG177"/>
       <c r="DH177" t="n">
@@ -45482,7 +45482,7 @@
       <c r="CY198"/>
       <c r="CZ198"/>
       <c r="DA198" t="n">
-        <v>0.00113405052604335</v>
+        <v>0.00191246984110704</v>
       </c>
       <c r="DB198"/>
       <c r="DC198"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3548,7 +3548,7 @@
       <c r="CY2"/>
       <c r="CZ2"/>
       <c r="DA2" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -3557,7 +3557,7 @@
         <v>0.88</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
       <c r="DG2"/>
       <c r="DH2" t="n">
@@ -7766,7 +7766,7 @@
       <c r="CY21"/>
       <c r="CZ21"/>
       <c r="DA21" t="n">
-        <v>0.000990409654489454</v>
+        <v>0.0008</v>
       </c>
       <c r="DB21"/>
       <c r="DC21"/>
@@ -7774,7 +7774,9 @@
       <c r="DE21" t="n">
         <v>0.59825</v>
       </c>
-      <c r="DF21"/>
+      <c r="DF21" t="n">
+        <v>0.0025</v>
+      </c>
       <c r="DG21"/>
       <c r="DH21" t="n">
         <v>0.0633582437542227</v>
@@ -9244,7 +9246,7 @@
       <c r="CY28"/>
       <c r="CZ28"/>
       <c r="DA28" t="n">
-        <v>0.00174594301593737</v>
+        <v>0.003</v>
       </c>
       <c r="DB28"/>
       <c r="DC28"/>
@@ -9252,7 +9254,9 @@
       <c r="DE28" t="n">
         <v>0.38496875</v>
       </c>
-      <c r="DF28"/>
+      <c r="DF28" t="n">
+        <v>0.0025</v>
+      </c>
       <c r="DG28"/>
       <c r="DH28" t="n">
         <v>0.0224632655697402</v>
@@ -10468,7 +10472,7 @@
       <c r="CY34"/>
       <c r="CZ34"/>
       <c r="DA34" t="n">
-        <v>0.00294678751347697</v>
+        <v>0.004</v>
       </c>
       <c r="DB34"/>
       <c r="DC34"/>
@@ -23723,7 +23727,7 @@
         <v>0.873</v>
       </c>
       <c r="DF99" t="n">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
       <c r="DG99"/>
       <c r="DH99" t="n">
@@ -34225,7 +34229,7 @@
         <v>0.31125</v>
       </c>
       <c r="DF150" t="n">
-        <v>0.004</v>
+        <v>0.0045</v>
       </c>
       <c r="DG150"/>
       <c r="DH150" t="n">
@@ -34515,7 +34519,7 @@
         <v>0.4425</v>
       </c>
       <c r="DF151" t="n">
-        <v>0.0015</v>
+        <v>0.002</v>
       </c>
       <c r="DG151"/>
       <c r="DH151" t="n">
@@ -34766,7 +34770,7 @@
       <c r="CY152"/>
       <c r="CZ152"/>
       <c r="DA152" t="n">
-        <v>0.00595665724363303</v>
+        <v>0.007</v>
       </c>
       <c r="DB152"/>
       <c r="DC152"/>
@@ -35868,7 +35872,7 @@
       <c r="CY156"/>
       <c r="CZ156"/>
       <c r="DA156" t="n">
-        <v>0.004</v>
+        <v>0.0045</v>
       </c>
       <c r="DB156"/>
       <c r="DC156"/>
@@ -38683,7 +38687,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF168" t="n">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
       <c r="DG168"/>
       <c r="DH168" t="n">
@@ -39246,7 +39250,7 @@
       <c r="CY170"/>
       <c r="CZ170"/>
       <c r="DA170" t="n">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
       <c r="DB170"/>
       <c r="DC170"/>
@@ -39255,7 +39259,7 @@
         <v>0.6035</v>
       </c>
       <c r="DF170" t="n">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
       <c r="DG170"/>
       <c r="DH170" t="n">
@@ -40105,7 +40109,7 @@
         <v>0.47925</v>
       </c>
       <c r="DF173" t="n">
-        <v>0.001</v>
+        <v>0.0006</v>
       </c>
       <c r="DG173"/>
       <c r="DH173" t="n">
@@ -41258,7 +41262,7 @@
       <c r="CY177"/>
       <c r="CZ177"/>
       <c r="DA177" t="n">
-        <v>0.0008</v>
+        <v>0.00075</v>
       </c>
       <c r="DB177"/>
       <c r="DC177"/>
@@ -41267,7 +41271,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF177" t="n">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
       <c r="DG177"/>
       <c r="DH177" t="n">

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3824,7 +3824,9 @@
       <c r="DE3" t="n">
         <v>0.833683333333333</v>
       </c>
-      <c r="DF3"/>
+      <c r="DF3" t="n">
+        <v>0.0207671024754624</v>
+      </c>
       <c r="DG3"/>
       <c r="DH3"/>
       <c r="DI3" t="n">
@@ -4042,7 +4044,9 @@
       <c r="DC4"/>
       <c r="DD4"/>
       <c r="DE4"/>
-      <c r="DF4"/>
+      <c r="DF4" t="n">
+        <v>0.00486713335009259</v>
+      </c>
       <c r="DG4"/>
       <c r="DH4" t="n">
         <v>0.0745083414909447</v>
@@ -4310,7 +4314,9 @@
       <c r="DE5" t="n">
         <v>0.6315</v>
       </c>
-      <c r="DF5"/>
+      <c r="DF5" t="n">
+        <v>0.00627913672181724</v>
+      </c>
       <c r="DG5"/>
       <c r="DH5" t="n">
         <v>0.0176566426488501</v>
@@ -4578,7 +4584,9 @@
       <c r="DE6" t="n">
         <v>0.5405</v>
       </c>
-      <c r="DF6"/>
+      <c r="DF6" t="n">
+        <v>0.0024319409294854</v>
+      </c>
       <c r="DG6"/>
       <c r="DH6" t="n">
         <v>0.0252321137541521</v>
@@ -5112,7 +5120,9 @@
       <c r="DE8" t="n">
         <v>0.684</v>
       </c>
-      <c r="DF8"/>
+      <c r="DF8" t="n">
+        <v>0.00291565666217986</v>
+      </c>
       <c r="DG8"/>
       <c r="DH8" t="n">
         <v>0.0249347397209538</v>
@@ -5646,7 +5656,9 @@
       <c r="DE10" t="n">
         <v>0.72775</v>
       </c>
-      <c r="DF10"/>
+      <c r="DF10" t="n">
+        <v>0.00529023077920077</v>
+      </c>
       <c r="DG10"/>
       <c r="DH10" t="n">
         <v>0.0187411834936001</v>
@@ -6250,7 +6262,9 @@
       <c r="DE13" t="n">
         <v>0.54925</v>
       </c>
-      <c r="DF13"/>
+      <c r="DF13" t="n">
+        <v>0.0131983990780825</v>
+      </c>
       <c r="DG13"/>
       <c r="DH13" t="n">
         <v>0.0103423548231054</v>
@@ -7775,7 +7789,7 @@
         <v>0.59825</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.0025</v>
+        <v>0.004</v>
       </c>
       <c r="DG21"/>
       <c r="DH21" t="n">
@@ -10382,7 +10396,7 @@
       <c r="AS34"/>
       <c r="AT34"/>
       <c r="AU34" t="n">
-        <v>13.8623171908517</v>
+        <v>13.862317</v>
       </c>
       <c r="AV34" t="n">
         <v>0.599837976402402</v>
@@ -10398,7 +10412,9 @@
         <v>1.6085078367454</v>
       </c>
       <c r="BA34"/>
-      <c r="BB34"/>
+      <c r="BB34" t="n">
+        <v>5000</v>
+      </c>
       <c r="BC34"/>
       <c r="BD34" t="n">
         <v>6.2</v>
@@ -10426,30 +10442,60 @@
       <c r="BS34"/>
       <c r="BT34"/>
       <c r="BU34"/>
-      <c r="BV34"/>
-      <c r="BW34"/>
-      <c r="BX34"/>
+      <c r="BV34" t="n">
+        <v>0.108385549659692</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>-0.00485308431312053</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>-1.4284</v>
+      </c>
       <c r="BY34" t="n">
-        <v>-1.55700031472369</v>
-      </c>
-      <c r="BZ34"/>
-      <c r="CA34"/>
-      <c r="CB34"/>
-      <c r="CC34"/>
-      <c r="CD34"/>
-      <c r="CE34"/>
-      <c r="CF34"/>
-      <c r="CG34"/>
-      <c r="CH34"/>
-      <c r="CI34"/>
+        <v>-1.740067</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>8.13195817326179</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>0.302389150757256</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>0.00447333333333333</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>1.87313046170314</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>-1.73708216216216</v>
+      </c>
+      <c r="CG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>7.945231</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>-2.073383</v>
+      </c>
       <c r="CJ34"/>
-      <c r="CK34"/>
-      <c r="CL34"/>
+      <c r="CK34" t="n">
+        <v>1.87313046170314</v>
+      </c>
+      <c r="CL34" t="n">
+        <v>-1.04726429132728</v>
+      </c>
       <c r="CM34" t="n">
-        <v>37.041573578</v>
+        <v>51.3450511957304</v>
       </c>
       <c r="CN34" t="n">
-        <v>59</v>
+        <v>93.0342372992521</v>
       </c>
       <c r="CO34" t="n">
         <v>22.2310823529451</v>
@@ -10480,7 +10526,9 @@
       <c r="DE34" t="n">
         <v>0.62625</v>
       </c>
-      <c r="DF34"/>
+      <c r="DF34" t="n">
+        <v>0.0122027274075777</v>
+      </c>
       <c r="DG34"/>
       <c r="DH34" t="n">
         <v>0.0227669054748548</v>
@@ -11122,7 +11170,9 @@
       <c r="DC37"/>
       <c r="DD37"/>
       <c r="DE37"/>
-      <c r="DF37"/>
+      <c r="DF37" t="n">
+        <v>0.00938097534096727</v>
+      </c>
       <c r="DG37"/>
       <c r="DH37" t="n">
         <v>0.320754665640006</v>
@@ -11314,7 +11364,9 @@
       <c r="DE38" t="n">
         <v>0.71725</v>
       </c>
-      <c r="DF38"/>
+      <c r="DF38" t="n">
+        <v>0.00254871910689547</v>
+      </c>
       <c r="DG38"/>
       <c r="DH38"/>
       <c r="DI38" t="n">
@@ -15812,7 +15864,9 @@
       <c r="DE60" t="n">
         <v>0.69275</v>
       </c>
-      <c r="DF60"/>
+      <c r="DF60" t="n">
+        <v>0.0253982346459001</v>
+      </c>
       <c r="DG60"/>
       <c r="DH60" t="n">
         <v>0.0816156468790107</v>
@@ -16218,7 +16272,9 @@
       <c r="DE62" t="n">
         <v>0.4481875</v>
       </c>
-      <c r="DF62"/>
+      <c r="DF62" t="n">
+        <v>0.0125005863115447</v>
+      </c>
       <c r="DG62"/>
       <c r="DH62" t="n">
         <v>0.0289779214238505</v>
@@ -20720,7 +20776,9 @@
       <c r="DE85" t="n">
         <v>0.306291666666667</v>
       </c>
-      <c r="DF85"/>
+      <c r="DF85" t="n">
+        <v>0.016773525697642</v>
+      </c>
       <c r="DG85"/>
       <c r="DH85" t="n">
         <v>0.0711449215017124</v>
@@ -23044,7 +23102,9 @@
       <c r="DC96"/>
       <c r="DD96"/>
       <c r="DE96"/>
-      <c r="DF96"/>
+      <c r="DF96" t="n">
+        <v>0.0034832177555317</v>
+      </c>
       <c r="DG96"/>
       <c r="DH96" t="n">
         <v>0.0597863024819252</v>
@@ -24382,7 +24442,9 @@
       <c r="DE102" t="n">
         <v>0.55275</v>
       </c>
-      <c r="DF102"/>
+      <c r="DF102" t="n">
+        <v>0.00534191032791093</v>
+      </c>
       <c r="DG102"/>
       <c r="DH102" t="n">
         <v>0.0168069019786299</v>
@@ -26502,7 +26564,9 @@
       <c r="DE113" t="n">
         <v>0.691</v>
       </c>
-      <c r="DF113"/>
+      <c r="DF113" t="n">
+        <v>0.0093586128647537</v>
+      </c>
       <c r="DG113"/>
       <c r="DH113" t="n">
         <v>0.0372221761238241</v>
@@ -27370,7 +27434,9 @@
       <c r="DE117" t="n">
         <v>0.329625</v>
       </c>
-      <c r="DF117"/>
+      <c r="DF117" t="n">
+        <v>0.0278454659739783</v>
+      </c>
       <c r="DG117"/>
       <c r="DH117" t="n">
         <v>0.0103183204609409</v>
@@ -27622,7 +27688,9 @@
       <c r="DE118" t="n">
         <v>0.360727272727273</v>
       </c>
-      <c r="DF118"/>
+      <c r="DF118" t="n">
+        <v>0.00730086002636798</v>
+      </c>
       <c r="DG118"/>
       <c r="DH118" t="n">
         <v>0.0218054203190139</v>
@@ -27874,7 +27942,9 @@
       <c r="DE119" t="n">
         <v>0.360727272727273</v>
       </c>
-      <c r="DF119"/>
+      <c r="DF119" t="n">
+        <v>0.00667357325197171</v>
+      </c>
       <c r="DG119"/>
       <c r="DH119" t="n">
         <v>0.0320635735631492</v>
@@ -28112,7 +28182,9 @@
       <c r="DE120" t="n">
         <v>0.360727272727273</v>
       </c>
-      <c r="DF120"/>
+      <c r="DF120" t="n">
+        <v>0.00157867771914888</v>
+      </c>
       <c r="DG120"/>
       <c r="DH120" t="n">
         <v>0.0209052250365038</v>
@@ -28504,7 +28576,9 @@
       <c r="DE122" t="n">
         <v>0.304638888888889</v>
       </c>
-      <c r="DF122"/>
+      <c r="DF122" t="n">
+        <v>0.00341913370862257</v>
+      </c>
       <c r="DG122"/>
       <c r="DH122" t="n">
         <v>0.319221341470724</v>
@@ -28900,7 +28974,9 @@
       <c r="DC124"/>
       <c r="DD124"/>
       <c r="DE124"/>
-      <c r="DF124"/>
+      <c r="DF124" t="n">
+        <v>0.00807786001069</v>
+      </c>
       <c r="DG124"/>
       <c r="DH124" t="n">
         <v>0.0302471264717958</v>
@@ -30680,7 +30756,9 @@
       <c r="DE133" t="n">
         <v>0.39875</v>
       </c>
-      <c r="DF133"/>
+      <c r="DF133" t="n">
+        <v>0.0195984994416742</v>
+      </c>
       <c r="DG133"/>
       <c r="DH133" t="n">
         <v>0.0812636576884017</v>
@@ -31524,7 +31602,9 @@
       <c r="DC137"/>
       <c r="DD137"/>
       <c r="DE137"/>
-      <c r="DF137"/>
+      <c r="DF137" t="n">
+        <v>0.00435976417387929</v>
+      </c>
       <c r="DG137"/>
       <c r="DH137" t="n">
         <v>0.0276808074008854</v>
@@ -32464,7 +32544,9 @@
       <c r="DE142" t="n">
         <v>0.775</v>
       </c>
-      <c r="DF142"/>
+      <c r="DF142" t="n">
+        <v>0.0150407308804743</v>
+      </c>
       <c r="DG142"/>
       <c r="DH142" t="n">
         <v>0.071916969990233</v>
@@ -32900,7 +32982,9 @@
       <c r="DC144"/>
       <c r="DD144"/>
       <c r="DE144"/>
-      <c r="DF144"/>
+      <c r="DF144" t="n">
+        <v>0.00486713335009259</v>
+      </c>
       <c r="DG144"/>
       <c r="DH144" t="n">
         <v>0.0532440640083152</v>
@@ -33706,7 +33790,9 @@
       <c r="DE148" t="n">
         <v>0.85375</v>
       </c>
-      <c r="DF148"/>
+      <c r="DF148" t="n">
+        <v>0.00504732058302482</v>
+      </c>
       <c r="DG148"/>
       <c r="DH148"/>
       <c r="DI148" t="n">
@@ -33952,7 +34038,9 @@
       <c r="DE149" t="n">
         <v>0.390488372093023</v>
       </c>
-      <c r="DF149"/>
+      <c r="DF149" t="n">
+        <v>0.00332077643419593</v>
+      </c>
       <c r="DG149"/>
       <c r="DH149" t="n">
         <v>0.334621749547577</v>
@@ -34229,7 +34317,7 @@
         <v>0.31125</v>
       </c>
       <c r="DF150" t="n">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="DG150"/>
       <c r="DH150" t="n">
@@ -34778,7 +34866,9 @@
       <c r="DE152" t="n">
         <v>0.390488372093023</v>
       </c>
-      <c r="DF152"/>
+      <c r="DF152" t="n">
+        <v>0.00699825804248477</v>
+      </c>
       <c r="DG152"/>
       <c r="DH152" t="n">
         <v>0.0179904127524909</v>
@@ -35314,7 +35404,9 @@
       <c r="DE154" t="n">
         <v>0.59475</v>
       </c>
-      <c r="DF154"/>
+      <c r="DF154" t="n">
+        <v>0.00780627822124746</v>
+      </c>
       <c r="DG154"/>
       <c r="DH154" t="n">
         <v>0.0122720801531935</v>
@@ -36758,7 +36850,9 @@
       <c r="DE160" t="n">
         <v>0.591833333333333</v>
       </c>
-      <c r="DF160"/>
+      <c r="DF160" t="n">
+        <v>0.00166070762008419</v>
+      </c>
       <c r="DG160"/>
       <c r="DH160"/>
       <c r="DI160" t="n">
@@ -37152,7 +37246,9 @@
       <c r="DE162" t="n">
         <v>0.356235294117647</v>
       </c>
-      <c r="DF162"/>
+      <c r="DF162" t="n">
+        <v>0.0152098097108526</v>
+      </c>
       <c r="DG162"/>
       <c r="DH162" t="n">
         <v>0.015156971203553</v>
@@ -37406,7 +37502,9 @@
       <c r="DE163" t="n">
         <v>0.471224137931034</v>
       </c>
-      <c r="DF163"/>
+      <c r="DF163" t="n">
+        <v>0.0178214976763761</v>
+      </c>
       <c r="DG163"/>
       <c r="DH163" t="n">
         <v>0.0101124750012525</v>
@@ -37648,7 +37746,9 @@
       <c r="DE164" t="n">
         <v>0.5615</v>
       </c>
-      <c r="DF164"/>
+      <c r="DF164" t="n">
+        <v>0.00278871517778145</v>
+      </c>
       <c r="DG164"/>
       <c r="DH164" t="n">
         <v>0.0352092731830101</v>
@@ -38130,7 +38230,9 @@
       <c r="DE166" t="n">
         <v>0.515201754385965</v>
       </c>
-      <c r="DF166"/>
+      <c r="DF166" t="n">
+        <v>0.00410241651079846</v>
+      </c>
       <c r="DG166"/>
       <c r="DH166"/>
       <c r="DI166" t="n">
@@ -38687,7 +38789,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF168" t="n">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="DG168"/>
       <c r="DH168" t="n">
@@ -39259,7 +39361,7 @@
         <v>0.6035</v>
       </c>
       <c r="DF170" t="n">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="DG170"/>
       <c r="DH170" t="n">
@@ -39808,7 +39910,9 @@
       <c r="DE172" t="n">
         <v>0.55275</v>
       </c>
-      <c r="DF172"/>
+      <c r="DF172" t="n">
+        <v>0.00410212741802229</v>
+      </c>
       <c r="DG172"/>
       <c r="DH172" t="n">
         <v>0.0184827353362619</v>
@@ -40392,7 +40496,9 @@
       <c r="DE174" t="n">
         <v>0.515201754385965</v>
       </c>
-      <c r="DF174"/>
+      <c r="DF174" t="n">
+        <v>0.00416809626442605</v>
+      </c>
       <c r="DG174"/>
       <c r="DH174" t="n">
         <v>0.0405975984579136</v>
@@ -40688,7 +40794,9 @@
       <c r="DE175" t="n">
         <v>0.50375</v>
       </c>
-      <c r="DF175"/>
+      <c r="DF175" t="n">
+        <v>0.00524555767825829</v>
+      </c>
       <c r="DG175"/>
       <c r="DH175" t="n">
         <v>0.0196369572915763</v>
@@ -40970,7 +41078,9 @@
       <c r="DE176" t="n">
         <v>0.55625</v>
       </c>
-      <c r="DF176"/>
+      <c r="DF176" t="n">
+        <v>0.00316983526167858</v>
+      </c>
       <c r="DG176"/>
       <c r="DH176" t="n">
         <v>0.0375859989876306</v>
@@ -42538,7 +42648,9 @@
       <c r="DE183" t="n">
         <v>0.332833333333333</v>
       </c>
-      <c r="DF183"/>
+      <c r="DF183" t="n">
+        <v>0.0150015561737269</v>
+      </c>
       <c r="DG183"/>
       <c r="DH183" t="n">
         <v>0.0292899013914302</v>
@@ -43606,7 +43718,9 @@
       <c r="DE188" t="n">
         <v>0.356973404255319</v>
       </c>
-      <c r="DF188"/>
+      <c r="DF188" t="n">
+        <v>0.0223998893672723</v>
+      </c>
       <c r="DG188"/>
       <c r="DH188" t="n">
         <v>0.017076016090419</v>
@@ -45494,7 +45608,9 @@
       <c r="DE198" t="n">
         <v>0.500359375</v>
       </c>
-      <c r="DF198"/>
+      <c r="DF198" t="n">
+        <v>0.00636335608080257</v>
+      </c>
       <c r="DG198"/>
       <c r="DH198" t="n">
         <v>0.0204977602909923</v>
@@ -47658,7 +47774,9 @@
       <c r="DE209" t="n">
         <v>0.713925</v>
       </c>
-      <c r="DF209"/>
+      <c r="DF209" t="n">
+        <v>0.00471414187331776</v>
+      </c>
       <c r="DG209"/>
       <c r="DH209" t="n">
         <v>0.0308051203849278</v>
@@ -48068,7 +48186,9 @@
       <c r="DE211" t="n">
         <v>0.618375</v>
       </c>
-      <c r="DF211"/>
+      <c r="DF211" t="n">
+        <v>0.0704166883450378</v>
+      </c>
       <c r="DG211"/>
       <c r="DH211" t="n">
         <v>0.0139481764045924</v>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -10518,7 +10518,7 @@
       <c r="CY34"/>
       <c r="CZ34"/>
       <c r="DA34" t="n">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="DB34"/>
       <c r="DC34"/>
@@ -10527,7 +10527,7 @@
         <v>0.62625</v>
       </c>
       <c r="DF34" t="n">
-        <v>0.0122027274075777</v>
+        <v>0.0016</v>
       </c>
       <c r="DG34"/>
       <c r="DH34" t="n">
@@ -34684,7 +34684,7 @@
         <v>1770</v>
       </c>
       <c r="Q152" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R152" t="n">
         <v>160</v>
@@ -35222,10 +35222,10 @@
         <v>2005</v>
       </c>
       <c r="Q154" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R154" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="S154"/>
       <c r="T154"/>
@@ -37238,7 +37238,7 @@
       <c r="CY162"/>
       <c r="CZ162"/>
       <c r="DA162" t="n">
-        <v>0.00408293169632106</v>
+        <v>0.005</v>
       </c>
       <c r="DB162"/>
       <c r="DC162"/>
@@ -38789,7 +38789,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF168" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="DG168"/>
       <c r="DH168" t="n">
@@ -39361,7 +39361,7 @@
         <v>0.6035</v>
       </c>
       <c r="DF170" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="DG170"/>
       <c r="DH170" t="n">
@@ -40213,7 +40213,7 @@
         <v>0.47925</v>
       </c>
       <c r="DF173" t="n">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="DG173"/>
       <c r="DH173" t="n">
@@ -45600,7 +45600,7 @@
       <c r="CY198"/>
       <c r="CZ198"/>
       <c r="DA198" t="n">
-        <v>0.00191246984110704</v>
+        <v>0.003</v>
       </c>
       <c r="DB198"/>
       <c r="DC198"/>
@@ -47766,7 +47766,7 @@
       <c r="CY209"/>
       <c r="CZ209"/>
       <c r="DA209" t="n">
-        <v>0.00193859004594042</v>
+        <v>0.003</v>
       </c>
       <c r="DB209"/>
       <c r="DC209"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3561,20 +3561,18 @@
       </c>
       <c r="DG2"/>
       <c r="DH2" t="n">
-        <v>0.0368015083102309</v>
+        <v>0.0366632195953314</v>
       </c>
       <c r="DI2" t="n">
-        <v>-5.91753597335721</v>
+        <v>-7.06470011158591</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.793026166706136</v>
+        <v>0.857973298811334</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.247191710132187</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>9.31047946570973</v>
-      </c>
+        <v>0.247543669742866</v>
+      </c>
+      <c r="DL2"/>
       <c r="DM2" t="n">
         <v>683.378855316643</v>
       </c>
@@ -3838,9 +3836,7 @@
       <c r="DK3" t="n">
         <v>0</v>
       </c>
-      <c r="DL3" t="n">
-        <v>9.39752066115702</v>
-      </c>
+      <c r="DL3"/>
       <c r="DM3" t="n">
         <v>438.099177809786</v>
       </c>
@@ -4049,20 +4045,18 @@
       </c>
       <c r="DG4"/>
       <c r="DH4" t="n">
-        <v>0.0745083414909447</v>
+        <v>0.077089375000326</v>
       </c>
       <c r="DI4" t="n">
-        <v>4.7302138260594</v>
+        <v>5.38839069008827</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.734345817282358</v>
+        <v>0.610939598083496</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.809895089821375</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>9.24382417811929</v>
-      </c>
+        <v>0.790231987833977</v>
+      </c>
+      <c r="DL4"/>
       <c r="DM4" t="n">
         <v>921.885180491361</v>
       </c>
@@ -4319,20 +4313,18 @@
       </c>
       <c r="DG5"/>
       <c r="DH5" t="n">
-        <v>0.0176566426488501</v>
+        <v>0.0185955316814208</v>
       </c>
       <c r="DI5" t="n">
-        <v>-4.43451445284373</v>
+        <v>-2.6554128197361</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.404603482771155</v>
+        <v>0.404521867508983</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.549022857432834</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>9.20594704184704</v>
-      </c>
+        <v>0.532507469118383</v>
+      </c>
+      <c r="DL5"/>
       <c r="DM5" t="n">
         <v>775.126032752014</v>
       </c>
@@ -4589,20 +4581,18 @@
       </c>
       <c r="DG6"/>
       <c r="DH6" t="n">
-        <v>0.0252321137541521</v>
+        <v>0.025230730752499</v>
       </c>
       <c r="DI6" t="n">
-        <v>-6.80434214323759</v>
+        <v>-3.43354301941066</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.407089382410049</v>
+        <v>0.406359224595651</v>
       </c>
       <c r="DK6" t="n">
-        <v>5.34778076410294</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>8.92982142857143</v>
-      </c>
+        <v>5.36833018440444</v>
+      </c>
+      <c r="DL6"/>
       <c r="DM6" t="n">
         <v>658.171428884779</v>
       </c>
@@ -4866,9 +4856,7 @@
       <c r="DK7" t="n">
         <v>1.48512870003196</v>
       </c>
-      <c r="DL7" t="n">
-        <v>8.6</v>
-      </c>
+      <c r="DL7"/>
       <c r="DM7" t="n">
         <v>650</v>
       </c>
@@ -5125,20 +5113,18 @@
       </c>
       <c r="DG8"/>
       <c r="DH8" t="n">
-        <v>0.0249347397209538</v>
+        <v>0.0249418526646247</v>
       </c>
       <c r="DI8" t="n">
-        <v>-2.43925900004981</v>
+        <v>-2.44540412724018</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.33184886882111</v>
+        <v>0.277776435017586</v>
       </c>
       <c r="DK8" t="n">
-        <v>3.45537204499882</v>
-      </c>
-      <c r="DL8" t="n">
-        <v>9.26752587991718</v>
-      </c>
+        <v>3.46758982539177</v>
+      </c>
+      <c r="DL8"/>
       <c r="DM8" t="n">
         <v>767.021740603398</v>
       </c>
@@ -5402,9 +5388,7 @@
       <c r="DK9" t="n">
         <v>0.516774033704573</v>
       </c>
-      <c r="DL9" t="n">
-        <v>8.96309523809524</v>
-      </c>
+      <c r="DL9"/>
       <c r="DM9" t="n">
         <v>947.142855326334</v>
       </c>
@@ -5661,20 +5645,18 @@
       </c>
       <c r="DG10"/>
       <c r="DH10" t="n">
-        <v>0.0187411834936001</v>
+        <v>0.0153836649469199</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.526757721966584</v>
+        <v>0.332862354616802</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.674870063832876</v>
+        <v>0.700389019696759</v>
       </c>
       <c r="DK10" t="n">
-        <v>1.64466732036729</v>
-      </c>
-      <c r="DL10" t="n">
-        <v>9.2952736318408</v>
-      </c>
+        <v>1.6431735501838</v>
+      </c>
+      <c r="DL10"/>
       <c r="DM10" t="n">
         <v>918.039804287811</v>
       </c>
@@ -6042,9 +6024,7 @@
       <c r="DK12" t="n">
         <v>0.167731555250666</v>
       </c>
-      <c r="DL12" t="n">
-        <v>9.92685185185185</v>
-      </c>
+      <c r="DL12"/>
       <c r="DM12" t="n">
         <v>925.000010596381</v>
       </c>
@@ -6267,20 +6247,18 @@
       </c>
       <c r="DG13"/>
       <c r="DH13" t="n">
-        <v>0.0103423548231054</v>
+        <v>0.0106007756227492</v>
       </c>
       <c r="DI13" t="n">
-        <v>-1.32768900692463</v>
+        <v>-0.168177768127442</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.334353223443031</v>
+        <v>0.251818597342271</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.01149241626263</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>9.65887292730004</v>
-      </c>
+        <v>0.108704236137605</v>
+      </c>
+      <c r="DL13"/>
       <c r="DM13" t="n">
         <v>898.835348950259</v>
       </c>
@@ -6494,9 +6472,7 @@
       <c r="DK14" t="n">
         <v>4.02817802216822</v>
       </c>
-      <c r="DL14" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="DL14"/>
       <c r="DM14" t="n">
         <v>600</v>
       </c>
@@ -7356,9 +7332,7 @@
       <c r="DI19"/>
       <c r="DJ19"/>
       <c r="DK19"/>
-      <c r="DL19" t="n">
-        <v>8.84444444444444</v>
-      </c>
+      <c r="DL19"/>
       <c r="DM19" t="n">
         <v>698.888889948527</v>
       </c>
@@ -7574,9 +7548,7 @@
       <c r="DI20"/>
       <c r="DJ20"/>
       <c r="DK20"/>
-      <c r="DL20" t="n">
-        <v>9.4775</v>
-      </c>
+      <c r="DL20"/>
       <c r="DM20" t="n">
         <v>633.000003099442</v>
       </c>
@@ -7793,20 +7765,18 @@
       </c>
       <c r="DG21"/>
       <c r="DH21" t="n">
-        <v>0.0633582437542227</v>
+        <v>0.0614732981999586</v>
       </c>
       <c r="DI21" t="n">
-        <v>0.312989649828523</v>
+        <v>-1.20960169751287</v>
       </c>
       <c r="DJ21" t="n">
-        <v>0.262231258036797</v>
+        <v>0.270599393905325</v>
       </c>
       <c r="DK21" t="n">
-        <v>0.152182073775969</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>8.67977512682587</v>
-      </c>
+        <v>0.152426061513335</v>
+      </c>
+      <c r="DL21"/>
       <c r="DM21" t="n">
         <v>508.728059567779</v>
       </c>
@@ -9273,20 +9243,18 @@
       </c>
       <c r="DG28"/>
       <c r="DH28" t="n">
-        <v>0.0224632655697402</v>
+        <v>0.0240886118375235</v>
       </c>
       <c r="DI28" t="n">
-        <v>-6.76107284426689</v>
+        <v>-6.92052580261964</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0.314923778176308</v>
+        <v>0.603134825628376</v>
       </c>
       <c r="DK28" t="n">
-        <v>0.561152815818787</v>
-      </c>
-      <c r="DL28" t="n">
-        <v>9.36467107579371</v>
-      </c>
+        <v>0.542410893892509</v>
+      </c>
+      <c r="DL28"/>
       <c r="DM28" t="n">
         <v>905.827324480683</v>
       </c>
@@ -9685,20 +9653,18 @@
       <c r="DF30"/>
       <c r="DG30"/>
       <c r="DH30" t="n">
-        <v>0.0383707599546935</v>
+        <v>0.0383738637659446</v>
       </c>
       <c r="DI30" t="n">
-        <v>-0.597009032964706</v>
+        <v>-0.557746240079345</v>
       </c>
       <c r="DJ30" t="n">
-        <v>0.678792677819729</v>
+        <v>0.680538413400018</v>
       </c>
       <c r="DK30" t="n">
-        <v>6.94381891191006</v>
-      </c>
-      <c r="DL30" t="n">
-        <v>8.20248611111111</v>
-      </c>
+        <v>6.96285610395953</v>
+      </c>
+      <c r="DL30"/>
       <c r="DM30" t="n">
         <v>525.368055038982</v>
       </c>
@@ -10531,20 +10497,18 @@
       </c>
       <c r="DG34"/>
       <c r="DH34" t="n">
-        <v>0.0227669054748548</v>
+        <v>0.0231432297878662</v>
       </c>
       <c r="DI34" t="n">
-        <v>-0.897151036188006</v>
+        <v>-1.15242818332108</v>
       </c>
       <c r="DJ34" t="n">
-        <v>0.519037058176948</v>
+        <v>0.509970707816826</v>
       </c>
       <c r="DK34" t="n">
-        <v>0.651053802082161</v>
-      </c>
-      <c r="DL34" t="n">
-        <v>9.5712087352219</v>
-      </c>
+        <v>0.659014806256153</v>
+      </c>
+      <c r="DL34"/>
       <c r="DM34" t="n">
         <v>827.155552143589</v>
       </c>
@@ -10764,9 +10728,7 @@
       <c r="DK35" t="n">
         <v>3.74360166715774</v>
       </c>
-      <c r="DL35" t="n">
-        <v>9.74895833333333</v>
-      </c>
+      <c r="DL35"/>
       <c r="DM35" t="n">
         <v>758.611111508475</v>
       </c>
@@ -10976,9 +10938,7 @@
       <c r="DK36" t="n">
         <v>0.514530190567401</v>
       </c>
-      <c r="DL36" t="n">
-        <v>9.51631578947368</v>
-      </c>
+      <c r="DL36"/>
       <c r="DM36" t="n">
         <v>604.342106601648</v>
       </c>
@@ -11175,20 +11135,18 @@
       </c>
       <c r="DG37"/>
       <c r="DH37" t="n">
-        <v>0.320754665640006</v>
+        <v>0.348678559597293</v>
       </c>
       <c r="DI37" t="n">
-        <v>2.33327242732048</v>
+        <v>6.72993585467339</v>
       </c>
       <c r="DJ37" t="n">
-        <v>1.40670137107372</v>
+        <v>1.39742969385629</v>
       </c>
       <c r="DK37" t="n">
-        <v>6.68649649620056</v>
-      </c>
-      <c r="DL37" t="n">
-        <v>9.25855263157895</v>
-      </c>
+        <v>6.79102423291044</v>
+      </c>
+      <c r="DL37"/>
       <c r="DM37" t="n">
         <v>393.135962203929</v>
       </c>
@@ -11378,9 +11336,7 @@
       <c r="DK38" t="n">
         <v>0</v>
       </c>
-      <c r="DL38" t="n">
-        <v>9.63179012345679</v>
-      </c>
+      <c r="DL38"/>
       <c r="DM38" t="n">
         <v>669.274694831283</v>
       </c>
@@ -11756,9 +11712,7 @@
       <c r="DK40" t="n">
         <v>4.90566263270359</v>
       </c>
-      <c r="DL40" t="n">
-        <v>8.5</v>
-      </c>
+      <c r="DL40"/>
       <c r="DM40" t="n">
         <v>235.000002384186</v>
       </c>
@@ -15476,9 +15430,7 @@
       <c r="DK58" t="n">
         <v>0.224612369935489</v>
       </c>
-      <c r="DL58" t="n">
-        <v>8.21875</v>
-      </c>
+      <c r="DL58"/>
       <c r="DM58" t="n">
         <v>493.75</v>
       </c>
@@ -15869,20 +15821,18 @@
       </c>
       <c r="DG60"/>
       <c r="DH60" t="n">
-        <v>0.0816156468790107</v>
+        <v>0.0814032864796548</v>
       </c>
       <c r="DI60" t="n">
-        <v>-4.18328488627111</v>
+        <v>-4.22947283089161</v>
       </c>
       <c r="DJ60" t="n">
-        <v>0.31962282100228</v>
+        <v>0.292714104056358</v>
       </c>
       <c r="DK60" t="n">
-        <v>0.0439587862708545</v>
-      </c>
-      <c r="DL60" t="n">
-        <v>8.72424006619692</v>
-      </c>
+        <v>0.0661484152078629</v>
+      </c>
+      <c r="DL60"/>
       <c r="DM60" t="n">
         <v>720.428024859551</v>
       </c>
@@ -16277,20 +16227,18 @@
       </c>
       <c r="DG62"/>
       <c r="DH62" t="n">
-        <v>0.0289779214238505</v>
+        <v>0.0300334611767777</v>
       </c>
       <c r="DI62" t="n">
-        <v>-0.416376141894362</v>
+        <v>-0.780326543673904</v>
       </c>
       <c r="DJ62" t="n">
-        <v>0.44331319668876</v>
+        <v>0.454260041443257</v>
       </c>
       <c r="DK62" t="n">
-        <v>0.566782125374536</v>
-      </c>
-      <c r="DL62" t="n">
-        <v>8.93101279492297</v>
-      </c>
+        <v>0.576061234516418</v>
+      </c>
+      <c r="DL62"/>
       <c r="DM62" t="n">
         <v>586.043953143836</v>
       </c>
@@ -16491,20 +16439,18 @@
       <c r="DF63"/>
       <c r="DG63"/>
       <c r="DH63" t="n">
-        <v>0.0439881551746409</v>
+        <v>0.04109287833189</v>
       </c>
       <c r="DI63" t="n">
-        <v>0.755688214782825</v>
+        <v>0.018011674284935</v>
       </c>
       <c r="DJ63" t="n">
-        <v>0.217545980159988</v>
+        <v>0.121880158782005</v>
       </c>
       <c r="DK63" t="n">
-        <v>0.685603548198357</v>
-      </c>
-      <c r="DL63" t="n">
-        <v>9.40181547619048</v>
-      </c>
+        <v>0.695167928934097</v>
+      </c>
+      <c r="DL63"/>
       <c r="DM63" t="n">
         <v>557.630951844511</v>
       </c>
@@ -20781,20 +20727,18 @@
       </c>
       <c r="DG85"/>
       <c r="DH85" t="n">
-        <v>0.0711449215017124</v>
+        <v>0.0718735242080362</v>
       </c>
       <c r="DI85" t="n">
-        <v>4.96825420692563</v>
+        <v>6.38063634357726</v>
       </c>
       <c r="DJ85" t="n">
-        <v>0.68863357424736</v>
+        <v>0.744210887234658</v>
       </c>
       <c r="DK85" t="n">
-        <v>16.0255496565998</v>
-      </c>
-      <c r="DL85" t="n">
-        <v>9.0516503650013</v>
-      </c>
+        <v>14.7896885386047</v>
+      </c>
+      <c r="DL85"/>
       <c r="DM85" t="n">
         <v>596.925170528368</v>
       </c>
@@ -22062,9 +22006,7 @@
       <c r="DK91" t="n">
         <v>2.87518600809999</v>
       </c>
-      <c r="DL91" t="n">
-        <v>8.80041649526944</v>
-      </c>
+      <c r="DL91"/>
       <c r="DM91" t="n">
         <v>556.068226400618</v>
       </c>
@@ -23107,20 +23049,18 @@
       </c>
       <c r="DG96"/>
       <c r="DH96" t="n">
-        <v>0.0597863024819252</v>
+        <v>0.0601009180920893</v>
       </c>
       <c r="DI96" t="n">
-        <v>-1.25606605907882</v>
+        <v>0.924407155352904</v>
       </c>
       <c r="DJ96" t="n">
-        <v>0.159895798821166</v>
+        <v>0.16603891567821</v>
       </c>
       <c r="DK96" t="n">
-        <v>0.0546833015529896</v>
-      </c>
-      <c r="DL96" t="n">
-        <v>9.61991045750566</v>
-      </c>
+        <v>0.0542171246700341</v>
+      </c>
+      <c r="DL96"/>
       <c r="DM96" t="n">
         <v>1192.50261432068</v>
       </c>
@@ -23314,9 +23254,7 @@
       <c r="DK97" t="n">
         <v>0.383578718315989</v>
       </c>
-      <c r="DL97" t="n">
-        <v>10.65</v>
-      </c>
+      <c r="DL97"/>
       <c r="DM97" t="n">
         <v>400</v>
       </c>
@@ -23791,20 +23729,18 @@
       </c>
       <c r="DG99"/>
       <c r="DH99" t="n">
-        <v>0.0230568468839951</v>
+        <v>0.0230942996365409</v>
       </c>
       <c r="DI99" t="n">
-        <v>-3.65454244613647</v>
+        <v>-3.33716030418873</v>
       </c>
       <c r="DJ99" t="n">
-        <v>0.346317592263222</v>
+        <v>0.335319682955742</v>
       </c>
       <c r="DK99" t="n">
-        <v>0.20540226995945</v>
-      </c>
-      <c r="DL99" t="n">
-        <v>9.32977796193625</v>
-      </c>
+        <v>0.181530818343163</v>
+      </c>
+      <c r="DL99"/>
       <c r="DM99" t="n">
         <v>847.500653512742</v>
       </c>
@@ -24007,20 +23943,18 @@
       <c r="DF100"/>
       <c r="DG100"/>
       <c r="DH100" t="n">
-        <v>0.00109656644632927</v>
+        <v>0.00101685690451692</v>
       </c>
       <c r="DI100" t="n">
-        <v>11.3195643881696</v>
+        <v>11.8196052412192</v>
       </c>
       <c r="DJ100" t="n">
-        <v>1.13830556551149</v>
+        <v>1.10828751325607</v>
       </c>
       <c r="DK100" t="n">
-        <v>22.3341766224577</v>
-      </c>
-      <c r="DL100" t="n">
-        <v>9.22467532467532</v>
-      </c>
+        <v>18.2775847266118</v>
+      </c>
+      <c r="DL100"/>
       <c r="DM100" t="n">
         <v>511.280993415304</v>
       </c>
@@ -24205,20 +24139,18 @@
       <c r="DF101"/>
       <c r="DG101"/>
       <c r="DH101" t="n">
-        <v>0.0691129613555115</v>
+        <v>0.0691129723370006</v>
       </c>
       <c r="DI101" t="n">
-        <v>-1.63505910336971</v>
+        <v>-1.59453898843152</v>
       </c>
       <c r="DJ101" t="n">
-        <v>0.387281185388565</v>
+        <v>0.825934101339653</v>
       </c>
       <c r="DK101" t="n">
-        <v>10.8085979223251</v>
-      </c>
-      <c r="DL101" t="n">
-        <v>9.00706018518519</v>
-      </c>
+        <v>10.7816550326189</v>
+      </c>
+      <c r="DL101"/>
       <c r="DM101" t="n">
         <v>653.009257272438</v>
       </c>
@@ -24447,20 +24379,18 @@
       </c>
       <c r="DG102"/>
       <c r="DH102" t="n">
-        <v>0.0168069019786299</v>
+        <v>0.0186276598854827</v>
       </c>
       <c r="DI102" t="n">
-        <v>-4.28554237294619</v>
+        <v>-2.80398409848249</v>
       </c>
       <c r="DJ102" t="n">
-        <v>0.308542514596287</v>
+        <v>0.282277945751547</v>
       </c>
       <c r="DK102" t="n">
-        <v>0.113629886186414</v>
-      </c>
-      <c r="DL102" t="n">
-        <v>9.38739892519041</v>
-      </c>
+        <v>0.148652728374319</v>
+      </c>
+      <c r="DL102"/>
       <c r="DM102" t="n">
         <v>885.981831434435</v>
       </c>
@@ -25546,9 +25476,7 @@
       <c r="DK108" t="n">
         <v>0.306786507578872</v>
       </c>
-      <c r="DL108" t="n">
-        <v>10</v>
-      </c>
+      <c r="DL108"/>
       <c r="DM108" t="n">
         <v>650</v>
       </c>
@@ -26569,20 +26497,18 @@
       </c>
       <c r="DG113"/>
       <c r="DH113" t="n">
-        <v>0.0372221761238241</v>
+        <v>0.0352814979866712</v>
       </c>
       <c r="DI113" t="n">
-        <v>-2.44169418997357</v>
+        <v>-1.69812721416393</v>
       </c>
       <c r="DJ113" t="n">
-        <v>0.342461252265036</v>
+        <v>0.331706072891592</v>
       </c>
       <c r="DK113" t="n">
-        <v>0.193872688562609</v>
-      </c>
-      <c r="DL113" t="n">
-        <v>9.04238461502757</v>
-      </c>
+        <v>0.19006067029026</v>
+      </c>
+      <c r="DL113"/>
       <c r="DM113" t="n">
         <v>642.349923373607</v>
       </c>
@@ -26982,9 +26908,7 @@
       <c r="DK115" t="n">
         <v>0.661780083551056</v>
       </c>
-      <c r="DL115" t="n">
-        <v>9.94615384615385</v>
-      </c>
+      <c r="DL115"/>
       <c r="DM115" t="n">
         <v>742.69230732551</v>
       </c>
@@ -27439,20 +27363,18 @@
       </c>
       <c r="DG117"/>
       <c r="DH117" t="n">
-        <v>0.0103183204609409</v>
+        <v>0.0115619072773568</v>
       </c>
       <c r="DI117" t="n">
-        <v>-2.59646502581358</v>
+        <v>-3.22473761858419</v>
       </c>
       <c r="DJ117" t="n">
-        <v>0.413352941645645</v>
+        <v>0.359499393177014</v>
       </c>
       <c r="DK117" t="n">
-        <v>1.43552882495212</v>
-      </c>
-      <c r="DL117" t="n">
-        <v>8.55237684729064</v>
-      </c>
+        <v>1.3754019584991</v>
+      </c>
+      <c r="DL117"/>
       <c r="DM117" t="n">
         <v>419.439244567859</v>
       </c>
@@ -27693,20 +27615,18 @@
       </c>
       <c r="DG118"/>
       <c r="DH118" t="n">
-        <v>0.0218054203190139</v>
+        <v>0.0218460377690762</v>
       </c>
       <c r="DI118" t="n">
-        <v>0.396531537175179</v>
+        <v>0.391208603978157</v>
       </c>
       <c r="DJ118" t="n">
-        <v>0.271744459867477</v>
+        <v>0.13962609320879</v>
       </c>
       <c r="DK118" t="n">
-        <v>7.84016381204128</v>
-      </c>
-      <c r="DL118" t="n">
-        <v>8.86184735921094</v>
-      </c>
+        <v>8.2916102707386</v>
+      </c>
+      <c r="DL118"/>
       <c r="DM118" t="n">
         <v>407.261798451973</v>
       </c>
@@ -27947,20 +27867,18 @@
       </c>
       <c r="DG119"/>
       <c r="DH119" t="n">
-        <v>0.0320635735631492</v>
+        <v>0.0321134907013103</v>
       </c>
       <c r="DI119" t="n">
-        <v>-3.43666414538948</v>
+        <v>-0.524464997039107</v>
       </c>
       <c r="DJ119" t="n">
-        <v>0.314399158549681</v>
+        <v>0.288414097623788</v>
       </c>
       <c r="DK119" t="n">
-        <v>1.68333404511935</v>
-      </c>
-      <c r="DL119" t="n">
-        <v>8.66741139846743</v>
-      </c>
+        <v>1.67789249509708</v>
+      </c>
+      <c r="DL119"/>
       <c r="DM119" t="n">
         <v>379.13074695259</v>
       </c>
@@ -28187,20 +28105,18 @@
       </c>
       <c r="DG120"/>
       <c r="DH120" t="n">
-        <v>0.0209052250365038</v>
+        <v>0.0216633042489617</v>
       </c>
       <c r="DI120" t="n">
-        <v>-2.90367153400494</v>
+        <v>-2.59615039825439</v>
       </c>
       <c r="DJ120" t="n">
-        <v>0.318428218786538</v>
+        <v>0.318288803100586</v>
       </c>
       <c r="DK120" t="n">
-        <v>12.8073303466182</v>
-      </c>
-      <c r="DL120" t="n">
-        <v>9.06498081023454</v>
-      </c>
+        <v>12.4694979339838</v>
+      </c>
+      <c r="DL120"/>
       <c r="DM120" t="n">
         <v>442.292821421213</v>
       </c>
@@ -28581,20 +28497,18 @@
       </c>
       <c r="DG122"/>
       <c r="DH122" t="n">
-        <v>0.319221341470724</v>
+        <v>0.345510840291682</v>
       </c>
       <c r="DI122" t="n">
-        <v>6.71992470783955</v>
+        <v>6.48230013251305</v>
       </c>
       <c r="DJ122" t="n">
-        <v>1.46209409320727</v>
+        <v>1.43984773755074</v>
       </c>
       <c r="DK122" t="n">
-        <v>6.62376417140073</v>
-      </c>
-      <c r="DL122" t="n">
-        <v>9.80555555555556</v>
-      </c>
+        <v>7.07000177353621</v>
+      </c>
+      <c r="DL122"/>
       <c r="DM122" t="n">
         <v>788.571436443026</v>
       </c>
@@ -28979,20 +28893,18 @@
       </c>
       <c r="DG124"/>
       <c r="DH124" t="n">
-        <v>0.0302471264717958</v>
+        <v>0.0301225250512521</v>
       </c>
       <c r="DI124" t="n">
-        <v>6.70694224075727</v>
+        <v>6.68396573857792</v>
       </c>
       <c r="DJ124" t="n">
-        <v>0.639762286948763</v>
+        <v>0.650634911856717</v>
       </c>
       <c r="DK124" t="n">
-        <v>0.162670934701175</v>
-      </c>
-      <c r="DL124" t="n">
-        <v>9.24580651565465</v>
-      </c>
+        <v>0.191522128125233</v>
+      </c>
+      <c r="DL124"/>
       <c r="DM124" t="n">
         <v>776.656754283219</v>
       </c>
@@ -29981,20 +29893,18 @@
       <c r="DF129"/>
       <c r="DG129"/>
       <c r="DH129" t="n">
-        <v>0.0190639413943191</v>
+        <v>0.0132785365312352</v>
       </c>
       <c r="DI129" t="n">
-        <v>1.22087795769876</v>
+        <v>0.918246194720268</v>
       </c>
       <c r="DJ129" t="n">
-        <v>0.925223821494313</v>
+        <v>1.14290219545364</v>
       </c>
       <c r="DK129" t="n">
-        <v>6.15815396932876</v>
-      </c>
-      <c r="DL129" t="n">
-        <v>8.86364087301587</v>
-      </c>
+        <v>6.40588873624802</v>
+      </c>
+      <c r="DL129"/>
       <c r="DM129" t="n">
         <v>560.813491306608</v>
       </c>
@@ -30761,20 +30671,18 @@
       </c>
       <c r="DG133"/>
       <c r="DH133" t="n">
-        <v>0.0812636576884017</v>
+        <v>0.0680790384872063</v>
       </c>
       <c r="DI133" t="n">
-        <v>5.05760688319802</v>
+        <v>2.8039823531784</v>
       </c>
       <c r="DJ133" t="n">
-        <v>0.70839974835515</v>
+        <v>0.862569995625045</v>
       </c>
       <c r="DK133" t="n">
-        <v>15.8551349592209</v>
-      </c>
-      <c r="DL133" t="n">
-        <v>9.24118862046679</v>
-      </c>
+        <v>15.8904237993943</v>
+      </c>
+      <c r="DL133"/>
       <c r="DM133" t="n">
         <v>654.812629351146</v>
       </c>
@@ -30986,9 +30894,7 @@
       <c r="DK134" t="n">
         <v>2.4239520139114</v>
       </c>
-      <c r="DL134" t="n">
-        <v>8.825</v>
-      </c>
+      <c r="DL134"/>
       <c r="DM134" t="n">
         <v>550</v>
       </c>
@@ -31378,9 +31284,7 @@
       <c r="DI136"/>
       <c r="DJ136"/>
       <c r="DK136"/>
-      <c r="DL136" t="n">
-        <v>9.11458333333333</v>
-      </c>
+      <c r="DL136"/>
       <c r="DM136" t="n">
         <v>919.16667620341</v>
       </c>
@@ -31607,20 +31511,18 @@
       </c>
       <c r="DG137"/>
       <c r="DH137" t="n">
-        <v>0.0276808074008854</v>
+        <v>0.0275322332018626</v>
       </c>
       <c r="DI137" t="n">
-        <v>4.97318075151752</v>
+        <v>4.96230908406471</v>
       </c>
       <c r="DJ137" t="n">
-        <v>0.309310295056847</v>
+        <v>0.309774268695258</v>
       </c>
       <c r="DK137" t="n">
-        <v>7.90420561301563</v>
-      </c>
-      <c r="DL137" t="n">
-        <v>9.19628549614117</v>
-      </c>
+        <v>0.445187322981515</v>
+      </c>
+      <c r="DL137"/>
       <c r="DM137" t="n">
         <v>485.739782883636</v>
       </c>
@@ -32549,20 +32451,18 @@
       </c>
       <c r="DG142"/>
       <c r="DH142" t="n">
-        <v>0.071916969990233</v>
+        <v>0.0611054935468024</v>
       </c>
       <c r="DI142" t="n">
-        <v>5.64311142443963</v>
+        <v>6.90443540714225</v>
       </c>
       <c r="DJ142" t="n">
-        <v>0.707551318666209</v>
+        <v>0.824658876627075</v>
       </c>
       <c r="DK142" t="n">
-        <v>14.6905381175811</v>
-      </c>
-      <c r="DL142" t="n">
-        <v>9.50848484848485</v>
-      </c>
+        <v>13.8303876148195</v>
+      </c>
+      <c r="DL142"/>
       <c r="DM142" t="n">
         <v>857.248916522765</v>
       </c>
@@ -32987,20 +32887,18 @@
       </c>
       <c r="DG144"/>
       <c r="DH144" t="n">
-        <v>0.0532440640083152</v>
+        <v>0.0532668148497986</v>
       </c>
       <c r="DI144" t="n">
-        <v>-3.12861575931311</v>
+        <v>-0.857886980640979</v>
       </c>
       <c r="DJ144" t="n">
-        <v>0.296246185898781</v>
+        <v>0.252553610619691</v>
       </c>
       <c r="DK144" t="n">
-        <v>0.522948980331421</v>
-      </c>
-      <c r="DL144" t="n">
-        <v>8.59643732757239</v>
-      </c>
+        <v>0.465134355572822</v>
+      </c>
+      <c r="DL144"/>
       <c r="DM144" t="n">
         <v>525.436668722576</v>
       </c>
@@ -33374,9 +33272,7 @@
       <c r="DK146" t="n">
         <v>8.73505631483942</v>
       </c>
-      <c r="DL146" t="n">
-        <v>12</v>
-      </c>
+      <c r="DL146"/>
       <c r="DM146" t="n">
         <v>0</v>
       </c>
@@ -33546,9 +33442,7 @@
       <c r="DI147"/>
       <c r="DJ147"/>
       <c r="DK147"/>
-      <c r="DL147" t="n">
-        <v>9.22416666666667</v>
-      </c>
+      <c r="DL147"/>
       <c r="DM147" t="n">
         <v>800.624999602635</v>
       </c>
@@ -33804,9 +33698,7 @@
       <c r="DK148" t="n">
         <v>0.00000000000000000000000000000000000000000000000000000000000000000000000302100258360983</v>
       </c>
-      <c r="DL148" t="n">
-        <v>9.38425925925926</v>
-      </c>
+      <c r="DL148"/>
       <c r="DM148" t="n">
         <v>636.018524346529</v>
       </c>
@@ -34043,20 +33935,18 @@
       </c>
       <c r="DG149"/>
       <c r="DH149" t="n">
-        <v>0.334621749547577</v>
+        <v>0.338103875893013</v>
       </c>
       <c r="DI149" t="n">
-        <v>1.5907711670465</v>
+        <v>2.25542608556714</v>
       </c>
       <c r="DJ149" t="n">
-        <v>0.488933607474078</v>
+        <v>0.469488010016699</v>
       </c>
       <c r="DK149" t="n">
-        <v>27.5725296931341</v>
-      </c>
-      <c r="DL149" t="n">
-        <v>9.72110033848008</v>
-      </c>
+        <v>28.9293076062426</v>
+      </c>
+      <c r="DL149"/>
       <c r="DM149" t="n">
         <v>511.541433884824</v>
       </c>
@@ -34321,20 +34211,18 @@
       </c>
       <c r="DG150"/>
       <c r="DH150" t="n">
-        <v>0.0295447893043153</v>
+        <v>0.0300209084021689</v>
       </c>
       <c r="DI150" t="n">
-        <v>0.170871719717979</v>
+        <v>0.571485037781422</v>
       </c>
       <c r="DJ150" t="n">
-        <v>0.136042580008507</v>
+        <v>0.146824379398954</v>
       </c>
       <c r="DK150" t="n">
-        <v>4.55614618957043</v>
-      </c>
-      <c r="DL150" t="n">
-        <v>9.3980031827344</v>
-      </c>
+        <v>4.559550435801</v>
+      </c>
+      <c r="DL150"/>
       <c r="DM150" t="n">
         <v>569.241175140369</v>
       </c>
@@ -34611,20 +34499,18 @@
       </c>
       <c r="DG151"/>
       <c r="DH151" t="n">
-        <v>0.0275884267361</v>
+        <v>0.0280780686985591</v>
       </c>
       <c r="DI151" t="n">
-        <v>-2.73434263110001</v>
+        <v>-2.46364329755306</v>
       </c>
       <c r="DJ151" t="n">
-        <v>0.307334489395427</v>
+        <v>0.305671975016594</v>
       </c>
       <c r="DK151" t="n">
-        <v>1.74761678712735</v>
-      </c>
-      <c r="DL151" t="n">
-        <v>9.40458014515099</v>
-      </c>
+        <v>1.74093183875084</v>
+      </c>
+      <c r="DL151"/>
       <c r="DM151" t="n">
         <v>562.339848883984</v>
       </c>
@@ -34871,20 +34757,18 @@
       </c>
       <c r="DG152"/>
       <c r="DH152" t="n">
-        <v>0.0179904127524909</v>
+        <v>0.0187990773459712</v>
       </c>
       <c r="DI152" t="n">
-        <v>-3.6473059207201</v>
+        <v>-3.06362268328667</v>
       </c>
       <c r="DJ152" t="n">
-        <v>0.175644814968109</v>
+        <v>0.266092762351036</v>
       </c>
       <c r="DK152" t="n">
-        <v>0.365681126713753</v>
-      </c>
-      <c r="DL152" t="n">
-        <v>9.70022970037699</v>
-      </c>
+        <v>0.372312486171722</v>
+      </c>
+      <c r="DL152"/>
       <c r="DM152" t="n">
         <v>687.090983443747</v>
       </c>
@@ -35149,20 +35033,18 @@
       </c>
       <c r="DG153"/>
       <c r="DH153" t="n">
-        <v>0.0103058441804855</v>
+        <v>0.0104151225993852</v>
       </c>
       <c r="DI153" t="n">
-        <v>-0.243414584674224</v>
+        <v>-1.94622182101011</v>
       </c>
       <c r="DJ153" t="n">
-        <v>0.279565662241027</v>
+        <v>0.279612183570862</v>
       </c>
       <c r="DK153" t="n">
-        <v>9.65644872019194</v>
-      </c>
-      <c r="DL153" t="n">
-        <v>9.7283123452745</v>
-      </c>
+        <v>9.6422216296196</v>
+      </c>
+      <c r="DL153"/>
       <c r="DM153" t="n">
         <v>458.268104192626</v>
       </c>
@@ -35409,20 +35291,18 @@
       </c>
       <c r="DG154"/>
       <c r="DH154" t="n">
-        <v>0.0122720801531935</v>
+        <v>0.0127494997209555</v>
       </c>
       <c r="DI154" t="n">
-        <v>-3.68436969849443</v>
+        <v>2.37701027938434</v>
       </c>
       <c r="DJ154" t="n">
-        <v>0.461519450571708</v>
+        <v>0.476356968389844</v>
       </c>
       <c r="DK154" t="n">
-        <v>0.8289566305491</v>
-      </c>
-      <c r="DL154" t="n">
-        <v>9.93923510702022</v>
-      </c>
+        <v>0.854160653389245</v>
+      </c>
+      <c r="DL154"/>
       <c r="DM154" t="n">
         <v>833.280202411382</v>
       </c>
@@ -35699,20 +35579,18 @@
       </c>
       <c r="DG155"/>
       <c r="DH155" t="n">
-        <v>0.0267084057735979</v>
+        <v>0.0269508153073263</v>
       </c>
       <c r="DI155" t="n">
-        <v>-6.49686616659164</v>
+        <v>-7.25912755727768</v>
       </c>
       <c r="DJ155" t="n">
-        <v>0.342163726687431</v>
+        <v>0.305144011974335</v>
       </c>
       <c r="DK155" t="n">
-        <v>3.2994314879179</v>
-      </c>
-      <c r="DL155" t="n">
-        <v>9.56340371202421</v>
-      </c>
+        <v>3.29739858210087</v>
+      </c>
+      <c r="DL155"/>
       <c r="DM155" t="n">
         <v>624.886158335465</v>
       </c>
@@ -35977,20 +35855,18 @@
       </c>
       <c r="DG156"/>
       <c r="DH156" t="n">
-        <v>0.0387662390082072</v>
+        <v>0.0388932378332872</v>
       </c>
       <c r="DI156" t="n">
-        <v>-7.24845750723779</v>
+        <v>-6.93212763309664</v>
       </c>
       <c r="DJ156" t="n">
-        <v>0.29209339576698</v>
+        <v>0.300975718468935</v>
       </c>
       <c r="DK156" t="n">
-        <v>7.85137165283279</v>
-      </c>
-      <c r="DL156" t="n">
-        <v>9.48204096567797</v>
-      </c>
+        <v>7.82011667521427</v>
+      </c>
+      <c r="DL156"/>
       <c r="DM156" t="n">
         <v>548.314488471008</v>
       </c>
@@ -36641,20 +36517,18 @@
       <c r="DF159"/>
       <c r="DG159"/>
       <c r="DH159" t="n">
-        <v>0.0334288429879507</v>
+        <v>0.0334287579985536</v>
       </c>
       <c r="DI159" t="n">
-        <v>-5.75266096293926</v>
+        <v>-2.31572516262531</v>
       </c>
       <c r="DJ159" t="n">
-        <v>0.349321931600571</v>
+        <v>0.348280027508736</v>
       </c>
       <c r="DK159" t="n">
-        <v>12.7575021266937</v>
-      </c>
-      <c r="DL159" t="n">
-        <v>8.81833333333333</v>
-      </c>
+        <v>12.2487659603357</v>
+      </c>
+      <c r="DL159"/>
       <c r="DM159" t="n">
         <v>436.800002257029</v>
       </c>
@@ -36864,9 +36738,7 @@
       <c r="DK160" t="n">
         <v>0.971921495752767</v>
       </c>
-      <c r="DL160" t="n">
-        <v>9.39948979591837</v>
-      </c>
+      <c r="DL160"/>
       <c r="DM160" t="n">
         <v>1143.92856870379</v>
       </c>
@@ -37251,20 +37123,18 @@
       </c>
       <c r="DG162"/>
       <c r="DH162" t="n">
-        <v>0.015156971203553</v>
+        <v>0.0138662989161502</v>
       </c>
       <c r="DI162" t="n">
-        <v>-5.1057802403476</v>
+        <v>-3.46154919266701</v>
       </c>
       <c r="DJ162" t="n">
-        <v>0.284624213169539</v>
+        <v>0.294603556394577</v>
       </c>
       <c r="DK162" t="n">
-        <v>1.56954602696069</v>
-      </c>
-      <c r="DL162" t="n">
-        <v>9.91716497139826</v>
-      </c>
+        <v>1.5757187306881</v>
+      </c>
+      <c r="DL162"/>
       <c r="DM162" t="n">
         <v>951.933807983212</v>
       </c>
@@ -37507,20 +37377,18 @@
       </c>
       <c r="DG163"/>
       <c r="DH163" t="n">
-        <v>0.0101124750012525</v>
+        <v>0.00963810883532457</v>
       </c>
       <c r="DI163" t="n">
-        <v>-0.764438852667809</v>
+        <v>-1.6890715899359</v>
       </c>
       <c r="DJ163" t="n">
-        <v>0.287832826375961</v>
+        <v>0.299630697823599</v>
       </c>
       <c r="DK163" t="n">
-        <v>0.279744848608971</v>
-      </c>
-      <c r="DL163" t="n">
-        <v>9.32048953662182</v>
-      </c>
+        <v>0.291655128259034</v>
+      </c>
+      <c r="DL163"/>
       <c r="DM163" t="n">
         <v>676.400597710246</v>
       </c>
@@ -37751,20 +37619,18 @@
       </c>
       <c r="DG164"/>
       <c r="DH164" t="n">
-        <v>0.0352092731830101</v>
+        <v>0.0516971523444665</v>
       </c>
       <c r="DI164" t="n">
-        <v>-3.04664814358974</v>
+        <v>-5.80735539644957</v>
       </c>
       <c r="DJ164" t="n">
-        <v>0.306082750453071</v>
+        <v>0.409429058432579</v>
       </c>
       <c r="DK164" t="n">
-        <v>0.716550590379028</v>
-      </c>
-      <c r="DL164" t="n">
-        <v>9.82622427983539</v>
-      </c>
+        <v>0.691819652915001</v>
+      </c>
+      <c r="DL164"/>
       <c r="DM164" t="n">
         <v>781.981481161628</v>
       </c>
@@ -37951,20 +37817,18 @@
       <c r="DF165"/>
       <c r="DG165"/>
       <c r="DH165" t="n">
-        <v>0.00660417959197535</v>
+        <v>0.0360058745801175</v>
       </c>
       <c r="DI165" t="n">
-        <v>-2.98541642592083</v>
+        <v>7.13281340897083</v>
       </c>
       <c r="DJ165" t="n">
-        <v>0.803558757104356</v>
+        <v>0.789914414286613</v>
       </c>
       <c r="DK165" t="n">
-        <v>5.91558025773879</v>
-      </c>
-      <c r="DL165" t="n">
-        <v>9.49471861471861</v>
-      </c>
+        <v>5.60911905765533</v>
+      </c>
+      <c r="DL165"/>
       <c r="DM165" t="n">
         <v>602.381676901643</v>
       </c>
@@ -38244,9 +38108,7 @@
       <c r="DK166" t="n">
         <v>1.03965324818082</v>
       </c>
-      <c r="DL166" t="n">
-        <v>9.33163265306122</v>
-      </c>
+      <c r="DL166"/>
       <c r="DM166" t="n">
         <v>640.663264965524</v>
       </c>
@@ -38793,20 +38655,18 @@
       </c>
       <c r="DG168"/>
       <c r="DH168" t="n">
-        <v>0.0305346913123757</v>
+        <v>0.0318134639275069</v>
       </c>
       <c r="DI168" t="n">
-        <v>-2.01326511800289</v>
+        <v>-0.389672145247459</v>
       </c>
       <c r="DJ168" t="n">
-        <v>0.186915054917336</v>
+        <v>0.304828748106956</v>
       </c>
       <c r="DK168" t="n">
-        <v>0.703868985176086</v>
-      </c>
-      <c r="DL168" t="n">
-        <v>9.0205882112514</v>
-      </c>
+        <v>0.689980939030647</v>
+      </c>
+      <c r="DL168"/>
       <c r="DM168" t="n">
         <v>530.447375281681</v>
       </c>
@@ -39365,20 +39225,18 @@
       </c>
       <c r="DG170"/>
       <c r="DH170" t="n">
-        <v>0.03591124354347</v>
+        <v>0.0364765631921877</v>
       </c>
       <c r="DI170" t="n">
-        <v>-4.19574975459597</v>
+        <v>-3.38607926134766</v>
       </c>
       <c r="DJ170" t="n">
-        <v>0.180528464345738</v>
+        <v>0.158067022443214</v>
       </c>
       <c r="DK170" t="n">
-        <v>0.235939785753335</v>
-      </c>
-      <c r="DL170" t="n">
-        <v>8.94416070711556</v>
-      </c>
+        <v>0.00994145363810182</v>
+      </c>
+      <c r="DL170"/>
       <c r="DM170" t="n">
         <v>472.362921427596</v>
       </c>
@@ -39915,20 +39773,18 @@
       </c>
       <c r="DG172"/>
       <c r="DH172" t="n">
-        <v>0.0184827353362619</v>
+        <v>0.0184198587166635</v>
       </c>
       <c r="DI172" t="n">
-        <v>-2.39817205630905</v>
+        <v>-2.4701883494854</v>
       </c>
       <c r="DJ172" t="n">
-        <v>0.32168715894383</v>
+        <v>0.306559354066849</v>
       </c>
       <c r="DK172" t="n">
-        <v>2.67078861853838</v>
-      </c>
-      <c r="DL172" t="n">
-        <v>9.40613266109038</v>
-      </c>
+        <v>2.67355558276176</v>
+      </c>
+      <c r="DL172"/>
       <c r="DM172" t="n">
         <v>660.600781237444</v>
       </c>
@@ -40217,20 +40073,18 @@
       </c>
       <c r="DG173"/>
       <c r="DH173" t="n">
-        <v>0.0335272491609842</v>
+        <v>0.0329773056133031</v>
       </c>
       <c r="DI173" t="n">
-        <v>-4.84854997694492</v>
+        <v>-2.94574235379696</v>
       </c>
       <c r="DJ173" t="n">
-        <v>0.347226962447166</v>
+        <v>0.301288262009621</v>
       </c>
       <c r="DK173" t="n">
-        <v>0.827098354697227</v>
-      </c>
-      <c r="DL173" t="n">
-        <v>9.20014021991553</v>
-      </c>
+        <v>0.838411897420883</v>
+      </c>
+      <c r="DL173"/>
       <c r="DM173" t="n">
         <v>616.67619616544</v>
       </c>
@@ -40501,20 +40355,18 @@
       </c>
       <c r="DG174"/>
       <c r="DH174" t="n">
-        <v>0.0405975984579136</v>
+        <v>0.0387282305048232</v>
       </c>
       <c r="DI174" t="n">
-        <v>-5.82456371340422</v>
+        <v>-1.376549936831</v>
       </c>
       <c r="DJ174" t="n">
-        <v>0.293009136854712</v>
+        <v>0.305111904969463</v>
       </c>
       <c r="DK174" t="n">
-        <v>0.368425017196074</v>
-      </c>
-      <c r="DL174" t="n">
-        <v>9.19440056341756</v>
-      </c>
+        <v>0.365059542388205</v>
+      </c>
+      <c r="DL174"/>
       <c r="DM174" t="n">
         <v>638.635385231734</v>
       </c>
@@ -40799,20 +40651,18 @@
       </c>
       <c r="DG175"/>
       <c r="DH175" t="n">
-        <v>0.0196369572915763</v>
+        <v>0.0199256707220707</v>
       </c>
       <c r="DI175" t="n">
-        <v>-3.9256953150034</v>
+        <v>-2.76491056572024</v>
       </c>
       <c r="DJ175" t="n">
-        <v>0.677714765071869</v>
+        <v>0.647846935019997</v>
       </c>
       <c r="DK175" t="n">
-        <v>0.0762147158384323</v>
-      </c>
-      <c r="DL175" t="n">
-        <v>9.47126193646391</v>
-      </c>
+        <v>0.201664297034532</v>
+      </c>
+      <c r="DL175"/>
       <c r="DM175" t="n">
         <v>730.516846516884</v>
       </c>
@@ -41083,20 +40933,18 @@
       </c>
       <c r="DG176"/>
       <c r="DH176" t="n">
-        <v>0.0375859989876306</v>
+        <v>0.0359475542055734</v>
       </c>
       <c r="DI176" t="n">
-        <v>4.63122244245231</v>
+        <v>4.63270834025371</v>
       </c>
       <c r="DJ176" t="n">
-        <v>1.43132904236257</v>
+        <v>1.4209705458929</v>
       </c>
       <c r="DK176" t="n">
-        <v>4.83566633308714</v>
-      </c>
-      <c r="DL176" t="n">
-        <v>9.51448794261294</v>
-      </c>
+        <v>4.68651526535463</v>
+      </c>
+      <c r="DL176"/>
       <c r="DM176" t="n">
         <v>970.615080343207</v>
       </c>
@@ -41385,20 +41233,18 @@
       </c>
       <c r="DG177"/>
       <c r="DH177" t="n">
-        <v>0.0100890570955537</v>
+        <v>0.0104165405573488</v>
       </c>
       <c r="DI177" t="n">
-        <v>-0.219497292954857</v>
+        <v>-3.16997919976711</v>
       </c>
       <c r="DJ177" t="n">
-        <v>0.349672189892724</v>
+        <v>0.34709258377552</v>
       </c>
       <c r="DK177" t="n">
-        <v>2.64732006399985</v>
-      </c>
-      <c r="DL177" t="n">
-        <v>9.40208018655431</v>
-      </c>
+        <v>2.5425950139761</v>
+      </c>
+      <c r="DL177"/>
       <c r="DM177" t="n">
         <v>453.748026173006</v>
       </c>
@@ -41809,20 +41655,18 @@
       <c r="DF179"/>
       <c r="DG179"/>
       <c r="DH179" t="n">
-        <v>0.159066976458374</v>
+        <v>0.159059884185163</v>
       </c>
       <c r="DI179" t="n">
-        <v>5.12120605563662</v>
+        <v>5.7402575068107</v>
       </c>
       <c r="DJ179" t="n">
-        <v>0.657552279007794</v>
+        <v>0.701138232167702</v>
       </c>
       <c r="DK179" t="n">
-        <v>5.35645904252306</v>
-      </c>
-      <c r="DL179" t="n">
-        <v>9.23955128205128</v>
-      </c>
+        <v>5.32356060479275</v>
+      </c>
+      <c r="DL179"/>
       <c r="DM179" t="n">
         <v>576.346154009175</v>
       </c>
@@ -42653,20 +42497,18 @@
       </c>
       <c r="DG183"/>
       <c r="DH183" t="n">
-        <v>0.0292899013914302</v>
+        <v>0.0308017157416822</v>
       </c>
       <c r="DI183" t="n">
-        <v>5.29713249595477</v>
+        <v>5.61417630220996</v>
       </c>
       <c r="DJ183" t="n">
-        <v>0.995592234351421</v>
+        <v>0.925094264610711</v>
       </c>
       <c r="DK183" t="n">
-        <v>1.5470991242404</v>
-      </c>
-      <c r="DL183" t="n">
-        <v>9.37675108745421</v>
-      </c>
+        <v>1.5371081648199</v>
+      </c>
+      <c r="DL183"/>
       <c r="DM183" t="n">
         <v>1001.51631302668</v>
       </c>
@@ -43723,20 +43565,18 @@
       </c>
       <c r="DG188"/>
       <c r="DH188" t="n">
-        <v>0.017076016090419</v>
+        <v>0.0161911372440158</v>
       </c>
       <c r="DI188" t="n">
-        <v>-4.69595291149071</v>
+        <v>-5.30022653330095</v>
       </c>
       <c r="DJ188" t="n">
-        <v>0.363297260119842</v>
+        <v>0.353197594219528</v>
       </c>
       <c r="DK188" t="n">
-        <v>0.297113219335614</v>
-      </c>
-      <c r="DL188" t="n">
-        <v>9.53578070737161</v>
-      </c>
+        <v>0.284135447521755</v>
+      </c>
+      <c r="DL188"/>
       <c r="DM188" t="n">
         <v>782.407695183472</v>
       </c>
@@ -44347,20 +44187,18 @@
       <c r="DF191"/>
       <c r="DG191"/>
       <c r="DH191" t="n">
-        <v>0.11765664558321</v>
+        <v>0.118339959038363</v>
       </c>
       <c r="DI191" t="n">
-        <v>2.97893168032169</v>
+        <v>2.971250846982</v>
       </c>
       <c r="DJ191" t="n">
-        <v>0.299842014908791</v>
+        <v>0.275032460689545</v>
       </c>
       <c r="DK191" t="n">
-        <v>20.7568312436342</v>
-      </c>
-      <c r="DL191" t="n">
-        <v>9.19084148727984</v>
-      </c>
+        <v>21.157757923007</v>
+      </c>
+      <c r="DL191"/>
       <c r="DM191" t="n">
         <v>563.637312401064</v>
       </c>
@@ -45613,20 +45451,18 @@
       </c>
       <c r="DG198"/>
       <c r="DH198" t="n">
-        <v>0.0204977602909923</v>
+        <v>0.0215038885598268</v>
       </c>
       <c r="DI198" t="n">
-        <v>-5.10811109143318</v>
+        <v>-4.5607442642529</v>
       </c>
       <c r="DJ198" t="n">
-        <v>0.595635832425874</v>
+        <v>0.598588566796625</v>
       </c>
       <c r="DK198" t="n">
-        <v>0.238531704832822</v>
-      </c>
-      <c r="DL198" t="n">
-        <v>9.08102929373997</v>
-      </c>
+        <v>0.214725158733516</v>
+      </c>
+      <c r="DL198"/>
       <c r="DM198" t="n">
         <v>723.020197793148</v>
       </c>
@@ -46181,20 +46017,18 @@
       <c r="DF201"/>
       <c r="DG201"/>
       <c r="DH201" t="n">
-        <v>0.366156582650608</v>
+        <v>0.364682183856828</v>
       </c>
       <c r="DI201" t="n">
-        <v>0.188830698330422</v>
+        <v>-1.80789656192064</v>
       </c>
       <c r="DJ201" t="n">
-        <v>0.296795212081933</v>
+        <v>0.296443805098534</v>
       </c>
       <c r="DK201" t="n">
-        <v>8.35937868314028</v>
-      </c>
-      <c r="DL201" t="n">
-        <v>9.39718937433731</v>
-      </c>
+        <v>6.55143268406391</v>
+      </c>
+      <c r="DL201"/>
       <c r="DM201" t="n">
         <v>582.020671455398</v>
       </c>
@@ -46418,9 +46252,7 @@
       <c r="DK202" t="n">
         <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197718305976818</v>
       </c>
-      <c r="DL202" t="n">
-        <v>9.6015625</v>
-      </c>
+      <c r="DL202"/>
       <c r="DM202" t="n">
         <v>520.3125</v>
       </c>
@@ -47779,20 +47611,18 @@
       </c>
       <c r="DG209"/>
       <c r="DH209" t="n">
-        <v>0.0308051203849278</v>
+        <v>0.0275633147828515</v>
       </c>
       <c r="DI209" t="n">
-        <v>-0.238942250609398</v>
+        <v>0.0993090973609493</v>
       </c>
       <c r="DJ209" t="n">
-        <v>0.345049068331718</v>
+        <v>0.248312828789706</v>
       </c>
       <c r="DK209" t="n">
-        <v>1.5446390658617</v>
-      </c>
-      <c r="DL209" t="n">
-        <v>9.40570402298851</v>
-      </c>
+        <v>1.44970656716884</v>
+      </c>
+      <c r="DL209"/>
       <c r="DM209" t="n">
         <v>807.655170731161</v>
       </c>
@@ -48191,20 +48021,18 @@
       </c>
       <c r="DG211"/>
       <c r="DH211" t="n">
-        <v>0.0139481764045924</v>
+        <v>0.0147257505758747</v>
       </c>
       <c r="DI211" t="n">
-        <v>0.465495645919593</v>
+        <v>1.17214065790176</v>
       </c>
       <c r="DJ211" t="n">
-        <v>0.33079636952349</v>
+        <v>0.351067021489143</v>
       </c>
       <c r="DK211" t="n">
-        <v>0.305783992383885</v>
-      </c>
-      <c r="DL211" t="n">
-        <v>9.30221357850071</v>
-      </c>
+        <v>0.308405116200447</v>
+      </c>
+      <c r="DL211"/>
       <c r="DM211" t="n">
         <v>769.10357348427</v>
       </c>
@@ -48980,9 +48808,7 @@
       <c r="DI215"/>
       <c r="DJ215"/>
       <c r="DK215"/>
-      <c r="DL215" t="n">
-        <v>9.495</v>
-      </c>
+      <c r="DL215"/>
       <c r="DM215" t="n">
         <v>565.166666507721</v>
       </c>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3557,7 +3557,7 @@
         <v>0.88</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="DG2"/>
       <c r="DH2" t="n">
@@ -3823,7 +3823,7 @@
         <v>0.833683333333333</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0207671024754624</v>
+        <v>0.00692236749182081</v>
       </c>
       <c r="DG3"/>
       <c r="DH3"/>
@@ -4041,7 +4041,7 @@
       <c r="DD4"/>
       <c r="DE4"/>
       <c r="DF4" t="n">
-        <v>0.00486713335009259</v>
+        <v>0.0016223777833642</v>
       </c>
       <c r="DG4"/>
       <c r="DH4" t="n">
@@ -4309,7 +4309,7 @@
         <v>0.6315</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.00627913672181724</v>
+        <v>0.001</v>
       </c>
       <c r="DG5"/>
       <c r="DH5" t="n">
@@ -4577,7 +4577,7 @@
         <v>0.5405</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0024319409294854</v>
+        <v>0.000810646976495133</v>
       </c>
       <c r="DG6"/>
       <c r="DH6" t="n">
@@ -5109,7 +5109,7 @@
         <v>0.684</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.00291565666217986</v>
+        <v>0.001</v>
       </c>
       <c r="DG8"/>
       <c r="DH8" t="n">
@@ -5641,7 +5641,7 @@
         <v>0.72775</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.00529023077920077</v>
+        <v>0.00176341025973359</v>
       </c>
       <c r="DG10"/>
       <c r="DH10" t="n">
@@ -6243,7 +6243,7 @@
         <v>0.54925</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0131983990780825</v>
+        <v>0.00439946635936084</v>
       </c>
       <c r="DG13"/>
       <c r="DH13" t="n">
@@ -7761,7 +7761,7 @@
         <v>0.59825</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="DG21"/>
       <c r="DH21" t="n">
@@ -10493,7 +10493,7 @@
         <v>0.62625</v>
       </c>
       <c r="DF34" t="n">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
       <c r="DG34"/>
       <c r="DH34" t="n">
@@ -11131,7 +11131,7 @@
       <c r="DD37"/>
       <c r="DE37"/>
       <c r="DF37" t="n">
-        <v>0.00938097534096727</v>
+        <v>0.00312699178032242</v>
       </c>
       <c r="DG37"/>
       <c r="DH37" t="n">
@@ -11323,7 +11323,7 @@
         <v>0.71725</v>
       </c>
       <c r="DF38" t="n">
-        <v>0.00254871910689547</v>
+        <v>0.000849573035631823</v>
       </c>
       <c r="DG38"/>
       <c r="DH38"/>
@@ -15817,7 +15817,7 @@
         <v>0.69275</v>
       </c>
       <c r="DF60" t="n">
-        <v>0.0253982346459001</v>
+        <v>0.00846607821530002</v>
       </c>
       <c r="DG60"/>
       <c r="DH60" t="n">
@@ -16223,7 +16223,7 @@
         <v>0.4481875</v>
       </c>
       <c r="DF62" t="n">
-        <v>0.0125005863115447</v>
+        <v>0.006</v>
       </c>
       <c r="DG62"/>
       <c r="DH62" t="n">
@@ -20723,7 +20723,7 @@
         <v>0.306291666666667</v>
       </c>
       <c r="DF85" t="n">
-        <v>0.016773525697642</v>
+        <v>0.00559117523254734</v>
       </c>
       <c r="DG85"/>
       <c r="DH85" t="n">
@@ -23045,7 +23045,7 @@
       <c r="DD96"/>
       <c r="DE96"/>
       <c r="DF96" t="n">
-        <v>0.0034832177555317</v>
+        <v>0.00116107258517723</v>
       </c>
       <c r="DG96"/>
       <c r="DH96" t="n">
@@ -24375,7 +24375,7 @@
         <v>0.55275</v>
       </c>
       <c r="DF102" t="n">
-        <v>0.00534191032791093</v>
+        <v>0.00178063677597031</v>
       </c>
       <c r="DG102"/>
       <c r="DH102" t="n">
@@ -26493,7 +26493,7 @@
         <v>0.691</v>
       </c>
       <c r="DF113" t="n">
-        <v>0.0093586128647537</v>
+        <v>0.00311953762158457</v>
       </c>
       <c r="DG113"/>
       <c r="DH113" t="n">
@@ -27359,7 +27359,7 @@
         <v>0.329625</v>
       </c>
       <c r="DF117" t="n">
-        <v>0.0278454659739783</v>
+        <v>0.0092818219913261</v>
       </c>
       <c r="DG117"/>
       <c r="DH117" t="n">
@@ -27611,7 +27611,7 @@
         <v>0.360727272727273</v>
       </c>
       <c r="DF118" t="n">
-        <v>0.00730086002636798</v>
+        <v>0.00243362000878933</v>
       </c>
       <c r="DG118"/>
       <c r="DH118" t="n">
@@ -27863,7 +27863,7 @@
         <v>0.360727272727273</v>
       </c>
       <c r="DF119" t="n">
-        <v>0.00667357325197171</v>
+        <v>0.0022245244173239</v>
       </c>
       <c r="DG119"/>
       <c r="DH119" t="n">
@@ -28101,7 +28101,7 @@
         <v>0.360727272727273</v>
       </c>
       <c r="DF120" t="n">
-        <v>0.00157867771914888</v>
+        <v>0.00052622590638296</v>
       </c>
       <c r="DG120"/>
       <c r="DH120" t="n">
@@ -28493,7 +28493,7 @@
         <v>0.304638888888889</v>
       </c>
       <c r="DF122" t="n">
-        <v>0.00341913370862257</v>
+        <v>0.00113971123620752</v>
       </c>
       <c r="DG122"/>
       <c r="DH122" t="n">
@@ -28889,7 +28889,7 @@
       <c r="DD124"/>
       <c r="DE124"/>
       <c r="DF124" t="n">
-        <v>0.00807786001069</v>
+        <v>0.00269262000356333</v>
       </c>
       <c r="DG124"/>
       <c r="DH124" t="n">
@@ -30667,7 +30667,7 @@
         <v>0.39875</v>
       </c>
       <c r="DF133" t="n">
-        <v>0.0195984994416742</v>
+        <v>0.00653283314722475</v>
       </c>
       <c r="DG133"/>
       <c r="DH133" t="n">
@@ -31507,7 +31507,7 @@
       <c r="DD137"/>
       <c r="DE137"/>
       <c r="DF137" t="n">
-        <v>0.00435976417387929</v>
+        <v>0.00145325472462643</v>
       </c>
       <c r="DG137"/>
       <c r="DH137" t="n">
@@ -32447,7 +32447,7 @@
         <v>0.775</v>
       </c>
       <c r="DF142" t="n">
-        <v>0.0150407308804743</v>
+        <v>0.0050135769601581</v>
       </c>
       <c r="DG142"/>
       <c r="DH142" t="n">
@@ -32883,7 +32883,7 @@
       <c r="DD144"/>
       <c r="DE144"/>
       <c r="DF144" t="n">
-        <v>0.00486713335009259</v>
+        <v>0.0016223777833642</v>
       </c>
       <c r="DG144"/>
       <c r="DH144" t="n">
@@ -33685,7 +33685,7 @@
         <v>0.85375</v>
       </c>
       <c r="DF148" t="n">
-        <v>0.00504732058302482</v>
+        <v>0.00168244019434161</v>
       </c>
       <c r="DG148"/>
       <c r="DH148"/>
@@ -33931,7 +33931,7 @@
         <v>0.390488372093023</v>
       </c>
       <c r="DF149" t="n">
-        <v>0.00332077643419593</v>
+        <v>0.00110692547806531</v>
       </c>
       <c r="DG149"/>
       <c r="DH149" t="n">
@@ -34495,7 +34495,7 @@
         <v>0.4425</v>
       </c>
       <c r="DF151" t="n">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
       <c r="DG151"/>
       <c r="DH151" t="n">
@@ -34753,7 +34753,7 @@
         <v>0.390488372093023</v>
       </c>
       <c r="DF152" t="n">
-        <v>0.00699825804248477</v>
+        <v>0.003</v>
       </c>
       <c r="DG152"/>
       <c r="DH152" t="n">
@@ -35287,7 +35287,7 @@
         <v>0.59475</v>
       </c>
       <c r="DF154" t="n">
-        <v>0.00780627822124746</v>
+        <v>0.00260209274041582</v>
       </c>
       <c r="DG154"/>
       <c r="DH154" t="n">
@@ -36725,7 +36725,7 @@
         <v>0.591833333333333</v>
       </c>
       <c r="DF160" t="n">
-        <v>0.00166070762008419</v>
+        <v>0.00055356920669473</v>
       </c>
       <c r="DG160"/>
       <c r="DH160"/>
@@ -37119,7 +37119,7 @@
         <v>0.356235294117647</v>
       </c>
       <c r="DF162" t="n">
-        <v>0.0152098097108526</v>
+        <v>0.008</v>
       </c>
       <c r="DG162"/>
       <c r="DH162" t="n">
@@ -37373,7 +37373,7 @@
         <v>0.471224137931034</v>
       </c>
       <c r="DF163" t="n">
-        <v>0.0178214976763761</v>
+        <v>0.0059404992254587</v>
       </c>
       <c r="DG163"/>
       <c r="DH163" t="n">
@@ -37615,7 +37615,7 @@
         <v>0.5615</v>
       </c>
       <c r="DF164" t="n">
-        <v>0.00278871517778145</v>
+        <v>0.000929571725927151</v>
       </c>
       <c r="DG164"/>
       <c r="DH164" t="n">
@@ -38095,7 +38095,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF166" t="n">
-        <v>0.00410241651079846</v>
+        <v>0.00136747217026615</v>
       </c>
       <c r="DG166"/>
       <c r="DH166"/>
@@ -39769,7 +39769,7 @@
         <v>0.55275</v>
       </c>
       <c r="DF172" t="n">
-        <v>0.00410212741802229</v>
+        <v>0.00136737580600743</v>
       </c>
       <c r="DG172"/>
       <c r="DH172" t="n">
@@ -40351,7 +40351,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF174" t="n">
-        <v>0.00416809626442605</v>
+        <v>0.00138936542147535</v>
       </c>
       <c r="DG174"/>
       <c r="DH174" t="n">
@@ -40647,7 +40647,7 @@
         <v>0.50375</v>
       </c>
       <c r="DF175" t="n">
-        <v>0.00524555767825829</v>
+        <v>0.0017485192260861</v>
       </c>
       <c r="DG175"/>
       <c r="DH175" t="n">
@@ -40929,7 +40929,7 @@
         <v>0.55625</v>
       </c>
       <c r="DF176" t="n">
-        <v>0.00316983526167858</v>
+        <v>0.00105661175389286</v>
       </c>
       <c r="DG176"/>
       <c r="DH176" t="n">
@@ -41229,7 +41229,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF177" t="n">
-        <v>0.002</v>
+        <v>0.0022</v>
       </c>
       <c r="DG177"/>
       <c r="DH177" t="n">
@@ -42493,7 +42493,7 @@
         <v>0.332833333333333</v>
       </c>
       <c r="DF183" t="n">
-        <v>0.0150015561737269</v>
+        <v>0.00500051872457563</v>
       </c>
       <c r="DG183"/>
       <c r="DH183" t="n">
@@ -43561,7 +43561,7 @@
         <v>0.356973404255319</v>
       </c>
       <c r="DF188" t="n">
-        <v>0.0223998893672723</v>
+        <v>0.00746662978909075</v>
       </c>
       <c r="DG188"/>
       <c r="DH188" t="n">
@@ -45447,7 +45447,7 @@
         <v>0.500359375</v>
       </c>
       <c r="DF198" t="n">
-        <v>0.00636335608080257</v>
+        <v>0.004</v>
       </c>
       <c r="DG198"/>
       <c r="DH198" t="n">
@@ -47607,7 +47607,7 @@
         <v>0.713925</v>
       </c>
       <c r="DF209" t="n">
-        <v>0.00471414187331776</v>
+        <v>0.00157138062443925</v>
       </c>
       <c r="DG209"/>
       <c r="DH209" t="n">
@@ -48017,7 +48017,7 @@
         <v>0.618375</v>
       </c>
       <c r="DF211" t="n">
-        <v>0.0704166883450378</v>
+        <v>0.0234722294483459</v>
       </c>
       <c r="DG211"/>
       <c r="DH211" t="n">

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3548,7 +3548,7 @@
       <c r="CY2"/>
       <c r="CZ2"/>
       <c r="DA2" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -3557,7 +3557,7 @@
         <v>0.88</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="DG2"/>
       <c r="DH2" t="n">
@@ -4300,7 +4300,7 @@
       <c r="CY5"/>
       <c r="CZ5"/>
       <c r="DA5" t="n">
-        <v>0.00157991532182683</v>
+        <v>0.0018</v>
       </c>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -4309,7 +4309,7 @@
         <v>0.6315</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.001</v>
+        <v>0.0005</v>
       </c>
       <c r="DG5"/>
       <c r="DH5" t="n">
@@ -5109,7 +5109,7 @@
         <v>0.684</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.001</v>
+        <v>0.0005</v>
       </c>
       <c r="DG8"/>
       <c r="DH8" t="n">
@@ -7752,7 +7752,7 @@
       <c r="CY21"/>
       <c r="CZ21"/>
       <c r="DA21" t="n">
-        <v>0.0008</v>
+        <v>0.00075</v>
       </c>
       <c r="DB21"/>
       <c r="DC21"/>
@@ -7761,7 +7761,7 @@
         <v>0.59825</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="DG21"/>
       <c r="DH21" t="n">
@@ -10484,7 +10484,7 @@
       <c r="CY34"/>
       <c r="CZ34"/>
       <c r="DA34" t="n">
-        <v>0.0035</v>
+        <v>0.0033</v>
       </c>
       <c r="DB34"/>
       <c r="DC34"/>
@@ -10493,7 +10493,7 @@
         <v>0.62625</v>
       </c>
       <c r="DF34" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="DG34"/>
       <c r="DH34" t="n">
@@ -16214,7 +16214,7 @@
       <c r="CY62"/>
       <c r="CZ62"/>
       <c r="DA62" t="n">
-        <v>0.000744145863669112</v>
+        <v>0.0045</v>
       </c>
       <c r="DB62"/>
       <c r="DC62"/>
@@ -24375,7 +24375,7 @@
         <v>0.55275</v>
       </c>
       <c r="DF102" t="n">
-        <v>0.00178063677597031</v>
+        <v>0.004</v>
       </c>
       <c r="DG102"/>
       <c r="DH102" t="n">
@@ -34753,7 +34753,7 @@
         <v>0.390488372093023</v>
       </c>
       <c r="DF152" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="DG152"/>
       <c r="DH152" t="n">
@@ -37110,7 +37110,7 @@
       <c r="CY162"/>
       <c r="CZ162"/>
       <c r="DA162" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="DB162"/>
       <c r="DC162"/>
@@ -37119,7 +37119,7 @@
         <v>0.356235294117647</v>
       </c>
       <c r="DF162" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="DG162"/>
       <c r="DH162" t="n">
@@ -39212,7 +39212,7 @@
       <c r="CY170"/>
       <c r="CZ170"/>
       <c r="DA170" t="n">
-        <v>0.0007</v>
+        <v>0.00065</v>
       </c>
       <c r="DB170"/>
       <c r="DC170"/>
@@ -39769,7 +39769,7 @@
         <v>0.55275</v>
       </c>
       <c r="DF172" t="n">
-        <v>0.00136737580600743</v>
+        <v>0.001</v>
       </c>
       <c r="DG172"/>
       <c r="DH172" t="n">
@@ -41229,7 +41229,7 @@
         <v>0.515201754385965</v>
       </c>
       <c r="DF177" t="n">
-        <v>0.0022</v>
+        <v>0.0025</v>
       </c>
       <c r="DG177"/>
       <c r="DH177" t="n">
@@ -45438,7 +45438,7 @@
       <c r="CY198"/>
       <c r="CZ198"/>
       <c r="DA198" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="DB198"/>
       <c r="DC198"/>
@@ -47598,7 +47598,7 @@
       <c r="CY209"/>
       <c r="CZ209"/>
       <c r="DA209" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="DB209"/>
       <c r="DC209"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3554,7 +3554,7 @@
       <c r="DC2"/>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="DF2" t="n">
         <v>0.0012</v>
@@ -3820,7 +3820,7 @@
       <c r="DC3"/>
       <c r="DD3"/>
       <c r="DE3" t="n">
-        <v>0.833683333333333</v>
+        <v>0.95</v>
       </c>
       <c r="DF3" t="n">
         <v>0.00692236749182081</v>
@@ -4306,7 +4306,7 @@
       <c r="DC5"/>
       <c r="DD5"/>
       <c r="DE5" t="n">
-        <v>0.6315</v>
+        <v>0.95</v>
       </c>
       <c r="DF5" t="n">
         <v>0.0005</v>
@@ -4574,7 +4574,7 @@
       <c r="DC6"/>
       <c r="DD6"/>
       <c r="DE6" t="n">
-        <v>0.5405</v>
+        <v>0.831</v>
       </c>
       <c r="DF6" t="n">
         <v>0.000810646976495133</v>
@@ -4842,7 +4842,7 @@
       <c r="DC7"/>
       <c r="DD7"/>
       <c r="DE7" t="n">
-        <v>0.68225</v>
+        <v>0.95</v>
       </c>
       <c r="DF7"/>
       <c r="DG7"/>
@@ -5106,7 +5106,7 @@
       <c r="DC8"/>
       <c r="DD8"/>
       <c r="DE8" t="n">
-        <v>0.684</v>
+        <v>0.95</v>
       </c>
       <c r="DF8" t="n">
         <v>0.0005</v>
@@ -5374,7 +5374,7 @@
       <c r="DC9"/>
       <c r="DD9"/>
       <c r="DE9" t="n">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="DF9"/>
       <c r="DG9"/>
@@ -5638,7 +5638,7 @@
       <c r="DC10"/>
       <c r="DD10"/>
       <c r="DE10" t="n">
-        <v>0.72775</v>
+        <v>0.95</v>
       </c>
       <c r="DF10" t="n">
         <v>0.00176341025973359</v>
@@ -6010,7 +6010,7 @@
       <c r="DC12"/>
       <c r="DD12"/>
       <c r="DE12" t="n">
-        <v>0.502</v>
+        <v>0.754</v>
       </c>
       <c r="DF12"/>
       <c r="DG12"/>
@@ -6240,7 +6240,7 @@
       <c r="DC13"/>
       <c r="DD13"/>
       <c r="DE13" t="n">
-        <v>0.54925</v>
+        <v>0.8485</v>
       </c>
       <c r="DF13" t="n">
         <v>0.00439946635936084</v>
@@ -6458,7 +6458,7 @@
       <c r="DC14"/>
       <c r="DD14"/>
       <c r="DE14" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF14"/>
       <c r="DG14"/>
@@ -7540,7 +7540,7 @@
       <c r="DC20"/>
       <c r="DD20"/>
       <c r="DE20" t="n">
-        <v>0.59825</v>
+        <v>0.9465</v>
       </c>
       <c r="DF20"/>
       <c r="DG20"/>
@@ -7758,7 +7758,7 @@
       <c r="DC21"/>
       <c r="DD21"/>
       <c r="DE21" t="n">
-        <v>0.59825</v>
+        <v>0.9465</v>
       </c>
       <c r="DF21" t="n">
         <v>0.001</v>
@@ -8982,7 +8982,7 @@
       <c r="DC27"/>
       <c r="DD27"/>
       <c r="DE27" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF27"/>
       <c r="DG27"/>
@@ -9236,7 +9236,7 @@
       <c r="DC28"/>
       <c r="DD28"/>
       <c r="DE28" t="n">
-        <v>0.38496875</v>
+        <v>0.5199375</v>
       </c>
       <c r="DF28" t="n">
         <v>0.0025</v>
@@ -9648,7 +9648,7 @@
       <c r="DC30"/>
       <c r="DD30"/>
       <c r="DE30" t="n">
-        <v>0.78375</v>
+        <v>0.95</v>
       </c>
       <c r="DF30"/>
       <c r="DG30"/>
@@ -10048,7 +10048,7 @@
       <c r="DC32"/>
       <c r="DD32"/>
       <c r="DE32" t="n">
-        <v>0.348</v>
+        <v>0.446</v>
       </c>
       <c r="DF32"/>
       <c r="DG32"/>
@@ -10250,7 +10250,7 @@
       <c r="DC33"/>
       <c r="DD33"/>
       <c r="DE33" t="n">
-        <v>0.76975</v>
+        <v>0.95</v>
       </c>
       <c r="DF33"/>
       <c r="DG33"/>
@@ -10490,7 +10490,7 @@
       <c r="DC34"/>
       <c r="DD34"/>
       <c r="DE34" t="n">
-        <v>0.62625</v>
+        <v>0.95</v>
       </c>
       <c r="DF34" t="n">
         <v>0.0025</v>
@@ -10714,7 +10714,7 @@
       <c r="DC35"/>
       <c r="DD35"/>
       <c r="DE35" t="n">
-        <v>0.41975</v>
+        <v>0.5895</v>
       </c>
       <c r="DF35"/>
       <c r="DG35"/>
@@ -10924,7 +10924,7 @@
       <c r="DC36"/>
       <c r="DD36"/>
       <c r="DE36" t="n">
-        <v>0.544</v>
+        <v>0.838</v>
       </c>
       <c r="DF36"/>
       <c r="DG36"/>
@@ -11320,7 +11320,7 @@
       <c r="DC38"/>
       <c r="DD38"/>
       <c r="DE38" t="n">
-        <v>0.71725</v>
+        <v>0.95</v>
       </c>
       <c r="DF38" t="n">
         <v>0.000849573035631823</v>
@@ -11512,7 +11512,7 @@
       <c r="DC39"/>
       <c r="DD39"/>
       <c r="DE39" t="n">
-        <v>0.476625</v>
+        <v>0.70325</v>
       </c>
       <c r="DF39"/>
       <c r="DG39"/>
@@ -11884,7 +11884,7 @@
       <c r="DC41"/>
       <c r="DD41"/>
       <c r="DE41" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF41"/>
       <c r="DG41"/>
@@ -14636,7 +14636,7 @@
       <c r="DC54"/>
       <c r="DD54"/>
       <c r="DE54" t="n">
-        <v>0.6665</v>
+        <v>0.95</v>
       </c>
       <c r="DF54"/>
       <c r="DG54"/>
@@ -14822,7 +14822,7 @@
       <c r="DC55"/>
       <c r="DD55"/>
       <c r="DE55" t="n">
-        <v>0.6665</v>
+        <v>0.95</v>
       </c>
       <c r="DF55"/>
       <c r="DG55"/>
@@ -15416,7 +15416,7 @@
       <c r="DC58"/>
       <c r="DD58"/>
       <c r="DE58" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF58"/>
       <c r="DG58"/>
@@ -15814,7 +15814,7 @@
       <c r="DC60"/>
       <c r="DD60"/>
       <c r="DE60" t="n">
-        <v>0.69275</v>
+        <v>0.95</v>
       </c>
       <c r="DF60" t="n">
         <v>0.00846607821530002</v>
@@ -16022,7 +16022,7 @@
       <c r="DC61"/>
       <c r="DD61"/>
       <c r="DE61" t="n">
-        <v>0.455041666666667</v>
+        <v>0.660083333333333</v>
       </c>
       <c r="DF61"/>
       <c r="DG61"/>
@@ -16220,7 +16220,7 @@
       <c r="DC62"/>
       <c r="DD62"/>
       <c r="DE62" t="n">
-        <v>0.4481875</v>
+        <v>0.646375</v>
       </c>
       <c r="DF62" t="n">
         <v>0.006</v>
@@ -16434,7 +16434,7 @@
       <c r="DC63"/>
       <c r="DD63"/>
       <c r="DE63" t="n">
-        <v>0.478666666666667</v>
+        <v>0.707333333333333</v>
       </c>
       <c r="DF63"/>
       <c r="DG63"/>
@@ -16832,7 +16832,7 @@
       <c r="DC65"/>
       <c r="DD65"/>
       <c r="DE65" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF65"/>
       <c r="DG65"/>
@@ -17032,7 +17032,7 @@
       <c r="DC66"/>
       <c r="DD66"/>
       <c r="DE66" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF66"/>
       <c r="DG66"/>
@@ -17232,7 +17232,7 @@
       <c r="DC67"/>
       <c r="DD67"/>
       <c r="DE67" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF67"/>
       <c r="DG67"/>
@@ -17432,7 +17432,7 @@
       <c r="DC68"/>
       <c r="DD68"/>
       <c r="DE68" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF68"/>
       <c r="DG68"/>
@@ -17632,7 +17632,7 @@
       <c r="DC69"/>
       <c r="DD69"/>
       <c r="DE69" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF69"/>
       <c r="DG69"/>
@@ -17832,7 +17832,7 @@
       <c r="DC70"/>
       <c r="DD70"/>
       <c r="DE70" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF70"/>
       <c r="DG70"/>
@@ -18038,7 +18038,7 @@
       <c r="DC71"/>
       <c r="DD71"/>
       <c r="DE71" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF71"/>
       <c r="DG71"/>
@@ -18238,7 +18238,7 @@
       <c r="DC72"/>
       <c r="DD72"/>
       <c r="DE72" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF72"/>
       <c r="DG72"/>
@@ -18438,7 +18438,7 @@
       <c r="DC73"/>
       <c r="DD73"/>
       <c r="DE73" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF73"/>
       <c r="DG73"/>
@@ -18644,7 +18644,7 @@
       <c r="DC74"/>
       <c r="DD74"/>
       <c r="DE74" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF74"/>
       <c r="DG74"/>
@@ -18850,7 +18850,7 @@
       <c r="DC75"/>
       <c r="DD75"/>
       <c r="DE75" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF75"/>
       <c r="DG75"/>
@@ -19056,7 +19056,7 @@
       <c r="DC76"/>
       <c r="DD76"/>
       <c r="DE76" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF76"/>
       <c r="DG76"/>
@@ -19256,7 +19256,7 @@
       <c r="DC77"/>
       <c r="DD77"/>
       <c r="DE77" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF77"/>
       <c r="DG77"/>
@@ -19422,7 +19422,7 @@
       <c r="DC78"/>
       <c r="DD78"/>
       <c r="DE78" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF78"/>
       <c r="DG78"/>
@@ -19628,7 +19628,7 @@
       <c r="DC79"/>
       <c r="DD79"/>
       <c r="DE79" t="n">
-        <v>0.562958333333333</v>
+        <v>0.875916666666667</v>
       </c>
       <c r="DF79"/>
       <c r="DG79"/>
@@ -19988,7 +19988,7 @@
       <c r="DC81"/>
       <c r="DD81"/>
       <c r="DE81" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF81"/>
       <c r="DG81"/>
@@ -20720,7 +20720,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
       <c r="DE85" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF85" t="n">
         <v>0.00559117523254734</v>
@@ -20940,7 +20940,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
       <c r="DE86" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF86"/>
       <c r="DG86"/>
@@ -21152,7 +21152,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
       <c r="DE87" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF87"/>
       <c r="DG87"/>
@@ -21358,7 +21358,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
       <c r="DE88" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF88"/>
       <c r="DG88"/>
@@ -21570,7 +21570,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
       <c r="DE89" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF89"/>
       <c r="DG89"/>
@@ -21776,7 +21776,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
       <c r="DE90" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF90"/>
       <c r="DG90"/>
@@ -21992,7 +21992,7 @@
       <c r="DC91"/>
       <c r="DD91"/>
       <c r="DE91" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF91"/>
       <c r="DG91"/>
@@ -22208,7 +22208,7 @@
       <c r="DC92"/>
       <c r="DD92"/>
       <c r="DE92" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF92"/>
       <c r="DG92"/>
@@ -22414,7 +22414,7 @@
       <c r="DC93"/>
       <c r="DD93"/>
       <c r="DE93" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF93"/>
       <c r="DG93"/>
@@ -22620,7 +22620,7 @@
       <c r="DC94"/>
       <c r="DD94"/>
       <c r="DE94" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF94"/>
       <c r="DG94"/>
@@ -23240,7 +23240,7 @@
       <c r="DC97"/>
       <c r="DD97"/>
       <c r="DE97" t="n">
-        <v>0.6035</v>
+        <v>0.95</v>
       </c>
       <c r="DF97"/>
       <c r="DG97"/>
@@ -23722,7 +23722,7 @@
       <c r="DC99"/>
       <c r="DD99"/>
       <c r="DE99" t="n">
-        <v>0.873</v>
+        <v>0.95</v>
       </c>
       <c r="DF99" t="n">
         <v>0.0016</v>
@@ -24134,7 +24134,7 @@
       <c r="DC101"/>
       <c r="DD101"/>
       <c r="DE101" t="n">
-        <v>0.5405</v>
+        <v>0.831</v>
       </c>
       <c r="DF101"/>
       <c r="DG101"/>
@@ -24372,7 +24372,7 @@
       <c r="DC102"/>
       <c r="DD102"/>
       <c r="DE102" t="n">
-        <v>0.55275</v>
+        <v>0.8555</v>
       </c>
       <c r="DF102" t="n">
         <v>0.004</v>
@@ -24580,7 +24580,7 @@
       <c r="DC103"/>
       <c r="DD103"/>
       <c r="DE103" t="n">
-        <v>0.3326875</v>
+        <v>0.415375</v>
       </c>
       <c r="DF103"/>
       <c r="DG103"/>
@@ -24912,7 +24912,7 @@
       <c r="DC105"/>
       <c r="DD105"/>
       <c r="DE105" t="n">
-        <v>0.35675</v>
+        <v>0.4635</v>
       </c>
       <c r="DF105"/>
       <c r="DG105"/>
@@ -25856,7 +25856,7 @@
       <c r="DC110"/>
       <c r="DD110"/>
       <c r="DE110" t="n">
-        <v>0.303375</v>
+        <v>0.35675</v>
       </c>
       <c r="DF110"/>
       <c r="DG110"/>
@@ -26490,7 +26490,7 @@
       <c r="DC113"/>
       <c r="DD113"/>
       <c r="DE113" t="n">
-        <v>0.691</v>
+        <v>0.95</v>
       </c>
       <c r="DF113" t="n">
         <v>0.00311953762158457</v>
@@ -26894,7 +26894,7 @@
       <c r="DC115"/>
       <c r="DD115"/>
       <c r="DE115" t="n">
-        <v>0.4313</v>
+        <v>0.6126</v>
       </c>
       <c r="DF115"/>
       <c r="DG115"/>
@@ -27118,7 +27118,7 @@
       <c r="DC116"/>
       <c r="DD116"/>
       <c r="DE116" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF116"/>
       <c r="DG116"/>
@@ -27356,7 +27356,7 @@
       <c r="DC117"/>
       <c r="DD117"/>
       <c r="DE117" t="n">
-        <v>0.329625</v>
+        <v>0.40925</v>
       </c>
       <c r="DF117" t="n">
         <v>0.0092818219913261</v>
@@ -27608,7 +27608,7 @@
       <c r="DC118"/>
       <c r="DD118"/>
       <c r="DE118" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF118" t="n">
         <v>0.00243362000878933</v>
@@ -27860,7 +27860,7 @@
       <c r="DC119"/>
       <c r="DD119"/>
       <c r="DE119" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF119" t="n">
         <v>0.0022245244173239</v>
@@ -28098,7 +28098,7 @@
       <c r="DC120"/>
       <c r="DD120"/>
       <c r="DE120" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF120" t="n">
         <v>0.00052622590638296</v>
@@ -28490,7 +28490,7 @@
       <c r="DC122"/>
       <c r="DD122"/>
       <c r="DE122" t="n">
-        <v>0.304638888888889</v>
+        <v>0.359277777777778</v>
       </c>
       <c r="DF122" t="n">
         <v>0.00113971123620752</v>
@@ -29306,7 +29306,7 @@
       <c r="DC126"/>
       <c r="DD126"/>
       <c r="DE126" t="n">
-        <v>0.47575</v>
+        <v>0.7015</v>
       </c>
       <c r="DF126"/>
       <c r="DG126"/>
@@ -29698,7 +29698,7 @@
       <c r="DC128"/>
       <c r="DD128"/>
       <c r="DE128" t="n">
-        <v>0.698875</v>
+        <v>0.95</v>
       </c>
       <c r="DF128"/>
       <c r="DG128"/>
@@ -29888,7 +29888,7 @@
       <c r="DC129"/>
       <c r="DD129"/>
       <c r="DE129" t="n">
-        <v>0.481</v>
+        <v>0.712</v>
       </c>
       <c r="DF129"/>
       <c r="DG129"/>
@@ -30474,7 +30474,7 @@
       <c r="DC132"/>
       <c r="DD132"/>
       <c r="DE132" t="n">
-        <v>0.436083333333333</v>
+        <v>0.622166666666667</v>
       </c>
       <c r="DF132"/>
       <c r="DG132"/>
@@ -30664,7 +30664,7 @@
       <c r="DC133"/>
       <c r="DD133"/>
       <c r="DE133" t="n">
-        <v>0.39875</v>
+        <v>0.5475</v>
       </c>
       <c r="DF133" t="n">
         <v>0.00653283314722475</v>
@@ -32444,7 +32444,7 @@
       <c r="DC142"/>
       <c r="DD142"/>
       <c r="DE142" t="n">
-        <v>0.775</v>
+        <v>0.95</v>
       </c>
       <c r="DF142" t="n">
         <v>0.0050135769601581</v>
@@ -33682,7 +33682,7 @@
       <c r="DC148"/>
       <c r="DD148"/>
       <c r="DE148" t="n">
-        <v>0.85375</v>
+        <v>0.95</v>
       </c>
       <c r="DF148" t="n">
         <v>0.00168244019434161</v>
@@ -33928,7 +33928,7 @@
       <c r="DC149"/>
       <c r="DD149"/>
       <c r="DE149" t="n">
-        <v>0.390488372093023</v>
+        <v>0.530976744186046</v>
       </c>
       <c r="DF149" t="n">
         <v>0.00110692547806531</v>
@@ -34204,7 +34204,7 @@
       <c r="DC150"/>
       <c r="DD150"/>
       <c r="DE150" t="n">
-        <v>0.31125</v>
+        <v>0.3725</v>
       </c>
       <c r="DF150" t="n">
         <v>0.005</v>
@@ -34492,7 +34492,7 @@
       <c r="DC151"/>
       <c r="DD151"/>
       <c r="DE151" t="n">
-        <v>0.4425</v>
+        <v>0.635</v>
       </c>
       <c r="DF151" t="n">
         <v>0.0016</v>
@@ -34750,7 +34750,7 @@
       <c r="DC152"/>
       <c r="DD152"/>
       <c r="DE152" t="n">
-        <v>0.390488372093023</v>
+        <v>0.530976744186046</v>
       </c>
       <c r="DF152" t="n">
         <v>0.001</v>
@@ -35026,7 +35026,7 @@
       <c r="DC153"/>
       <c r="DD153"/>
       <c r="DE153" t="n">
-        <v>0.390488372093023</v>
+        <v>0.530976744186046</v>
       </c>
       <c r="DF153" t="n">
         <v>0.0035</v>
@@ -35284,7 +35284,7 @@
       <c r="DC154"/>
       <c r="DD154"/>
       <c r="DE154" t="n">
-        <v>0.59475</v>
+        <v>0.9395</v>
       </c>
       <c r="DF154" t="n">
         <v>0.00260209274041582</v>
@@ -35572,7 +35572,7 @@
       <c r="DC155"/>
       <c r="DD155"/>
       <c r="DE155" t="n">
-        <v>0.36725</v>
+        <v>0.4845</v>
       </c>
       <c r="DF155" t="n">
         <v>0.004</v>
@@ -35848,7 +35848,7 @@
       <c r="DC156"/>
       <c r="DD156"/>
       <c r="DE156" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF156" t="n">
         <v>0.004</v>
@@ -36066,7 +36066,7 @@
       <c r="DC157"/>
       <c r="DD157"/>
       <c r="DE157" t="n">
-        <v>0.2955</v>
+        <v>0.341</v>
       </c>
       <c r="DF157"/>
       <c r="DG157"/>
@@ -36286,7 +36286,7 @@
       <c r="DC158"/>
       <c r="DD158"/>
       <c r="DE158" t="n">
-        <v>0.2955</v>
+        <v>0.341</v>
       </c>
       <c r="DF158"/>
       <c r="DG158"/>
@@ -36512,7 +36512,7 @@
       <c r="DC159"/>
       <c r="DD159"/>
       <c r="DE159" t="n">
-        <v>0.2955</v>
+        <v>0.341</v>
       </c>
       <c r="DF159"/>
       <c r="DG159"/>
@@ -36722,7 +36722,7 @@
       <c r="DC160"/>
       <c r="DD160"/>
       <c r="DE160" t="n">
-        <v>0.591833333333333</v>
+        <v>0.933666666666667</v>
       </c>
       <c r="DF160" t="n">
         <v>0.00055356920669473</v>
@@ -37116,7 +37116,7 @@
       <c r="DC162"/>
       <c r="DD162"/>
       <c r="DE162" t="n">
-        <v>0.356235294117647</v>
+        <v>0.462470588235294</v>
       </c>
       <c r="DF162" t="n">
         <v>0.004</v>
@@ -37370,7 +37370,7 @@
       <c r="DC163"/>
       <c r="DD163"/>
       <c r="DE163" t="n">
-        <v>0.471224137931034</v>
+        <v>0.692448275862069</v>
       </c>
       <c r="DF163" t="n">
         <v>0.0059404992254587</v>
@@ -37612,7 +37612,7 @@
       <c r="DC164"/>
       <c r="DD164"/>
       <c r="DE164" t="n">
-        <v>0.5615</v>
+        <v>0.873</v>
       </c>
       <c r="DF164" t="n">
         <v>0.000929571725927151</v>
@@ -37812,7 +37812,7 @@
       <c r="DC165"/>
       <c r="DD165"/>
       <c r="DE165" t="n">
-        <v>0.4628</v>
+        <v>0.6756</v>
       </c>
       <c r="DF165"/>
       <c r="DG165"/>
@@ -38092,7 +38092,7 @@
       <c r="DC166"/>
       <c r="DD166"/>
       <c r="DE166" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF166" t="n">
         <v>0.00136747217026615</v>
@@ -38356,7 +38356,7 @@
       <c r="DC167"/>
       <c r="DD167"/>
       <c r="DE167" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF167"/>
       <c r="DG167"/>
@@ -38648,7 +38648,7 @@
       <c r="DC168"/>
       <c r="DD168"/>
       <c r="DE168" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF168" t="n">
         <v>0</v>
@@ -38914,7 +38914,7 @@
       <c r="DC169"/>
       <c r="DD169"/>
       <c r="DE169" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF169"/>
       <c r="DG169"/>
@@ -39218,7 +39218,7 @@
       <c r="DC170"/>
       <c r="DD170"/>
       <c r="DE170" t="n">
-        <v>0.6035</v>
+        <v>0.95</v>
       </c>
       <c r="DF170" t="n">
         <v>0</v>
@@ -39498,7 +39498,7 @@
       <c r="DC171"/>
       <c r="DD171"/>
       <c r="DE171" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF171"/>
       <c r="DG171"/>
@@ -39766,7 +39766,7 @@
       <c r="DC172"/>
       <c r="DD172"/>
       <c r="DE172" t="n">
-        <v>0.55275</v>
+        <v>0.8555</v>
       </c>
       <c r="DF172" t="n">
         <v>0.001</v>
@@ -40066,7 +40066,7 @@
       <c r="DC173"/>
       <c r="DD173"/>
       <c r="DE173" t="n">
-        <v>0.47925</v>
+        <v>0.7085</v>
       </c>
       <c r="DF173" t="n">
         <v>0</v>
@@ -40348,7 +40348,7 @@
       <c r="DC174"/>
       <c r="DD174"/>
       <c r="DE174" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF174" t="n">
         <v>0.00138936542147535</v>
@@ -40644,7 +40644,7 @@
       <c r="DC175"/>
       <c r="DD175"/>
       <c r="DE175" t="n">
-        <v>0.50375</v>
+        <v>0.7575</v>
       </c>
       <c r="DF175" t="n">
         <v>0.0017485192260861</v>
@@ -40926,7 +40926,7 @@
       <c r="DC176"/>
       <c r="DD176"/>
       <c r="DE176" t="n">
-        <v>0.55625</v>
+        <v>0.8625</v>
       </c>
       <c r="DF176" t="n">
         <v>0.00105661175389286</v>
@@ -41226,7 +41226,7 @@
       <c r="DC177"/>
       <c r="DD177"/>
       <c r="DE177" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF177" t="n">
         <v>0.0025</v>
@@ -41650,7 +41650,7 @@
       <c r="DC179"/>
       <c r="DD179"/>
       <c r="DE179" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF179"/>
       <c r="DG179"/>
@@ -41874,7 +41874,7 @@
       <c r="DC180"/>
       <c r="DD180"/>
       <c r="DE180" t="n">
-        <v>0.6075</v>
+        <v>0.95</v>
       </c>
       <c r="DF180"/>
       <c r="DG180"/>
@@ -42072,7 +42072,7 @@
       <c r="DC181"/>
       <c r="DD181"/>
       <c r="DE181" t="n">
-        <v>0.357333333333333</v>
+        <v>0.464666666666667</v>
       </c>
       <c r="DF181"/>
       <c r="DG181"/>
@@ -42280,7 +42280,7 @@
       <c r="DC182"/>
       <c r="DD182"/>
       <c r="DE182" t="n">
-        <v>0.6924</v>
+        <v>0.95</v>
       </c>
       <c r="DF182"/>
       <c r="DG182"/>
@@ -42490,7 +42490,7 @@
       <c r="DC183"/>
       <c r="DD183"/>
       <c r="DE183" t="n">
-        <v>0.332833333333333</v>
+        <v>0.415666666666667</v>
       </c>
       <c r="DF183" t="n">
         <v>0.00500051872457563</v>
@@ -42712,7 +42712,7 @@
       <c r="DC184"/>
       <c r="DD184"/>
       <c r="DE184" t="n">
-        <v>0.359529411764706</v>
+        <v>0.469058823529412</v>
       </c>
       <c r="DF184"/>
       <c r="DG184"/>
@@ -42928,7 +42928,7 @@
       <c r="DC185"/>
       <c r="DD185"/>
       <c r="DE185" t="n">
-        <v>0.48475</v>
+        <v>0.7195</v>
       </c>
       <c r="DF185"/>
       <c r="DG185"/>
@@ -43558,7 +43558,7 @@
       <c r="DC188"/>
       <c r="DD188"/>
       <c r="DE188" t="n">
-        <v>0.356973404255319</v>
+        <v>0.463946808510638</v>
       </c>
       <c r="DF188" t="n">
         <v>0.00746662978909075</v>
@@ -44182,7 +44182,7 @@
       <c r="DC191"/>
       <c r="DD191"/>
       <c r="DE191" t="n">
-        <v>0.4537</v>
+        <v>0.6574</v>
       </c>
       <c r="DF191"/>
       <c r="DG191"/>
@@ -44886,7 +44886,7 @@
       <c r="DC195"/>
       <c r="DD195"/>
       <c r="DE195" t="n">
-        <v>0.425</v>
+        <v>0.6</v>
       </c>
       <c r="DF195"/>
       <c r="DG195"/>
@@ -45242,7 +45242,7 @@
       <c r="DC197"/>
       <c r="DD197"/>
       <c r="DE197" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="DF197"/>
       <c r="DG197"/>
@@ -45444,7 +45444,7 @@
       <c r="DC198"/>
       <c r="DD198"/>
       <c r="DE198" t="n">
-        <v>0.500359375</v>
+        <v>0.75071875</v>
       </c>
       <c r="DF198" t="n">
         <v>0.004</v>
@@ -45824,7 +45824,7 @@
       <c r="DC200"/>
       <c r="DD200"/>
       <c r="DE200" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF200"/>
       <c r="DG200"/>
@@ -46012,7 +46012,7 @@
       <c r="DC201"/>
       <c r="DD201"/>
       <c r="DE201" t="n">
-        <v>0.31125</v>
+        <v>0.3725</v>
       </c>
       <c r="DF201"/>
       <c r="DG201"/>
@@ -46238,7 +46238,7 @@
       <c r="DC202"/>
       <c r="DD202"/>
       <c r="DE202" t="n">
-        <v>0.85025</v>
+        <v>0.95</v>
       </c>
       <c r="DF202"/>
       <c r="DG202"/>
@@ -47000,7 +47000,7 @@
       <c r="DC206"/>
       <c r="DD206"/>
       <c r="DE206" t="n">
-        <v>0.79075</v>
+        <v>0.95</v>
       </c>
       <c r="DF206"/>
       <c r="DG206"/>
@@ -47394,7 +47394,7 @@
       <c r="DC208"/>
       <c r="DD208"/>
       <c r="DE208" t="n">
-        <v>0.348</v>
+        <v>0.446</v>
       </c>
       <c r="DF208"/>
       <c r="DG208"/>
@@ -47604,7 +47604,7 @@
       <c r="DC209"/>
       <c r="DD209"/>
       <c r="DE209" t="n">
-        <v>0.713925</v>
+        <v>0.95</v>
       </c>
       <c r="DF209" t="n">
         <v>0.00157138062443925</v>
@@ -47812,7 +47812,7 @@
       <c r="DC210"/>
       <c r="DD210"/>
       <c r="DE210" t="n">
-        <v>0.370166666666667</v>
+        <v>0.490333333333333</v>
       </c>
       <c r="DF210"/>
       <c r="DG210"/>
@@ -48014,7 +48014,7 @@
       <c r="DC211"/>
       <c r="DD211"/>
       <c r="DE211" t="n">
-        <v>0.618375</v>
+        <v>0.95</v>
       </c>
       <c r="DF211" t="n">
         <v>0.0234722294483459</v>
@@ -48234,7 +48234,7 @@
       <c r="DC212"/>
       <c r="DD212"/>
       <c r="DE212" t="n">
-        <v>0.451444444444444</v>
+        <v>0.652888888888889</v>
       </c>
       <c r="DF212"/>
       <c r="DG212"/>
@@ -48630,7 +48630,7 @@
       <c r="DC214"/>
       <c r="DD214"/>
       <c r="DE214" t="n">
-        <v>0.597666666666667</v>
+        <v>0.945333333333333</v>
       </c>
       <c r="DF214"/>
       <c r="DG214"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3568,7 +3568,7 @@
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0.009</v>
+        <v>0.00436884567569464</v>
       </c>
       <c r="DD2"/>
       <c r="DE2"/>
@@ -3836,7 +3836,7 @@
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3" t="n">
-        <v>0.00541140413646241</v>
+        <v>0.0112038218493728</v>
       </c>
       <c r="DD3"/>
       <c r="DE3"/>
@@ -4059,7 +4059,9 @@
       <c r="CZ4"/>
       <c r="DA4"/>
       <c r="DB4"/>
-      <c r="DC4"/>
+      <c r="DC4" t="n">
+        <v>0.00580578341790764</v>
+      </c>
       <c r="DD4"/>
       <c r="DE4"/>
       <c r="DF4"/>
@@ -4326,7 +4328,7 @@
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5" t="n">
-        <v>0.0018</v>
+        <v>0.00332747264670449</v>
       </c>
       <c r="DD5"/>
       <c r="DE5"/>
@@ -4596,7 +4598,7 @@
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6" t="n">
-        <v>0.00104629510698032</v>
+        <v>0.00223051546972426</v>
       </c>
       <c r="DD6"/>
       <c r="DE6"/>
@@ -4866,7 +4868,7 @@
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7" t="n">
-        <v>0.00342109137573859</v>
+        <v>0.00711235790822628</v>
       </c>
       <c r="DD7"/>
       <c r="DE7"/>
@@ -5132,7 +5134,7 @@
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8" t="n">
-        <v>0.00170652309252545</v>
+        <v>0.0035877388413974</v>
       </c>
       <c r="DD8"/>
       <c r="DE8"/>
@@ -5402,7 +5404,7 @@
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9" t="n">
-        <v>0.00197513529743135</v>
+        <v>0.00413992198176206</v>
       </c>
       <c r="DD9"/>
       <c r="DE9"/>
@@ -5668,7 +5670,7 @@
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10" t="n">
-        <v>0.00201619115607833</v>
+        <v>0.00422432005654799</v>
       </c>
       <c r="DD10"/>
       <c r="DE10"/>
@@ -6276,7 +6278,7 @@
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13" t="n">
-        <v>0.0020664773002519</v>
+        <v>0.0043276927272586</v>
       </c>
       <c r="DD13"/>
       <c r="DE13"/>
@@ -7375,7 +7377,9 @@
       <c r="CZ19"/>
       <c r="DA19"/>
       <c r="DB19"/>
-      <c r="DC19"/>
+      <c r="DC19" t="n">
+        <v>0.00538354422116695</v>
+      </c>
       <c r="DD19"/>
       <c r="DE19"/>
       <c r="DF19"/>
@@ -7591,7 +7595,9 @@
       <c r="CZ20"/>
       <c r="DA20"/>
       <c r="DB20"/>
-      <c r="DC20"/>
+      <c r="DC20" t="n">
+        <v>0.00179411628687287</v>
+      </c>
       <c r="DD20"/>
       <c r="DE20"/>
       <c r="DF20"/>
@@ -7810,7 +7816,7 @@
       <c r="DA21"/>
       <c r="DB21"/>
       <c r="DC21" t="n">
-        <v>0.00075</v>
+        <v>0.00211563236280096</v>
       </c>
       <c r="DD21"/>
       <c r="DE21"/>
@@ -9302,7 +9308,7 @@
       <c r="DA28"/>
       <c r="DB28"/>
       <c r="DC28" t="n">
-        <v>0.003</v>
+        <v>0.00214517820971025</v>
       </c>
       <c r="DD28"/>
       <c r="DE28"/>
@@ -9718,7 +9724,7 @@
       <c r="DA30"/>
       <c r="DB30"/>
       <c r="DC30" t="n">
-        <v>0.000805386302436502</v>
+        <v>0.00173528190324836</v>
       </c>
       <c r="DD30"/>
       <c r="DE30"/>
@@ -10560,7 +10566,7 @@
       <c r="DA34"/>
       <c r="DB34"/>
       <c r="DC34" t="n">
-        <v>0.0033</v>
+        <v>0.00406142526617734</v>
       </c>
       <c r="DD34"/>
       <c r="DE34"/>
@@ -10786,7 +10792,7 @@
       <c r="DA35"/>
       <c r="DB35"/>
       <c r="DC35" t="n">
-        <v>0.00410743851571631</v>
+        <v>0.00852327413694334</v>
       </c>
       <c r="DD35"/>
       <c r="DE35"/>
@@ -10998,7 +11004,7 @@
       <c r="DA36"/>
       <c r="DB36"/>
       <c r="DC36" t="n">
-        <v>0.00263627952336136</v>
+        <v>0.00549902885866622</v>
       </c>
       <c r="DD36"/>
       <c r="DE36"/>
@@ -11206,7 +11212,7 @@
       <c r="DA37"/>
       <c r="DB37"/>
       <c r="DC37" t="n">
-        <v>0.00114683417221073</v>
+        <v>0.00243719251475169</v>
       </c>
       <c r="DD37"/>
       <c r="DE37"/>
@@ -11399,7 +11405,9 @@
       <c r="CZ38"/>
       <c r="DA38"/>
       <c r="DB38"/>
-      <c r="DC38"/>
+      <c r="DC38" t="n">
+        <v>0.00809450440777297</v>
+      </c>
       <c r="DD38"/>
       <c r="DE38"/>
       <c r="DF38"/>
@@ -15936,7 +15944,7 @@
       <c r="DA60"/>
       <c r="DB60"/>
       <c r="DC60" t="n">
-        <v>0.00074532289803413</v>
+        <v>0.00161181022676399</v>
       </c>
       <c r="DD60"/>
       <c r="DE60"/>
@@ -16346,7 +16354,7 @@
       <c r="DA62"/>
       <c r="DB62"/>
       <c r="DC62" t="n">
-        <v>0.0045</v>
+        <v>0.00160939061023085</v>
       </c>
       <c r="DD62"/>
       <c r="DE62"/>
@@ -16562,7 +16570,7 @@
       <c r="DA63"/>
       <c r="DB63"/>
       <c r="DC63" t="n">
-        <v>0.00190596751156624</v>
+        <v>0.0039977345289453</v>
       </c>
       <c r="DD63"/>
       <c r="DE63"/>
@@ -20893,7 +20901,9 @@
       <c r="CZ85"/>
       <c r="DA85"/>
       <c r="DB85"/>
-      <c r="DC85"/>
+      <c r="DC85" t="n">
+        <v>0.00209934449788569</v>
+      </c>
       <c r="DD85"/>
       <c r="DE85"/>
       <c r="DF85"/>
@@ -22177,7 +22187,9 @@
       <c r="CZ91"/>
       <c r="DA91"/>
       <c r="DB91"/>
-      <c r="DC91"/>
+      <c r="DC91" t="n">
+        <v>0.0032480944379835</v>
+      </c>
       <c r="DD91"/>
       <c r="DE91"/>
       <c r="DF91"/>
@@ -23238,7 +23250,7 @@
       <c r="DA96"/>
       <c r="DB96"/>
       <c r="DC96" t="n">
-        <v>0.00446026223217329</v>
+        <v>0.00647655185474176</v>
       </c>
       <c r="DD96"/>
       <c r="DE96"/>
@@ -23437,7 +23449,9 @@
       <c r="CZ97"/>
       <c r="DA97"/>
       <c r="DB97"/>
-      <c r="DC97"/>
+      <c r="DC97" t="n">
+        <v>0.00192088952434155</v>
+      </c>
       <c r="DD97"/>
       <c r="DE97"/>
       <c r="DF97"/>
@@ -23926,7 +23940,7 @@
       <c r="DA99"/>
       <c r="DB99"/>
       <c r="DC99" t="n">
-        <v>0.00287045527228856</v>
+        <v>0.00393961812729256</v>
       </c>
       <c r="DD99"/>
       <c r="DE99"/>
@@ -24146,7 +24160,7 @@
       <c r="DA100"/>
       <c r="DB100"/>
       <c r="DC100" t="n">
-        <v>0.00104102511675227</v>
+        <v>0.00221968200906733</v>
       </c>
       <c r="DD100"/>
       <c r="DE100"/>
@@ -24343,7 +24357,9 @@
       <c r="CZ101"/>
       <c r="DA101"/>
       <c r="DB101"/>
-      <c r="DC101"/>
+      <c r="DC101" t="n">
+        <v>0.00207460512683456</v>
+      </c>
       <c r="DD101"/>
       <c r="DE101"/>
       <c r="DF101"/>
@@ -24582,7 +24598,7 @@
       <c r="DA102"/>
       <c r="DB102"/>
       <c r="DC102" t="n">
-        <v>0.00286683104357139</v>
+        <v>0.00393383476597852</v>
       </c>
       <c r="DD102"/>
       <c r="DE102"/>
@@ -25687,7 +25703,9 @@
       <c r="CZ108"/>
       <c r="DA108"/>
       <c r="DB108"/>
-      <c r="DC108"/>
+      <c r="DC108" t="n">
+        <v>0.00154888215417536</v>
+      </c>
       <c r="DD108"/>
       <c r="DE108"/>
       <c r="DF108"/>
@@ -26722,7 +26740,7 @@
       <c r="DA113"/>
       <c r="DB113"/>
       <c r="DC113" t="n">
-        <v>0.000922875020622103</v>
+        <v>0.00197680216249298</v>
       </c>
       <c r="DD113"/>
       <c r="DE113"/>
@@ -27130,7 +27148,7 @@
       <c r="DA115"/>
       <c r="DB115"/>
       <c r="DC115" t="n">
-        <v>0.00269474892541116</v>
+        <v>0.00365923480480888</v>
       </c>
       <c r="DD115"/>
       <c r="DE115"/>
@@ -27357,7 +27375,9 @@
       <c r="CZ116"/>
       <c r="DA116"/>
       <c r="DB116"/>
-      <c r="DC116"/>
+      <c r="DC116" t="n">
+        <v>0.0097784699464709</v>
+      </c>
       <c r="DD116"/>
       <c r="DE116"/>
       <c r="DF116"/>
@@ -27596,7 +27616,7 @@
       <c r="DA117"/>
       <c r="DB117"/>
       <c r="DC117" t="n">
-        <v>0.000679791900724173</v>
+        <v>0.00147709887997869</v>
       </c>
       <c r="DD117"/>
       <c r="DE117"/>
@@ -27850,7 +27870,7 @@
       <c r="DA118"/>
       <c r="DB118"/>
       <c r="DC118" t="n">
-        <v>0.000775490619980894</v>
+        <v>0.00167382567929358</v>
       </c>
       <c r="DD118"/>
       <c r="DE118"/>
@@ -28104,7 +28124,7 @@
       <c r="DA119"/>
       <c r="DB119"/>
       <c r="DC119" t="n">
-        <v>0.000670305107362669</v>
+        <v>0.00145759698373321</v>
       </c>
       <c r="DD119"/>
       <c r="DE119"/>
@@ -28344,7 +28364,7 @@
       <c r="DA120"/>
       <c r="DB120"/>
       <c r="DC120" t="n">
-        <v>0.000773867908124838</v>
+        <v>0.00167048988846867</v>
       </c>
       <c r="DD120"/>
       <c r="DE120"/>
@@ -28740,7 +28760,7 @@
       <c r="DA122"/>
       <c r="DB122"/>
       <c r="DC122" t="n">
-        <v>0.00250034335645265</v>
+        <v>0.00521958638300106</v>
       </c>
       <c r="DD122"/>
       <c r="DE122"/>
@@ -29143,7 +29163,9 @@
       <c r="CZ124"/>
       <c r="DA124"/>
       <c r="DB124"/>
-      <c r="DC124"/>
+      <c r="DC124" t="n">
+        <v>0.00391492046474905</v>
+      </c>
       <c r="DD124"/>
       <c r="DE124"/>
       <c r="DF124"/>
@@ -30152,7 +30174,7 @@
       <c r="DA129"/>
       <c r="DB129"/>
       <c r="DC129" t="n">
-        <v>0.000983367873404511</v>
+        <v>0.00210115665126504</v>
       </c>
       <c r="DD129"/>
       <c r="DE129"/>
@@ -30745,7 +30767,9 @@
       <c r="CZ132"/>
       <c r="DA132"/>
       <c r="DB132"/>
-      <c r="DC132"/>
+      <c r="DC132" t="n">
+        <v>0.000906464250099299</v>
+      </c>
       <c r="DD132"/>
       <c r="DE132"/>
       <c r="DF132"/>
@@ -30937,7 +30961,9 @@
       <c r="CZ133"/>
       <c r="DA133"/>
       <c r="DB133"/>
-      <c r="DC133"/>
+      <c r="DC133" t="n">
+        <v>0.00228755864896635</v>
+      </c>
       <c r="DD133"/>
       <c r="DE133"/>
       <c r="DF133"/>
@@ -31786,7 +31812,7 @@
       <c r="DA137"/>
       <c r="DB137"/>
       <c r="DC137" t="n">
-        <v>0.000561195094839645</v>
+        <v>0.00123330073710027</v>
       </c>
       <c r="DD137"/>
       <c r="DE137"/>
@@ -32735,7 +32761,9 @@
       <c r="CZ142"/>
       <c r="DA142"/>
       <c r="DB142"/>
-      <c r="DC142"/>
+      <c r="DC142" t="n">
+        <v>0.00482291903325982</v>
+      </c>
       <c r="DD142"/>
       <c r="DE142"/>
       <c r="DF142"/>
@@ -33176,7 +33204,7 @@
       <c r="DA144"/>
       <c r="DB144"/>
       <c r="DC144" t="n">
-        <v>0.000845588709140148</v>
+        <v>0.00181792554630848</v>
       </c>
       <c r="DD144"/>
       <c r="DE144"/>
@@ -33559,7 +33587,9 @@
       <c r="CZ146"/>
       <c r="DA146"/>
       <c r="DB146"/>
-      <c r="DC146"/>
+      <c r="DC146" t="n">
+        <v>0.000388710737531233</v>
+      </c>
       <c r="DD146"/>
       <c r="DE146"/>
       <c r="DF146"/>
@@ -33737,7 +33767,9 @@
       <c r="CZ147"/>
       <c r="DA147"/>
       <c r="DB147"/>
-      <c r="DC147"/>
+      <c r="DC147" t="n">
+        <v>0.00510170460598088</v>
+      </c>
       <c r="DD147"/>
       <c r="DE147"/>
       <c r="DF147"/>
@@ -33984,7 +34016,7 @@
       <c r="DA148"/>
       <c r="DB148"/>
       <c r="DC148" t="n">
-        <v>0.00298912793143386</v>
+        <v>0.00622437543072686</v>
       </c>
       <c r="DD148"/>
       <c r="DE148"/>
@@ -34233,7 +34265,9 @@
       </c>
       <c r="DA149"/>
       <c r="DB149"/>
-      <c r="DC149"/>
+      <c r="DC149" t="n">
+        <v>0.00277222661670983</v>
+      </c>
       <c r="DD149"/>
       <c r="DE149"/>
       <c r="DF149"/>
@@ -34514,7 +34548,7 @@
       <c r="DA150"/>
       <c r="DB150"/>
       <c r="DC150" t="n">
-        <v>0.00247516722331096</v>
+        <v>0.0048701782840047</v>
       </c>
       <c r="DD150"/>
       <c r="DE150"/>
@@ -34808,7 +34842,7 @@
       <c r="DA151"/>
       <c r="DB151"/>
       <c r="DC151" t="n">
-        <v>0.00182427252412565</v>
+        <v>0.00377037027023632</v>
       </c>
       <c r="DD151"/>
       <c r="DE151"/>
@@ -35068,7 +35102,7 @@
       <c r="DA152"/>
       <c r="DB152"/>
       <c r="DC152" t="n">
-        <v>0.007</v>
+        <v>0.00683210209777577</v>
       </c>
       <c r="DD152"/>
       <c r="DE152"/>
@@ -35350,7 +35384,7 @@
       <c r="DA153"/>
       <c r="DB153"/>
       <c r="DC153" t="n">
-        <v>0.00249418909410628</v>
+        <v>0.00490842611647506</v>
       </c>
       <c r="DD153"/>
       <c r="DE153"/>
@@ -35610,7 +35644,7 @@
       <c r="DA154"/>
       <c r="DB154"/>
       <c r="DC154" t="n">
-        <v>0.00864654403075331</v>
+        <v>0.00970727844740331</v>
       </c>
       <c r="DD154"/>
       <c r="DE154"/>
@@ -35904,7 +35938,7 @@
       <c r="DA155"/>
       <c r="DB155"/>
       <c r="DC155" t="n">
-        <v>0.00318642248360167</v>
+        <v>0.00387104310336164</v>
       </c>
       <c r="DD155"/>
       <c r="DE155"/>
@@ -36186,7 +36220,7 @@
       <c r="DA156"/>
       <c r="DB156"/>
       <c r="DC156" t="n">
-        <v>0.0045</v>
+        <v>0.00301220197523165</v>
       </c>
       <c r="DD156"/>
       <c r="DE156"/>
@@ -36856,7 +36890,7 @@
       <c r="DA159"/>
       <c r="DB159"/>
       <c r="DC159" t="n">
-        <v>0.000864733893415942</v>
+        <v>0.00185728208999186</v>
       </c>
       <c r="DD159"/>
       <c r="DE159"/>
@@ -37068,7 +37102,7 @@
       <c r="DA160"/>
       <c r="DB160"/>
       <c r="DC160" t="n">
-        <v>0.00490976185432422</v>
+        <v>0.00719384067073301</v>
       </c>
       <c r="DD160"/>
       <c r="DE160"/>
@@ -37466,7 +37500,7 @@
       <c r="DA162"/>
       <c r="DB162"/>
       <c r="DC162" t="n">
-        <v>0.007</v>
+        <v>0.00587442682512847</v>
       </c>
       <c r="DD162"/>
       <c r="DE162"/>
@@ -37722,7 +37756,7 @@
       <c r="DA163"/>
       <c r="DB163"/>
       <c r="DC163" t="n">
-        <v>0.00256836245980357</v>
+        <v>0.00345755366025266</v>
       </c>
       <c r="DD163"/>
       <c r="DE163"/>
@@ -37966,7 +38000,7 @@
       <c r="DA164"/>
       <c r="DB164"/>
       <c r="DC164" t="n">
-        <v>0.00478099525379898</v>
+        <v>0.00990789727787083</v>
       </c>
       <c r="DD164"/>
       <c r="DE164"/>
@@ -38168,7 +38202,7 @@
       <c r="DA165"/>
       <c r="DB165"/>
       <c r="DC165" t="n">
-        <v>0.00149855827982982</v>
+        <v>0.00316022787479836</v>
       </c>
       <c r="DD165"/>
       <c r="DE165"/>
@@ -38450,7 +38484,7 @@
       <c r="DA166"/>
       <c r="DB166"/>
       <c r="DC166" t="n">
-        <v>0.00188401951890941</v>
+        <v>0.00478993927234319</v>
       </c>
       <c r="DD166"/>
       <c r="DE166"/>
@@ -39014,7 +39048,7 @@
       <c r="DA168"/>
       <c r="DB168"/>
       <c r="DC168" t="n">
-        <v>0.00120315572719097</v>
+        <v>0.00303513046077045</v>
       </c>
       <c r="DD168"/>
       <c r="DE168"/>
@@ -39592,7 +39626,7 @@
       <c r="DA170"/>
       <c r="DB170"/>
       <c r="DC170" t="n">
-        <v>0.00065</v>
+        <v>0.00252987678197495</v>
       </c>
       <c r="DD170"/>
       <c r="DE170"/>
@@ -40144,7 +40178,7 @@
       <c r="DA172"/>
       <c r="DB172"/>
       <c r="DC172" t="n">
-        <v>0.00124700238778517</v>
+        <v>0.00314813765443329</v>
       </c>
       <c r="DD172"/>
       <c r="DE172"/>
@@ -40450,7 +40484,7 @@
       <c r="DA173"/>
       <c r="DB173"/>
       <c r="DC173" t="n">
-        <v>0.00116489773657126</v>
+        <v>0.0029365270985868</v>
       </c>
       <c r="DD173"/>
       <c r="DE173"/>
@@ -40734,7 +40768,7 @@
       <c r="DA174"/>
       <c r="DB174"/>
       <c r="DC174" t="n">
-        <v>0.00138903037021725</v>
+        <v>0.0035141902454114</v>
       </c>
       <c r="DD174"/>
       <c r="DE174"/>
@@ -41032,7 +41066,7 @@
       <c r="DA175"/>
       <c r="DB175"/>
       <c r="DC175" t="n">
-        <v>0.00180705659611069</v>
+        <v>0.00459158063331096</v>
       </c>
       <c r="DD175"/>
       <c r="DE175"/>
@@ -41316,7 +41350,7 @@
       <c r="DA176"/>
       <c r="DB176"/>
       <c r="DC176" t="n">
-        <v>0.00125128849766263</v>
+        <v>0.00315918436226506</v>
       </c>
       <c r="DD176"/>
       <c r="DE176"/>
@@ -41622,7 +41656,7 @@
       <c r="DA177"/>
       <c r="DB177"/>
       <c r="DC177" t="n">
-        <v>0.00075</v>
+        <v>0.00258763899591654</v>
       </c>
       <c r="DD177"/>
       <c r="DE177"/>
@@ -42050,7 +42084,7 @@
       <c r="DA179"/>
       <c r="DB179"/>
       <c r="DC179" t="n">
-        <v>0.00109286247939468</v>
+        <v>0.00232624350243706</v>
       </c>
       <c r="DD179"/>
       <c r="DE179"/>
@@ -42898,7 +42932,7 @@
       <c r="DA183"/>
       <c r="DB183"/>
       <c r="DC183" t="n">
-        <v>0.00286424147522188</v>
+        <v>0.00596764772319659</v>
       </c>
       <c r="DD183"/>
       <c r="DE183"/>
@@ -43976,7 +44010,7 @@
       <c r="DA188"/>
       <c r="DB188"/>
       <c r="DC188" t="n">
-        <v>0.00161739483068106</v>
+        <v>0.00340451885875469</v>
       </c>
       <c r="DD188"/>
       <c r="DE188"/>
@@ -44606,7 +44640,7 @@
       <c r="DA191"/>
       <c r="DB191"/>
       <c r="DC191" t="n">
-        <v>0.00275307686981761</v>
+        <v>0.00573912787268931</v>
       </c>
       <c r="DD191"/>
       <c r="DE191"/>
@@ -45882,7 +45916,7 @@
       <c r="DA198"/>
       <c r="DB198"/>
       <c r="DC198" t="n">
-        <v>0.004</v>
+        <v>0.00241091331463683</v>
       </c>
       <c r="DD198"/>
       <c r="DE198"/>
@@ -46457,7 +46491,9 @@
       <c r="CZ201"/>
       <c r="DA201"/>
       <c r="DB201"/>
-      <c r="DC201"/>
+      <c r="DC201" t="n">
+        <v>0.00366147808461013</v>
+      </c>
       <c r="DD201"/>
       <c r="DE201"/>
       <c r="DF201"/>
@@ -46684,7 +46720,7 @@
       <c r="DA202"/>
       <c r="DB202"/>
       <c r="DC202" t="n">
-        <v>0.000625044411359914</v>
+        <v>0.00136455507127563</v>
       </c>
       <c r="DD202"/>
       <c r="DE202"/>
@@ -47455,7 +47491,9 @@
       <c r="CZ206"/>
       <c r="DA206"/>
       <c r="DB206"/>
-      <c r="DC206"/>
+      <c r="DC206" t="n">
+        <v>0.00151751058415808</v>
+      </c>
       <c r="DD206"/>
       <c r="DE206"/>
       <c r="DF206"/>
@@ -48064,7 +48102,7 @@
       <c r="DA209"/>
       <c r="DB209"/>
       <c r="DC209" t="n">
-        <v>0.007</v>
+        <v>0.00406479631224623</v>
       </c>
       <c r="DD209"/>
       <c r="DE209"/>
@@ -48478,7 +48516,7 @@
       <c r="DA211"/>
       <c r="DB211"/>
       <c r="DC211" t="n">
-        <v>0.00118395501236878</v>
+        <v>0.00251350141552791</v>
       </c>
       <c r="DD211"/>
       <c r="DE211"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3568,7 +3568,7 @@
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0.00436884567569464</v>
+        <v>0.00458152816169206</v>
       </c>
       <c r="DD2"/>
       <c r="DE2"/>
@@ -3836,7 +3836,7 @@
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3" t="n">
-        <v>0.0112038218493728</v>
+        <v>0.0128273543471222</v>
       </c>
       <c r="DD3"/>
       <c r="DE3"/>
@@ -4060,7 +4060,7 @@
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4" t="n">
-        <v>0.00580578341790764</v>
+        <v>0.0063150731749436</v>
       </c>
       <c r="DD4"/>
       <c r="DE4"/>
@@ -4328,7 +4328,7 @@
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5" t="n">
-        <v>0.00332747264670449</v>
+        <v>0.00332519883836294</v>
       </c>
       <c r="DD5"/>
       <c r="DE5"/>
@@ -4598,7 +4598,7 @@
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6" t="n">
-        <v>0.00223051546972426</v>
+        <v>0.00200181189678542</v>
       </c>
       <c r="DD6"/>
       <c r="DE6"/>
@@ -4868,7 +4868,7 @@
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7" t="n">
-        <v>0.00711235790822628</v>
+        <v>0.00789134584535538</v>
       </c>
       <c r="DD7"/>
       <c r="DE7"/>
@@ -5134,7 +5134,7 @@
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8" t="n">
-        <v>0.0035877388413974</v>
+        <v>0.00363918819967862</v>
       </c>
       <c r="DD8"/>
       <c r="DE8"/>
@@ -5404,7 +5404,7 @@
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9" t="n">
-        <v>0.00413992198176206</v>
+        <v>0.00430535090197254</v>
       </c>
       <c r="DD9"/>
       <c r="DE9"/>
@@ -5670,7 +5670,7 @@
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10" t="n">
-        <v>0.00422432005654799</v>
+        <v>0.00440717010914838</v>
       </c>
       <c r="DD10"/>
       <c r="DE10"/>
@@ -6278,7 +6278,7 @@
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13" t="n">
-        <v>0.0043276927272586</v>
+        <v>0.00453188057679947</v>
       </c>
       <c r="DD13"/>
       <c r="DE13"/>
@@ -7378,7 +7378,7 @@
       <c r="DA19"/>
       <c r="DB19"/>
       <c r="DC19" t="n">
-        <v>0.00538354422116695</v>
+        <v>0.00580567695518681</v>
       </c>
       <c r="DD19"/>
       <c r="DE19"/>
@@ -7596,7 +7596,7 @@
       <c r="DA20"/>
       <c r="DB20"/>
       <c r="DC20" t="n">
-        <v>0.00179411628687287</v>
+        <v>0.00147533283997257</v>
       </c>
       <c r="DD20"/>
       <c r="DE20"/>
@@ -7816,7 +7816,7 @@
       <c r="DA21"/>
       <c r="DB21"/>
       <c r="DC21" t="n">
-        <v>0.00211563236280096</v>
+        <v>0.0018632150520766</v>
       </c>
       <c r="DD21"/>
       <c r="DE21"/>
@@ -9308,7 +9308,7 @@
       <c r="DA28"/>
       <c r="DB28"/>
       <c r="DC28" t="n">
-        <v>0.00214517820971025</v>
+        <v>0.00189885964130774</v>
       </c>
       <c r="DD28"/>
       <c r="DE28"/>
@@ -9724,7 +9724,7 @@
       <c r="DA30"/>
       <c r="DB30"/>
       <c r="DC30" t="n">
-        <v>0.00173528190324836</v>
+        <v>0.0014043540847045</v>
       </c>
       <c r="DD30"/>
       <c r="DE30"/>
@@ -10566,7 +10566,7 @@
       <c r="DA34"/>
       <c r="DB34"/>
       <c r="DC34" t="n">
-        <v>0.00406142526617734</v>
+        <v>0.00421065119031422</v>
       </c>
       <c r="DD34"/>
       <c r="DE34"/>
@@ -10792,7 +10792,7 @@
       <c r="DA35"/>
       <c r="DB35"/>
       <c r="DC35" t="n">
-        <v>0.00852327413694334</v>
+        <v>0.00959349808240447</v>
       </c>
       <c r="DD35"/>
       <c r="DE35"/>
@@ -11004,7 +11004,7 @@
       <c r="DA36"/>
       <c r="DB36"/>
       <c r="DC36" t="n">
-        <v>0.00549902885866622</v>
+        <v>0.00594499949614513</v>
       </c>
       <c r="DD36"/>
       <c r="DE36"/>
@@ -11212,7 +11212,7 @@
       <c r="DA37"/>
       <c r="DB37"/>
       <c r="DC37" t="n">
-        <v>0.00243719251475169</v>
+        <v>0.00225115043820969</v>
       </c>
       <c r="DD37"/>
       <c r="DE37"/>
@@ -11406,7 +11406,7 @@
       <c r="DA38"/>
       <c r="DB38"/>
       <c r="DC38" t="n">
-        <v>0.00809450440777297</v>
+        <v>0.00907622332233603</v>
       </c>
       <c r="DD38"/>
       <c r="DE38"/>
@@ -15944,7 +15944,7 @@
       <c r="DA60"/>
       <c r="DB60"/>
       <c r="DC60" t="n">
-        <v>0.00161181022676399</v>
+        <v>0.00125539585028744</v>
       </c>
       <c r="DD60"/>
       <c r="DE60"/>
@@ -16354,7 +16354,7 @@
       <c r="DA62"/>
       <c r="DB62"/>
       <c r="DC62" t="n">
-        <v>0.00160939061023085</v>
+        <v>0.00125247678563225</v>
       </c>
       <c r="DD62"/>
       <c r="DE62"/>
@@ -16570,7 +16570,7 @@
       <c r="DA63"/>
       <c r="DB63"/>
       <c r="DC63" t="n">
-        <v>0.0039977345289453</v>
+        <v>0.00413381365123694</v>
       </c>
       <c r="DD63"/>
       <c r="DE63"/>
@@ -20902,7 +20902,7 @@
       <c r="DA85"/>
       <c r="DB85"/>
       <c r="DC85" t="n">
-        <v>0.00209934449788569</v>
+        <v>0.00184356510749592</v>
       </c>
       <c r="DD85"/>
       <c r="DE85"/>
@@ -22188,7 +22188,7 @@
       <c r="DA91"/>
       <c r="DB91"/>
       <c r="DC91" t="n">
-        <v>0.0032480944379835</v>
+        <v>0.00322943567907867</v>
       </c>
       <c r="DD91"/>
       <c r="DE91"/>
@@ -23250,7 +23250,7 @@
       <c r="DA96"/>
       <c r="DB96"/>
       <c r="DC96" t="n">
-        <v>0.00647655185474176</v>
+        <v>0.00712429910350019</v>
       </c>
       <c r="DD96"/>
       <c r="DE96"/>
@@ -23450,7 +23450,7 @@
       <c r="DA97"/>
       <c r="DB97"/>
       <c r="DC97" t="n">
-        <v>0.00192088952434155</v>
+        <v>0.00162827413114441</v>
       </c>
       <c r="DD97"/>
       <c r="DE97"/>
@@ -23940,7 +23940,7 @@
       <c r="DA99"/>
       <c r="DB99"/>
       <c r="DC99" t="n">
-        <v>0.00393961812729256</v>
+        <v>0.00406370108107222</v>
       </c>
       <c r="DD99"/>
       <c r="DE99"/>
@@ -24160,7 +24160,7 @@
       <c r="DA100"/>
       <c r="DB100"/>
       <c r="DC100" t="n">
-        <v>0.00221968200906733</v>
+        <v>0.00198874223402525</v>
       </c>
       <c r="DD100"/>
       <c r="DE100"/>
@@ -24358,7 +24358,7 @@
       <c r="DA101"/>
       <c r="DB101"/>
       <c r="DC101" t="n">
-        <v>0.00207460512683456</v>
+        <v>0.00181371912874765</v>
       </c>
       <c r="DD101"/>
       <c r="DE101"/>
@@ -24598,7 +24598,7 @@
       <c r="DA102"/>
       <c r="DB102"/>
       <c r="DC102" t="n">
-        <v>0.00393383476597852</v>
+        <v>0.00405672394012084</v>
       </c>
       <c r="DD102"/>
       <c r="DE102"/>
@@ -25704,7 +25704,7 @@
       <c r="DA108"/>
       <c r="DB108"/>
       <c r="DC108" t="n">
-        <v>0.00154888215417536</v>
+        <v>0.00117947840221377</v>
       </c>
       <c r="DD108"/>
       <c r="DE108"/>
@@ -26740,7 +26740,7 @@
       <c r="DA113"/>
       <c r="DB113"/>
       <c r="DC113" t="n">
-        <v>0.00197680216249298</v>
+        <v>0.00169572804525475</v>
       </c>
       <c r="DD113"/>
       <c r="DE113"/>
@@ -27148,7 +27148,7 @@
       <c r="DA115"/>
       <c r="DB115"/>
       <c r="DC115" t="n">
-        <v>0.00365923480480888</v>
+        <v>0.00372544209029513</v>
       </c>
       <c r="DD115"/>
       <c r="DE115"/>
@@ -27376,7 +27376,7 @@
       <c r="DA116"/>
       <c r="DB116"/>
       <c r="DC116" t="n">
-        <v>0.0097784699464709</v>
+        <v>0.0111077866784501</v>
       </c>
       <c r="DD116"/>
       <c r="DE116"/>
@@ -27616,7 +27616,7 @@
       <c r="DA117"/>
       <c r="DB117"/>
       <c r="DC117" t="n">
-        <v>0.00147709887997869</v>
+        <v>0.00109287789520304</v>
       </c>
       <c r="DD117"/>
       <c r="DE117"/>
@@ -27870,7 +27870,7 @@
       <c r="DA118"/>
       <c r="DB118"/>
       <c r="DC118" t="n">
-        <v>0.00167382567929358</v>
+        <v>0.00133021229871035</v>
       </c>
       <c r="DD118"/>
       <c r="DE118"/>
@@ -28124,7 +28124,7 @@
       <c r="DA119"/>
       <c r="DB119"/>
       <c r="DC119" t="n">
-        <v>0.00145759698373321</v>
+        <v>0.00106935049106287</v>
       </c>
       <c r="DD119"/>
       <c r="DE119"/>
@@ -28364,7 +28364,7 @@
       <c r="DA120"/>
       <c r="DB120"/>
       <c r="DC120" t="n">
-        <v>0.00167048988846867</v>
+        <v>0.00132618794652035</v>
       </c>
       <c r="DD120"/>
       <c r="DE120"/>
@@ -28760,7 +28760,7 @@
       <c r="DA122"/>
       <c r="DB122"/>
       <c r="DC122" t="n">
-        <v>0.00521958638300106</v>
+        <v>0.00560787555823954</v>
       </c>
       <c r="DD122"/>
       <c r="DE122"/>
@@ -29164,7 +29164,7 @@
       <c r="DA124"/>
       <c r="DB124"/>
       <c r="DC124" t="n">
-        <v>0.00391492046474905</v>
+        <v>0.00403390542014447</v>
       </c>
       <c r="DD124"/>
       <c r="DE124"/>
@@ -30174,7 +30174,7 @@
       <c r="DA129"/>
       <c r="DB129"/>
       <c r="DC129" t="n">
-        <v>0.00210115665126504</v>
+        <v>0.00184575131874344</v>
       </c>
       <c r="DD129"/>
       <c r="DE129"/>
@@ -30768,7 +30768,7 @@
       <c r="DA132"/>
       <c r="DB132"/>
       <c r="DC132" t="n">
-        <v>0.000906464250099299</v>
+        <v>0.000404455016496699</v>
       </c>
       <c r="DD132"/>
       <c r="DE132"/>
@@ -30962,7 +30962,7 @@
       <c r="DA133"/>
       <c r="DB133"/>
       <c r="DC133" t="n">
-        <v>0.00228755864896635</v>
+        <v>0.00207062971401586</v>
       </c>
       <c r="DD133"/>
       <c r="DE133"/>
@@ -31812,7 +31812,7 @@
       <c r="DA137"/>
       <c r="DB137"/>
       <c r="DC137" t="n">
-        <v>0.00123330073710027</v>
+        <v>0.000798755858867644</v>
       </c>
       <c r="DD137"/>
       <c r="DE137"/>
@@ -32762,7 +32762,7 @@
       <c r="DA142"/>
       <c r="DB142"/>
       <c r="DC142" t="n">
-        <v>0.00482291903325982</v>
+        <v>0.00512932962972589</v>
       </c>
       <c r="DD142"/>
       <c r="DE142"/>
@@ -33204,7 +33204,7 @@
       <c r="DA144"/>
       <c r="DB144"/>
       <c r="DC144" t="n">
-        <v>0.00181792554630848</v>
+        <v>0.00150405671697246</v>
       </c>
       <c r="DD144"/>
       <c r="DE144"/>
@@ -33588,7 +33588,7 @@
       <c r="DA146"/>
       <c r="DB146"/>
       <c r="DC146" t="n">
-        <v>0.000388710737531233</v>
+        <v>-0.000220171224041421</v>
       </c>
       <c r="DD146"/>
       <c r="DE146"/>
@@ -33768,7 +33768,7 @@
       <c r="DA147"/>
       <c r="DB147"/>
       <c r="DC147" t="n">
-        <v>0.00510170460598088</v>
+        <v>0.00546566106925838</v>
       </c>
       <c r="DD147"/>
       <c r="DE147"/>
@@ -34016,7 +34016,7 @@
       <c r="DA148"/>
       <c r="DB148"/>
       <c r="DC148" t="n">
-        <v>0.00622437543072686</v>
+        <v>0.00682006937282489</v>
       </c>
       <c r="DD148"/>
       <c r="DE148"/>
@@ -34266,7 +34266,7 @@
       <c r="DA149"/>
       <c r="DB149"/>
       <c r="DC149" t="n">
-        <v>0.00277222661670983</v>
+        <v>0.00265534101630966</v>
       </c>
       <c r="DD149"/>
       <c r="DE149"/>
@@ -34548,7 +34548,7 @@
       <c r="DA150"/>
       <c r="DB150"/>
       <c r="DC150" t="n">
-        <v>0.0048701782840047</v>
+        <v>0.00518634395682723</v>
       </c>
       <c r="DD150"/>
       <c r="DE150"/>
@@ -34842,7 +34842,7 @@
       <c r="DA151"/>
       <c r="DB151"/>
       <c r="DC151" t="n">
-        <v>0.00377037027023632</v>
+        <v>0.0038595177194803</v>
       </c>
       <c r="DD151"/>
       <c r="DE151"/>
@@ -35102,7 +35102,7 @@
       <c r="DA152"/>
       <c r="DB152"/>
       <c r="DC152" t="n">
-        <v>0.00683210209777577</v>
+        <v>0.00755324068716459</v>
       </c>
       <c r="DD152"/>
       <c r="DE152"/>
@@ -35384,7 +35384,7 @@
       <c r="DA153"/>
       <c r="DB153"/>
       <c r="DC153" t="n">
-        <v>0.00490842611647506</v>
+        <v>0.00523248676266971</v>
       </c>
       <c r="DD153"/>
       <c r="DE153"/>
@@ -35644,7 +35644,7 @@
       <c r="DA154"/>
       <c r="DB154"/>
       <c r="DC154" t="n">
-        <v>0.00970727844740331</v>
+        <v>0.0110219000985594</v>
       </c>
       <c r="DD154"/>
       <c r="DE154"/>
@@ -35938,7 +35938,7 @@
       <c r="DA155"/>
       <c r="DB155"/>
       <c r="DC155" t="n">
-        <v>0.00387104310336164</v>
+        <v>0.00398097105925098</v>
       </c>
       <c r="DD155"/>
       <c r="DE155"/>
@@ -36220,7 +36220,7 @@
       <c r="DA156"/>
       <c r="DB156"/>
       <c r="DC156" t="n">
-        <v>0.00301220197523165</v>
+        <v>0.00294485118355467</v>
       </c>
       <c r="DD156"/>
       <c r="DE156"/>
@@ -36890,7 +36890,7 @@
       <c r="DA159"/>
       <c r="DB159"/>
       <c r="DC159" t="n">
-        <v>0.00185728208999186</v>
+        <v>0.00155153709001637</v>
       </c>
       <c r="DD159"/>
       <c r="DE159"/>
@@ -37102,7 +37102,7 @@
       <c r="DA160"/>
       <c r="DB160"/>
       <c r="DC160" t="n">
-        <v>0.00719384067073301</v>
+        <v>0.00798964797248301</v>
       </c>
       <c r="DD160"/>
       <c r="DE160"/>
@@ -37500,7 +37500,7 @@
       <c r="DA162"/>
       <c r="DB162"/>
       <c r="DC162" t="n">
-        <v>0.00587442682512847</v>
+        <v>0.00639788569547563</v>
       </c>
       <c r="DD162"/>
       <c r="DE162"/>
@@ -37756,7 +37756,7 @@
       <c r="DA163"/>
       <c r="DB163"/>
       <c r="DC163" t="n">
-        <v>0.00345755366025266</v>
+        <v>0.00348213068428122</v>
       </c>
       <c r="DD163"/>
       <c r="DE163"/>
@@ -38000,7 +38000,7 @@
       <c r="DA164"/>
       <c r="DB164"/>
       <c r="DC164" t="n">
-        <v>0.00990789727787083</v>
+        <v>0.0112639299116157</v>
       </c>
       <c r="DD164"/>
       <c r="DE164"/>
@@ -38202,7 +38202,7 @@
       <c r="DA165"/>
       <c r="DB165"/>
       <c r="DC165" t="n">
-        <v>0.00316022787479836</v>
+        <v>0.00312343203120555</v>
       </c>
       <c r="DD165"/>
       <c r="DE165"/>
@@ -38484,7 +38484,7 @@
       <c r="DA166"/>
       <c r="DB166"/>
       <c r="DC166" t="n">
-        <v>0.00478993927234319</v>
+        <v>0.00508954231090497</v>
       </c>
       <c r="DD166"/>
       <c r="DE166"/>
@@ -39048,7 +39048,7 @@
       <c r="DA168"/>
       <c r="DB168"/>
       <c r="DC168" t="n">
-        <v>0.00303513046077045</v>
+        <v>0.00297251248063076</v>
       </c>
       <c r="DD168"/>
       <c r="DE168"/>
@@ -39626,7 +39626,7 @@
       <c r="DA170"/>
       <c r="DB170"/>
       <c r="DC170" t="n">
-        <v>0.00252987678197495</v>
+        <v>0.00236296624242422</v>
       </c>
       <c r="DD170"/>
       <c r="DE170"/>
@@ -40178,7 +40178,7 @@
       <c r="DA172"/>
       <c r="DB172"/>
       <c r="DC172" t="n">
-        <v>0.00314813765443329</v>
+        <v>0.00310884619313668</v>
       </c>
       <c r="DD172"/>
       <c r="DE172"/>
@@ -40484,7 +40484,7 @@
       <c r="DA173"/>
       <c r="DB173"/>
       <c r="DC173" t="n">
-        <v>0.0029365270985868</v>
+        <v>0.00285355578419098</v>
       </c>
       <c r="DD173"/>
       <c r="DE173"/>
@@ -40768,7 +40768,7 @@
       <c r="DA174"/>
       <c r="DB174"/>
       <c r="DC174" t="n">
-        <v>0.0035141902454114</v>
+        <v>0.00355045797981061</v>
       </c>
       <c r="DD174"/>
       <c r="DE174"/>
@@ -41066,7 +41066,7 @@
       <c r="DA175"/>
       <c r="DB175"/>
       <c r="DC175" t="n">
-        <v>0.00459158063331096</v>
+        <v>0.00485023922947841</v>
       </c>
       <c r="DD175"/>
       <c r="DE175"/>
@@ -41350,7 +41350,7 @@
       <c r="DA176"/>
       <c r="DB176"/>
       <c r="DC176" t="n">
-        <v>0.00315918436226506</v>
+        <v>0.00312217312074949</v>
       </c>
       <c r="DD176"/>
       <c r="DE176"/>
@@ -41656,7 +41656,7 @@
       <c r="DA177"/>
       <c r="DB177"/>
       <c r="DC177" t="n">
-        <v>0.00258763899591654</v>
+        <v>0.00243265151478584</v>
       </c>
       <c r="DD177"/>
       <c r="DE177"/>
@@ -42084,7 +42084,7 @@
       <c r="DA179"/>
       <c r="DB179"/>
       <c r="DC179" t="n">
-        <v>0.00232624350243706</v>
+        <v>0.00211729974908589</v>
       </c>
       <c r="DD179"/>
       <c r="DE179"/>
@@ -42932,7 +42932,7 @@
       <c r="DA183"/>
       <c r="DB183"/>
       <c r="DC183" t="n">
-        <v>0.00596764772319659</v>
+        <v>0.00651034889985076</v>
       </c>
       <c r="DD183"/>
       <c r="DE183"/>
@@ -44010,7 +44010,7 @@
       <c r="DA188"/>
       <c r="DB188"/>
       <c r="DC188" t="n">
-        <v>0.00340451885875469</v>
+        <v>0.003418148639016</v>
       </c>
       <c r="DD188"/>
       <c r="DE188"/>
@@ -44640,7 +44640,7 @@
       <c r="DA191"/>
       <c r="DB191"/>
       <c r="DC191" t="n">
-        <v>0.00573912787268931</v>
+        <v>0.00623465884339376</v>
       </c>
       <c r="DD191"/>
       <c r="DE191"/>
@@ -45916,7 +45916,7 @@
       <c r="DA198"/>
       <c r="DB198"/>
       <c r="DC198" t="n">
-        <v>0.00241091331463683</v>
+        <v>0.002219446784688</v>
       </c>
       <c r="DD198"/>
       <c r="DE198"/>
@@ -46492,7 +46492,7 @@
       <c r="DA201"/>
       <c r="DB201"/>
       <c r="DC201" t="n">
-        <v>0.00366147808461013</v>
+        <v>0.00372814841945508</v>
       </c>
       <c r="DD201"/>
       <c r="DE201"/>
@@ -46720,7 +46720,7 @@
       <c r="DA202"/>
       <c r="DB202"/>
       <c r="DC202" t="n">
-        <v>0.00136455507127563</v>
+        <v>0.000957103217833194</v>
       </c>
       <c r="DD202"/>
       <c r="DE202"/>
@@ -47492,7 +47492,7 @@
       <c r="DA206"/>
       <c r="DB206"/>
       <c r="DC206" t="n">
-        <v>0.00151751058415808</v>
+        <v>0.00114163123099425</v>
       </c>
       <c r="DD206"/>
       <c r="DE206"/>
@@ -48102,7 +48102,7 @@
       <c r="DA209"/>
       <c r="DB209"/>
       <c r="DC209" t="n">
-        <v>0.00406479631224623</v>
+        <v>0.00421471807500275</v>
       </c>
       <c r="DD209"/>
       <c r="DE209"/>
@@ -48516,7 +48516,7 @@
       <c r="DA211"/>
       <c r="DB211"/>
       <c r="DC211" t="n">
-        <v>0.00251350141552791</v>
+        <v>0.00234321073457548</v>
       </c>
       <c r="DD211"/>
       <c r="DE211"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3577,7 +3577,7 @@
         <v>0.95</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0012</v>
+        <v>0.0005</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
@@ -4337,7 +4337,7 @@
         <v>0.95</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0005</v>
+        <v>0.00209304557393908</v>
       </c>
       <c r="DI5"/>
       <c r="DJ5" t="n">
@@ -5143,7 +5143,7 @@
         <v>0.95</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0005</v>
+        <v>0.000971885554059952</v>
       </c>
       <c r="DI8"/>
       <c r="DJ8" t="n">
@@ -7825,7 +7825,7 @@
         <v>0.9465</v>
       </c>
       <c r="DH21" t="n">
-        <v>0.001</v>
+        <v>0.00394729039877795</v>
       </c>
       <c r="DI21"/>
       <c r="DJ21" t="n">
@@ -9317,7 +9317,7 @@
         <v>0.5199375</v>
       </c>
       <c r="DH28" t="n">
-        <v>0.0025</v>
+        <v>0.003</v>
       </c>
       <c r="DI28"/>
       <c r="DJ28" t="n">
@@ -10575,7 +10575,7 @@
         <v>0.95</v>
       </c>
       <c r="DH34" t="n">
-        <v>0.0025</v>
+        <v>0.00406757580252589</v>
       </c>
       <c r="DI34"/>
       <c r="DJ34" t="n">
@@ -26749,7 +26749,7 @@
         <v>0.95</v>
       </c>
       <c r="DH113" t="n">
-        <v>0.00311953762158457</v>
+        <v>0.001</v>
       </c>
       <c r="DI113"/>
       <c r="DJ113" t="n">
@@ -34851,7 +34851,7 @@
         <v>0.635</v>
       </c>
       <c r="DH151" t="n">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
       <c r="DI151"/>
       <c r="DJ151" t="n">
@@ -35111,7 +35111,7 @@
         <v>0.530976744186046</v>
       </c>
       <c r="DH152" t="n">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="DI152"/>
       <c r="DJ152" t="n">
@@ -36229,7 +36229,7 @@
         <v>0.32</v>
       </c>
       <c r="DH156" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="DI156"/>
       <c r="DJ156" t="n">
@@ -37509,7 +37509,7 @@
         <v>0.462470588235294</v>
       </c>
       <c r="DH162" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="DI162"/>
       <c r="DJ162" t="n">
@@ -39057,7 +39057,7 @@
         <v>0.78040350877193</v>
       </c>
       <c r="DH168" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="DI168"/>
       <c r="DJ168" t="n">
@@ -39635,7 +39635,7 @@
         <v>0.95</v>
       </c>
       <c r="DH170" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="DI170"/>
       <c r="DJ170" t="n">
@@ -40493,7 +40493,7 @@
         <v>0.7085</v>
       </c>
       <c r="DH173" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="DI173"/>
       <c r="DJ173" t="n">

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3568,10 +3568,12 @@
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0.00458152816169206</v>
+        <v>0.00329059923457876</v>
       </c>
       <c r="DD2"/>
-      <c r="DE2"/>
+      <c r="DE2" t="n">
+        <v>0.00018244426868726</v>
+      </c>
       <c r="DF2"/>
       <c r="DG2" t="n">
         <v>0.95</v>
@@ -3836,10 +3838,12 @@
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3" t="n">
-        <v>0.0128273543471222</v>
+        <v>0.00921301384748489</v>
       </c>
       <c r="DD3"/>
-      <c r="DE3"/>
+      <c r="DE3" t="n">
+        <v>0.000510807136933268</v>
+      </c>
       <c r="DF3"/>
       <c r="DG3" t="n">
         <v>0.95</v>
@@ -4060,10 +4064,12 @@
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4" t="n">
-        <v>0.0063150731749436</v>
+        <v>0.00453568639597833</v>
       </c>
       <c r="DD4"/>
-      <c r="DE4"/>
+      <c r="DE4" t="n">
+        <v>0.000251476988997401</v>
+      </c>
       <c r="DF4"/>
       <c r="DG4"/>
       <c r="DH4" t="n">
@@ -4328,10 +4334,12 @@
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5" t="n">
-        <v>0.00332519883836294</v>
+        <v>0.00238826355883365</v>
       </c>
       <c r="DD5"/>
-      <c r="DE5"/>
+      <c r="DE5" t="n">
+        <v>0.00013241509140496</v>
+      </c>
       <c r="DF5"/>
       <c r="DG5" t="n">
         <v>0.95</v>
@@ -4598,10 +4606,12 @@
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6" t="n">
-        <v>0.00200181189678542</v>
+        <v>0.00143776496899235</v>
       </c>
       <c r="DD6"/>
-      <c r="DE6"/>
+      <c r="DE6" t="n">
+        <v>0.0000797155653461244</v>
+      </c>
       <c r="DF6"/>
       <c r="DG6" t="n">
         <v>0.831</v>
@@ -4868,10 +4878,12 @@
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7" t="n">
-        <v>0.00789134584535538</v>
+        <v>0.00566781555893185</v>
       </c>
       <c r="DD7"/>
-      <c r="DE7"/>
+      <c r="DE7" t="n">
+        <v>0.000314246856267797</v>
+      </c>
       <c r="DF7"/>
       <c r="DG7" t="n">
         <v>0.95</v>
@@ -5134,10 +5146,12 @@
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8" t="n">
-        <v>0.00363918819967862</v>
+        <v>0.00261378070410634</v>
       </c>
       <c r="DD8"/>
-      <c r="DE8"/>
+      <c r="DE8" t="n">
+        <v>0.000144918683520753</v>
+      </c>
       <c r="DF8"/>
       <c r="DG8" t="n">
         <v>0.95</v>
@@ -5404,10 +5418,12 @@
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9" t="n">
-        <v>0.00430535090197254</v>
+        <v>0.00309223994323142</v>
       </c>
       <c r="DD9"/>
-      <c r="DE9"/>
+      <c r="DE9" t="n">
+        <v>0.000171446418974388</v>
+      </c>
       <c r="DF9"/>
       <c r="DG9" t="n">
         <v>0.95</v>
@@ -5670,10 +5686,12 @@
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10" t="n">
-        <v>0.00440717010914838</v>
+        <v>0.00316536973603717</v>
       </c>
       <c r="DD10"/>
-      <c r="DE10"/>
+      <c r="DE10" t="n">
+        <v>0.000175501033534403</v>
+      </c>
       <c r="DF10"/>
       <c r="DG10" t="n">
         <v>0.95</v>
@@ -6278,10 +6296,12 @@
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13" t="n">
-        <v>0.00453188057679947</v>
+        <v>0.00325494076013954</v>
       </c>
       <c r="DD13"/>
-      <c r="DE13"/>
+      <c r="DE13" t="n">
+        <v>0.000180467217145036</v>
+      </c>
       <c r="DF13"/>
       <c r="DG13" t="n">
         <v>0.8485</v>
@@ -7378,10 +7398,12 @@
       <c r="DA19"/>
       <c r="DB19"/>
       <c r="DC19" t="n">
-        <v>0.00580567695518681</v>
+        <v>0.0041698218303418</v>
       </c>
       <c r="DD19"/>
-      <c r="DE19"/>
+      <c r="DE19" t="n">
+        <v>0.000231191962363131</v>
+      </c>
       <c r="DF19"/>
       <c r="DG19"/>
       <c r="DH19"/>
@@ -7596,10 +7618,12 @@
       <c r="DA20"/>
       <c r="DB20"/>
       <c r="DC20" t="n">
-        <v>0.00147533283997257</v>
+        <v>0.00105963096648733</v>
       </c>
       <c r="DD20"/>
-      <c r="DE20"/>
+      <c r="DE20" t="n">
+        <v>0.0000587502709924815</v>
+      </c>
       <c r="DF20"/>
       <c r="DG20" t="n">
         <v>0.9465</v>
@@ -7816,10 +7840,12 @@
       <c r="DA21"/>
       <c r="DB21"/>
       <c r="DC21" t="n">
-        <v>0.0018632150520766</v>
+        <v>0.00133822030725105</v>
       </c>
       <c r="DD21"/>
-      <c r="DE21"/>
+      <c r="DE21" t="n">
+        <v>0.0000741964025072511</v>
+      </c>
       <c r="DF21"/>
       <c r="DG21" t="n">
         <v>0.9465</v>
@@ -9308,10 +9334,12 @@
       <c r="DA28"/>
       <c r="DB28"/>
       <c r="DC28" t="n">
-        <v>0.00189885964130774</v>
+        <v>0.00136382138486126</v>
       </c>
       <c r="DD28"/>
-      <c r="DE28"/>
+      <c r="DE28" t="n">
+        <v>0.0000756158308694531</v>
+      </c>
       <c r="DF28"/>
       <c r="DG28" t="n">
         <v>0.5199375</v>
@@ -9724,10 +9752,12 @@
       <c r="DA30"/>
       <c r="DB30"/>
       <c r="DC30" t="n">
-        <v>0.0014043540847045</v>
+        <v>0.00100865176707753</v>
       </c>
       <c r="DD30"/>
-      <c r="DE30"/>
+      <c r="DE30" t="n">
+        <v>0.0000559237758493341</v>
+      </c>
       <c r="DF30"/>
       <c r="DG30" t="n">
         <v>0.95</v>
@@ -10566,10 +10596,12 @@
       <c r="DA34"/>
       <c r="DB34"/>
       <c r="DC34" t="n">
-        <v>0.00421065119031422</v>
+        <v>0.00302422359853158</v>
       </c>
       <c r="DD34"/>
-      <c r="DE34"/>
+      <c r="DE34" t="n">
+        <v>0.000167675314873608</v>
+      </c>
       <c r="DF34"/>
       <c r="DG34" t="n">
         <v>0.95</v>
@@ -10792,10 +10824,12 @@
       <c r="DA35"/>
       <c r="DB35"/>
       <c r="DC35" t="n">
-        <v>0.00959349808240447</v>
+        <v>0.00689035543006115</v>
       </c>
       <c r="DD35"/>
-      <c r="DE35"/>
+      <c r="DE35" t="n">
+        <v>0.000382029462665247</v>
+      </c>
       <c r="DF35"/>
       <c r="DG35" t="n">
         <v>0.5895</v>
@@ -11004,10 +11038,12 @@
       <c r="DA36"/>
       <c r="DB36"/>
       <c r="DC36" t="n">
-        <v>0.00594499949614513</v>
+        <v>0.0042698877102092</v>
       </c>
       <c r="DD36"/>
-      <c r="DE36"/>
+      <c r="DE36" t="n">
+        <v>0.000236740023664887</v>
+      </c>
       <c r="DF36"/>
       <c r="DG36" t="n">
         <v>0.838</v>
@@ -11212,10 +11248,12 @@
       <c r="DA37"/>
       <c r="DB37"/>
       <c r="DC37" t="n">
-        <v>0.00225115043820969</v>
+        <v>0.00161684783929357</v>
       </c>
       <c r="DD37"/>
-      <c r="DE37"/>
+      <c r="DE37" t="n">
+        <v>0.0000896446515025867</v>
+      </c>
       <c r="DF37"/>
       <c r="DG37"/>
       <c r="DH37" t="n">
@@ -11406,10 +11444,12 @@
       <c r="DA38"/>
       <c r="DB38"/>
       <c r="DC38" t="n">
-        <v>0.00907622332233603</v>
+        <v>0.00651883224620726</v>
       </c>
       <c r="DD38"/>
-      <c r="DE38"/>
+      <c r="DE38" t="n">
+        <v>0.000361430699112911</v>
+      </c>
       <c r="DF38"/>
       <c r="DG38" t="n">
         <v>0.95</v>
@@ -15944,10 +15984,12 @@
       <c r="DA60"/>
       <c r="DB60"/>
       <c r="DC60" t="n">
-        <v>0.00125539585028744</v>
+        <v>0.000901665225718817</v>
       </c>
       <c r="DD60"/>
-      <c r="DE60"/>
+      <c r="DE60" t="n">
+        <v>0.0000499920047930302</v>
+      </c>
       <c r="DF60"/>
       <c r="DG60" t="n">
         <v>0.95</v>
@@ -16354,10 +16396,12 @@
       <c r="DA62"/>
       <c r="DB62"/>
       <c r="DC62" t="n">
-        <v>0.00125247678563225</v>
+        <v>0.000899568660646847</v>
       </c>
       <c r="DD62"/>
-      <c r="DE62"/>
+      <c r="DE62" t="n">
+        <v>0.0000498757626577706</v>
+      </c>
       <c r="DF62"/>
       <c r="DG62" t="n">
         <v>0.646375</v>
@@ -16570,10 +16614,12 @@
       <c r="DA63"/>
       <c r="DB63"/>
       <c r="DC63" t="n">
-        <v>0.00413381365123694</v>
+        <v>0.0029690364342599</v>
       </c>
       <c r="DD63"/>
-      <c r="DE63"/>
+      <c r="DE63" t="n">
+        <v>0.000164615512962556</v>
+      </c>
       <c r="DF63"/>
       <c r="DG63" t="n">
         <v>0.707333333333333</v>
@@ -20902,10 +20948,12 @@
       <c r="DA85"/>
       <c r="DB85"/>
       <c r="DC85" t="n">
-        <v>0.00184356510749592</v>
+        <v>0.00132410709211525</v>
       </c>
       <c r="DD85"/>
-      <c r="DE85"/>
+      <c r="DE85" t="n">
+        <v>0.0000734139081860893</v>
+      </c>
       <c r="DF85"/>
       <c r="DG85" t="n">
         <v>0.362583333333333</v>
@@ -22188,10 +22236,12 @@
       <c r="DA91"/>
       <c r="DB91"/>
       <c r="DC91" t="n">
-        <v>0.00322943567907867</v>
+        <v>0.00231948341222744</v>
       </c>
       <c r="DD91"/>
-      <c r="DE91"/>
+      <c r="DE91" t="n">
+        <v>0.000128601639005194</v>
+      </c>
       <c r="DF91"/>
       <c r="DG91" t="n">
         <v>0.362583333333333</v>
@@ -23250,10 +23300,12 @@
       <c r="DA96"/>
       <c r="DB96"/>
       <c r="DC96" t="n">
-        <v>0.00712429910350019</v>
+        <v>0.00511689819412346</v>
       </c>
       <c r="DD96"/>
-      <c r="DE96"/>
+      <c r="DE96" t="n">
+        <v>0.000283701746224202</v>
+      </c>
       <c r="DF96"/>
       <c r="DG96"/>
       <c r="DH96" t="n">
@@ -23450,10 +23502,12 @@
       <c r="DA97"/>
       <c r="DB97"/>
       <c r="DC97" t="n">
-        <v>0.00162827413114441</v>
+        <v>0.00116947826588266</v>
       </c>
       <c r="DD97"/>
-      <c r="DE97"/>
+      <c r="DE97" t="n">
+        <v>0.0000648406541649</v>
+      </c>
       <c r="DF97"/>
       <c r="DG97" t="n">
         <v>0.95</v>
@@ -23940,10 +23994,12 @@
       <c r="DA99"/>
       <c r="DB99"/>
       <c r="DC99" t="n">
-        <v>0.00406370108107222</v>
+        <v>0.0029186793565391</v>
       </c>
       <c r="DD99"/>
-      <c r="DE99"/>
+      <c r="DE99" t="n">
+        <v>0.000161823510788163</v>
+      </c>
       <c r="DF99"/>
       <c r="DG99" t="n">
         <v>0.95</v>
@@ -24160,10 +24216,12 @@
       <c r="DA100"/>
       <c r="DB100"/>
       <c r="DC100" t="n">
-        <v>0.00198874223402525</v>
+        <v>0.00142837792153635</v>
       </c>
       <c r="DD100"/>
-      <c r="DE100"/>
+      <c r="DE100" t="n">
+        <v>0.0000791951090747419</v>
+      </c>
       <c r="DF100"/>
       <c r="DG100"/>
       <c r="DH100"/>
@@ -24358,10 +24416,12 @@
       <c r="DA101"/>
       <c r="DB101"/>
       <c r="DC101" t="n">
-        <v>0.00181371912874765</v>
+        <v>0.00130267076097022</v>
       </c>
       <c r="DD101"/>
-      <c r="DE101"/>
+      <c r="DE101" t="n">
+        <v>0.0000722253903872654</v>
+      </c>
       <c r="DF101"/>
       <c r="DG101" t="n">
         <v>0.831</v>
@@ -24598,10 +24658,12 @@
       <c r="DA102"/>
       <c r="DB102"/>
       <c r="DC102" t="n">
-        <v>0.00405672394012084</v>
+        <v>0.00291366815200998</v>
       </c>
       <c r="DD102"/>
-      <c r="DE102"/>
+      <c r="DE102" t="n">
+        <v>0.000161545669130647</v>
+      </c>
       <c r="DF102"/>
       <c r="DG102" t="n">
         <v>0.8555</v>
@@ -25704,10 +25766,12 @@
       <c r="DA108"/>
       <c r="DB108"/>
       <c r="DC108" t="n">
-        <v>0.00117947840221377</v>
+        <v>0.000847138900068094</v>
       </c>
       <c r="DD108"/>
-      <c r="DE108"/>
+      <c r="DE108" t="n">
+        <v>0.0000469688424756588</v>
+      </c>
       <c r="DF108"/>
       <c r="DG108"/>
       <c r="DH108"/>
@@ -26740,10 +26804,12 @@
       <c r="DA113"/>
       <c r="DB113"/>
       <c r="DC113" t="n">
-        <v>0.00169572804525475</v>
+        <v>0.00121792581227051</v>
       </c>
       <c r="DD113"/>
-      <c r="DE113"/>
+      <c r="DE113" t="n">
+        <v>0.0000675267841188433</v>
+      </c>
       <c r="DF113"/>
       <c r="DG113" t="n">
         <v>0.95</v>
@@ -27148,10 +27214,12 @@
       <c r="DA115"/>
       <c r="DB115"/>
       <c r="DC115" t="n">
-        <v>0.00372544209029513</v>
+        <v>0.00267573099152689</v>
       </c>
       <c r="DD115"/>
-      <c r="DE115"/>
+      <c r="DE115" t="n">
+        <v>0.000148353460616863</v>
+      </c>
       <c r="DF115"/>
       <c r="DG115" t="n">
         <v>0.6126</v>
@@ -27376,10 +27444,12 @@
       <c r="DA116"/>
       <c r="DB116"/>
       <c r="DC116" t="n">
-        <v>0.0111077866784501</v>
+        <v>0.00797796565949143</v>
       </c>
       <c r="DD116"/>
-      <c r="DE116"/>
+      <c r="DE116" t="n">
+        <v>0.000442331018333296</v>
+      </c>
       <c r="DF116"/>
       <c r="DG116" t="n">
         <v>0.471454545454545</v>
@@ -27616,10 +27686,12 @@
       <c r="DA117"/>
       <c r="DB117"/>
       <c r="DC117" t="n">
-        <v>0.00109287789520304</v>
+        <v>0.000784939661729596</v>
       </c>
       <c r="DD117"/>
-      <c r="DE117"/>
+      <c r="DE117" t="n">
+        <v>0.0000435202625233132</v>
+      </c>
       <c r="DF117"/>
       <c r="DG117" t="n">
         <v>0.40925</v>
@@ -27870,10 +27942,12 @@
       <c r="DA118"/>
       <c r="DB118"/>
       <c r="DC118" t="n">
-        <v>0.00133021229871035</v>
+        <v>0.000955400778404675</v>
       </c>
       <c r="DD118"/>
-      <c r="DE118"/>
+      <c r="DE118" t="n">
+        <v>0.0000529713234257144</v>
+      </c>
       <c r="DF118"/>
       <c r="DG118" t="n">
         <v>0.471454545454545</v>
@@ -28124,10 +28198,12 @@
       <c r="DA119"/>
       <c r="DB119"/>
       <c r="DC119" t="n">
-        <v>0.00106935049106287</v>
+        <v>0.000768041531821193</v>
       </c>
       <c r="DD119"/>
-      <c r="DE119"/>
+      <c r="DE119" t="n">
+        <v>0.0000425833611465294</v>
+      </c>
       <c r="DF119"/>
       <c r="DG119" t="n">
         <v>0.471454545454545</v>
@@ -28364,10 +28440,12 @@
       <c r="DA120"/>
       <c r="DB120"/>
       <c r="DC120" t="n">
-        <v>0.00132618794652035</v>
+        <v>0.000952510360673137</v>
       </c>
       <c r="DD120"/>
-      <c r="DE120"/>
+      <c r="DE120" t="n">
+        <v>0.0000528110668549082</v>
+      </c>
       <c r="DF120"/>
       <c r="DG120" t="n">
         <v>0.471454545454545</v>
@@ -28760,10 +28838,12 @@
       <c r="DA122"/>
       <c r="DB122"/>
       <c r="DC122" t="n">
-        <v>0.00560787555823954</v>
+        <v>0.00402775457626801</v>
       </c>
       <c r="DD122"/>
-      <c r="DE122"/>
+      <c r="DE122" t="n">
+        <v>0.000223315173235628</v>
+      </c>
       <c r="DF122"/>
       <c r="DG122" t="n">
         <v>0.359277777777778</v>
@@ -29164,10 +29244,12 @@
       <c r="DA124"/>
       <c r="DB124"/>
       <c r="DC124" t="n">
-        <v>0.00403390542014447</v>
+        <v>0.00289727916525305</v>
       </c>
       <c r="DD124"/>
-      <c r="DE124"/>
+      <c r="DE124" t="n">
+        <v>0.000160636996730808</v>
+      </c>
       <c r="DF124"/>
       <c r="DG124"/>
       <c r="DH124" t="n">
@@ -30174,10 +30256,12 @@
       <c r="DA129"/>
       <c r="DB129"/>
       <c r="DC129" t="n">
-        <v>0.00184575131874344</v>
+        <v>0.00132567729856249</v>
       </c>
       <c r="DD129"/>
-      <c r="DE129"/>
+      <c r="DE129" t="n">
+        <v>0.0000735009668482153</v>
+      </c>
       <c r="DF129"/>
       <c r="DG129" t="n">
         <v>0.712</v>
@@ -30768,10 +30852,12 @@
       <c r="DA132"/>
       <c r="DB132"/>
       <c r="DC132" t="n">
-        <v>0.000404455016496699</v>
+        <v>0.000290492455952524</v>
       </c>
       <c r="DD132"/>
-      <c r="DE132"/>
+      <c r="DE132" t="n">
+        <v>0.0000161060888632367</v>
+      </c>
       <c r="DF132"/>
       <c r="DG132" t="n">
         <v>0.622166666666667</v>
@@ -30962,10 +31048,12 @@
       <c r="DA133"/>
       <c r="DB133"/>
       <c r="DC133" t="n">
-        <v>0.00207062971401586</v>
+        <v>0.00148719211397802</v>
       </c>
       <c r="DD133"/>
-      <c r="DE133"/>
+      <c r="DE133" t="n">
+        <v>0.0000824560082494864</v>
+      </c>
       <c r="DF133"/>
       <c r="DG133" t="n">
         <v>0.5475</v>
@@ -31812,10 +31900,12 @@
       <c r="DA137"/>
       <c r="DB137"/>
       <c r="DC137" t="n">
-        <v>0.000798755858867644</v>
+        <v>0.000573691861109166</v>
       </c>
       <c r="DD137"/>
-      <c r="DE137"/>
+      <c r="DE137" t="n">
+        <v>0.0000318078211871017</v>
+      </c>
       <c r="DF137"/>
       <c r="DG137"/>
       <c r="DH137" t="n">
@@ -32762,10 +32852,12 @@
       <c r="DA142"/>
       <c r="DB142"/>
       <c r="DC142" t="n">
-        <v>0.00512932962972589</v>
+        <v>0.00368404767095103</v>
       </c>
       <c r="DD142"/>
-      <c r="DE142"/>
+      <c r="DE142" t="n">
+        <v>0.000204258657837349</v>
+      </c>
       <c r="DF142"/>
       <c r="DG142" t="n">
         <v>0.95</v>
@@ -33204,10 +33296,12 @@
       <c r="DA144"/>
       <c r="DB144"/>
       <c r="DC144" t="n">
-        <v>0.00150405671697246</v>
+        <v>0.00108026136846985</v>
       </c>
       <c r="DD144"/>
-      <c r="DE144"/>
+      <c r="DE144" t="n">
+        <v>0.000059894104785085</v>
+      </c>
       <c r="DF144"/>
       <c r="DG144"/>
       <c r="DH144" t="n">
@@ -33588,10 +33682,12 @@
       <c r="DA146"/>
       <c r="DB146"/>
       <c r="DC146" t="n">
-        <v>-0.000220171224041421</v>
+        <v>-0.000158133975332675</v>
       </c>
       <c r="DD146"/>
-      <c r="DE146"/>
+      <c r="DE146" t="n">
+        <v>-0.00000876759381118388</v>
+      </c>
       <c r="DF146"/>
       <c r="DG146"/>
       <c r="DH146"/>
@@ -33768,10 +33864,12 @@
       <c r="DA147"/>
       <c r="DB147"/>
       <c r="DC147" t="n">
-        <v>0.00546566106925838</v>
+        <v>0.0039256116073564</v>
       </c>
       <c r="DD147"/>
-      <c r="DE147"/>
+      <c r="DE147" t="n">
+        <v>0.000217651949629181</v>
+      </c>
       <c r="DF147"/>
       <c r="DG147"/>
       <c r="DH147"/>
@@ -34016,10 +34114,12 @@
       <c r="DA148"/>
       <c r="DB148"/>
       <c r="DC148" t="n">
-        <v>0.00682006937282489</v>
+        <v>0.00489839072596757</v>
       </c>
       <c r="DD148"/>
-      <c r="DE148"/>
+      <c r="DE148" t="n">
+        <v>0.000271586799252998</v>
+      </c>
       <c r="DF148"/>
       <c r="DG148" t="n">
         <v>0.95</v>
@@ -34266,10 +34366,12 @@
       <c r="DA149"/>
       <c r="DB149"/>
       <c r="DC149" t="n">
-        <v>0.00265534101630966</v>
+        <v>0.00190715036717948</v>
       </c>
       <c r="DD149"/>
-      <c r="DE149"/>
+      <c r="DE149" t="n">
+        <v>0.000105740209977664</v>
+      </c>
       <c r="DF149"/>
       <c r="DG149" t="n">
         <v>0.530976744186046</v>
@@ -34548,10 +34650,12 @@
       <c r="DA150"/>
       <c r="DB150"/>
       <c r="DC150" t="n">
-        <v>0.00518634395682723</v>
+        <v>0.00372499717393311</v>
       </c>
       <c r="DD150"/>
-      <c r="DE150"/>
+      <c r="DE150" t="n">
+        <v>0.000206529065623919</v>
+      </c>
       <c r="DF150"/>
       <c r="DG150" t="n">
         <v>0.3725</v>
@@ -34842,10 +34946,12 @@
       <c r="DA151"/>
       <c r="DB151"/>
       <c r="DC151" t="n">
-        <v>0.0038595177194803</v>
+        <v>0.00277202837248841</v>
       </c>
       <c r="DD151"/>
-      <c r="DE151"/>
+      <c r="DE151" t="n">
+        <v>0.000153692580939205</v>
+      </c>
       <c r="DF151"/>
       <c r="DG151" t="n">
         <v>0.635</v>
@@ -35102,10 +35208,12 @@
       <c r="DA152"/>
       <c r="DB152"/>
       <c r="DC152" t="n">
-        <v>0.00755324068716459</v>
+        <v>0.00542497768137555</v>
       </c>
       <c r="DD152"/>
-      <c r="DE152"/>
+      <c r="DE152" t="n">
+        <v>0.000300782931972562</v>
+      </c>
       <c r="DF152"/>
       <c r="DG152" t="n">
         <v>0.530976744186046</v>
@@ -35384,10 +35492,12 @@
       <c r="DA153"/>
       <c r="DB153"/>
       <c r="DC153" t="n">
-        <v>0.00523248676266971</v>
+        <v>0.00375813840459413</v>
       </c>
       <c r="DD153"/>
-      <c r="DE153"/>
+      <c r="DE153" t="n">
+        <v>0.000208366550884296</v>
+      </c>
       <c r="DF153"/>
       <c r="DG153" t="n">
         <v>0.530976744186046</v>
@@ -35644,10 +35754,12 @@
       <c r="DA154"/>
       <c r="DB154"/>
       <c r="DC154" t="n">
-        <v>0.0110219000985594</v>
+        <v>0.00791627918631596</v>
       </c>
       <c r="DD154"/>
-      <c r="DE154"/>
+      <c r="DE154" t="n">
+        <v>0.000438910868177017</v>
+      </c>
       <c r="DF154"/>
       <c r="DG154" t="n">
         <v>0.9395</v>
@@ -35938,10 +36050,12 @@
       <c r="DA155"/>
       <c r="DB155"/>
       <c r="DC155" t="n">
-        <v>0.00398097105925098</v>
+        <v>0.00285926002375885</v>
       </c>
       <c r="DD155"/>
-      <c r="DE155"/>
+      <c r="DE155" t="n">
+        <v>0.000158529060160126</v>
+      </c>
       <c r="DF155"/>
       <c r="DG155" t="n">
         <v>0.4845</v>
@@ -36220,10 +36334,12 @@
       <c r="DA156"/>
       <c r="DB156"/>
       <c r="DC156" t="n">
-        <v>0.00294485118355467</v>
+        <v>0.0021150857767454</v>
       </c>
       <c r="DD156"/>
-      <c r="DE156"/>
+      <c r="DE156" t="n">
+        <v>0.000117268998817639</v>
+      </c>
       <c r="DF156"/>
       <c r="DG156" t="n">
         <v>0.32</v>
@@ -36890,10 +37006,12 @@
       <c r="DA159"/>
       <c r="DB159"/>
       <c r="DC159" t="n">
-        <v>0.00155153709001637</v>
+        <v>0.00111436328243432</v>
       </c>
       <c r="DD159"/>
-      <c r="DE159"/>
+      <c r="DE159" t="n">
+        <v>0.0000617848542536628</v>
+      </c>
       <c r="DF159"/>
       <c r="DG159" t="n">
         <v>0.341</v>
@@ -37102,10 +37220,12 @@
       <c r="DA160"/>
       <c r="DB160"/>
       <c r="DC160" t="n">
-        <v>0.00798964797248301</v>
+        <v>0.00573841927299135</v>
       </c>
       <c r="DD160"/>
-      <c r="DE160"/>
+      <c r="DE160" t="n">
+        <v>0.000318161414699231</v>
+      </c>
       <c r="DF160"/>
       <c r="DG160" t="n">
         <v>0.933666666666667</v>
@@ -37500,10 +37620,12 @@
       <c r="DA162"/>
       <c r="DB162"/>
       <c r="DC162" t="n">
-        <v>0.00639788569547563</v>
+        <v>0.00459516498195642</v>
       </c>
       <c r="DD162"/>
-      <c r="DE162"/>
+      <c r="DE162" t="n">
+        <v>0.000254774724864867</v>
+      </c>
       <c r="DF162"/>
       <c r="DG162" t="n">
         <v>0.462470588235294</v>
@@ -37756,10 +37878,12 @@
       <c r="DA163"/>
       <c r="DB163"/>
       <c r="DC163" t="n">
-        <v>0.00348213068428122</v>
+        <v>0.00250097700156168</v>
       </c>
       <c r="DD163"/>
-      <c r="DE163"/>
+      <c r="DE163" t="n">
+        <v>0.000138664385276315</v>
+      </c>
       <c r="DF163"/>
       <c r="DG163" t="n">
         <v>0.692448275862069</v>
@@ -38000,10 +38124,12 @@
       <c r="DA164"/>
       <c r="DB164"/>
       <c r="DC164" t="n">
-        <v>0.0112639299116157</v>
+        <v>0.00809011269545979</v>
       </c>
       <c r="DD164"/>
-      <c r="DE164"/>
+      <c r="DE164" t="n">
+        <v>0.000448548908299259</v>
+      </c>
       <c r="DF164"/>
       <c r="DG164" t="n">
         <v>0.873</v>
@@ -38202,10 +38328,12 @@
       <c r="DA165"/>
       <c r="DB165"/>
       <c r="DC165" t="n">
-        <v>0.00312343203120555</v>
+        <v>0.00224334822103285</v>
       </c>
       <c r="DD165"/>
-      <c r="DE165"/>
+      <c r="DE165" t="n">
+        <v>0.000124380392876861</v>
+      </c>
       <c r="DF165"/>
       <c r="DG165" t="n">
         <v>0.6756</v>
@@ -38484,10 +38612,12 @@
       <c r="DA166"/>
       <c r="DB166"/>
       <c r="DC166" t="n">
-        <v>0.00508954231090497</v>
+        <v>0.00365547115319593</v>
       </c>
       <c r="DD166"/>
-      <c r="DE166"/>
+      <c r="DE166" t="n">
+        <v>0.000202674258914298</v>
+      </c>
       <c r="DF166"/>
       <c r="DG166" t="n">
         <v>0.78040350877193</v>
@@ -39048,10 +39178,12 @@
       <c r="DA168"/>
       <c r="DB168"/>
       <c r="DC168" t="n">
-        <v>0.00297251248063076</v>
+        <v>0.00213495300003284</v>
       </c>
       <c r="DD168"/>
-      <c r="DE168"/>
+      <c r="DE168" t="n">
+        <v>0.000118370518864636</v>
+      </c>
       <c r="DF168"/>
       <c r="DG168" t="n">
         <v>0.78040350877193</v>
@@ -39626,10 +39758,12 @@
       <c r="DA170"/>
       <c r="DB170"/>
       <c r="DC170" t="n">
-        <v>0.00236296624242422</v>
+        <v>0.00169715750601976</v>
       </c>
       <c r="DD170"/>
-      <c r="DE170"/>
+      <c r="DE170" t="n">
+        <v>0.0000940973476134983</v>
+      </c>
       <c r="DF170"/>
       <c r="DG170" t="n">
         <v>0.95</v>
@@ -40178,10 +40312,12 @@
       <c r="DA172"/>
       <c r="DB172"/>
       <c r="DC172" t="n">
-        <v>0.00310884619313668</v>
+        <v>0.00223287220825038</v>
       </c>
       <c r="DD172"/>
-      <c r="DE172"/>
+      <c r="DE172" t="n">
+        <v>0.000123799559917693</v>
+      </c>
       <c r="DF172"/>
       <c r="DG172" t="n">
         <v>0.8555</v>
@@ -40484,10 +40620,12 @@
       <c r="DA173"/>
       <c r="DB173"/>
       <c r="DC173" t="n">
-        <v>0.00285355578419098</v>
+        <v>0.00204951451740476</v>
       </c>
       <c r="DD173"/>
-      <c r="DE173"/>
+      <c r="DE173" t="n">
+        <v>0.00011363346024108</v>
+      </c>
       <c r="DF173"/>
       <c r="DG173" t="n">
         <v>0.7085</v>
@@ -40768,10 +40906,12 @@
       <c r="DA174"/>
       <c r="DB174"/>
       <c r="DC174" t="n">
-        <v>0.00355045797981061</v>
+        <v>0.00255005183826133</v>
       </c>
       <c r="DD174"/>
-      <c r="DE174"/>
+      <c r="DE174" t="n">
+        <v>0.000141385294768583</v>
+      </c>
       <c r="DF174"/>
       <c r="DG174" t="n">
         <v>0.78040350877193</v>
@@ -41066,10 +41206,12 @@
       <c r="DA175"/>
       <c r="DB175"/>
       <c r="DC175" t="n">
-        <v>0.00485023922947841</v>
+        <v>0.00348359606942831</v>
       </c>
       <c r="DD175"/>
-      <c r="DE175"/>
+      <c r="DE175" t="n">
+        <v>0.000193144801898072</v>
+      </c>
       <c r="DF175"/>
       <c r="DG175" t="n">
         <v>0.7575</v>
@@ -41350,10 +41492,12 @@
       <c r="DA176"/>
       <c r="DB176"/>
       <c r="DC176" t="n">
-        <v>0.00312217312074949</v>
+        <v>0.00224244403150549</v>
       </c>
       <c r="DD176"/>
-      <c r="DE176"/>
+      <c r="DE176" t="n">
+        <v>0.000124330260914469</v>
+      </c>
       <c r="DF176"/>
       <c r="DG176" t="n">
         <v>0.8625</v>
@@ -41656,10 +41800,12 @@
       <c r="DA177"/>
       <c r="DB177"/>
       <c r="DC177" t="n">
-        <v>0.00243265151478584</v>
+        <v>0.00174720768486879</v>
       </c>
       <c r="DD177"/>
-      <c r="DE177"/>
+      <c r="DE177" t="n">
+        <v>0.0000968723340602895</v>
+      </c>
       <c r="DF177"/>
       <c r="DG177" t="n">
         <v>0.78040350877193</v>
@@ -42084,10 +42230,12 @@
       <c r="DA179"/>
       <c r="DB179"/>
       <c r="DC179" t="n">
-        <v>0.00211729974908589</v>
+        <v>0.00152071201743802</v>
       </c>
       <c r="DD179"/>
-      <c r="DE179"/>
+      <c r="DE179" t="n">
+        <v>0.000084314488677295</v>
+      </c>
       <c r="DF179"/>
       <c r="DG179" t="n">
         <v>0.5755</v>
@@ -42932,10 +43080,12 @@
       <c r="DA183"/>
       <c r="DB183"/>
       <c r="DC183" t="n">
-        <v>0.00651034889985076</v>
+        <v>0.00467593963206757</v>
       </c>
       <c r="DD183"/>
-      <c r="DE183"/>
+      <c r="DE183" t="n">
+        <v>0.000259253201554808</v>
+      </c>
       <c r="DF183"/>
       <c r="DG183" t="n">
         <v>0.415666666666667</v>
@@ -44010,10 +44160,12 @@
       <c r="DA188"/>
       <c r="DB188"/>
       <c r="DC188" t="n">
-        <v>0.003418148639016</v>
+        <v>0.00245502306179614</v>
       </c>
       <c r="DD188"/>
-      <c r="DE188"/>
+      <c r="DE188" t="n">
+        <v>0.000136116511063704</v>
+      </c>
       <c r="DF188"/>
       <c r="DG188" t="n">
         <v>0.463946808510638</v>
@@ -44640,10 +44792,12 @@
       <c r="DA191"/>
       <c r="DB191"/>
       <c r="DC191" t="n">
-        <v>0.00623465884339376</v>
+        <v>0.00447793026559817</v>
       </c>
       <c r="DD191"/>
-      <c r="DE191"/>
+      <c r="DE191" t="n">
+        <v>0.000248274753107146</v>
+      </c>
       <c r="DF191"/>
       <c r="DG191" t="n">
         <v>0.6574</v>
@@ -45916,10 +46070,12 @@
       <c r="DA198"/>
       <c r="DB198"/>
       <c r="DC198" t="n">
-        <v>0.002219446784688</v>
+        <v>0.00159407726704562</v>
       </c>
       <c r="DD198"/>
-      <c r="DE198"/>
+      <c r="DE198" t="n">
+        <v>0.0000883821579246048</v>
+      </c>
       <c r="DF198"/>
       <c r="DG198" t="n">
         <v>0.75071875</v>
@@ -46492,10 +46648,12 @@
       <c r="DA201"/>
       <c r="DB201"/>
       <c r="DC201" t="n">
-        <v>0.00372814841945508</v>
+        <v>0.00267767476320044</v>
       </c>
       <c r="DD201"/>
-      <c r="DE201"/>
+      <c r="DE201" t="n">
+        <v>0.00014846123126172</v>
+      </c>
       <c r="DF201"/>
       <c r="DG201" t="n">
         <v>0.3725</v>
@@ -46720,10 +46878,12 @@
       <c r="DA202"/>
       <c r="DB202"/>
       <c r="DC202" t="n">
-        <v>0.000957103217833194</v>
+        <v>0.00068742197032608</v>
       </c>
       <c r="DD202"/>
-      <c r="DE202"/>
+      <c r="DE202" t="n">
+        <v>0.0000381134832032354</v>
+      </c>
       <c r="DF202"/>
       <c r="DG202" t="n">
         <v>0.95</v>
@@ -47492,10 +47652,12 @@
       <c r="DA206"/>
       <c r="DB206"/>
       <c r="DC206" t="n">
-        <v>0.00114163123099425</v>
+        <v>0.000819955858023904</v>
       </c>
       <c r="DD206"/>
-      <c r="DE206"/>
+      <c r="DE206" t="n">
+        <v>0.000045461703540497</v>
+      </c>
       <c r="DF206"/>
       <c r="DG206" t="n">
         <v>0.95</v>
@@ -48102,10 +48264,12 @@
       <c r="DA209"/>
       <c r="DB209"/>
       <c r="DC209" t="n">
-        <v>0.00421471807500275</v>
+        <v>0.00302714456445624</v>
       </c>
       <c r="DD209"/>
-      <c r="DE209"/>
+      <c r="DE209" t="n">
+        <v>0.000167837265161077</v>
+      </c>
       <c r="DF209"/>
       <c r="DG209" t="n">
         <v>0.95</v>
@@ -48516,10 +48680,12 @@
       <c r="DA211"/>
       <c r="DB211"/>
       <c r="DC211" t="n">
-        <v>0.00234321073457548</v>
+        <v>0.00168296847198755</v>
       </c>
       <c r="DD211"/>
-      <c r="DE211"/>
+      <c r="DE211" t="n">
+        <v>0.0000933106495828838</v>
+      </c>
       <c r="DF211"/>
       <c r="DG211" t="n">
         <v>0.95</v>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3491,10 +3491,10 @@
       <c r="BT2"/>
       <c r="BU2"/>
       <c r="BV2" t="n">
-        <v>0.092728416274147</v>
+        <v>0.0721493131273001</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00415201863914091</v>
+        <v>-0.00323056625943135</v>
       </c>
       <c r="BX2" t="n">
         <v>-1.8</v>
@@ -3503,7 +3503,7 @@
         <v>-3.74711270489309</v>
       </c>
       <c r="BZ2" t="n">
-        <v>7.87026198780215</v>
+        <v>7.80101804533824</v>
       </c>
       <c r="CA2" t="n">
         <v>0.215596087312168</v>
@@ -23909,10 +23909,10 @@
       <c r="BT99"/>
       <c r="BU99"/>
       <c r="BV99" t="n">
-        <v>0.164352986680755</v>
+        <v>0.128504207520893</v>
       </c>
       <c r="BW99" t="n">
-        <v>-0.00735908895585469</v>
+        <v>-0.00575391973974146</v>
       </c>
       <c r="BX99" t="n">
         <v>-1.4284</v>
@@ -23921,7 +23921,7 @@
         <v>-3.1481</v>
       </c>
       <c r="BZ99" t="n">
-        <v>7.95726046238457</v>
+        <v>7.94644065220063</v>
       </c>
       <c r="CA99" t="n">
         <v>0.320260475126421</v>
@@ -34561,10 +34561,10 @@
       <c r="BT150"/>
       <c r="BU150"/>
       <c r="BV150" t="n">
-        <v>0.175624808918482</v>
+        <v>0.138380327626829</v>
       </c>
       <c r="BW150" t="n">
-        <v>-0.0078637974142604</v>
+        <v>-0.0061961340728431</v>
       </c>
       <c r="BX150" t="n">
         <v>-2.303</v>
@@ -34573,7 +34573,7 @@
         <v>-5.14</v>
       </c>
       <c r="BZ150" t="n">
-        <v>8.54386129188499</v>
+        <v>8.52851372056052</v>
       </c>
       <c r="CA150" t="n">
         <v>0.682637301843437</v>
@@ -34857,10 +34857,10 @@
       <c r="BT151"/>
       <c r="BU151"/>
       <c r="BV151" t="n">
-        <v>0.17021421774814</v>
+        <v>0.133553971084592</v>
       </c>
       <c r="BW151" t="n">
-        <v>-0.00762153213797643</v>
+        <v>-0.00598002855602649</v>
       </c>
       <c r="BX151" t="n">
         <v>-1.91</v>
@@ -34869,7 +34869,7 @@
         <v>-2.999</v>
       </c>
       <c r="BZ151" t="n">
-        <v>7.49992481332772</v>
+        <v>7.4818724569129</v>
       </c>
       <c r="CA151" t="n">
         <v>0.277538195652001</v>
@@ -35403,10 +35403,10 @@
       <c r="BT153"/>
       <c r="BU153"/>
       <c r="BV153" t="n">
-        <v>0.226833030311729</v>
+        <v>0.177868610356217</v>
       </c>
       <c r="BW153" t="n">
-        <v>-0.0101567028497789</v>
+        <v>-0.00796426613535302</v>
       </c>
       <c r="BX153" t="n">
         <v>-2.20991818181818</v>
@@ -35415,7 +35415,7 @@
         <v>-3.48773719601154</v>
       </c>
       <c r="BZ153" t="n">
-        <v>6.71730704937474</v>
+        <v>6.7090201352238</v>
       </c>
       <c r="CA153" t="n">
         <v>0.632265750814814</v>
@@ -35961,10 +35961,10 @@
       <c r="BT155"/>
       <c r="BU155"/>
       <c r="BV155" t="n">
-        <v>0.160963169838852</v>
+        <v>0.125056247277591</v>
       </c>
       <c r="BW155" t="n">
-        <v>-0.00720730611218739</v>
+        <v>-0.00559953346019064</v>
       </c>
       <c r="BX155" t="n">
         <v>-1.764</v>
@@ -35973,7 +35973,7 @@
         <v>-3.087</v>
       </c>
       <c r="BZ155" t="n">
-        <v>7.78003755083386</v>
+        <v>7.7681754654408</v>
       </c>
       <c r="CA155" t="n">
         <v>0.321015373890096</v>
@@ -36245,10 +36245,10 @@
       <c r="BT156"/>
       <c r="BU156"/>
       <c r="BV156" t="n">
-        <v>0.179877454825477</v>
+        <v>0.13814847740267</v>
       </c>
       <c r="BW156" t="n">
-        <v>-0.00805421439517059</v>
+        <v>-0.00618575271952256</v>
       </c>
       <c r="BX156" t="n">
         <v>-2.20991818181818</v>
@@ -36257,7 +36257,7 @@
         <v>-4.17995</v>
       </c>
       <c r="BZ156" t="n">
-        <v>5.57656615697738</v>
+        <v>5.55742298501429</v>
       </c>
       <c r="CA156" t="n">
         <v>0.252772735446669</v>
@@ -39093,10 +39093,10 @@
       <c r="BT168"/>
       <c r="BU168"/>
       <c r="BV168" t="n">
-        <v>0.155939420709598</v>
+        <v>0.122725589578442</v>
       </c>
       <c r="BW168" t="n">
-        <v>-0.00698236212132528</v>
+        <v>-0.00549517565276606</v>
       </c>
       <c r="BX168" t="n">
         <v>-2.915</v>
@@ -39105,7 +39105,7 @@
         <v>-4.805</v>
       </c>
       <c r="BZ168" t="n">
-        <v>7.93156023906808</v>
+        <v>7.91409091784059</v>
       </c>
       <c r="CA168" t="n">
         <v>0.329942559244737</v>
@@ -39673,10 +39673,10 @@
       <c r="BT170"/>
       <c r="BU170"/>
       <c r="BV170" t="n">
-        <v>0.112191358822684</v>
+        <v>0.0879786170778566</v>
       </c>
       <c r="BW170" t="n">
-        <v>-0.00502349367862762</v>
+        <v>-0.00393934106318761</v>
       </c>
       <c r="BX170" t="n">
         <v>-2.84</v>
@@ -39685,7 +39685,7 @@
         <v>-6.965</v>
       </c>
       <c r="BZ170" t="n">
-        <v>8.60553618867946</v>
+        <v>8.59754712496036</v>
       </c>
       <c r="CA170" t="n">
         <v>0.257256390150634</v>
@@ -40535,10 +40535,10 @@
       <c r="BT173"/>
       <c r="BU173"/>
       <c r="BV173" t="n">
-        <v>0.14471988633574</v>
+        <v>0.113966405410534</v>
       </c>
       <c r="BW173" t="n">
-        <v>-0.00647999491055551</v>
+        <v>-0.00510297337659108</v>
       </c>
       <c r="BX173" t="n">
         <v>-1.96</v>
@@ -40547,7 +40547,7 @@
         <v>-4.805</v>
       </c>
       <c r="BZ173" t="n">
-        <v>8.40590243015637</v>
+        <v>8.39889057609048</v>
       </c>
       <c r="CA173" t="n">
         <v>0.333344661212327</v>
@@ -41715,10 +41715,10 @@
       <c r="BT177"/>
       <c r="BU177"/>
       <c r="BV177" t="n">
-        <v>0.132200641488136</v>
+        <v>0.103827908321518</v>
       </c>
       <c r="BW177" t="n">
-        <v>-0.005919431708424</v>
+        <v>-0.00464901082036649</v>
       </c>
       <c r="BX177" t="n">
         <v>-2.98666666666667</v>
@@ -41727,7 +41727,7 @@
         <v>-5.2</v>
       </c>
       <c r="BZ177" t="n">
-        <v>10.0134880172042</v>
+        <v>9.97842021730937</v>
       </c>
       <c r="CA177" t="n">
         <v>0.384174180529896</v>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3568,11 +3568,11 @@
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0.00329059923457876</v>
+        <v>0.00325844392236695</v>
       </c>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>0.00018244426868726</v>
+        <v>0.000177420158687004</v>
       </c>
       <c r="DF2"/>
       <c r="DG2" t="n">
@@ -3838,11 +3838,11 @@
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3" t="n">
-        <v>0.00921301384748489</v>
+        <v>0.0091229854619056</v>
       </c>
       <c r="DD3"/>
       <c r="DE3" t="n">
-        <v>0.000510807136933268</v>
+        <v>0.000496740642746663</v>
       </c>
       <c r="DF3"/>
       <c r="DG3" t="n">
@@ -4064,11 +4064,11 @@
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4" t="n">
-        <v>0.00453568639597833</v>
+        <v>0.00449136425227121</v>
       </c>
       <c r="DD4"/>
       <c r="DE4" t="n">
-        <v>0.000251476988997401</v>
+        <v>0.00024455187118281</v>
       </c>
       <c r="DF4"/>
       <c r="DG4"/>
@@ -4334,11 +4334,11 @@
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5" t="n">
-        <v>0.00238826355883365</v>
+        <v>0.00236492575471233</v>
       </c>
       <c r="DD5"/>
       <c r="DE5" t="n">
-        <v>0.00013241509140496</v>
+        <v>0.000128768673845783</v>
       </c>
       <c r="DF5"/>
       <c r="DG5" t="n">
@@ -4606,11 +4606,11 @@
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6" t="n">
-        <v>0.00143776496899235</v>
+        <v>0.00142371531475937</v>
       </c>
       <c r="DD6"/>
       <c r="DE6" t="n">
-        <v>0.0000797155653461244</v>
+        <v>0.000077520375703209</v>
       </c>
       <c r="DF6"/>
       <c r="DG6" t="n">
@@ -4878,11 +4878,11 @@
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7" t="n">
-        <v>0.00566781555893185</v>
+        <v>0.00561243039475226</v>
       </c>
       <c r="DD7"/>
       <c r="DE7" t="n">
-        <v>0.000314246856267797</v>
+        <v>0.000305593195703483</v>
       </c>
       <c r="DF7"/>
       <c r="DG7" t="n">
@@ -5146,11 +5146,11 @@
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8" t="n">
-        <v>0.00261378070410634</v>
+        <v>0.00258823917546605</v>
       </c>
       <c r="DD8"/>
       <c r="DE8" t="n">
-        <v>0.000144918683520753</v>
+        <v>0.000140927944801805</v>
       </c>
       <c r="DF8"/>
       <c r="DG8" t="n">
@@ -5418,11 +5418,11 @@
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9" t="n">
-        <v>0.00309223994323142</v>
+        <v>0.00306202297248532</v>
       </c>
       <c r="DD9"/>
       <c r="DE9" t="n">
-        <v>0.000171446418974388</v>
+        <v>0.000166725165331974</v>
       </c>
       <c r="DF9"/>
       <c r="DG9" t="n">
@@ -5686,11 +5686,11 @@
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10" t="n">
-        <v>0.00316536973603717</v>
+        <v>0.00313443815036776</v>
       </c>
       <c r="DD10"/>
       <c r="DE10" t="n">
-        <v>0.000175501033534403</v>
+        <v>0.000170668124811208</v>
       </c>
       <c r="DF10"/>
       <c r="DG10" t="n">
@@ -6296,11 +6296,11 @@
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13" t="n">
-        <v>0.00325494076013954</v>
+        <v>0.00322313389795062</v>
       </c>
       <c r="DD13"/>
       <c r="DE13" t="n">
-        <v>0.000180467217145036</v>
+        <v>0.000175497550753755</v>
       </c>
       <c r="DF13"/>
       <c r="DG13" t="n">
@@ -7398,11 +7398,11 @@
       <c r="DA19"/>
       <c r="DB19"/>
       <c r="DC19" t="n">
-        <v>0.0041698218303418</v>
+        <v>0.00412907486808238</v>
       </c>
       <c r="DD19"/>
       <c r="DE19" t="n">
-        <v>0.000231191962363131</v>
+        <v>0.000224825449134489</v>
       </c>
       <c r="DF19"/>
       <c r="DG19"/>
@@ -7618,11 +7618,11 @@
       <c r="DA20"/>
       <c r="DB20"/>
       <c r="DC20" t="n">
-        <v>0.00105963096648733</v>
+        <v>0.00104927638906001</v>
       </c>
       <c r="DD20"/>
       <c r="DE20" t="n">
-        <v>0.0000587502709924815</v>
+        <v>0.0000571324189978154</v>
       </c>
       <c r="DF20"/>
       <c r="DG20" t="n">
@@ -7840,11 +7840,11 @@
       <c r="DA21"/>
       <c r="DB21"/>
       <c r="DC21" t="n">
-        <v>0.00133822030725105</v>
+        <v>0.00132514339064095</v>
       </c>
       <c r="DD21"/>
       <c r="DE21" t="n">
-        <v>0.0000741964025072511</v>
+        <v>0.0000721531983523499</v>
       </c>
       <c r="DF21"/>
       <c r="DG21" t="n">
@@ -9334,11 +9334,11 @@
       <c r="DA28"/>
       <c r="DB28"/>
       <c r="DC28" t="n">
-        <v>0.00136382138486126</v>
+        <v>0.00135049429781568</v>
       </c>
       <c r="DD28"/>
       <c r="DE28" t="n">
-        <v>0.0000756158308694531</v>
+        <v>0.0000735335388096235</v>
       </c>
       <c r="DF28"/>
       <c r="DG28" t="n">
@@ -9752,11 +9752,11 @@
       <c r="DA30"/>
       <c r="DB30"/>
       <c r="DC30" t="n">
-        <v>0.00100865176707753</v>
+        <v>0.000998795351825701</v>
       </c>
       <c r="DD30"/>
       <c r="DE30" t="n">
-        <v>0.0000559237758493341</v>
+        <v>0.0000543837592540288</v>
       </c>
       <c r="DF30"/>
       <c r="DG30" t="n">
@@ -10596,11 +10596,11 @@
       <c r="DA34"/>
       <c r="DB34"/>
       <c r="DC34" t="n">
-        <v>0.00302422359853158</v>
+        <v>0.002994671274752</v>
       </c>
       <c r="DD34"/>
       <c r="DE34" t="n">
-        <v>0.000167675314873608</v>
+        <v>0.000163057909063527</v>
       </c>
       <c r="DF34"/>
       <c r="DG34" t="n">
@@ -10824,11 +10824,11 @@
       <c r="DA35"/>
       <c r="DB35"/>
       <c r="DC35" t="n">
-        <v>0.00689035543006115</v>
+        <v>0.00682302376360488</v>
       </c>
       <c r="DD35"/>
       <c r="DE35" t="n">
-        <v>0.000382029462665247</v>
+        <v>0.000371509219647589</v>
       </c>
       <c r="DF35"/>
       <c r="DG35" t="n">
@@ -11038,11 +11038,11 @@
       <c r="DA36"/>
       <c r="DB36"/>
       <c r="DC36" t="n">
-        <v>0.0042698877102092</v>
+        <v>0.00422816291705045</v>
       </c>
       <c r="DD36"/>
       <c r="DE36" t="n">
-        <v>0.000236740023664887</v>
+        <v>0.000230220729148738</v>
       </c>
       <c r="DF36"/>
       <c r="DG36" t="n">
@@ -11248,11 +11248,11 @@
       <c r="DA37"/>
       <c r="DB37"/>
       <c r="DC37" t="n">
-        <v>0.00161684783929357</v>
+        <v>0.00160104821030042</v>
       </c>
       <c r="DD37"/>
       <c r="DE37" t="n">
-        <v>0.0000896446515025867</v>
+        <v>0.000087176036876738</v>
       </c>
       <c r="DF37"/>
       <c r="DG37"/>
@@ -11444,11 +11444,11 @@
       <c r="DA38"/>
       <c r="DB38"/>
       <c r="DC38" t="n">
-        <v>0.00651883224620726</v>
+        <v>0.00645513105648762</v>
       </c>
       <c r="DD38"/>
       <c r="DE38" t="n">
-        <v>0.000361430699112911</v>
+        <v>0.000351477700299199</v>
       </c>
       <c r="DF38"/>
       <c r="DG38" t="n">
@@ -15984,11 +15984,11 @@
       <c r="DA60"/>
       <c r="DB60"/>
       <c r="DC60" t="n">
-        <v>0.000901665225718817</v>
+        <v>0.000892854269179703</v>
       </c>
       <c r="DD60"/>
       <c r="DE60" t="n">
-        <v>0.0000499920047930302</v>
+        <v>0.0000486153359997558</v>
       </c>
       <c r="DF60"/>
       <c r="DG60" t="n">
@@ -16396,11 +16396,11 @@
       <c r="DA62"/>
       <c r="DB62"/>
       <c r="DC62" t="n">
-        <v>0.000899568660646847</v>
+        <v>0.000890778191471782</v>
       </c>
       <c r="DD62"/>
       <c r="DE62" t="n">
-        <v>0.0000498757626577706</v>
+        <v>0.0000485022949147589</v>
       </c>
       <c r="DF62"/>
       <c r="DG62" t="n">
@@ -16614,11 +16614,11 @@
       <c r="DA63"/>
       <c r="DB63"/>
       <c r="DC63" t="n">
-        <v>0.0029690364342599</v>
+        <v>0.00294002339234686</v>
       </c>
       <c r="DD63"/>
       <c r="DE63" t="n">
-        <v>0.000164615512962556</v>
+        <v>0.000160082367302112</v>
       </c>
       <c r="DF63"/>
       <c r="DG63" t="n">
@@ -20948,11 +20948,11 @@
       <c r="DA85"/>
       <c r="DB85"/>
       <c r="DC85" t="n">
-        <v>0.00132410709211525</v>
+        <v>0.00131116808802705</v>
       </c>
       <c r="DD85"/>
       <c r="DE85" t="n">
-        <v>0.0000734139081860893</v>
+        <v>0.0000713922521870846</v>
       </c>
       <c r="DF85"/>
       <c r="DG85" t="n">
@@ -22236,11 +22236,11 @@
       <c r="DA91"/>
       <c r="DB91"/>
       <c r="DC91" t="n">
-        <v>0.00231948341222744</v>
+        <v>0.00229681771884658</v>
       </c>
       <c r="DD91"/>
       <c r="DE91" t="n">
-        <v>0.000128601639005194</v>
+        <v>0.00012506023545646</v>
       </c>
       <c r="DF91"/>
       <c r="DG91" t="n">
@@ -23300,11 +23300,11 @@
       <c r="DA96"/>
       <c r="DB96"/>
       <c r="DC96" t="n">
-        <v>0.00511689819412346</v>
+        <v>0.00506689652352831</v>
       </c>
       <c r="DD96"/>
       <c r="DE96" t="n">
-        <v>0.000283701746224202</v>
+        <v>0.000275889230158057</v>
       </c>
       <c r="DF96"/>
       <c r="DG96"/>
@@ -23502,11 +23502,11 @@
       <c r="DA97"/>
       <c r="DB97"/>
       <c r="DC97" t="n">
-        <v>0.00116947826588266</v>
+        <v>0.00115805027478328</v>
       </c>
       <c r="DD97"/>
       <c r="DE97" t="n">
-        <v>0.0000648406541649</v>
+        <v>0.0000630550865427597</v>
       </c>
       <c r="DF97"/>
       <c r="DG97" t="n">
@@ -23994,11 +23994,11 @@
       <c r="DA99"/>
       <c r="DB99"/>
       <c r="DC99" t="n">
-        <v>0.0029186793565391</v>
+        <v>0.00289015839750846</v>
       </c>
       <c r="DD99"/>
       <c r="DE99" t="n">
-        <v>0.000161823510788163</v>
+        <v>0.000157367250667321</v>
       </c>
       <c r="DF99"/>
       <c r="DG99" t="n">
@@ -24216,11 +24216,11 @@
       <c r="DA100"/>
       <c r="DB100"/>
       <c r="DC100" t="n">
-        <v>0.00142837792153635</v>
+        <v>0.00141441999632297</v>
       </c>
       <c r="DD100"/>
       <c r="DE100" t="n">
-        <v>0.0000791951090747419</v>
+        <v>0.0000770142516417478</v>
       </c>
       <c r="DF100"/>
       <c r="DG100"/>
@@ -24416,11 +24416,11 @@
       <c r="DA101"/>
       <c r="DB101"/>
       <c r="DC101" t="n">
-        <v>0.00130267076097022</v>
+        <v>0.00128994122995106</v>
       </c>
       <c r="DD101"/>
       <c r="DE101" t="n">
-        <v>0.0000722253903872654</v>
+        <v>0.0000702364635290637</v>
       </c>
       <c r="DF101"/>
       <c r="DG101" t="n">
@@ -24658,11 +24658,11 @@
       <c r="DA102"/>
       <c r="DB102"/>
       <c r="DC102" t="n">
-        <v>0.00291366815200998</v>
+        <v>0.00288519616182505</v>
       </c>
       <c r="DD102"/>
       <c r="DE102" t="n">
-        <v>0.000161545669130647</v>
+        <v>0.000157097060152041</v>
       </c>
       <c r="DF102"/>
       <c r="DG102" t="n">
@@ -25766,11 +25766,11 @@
       <c r="DA108"/>
       <c r="DB108"/>
       <c r="DC108" t="n">
-        <v>0.000847138900068094</v>
+        <v>0.000838860767765561</v>
       </c>
       <c r="DD108"/>
       <c r="DE108" t="n">
-        <v>0.0000469688424756588</v>
+        <v>0.0000456754248589787</v>
       </c>
       <c r="DF108"/>
       <c r="DG108"/>
@@ -26804,11 +26804,11 @@
       <c r="DA113"/>
       <c r="DB113"/>
       <c r="DC113" t="n">
-        <v>0.00121792581227051</v>
+        <v>0.00120602439798316</v>
       </c>
       <c r="DD113"/>
       <c r="DE113" t="n">
-        <v>0.0000675267841188433</v>
+        <v>0.0000656672464429397</v>
       </c>
       <c r="DF113"/>
       <c r="DG113" t="n">
@@ -27214,11 +27214,11 @@
       <c r="DA115"/>
       <c r="DB115"/>
       <c r="DC115" t="n">
-        <v>0.00267573099152689</v>
+        <v>0.00264958409265108</v>
       </c>
       <c r="DD115"/>
       <c r="DE115" t="n">
-        <v>0.000148353460616863</v>
+        <v>0.000144268135764399</v>
       </c>
       <c r="DF115"/>
       <c r="DG115" t="n">
@@ -27444,11 +27444,11 @@
       <c r="DA116"/>
       <c r="DB116"/>
       <c r="DC116" t="n">
-        <v>0.00797796565949143</v>
+        <v>0.00790000600585137</v>
       </c>
       <c r="DD116"/>
       <c r="DE116" t="n">
-        <v>0.000442331018333296</v>
+        <v>0.00043015020438599</v>
       </c>
       <c r="DF116"/>
       <c r="DG116" t="n">
@@ -27686,11 +27686,11 @@
       <c r="DA117"/>
       <c r="DB117"/>
       <c r="DC117" t="n">
-        <v>0.000784939661729596</v>
+        <v>0.000777269332378906</v>
       </c>
       <c r="DD117"/>
       <c r="DE117" t="n">
-        <v>0.0000435202625233132</v>
+        <v>0.0000423218111401571</v>
       </c>
       <c r="DF117"/>
       <c r="DG117" t="n">
@@ -27942,11 +27942,11 @@
       <c r="DA118"/>
       <c r="DB118"/>
       <c r="DC118" t="n">
-        <v>0.000955400778404675</v>
+        <v>0.000946064724960617</v>
       </c>
       <c r="DD118"/>
       <c r="DE118" t="n">
-        <v>0.0000529713234257144</v>
+        <v>0.000051512610813557</v>
       </c>
       <c r="DF118"/>
       <c r="DG118" t="n">
@@ -28198,11 +28198,11 @@
       <c r="DA119"/>
       <c r="DB119"/>
       <c r="DC119" t="n">
-        <v>0.000768041531821193</v>
+        <v>0.000760536328821136</v>
       </c>
       <c r="DD119"/>
       <c r="DE119" t="n">
-        <v>0.0000425833611465294</v>
+        <v>0.0000414107099466852</v>
       </c>
       <c r="DF119"/>
       <c r="DG119" t="n">
@@ -28440,11 +28440,11 @@
       <c r="DA120"/>
       <c r="DB120"/>
       <c r="DC120" t="n">
-        <v>0.000952510360673137</v>
+        <v>0.000943202552019147</v>
       </c>
       <c r="DD120"/>
       <c r="DE120" t="n">
-        <v>0.0000528110668549082</v>
+        <v>0.0000513567673528243</v>
       </c>
       <c r="DF120"/>
       <c r="DG120" t="n">
@@ -28838,11 +28838,11 @@
       <c r="DA122"/>
       <c r="DB122"/>
       <c r="DC122" t="n">
-        <v>0.00402775457626801</v>
+        <v>0.00398839587693099</v>
       </c>
       <c r="DD122"/>
       <c r="DE122" t="n">
-        <v>0.000223315173235628</v>
+        <v>0.000217165569287338</v>
       </c>
       <c r="DF122"/>
       <c r="DG122" t="n">
@@ -29244,11 +29244,11 @@
       <c r="DA124"/>
       <c r="DB124"/>
       <c r="DC124" t="n">
-        <v>0.00289727916525305</v>
+        <v>0.0028689673261374</v>
       </c>
       <c r="DD124"/>
       <c r="DE124" t="n">
-        <v>0.000160636996730808</v>
+        <v>0.000156213410572178</v>
       </c>
       <c r="DF124"/>
       <c r="DG124"/>
@@ -30256,11 +30256,11 @@
       <c r="DA129"/>
       <c r="DB129"/>
       <c r="DC129" t="n">
-        <v>0.00132567729856249</v>
+        <v>0.00131272295061898</v>
       </c>
       <c r="DD129"/>
       <c r="DE129" t="n">
-        <v>0.0000735009668482153</v>
+        <v>0.0000714769134469894</v>
       </c>
       <c r="DF129"/>
       <c r="DG129" t="n">
@@ -30852,11 +30852,11 @@
       <c r="DA132"/>
       <c r="DB132"/>
       <c r="DC132" t="n">
-        <v>0.000290492455952524</v>
+        <v>0.000287653801060074</v>
       </c>
       <c r="DD132"/>
       <c r="DE132" t="n">
-        <v>0.0000161060888632367</v>
+        <v>0.0000156625629432117</v>
       </c>
       <c r="DF132"/>
       <c r="DG132" t="n">
@@ -31048,11 +31048,11 @@
       <c r="DA133"/>
       <c r="DB133"/>
       <c r="DC133" t="n">
-        <v>0.00148719211397802</v>
+        <v>0.00147265946404564</v>
       </c>
       <c r="DD133"/>
       <c r="DE133" t="n">
-        <v>0.0000824560082494864</v>
+        <v>0.0000801853528947951</v>
       </c>
       <c r="DF133"/>
       <c r="DG133" t="n">
@@ -31900,11 +31900,11 @@
       <c r="DA137"/>
       <c r="DB137"/>
       <c r="DC137" t="n">
-        <v>0.000573691861109166</v>
+        <v>0.000568085818078009</v>
       </c>
       <c r="DD137"/>
       <c r="DE137" t="n">
-        <v>0.0000318078211871017</v>
+        <v>0.0000309319044281794</v>
       </c>
       <c r="DF137"/>
       <c r="DG137"/>
@@ -32852,11 +32852,11 @@
       <c r="DA142"/>
       <c r="DB142"/>
       <c r="DC142" t="n">
-        <v>0.00368404767095103</v>
+        <v>0.00364804763125681</v>
       </c>
       <c r="DD142"/>
       <c r="DE142" t="n">
-        <v>0.000204258657837349</v>
+        <v>0.000198633828003759</v>
       </c>
       <c r="DF142"/>
       <c r="DG142" t="n">
@@ -33296,11 +33296,11 @@
       <c r="DA144"/>
       <c r="DB144"/>
       <c r="DC144" t="n">
-        <v>0.00108026136846985</v>
+        <v>0.00106970519340955</v>
       </c>
       <c r="DD144"/>
       <c r="DE144" t="n">
-        <v>0.000059894104785085</v>
+        <v>0.0000582447541479161</v>
       </c>
       <c r="DF144"/>
       <c r="DG144"/>
@@ -33682,11 +33682,11 @@
       <c r="DA146"/>
       <c r="DB146"/>
       <c r="DC146" t="n">
-        <v>-0.000158133975332675</v>
+        <v>-0.00015658871047797</v>
       </c>
       <c r="DD146"/>
       <c r="DE146" t="n">
-        <v>-0.00000876759381118388</v>
+        <v>-0.00000852615374807912</v>
       </c>
       <c r="DF146"/>
       <c r="DG146"/>
@@ -33864,11 +33864,11 @@
       <c r="DA147"/>
       <c r="DB147"/>
       <c r="DC147" t="n">
-        <v>0.0039256116073564</v>
+        <v>0.00388725103596552</v>
       </c>
       <c r="DD147"/>
       <c r="DE147" t="n">
-        <v>0.000217651949629181</v>
+        <v>0.000211658298282524</v>
       </c>
       <c r="DF147"/>
       <c r="DG147"/>
@@ -34114,11 +34114,11 @@
       <c r="DA148"/>
       <c r="DB148"/>
       <c r="DC148" t="n">
-        <v>0.00489839072596757</v>
+        <v>0.00485052428222877</v>
       </c>
       <c r="DD148"/>
       <c r="DE148" t="n">
-        <v>0.000271586799252998</v>
+        <v>0.000264107901922419</v>
       </c>
       <c r="DF148"/>
       <c r="DG148" t="n">
@@ -34366,11 +34366,11 @@
       <c r="DA149"/>
       <c r="DB149"/>
       <c r="DC149" t="n">
-        <v>0.00190715036717948</v>
+        <v>0.00188851393924651</v>
       </c>
       <c r="DD149"/>
       <c r="DE149" t="n">
-        <v>0.000105740209977664</v>
+        <v>0.000102828359415295</v>
       </c>
       <c r="DF149"/>
       <c r="DG149" t="n">
@@ -34650,11 +34650,11 @@
       <c r="DA150"/>
       <c r="DB150"/>
       <c r="DC150" t="n">
-        <v>0.00372499717393311</v>
+        <v>0.00368859698096605</v>
       </c>
       <c r="DD150"/>
       <c r="DE150" t="n">
-        <v>0.000206529065623919</v>
+        <v>0.000200841713801849</v>
       </c>
       <c r="DF150"/>
       <c r="DG150" t="n">
@@ -34946,11 +34946,11 @@
       <c r="DA151"/>
       <c r="DB151"/>
       <c r="DC151" t="n">
-        <v>0.00277202837248841</v>
+        <v>0.00274494046799956</v>
       </c>
       <c r="DD151"/>
       <c r="DE151" t="n">
-        <v>0.000153692580939205</v>
+        <v>0.000149460228569806</v>
       </c>
       <c r="DF151"/>
       <c r="DG151" t="n">
@@ -35208,11 +35208,11 @@
       <c r="DA152"/>
       <c r="DB152"/>
       <c r="DC152" t="n">
-        <v>0.00542497768137555</v>
+        <v>0.00537196549768158</v>
       </c>
       <c r="DD152"/>
       <c r="DE152" t="n">
-        <v>0.000300782931972562</v>
+        <v>0.000292500037983603</v>
       </c>
       <c r="DF152"/>
       <c r="DG152" t="n">
@@ -35492,11 +35492,11 @@
       <c r="DA153"/>
       <c r="DB153"/>
       <c r="DC153" t="n">
-        <v>0.00375813840459413</v>
+        <v>0.00372141435978641</v>
       </c>
       <c r="DD153"/>
       <c r="DE153" t="n">
-        <v>0.000208366550884296</v>
+        <v>0.000202628598798713</v>
       </c>
       <c r="DF153"/>
       <c r="DG153" t="n">
@@ -35754,11 +35754,11 @@
       <c r="DA154"/>
       <c r="DB154"/>
       <c r="DC154" t="n">
-        <v>0.00791627918631596</v>
+        <v>0.00783892232495256</v>
       </c>
       <c r="DD154"/>
       <c r="DE154" t="n">
-        <v>0.000438910868177017</v>
+        <v>0.000426824237569786</v>
       </c>
       <c r="DF154"/>
       <c r="DG154" t="n">
@@ -36050,11 +36050,11 @@
       <c r="DA155"/>
       <c r="DB155"/>
       <c r="DC155" t="n">
-        <v>0.00285926002375885</v>
+        <v>0.00283131970280072</v>
       </c>
       <c r="DD155"/>
       <c r="DE155" t="n">
-        <v>0.000158529060160126</v>
+        <v>0.000154163521893495</v>
       </c>
       <c r="DF155"/>
       <c r="DG155" t="n">
@@ -36334,11 +36334,11 @@
       <c r="DA156"/>
       <c r="DB156"/>
       <c r="DC156" t="n">
-        <v>0.0021150857767454</v>
+        <v>0.00209441743075197</v>
       </c>
       <c r="DD156"/>
       <c r="DE156" t="n">
-        <v>0.000117268998817639</v>
+        <v>0.00011403967101294</v>
       </c>
       <c r="DF156"/>
       <c r="DG156" t="n">
@@ -37006,11 +37006,11 @@
       <c r="DA159"/>
       <c r="DB159"/>
       <c r="DC159" t="n">
-        <v>0.00111436328243432</v>
+        <v>0.00110347386785976</v>
       </c>
       <c r="DD159"/>
       <c r="DE159" t="n">
-        <v>0.0000617848542536628</v>
+        <v>0.0000600834365749726</v>
       </c>
       <c r="DF159"/>
       <c r="DG159" t="n">
@@ -37220,11 +37220,11 @@
       <c r="DA160"/>
       <c r="DB160"/>
       <c r="DC160" t="n">
-        <v>0.00573841927299135</v>
+        <v>0.00568234417840484</v>
       </c>
       <c r="DD160"/>
       <c r="DE160" t="n">
-        <v>0.000318161414699231</v>
+        <v>0.00030939995588889</v>
       </c>
       <c r="DF160"/>
       <c r="DG160" t="n">
@@ -37620,11 +37620,11 @@
       <c r="DA162"/>
       <c r="DB162"/>
       <c r="DC162" t="n">
-        <v>0.00459516498195642</v>
+        <v>0.00455026162116217</v>
       </c>
       <c r="DD162"/>
       <c r="DE162" t="n">
-        <v>0.000254774724864867</v>
+        <v>0.000247758794727865</v>
       </c>
       <c r="DF162"/>
       <c r="DG162" t="n">
@@ -37878,11 +37878,11 @@
       <c r="DA163"/>
       <c r="DB163"/>
       <c r="DC163" t="n">
-        <v>0.00250097700156168</v>
+        <v>0.00247653777618453</v>
       </c>
       <c r="DD163"/>
       <c r="DE163" t="n">
-        <v>0.000138664385276315</v>
+        <v>0.000134845876041913</v>
       </c>
       <c r="DF163"/>
       <c r="DG163" t="n">
@@ -38124,11 +38124,11 @@
       <c r="DA164"/>
       <c r="DB164"/>
       <c r="DC164" t="n">
-        <v>0.00809011269545979</v>
+        <v>0.00801105715541786</v>
       </c>
       <c r="DD164"/>
       <c r="DE164" t="n">
-        <v>0.000448548908299259</v>
+        <v>0.000436196867470542</v>
       </c>
       <c r="DF164"/>
       <c r="DG164" t="n">
@@ -38328,11 +38328,11 @@
       <c r="DA165"/>
       <c r="DB165"/>
       <c r="DC165" t="n">
-        <v>0.00224334822103285</v>
+        <v>0.00222142651094154</v>
       </c>
       <c r="DD165"/>
       <c r="DE165" t="n">
-        <v>0.000124380392876861</v>
+        <v>0.000120955233072254</v>
       </c>
       <c r="DF165"/>
       <c r="DG165" t="n">
@@ -38612,11 +38612,11 @@
       <c r="DA166"/>
       <c r="DB166"/>
       <c r="DC166" t="n">
-        <v>0.00365547115319593</v>
+        <v>0.00361975035955534</v>
       </c>
       <c r="DD166"/>
       <c r="DE166" t="n">
-        <v>0.000202674258914298</v>
+        <v>0.000197093059908528</v>
       </c>
       <c r="DF166"/>
       <c r="DG166" t="n">
@@ -39178,11 +39178,11 @@
       <c r="DA168"/>
       <c r="DB168"/>
       <c r="DC168" t="n">
-        <v>0.00213495300003284</v>
+        <v>0.0021140905140904</v>
       </c>
       <c r="DD168"/>
       <c r="DE168" t="n">
-        <v>0.000118370518864636</v>
+        <v>0.000115110857644021</v>
       </c>
       <c r="DF168"/>
       <c r="DG168" t="n">
@@ -39758,11 +39758,11 @@
       <c r="DA170"/>
       <c r="DB170"/>
       <c r="DC170" t="n">
-        <v>0.00169715750601976</v>
+        <v>0.00168057310129942</v>
       </c>
       <c r="DD170"/>
       <c r="DE170" t="n">
-        <v>0.0000940973476134983</v>
+        <v>0.0000915061156249892</v>
       </c>
       <c r="DF170"/>
       <c r="DG170" t="n">
@@ -40312,11 +40312,11 @@
       <c r="DA172"/>
       <c r="DB172"/>
       <c r="DC172" t="n">
-        <v>0.00223287220825038</v>
+        <v>0.00221105286840769</v>
       </c>
       <c r="DD172"/>
       <c r="DE172" t="n">
-        <v>0.000123799559917693</v>
+        <v>0.000120390394962909</v>
       </c>
       <c r="DF172"/>
       <c r="DG172" t="n">
@@ -40620,11 +40620,11 @@
       <c r="DA173"/>
       <c r="DB173"/>
       <c r="DC173" t="n">
-        <v>0.00204951451740476</v>
+        <v>0.00202948692531842</v>
       </c>
       <c r="DD173"/>
       <c r="DE173" t="n">
-        <v>0.00011363346024108</v>
+        <v>0.000110504247095231</v>
       </c>
       <c r="DF173"/>
       <c r="DG173" t="n">
@@ -40906,11 +40906,11 @@
       <c r="DA174"/>
       <c r="DB174"/>
       <c r="DC174" t="n">
-        <v>0.00255005183826133</v>
+        <v>0.002525133059896</v>
       </c>
       <c r="DD174"/>
       <c r="DE174" t="n">
-        <v>0.000141385294768583</v>
+        <v>0.000137491857729167</v>
       </c>
       <c r="DF174"/>
       <c r="DG174" t="n">
@@ -41206,11 +41206,11 @@
       <c r="DA175"/>
       <c r="DB175"/>
       <c r="DC175" t="n">
-        <v>0.00348359606942831</v>
+        <v>0.00344955481698553</v>
       </c>
       <c r="DD175"/>
       <c r="DE175" t="n">
-        <v>0.000193144801898072</v>
+        <v>0.000187826022976181</v>
       </c>
       <c r="DF175"/>
       <c r="DG175" t="n">
@@ -41492,11 +41492,11 @@
       <c r="DA176"/>
       <c r="DB176"/>
       <c r="DC176" t="n">
-        <v>0.00224244403150549</v>
+        <v>0.00222053115703787</v>
       </c>
       <c r="DD176"/>
       <c r="DE176" t="n">
-        <v>0.000124330260914469</v>
+        <v>0.000120906481632777</v>
       </c>
       <c r="DF176"/>
       <c r="DG176" t="n">
@@ -41800,11 +41800,11 @@
       <c r="DA177"/>
       <c r="DB177"/>
       <c r="DC177" t="n">
-        <v>0.00174720768486879</v>
+        <v>0.00173013419624233</v>
       </c>
       <c r="DD177"/>
       <c r="DE177" t="n">
-        <v>0.0000968723340602895</v>
+        <v>0.0000942046851075305</v>
       </c>
       <c r="DF177"/>
       <c r="DG177" t="n">
@@ -42230,11 +42230,11 @@
       <c r="DA179"/>
       <c r="DB179"/>
       <c r="DC179" t="n">
-        <v>0.00152071201743802</v>
+        <v>0.00150585181532312</v>
       </c>
       <c r="DD179"/>
       <c r="DE179" t="n">
-        <v>0.000084314488677295</v>
+        <v>0.0000819926548988045</v>
       </c>
       <c r="DF179"/>
       <c r="DG179" t="n">
@@ -43080,11 +43080,11 @@
       <c r="DA183"/>
       <c r="DB183"/>
       <c r="DC183" t="n">
-        <v>0.00467593963206757</v>
+        <v>0.00463024695178834</v>
       </c>
       <c r="DD183"/>
       <c r="DE183" t="n">
-        <v>0.000259253201554808</v>
+        <v>0.000252113944115251</v>
       </c>
       <c r="DF183"/>
       <c r="DG183" t="n">
@@ -44160,11 +44160,11 @@
       <c r="DA188"/>
       <c r="DB188"/>
       <c r="DC188" t="n">
-        <v>0.00245502306179614</v>
+        <v>0.00243103289240398</v>
       </c>
       <c r="DD188"/>
       <c r="DE188" t="n">
-        <v>0.000136116511063704</v>
+        <v>0.000132368164626977</v>
       </c>
       <c r="DF188"/>
       <c r="DG188" t="n">
@@ -44792,11 +44792,11 @@
       <c r="DA191"/>
       <c r="DB191"/>
       <c r="DC191" t="n">
-        <v>0.00447793026559817</v>
+        <v>0.00443417250736377</v>
       </c>
       <c r="DD191"/>
       <c r="DE191" t="n">
-        <v>0.000248274753107146</v>
+        <v>0.000241437817757673</v>
       </c>
       <c r="DF191"/>
       <c r="DG191" t="n">
@@ -46070,11 +46070,11 @@
       <c r="DA198"/>
       <c r="DB198"/>
       <c r="DC198" t="n">
-        <v>0.00159407726704562</v>
+        <v>0.00157850014915385</v>
       </c>
       <c r="DD198"/>
       <c r="DE198" t="n">
-        <v>0.0000883821579246048</v>
+        <v>0.0000859483095682369</v>
       </c>
       <c r="DF198"/>
       <c r="DG198" t="n">
@@ -46648,11 +46648,11 @@
       <c r="DA201"/>
       <c r="DB201"/>
       <c r="DC201" t="n">
-        <v>0.00267767476320044</v>
+        <v>0.002651508870038</v>
       </c>
       <c r="DD201"/>
       <c r="DE201" t="n">
-        <v>0.00014846123126172</v>
+        <v>0.000144372938645025</v>
       </c>
       <c r="DF201"/>
       <c r="DG201" t="n">
@@ -46878,11 +46878,11 @@
       <c r="DA202"/>
       <c r="DB202"/>
       <c r="DC202" t="n">
-        <v>0.00068742197032608</v>
+        <v>0.000680704571305011</v>
       </c>
       <c r="DD202"/>
       <c r="DE202" t="n">
-        <v>0.0000381134832032354</v>
+        <v>0.0000370639225155593</v>
       </c>
       <c r="DF202"/>
       <c r="DG202" t="n">
@@ -47652,11 +47652,11 @@
       <c r="DA206"/>
       <c r="DB206"/>
       <c r="DC206" t="n">
-        <v>0.000819955858023904</v>
+        <v>0.000811943354909701</v>
       </c>
       <c r="DD206"/>
       <c r="DE206" t="n">
-        <v>0.000045461703540497</v>
+        <v>0.0000442097891831432</v>
       </c>
       <c r="DF206"/>
       <c r="DG206" t="n">
@@ -48264,11 +48264,11 @@
       <c r="DA209"/>
       <c r="DB209"/>
       <c r="DC209" t="n">
-        <v>0.00302714456445624</v>
+        <v>0.00299756369737358</v>
       </c>
       <c r="DD209"/>
       <c r="DE209" t="n">
-        <v>0.000167837265161077</v>
+        <v>0.000163215399599727</v>
       </c>
       <c r="DF209"/>
       <c r="DG209" t="n">
@@ -48680,11 +48680,11 @@
       <c r="DA211"/>
       <c r="DB211"/>
       <c r="DC211" t="n">
-        <v>0.00168296847198755</v>
+        <v>0.00166652272068162</v>
       </c>
       <c r="DD211"/>
       <c r="DE211" t="n">
-        <v>0.0000933106495828838</v>
+        <v>0.0000907410815110942</v>
       </c>
       <c r="DF211"/>
       <c r="DG211" t="n">

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -242,7 +242,7 @@
     <t xml:space="preserve">Psi_Extract</t>
   </si>
   <si>
-    <t xml:space="preserve">Psi_Critic</t>
+    <t xml:space="preserve">Exp_Extract</t>
   </si>
   <si>
     <t xml:space="preserve">WUE</t>
@@ -2610,7 +2610,7 @@
     <tableColumn id="74" name="Tmax_LAI"/>
     <tableColumn id="75" name="Tmax_LAIsq"/>
     <tableColumn id="76" name="Psi_Extract"/>
-    <tableColumn id="77" name="Psi_Critic"/>
+    <tableColumn id="77" name="Exp_Extract"/>
     <tableColumn id="78" name="WUE"/>
     <tableColumn id="79" name="WUE_par"/>
     <tableColumn id="80" name="WUE_co2"/>
@@ -3499,9 +3499,7 @@
       <c r="BX2" t="n">
         <v>-1.8</v>
       </c>
-      <c r="BY2" t="n">
-        <v>-3.74711270489309</v>
-      </c>
+      <c r="BY2"/>
       <c r="BZ2" t="n">
         <v>7.80101804533824</v>
       </c>
@@ -3779,9 +3777,7 @@
       <c r="BX3" t="n">
         <v>-1.32605408813507</v>
       </c>
-      <c r="BY3" t="n">
-        <v>-4.15016666669445</v>
-      </c>
+      <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
@@ -4009,9 +4005,7 @@
       <c r="BX4" t="n">
         <v>-2.60913420119169</v>
       </c>
-      <c r="BY4" t="n">
-        <v>-2.60913420119169</v>
-      </c>
+      <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
@@ -4271,9 +4265,7 @@
       <c r="BX5" t="n">
         <v>-1.16643646641511</v>
       </c>
-      <c r="BY5" t="n">
-        <v>-3.21371428571429</v>
-      </c>
+      <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
@@ -4543,9 +4535,7 @@
       <c r="BX6" t="n">
         <v>-1.99522027149953</v>
       </c>
-      <c r="BY6" t="n">
-        <v>-3.89128801188147</v>
-      </c>
+      <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
@@ -4815,9 +4805,7 @@
       <c r="BX7" t="n">
         <v>-1.1727275438286</v>
       </c>
-      <c r="BY7" t="n">
-        <v>-1.57901583998003</v>
-      </c>
+      <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
@@ -5083,9 +5071,7 @@
       <c r="BX8" t="n">
         <v>-1.1727275438286</v>
       </c>
-      <c r="BY8" t="n">
-        <v>-3.14535714285714</v>
-      </c>
+      <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
@@ -5355,9 +5341,7 @@
       <c r="BX9" t="n">
         <v>-0.982262287507461</v>
       </c>
-      <c r="BY9" t="n">
-        <v>-2.7252214594257</v>
-      </c>
+      <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
@@ -5623,9 +5607,7 @@
       <c r="BX10" t="n">
         <v>-0.811202046834753</v>
       </c>
-      <c r="BY10" t="n">
-        <v>-2.09971998540974</v>
-      </c>
+      <c r="BY10"/>
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
@@ -6243,9 +6225,7 @@
       <c r="BX13" t="n">
         <v>-0.994540566101305</v>
       </c>
-      <c r="BY13" t="n">
-        <v>-1.88055938140551</v>
-      </c>
+      <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
@@ -6479,9 +6459,7 @@
       <c r="BV14"/>
       <c r="BW14"/>
       <c r="BX14"/>
-      <c r="BY14" t="n">
-        <v>-6.87277777772222</v>
-      </c>
+      <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
@@ -7027,9 +7005,7 @@
       <c r="BV17"/>
       <c r="BW17"/>
       <c r="BX17"/>
-      <c r="BY17" t="n">
-        <v>-1.79</v>
-      </c>
+      <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
@@ -7565,9 +7541,7 @@
       <c r="BX20" t="n">
         <v>-1.12525307363159</v>
       </c>
-      <c r="BY20" t="n">
-        <v>-3.34109680510477</v>
-      </c>
+      <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
       <c r="CB20"/>
@@ -7787,9 +7761,7 @@
       <c r="BX21" t="n">
         <v>-1.12525307363159</v>
       </c>
-      <c r="BY21" t="n">
-        <v>-3.34109680510477</v>
-      </c>
+      <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
       <c r="CB21"/>
@@ -8017,9 +7989,7 @@
       <c r="BV22"/>
       <c r="BW22"/>
       <c r="BX22"/>
-      <c r="BY22" t="n">
-        <v>-4.51881219855317</v>
-      </c>
+      <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
       <c r="CB22"/>
@@ -8233,9 +8203,7 @@
       <c r="BX23" t="n">
         <v>-1.54706310282425</v>
       </c>
-      <c r="BY23" t="n">
-        <v>-3.42759898128712</v>
-      </c>
+      <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
@@ -8835,9 +8803,7 @@
       <c r="BV26"/>
       <c r="BW26"/>
       <c r="BX26"/>
-      <c r="BY26" t="n">
-        <v>-2.27338854788727</v>
-      </c>
+      <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
       <c r="CB26"/>
@@ -9037,9 +9003,7 @@
       <c r="BX27" t="n">
         <v>-2.21009014689179</v>
       </c>
-      <c r="BY27" t="n">
-        <v>-4.5</v>
-      </c>
+      <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27"/>
@@ -9275,9 +9239,7 @@
       <c r="BX28" t="n">
         <v>-0.917801324889784</v>
       </c>
-      <c r="BY28" t="n">
-        <v>-1.74006664494041</v>
-      </c>
+      <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
       <c r="CB28"/>
@@ -9711,9 +9673,7 @@
       <c r="BV30"/>
       <c r="BW30"/>
       <c r="BX30"/>
-      <c r="BY30" t="n">
-        <v>-8</v>
-      </c>
+      <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
       <c r="CB30"/>
@@ -10313,9 +10273,7 @@
       <c r="BX33" t="n">
         <v>-1.43041945618274</v>
       </c>
-      <c r="BY33" t="n">
-        <v>-3.74985</v>
-      </c>
+      <c r="BY33"/>
       <c r="BZ33"/>
       <c r="CA33"/>
       <c r="CB33"/>
@@ -10531,9 +10489,7 @@
       <c r="BX34" t="n">
         <v>-1.4284</v>
       </c>
-      <c r="BY34" t="n">
-        <v>-1.740067</v>
-      </c>
+      <c r="BY34"/>
       <c r="BZ34"/>
       <c r="CA34"/>
       <c r="CB34"/>
@@ -10779,9 +10735,7 @@
       <c r="BX35" t="n">
         <v>-1.82127799142008</v>
       </c>
-      <c r="BY35" t="n">
-        <v>-6.70492878330317</v>
-      </c>
+      <c r="BY35"/>
       <c r="BZ35"/>
       <c r="CA35"/>
       <c r="CB35"/>
@@ -10991,9 +10945,7 @@
       <c r="BX36" t="n">
         <v>-1.23396699868125</v>
       </c>
-      <c r="BY36" t="n">
-        <v>-1.23396699868125</v>
-      </c>
+      <c r="BY36"/>
       <c r="BZ36"/>
       <c r="CA36"/>
       <c r="CB36"/>
@@ -11207,9 +11159,7 @@
       <c r="BX37" t="n">
         <v>-1.13642289651905</v>
       </c>
-      <c r="BY37" t="n">
-        <v>-7.08023809522619</v>
-      </c>
+      <c r="BY37"/>
       <c r="BZ37"/>
       <c r="CA37"/>
       <c r="CB37"/>
@@ -11403,9 +11353,7 @@
       <c r="BV38"/>
       <c r="BW38"/>
       <c r="BX38"/>
-      <c r="BY38" t="n">
-        <v>-5.98868632477778</v>
-      </c>
+      <c r="BY38"/>
       <c r="BZ38"/>
       <c r="CA38"/>
       <c r="CB38"/>
@@ -12191,9 +12139,7 @@
       <c r="BX42" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY42" t="n">
-        <v>-5.15853339938455</v>
-      </c>
+      <c r="BY42"/>
       <c r="BZ42"/>
       <c r="CA42"/>
       <c r="CB42"/>
@@ -12409,9 +12355,7 @@
       <c r="BX43" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY43" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY43"/>
       <c r="BZ43"/>
       <c r="CA43"/>
       <c r="CB43"/>
@@ -12627,9 +12571,7 @@
       <c r="BX44" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY44" t="n">
-        <v>-5.16387373120537</v>
-      </c>
+      <c r="BY44"/>
       <c r="BZ44"/>
       <c r="CA44"/>
       <c r="CB44"/>
@@ -12839,9 +12781,7 @@
       <c r="BX45" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY45" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY45"/>
       <c r="BZ45"/>
       <c r="CA45"/>
       <c r="CB45"/>
@@ -13057,9 +12997,7 @@
       <c r="BX46" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY46" t="n">
-        <v>-6.2</v>
-      </c>
+      <c r="BY46"/>
       <c r="BZ46"/>
       <c r="CA46"/>
       <c r="CB46"/>
@@ -13275,9 +13213,7 @@
       <c r="BX47" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY47" t="n">
-        <v>-3.13910638379289</v>
-      </c>
+      <c r="BY47"/>
       <c r="BZ47"/>
       <c r="CA47"/>
       <c r="CB47"/>
@@ -13493,9 +13429,7 @@
       <c r="BX48" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY48" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY48"/>
       <c r="BZ48"/>
       <c r="CA48"/>
       <c r="CB48"/>
@@ -13705,9 +13639,7 @@
       <c r="BX49" t="n">
         <v>-1.20327130219664</v>
       </c>
-      <c r="BY49" t="n">
-        <v>-10.2</v>
-      </c>
+      <c r="BY49"/>
       <c r="BZ49"/>
       <c r="CA49"/>
       <c r="CB49"/>
@@ -13923,9 +13855,7 @@
       <c r="BX50" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY50" t="n">
-        <v>-8.1</v>
-      </c>
+      <c r="BY50"/>
       <c r="BZ50"/>
       <c r="CA50"/>
       <c r="CB50"/>
@@ -14141,9 +14071,7 @@
       <c r="BX51" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY51" t="n">
-        <v>-6.6</v>
-      </c>
+      <c r="BY51"/>
       <c r="BZ51"/>
       <c r="CA51"/>
       <c r="CB51"/>
@@ -14353,9 +14281,7 @@
       <c r="BX52" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY52" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY52"/>
       <c r="BZ52"/>
       <c r="CA52"/>
       <c r="CB52"/>
@@ -14571,9 +14497,7 @@
       <c r="BX53" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY53" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY53"/>
       <c r="BZ53"/>
       <c r="CA53"/>
       <c r="CB53"/>
@@ -15533,9 +15457,7 @@
       <c r="BX58" t="n">
         <v>-1.958385435718</v>
       </c>
-      <c r="BY58" t="n">
-        <v>-6.36583333333333</v>
-      </c>
+      <c r="BY58"/>
       <c r="BZ58"/>
       <c r="CA58"/>
       <c r="CB58"/>
@@ -15937,9 +15859,7 @@
       <c r="BX60" t="n">
         <v>-1.1357407699305</v>
       </c>
-      <c r="BY60" t="n">
-        <v>-2.09787826798312</v>
-      </c>
+      <c r="BY60"/>
       <c r="BZ60"/>
       <c r="CA60"/>
       <c r="CB60"/>
@@ -16161,9 +16081,7 @@
       <c r="BX61" t="n">
         <v>-2.05661166446875</v>
       </c>
-      <c r="BY61" t="n">
-        <v>-2.05661166446875</v>
-      </c>
+      <c r="BY61"/>
       <c r="BZ61"/>
       <c r="CA61"/>
       <c r="CB61"/>
@@ -16355,9 +16273,7 @@
       <c r="BX62" t="n">
         <v>-2.41882088298712</v>
       </c>
-      <c r="BY62" t="n">
-        <v>-7.61870000531642</v>
-      </c>
+      <c r="BY62"/>
       <c r="BZ62"/>
       <c r="CA62"/>
       <c r="CB62"/>
@@ -16567,9 +16483,7 @@
       <c r="BX63" t="n">
         <v>-2.02591596798414</v>
       </c>
-      <c r="BY63" t="n">
-        <v>-10.2174514161111</v>
-      </c>
+      <c r="BY63"/>
       <c r="BZ63"/>
       <c r="CA63"/>
       <c r="CB63"/>
@@ -16979,9 +16893,7 @@
       <c r="BV65"/>
       <c r="BW65"/>
       <c r="BX65"/>
-      <c r="BY65" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY65"/>
       <c r="BZ65"/>
       <c r="CA65"/>
       <c r="CB65"/>
@@ -17181,9 +17093,7 @@
       <c r="BV66"/>
       <c r="BW66"/>
       <c r="BX66"/>
-      <c r="BY66" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY66"/>
       <c r="BZ66"/>
       <c r="CA66"/>
       <c r="CB66"/>
@@ -17383,9 +17293,7 @@
       <c r="BV67"/>
       <c r="BW67"/>
       <c r="BX67"/>
-      <c r="BY67" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY67"/>
       <c r="BZ67"/>
       <c r="CA67"/>
       <c r="CB67"/>
@@ -17585,9 +17493,7 @@
       <c r="BV68"/>
       <c r="BW68"/>
       <c r="BX68"/>
-      <c r="BY68" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY68"/>
       <c r="BZ68"/>
       <c r="CA68"/>
       <c r="CB68"/>
@@ -17787,9 +17693,7 @@
       <c r="BV69"/>
       <c r="BW69"/>
       <c r="BX69"/>
-      <c r="BY69" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY69"/>
       <c r="BZ69"/>
       <c r="CA69"/>
       <c r="CB69"/>
@@ -17989,9 +17893,7 @@
       <c r="BV70"/>
       <c r="BW70"/>
       <c r="BX70"/>
-      <c r="BY70" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY70"/>
       <c r="BZ70"/>
       <c r="CA70"/>
       <c r="CB70"/>
@@ -18197,9 +18099,7 @@
       <c r="BV71"/>
       <c r="BW71"/>
       <c r="BX71"/>
-      <c r="BY71" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY71"/>
       <c r="BZ71"/>
       <c r="CA71"/>
       <c r="CB71"/>
@@ -18399,9 +18299,7 @@
       <c r="BV72"/>
       <c r="BW72"/>
       <c r="BX72"/>
-      <c r="BY72" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY72"/>
       <c r="BZ72"/>
       <c r="CA72"/>
       <c r="CB72"/>
@@ -18601,9 +18499,7 @@
       <c r="BV73"/>
       <c r="BW73"/>
       <c r="BX73"/>
-      <c r="BY73" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY73"/>
       <c r="BZ73"/>
       <c r="CA73"/>
       <c r="CB73"/>
@@ -18809,9 +18705,7 @@
       <c r="BV74"/>
       <c r="BW74"/>
       <c r="BX74"/>
-      <c r="BY74" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY74"/>
       <c r="BZ74"/>
       <c r="CA74"/>
       <c r="CB74"/>
@@ -19017,9 +18911,7 @@
       <c r="BV75"/>
       <c r="BW75"/>
       <c r="BX75"/>
-      <c r="BY75" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY75"/>
       <c r="BZ75"/>
       <c r="CA75"/>
       <c r="CB75"/>
@@ -19225,9 +19117,7 @@
       <c r="BV76"/>
       <c r="BW76"/>
       <c r="BX76"/>
-      <c r="BY76" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY76"/>
       <c r="BZ76"/>
       <c r="CA76"/>
       <c r="CB76"/>
@@ -19427,9 +19317,7 @@
       <c r="BV77"/>
       <c r="BW77"/>
       <c r="BX77"/>
-      <c r="BY77" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY77"/>
       <c r="BZ77"/>
       <c r="CA77"/>
       <c r="CB77"/>
@@ -19799,9 +19687,7 @@
       <c r="BV79"/>
       <c r="BW79"/>
       <c r="BX79"/>
-      <c r="BY79" t="n">
-        <v>-3.68867119698983</v>
-      </c>
+      <c r="BY79"/>
       <c r="BZ79"/>
       <c r="CA79"/>
       <c r="CB79"/>
@@ -20903,9 +20789,7 @@
       <c r="BV85"/>
       <c r="BW85"/>
       <c r="BX85"/>
-      <c r="BY85" t="n">
-        <v>-2.7</v>
-      </c>
+      <c r="BY85"/>
       <c r="BZ85"/>
       <c r="CA85"/>
       <c r="CB85"/>
@@ -21129,9 +21013,7 @@
       <c r="BV86"/>
       <c r="BW86"/>
       <c r="BX86"/>
-      <c r="BY86" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY86"/>
       <c r="BZ86"/>
       <c r="CA86"/>
       <c r="CB86"/>
@@ -21343,9 +21225,7 @@
       <c r="BV87"/>
       <c r="BW87"/>
       <c r="BX87"/>
-      <c r="BY87" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY87"/>
       <c r="BZ87"/>
       <c r="CA87"/>
       <c r="CB87"/>
@@ -21551,9 +21431,7 @@
       <c r="BV88"/>
       <c r="BW88"/>
       <c r="BX88"/>
-      <c r="BY88" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY88"/>
       <c r="BZ88"/>
       <c r="CA88"/>
       <c r="CB88"/>
@@ -21765,9 +21643,7 @@
       <c r="BV89"/>
       <c r="BW89"/>
       <c r="BX89"/>
-      <c r="BY89" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY89"/>
       <c r="BZ89"/>
       <c r="CA89"/>
       <c r="CB89"/>
@@ -21973,9 +21849,7 @@
       <c r="BV90"/>
       <c r="BW90"/>
       <c r="BX90"/>
-      <c r="BY90" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY90"/>
       <c r="BZ90"/>
       <c r="CA90"/>
       <c r="CB90"/>
@@ -22191,9 +22065,7 @@
       <c r="BV91"/>
       <c r="BW91"/>
       <c r="BX91"/>
-      <c r="BY91" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY91"/>
       <c r="BZ91"/>
       <c r="CA91"/>
       <c r="CB91"/>
@@ -22413,9 +22285,7 @@
       <c r="BV92"/>
       <c r="BW92"/>
       <c r="BX92"/>
-      <c r="BY92" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY92"/>
       <c r="BZ92"/>
       <c r="CA92"/>
       <c r="CB92"/>
@@ -22621,9 +22491,7 @@
       <c r="BV93"/>
       <c r="BW93"/>
       <c r="BX93"/>
-      <c r="BY93" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY93"/>
       <c r="BZ93"/>
       <c r="CA93"/>
       <c r="CB93"/>
@@ -22829,9 +22697,7 @@
       <c r="BV94"/>
       <c r="BW94"/>
       <c r="BX94"/>
-      <c r="BY94" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY94"/>
       <c r="BZ94"/>
       <c r="CA94"/>
       <c r="CB94"/>
@@ -23247,9 +23113,7 @@
       <c r="BX96" t="n">
         <v>-1.33720685785781</v>
       </c>
-      <c r="BY96" t="n">
-        <v>-2.21771402904092</v>
-      </c>
+      <c r="BY96"/>
       <c r="BZ96"/>
       <c r="CA96"/>
       <c r="CB96"/>
@@ -23457,9 +23321,7 @@
       <c r="BV97"/>
       <c r="BW97"/>
       <c r="BX97"/>
-      <c r="BY97" t="n">
-        <v>-5.14166666666667</v>
-      </c>
+      <c r="BY97"/>
       <c r="BZ97"/>
       <c r="CA97"/>
       <c r="CB97"/>
@@ -23917,9 +23779,7 @@
       <c r="BX99" t="n">
         <v>-1.4284</v>
       </c>
-      <c r="BY99" t="n">
-        <v>-3.1481</v>
-      </c>
+      <c r="BY99"/>
       <c r="BZ99" t="n">
         <v>7.94644065220063</v>
       </c>
@@ -24163,9 +24023,7 @@
       <c r="BX100" t="n">
         <v>-0.930079603483628</v>
       </c>
-      <c r="BY100" t="n">
-        <v>-1.43634661727807</v>
-      </c>
+      <c r="BY100"/>
       <c r="BZ100"/>
       <c r="CA100"/>
       <c r="CB100"/>
@@ -24375,9 +24233,7 @@
       <c r="BV101"/>
       <c r="BW101"/>
       <c r="BX101"/>
-      <c r="BY101" t="n">
-        <v>-2.9234666666</v>
-      </c>
+      <c r="BY101"/>
       <c r="BZ101"/>
       <c r="CA101"/>
       <c r="CB101"/>
@@ -24603,9 +24459,7 @@
       <c r="BX102" t="n">
         <v>-1.31531059436546</v>
       </c>
-      <c r="BY102" t="n">
-        <v>-1.62204438140557</v>
-      </c>
+      <c r="BY102"/>
       <c r="BZ102"/>
       <c r="CA102"/>
       <c r="CB102"/>
@@ -25173,9 +25027,7 @@
       <c r="BV105"/>
       <c r="BW105"/>
       <c r="BX105"/>
-      <c r="BY105" t="n">
-        <v>-0.51902760863866</v>
-      </c>
+      <c r="BY105"/>
       <c r="BZ105"/>
       <c r="CA105"/>
       <c r="CB105"/>
@@ -25923,9 +25775,7 @@
       <c r="BX109" t="n">
         <v>-1.28614968270508</v>
       </c>
-      <c r="BY109" t="n">
-        <v>-1.28614968270508</v>
-      </c>
+      <c r="BY109"/>
       <c r="BZ109"/>
       <c r="CA109"/>
       <c r="CB109"/>
@@ -26747,9 +26597,7 @@
       <c r="BX113" t="n">
         <v>-1.55320224212117</v>
       </c>
-      <c r="BY113" t="n">
-        <v>-4.64356876056179</v>
-      </c>
+      <c r="BY113"/>
       <c r="BZ113"/>
       <c r="CA113"/>
       <c r="CB113"/>
@@ -27165,9 +27013,7 @@
       <c r="BX115" t="n">
         <v>-0.896314337350559</v>
       </c>
-      <c r="BY115" t="n">
-        <v>-2.0975838590235</v>
-      </c>
+      <c r="BY115"/>
       <c r="BZ115"/>
       <c r="CA115"/>
       <c r="CB115"/>
@@ -27391,9 +27237,7 @@
       <c r="BX116" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY116" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY116"/>
       <c r="BZ116"/>
       <c r="CA116"/>
       <c r="CB116"/>
@@ -27633,9 +27477,7 @@
       <c r="BX117" t="n">
         <v>-1.84174178907649</v>
       </c>
-      <c r="BY117" t="n">
-        <v>-5.90193181817992</v>
-      </c>
+      <c r="BY117"/>
       <c r="BZ117"/>
       <c r="CA117"/>
       <c r="CB117"/>
@@ -27889,9 +27731,7 @@
       <c r="BX118" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY118" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY118"/>
       <c r="BZ118"/>
       <c r="CA118"/>
       <c r="CB118"/>
@@ -28145,9 +27985,7 @@
       <c r="BX119" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY119" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY119"/>
       <c r="BZ119"/>
       <c r="CA119"/>
       <c r="CB119"/>
@@ -28387,9 +28225,7 @@
       <c r="BX120" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY120" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY120"/>
       <c r="BZ120"/>
       <c r="CA120"/>
       <c r="CB120"/>
@@ -28783,9 +28619,7 @@
       <c r="BX122" t="n">
         <v>-1.66275518287474</v>
       </c>
-      <c r="BY122" t="n">
-        <v>-3.85264759417045</v>
-      </c>
+      <c r="BY122"/>
       <c r="BZ122"/>
       <c r="CA122"/>
       <c r="CB122"/>
@@ -29007,9 +28841,7 @@
       <c r="BV123"/>
       <c r="BW123"/>
       <c r="BX123"/>
-      <c r="BY123" t="n">
-        <v>-1.47</v>
-      </c>
+      <c r="BY123"/>
       <c r="BZ123"/>
       <c r="CA123"/>
       <c r="CB123"/>
@@ -29203,9 +29035,7 @@
       <c r="BX124" t="n">
         <v>-1.73430685138036</v>
       </c>
-      <c r="BY124" t="n">
-        <v>-3.45305755000849</v>
-      </c>
+      <c r="BY124"/>
       <c r="BZ124"/>
       <c r="CA124"/>
       <c r="CB124"/>
@@ -29625,9 +29455,7 @@
       <c r="BX126" t="n">
         <v>-1.7864895354042</v>
       </c>
-      <c r="BY126" t="n">
-        <v>-4.38857044883368</v>
-      </c>
+      <c r="BY126"/>
       <c r="BZ126"/>
       <c r="CA126"/>
       <c r="CB126"/>
@@ -30019,9 +29847,7 @@
       <c r="BV128"/>
       <c r="BW128"/>
       <c r="BX128"/>
-      <c r="BY128" t="n">
-        <v>-5.51415115901988</v>
-      </c>
+      <c r="BY128"/>
       <c r="BZ128"/>
       <c r="CA128"/>
       <c r="CB128"/>
@@ -30213,9 +30039,7 @@
       <c r="BX129" t="n">
         <v>-1.59617621719962</v>
       </c>
-      <c r="BY129" t="n">
-        <v>-6.01361111105555</v>
-      </c>
+      <c r="BY129"/>
       <c r="BZ129"/>
       <c r="CA129"/>
       <c r="CB129"/>
@@ -30433,9 +30257,7 @@
       <c r="BX130" t="n">
         <v>-1.89085490345186</v>
       </c>
-      <c r="BY130" t="n">
-        <v>-1.89085490345186</v>
-      </c>
+      <c r="BY130"/>
       <c r="BZ130"/>
       <c r="CA130"/>
       <c r="CB130"/>
@@ -30817,9 +30639,7 @@
       <c r="BV132"/>
       <c r="BW132"/>
       <c r="BX132"/>
-      <c r="BY132" t="n">
-        <v>-0.42687168520452</v>
-      </c>
+      <c r="BY132"/>
       <c r="BZ132"/>
       <c r="CA132"/>
       <c r="CB132"/>
@@ -31003,9 +30823,7 @@
       <c r="BV133"/>
       <c r="BW133"/>
       <c r="BX133"/>
-      <c r="BY133" t="n">
-        <v>-1.63991257249168</v>
-      </c>
+      <c r="BY133"/>
       <c r="BZ133"/>
       <c r="CA133"/>
       <c r="CB133"/>
@@ -31231,9 +31049,7 @@
       <c r="BX134" t="n">
         <v>-1.68212416735653</v>
       </c>
-      <c r="BY134" t="n">
-        <v>-3.73203461923843</v>
-      </c>
+      <c r="BY134"/>
       <c r="BZ134"/>
       <c r="CA134"/>
       <c r="CB134"/>
@@ -31431,9 +31247,7 @@
       <c r="BV135"/>
       <c r="BW135"/>
       <c r="BX135"/>
-      <c r="BY135" t="n">
-        <v>-1.7</v>
-      </c>
+      <c r="BY135"/>
       <c r="BZ135"/>
       <c r="CA135"/>
       <c r="CB135"/>
@@ -31627,9 +31441,7 @@
       <c r="BX136" t="n">
         <v>-1.20783609339541</v>
       </c>
-      <c r="BY136" t="n">
-        <v>-1.20783609339541</v>
-      </c>
+      <c r="BY136"/>
       <c r="BZ136"/>
       <c r="CA136"/>
       <c r="CB136"/>
@@ -31853,9 +31665,7 @@
       <c r="BX137" t="n">
         <v>-1.8724374855611</v>
       </c>
-      <c r="BY137" t="n">
-        <v>-7.57741023230938</v>
-      </c>
+      <c r="BY137"/>
       <c r="BZ137"/>
       <c r="CA137"/>
       <c r="CB137"/>
@@ -32807,9 +32617,7 @@
       <c r="BX142" t="n">
         <v>-1.52864568493349</v>
       </c>
-      <c r="BY142" t="n">
-        <v>-1.52864568493349</v>
-      </c>
+      <c r="BY142"/>
       <c r="BZ142"/>
       <c r="CA142"/>
       <c r="CB142"/>
@@ -33037,9 +32845,7 @@
       <c r="BX143" t="n">
         <v>-1.89699404274878</v>
       </c>
-      <c r="BY143" t="n">
-        <v>-9.07266666666667</v>
-      </c>
+      <c r="BY143"/>
       <c r="BZ143"/>
       <c r="CA143"/>
       <c r="CB143"/>
@@ -33247,9 +33053,7 @@
       <c r="BX144" t="n">
         <v>-1.89699404274878</v>
       </c>
-      <c r="BY144" t="n">
-        <v>-6.48935064298051</v>
-      </c>
+      <c r="BY144"/>
       <c r="BZ144"/>
       <c r="CA144"/>
       <c r="CB144"/>
@@ -33471,9 +33275,7 @@
       <c r="BV145"/>
       <c r="BW145"/>
       <c r="BX145"/>
-      <c r="BY145" t="n">
-        <v>-2.45614658304289</v>
-      </c>
+      <c r="BY145"/>
       <c r="BZ145"/>
       <c r="CA145"/>
       <c r="CB145"/>
@@ -34055,9 +33857,7 @@
       <c r="BX148" t="n">
         <v>-1.36595849356506</v>
       </c>
-      <c r="BY148" t="n">
-        <v>-3.73186069494048</v>
-      </c>
+      <c r="BY148"/>
       <c r="BZ148"/>
       <c r="CA148"/>
       <c r="CB148"/>
@@ -34303,9 +34103,7 @@
       <c r="BX149" t="n">
         <v>-1.35669955529816</v>
       </c>
-      <c r="BY149" t="n">
-        <v>-3.36640882431438</v>
-      </c>
+      <c r="BY149"/>
       <c r="BZ149"/>
       <c r="CA149"/>
       <c r="CB149"/>
@@ -34569,9 +34367,7 @@
       <c r="BX150" t="n">
         <v>-2.303</v>
       </c>
-      <c r="BY150" t="n">
-        <v>-5.14</v>
-      </c>
+      <c r="BY150"/>
       <c r="BZ150" t="n">
         <v>8.52851372056052</v>
       </c>
@@ -34865,9 +34661,7 @@
       <c r="BX151" t="n">
         <v>-1.91</v>
       </c>
-      <c r="BY151" t="n">
-        <v>-2.999</v>
-      </c>
+      <c r="BY151"/>
       <c r="BZ151" t="n">
         <v>7.4818724569129</v>
       </c>
@@ -35145,9 +34939,7 @@
       <c r="BX152" t="n">
         <v>-1.22782785938433</v>
       </c>
-      <c r="BY152" t="n">
-        <v>-3.40317337136186</v>
-      </c>
+      <c r="BY152"/>
       <c r="BZ152"/>
       <c r="CA152"/>
       <c r="CB152"/>
@@ -35411,9 +35203,7 @@
       <c r="BX153" t="n">
         <v>-2.20991818181818</v>
       </c>
-      <c r="BY153" t="n">
-        <v>-3.48773719601154</v>
-      </c>
+      <c r="BY153"/>
       <c r="BZ153" t="n">
         <v>6.7090201352238</v>
       </c>
@@ -35691,9 +35481,7 @@
       <c r="BX154" t="n">
         <v>-1.35669955529816</v>
       </c>
-      <c r="BY154" t="n">
-        <v>-3.36640882431438</v>
-      </c>
+      <c r="BY154"/>
       <c r="BZ154"/>
       <c r="CA154"/>
       <c r="CB154"/>
@@ -35969,9 +35757,7 @@
       <c r="BX155" t="n">
         <v>-1.764</v>
       </c>
-      <c r="BY155" t="n">
-        <v>-3.087</v>
-      </c>
+      <c r="BY155"/>
       <c r="BZ155" t="n">
         <v>7.7681754654408</v>
       </c>
@@ -36253,9 +36039,7 @@
       <c r="BX156" t="n">
         <v>-2.20991818181818</v>
       </c>
-      <c r="BY156" t="n">
-        <v>-4.17995</v>
-      </c>
+      <c r="BY156"/>
       <c r="BZ156" t="n">
         <v>5.55742298501429</v>
       </c>
@@ -36507,9 +36291,7 @@
       <c r="BX157" t="n">
         <v>-1.92973611899903</v>
       </c>
-      <c r="BY157" t="n">
-        <v>-6.01895837230635</v>
-      </c>
+      <c r="BY157"/>
       <c r="BZ157"/>
       <c r="CA157"/>
       <c r="CB157"/>
@@ -36729,9 +36511,7 @@
       <c r="BX158" t="n">
         <v>-1.97373328396031</v>
       </c>
-      <c r="BY158" t="n">
-        <v>-5.09153316247266</v>
-      </c>
+      <c r="BY158"/>
       <c r="BZ158"/>
       <c r="CA158"/>
       <c r="CB158"/>
@@ -36955,9 +36735,7 @@
       <c r="BX159" t="n">
         <v>-1.84174178907649</v>
       </c>
-      <c r="BY159" t="n">
-        <v>-8.42166666666667</v>
-      </c>
+      <c r="BY159"/>
       <c r="BZ159"/>
       <c r="CA159"/>
       <c r="CB159"/>
@@ -37171,9 +36949,7 @@
       <c r="BX160" t="n">
         <v>-1.27847575858393</v>
       </c>
-      <c r="BY160" t="n">
-        <v>-1.5447656354069</v>
-      </c>
+      <c r="BY160"/>
       <c r="BZ160"/>
       <c r="CA160"/>
       <c r="CB160"/>
@@ -37561,9 +37337,7 @@
       <c r="BX162" t="n">
         <v>-1.18387162201837</v>
       </c>
-      <c r="BY162" t="n">
-        <v>-1.7329545635006</v>
-      </c>
+      <c r="BY162"/>
       <c r="BZ162"/>
       <c r="CA162"/>
       <c r="CB162"/>
@@ -37821,9 +37595,7 @@
       <c r="BX163" t="n">
         <v>-1.46865968262178</v>
       </c>
-      <c r="BY163" t="n">
-        <v>-5.02504749837979</v>
-      </c>
+      <c r="BY163"/>
       <c r="BZ163"/>
       <c r="CA163"/>
       <c r="CB163"/>
@@ -38073,9 +37845,7 @@
       <c r="BX164" t="n">
         <v>-1.82332437118573</v>
       </c>
-      <c r="BY164" t="n">
-        <v>-3.80878306187219</v>
-      </c>
+      <c r="BY164"/>
       <c r="BZ164"/>
       <c r="CA164"/>
       <c r="CB164"/>
@@ -38285,9 +38055,7 @@
       <c r="BV165"/>
       <c r="BW165"/>
       <c r="BX165"/>
-      <c r="BY165" t="n">
-        <v>-3.29000430518944</v>
-      </c>
+      <c r="BY165"/>
       <c r="BZ165"/>
       <c r="CA165"/>
       <c r="CB165"/>
@@ -38553,9 +38321,7 @@
       <c r="BX166" t="n">
         <v>-1.69063871218533</v>
       </c>
-      <c r="BY166" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY166"/>
       <c r="BZ166"/>
       <c r="CA166"/>
       <c r="CB166"/>
@@ -38823,9 +38589,7 @@
       <c r="BX167" t="n">
         <v>-2.12107262708642</v>
       </c>
-      <c r="BY167" t="n">
-        <v>-6.95092049684074</v>
-      </c>
+      <c r="BY167"/>
       <c r="BZ167"/>
       <c r="CA167"/>
       <c r="CB167"/>
@@ -39101,9 +38865,7 @@
       <c r="BX168" t="n">
         <v>-2.915</v>
       </c>
-      <c r="BY168" t="n">
-        <v>-4.805</v>
-      </c>
+      <c r="BY168"/>
       <c r="BZ168" t="n">
         <v>7.91409091784059</v>
       </c>
@@ -39391,9 +39153,7 @@
       <c r="BX169" t="n">
         <v>-1.69063871218533</v>
       </c>
-      <c r="BY169" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY169"/>
       <c r="BZ169"/>
       <c r="CA169"/>
       <c r="CB169"/>
@@ -39681,9 +39441,7 @@
       <c r="BX170" t="n">
         <v>-2.84</v>
       </c>
-      <c r="BY170" t="n">
-        <v>-6.965</v>
-      </c>
+      <c r="BY170"/>
       <c r="BZ170" t="n">
         <v>8.59754712496036</v>
       </c>
@@ -39985,9 +39743,7 @@
       <c r="BX171" t="n">
         <v>-1.69063871218533</v>
       </c>
-      <c r="BY171" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY171"/>
       <c r="BZ171"/>
       <c r="CA171"/>
       <c r="CB171"/>
@@ -40253,9 +40009,7 @@
       <c r="BX172" t="n">
         <v>-1.54788165473051</v>
       </c>
-      <c r="BY172" t="n">
-        <v>-3.4062103631674</v>
-      </c>
+      <c r="BY172"/>
       <c r="BZ172"/>
       <c r="CA172"/>
       <c r="CB172"/>
@@ -40543,9 +40297,7 @@
       <c r="BX173" t="n">
         <v>-1.96</v>
       </c>
-      <c r="BY173" t="n">
-        <v>-4.805</v>
-      </c>
+      <c r="BY173"/>
       <c r="BZ173" t="n">
         <v>8.39889057609048</v>
       </c>
@@ -40847,9 +40599,7 @@
       <c r="BX174" t="n">
         <v>-1.645289331575</v>
       </c>
-      <c r="BY174" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY174"/>
       <c r="BZ174"/>
       <c r="CA174"/>
       <c r="CB174"/>
@@ -41147,9 +40897,7 @@
       <c r="BX175" t="n">
         <v>-1.60504386285073</v>
       </c>
-      <c r="BY175" t="n">
-        <v>-3.25439388567045</v>
-      </c>
+      <c r="BY175"/>
       <c r="BZ175"/>
       <c r="CA175"/>
       <c r="CB175"/>
@@ -41433,9 +41181,7 @@
       <c r="BX176" t="n">
         <v>-1.59310664755116</v>
       </c>
-      <c r="BY176" t="n">
-        <v>-2.07006700833942</v>
-      </c>
+      <c r="BY176"/>
       <c r="BZ176"/>
       <c r="CA176"/>
       <c r="CB176"/>
@@ -41723,9 +41469,7 @@
       <c r="BX177" t="n">
         <v>-2.98666666666667</v>
       </c>
-      <c r="BY177" t="n">
-        <v>-5.2</v>
-      </c>
+      <c r="BY177"/>
       <c r="BZ177" t="n">
         <v>9.97842021730937</v>
       </c>
@@ -41971,9 +41715,7 @@
       <c r="BV178"/>
       <c r="BW178"/>
       <c r="BX178"/>
-      <c r="BY178" t="n">
-        <v>-3.14</v>
-      </c>
+      <c r="BY178"/>
       <c r="BZ178"/>
       <c r="CA178"/>
       <c r="CB178"/>
@@ -42181,9 +41923,7 @@
       <c r="BX179" t="n">
         <v>-1.72305176266934</v>
       </c>
-      <c r="BY179" t="n">
-        <v>-5.90177663764502</v>
-      </c>
+      <c r="BY179"/>
       <c r="BZ179"/>
       <c r="CA179"/>
       <c r="CB179"/>
@@ -42411,9 +42151,7 @@
       <c r="BX180" t="n">
         <v>-1.01832973087688</v>
       </c>
-      <c r="BY180" t="n">
-        <v>-2.43323361321861</v>
-      </c>
+      <c r="BY180"/>
       <c r="BZ180"/>
       <c r="CA180"/>
       <c r="CB180"/>
@@ -42615,9 +42353,7 @@
       <c r="BV181"/>
       <c r="BW181"/>
       <c r="BX181"/>
-      <c r="BY181" t="n">
-        <v>-1.87439324771862</v>
-      </c>
+      <c r="BY181"/>
       <c r="BZ181"/>
       <c r="CA181"/>
       <c r="CB181"/>
@@ -42825,9 +42561,7 @@
       <c r="BV182"/>
       <c r="BW182"/>
       <c r="BX182"/>
-      <c r="BY182" t="n">
-        <v>-3.56583333333333</v>
-      </c>
+      <c r="BY182"/>
       <c r="BZ182"/>
       <c r="CA182"/>
       <c r="CB182"/>
@@ -43029,9 +42763,7 @@
       <c r="BV183"/>
       <c r="BW183"/>
       <c r="BX183"/>
-      <c r="BY183" t="n">
-        <v>-0.45901026966964</v>
-      </c>
+      <c r="BY183"/>
       <c r="BZ183"/>
       <c r="CA183"/>
       <c r="CB183"/>
@@ -43261,9 +42993,7 @@
       <c r="BV184"/>
       <c r="BW184"/>
       <c r="BX184"/>
-      <c r="BY184" t="n">
-        <v>-1.56</v>
-      </c>
+      <c r="BY184"/>
       <c r="BZ184"/>
       <c r="CA184"/>
       <c r="CB184"/>
@@ -43479,9 +43209,7 @@
       <c r="BV185"/>
       <c r="BW185"/>
       <c r="BX185"/>
-      <c r="BY185" t="n">
-        <v>-1.58222222222222</v>
-      </c>
+      <c r="BY185"/>
       <c r="BZ185"/>
       <c r="CA185"/>
       <c r="CB185"/>
@@ -44105,9 +43833,7 @@
       <c r="BX188" t="n">
         <v>-0.905523046295941</v>
       </c>
-      <c r="BY188" t="n">
-        <v>-1.62938554562254</v>
-      </c>
+      <c r="BY188"/>
       <c r="BZ188"/>
       <c r="CA188"/>
       <c r="CB188"/>
@@ -44333,9 +44059,7 @@
       <c r="BV189"/>
       <c r="BW189"/>
       <c r="BX189"/>
-      <c r="BY189" t="n">
-        <v>-2.505</v>
-      </c>
+      <c r="BY189"/>
       <c r="BZ189"/>
       <c r="CA189"/>
       <c r="CB189"/>
@@ -44539,9 +44263,7 @@
       <c r="BX190" t="n">
         <v>-0.724418437036753</v>
       </c>
-      <c r="BY190" t="n">
-        <v>-4.55518239017975</v>
-      </c>
+      <c r="BY190"/>
       <c r="BZ190"/>
       <c r="CA190"/>
       <c r="CB190"/>
@@ -44751,9 +44473,7 @@
       <c r="BX191" t="n">
         <v>-0.626192208286007</v>
       </c>
-      <c r="BY191" t="n">
-        <v>-1.44187499998611</v>
-      </c>
+      <c r="BY191"/>
       <c r="BZ191"/>
       <c r="CA191"/>
       <c r="CB191"/>
@@ -45471,9 +45191,7 @@
       <c r="BV195"/>
       <c r="BW195"/>
       <c r="BX195"/>
-      <c r="BY195" t="n">
-        <v>-1.97714285714286</v>
-      </c>
+      <c r="BY195"/>
       <c r="BZ195"/>
       <c r="CA195"/>
       <c r="CB195"/>
@@ -45829,9 +45547,7 @@
       <c r="BV197"/>
       <c r="BW197"/>
       <c r="BX197"/>
-      <c r="BY197" t="n">
-        <v>-2.6</v>
-      </c>
+      <c r="BY197"/>
       <c r="BZ197"/>
       <c r="CA197"/>
       <c r="CB197"/>
@@ -46025,9 +45741,7 @@
       <c r="BX198" t="n">
         <v>-1.7158894334896</v>
       </c>
-      <c r="BY198" t="n">
-        <v>-3.93020421694614</v>
-      </c>
+      <c r="BY198"/>
       <c r="BZ198"/>
       <c r="CA198"/>
       <c r="CB198"/>
@@ -46607,9 +46321,7 @@
       <c r="BX201" t="n">
         <v>-2.11800305743796</v>
       </c>
-      <c r="BY201" t="n">
-        <v>-2.11800305743796</v>
-      </c>
+      <c r="BY201"/>
       <c r="BZ201"/>
       <c r="CA201"/>
       <c r="CB201"/>
@@ -46833,9 +46545,7 @@
       <c r="BX202" t="n">
         <v>-2.07222963484012</v>
       </c>
-      <c r="BY202" t="n">
-        <v>-7.52782353852381</v>
-      </c>
+      <c r="BY202"/>
       <c r="BZ202"/>
       <c r="CA202"/>
       <c r="CB202"/>
@@ -47209,9 +46919,7 @@
       <c r="BV204"/>
       <c r="BW204"/>
       <c r="BX204"/>
-      <c r="BY204" t="n">
-        <v>-8.83797370352873</v>
-      </c>
+      <c r="BY204"/>
       <c r="BZ204"/>
       <c r="CA204"/>
       <c r="CB204"/>
@@ -47599,9 +47307,7 @@
       <c r="BX206" t="n">
         <v>-1.20327130219664</v>
       </c>
-      <c r="BY206" t="n">
-        <v>-4.23372275814373</v>
-      </c>
+      <c r="BY206"/>
       <c r="BZ206"/>
       <c r="CA206"/>
       <c r="CB206"/>
@@ -48211,9 +47917,7 @@
       <c r="BV209"/>
       <c r="BW209"/>
       <c r="BX209"/>
-      <c r="BY209" t="n">
-        <v>-2.79753307692308</v>
-      </c>
+      <c r="BY209"/>
       <c r="BZ209"/>
       <c r="CA209"/>
       <c r="CB209"/>
@@ -48439,9 +48143,7 @@
       <c r="BV210"/>
       <c r="BW210"/>
       <c r="BX210"/>
-      <c r="BY210" t="n">
-        <v>-6.58111111105555</v>
-      </c>
+      <c r="BY210"/>
       <c r="BZ210"/>
       <c r="CA210"/>
       <c r="CB210"/>
@@ -49259,9 +48961,7 @@
       <c r="BX214" t="n">
         <v>-1.68903069906556</v>
       </c>
-      <c r="BY214" t="n">
-        <v>-3.59835684052655</v>
-      </c>
+      <c r="BY214"/>
       <c r="BZ214"/>
       <c r="CA214"/>
       <c r="CB214"/>
@@ -49625,9 +49325,7 @@
       <c r="BX216" t="n">
         <v>-0.877896919459794</v>
       </c>
-      <c r="BY216" t="n">
-        <v>-0.877896919459794</v>
-      </c>
+      <c r="BY216"/>
       <c r="BZ216"/>
       <c r="CA216"/>
       <c r="CB216"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3491,26 +3491,28 @@
       <c r="BT2"/>
       <c r="BU2"/>
       <c r="BV2" t="n">
-        <v>0.0721493131273001</v>
+        <v>0.0803655589991131</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00323056625943135</v>
+        <v>-0.00359845786563193</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="BY2"/>
+        <v>-1.7218046025076</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1.23194738219462</v>
+      </c>
       <c r="BZ2" t="n">
-        <v>7.80101804533824</v>
+        <v>7.21635803389505</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.215596087312168</v>
+        <v>0.194096670298297</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00444477541702573</v>
+        <v>0.00440730098539352</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.413471821406081</v>
+        <v>-0.432740767028128</v>
       </c>
       <c r="CD2" t="n">
         <v>0.00391201428571428</v>
@@ -3521,8 +3523,12 @@
       <c r="CF2" t="n">
         <v>6</v>
       </c>
-      <c r="CG2"/>
-      <c r="CH2"/>
+      <c r="CG2" t="n">
+        <v>1.662</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-2.541</v>
+      </c>
       <c r="CI2" t="n">
         <v>1.3</v>
       </c>
@@ -3533,8 +3539,12 @@
         <v>-3.93093902629273</v>
       </c>
       <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
+      <c r="CM2" t="n">
+        <v>1.7608</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>-2.7984</v>
+      </c>
       <c r="CO2" t="n">
         <v>58.0871168833344</v>
       </c>
@@ -3566,12 +3576,10 @@
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0.00325844392236695</v>
+        <v>0.00301305501473063</v>
       </c>
       <c r="DD2"/>
-      <c r="DE2" t="n">
-        <v>0.000177420158687004</v>
-      </c>
+      <c r="DE2"/>
       <c r="DF2"/>
       <c r="DG2" t="n">
         <v>0.95</v>
@@ -3834,12 +3842,10 @@
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3" t="n">
-        <v>0.0091229854619056</v>
+        <v>0.00843594603750055</v>
       </c>
       <c r="DD3"/>
-      <c r="DE3" t="n">
-        <v>0.000496740642746663</v>
-      </c>
+      <c r="DE3"/>
       <c r="DF3"/>
       <c r="DG3" t="n">
         <v>0.95</v>
@@ -4058,12 +4064,10 @@
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4" t="n">
-        <v>0.00449136425227121</v>
+        <v>0.00415312581885939</v>
       </c>
       <c r="DD4"/>
-      <c r="DE4" t="n">
-        <v>0.00024455187118281</v>
-      </c>
+      <c r="DE4"/>
       <c r="DF4"/>
       <c r="DG4"/>
       <c r="DH4" t="n">
@@ -4326,12 +4330,10 @@
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5" t="n">
-        <v>0.00236492575471233</v>
+        <v>0.00218682646516914</v>
       </c>
       <c r="DD5"/>
-      <c r="DE5" t="n">
-        <v>0.000128768673845783</v>
-      </c>
+      <c r="DE5"/>
       <c r="DF5"/>
       <c r="DG5" t="n">
         <v>0.95</v>
@@ -4596,12 +4598,10 @@
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6" t="n">
-        <v>0.00142371531475937</v>
+        <v>0.00131649728241093</v>
       </c>
       <c r="DD6"/>
-      <c r="DE6" t="n">
-        <v>0.000077520375703209</v>
-      </c>
+      <c r="DE6"/>
       <c r="DF6"/>
       <c r="DG6" t="n">
         <v>0.831</v>
@@ -4866,12 +4866,10 @@
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7" t="n">
-        <v>0.00561243039475226</v>
+        <v>0.00518976601980338</v>
       </c>
       <c r="DD7"/>
-      <c r="DE7" t="n">
-        <v>0.000305593195703483</v>
-      </c>
+      <c r="DE7"/>
       <c r="DF7"/>
       <c r="DG7" t="n">
         <v>0.95</v>
@@ -5132,12 +5130,10 @@
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8" t="n">
-        <v>0.00258823917546605</v>
+        <v>0.00239332246089273</v>
       </c>
       <c r="DD8"/>
-      <c r="DE8" t="n">
-        <v>0.000140927944801805</v>
-      </c>
+      <c r="DE8"/>
       <c r="DF8"/>
       <c r="DG8" t="n">
         <v>0.95</v>
@@ -5402,12 +5398,10 @@
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9" t="n">
-        <v>0.00306202297248532</v>
+        <v>0.00283142625507129</v>
       </c>
       <c r="DD9"/>
-      <c r="DE9" t="n">
-        <v>0.000166725165331974</v>
-      </c>
+      <c r="DE9"/>
       <c r="DF9"/>
       <c r="DG9" t="n">
         <v>0.95</v>
@@ -5668,12 +5662,10 @@
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10" t="n">
-        <v>0.00313443815036776</v>
+        <v>0.00289838794600713</v>
       </c>
       <c r="DD10"/>
-      <c r="DE10" t="n">
-        <v>0.000170668124811208</v>
-      </c>
+      <c r="DE10"/>
       <c r="DF10"/>
       <c r="DG10" t="n">
         <v>0.95</v>
@@ -6276,12 +6268,10 @@
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13" t="n">
-        <v>0.00322313389795062</v>
+        <v>0.00298040413944393</v>
       </c>
       <c r="DD13"/>
-      <c r="DE13" t="n">
-        <v>0.000175497550753755</v>
-      </c>
+      <c r="DE13"/>
       <c r="DF13"/>
       <c r="DG13" t="n">
         <v>0.8485</v>
@@ -7374,12 +7364,10 @@
       <c r="DA19"/>
       <c r="DB19"/>
       <c r="DC19" t="n">
-        <v>0.00412907486808238</v>
+        <v>0.00381811994740008</v>
       </c>
       <c r="DD19"/>
-      <c r="DE19" t="n">
-        <v>0.000224825449134489</v>
-      </c>
+      <c r="DE19"/>
       <c r="DF19"/>
       <c r="DG19"/>
       <c r="DH19"/>
@@ -7592,12 +7580,10 @@
       <c r="DA20"/>
       <c r="DB20"/>
       <c r="DC20" t="n">
-        <v>0.00104927638906001</v>
+        <v>0.000970256834617907</v>
       </c>
       <c r="DD20"/>
-      <c r="DE20" t="n">
-        <v>0.0000571324189978154</v>
-      </c>
+      <c r="DE20"/>
       <c r="DF20"/>
       <c r="DG20" t="n">
         <v>0.9465</v>
@@ -7812,12 +7798,10 @@
       <c r="DA21"/>
       <c r="DB21"/>
       <c r="DC21" t="n">
-        <v>0.00132514339064095</v>
+        <v>0.0012253486736416</v>
       </c>
       <c r="DD21"/>
-      <c r="DE21" t="n">
-        <v>0.0000721531983523499</v>
-      </c>
+      <c r="DE21"/>
       <c r="DF21"/>
       <c r="DG21" t="n">
         <v>0.9465</v>
@@ -9296,12 +9280,10 @@
       <c r="DA28"/>
       <c r="DB28"/>
       <c r="DC28" t="n">
-        <v>0.00135049429781568</v>
+        <v>0.00124879043903964</v>
       </c>
       <c r="DD28"/>
-      <c r="DE28" t="n">
-        <v>0.0000735335388096235</v>
-      </c>
+      <c r="DE28"/>
       <c r="DF28"/>
       <c r="DG28" t="n">
         <v>0.5199375</v>
@@ -9712,12 +9694,10 @@
       <c r="DA30"/>
       <c r="DB30"/>
       <c r="DC30" t="n">
-        <v>0.000998795351825701</v>
+        <v>0.000923577454517616</v>
       </c>
       <c r="DD30"/>
-      <c r="DE30" t="n">
-        <v>0.0000543837592540288</v>
-      </c>
+      <c r="DE30"/>
       <c r="DF30"/>
       <c r="DG30" t="n">
         <v>0.95</v>
@@ -10552,12 +10532,10 @@
       <c r="DA34"/>
       <c r="DB34"/>
       <c r="DC34" t="n">
-        <v>0.002994671274752</v>
+        <v>0.00276914672059381</v>
       </c>
       <c r="DD34"/>
-      <c r="DE34" t="n">
-        <v>0.000163057909063527</v>
-      </c>
+      <c r="DE34"/>
       <c r="DF34"/>
       <c r="DG34" t="n">
         <v>0.95</v>
@@ -10778,12 +10756,10 @@
       <c r="DA35"/>
       <c r="DB35"/>
       <c r="DC35" t="n">
-        <v>0.00682302376360488</v>
+        <v>0.00630919127545468</v>
       </c>
       <c r="DD35"/>
-      <c r="DE35" t="n">
-        <v>0.000371509219647589</v>
-      </c>
+      <c r="DE35"/>
       <c r="DF35"/>
       <c r="DG35" t="n">
         <v>0.5895</v>
@@ -10990,12 +10966,10 @@
       <c r="DA36"/>
       <c r="DB36"/>
       <c r="DC36" t="n">
-        <v>0.00422816291705045</v>
+        <v>0.00390974581237008</v>
       </c>
       <c r="DD36"/>
-      <c r="DE36" t="n">
-        <v>0.000230220729148738</v>
-      </c>
+      <c r="DE36"/>
       <c r="DF36"/>
       <c r="DG36" t="n">
         <v>0.838</v>
@@ -11198,12 +11172,10 @@
       <c r="DA37"/>
       <c r="DB37"/>
       <c r="DC37" t="n">
-        <v>0.00160104821030042</v>
+        <v>0.0014804754827166</v>
       </c>
       <c r="DD37"/>
-      <c r="DE37" t="n">
-        <v>0.000087176036876738</v>
-      </c>
+      <c r="DE37"/>
       <c r="DF37"/>
       <c r="DG37"/>
       <c r="DH37" t="n">
@@ -11392,12 +11364,10 @@
       <c r="DA38"/>
       <c r="DB38"/>
       <c r="DC38" t="n">
-        <v>0.00645513105648762</v>
+        <v>0.0059690040595712</v>
       </c>
       <c r="DD38"/>
-      <c r="DE38" t="n">
-        <v>0.000351477700299199</v>
-      </c>
+      <c r="DE38"/>
       <c r="DF38"/>
       <c r="DG38" t="n">
         <v>0.95</v>
@@ -15904,12 +15874,10 @@
       <c r="DA60"/>
       <c r="DB60"/>
       <c r="DC60" t="n">
-        <v>0.000892854269179703</v>
+        <v>0.000825614648363001</v>
       </c>
       <c r="DD60"/>
-      <c r="DE60" t="n">
-        <v>0.0000486153359997558</v>
-      </c>
+      <c r="DE60"/>
       <c r="DF60"/>
       <c r="DG60" t="n">
         <v>0.95</v>
@@ -16312,12 +16280,10 @@
       <c r="DA62"/>
       <c r="DB62"/>
       <c r="DC62" t="n">
-        <v>0.000890778191471782</v>
+        <v>0.000823694917197496</v>
       </c>
       <c r="DD62"/>
-      <c r="DE62" t="n">
-        <v>0.0000485022949147589</v>
-      </c>
+      <c r="DE62"/>
       <c r="DF62"/>
       <c r="DG62" t="n">
         <v>0.646375</v>
@@ -16528,12 +16494,10 @@
       <c r="DA63"/>
       <c r="DB63"/>
       <c r="DC63" t="n">
-        <v>0.00294002339234686</v>
+        <v>0.00271861429467266</v>
       </c>
       <c r="DD63"/>
-      <c r="DE63" t="n">
-        <v>0.000160082367302112</v>
-      </c>
+      <c r="DE63"/>
       <c r="DF63"/>
       <c r="DG63" t="n">
         <v>0.707333333333333</v>
@@ -20832,12 +20796,10 @@
       <c r="DA85"/>
       <c r="DB85"/>
       <c r="DC85" t="n">
-        <v>0.00131116808802705</v>
+        <v>0.00121242583174944</v>
       </c>
       <c r="DD85"/>
-      <c r="DE85" t="n">
-        <v>0.0000713922521870846</v>
-      </c>
+      <c r="DE85"/>
       <c r="DF85"/>
       <c r="DG85" t="n">
         <v>0.362583333333333</v>
@@ -22108,12 +22070,10 @@
       <c r="DA91"/>
       <c r="DB91"/>
       <c r="DC91" t="n">
-        <v>0.00229681771884658</v>
+        <v>0.00212384755133849</v>
       </c>
       <c r="DD91"/>
-      <c r="DE91" t="n">
-        <v>0.00012506023545646</v>
-      </c>
+      <c r="DE91"/>
       <c r="DF91"/>
       <c r="DG91" t="n">
         <v>0.362583333333333</v>
@@ -23164,12 +23124,10 @@
       <c r="DA96"/>
       <c r="DB96"/>
       <c r="DC96" t="n">
-        <v>0.00506689652352831</v>
+        <v>0.00468531555032815</v>
       </c>
       <c r="DD96"/>
-      <c r="DE96" t="n">
-        <v>0.000275889230158057</v>
-      </c>
+      <c r="DE96"/>
       <c r="DF96"/>
       <c r="DG96"/>
       <c r="DH96" t="n">
@@ -23364,12 +23322,10 @@
       <c r="DA97"/>
       <c r="DB97"/>
       <c r="DC97" t="n">
-        <v>0.00115805027478328</v>
+        <v>0.00107083910936583</v>
       </c>
       <c r="DD97"/>
-      <c r="DE97" t="n">
-        <v>0.0000630550865427597</v>
-      </c>
+      <c r="DE97"/>
       <c r="DF97"/>
       <c r="DG97" t="n">
         <v>0.95</v>
@@ -23771,26 +23727,28 @@
       <c r="BT99"/>
       <c r="BU99"/>
       <c r="BV99" t="n">
-        <v>0.128504207520893</v>
+        <v>0.130326956301824</v>
       </c>
       <c r="BW99" t="n">
-        <v>-0.00575391973974146</v>
+        <v>-0.0058355353567981</v>
       </c>
       <c r="BX99" t="n">
-        <v>-1.4284</v>
-      </c>
-      <c r="BY99"/>
+        <v>-0.628424343873088</v>
+      </c>
+      <c r="BY99" t="n">
+        <v>1.38291843469619</v>
+      </c>
       <c r="BZ99" t="n">
-        <v>7.94644065220063</v>
+        <v>7.92400876089479</v>
       </c>
       <c r="CA99" t="n">
-        <v>0.320260475126421</v>
+        <v>0.321607783629418</v>
       </c>
       <c r="CB99" t="n">
-        <v>0.00240939918994782</v>
+        <v>0.00239649454958505</v>
       </c>
       <c r="CC99" t="n">
-        <v>-0.444484081204601</v>
+        <v>-0.44320011347475</v>
       </c>
       <c r="CD99" t="n">
         <v>0.00447333333333333</v>
@@ -23854,12 +23812,10 @@
       <c r="DA99"/>
       <c r="DB99"/>
       <c r="DC99" t="n">
-        <v>0.00289015839750846</v>
+        <v>0.00267250456366701</v>
       </c>
       <c r="DD99"/>
-      <c r="DE99" t="n">
-        <v>0.000157367250667321</v>
-      </c>
+      <c r="DE99"/>
       <c r="DF99"/>
       <c r="DG99" t="n">
         <v>0.95</v>
@@ -24074,12 +24030,10 @@
       <c r="DA100"/>
       <c r="DB100"/>
       <c r="DC100" t="n">
-        <v>0.00141441999632297</v>
+        <v>0.00130790198155703</v>
       </c>
       <c r="DD100"/>
-      <c r="DE100" t="n">
-        <v>0.0000770142516417478</v>
-      </c>
+      <c r="DE100"/>
       <c r="DF100"/>
       <c r="DG100"/>
       <c r="DH100"/>
@@ -24272,12 +24226,10 @@
       <c r="DA101"/>
       <c r="DB101"/>
       <c r="DC101" t="n">
-        <v>0.00128994122995106</v>
+        <v>0.0011927975390132</v>
       </c>
       <c r="DD101"/>
-      <c r="DE101" t="n">
-        <v>0.0000702364635290637</v>
-      </c>
+      <c r="DE101"/>
       <c r="DF101"/>
       <c r="DG101" t="n">
         <v>0.831</v>
@@ -24512,12 +24464,10 @@
       <c r="DA102"/>
       <c r="DB102"/>
       <c r="DC102" t="n">
-        <v>0.00288519616182505</v>
+        <v>0.00266791602709359</v>
       </c>
       <c r="DD102"/>
-      <c r="DE102" t="n">
-        <v>0.000157097060152041</v>
-      </c>
+      <c r="DE102"/>
       <c r="DF102"/>
       <c r="DG102" t="n">
         <v>0.8555</v>
@@ -25618,12 +25568,10 @@
       <c r="DA108"/>
       <c r="DB108"/>
       <c r="DC108" t="n">
-        <v>0.000838860767765561</v>
+        <v>0.000775687322904974</v>
       </c>
       <c r="DD108"/>
-      <c r="DE108" t="n">
-        <v>0.0000456754248589787</v>
-      </c>
+      <c r="DE108"/>
       <c r="DF108"/>
       <c r="DG108"/>
       <c r="DH108"/>
@@ -26652,12 +26600,10 @@
       <c r="DA113"/>
       <c r="DB113"/>
       <c r="DC113" t="n">
-        <v>0.00120602439798316</v>
+        <v>0.00111520036766231</v>
       </c>
       <c r="DD113"/>
-      <c r="DE113" t="n">
-        <v>0.0000656672464429397</v>
-      </c>
+      <c r="DE113"/>
       <c r="DF113"/>
       <c r="DG113" t="n">
         <v>0.95</v>
@@ -27060,12 +27006,10 @@
       <c r="DA115"/>
       <c r="DB115"/>
       <c r="DC115" t="n">
-        <v>0.00264958409265108</v>
+        <v>0.00245004757716182</v>
       </c>
       <c r="DD115"/>
-      <c r="DE115" t="n">
-        <v>0.000144268135764399</v>
-      </c>
+      <c r="DE115"/>
       <c r="DF115"/>
       <c r="DG115" t="n">
         <v>0.6126</v>
@@ -27288,12 +27232,10 @@
       <c r="DA116"/>
       <c r="DB116"/>
       <c r="DC116" t="n">
-        <v>0.00790000600585137</v>
+        <v>0.00730506747375348</v>
       </c>
       <c r="DD116"/>
-      <c r="DE116" t="n">
-        <v>0.00043015020438599</v>
-      </c>
+      <c r="DE116"/>
       <c r="DF116"/>
       <c r="DG116" t="n">
         <v>0.471454545454545</v>
@@ -27528,12 +27470,10 @@
       <c r="DA117"/>
       <c r="DB117"/>
       <c r="DC117" t="n">
-        <v>0.000777269332378906</v>
+        <v>0.000718734253379257</v>
       </c>
       <c r="DD117"/>
-      <c r="DE117" t="n">
-        <v>0.0000423218111401571</v>
-      </c>
+      <c r="DE117"/>
       <c r="DF117"/>
       <c r="DG117" t="n">
         <v>0.40925</v>
@@ -27782,12 +27722,10 @@
       <c r="DA118"/>
       <c r="DB118"/>
       <c r="DC118" t="n">
-        <v>0.000946064724960617</v>
+        <v>0.000874817898272033</v>
       </c>
       <c r="DD118"/>
-      <c r="DE118" t="n">
-        <v>0.000051512610813557</v>
-      </c>
+      <c r="DE118"/>
       <c r="DF118"/>
       <c r="DG118" t="n">
         <v>0.471454545454545</v>
@@ -28036,12 +27974,10 @@
       <c r="DA119"/>
       <c r="DB119"/>
       <c r="DC119" t="n">
-        <v>0.000760536328821136</v>
+        <v>0.00070326138918934</v>
       </c>
       <c r="DD119"/>
-      <c r="DE119" t="n">
-        <v>0.0000414107099466852</v>
-      </c>
+      <c r="DE119"/>
       <c r="DF119"/>
       <c r="DG119" t="n">
         <v>0.471454545454545</v>
@@ -28276,12 +28212,10 @@
       <c r="DA120"/>
       <c r="DB120"/>
       <c r="DC120" t="n">
-        <v>0.000943202552019147</v>
+        <v>0.000872171271618395</v>
       </c>
       <c r="DD120"/>
-      <c r="DE120" t="n">
-        <v>0.0000513567673528243</v>
-      </c>
+      <c r="DE120"/>
       <c r="DF120"/>
       <c r="DG120" t="n">
         <v>0.471454545454545</v>
@@ -28672,12 +28606,10 @@
       <c r="DA122"/>
       <c r="DB122"/>
       <c r="DC122" t="n">
-        <v>0.00398839587693099</v>
+        <v>0.00368803529661129</v>
       </c>
       <c r="DD122"/>
-      <c r="DE122" t="n">
-        <v>0.000217165569287338</v>
-      </c>
+      <c r="DE122"/>
       <c r="DF122"/>
       <c r="DG122" t="n">
         <v>0.359277777777778</v>
@@ -29074,12 +29006,10 @@
       <c r="DA124"/>
       <c r="DB124"/>
       <c r="DC124" t="n">
-        <v>0.0028689673261374</v>
+        <v>0.00265290936258842</v>
       </c>
       <c r="DD124"/>
-      <c r="DE124" t="n">
-        <v>0.000156213410572178</v>
-      </c>
+      <c r="DE124"/>
       <c r="DF124"/>
       <c r="DG124"/>
       <c r="DH124" t="n">
@@ -30080,12 +30010,10 @@
       <c r="DA129"/>
       <c r="DB129"/>
       <c r="DC129" t="n">
-        <v>0.00131272295061898</v>
+        <v>0.00121386359978887</v>
       </c>
       <c r="DD129"/>
-      <c r="DE129" t="n">
-        <v>0.0000714769134469894</v>
-      </c>
+      <c r="DE129"/>
       <c r="DF129"/>
       <c r="DG129" t="n">
         <v>0.712</v>
@@ -30672,12 +30600,10 @@
       <c r="DA132"/>
       <c r="DB132"/>
       <c r="DC132" t="n">
-        <v>0.000287653801060074</v>
+        <v>0.00026599099092698</v>
       </c>
       <c r="DD132"/>
-      <c r="DE132" t="n">
-        <v>0.0000156625629432117</v>
-      </c>
+      <c r="DE132"/>
       <c r="DF132"/>
       <c r="DG132" t="n">
         <v>0.622166666666667</v>
@@ -30866,12 +30792,10 @@
       <c r="DA133"/>
       <c r="DB133"/>
       <c r="DC133" t="n">
-        <v>0.00147265946404564</v>
+        <v>0.0013617555154701</v>
       </c>
       <c r="DD133"/>
-      <c r="DE133" t="n">
-        <v>0.0000801853528947951</v>
-      </c>
+      <c r="DE133"/>
       <c r="DF133"/>
       <c r="DG133" t="n">
         <v>0.5475</v>
@@ -31710,12 +31634,10 @@
       <c r="DA137"/>
       <c r="DB137"/>
       <c r="DC137" t="n">
-        <v>0.000568085818078009</v>
+        <v>0.000525304060385341</v>
       </c>
       <c r="DD137"/>
-      <c r="DE137" t="n">
-        <v>0.0000309319044281794</v>
-      </c>
+      <c r="DE137"/>
       <c r="DF137"/>
       <c r="DG137"/>
       <c r="DH137" t="n">
@@ -32660,12 +32582,10 @@
       <c r="DA142"/>
       <c r="DB142"/>
       <c r="DC142" t="n">
-        <v>0.00364804763125681</v>
+        <v>0.0033733182068544</v>
       </c>
       <c r="DD142"/>
-      <c r="DE142" t="n">
-        <v>0.000198633828003759</v>
-      </c>
+      <c r="DE142"/>
       <c r="DF142"/>
       <c r="DG142" t="n">
         <v>0.95</v>
@@ -33100,12 +33020,10 @@
       <c r="DA144"/>
       <c r="DB144"/>
       <c r="DC144" t="n">
-        <v>0.00106970519340955</v>
+        <v>0.000989147173950681</v>
       </c>
       <c r="DD144"/>
-      <c r="DE144" t="n">
-        <v>0.0000582447541479161</v>
-      </c>
+      <c r="DE144"/>
       <c r="DF144"/>
       <c r="DG144"/>
       <c r="DH144" t="n">
@@ -33484,12 +33402,10 @@
       <c r="DA146"/>
       <c r="DB146"/>
       <c r="DC146" t="n">
-        <v>-0.00015658871047797</v>
+        <v>0.0001</v>
       </c>
       <c r="DD146"/>
-      <c r="DE146" t="n">
-        <v>-0.00000852615374807912</v>
-      </c>
+      <c r="DE146"/>
       <c r="DF146"/>
       <c r="DG146"/>
       <c r="DH146"/>
@@ -33666,12 +33582,10 @@
       <c r="DA147"/>
       <c r="DB147"/>
       <c r="DC147" t="n">
-        <v>0.00388725103596552</v>
+        <v>0.0035945075338061</v>
       </c>
       <c r="DD147"/>
-      <c r="DE147" t="n">
-        <v>0.000211658298282524</v>
-      </c>
+      <c r="DE147"/>
       <c r="DF147"/>
       <c r="DG147"/>
       <c r="DH147"/>
@@ -33914,12 +33828,10 @@
       <c r="DA148"/>
       <c r="DB148"/>
       <c r="DC148" t="n">
-        <v>0.00485052428222877</v>
+        <v>0.00448523800342886</v>
       </c>
       <c r="DD148"/>
-      <c r="DE148" t="n">
-        <v>0.000264107901922419</v>
-      </c>
+      <c r="DE148"/>
       <c r="DF148"/>
       <c r="DG148" t="n">
         <v>0.95</v>
@@ -34164,12 +34076,10 @@
       <c r="DA149"/>
       <c r="DB149"/>
       <c r="DC149" t="n">
-        <v>0.00188851393924651</v>
+        <v>0.00174629256498052</v>
       </c>
       <c r="DD149"/>
-      <c r="DE149" t="n">
-        <v>0.000102828359415295</v>
-      </c>
+      <c r="DE149"/>
       <c r="DF149"/>
       <c r="DG149" t="n">
         <v>0.530976744186046</v>
@@ -34359,26 +34269,28 @@
       <c r="BT150"/>
       <c r="BU150"/>
       <c r="BV150" t="n">
-        <v>0.138380327626829</v>
+        <v>0.138478693224918</v>
       </c>
       <c r="BW150" t="n">
-        <v>-0.0061961340728431</v>
+        <v>-0.00620053850260827</v>
       </c>
       <c r="BX150" t="n">
-        <v>-2.303</v>
-      </c>
-      <c r="BY150"/>
+        <v>-0.850780937811958</v>
+      </c>
+      <c r="BY150" t="n">
+        <v>1.47060960245772</v>
+      </c>
       <c r="BZ150" t="n">
-        <v>8.52851372056052</v>
+        <v>8.5230118636039</v>
       </c>
       <c r="CA150" t="n">
-        <v>0.682637301843437</v>
+        <v>0.684351254867698</v>
       </c>
       <c r="CB150" t="n">
-        <v>0.002517464466371</v>
+        <v>0.00251779767760882</v>
       </c>
       <c r="CC150" t="n">
-        <v>-0.303263803674921</v>
+        <v>-0.303519210587173</v>
       </c>
       <c r="CD150" t="n">
         <v>0.00308666666666667</v>
@@ -34446,12 +34358,10 @@
       <c r="DA150"/>
       <c r="DB150"/>
       <c r="DC150" t="n">
-        <v>0.00368859698096605</v>
+        <v>0.00341081384108853</v>
       </c>
       <c r="DD150"/>
-      <c r="DE150" t="n">
-        <v>0.000200841713801849</v>
-      </c>
+      <c r="DE150"/>
       <c r="DF150"/>
       <c r="DG150" t="n">
         <v>0.3725</v>
@@ -34653,26 +34563,28 @@
       <c r="BT151"/>
       <c r="BU151"/>
       <c r="BV151" t="n">
-        <v>0.133553971084592</v>
+        <v>0.133882243008483</v>
       </c>
       <c r="BW151" t="n">
-        <v>-0.00598002855602649</v>
+        <v>-0.0059947272988873</v>
       </c>
       <c r="BX151" t="n">
-        <v>-1.91</v>
-      </c>
-      <c r="BY151"/>
+        <v>-1.09513865770944</v>
+      </c>
+      <c r="BY151" t="n">
+        <v>1.23788452704055</v>
+      </c>
       <c r="BZ151" t="n">
-        <v>7.4818724569129</v>
+        <v>7.45554840594029</v>
       </c>
       <c r="CA151" t="n">
-        <v>0.277538195652001</v>
+        <v>0.273409540932669</v>
       </c>
       <c r="CB151" t="n">
-        <v>0.00283247223188239</v>
+        <v>0.00283261120270472</v>
       </c>
       <c r="CC151" t="n">
-        <v>-0.504773880843013</v>
+        <v>-0.504281692404176</v>
       </c>
       <c r="CD151" t="n">
         <v>0.00308666666666667</v>
@@ -34740,12 +34652,10 @@
       <c r="DA151"/>
       <c r="DB151"/>
       <c r="DC151" t="n">
-        <v>0.00274494046799956</v>
+        <v>0.00253822279569423</v>
       </c>
       <c r="DD151"/>
-      <c r="DE151" t="n">
-        <v>0.000149460228569806</v>
-      </c>
+      <c r="DE151"/>
       <c r="DF151"/>
       <c r="DG151" t="n">
         <v>0.635</v>
@@ -35000,12 +34910,10 @@
       <c r="DA152"/>
       <c r="DB152"/>
       <c r="DC152" t="n">
-        <v>0.00537196549768158</v>
+        <v>0.00496741020173573</v>
       </c>
       <c r="DD152"/>
-      <c r="DE152" t="n">
-        <v>0.000292500037983603</v>
-      </c>
+      <c r="DE152"/>
       <c r="DF152"/>
       <c r="DG152" t="n">
         <v>0.530976744186046</v>
@@ -35195,26 +35103,28 @@
       <c r="BT153"/>
       <c r="BU153"/>
       <c r="BV153" t="n">
-        <v>0.177868610356217</v>
+        <v>0.16473277524703</v>
       </c>
       <c r="BW153" t="n">
-        <v>-0.00796426613535302</v>
+        <v>-0.0073760944140461</v>
       </c>
       <c r="BX153" t="n">
-        <v>-2.20991818181818</v>
-      </c>
-      <c r="BY153"/>
+        <v>-0.908845070187778</v>
+      </c>
+      <c r="BY153" t="n">
+        <v>1.61696386848161</v>
+      </c>
       <c r="BZ153" t="n">
-        <v>6.7090201352238</v>
+        <v>7.24499225512424</v>
       </c>
       <c r="CA153" t="n">
-        <v>0.632265750814814</v>
+        <v>0.581182151878896</v>
       </c>
       <c r="CB153" t="n">
-        <v>0.00282869259576636</v>
+        <v>0.0028906997888219</v>
       </c>
       <c r="CC153" t="n">
-        <v>-0.358675348944241</v>
+        <v>-0.343872803059518</v>
       </c>
       <c r="CD153" t="n">
         <v>0.00308666666666667</v>
@@ -35282,12 +35192,10 @@
       <c r="DA153"/>
       <c r="DB153"/>
       <c r="DC153" t="n">
-        <v>0.00372141435978641</v>
+        <v>0.00344115978847349</v>
       </c>
       <c r="DD153"/>
-      <c r="DE153" t="n">
-        <v>0.000202628598798713</v>
-      </c>
+      <c r="DE153"/>
       <c r="DF153"/>
       <c r="DG153" t="n">
         <v>0.530976744186046</v>
@@ -35542,12 +35450,10 @@
       <c r="DA154"/>
       <c r="DB154"/>
       <c r="DC154" t="n">
-        <v>0.00783892232495256</v>
+        <v>0.007248583920427</v>
       </c>
       <c r="DD154"/>
-      <c r="DE154" t="n">
-        <v>0.000426824237569786</v>
-      </c>
+      <c r="DE154"/>
       <c r="DF154"/>
       <c r="DG154" t="n">
         <v>0.9395</v>
@@ -35749,26 +35655,28 @@
       <c r="BT155"/>
       <c r="BU155"/>
       <c r="BV155" t="n">
-        <v>0.125056247277591</v>
+        <v>0.128781712843446</v>
       </c>
       <c r="BW155" t="n">
-        <v>-0.00559953346019064</v>
+        <v>-0.00576634535119906</v>
       </c>
       <c r="BX155" t="n">
-        <v>-1.764</v>
-      </c>
-      <c r="BY155"/>
+        <v>-1.0409724635189</v>
+      </c>
+      <c r="BY155" t="n">
+        <v>1.25620371738219</v>
+      </c>
       <c r="BZ155" t="n">
-        <v>7.7681754654408</v>
+        <v>7.60262507788134</v>
       </c>
       <c r="CA155" t="n">
-        <v>0.321015373890096</v>
+        <v>0.325744489340379</v>
       </c>
       <c r="CB155" t="n">
-        <v>0.00296590472439092</v>
+        <v>0.00298639946740269</v>
       </c>
       <c r="CC155" t="n">
-        <v>-0.458325361201258</v>
+        <v>-0.46046047960322</v>
       </c>
       <c r="CD155" t="n">
         <v>0.00308666666666667</v>
@@ -35836,12 +35744,10 @@
       <c r="DA155"/>
       <c r="DB155"/>
       <c r="DC155" t="n">
-        <v>0.00283131970280072</v>
+        <v>0.00261809692972479</v>
       </c>
       <c r="DD155"/>
-      <c r="DE155" t="n">
-        <v>0.000154163521893495</v>
-      </c>
+      <c r="DE155"/>
       <c r="DF155"/>
       <c r="DG155" t="n">
         <v>0.4845</v>
@@ -36031,26 +35937,28 @@
       <c r="BT156"/>
       <c r="BU156"/>
       <c r="BV156" t="n">
-        <v>0.13814847740267</v>
+        <v>0.138516030391455</v>
       </c>
       <c r="BW156" t="n">
-        <v>-0.00618575271952256</v>
+        <v>-0.00620221031603531</v>
       </c>
       <c r="BX156" t="n">
-        <v>-2.20991818181818</v>
-      </c>
-      <c r="BY156"/>
+        <v>-1.00411407451595</v>
+      </c>
+      <c r="BY156" t="n">
+        <v>1.16337976570124</v>
+      </c>
       <c r="BZ156" t="n">
-        <v>5.55742298501429</v>
+        <v>5.54671899524774</v>
       </c>
       <c r="CA156" t="n">
-        <v>0.252772735446669</v>
+        <v>0.253847879704407</v>
       </c>
       <c r="CB156" t="n">
-        <v>0.00376155041079609</v>
+        <v>0.00376261987951913</v>
       </c>
       <c r="CC156" t="n">
-        <v>-0.325286578715869</v>
+        <v>-0.32558318887461</v>
       </c>
       <c r="CD156" t="n">
         <v>0.00308666666666667</v>
@@ -36118,12 +36026,10 @@
       <c r="DA156"/>
       <c r="DB156"/>
       <c r="DC156" t="n">
-        <v>0.00209441743075197</v>
+        <v>0.00193668974916174</v>
       </c>
       <c r="DD156"/>
-      <c r="DE156" t="n">
-        <v>0.00011403967101294</v>
-      </c>
+      <c r="DE156"/>
       <c r="DF156"/>
       <c r="DG156" t="n">
         <v>0.32</v>
@@ -36784,12 +36690,10 @@
       <c r="DA159"/>
       <c r="DB159"/>
       <c r="DC159" t="n">
-        <v>0.00110347386785976</v>
+        <v>0.00102037277620659</v>
       </c>
       <c r="DD159"/>
-      <c r="DE159" t="n">
-        <v>0.0000600834365749726</v>
-      </c>
+      <c r="DE159"/>
       <c r="DF159"/>
       <c r="DG159" t="n">
         <v>0.341</v>
@@ -36996,12 +36900,10 @@
       <c r="DA160"/>
       <c r="DB160"/>
       <c r="DC160" t="n">
-        <v>0.00568234417840484</v>
+        <v>0.00525441469305113</v>
       </c>
       <c r="DD160"/>
-      <c r="DE160" t="n">
-        <v>0.00030939995588889</v>
-      </c>
+      <c r="DE160"/>
       <c r="DF160"/>
       <c r="DG160" t="n">
         <v>0.933666666666667</v>
@@ -37394,12 +37296,10 @@
       <c r="DA162"/>
       <c r="DB162"/>
       <c r="DC162" t="n">
-        <v>0.00455026162116217</v>
+        <v>0.00420758770831318</v>
       </c>
       <c r="DD162"/>
-      <c r="DE162" t="n">
-        <v>0.000247758794727865</v>
-      </c>
+      <c r="DE162"/>
       <c r="DF162"/>
       <c r="DG162" t="n">
         <v>0.462470588235294</v>
@@ -37650,12 +37550,10 @@
       <c r="DA163"/>
       <c r="DB163"/>
       <c r="DC163" t="n">
-        <v>0.00247653777618453</v>
+        <v>0.00229003313958591</v>
       </c>
       <c r="DD163"/>
-      <c r="DE163" t="n">
-        <v>0.000134845876041913</v>
-      </c>
+      <c r="DE163"/>
       <c r="DF163"/>
       <c r="DG163" t="n">
         <v>0.692448275862069</v>
@@ -37894,12 +37792,10 @@
       <c r="DA164"/>
       <c r="DB164"/>
       <c r="DC164" t="n">
-        <v>0.00801105715541786</v>
+        <v>0.00740775551475246</v>
       </c>
       <c r="DD164"/>
-      <c r="DE164" t="n">
-        <v>0.000436196867470542</v>
-      </c>
+      <c r="DE164"/>
       <c r="DF164"/>
       <c r="DG164" t="n">
         <v>0.873</v>
@@ -38096,12 +37992,10 @@
       <c r="DA165"/>
       <c r="DB165"/>
       <c r="DC165" t="n">
-        <v>0.00222142651094154</v>
+        <v>0.00205413395108728</v>
       </c>
       <c r="DD165"/>
-      <c r="DE165" t="n">
-        <v>0.000120955233072254</v>
-      </c>
+      <c r="DE165"/>
       <c r="DF165"/>
       <c r="DG165" t="n">
         <v>0.6756</v>
@@ -38378,12 +38272,10 @@
       <c r="DA166"/>
       <c r="DB166"/>
       <c r="DC166" t="n">
-        <v>0.00361975035955534</v>
+        <v>0.00334715196356937</v>
       </c>
       <c r="DD166"/>
-      <c r="DE166" t="n">
-        <v>0.000197093059908528</v>
-      </c>
+      <c r="DE166"/>
       <c r="DF166"/>
       <c r="DG166" t="n">
         <v>0.78040350877193</v>
@@ -38857,26 +38749,28 @@
       <c r="BT168"/>
       <c r="BU168"/>
       <c r="BV168" t="n">
-        <v>0.122725589578442</v>
+        <v>0.125072882914434</v>
       </c>
       <c r="BW168" t="n">
-        <v>-0.00549517565276606</v>
+        <v>-0.00560027833945225</v>
       </c>
       <c r="BX168" t="n">
-        <v>-2.915</v>
-      </c>
-      <c r="BY168"/>
+        <v>-0.653307869887745</v>
+      </c>
+      <c r="BY168" t="n">
+        <v>1.33602845922846</v>
+      </c>
       <c r="BZ168" t="n">
-        <v>7.91409091784059</v>
+        <v>7.86642648851412</v>
       </c>
       <c r="CA168" t="n">
-        <v>0.329942559244737</v>
+        <v>0.332264711984195</v>
       </c>
       <c r="CB168" t="n">
-        <v>0.00214147979416253</v>
+        <v>0.00214143011900779</v>
       </c>
       <c r="CC168" t="n">
-        <v>-0.560233272639373</v>
+        <v>-0.55635254980322</v>
       </c>
       <c r="CD168" t="n">
         <v>0.006003125635375</v>
@@ -38940,12 +38834,10 @@
       <c r="DA168"/>
       <c r="DB168"/>
       <c r="DC168" t="n">
-        <v>0.0021140905140904</v>
+        <v>0.00195488127978812</v>
       </c>
       <c r="DD168"/>
-      <c r="DE168" t="n">
-        <v>0.000115110857644021</v>
-      </c>
+      <c r="DE168"/>
       <c r="DF168"/>
       <c r="DG168" t="n">
         <v>0.78040350877193</v>
@@ -39433,26 +39325,28 @@
       <c r="BT170"/>
       <c r="BU170"/>
       <c r="BV170" t="n">
-        <v>0.0879786170778566</v>
+        <v>0.091462785036817</v>
       </c>
       <c r="BW170" t="n">
-        <v>-0.00393934106318761</v>
+        <v>-0.00409534858373807</v>
       </c>
       <c r="BX170" t="n">
-        <v>-2.84</v>
-      </c>
-      <c r="BY170"/>
+        <v>-1.65988964460062</v>
+      </c>
+      <c r="BY170" t="n">
+        <v>1.0652997216342</v>
+      </c>
       <c r="BZ170" t="n">
-        <v>8.59754712496036</v>
+        <v>8.44772210520684</v>
       </c>
       <c r="CA170" t="n">
-        <v>0.257256390150634</v>
+        <v>0.252302139499746</v>
       </c>
       <c r="CB170" t="n">
-        <v>0.00271867953161101</v>
+        <v>0.00272123447990257</v>
       </c>
       <c r="CC170" t="n">
-        <v>-0.57807371959816</v>
+        <v>-0.579132968317514</v>
       </c>
       <c r="CD170" t="n">
         <v>0.00447333333333333</v>
@@ -39516,12 +39410,10 @@
       <c r="DA170"/>
       <c r="DB170"/>
       <c r="DC170" t="n">
-        <v>0.00168057310129942</v>
+        <v>0.00155401146410197</v>
       </c>
       <c r="DD170"/>
-      <c r="DE170" t="n">
-        <v>0.0000915061156249892</v>
-      </c>
+      <c r="DE170"/>
       <c r="DF170"/>
       <c r="DG170" t="n">
         <v>0.95</v>
@@ -40066,12 +39958,10 @@
       <c r="DA172"/>
       <c r="DB172"/>
       <c r="DC172" t="n">
-        <v>0.00221105286840769</v>
+        <v>0.00204454153323314</v>
       </c>
       <c r="DD172"/>
-      <c r="DE172" t="n">
-        <v>0.000120390394962909</v>
-      </c>
+      <c r="DE172"/>
       <c r="DF172"/>
       <c r="DG172" t="n">
         <v>0.8555</v>
@@ -40289,26 +40179,28 @@
       <c r="BT173"/>
       <c r="BU173"/>
       <c r="BV173" t="n">
-        <v>0.113966405410534</v>
+        <v>0.116337884641919</v>
       </c>
       <c r="BW173" t="n">
-        <v>-0.00510297337659108</v>
+        <v>-0.00520915901381727</v>
       </c>
       <c r="BX173" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="BY173"/>
+        <v>-0.677425215137132</v>
+      </c>
+      <c r="BY173" t="n">
+        <v>1.41966122688418</v>
+      </c>
       <c r="BZ173" t="n">
-        <v>8.39889057609048</v>
+        <v>8.31344316671284</v>
       </c>
       <c r="CA173" t="n">
-        <v>0.333344661212327</v>
+        <v>0.349101321347618</v>
       </c>
       <c r="CB173" t="n">
-        <v>0.00182598566521414</v>
+        <v>0.00182866487827556</v>
       </c>
       <c r="CC173" t="n">
-        <v>-0.52009082561793</v>
+        <v>-0.519414982734818</v>
       </c>
       <c r="CD173" t="n">
         <v>0.00447333333333333</v>
@@ -40372,12 +40264,10 @@
       <c r="DA173"/>
       <c r="DB173"/>
       <c r="DC173" t="n">
-        <v>0.00202948692531842</v>
+        <v>0.00187664907033875</v>
       </c>
       <c r="DD173"/>
-      <c r="DE173" t="n">
-        <v>0.000110504247095231</v>
-      </c>
+      <c r="DE173"/>
       <c r="DF173"/>
       <c r="DG173" t="n">
         <v>0.7085</v>
@@ -40656,12 +40546,10 @@
       <c r="DA174"/>
       <c r="DB174"/>
       <c r="DC174" t="n">
-        <v>0.002525133059896</v>
+        <v>0.00233496877965448</v>
       </c>
       <c r="DD174"/>
-      <c r="DE174" t="n">
-        <v>0.000137491857729167</v>
-      </c>
+      <c r="DE174"/>
       <c r="DF174"/>
       <c r="DG174" t="n">
         <v>0.78040350877193</v>
@@ -40954,12 +40842,10 @@
       <c r="DA175"/>
       <c r="DB175"/>
       <c r="DC175" t="n">
-        <v>0.00344955481698553</v>
+        <v>0.00318977361204866</v>
       </c>
       <c r="DD175"/>
-      <c r="DE175" t="n">
-        <v>0.000187826022976181</v>
-      </c>
+      <c r="DE175"/>
       <c r="DF175"/>
       <c r="DG175" t="n">
         <v>0.7575</v>
@@ -41238,12 +41124,10 @@
       <c r="DA176"/>
       <c r="DB176"/>
       <c r="DC176" t="n">
-        <v>0.00222053115703787</v>
+        <v>0.00205330602504845</v>
       </c>
       <c r="DD176"/>
-      <c r="DE176" t="n">
-        <v>0.000120906481632777</v>
-      </c>
+      <c r="DE176"/>
       <c r="DF176"/>
       <c r="DG176" t="n">
         <v>0.8625</v>
@@ -41461,26 +41345,28 @@
       <c r="BT177"/>
       <c r="BU177"/>
       <c r="BV177" t="n">
-        <v>0.103827908321518</v>
+        <v>0.104627853457191</v>
       </c>
       <c r="BW177" t="n">
-        <v>-0.00464901082036649</v>
+        <v>-0.00468482925927721</v>
       </c>
       <c r="BX177" t="n">
-        <v>-2.98666666666667</v>
-      </c>
-      <c r="BY177"/>
+        <v>-1.66372315457388</v>
+      </c>
+      <c r="BY177" t="n">
+        <v>1.1229083652114</v>
+      </c>
       <c r="BZ177" t="n">
-        <v>9.97842021730937</v>
+        <v>9.93568997701518</v>
       </c>
       <c r="CA177" t="n">
-        <v>0.384174180529896</v>
+        <v>0.399640391590073</v>
       </c>
       <c r="CB177" t="n">
-        <v>0.0018838784168779</v>
+        <v>0.00188545970318329</v>
       </c>
       <c r="CC177" t="n">
-        <v>-0.633186570790936</v>
+        <v>-0.63350307853878</v>
       </c>
       <c r="CD177" t="n">
         <v>0.006003125635375</v>
@@ -41544,12 +41430,10 @@
       <c r="DA177"/>
       <c r="DB177"/>
       <c r="DC177" t="n">
-        <v>0.00173013419624233</v>
+        <v>0.00159984018149318</v>
       </c>
       <c r="DD177"/>
-      <c r="DE177" t="n">
-        <v>0.0000942046851075305</v>
-      </c>
+      <c r="DE177"/>
       <c r="DF177"/>
       <c r="DG177" t="n">
         <v>0.78040350877193</v>
@@ -41970,12 +41854,10 @@
       <c r="DA179"/>
       <c r="DB179"/>
       <c r="DC179" t="n">
-        <v>0.00150585181532312</v>
+        <v>0.00139244819665476</v>
       </c>
       <c r="DD179"/>
-      <c r="DE179" t="n">
-        <v>0.0000819926548988045</v>
-      </c>
+      <c r="DE179"/>
       <c r="DF179"/>
       <c r="DG179" t="n">
         <v>0.5755</v>
@@ -42812,12 +42694,10 @@
       <c r="DA183"/>
       <c r="DB183"/>
       <c r="DC183" t="n">
-        <v>0.00463024695178834</v>
+        <v>0.00428154945425386</v>
       </c>
       <c r="DD183"/>
-      <c r="DE183" t="n">
-        <v>0.000252113944115251</v>
-      </c>
+      <c r="DE183"/>
       <c r="DF183"/>
       <c r="DG183" t="n">
         <v>0.415666666666667</v>
@@ -43886,12 +43766,10 @@
       <c r="DA188"/>
       <c r="DB188"/>
       <c r="DC188" t="n">
-        <v>0.00243103289240398</v>
+        <v>0.00224795516570134</v>
       </c>
       <c r="DD188"/>
-      <c r="DE188" t="n">
-        <v>0.000132368164626977</v>
-      </c>
+      <c r="DE188"/>
       <c r="DF188"/>
       <c r="DG188" t="n">
         <v>0.463946808510638</v>
@@ -44512,12 +44390,10 @@
       <c r="DA191"/>
       <c r="DB191"/>
       <c r="DC191" t="n">
-        <v>0.00443417250736377</v>
+        <v>0.00410024110520459</v>
       </c>
       <c r="DD191"/>
-      <c r="DE191" t="n">
-        <v>0.000241437817757673</v>
-      </c>
+      <c r="DE191"/>
       <c r="DF191"/>
       <c r="DG191" t="n">
         <v>0.6574</v>
@@ -45784,12 +45660,10 @@
       <c r="DA198"/>
       <c r="DB198"/>
       <c r="DC198" t="n">
-        <v>0.00157850014915385</v>
+        <v>0.00145962548488672</v>
       </c>
       <c r="DD198"/>
-      <c r="DE198" t="n">
-        <v>0.0000859483095682369</v>
-      </c>
+      <c r="DE198"/>
       <c r="DF198"/>
       <c r="DG198" t="n">
         <v>0.75071875</v>
@@ -46360,12 +46234,10 @@
       <c r="DA201"/>
       <c r="DB201"/>
       <c r="DC201" t="n">
-        <v>0.002651508870038</v>
+        <v>0.00245182740222436</v>
       </c>
       <c r="DD201"/>
-      <c r="DE201" t="n">
-        <v>0.000144372938645025</v>
-      </c>
+      <c r="DE201"/>
       <c r="DF201"/>
       <c r="DG201" t="n">
         <v>0.3725</v>
@@ -46588,12 +46460,10 @@
       <c r="DA202"/>
       <c r="DB202"/>
       <c r="DC202" t="n">
-        <v>0.000680704571305011</v>
+        <v>0.000629441650980068</v>
       </c>
       <c r="DD202"/>
-      <c r="DE202" t="n">
-        <v>0.0000370639225155593</v>
-      </c>
+      <c r="DE202"/>
       <c r="DF202"/>
       <c r="DG202" t="n">
         <v>0.95</v>
@@ -47358,12 +47228,10 @@
       <c r="DA206"/>
       <c r="DB206"/>
       <c r="DC206" t="n">
-        <v>0.000811943354909701</v>
+        <v>0.000750797023203266</v>
       </c>
       <c r="DD206"/>
-      <c r="DE206" t="n">
-        <v>0.0000442097891831432</v>
-      </c>
+      <c r="DE206"/>
       <c r="DF206"/>
       <c r="DG206" t="n">
         <v>0.95</v>
@@ -47968,12 +47836,10 @@
       <c r="DA209"/>
       <c r="DB209"/>
       <c r="DC209" t="n">
-        <v>0.00299756369737358</v>
+        <v>0.00277182131886596</v>
       </c>
       <c r="DD209"/>
-      <c r="DE209" t="n">
-        <v>0.000163215399599727</v>
-      </c>
+      <c r="DE209"/>
       <c r="DF209"/>
       <c r="DG209" t="n">
         <v>0.95</v>
@@ -48382,12 +48248,10 @@
       <c r="DA211"/>
       <c r="DB211"/>
       <c r="DC211" t="n">
-        <v>0.00166652272068162</v>
+        <v>0.0015410191982266</v>
       </c>
       <c r="DD211"/>
-      <c r="DE211" t="n">
-        <v>0.0000907410815110942</v>
-      </c>
+      <c r="DE211"/>
       <c r="DF211"/>
       <c r="DG211" t="n">
         <v>0.95</v>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3589,24 +3589,24 @@
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.0366632195953314</v>
+        <v>0.02976727911809</v>
       </c>
       <c r="DK2" t="n">
-        <v>-7.06470011158591</v>
+        <v>-7.53433964351565</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.857973298811334</v>
+        <v>0.59956682707088</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.247543669742866</v>
+        <v>0.247845048291409</v>
       </c>
       <c r="DN2"/>
       <c r="DO2" t="n">
-        <v>683.378855316643</v>
+        <v>669.999980926514</v>
       </c>
       <c r="DP2"/>
       <c r="DQ2" t="n">
-        <v>260.008917814737</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR2"/>
       <c r="DS2"/>
@@ -3865,13 +3865,9 @@
         <v>0</v>
       </c>
       <c r="DN3"/>
-      <c r="DO3" t="n">
-        <v>438.099177809786</v>
-      </c>
+      <c r="DO3"/>
       <c r="DP3"/>
-      <c r="DQ3" t="n">
-        <v>266.222814163636</v>
-      </c>
+      <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
       <c r="DT3"/>
@@ -4075,24 +4071,24 @@
       </c>
       <c r="DI4"/>
       <c r="DJ4" t="n">
-        <v>0.077089375000326</v>
+        <v>0.062283892336653</v>
       </c>
       <c r="DK4" t="n">
-        <v>5.38839069008827</v>
+        <v>4.66031232685469</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.610939598083496</v>
+        <v>0.525756539918418</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.790231987833977</v>
+        <v>0.789812364617237</v>
       </c>
       <c r="DN4"/>
       <c r="DO4" t="n">
-        <v>921.885180491361</v>
+        <v>900</v>
       </c>
       <c r="DP4"/>
       <c r="DQ4" t="n">
-        <v>416.435490609023</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR4"/>
       <c r="DS4"/>
@@ -4343,24 +4339,24 @@
       </c>
       <c r="DI5"/>
       <c r="DJ5" t="n">
-        <v>0.0185955316814208</v>
+        <v>0.0150998047569151</v>
       </c>
       <c r="DK5" t="n">
-        <v>-2.6554128197361</v>
+        <v>-2.04942534331093</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.404521867508983</v>
+        <v>0.276592630867522</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.532507469118383</v>
+        <v>0.557948459858723</v>
       </c>
       <c r="DN5"/>
       <c r="DO5" t="n">
-        <v>775.126032752014</v>
+        <v>750</v>
       </c>
       <c r="DP5"/>
       <c r="DQ5" t="n">
-        <v>206.959300749818</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR5"/>
       <c r="DS5"/>
@@ -4611,24 +4607,24 @@
       </c>
       <c r="DI6"/>
       <c r="DJ6" t="n">
-        <v>0.025230730752499</v>
+        <v>0.0210703812378987</v>
       </c>
       <c r="DK6" t="n">
-        <v>-3.43354301941066</v>
+        <v>-4.43817362042419</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.406359224595651</v>
+        <v>0.406675060488587</v>
       </c>
       <c r="DM6" t="n">
-        <v>5.36833018440444</v>
+        <v>5.3588431830595</v>
       </c>
       <c r="DN6"/>
       <c r="DO6" t="n">
-        <v>658.171428884779</v>
+        <v>619.9999888738</v>
       </c>
       <c r="DP6"/>
       <c r="DQ6" t="n">
-        <v>193.714302355714</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR6"/>
       <c r="DS6"/>
@@ -4887,13 +4883,9 @@
         <v>1.48512870003196</v>
       </c>
       <c r="DN7"/>
-      <c r="DO7" t="n">
-        <v>650</v>
-      </c>
+      <c r="DO7"/>
       <c r="DP7"/>
-      <c r="DQ7" t="n">
-        <v>127.3239546</v>
-      </c>
+      <c r="DQ7"/>
       <c r="DR7"/>
       <c r="DS7"/>
       <c r="DT7"/>
@@ -5143,24 +5135,24 @@
       </c>
       <c r="DI8"/>
       <c r="DJ8" t="n">
-        <v>0.0249418526646247</v>
+        <v>0.0204246383210002</v>
       </c>
       <c r="DK8" t="n">
-        <v>-2.44540412724018</v>
+        <v>-2.45253644171237</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.277776435017586</v>
+        <v>0.209930995926757</v>
       </c>
       <c r="DM8" t="n">
-        <v>3.46758982539177</v>
+        <v>3.45142867202192</v>
       </c>
       <c r="DN8"/>
       <c r="DO8" t="n">
-        <v>767.021740603398</v>
+        <v>750</v>
       </c>
       <c r="DP8"/>
       <c r="DQ8" t="n">
-        <v>204.03466016646</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR8"/>
       <c r="DS8"/>
@@ -5419,13 +5411,9 @@
         <v>0.516774033704573</v>
       </c>
       <c r="DN9"/>
-      <c r="DO9" t="n">
-        <v>947.142855326334</v>
-      </c>
+      <c r="DO9"/>
       <c r="DP9"/>
-      <c r="DQ9" t="n">
-        <v>181.891363714286</v>
-      </c>
+      <c r="DQ9"/>
       <c r="DR9"/>
       <c r="DS9"/>
       <c r="DT9"/>
@@ -5675,24 +5663,24 @@
       </c>
       <c r="DI10"/>
       <c r="DJ10" t="n">
-        <v>0.0153836649469199</v>
+        <v>0.0133981093928226</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.332862354616802</v>
+        <v>0.608028388997257</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.700389019696759</v>
+        <v>0.668627252164795</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.6431735501838</v>
+        <v>1.65340055157437</v>
       </c>
       <c r="DN10"/>
       <c r="DO10" t="n">
-        <v>918.039804287811</v>
+        <v>900</v>
       </c>
       <c r="DP10"/>
       <c r="DQ10" t="n">
-        <v>188.135395602985</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR10"/>
       <c r="DS10"/>
@@ -6059,13 +6047,9 @@
         <v>0.167731555250666</v>
       </c>
       <c r="DN12"/>
-      <c r="DO12" t="n">
-        <v>925.000010596381</v>
-      </c>
+      <c r="DO12"/>
       <c r="DP12"/>
-      <c r="DQ12" t="n">
-        <v>721.5024094</v>
-      </c>
+      <c r="DQ12"/>
       <c r="DR12"/>
       <c r="DS12"/>
       <c r="DT12"/>
@@ -6281,24 +6265,24 @@
       </c>
       <c r="DI13"/>
       <c r="DJ13" t="n">
-        <v>0.0106007756227492</v>
+        <v>0.0105023095006861</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0.168177768127442</v>
+        <v>-0.504660539876951</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.251818597342271</v>
+        <v>0.326787410375571</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.108704236137605</v>
+        <v>0.984881452043608</v>
       </c>
       <c r="DN13"/>
       <c r="DO13" t="n">
-        <v>898.835348950259</v>
+        <v>850</v>
       </c>
       <c r="DP13"/>
       <c r="DQ13" t="n">
-        <v>319.064771606324</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR13"/>
       <c r="DS13"/>
@@ -6507,13 +6491,9 @@
         <v>4.02817802216822</v>
       </c>
       <c r="DN14"/>
-      <c r="DO14" t="n">
-        <v>600</v>
-      </c>
+      <c r="DO14"/>
       <c r="DP14"/>
-      <c r="DQ14" t="n">
-        <v>127.3239546</v>
-      </c>
+      <c r="DQ14"/>
       <c r="DR14"/>
       <c r="DS14"/>
       <c r="DT14"/>
@@ -7377,13 +7357,9 @@
       <c r="DL19"/>
       <c r="DM19"/>
       <c r="DN19"/>
-      <c r="DO19" t="n">
-        <v>698.888889948527</v>
-      </c>
+      <c r="DO19"/>
       <c r="DP19"/>
-      <c r="DQ19" t="n">
-        <v>141.471060666667</v>
-      </c>
+      <c r="DQ19"/>
       <c r="DR19"/>
       <c r="DS19"/>
       <c r="DT19"/>
@@ -7595,13 +7571,9 @@
       <c r="DL20"/>
       <c r="DM20"/>
       <c r="DN20"/>
-      <c r="DO20" t="n">
-        <v>633.000003099442</v>
-      </c>
+      <c r="DO20"/>
       <c r="DP20"/>
-      <c r="DQ20" t="n">
-        <v>229.18311828</v>
-      </c>
+      <c r="DQ20"/>
       <c r="DR20"/>
       <c r="DS20"/>
       <c r="DT20"/>
@@ -7811,24 +7783,24 @@
       </c>
       <c r="DI21"/>
       <c r="DJ21" t="n">
-        <v>0.0614732981999586</v>
+        <v>0.0514958919359428</v>
       </c>
       <c r="DK21" t="n">
-        <v>-1.20960169751287</v>
+        <v>-4.22339440137148</v>
       </c>
       <c r="DL21" t="n">
-        <v>0.270599393905325</v>
+        <v>0.275696709752083</v>
       </c>
       <c r="DM21" t="n">
-        <v>0.152426061513335</v>
+        <v>0.149565011262894</v>
       </c>
       <c r="DN21"/>
       <c r="DO21" t="n">
-        <v>508.728059567779</v>
+        <v>500</v>
       </c>
       <c r="DP21"/>
       <c r="DQ21" t="n">
-        <v>288.811069295644</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR21"/>
       <c r="DS21"/>
@@ -9293,24 +9265,24 @@
       </c>
       <c r="DI28"/>
       <c r="DJ28" t="n">
-        <v>0.0240886118375235</v>
+        <v>0.0180382022582474</v>
       </c>
       <c r="DK28" t="n">
-        <v>-6.92052580261964</v>
+        <v>-7.31729405699298</v>
       </c>
       <c r="DL28" t="n">
-        <v>0.603134825628376</v>
+        <v>0.394711778535551</v>
       </c>
       <c r="DM28" t="n">
-        <v>0.542410893892509</v>
+        <v>0.5486080338605</v>
       </c>
       <c r="DN28"/>
       <c r="DO28" t="n">
-        <v>905.827324480683</v>
+        <v>900</v>
       </c>
       <c r="DP28"/>
       <c r="DQ28" t="n">
-        <v>336.061784016346</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR28"/>
       <c r="DS28"/>
@@ -9705,24 +9677,24 @@
       <c r="DH30"/>
       <c r="DI30"/>
       <c r="DJ30" t="n">
-        <v>0.0383738637659446</v>
+        <v>0.032079529798492</v>
       </c>
       <c r="DK30" t="n">
-        <v>-0.557746240079345</v>
+        <v>-0.494700238108635</v>
       </c>
       <c r="DL30" t="n">
-        <v>0.680538413400018</v>
+        <v>0.67693592607975</v>
       </c>
       <c r="DM30" t="n">
-        <v>6.96285610395953</v>
+        <v>6.89330780506134</v>
       </c>
       <c r="DN30"/>
       <c r="DO30" t="n">
-        <v>525.368055038982</v>
+        <v>500</v>
       </c>
       <c r="DP30"/>
       <c r="DQ30" t="n">
-        <v>199.47419554</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR30"/>
       <c r="DS30"/>
@@ -10545,24 +10517,24 @@
       </c>
       <c r="DI34"/>
       <c r="DJ34" t="n">
-        <v>0.0231432297878662</v>
+        <v>0.0190067541137909</v>
       </c>
       <c r="DK34" t="n">
-        <v>-1.15242818332108</v>
+        <v>-1.16216024756432</v>
       </c>
       <c r="DL34" t="n">
-        <v>0.509970707816826</v>
+        <v>0.519114285707474</v>
       </c>
       <c r="DM34" t="n">
-        <v>0.659014806256153</v>
+        <v>0.659772843122482</v>
       </c>
       <c r="DN34"/>
       <c r="DO34" t="n">
-        <v>827.155552143589</v>
+        <v>810.000038146973</v>
       </c>
       <c r="DP34"/>
       <c r="DQ34" t="n">
-        <v>366.865631898305</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR34"/>
       <c r="DS34"/>
@@ -10777,13 +10749,9 @@
         <v>3.74360166715774</v>
       </c>
       <c r="DN35"/>
-      <c r="DO35" t="n">
-        <v>758.611111508475</v>
-      </c>
+      <c r="DO35"/>
       <c r="DP35"/>
-      <c r="DQ35" t="n">
-        <v>201.59626145</v>
-      </c>
+      <c r="DQ35"/>
       <c r="DR35"/>
       <c r="DS35"/>
       <c r="DT35"/>
@@ -10987,13 +10955,9 @@
         <v>0.514530190567401</v>
       </c>
       <c r="DN36"/>
-      <c r="DO36" t="n">
-        <v>604.342106601648</v>
-      </c>
+      <c r="DO36"/>
       <c r="DP36"/>
-      <c r="DQ36" t="n">
-        <v>328.361777652632</v>
-      </c>
+      <c r="DQ36"/>
       <c r="DR36"/>
       <c r="DS36"/>
       <c r="DT36"/>
@@ -11183,24 +11147,24 @@
       </c>
       <c r="DI37"/>
       <c r="DJ37" t="n">
-        <v>0.348678559597293</v>
+        <v>0.248775528761805</v>
       </c>
       <c r="DK37" t="n">
-        <v>6.72993585467339</v>
+        <v>-2.51773835718632</v>
       </c>
       <c r="DL37" t="n">
-        <v>1.39742969385629</v>
+        <v>1.42656588554382</v>
       </c>
       <c r="DM37" t="n">
-        <v>6.79102423291044</v>
+        <v>6.78385546803474</v>
       </c>
       <c r="DN37"/>
       <c r="DO37" t="n">
-        <v>393.135962203929</v>
+        <v>400</v>
       </c>
       <c r="DP37"/>
       <c r="DQ37" t="n">
-        <v>177.583410363158</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR37"/>
       <c r="DS37"/>
@@ -11387,13 +11351,9 @@
         <v>0</v>
       </c>
       <c r="DN38"/>
-      <c r="DO38" t="n">
-        <v>669.274694831283</v>
-      </c>
+      <c r="DO38"/>
       <c r="DP38"/>
-      <c r="DQ38" t="n">
-        <v>233.4272501</v>
-      </c>
+      <c r="DQ38"/>
       <c r="DR38"/>
       <c r="DS38"/>
       <c r="DT38"/>
@@ -11767,13 +11727,9 @@
         <v>4.90566263270359</v>
       </c>
       <c r="DN40"/>
-      <c r="DO40" t="n">
-        <v>235.000002384186</v>
-      </c>
+      <c r="DO40"/>
       <c r="DP40"/>
-      <c r="DQ40" t="n">
-        <v>254.6479092</v>
-      </c>
+      <c r="DQ40"/>
       <c r="DR40"/>
       <c r="DS40"/>
       <c r="DT40"/>
@@ -15495,13 +15451,9 @@
         <v>0.224612369935489</v>
       </c>
       <c r="DN58"/>
-      <c r="DO58" t="n">
-        <v>493.75</v>
-      </c>
+      <c r="DO58"/>
       <c r="DP58"/>
-      <c r="DQ58" t="n">
-        <v>127.3239546</v>
-      </c>
+      <c r="DQ58"/>
       <c r="DR58"/>
       <c r="DS58"/>
       <c r="DT58"/>
@@ -15887,24 +15839,24 @@
       </c>
       <c r="DI60"/>
       <c r="DJ60" t="n">
-        <v>0.0814032864796548</v>
+        <v>0.0691604444543038</v>
       </c>
       <c r="DK60" t="n">
-        <v>-4.22947283089161</v>
+        <v>-4.09947427175773</v>
       </c>
       <c r="DL60" t="n">
-        <v>0.292714104056358</v>
+        <v>0.349379782373344</v>
       </c>
       <c r="DM60" t="n">
-        <v>0.0661484152078629</v>
+        <v>0.0437215179168518</v>
       </c>
       <c r="DN60"/>
       <c r="DO60" t="n">
-        <v>720.428024859551</v>
+        <v>707.738095238095</v>
       </c>
       <c r="DP60"/>
       <c r="DQ60" t="n">
-        <v>386.970725758891</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR60"/>
       <c r="DS60"/>
@@ -16293,24 +16245,24 @@
       </c>
       <c r="DI62"/>
       <c r="DJ62" t="n">
-        <v>0.0300334611767777</v>
+        <v>0.0265032370145895</v>
       </c>
       <c r="DK62" t="n">
-        <v>-0.780326543673904</v>
+        <v>-0.19170716061088</v>
       </c>
       <c r="DL62" t="n">
-        <v>0.454260041443257</v>
+        <v>0.450236392087196</v>
       </c>
       <c r="DM62" t="n">
-        <v>0.576061234516418</v>
+        <v>0.619775425358949</v>
       </c>
       <c r="DN62"/>
       <c r="DO62" t="n">
-        <v>586.043953143836</v>
+        <v>580.000019073486</v>
       </c>
       <c r="DP62"/>
       <c r="DQ62" t="n">
-        <v>212.409902703952</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR62"/>
       <c r="DS62"/>
@@ -16505,24 +16457,24 @@
       <c r="DH63"/>
       <c r="DI63"/>
       <c r="DJ63" t="n">
-        <v>0.04109287833189</v>
+        <v>0.0545404994682654</v>
       </c>
       <c r="DK63" t="n">
-        <v>0.018011674284935</v>
+        <v>1.0942262406088</v>
       </c>
       <c r="DL63" t="n">
-        <v>0.121880158782005</v>
+        <v>0.208637565982125</v>
       </c>
       <c r="DM63" t="n">
-        <v>0.695167928934097</v>
+        <v>0.48678828170523</v>
       </c>
       <c r="DN63"/>
       <c r="DO63" t="n">
-        <v>557.630951844511</v>
+        <v>554.999995231629</v>
       </c>
       <c r="DP63"/>
       <c r="DQ63" t="n">
-        <v>245.098612605</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR63"/>
       <c r="DS63"/>
@@ -20809,24 +20761,24 @@
       </c>
       <c r="DI85"/>
       <c r="DJ85" t="n">
-        <v>0.0718735242080362</v>
+        <v>0.0654125879700007</v>
       </c>
       <c r="DK85" t="n">
-        <v>6.38063634357726</v>
+        <v>5.96203147775183</v>
       </c>
       <c r="DL85" t="n">
-        <v>0.744210887234658</v>
+        <v>0.728177442681044</v>
       </c>
       <c r="DM85" t="n">
-        <v>14.7896885386047</v>
+        <v>14.2893380778842</v>
       </c>
       <c r="DN85"/>
       <c r="DO85" t="n">
-        <v>596.925170528368</v>
+        <v>569.999980926514</v>
       </c>
       <c r="DP85"/>
       <c r="DQ85" t="n">
-        <v>534.397690684561</v>
+        <v>381.9718638</v>
       </c>
       <c r="DR85"/>
       <c r="DS85"/>
@@ -22091,13 +22043,9 @@
         <v>2.87518600809999</v>
       </c>
       <c r="DN91"/>
-      <c r="DO91" t="n">
-        <v>556.068226400618</v>
-      </c>
+      <c r="DO91"/>
       <c r="DP91"/>
-      <c r="DQ91" t="n">
-        <v>871.679381492308</v>
-      </c>
+      <c r="DQ91"/>
       <c r="DR91"/>
       <c r="DS91"/>
       <c r="DT91"/>
@@ -23135,24 +23083,24 @@
       </c>
       <c r="DI96"/>
       <c r="DJ96" t="n">
-        <v>0.0601009180920893</v>
+        <v>0.0510717414504112</v>
       </c>
       <c r="DK96" t="n">
-        <v>0.924407155352904</v>
+        <v>-1.51709276872201</v>
       </c>
       <c r="DL96" t="n">
-        <v>0.16603891567821</v>
+        <v>0.167141459329319</v>
       </c>
       <c r="DM96" t="n">
-        <v>0.0542171246700341</v>
+        <v>0.0547284416249325</v>
       </c>
       <c r="DN96"/>
       <c r="DO96" t="n">
-        <v>1192.50261432068</v>
+        <v>1200</v>
       </c>
       <c r="DP96"/>
       <c r="DQ96" t="n">
-        <v>418.392027690649</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR96"/>
       <c r="DS96"/>
@@ -23343,13 +23291,9 @@
         <v>0.383578718315989</v>
       </c>
       <c r="DN97"/>
-      <c r="DO97" t="n">
-        <v>400</v>
-      </c>
+      <c r="DO97"/>
       <c r="DP97"/>
-      <c r="DQ97" t="n">
-        <v>127.3239546</v>
-      </c>
+      <c r="DQ97"/>
       <c r="DR97"/>
       <c r="DS97"/>
       <c r="DT97"/>
@@ -23825,24 +23769,24 @@
       </c>
       <c r="DI99"/>
       <c r="DJ99" t="n">
-        <v>0.0230942996365409</v>
+        <v>0.0192384704436053</v>
       </c>
       <c r="DK99" t="n">
-        <v>-3.33716030418873</v>
+        <v>-4.66527874011454</v>
       </c>
       <c r="DL99" t="n">
-        <v>0.335319682955742</v>
+        <v>0.31227915775763</v>
       </c>
       <c r="DM99" t="n">
-        <v>0.181530818343163</v>
+        <v>0.19357019663324</v>
       </c>
       <c r="DN99"/>
       <c r="DO99" t="n">
-        <v>847.500653512742</v>
+        <v>840.000009536743</v>
       </c>
       <c r="DP99"/>
       <c r="DQ99" t="n">
-        <v>307.083547583831</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR99"/>
       <c r="DS99"/>
@@ -24039,24 +23983,24 @@
       <c r="DH100"/>
       <c r="DI100"/>
       <c r="DJ100" t="n">
-        <v>0.00101685690451692</v>
+        <v>0.00048586338288481</v>
       </c>
       <c r="DK100" t="n">
-        <v>11.8196052412192</v>
+        <v>12.1821013987064</v>
       </c>
       <c r="DL100" t="n">
-        <v>1.10828751325607</v>
+        <v>1.17418090999126</v>
       </c>
       <c r="DM100" t="n">
-        <v>18.2775847266118</v>
+        <v>26.8025541454554</v>
       </c>
       <c r="DN100"/>
       <c r="DO100" t="n">
-        <v>511.280993415304</v>
+        <v>467.499995231629</v>
       </c>
       <c r="DP100"/>
       <c r="DQ100" t="n">
-        <v>324.097338981818</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR100"/>
       <c r="DS100"/>
@@ -24237,24 +24181,24 @@
       <c r="DH101"/>
       <c r="DI101"/>
       <c r="DJ101" t="n">
-        <v>0.0691129723370006</v>
+        <v>0.0579351438082764</v>
       </c>
       <c r="DK101" t="n">
-        <v>-1.59453898843152</v>
+        <v>-1.1233935624361</v>
       </c>
       <c r="DL101" t="n">
-        <v>0.825934101339653</v>
+        <v>0.479602319002152</v>
       </c>
       <c r="DM101" t="n">
-        <v>10.7816550326189</v>
+        <v>11.9647307753563</v>
       </c>
       <c r="DN101"/>
       <c r="DO101" t="n">
-        <v>653.009257272438</v>
+        <v>654.999995231629</v>
       </c>
       <c r="DP101"/>
       <c r="DQ101" t="n">
-        <v>190.9859319</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR101"/>
       <c r="DS101"/>
@@ -24477,24 +24421,24 @@
       </c>
       <c r="DI102"/>
       <c r="DJ102" t="n">
-        <v>0.0186276598854827</v>
+        <v>0.0137312039960974</v>
       </c>
       <c r="DK102" t="n">
-        <v>-2.80398409848249</v>
+        <v>-2.25436487793922</v>
       </c>
       <c r="DL102" t="n">
-        <v>0.282277945751547</v>
+        <v>0.212207213044167</v>
       </c>
       <c r="DM102" t="n">
-        <v>0.148652728374319</v>
+        <v>0.128788873553276</v>
       </c>
       <c r="DN102"/>
       <c r="DO102" t="n">
-        <v>885.981831434435</v>
+        <v>850</v>
       </c>
       <c r="DP102"/>
       <c r="DQ102" t="n">
-        <v>210.113073061883</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR102"/>
       <c r="DS102"/>
@@ -25587,13 +25531,9 @@
         <v>0.306786507578872</v>
       </c>
       <c r="DN108"/>
-      <c r="DO108" t="n">
-        <v>650</v>
-      </c>
+      <c r="DO108"/>
       <c r="DP108"/>
-      <c r="DQ108" t="n">
-        <v>127.3239546</v>
-      </c>
+      <c r="DQ108"/>
       <c r="DR108"/>
       <c r="DS108"/>
       <c r="DT108"/>
@@ -26613,24 +26553,24 @@
       </c>
       <c r="DI113"/>
       <c r="DJ113" t="n">
-        <v>0.0352814979866712</v>
+        <v>0.0293599760645195</v>
       </c>
       <c r="DK113" t="n">
-        <v>-1.69812721416393</v>
+        <v>-3.85394444222887</v>
       </c>
       <c r="DL113" t="n">
-        <v>0.331706072891592</v>
+        <v>0.402800692810626</v>
       </c>
       <c r="DM113" t="n">
-        <v>0.19006067029026</v>
+        <v>0.191139598820674</v>
       </c>
       <c r="DN113"/>
       <c r="DO113" t="n">
-        <v>642.349923373607</v>
+        <v>611.249999205271</v>
       </c>
       <c r="DP113"/>
       <c r="DQ113" t="n">
-        <v>299.2483060875</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR113"/>
       <c r="DS113"/>
@@ -27027,13 +26967,9 @@
         <v>0.661780083551056</v>
       </c>
       <c r="DN115"/>
-      <c r="DO115" t="n">
-        <v>742.69230732551</v>
-      </c>
+      <c r="DO115"/>
       <c r="DP115"/>
-      <c r="DQ115" t="n">
-        <v>137.118104953846</v>
-      </c>
+      <c r="DQ115"/>
       <c r="DR115"/>
       <c r="DS115"/>
       <c r="DT115"/>
@@ -27483,24 +27419,24 @@
       </c>
       <c r="DI117"/>
       <c r="DJ117" t="n">
-        <v>0.0115619072773568</v>
+        <v>0.013769194574801</v>
       </c>
       <c r="DK117" t="n">
-        <v>-3.22473761858419</v>
+        <v>-2.11169969760432</v>
       </c>
       <c r="DL117" t="n">
-        <v>0.359499393177014</v>
+        <v>0.369101120985576</v>
       </c>
       <c r="DM117" t="n">
-        <v>1.3754019584991</v>
+        <v>1.42982643154864</v>
       </c>
       <c r="DN117"/>
       <c r="DO117" t="n">
-        <v>419.439244567859</v>
+        <v>419.999980926514</v>
       </c>
       <c r="DP117"/>
       <c r="DQ117" t="n">
-        <v>156.17568815468</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR117"/>
       <c r="DS117"/>
@@ -27735,24 +27671,24 @@
       </c>
       <c r="DI118"/>
       <c r="DJ118" t="n">
-        <v>0.0218460377690762</v>
+        <v>0.0173895206382718</v>
       </c>
       <c r="DK118" t="n">
-        <v>0.391208603978157</v>
+        <v>0.40886789560318</v>
       </c>
       <c r="DL118" t="n">
-        <v>0.13962609320879</v>
+        <v>0.186026148498058</v>
       </c>
       <c r="DM118" t="n">
-        <v>8.2916102707386</v>
+        <v>7.97729961574078</v>
       </c>
       <c r="DN118"/>
       <c r="DO118" t="n">
-        <v>407.261798451973</v>
+        <v>400</v>
       </c>
       <c r="DP118"/>
       <c r="DQ118" t="n">
-        <v>190.84414575902</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR118"/>
       <c r="DS118"/>
@@ -27987,24 +27923,24 @@
       </c>
       <c r="DI119"/>
       <c r="DJ119" t="n">
-        <v>0.0321134907013103</v>
+        <v>0.026650366929647</v>
       </c>
       <c r="DK119" t="n">
-        <v>-0.524464997039107</v>
+        <v>-1.45945005607406</v>
       </c>
       <c r="DL119" t="n">
-        <v>0.288414097623788</v>
+        <v>0.280763810991289</v>
       </c>
       <c r="DM119" t="n">
-        <v>1.67789249509708</v>
+        <v>1.69457022873911</v>
       </c>
       <c r="DN119"/>
       <c r="DO119" t="n">
-        <v>379.13074695259</v>
+        <v>370.000004768372</v>
       </c>
       <c r="DP119"/>
       <c r="DQ119" t="n">
-        <v>183.851399961207</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR119"/>
       <c r="DS119"/>
@@ -28225,24 +28161,24 @@
       </c>
       <c r="DI120"/>
       <c r="DJ120" t="n">
-        <v>0.0216633042489617</v>
+        <v>0.0179148721289449</v>
       </c>
       <c r="DK120" t="n">
-        <v>-2.59615039825439</v>
+        <v>-2.47362305892535</v>
       </c>
       <c r="DL120" t="n">
-        <v>0.318288803100586</v>
+        <v>0.31838989854335</v>
       </c>
       <c r="DM120" t="n">
-        <v>12.4694979339838</v>
+        <v>12.6973594701247</v>
       </c>
       <c r="DN120"/>
       <c r="DO120" t="n">
-        <v>442.292821421213</v>
+        <v>440</v>
       </c>
       <c r="DP120"/>
       <c r="DQ120" t="n">
-        <v>181.674179996418</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR120"/>
       <c r="DS120"/>
@@ -28619,24 +28555,24 @@
       </c>
       <c r="DI122"/>
       <c r="DJ122" t="n">
-        <v>0.345510840291682</v>
+        <v>0.249233604685473</v>
       </c>
       <c r="DK122" t="n">
-        <v>6.48230013251305</v>
+        <v>6.67972287956581</v>
       </c>
       <c r="DL122" t="n">
-        <v>1.43984773755074</v>
+        <v>1.46060751084707</v>
       </c>
       <c r="DM122" t="n">
-        <v>7.07000177353621</v>
+        <v>6.55265234802076</v>
       </c>
       <c r="DN122"/>
       <c r="DO122" t="n">
-        <v>788.571436443026</v>
+        <v>780.000019073486</v>
       </c>
       <c r="DP122"/>
       <c r="DQ122" t="n">
-        <v>181.891363714286</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR122"/>
       <c r="DS122"/>
@@ -29017,24 +28953,24 @@
       </c>
       <c r="DI124"/>
       <c r="DJ124" t="n">
-        <v>0.0301225250512521</v>
+        <v>0.0245126661998184</v>
       </c>
       <c r="DK124" t="n">
-        <v>6.68396573857792</v>
+        <v>6.38745094076721</v>
       </c>
       <c r="DL124" t="n">
-        <v>0.650634911856717</v>
+        <v>0.714213582019787</v>
       </c>
       <c r="DM124" t="n">
-        <v>0.191522128125233</v>
+        <v>0.19539800070957</v>
       </c>
       <c r="DN124"/>
       <c r="DO124" t="n">
-        <v>776.656754283219</v>
+        <v>750</v>
       </c>
       <c r="DP124"/>
       <c r="DQ124" t="n">
-        <v>298.675818734579</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR124"/>
       <c r="DS124"/>
@@ -30021,24 +29957,24 @@
       <c r="DH129"/>
       <c r="DI129"/>
       <c r="DJ129" t="n">
-        <v>0.0132785365312352</v>
+        <v>0.0105804737784443</v>
       </c>
       <c r="DK129" t="n">
-        <v>0.918246194720268</v>
+        <v>0.239269127389655</v>
       </c>
       <c r="DL129" t="n">
-        <v>1.14290219545364</v>
+        <v>1.14719363857901</v>
       </c>
       <c r="DM129" t="n">
-        <v>6.40588873624802</v>
+        <v>6.43966883312372</v>
       </c>
       <c r="DN129"/>
       <c r="DO129" t="n">
-        <v>560.813491306608</v>
+        <v>550</v>
       </c>
       <c r="DP129"/>
       <c r="DQ129" t="n">
-        <v>201.59626145</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR129"/>
       <c r="DS129"/>
@@ -30805,24 +30741,24 @@
       </c>
       <c r="DI133"/>
       <c r="DJ133" t="n">
-        <v>0.0680790384872063</v>
+        <v>0.0588325949962322</v>
       </c>
       <c r="DK133" t="n">
-        <v>2.8039823531784</v>
+        <v>4.8504207856497</v>
       </c>
       <c r="DL133" t="n">
-        <v>0.862569995625045</v>
+        <v>0.807801450697743</v>
       </c>
       <c r="DM133" t="n">
-        <v>15.8904237993943</v>
+        <v>14.6343639356141</v>
       </c>
       <c r="DN133"/>
       <c r="DO133" t="n">
-        <v>654.812629351146</v>
+        <v>633.333333333333</v>
       </c>
       <c r="DP133"/>
       <c r="DQ133" t="n">
-        <v>424.413182</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR133"/>
       <c r="DS133"/>
@@ -31029,13 +30965,9 @@
         <v>2.4239520139114</v>
       </c>
       <c r="DN134"/>
-      <c r="DO134" t="n">
-        <v>550</v>
-      </c>
+      <c r="DO134"/>
       <c r="DP134"/>
-      <c r="DQ134" t="n">
-        <v>127.3239546</v>
-      </c>
+      <c r="DQ134"/>
       <c r="DR134"/>
       <c r="DS134"/>
       <c r="DT134"/>
@@ -31419,13 +31351,9 @@
       <c r="DL136"/>
       <c r="DM136"/>
       <c r="DN136"/>
-      <c r="DO136" t="n">
-        <v>919.16667620341</v>
-      </c>
+      <c r="DO136"/>
       <c r="DP136"/>
-      <c r="DQ136" t="n">
-        <v>445.6338411</v>
-      </c>
+      <c r="DQ136"/>
       <c r="DR136"/>
       <c r="DS136"/>
       <c r="DT136"/>
@@ -31645,24 +31573,24 @@
       </c>
       <c r="DI137"/>
       <c r="DJ137" t="n">
-        <v>0.0275322332018626</v>
+        <v>0.0233383057426948</v>
       </c>
       <c r="DK137" t="n">
-        <v>4.96230908406471</v>
+        <v>4.96823552250862</v>
       </c>
       <c r="DL137" t="n">
-        <v>0.309774268695258</v>
+        <v>0.308166548609734</v>
       </c>
       <c r="DM137" t="n">
-        <v>0.445187322981515</v>
+        <v>7.33242458105087</v>
       </c>
       <c r="DN137"/>
       <c r="DO137" t="n">
-        <v>485.739782883636</v>
+        <v>475</v>
       </c>
       <c r="DP137"/>
       <c r="DQ137" t="n">
-        <v>254.897075451663</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR137"/>
       <c r="DS137"/>
@@ -32595,24 +32523,24 @@
       </c>
       <c r="DI142"/>
       <c r="DJ142" t="n">
-        <v>0.0611054935468024</v>
+        <v>0.0474058932518059</v>
       </c>
       <c r="DK142" t="n">
-        <v>6.90443540714225</v>
+        <v>4.70847938656807</v>
       </c>
       <c r="DL142" t="n">
-        <v>0.824658876627075</v>
+        <v>0.792926412663962</v>
       </c>
       <c r="DM142" t="n">
-        <v>13.8303876148195</v>
+        <v>14.9221613661239</v>
       </c>
       <c r="DN142"/>
       <c r="DO142" t="n">
-        <v>857.248916522765</v>
+        <v>850</v>
       </c>
       <c r="DP142"/>
       <c r="DQ142" t="n">
-        <v>240.096600102857</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR142"/>
       <c r="DS142"/>
@@ -33031,24 +32959,24 @@
       </c>
       <c r="DI144"/>
       <c r="DJ144" t="n">
-        <v>0.0532668148497986</v>
+        <v>0.0445902792051116</v>
       </c>
       <c r="DK144" t="n">
-        <v>-0.857886980640979</v>
+        <v>-4.34647233437011</v>
       </c>
       <c r="DL144" t="n">
-        <v>0.252553610619691</v>
+        <v>0.070044151595491</v>
       </c>
       <c r="DM144" t="n">
-        <v>0.465134355572822</v>
+        <v>0.523801703574925</v>
       </c>
       <c r="DN144"/>
       <c r="DO144" t="n">
-        <v>525.436668722576</v>
+        <v>500</v>
       </c>
       <c r="DP144"/>
       <c r="DQ144" t="n">
-        <v>235.134659452874</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR144"/>
       <c r="DS144"/>
@@ -33421,13 +33349,9 @@
         <v>8.73505631483942</v>
       </c>
       <c r="DN146"/>
-      <c r="DO146" t="n">
-        <v>0</v>
-      </c>
+      <c r="DO146"/>
       <c r="DP146"/>
-      <c r="DQ146" t="n">
-        <v>127.3239546</v>
-      </c>
+      <c r="DQ146"/>
       <c r="DR146"/>
       <c r="DS146"/>
       <c r="DT146"/>
@@ -33595,13 +33519,9 @@
       <c r="DL147"/>
       <c r="DM147"/>
       <c r="DN147"/>
-      <c r="DO147" t="n">
-        <v>800.624999602635</v>
-      </c>
+      <c r="DO147"/>
       <c r="DP147"/>
-      <c r="DQ147" t="n">
-        <v>222.81692055</v>
-      </c>
+      <c r="DQ147"/>
       <c r="DR147"/>
       <c r="DS147"/>
       <c r="DT147"/>
@@ -33851,13 +33771,9 @@
         <v>0.00000000000000000000000000000000000000000000000000000000000000000000000302100258360983</v>
       </c>
       <c r="DN148"/>
-      <c r="DO148" t="n">
-        <v>636.018524346529</v>
-      </c>
+      <c r="DO148"/>
       <c r="DP148"/>
-      <c r="DQ148" t="n">
-        <v>282.942121333333</v>
-      </c>
+      <c r="DQ148"/>
       <c r="DR148"/>
       <c r="DS148"/>
       <c r="DT148"/>
@@ -34089,24 +34005,24 @@
       </c>
       <c r="DI149"/>
       <c r="DJ149" t="n">
-        <v>0.338103875893013</v>
+        <v>0.305426611127705</v>
       </c>
       <c r="DK149" t="n">
-        <v>2.25542608556714</v>
+        <v>1.75644074380398</v>
       </c>
       <c r="DL149" t="n">
-        <v>0.469488010016699</v>
+        <v>0.481551349163055</v>
       </c>
       <c r="DM149" t="n">
-        <v>28.9293076062426</v>
+        <v>19.1779369562864</v>
       </c>
       <c r="DN149"/>
       <c r="DO149" t="n">
-        <v>511.541433884824</v>
+        <v>500</v>
       </c>
       <c r="DP149"/>
       <c r="DQ149" t="n">
-        <v>215.322535880506</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR149"/>
       <c r="DS149"/>
@@ -34371,24 +34287,24 @@
       </c>
       <c r="DI150"/>
       <c r="DJ150" t="n">
-        <v>0.0300209084021689</v>
+        <v>0.0245956744318702</v>
       </c>
       <c r="DK150" t="n">
-        <v>0.571485037781422</v>
+        <v>-2.43407591086104</v>
       </c>
       <c r="DL150" t="n">
-        <v>0.146824379398954</v>
+        <v>0.133332052736714</v>
       </c>
       <c r="DM150" t="n">
-        <v>4.559550435801</v>
+        <v>4.57541210016321</v>
       </c>
       <c r="DN150"/>
       <c r="DO150" t="n">
-        <v>569.241175140369</v>
+        <v>550</v>
       </c>
       <c r="DP150"/>
       <c r="DQ150" t="n">
-        <v>246.2535300635</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR150"/>
       <c r="DS150"/>
@@ -34665,24 +34581,24 @@
       </c>
       <c r="DI151"/>
       <c r="DJ151" t="n">
-        <v>0.0280780686985591</v>
+        <v>0.0238219188507542</v>
       </c>
       <c r="DK151" t="n">
-        <v>-2.46364329755306</v>
+        <v>-2.3452802980375</v>
       </c>
       <c r="DL151" t="n">
-        <v>0.305671975016594</v>
+        <v>0.310099372550815</v>
       </c>
       <c r="DM151" t="n">
-        <v>1.74093183875084</v>
+        <v>1.73833555764606</v>
       </c>
       <c r="DN151"/>
       <c r="DO151" t="n">
-        <v>562.339848883984</v>
+        <v>550</v>
       </c>
       <c r="DP151"/>
       <c r="DQ151" t="n">
-        <v>292.909275937107</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR151"/>
       <c r="DS151"/>
@@ -34923,24 +34839,24 @@
       </c>
       <c r="DI152"/>
       <c r="DJ152" t="n">
-        <v>0.0187990773459712</v>
+        <v>0.0150313589182853</v>
       </c>
       <c r="DK152" t="n">
-        <v>-3.06362268328667</v>
+        <v>-0.532743036746979</v>
       </c>
       <c r="DL152" t="n">
-        <v>0.266092762351036</v>
+        <v>0.268755897879601</v>
       </c>
       <c r="DM152" t="n">
-        <v>0.372312486171722</v>
+        <v>0.366762042045593</v>
       </c>
       <c r="DN152"/>
       <c r="DO152" t="n">
-        <v>687.090983443747</v>
+        <v>650</v>
       </c>
       <c r="DP152"/>
       <c r="DQ152" t="n">
-        <v>320.418653876992</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR152"/>
       <c r="DS152"/>
@@ -35205,24 +35121,24 @@
       </c>
       <c r="DI153"/>
       <c r="DJ153" t="n">
-        <v>0.0104151225993852</v>
+        <v>0.00866901871595382</v>
       </c>
       <c r="DK153" t="n">
-        <v>-1.94622182101011</v>
+        <v>1.84643415877584</v>
       </c>
       <c r="DL153" t="n">
-        <v>0.279612183570862</v>
+        <v>0.279572405871715</v>
       </c>
       <c r="DM153" t="n">
-        <v>9.6422216296196</v>
+        <v>9.61077695708677</v>
       </c>
       <c r="DN153"/>
       <c r="DO153" t="n">
-        <v>458.268104192626</v>
+        <v>419.999980926514</v>
       </c>
       <c r="DP153"/>
       <c r="DQ153" t="n">
-        <v>237.593507941651</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR153"/>
       <c r="DS153"/>
@@ -35463,24 +35379,24 @@
       </c>
       <c r="DI154"/>
       <c r="DJ154" t="n">
-        <v>0.0127494997209555</v>
+        <v>0.0103893384992221</v>
       </c>
       <c r="DK154" t="n">
-        <v>2.37701027938434</v>
+        <v>2.36283951671794</v>
       </c>
       <c r="DL154" t="n">
-        <v>0.476356968389844</v>
+        <v>0.444145461702806</v>
       </c>
       <c r="DM154" t="n">
-        <v>0.854160653389245</v>
+        <v>0.863201217567874</v>
       </c>
       <c r="DN154"/>
       <c r="DO154" t="n">
-        <v>833.280202411382</v>
+        <v>800</v>
       </c>
       <c r="DP154"/>
       <c r="DQ154" t="n">
-        <v>343.41861235892</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR154"/>
       <c r="DS154"/>
@@ -35757,24 +35673,24 @@
       </c>
       <c r="DI155"/>
       <c r="DJ155" t="n">
-        <v>0.0269508153073263</v>
+        <v>0.0223321900014739</v>
       </c>
       <c r="DK155" t="n">
-        <v>-7.25912755727768</v>
+        <v>-5.76793159544468</v>
       </c>
       <c r="DL155" t="n">
-        <v>0.305144011974335</v>
+        <v>0.195369839668274</v>
       </c>
       <c r="DM155" t="n">
-        <v>3.29739858210087</v>
+        <v>3.30391773581505</v>
       </c>
       <c r="DN155"/>
       <c r="DO155" t="n">
-        <v>624.886158335465</v>
+        <v>600</v>
       </c>
       <c r="DP155"/>
       <c r="DQ155" t="n">
-        <v>291.920317892626</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR155"/>
       <c r="DS155"/>
@@ -36039,24 +35955,24 @@
       </c>
       <c r="DI156"/>
       <c r="DJ156" t="n">
-        <v>0.0388932378332872</v>
+        <v>0.0324111649650554</v>
       </c>
       <c r="DK156" t="n">
-        <v>-6.93212763309664</v>
+        <v>-7.91814976511862</v>
       </c>
       <c r="DL156" t="n">
-        <v>0.300975718468935</v>
+        <v>0.384752183572773</v>
       </c>
       <c r="DM156" t="n">
-        <v>7.82011667521427</v>
+        <v>7.8216208847687</v>
       </c>
       <c r="DN156"/>
       <c r="DO156" t="n">
-        <v>548.314488471008</v>
+        <v>530.000019073486</v>
       </c>
       <c r="DP156"/>
       <c r="DQ156" t="n">
-        <v>310.516989090395</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR156"/>
       <c r="DS156"/>
@@ -36701,24 +36617,24 @@
       <c r="DH159"/>
       <c r="DI159"/>
       <c r="DJ159" t="n">
-        <v>0.0334287579985536</v>
+        <v>0.0359160998994512</v>
       </c>
       <c r="DK159" t="n">
-        <v>-2.31572516262531</v>
+        <v>-2.11016289391998</v>
       </c>
       <c r="DL159" t="n">
-        <v>0.348280027508736</v>
+        <v>0.349549238890699</v>
       </c>
       <c r="DM159" t="n">
-        <v>12.2487659603357</v>
+        <v>13.0482686452792</v>
       </c>
       <c r="DN159"/>
       <c r="DO159" t="n">
-        <v>436.800002257029</v>
+        <v>409.999990463257</v>
       </c>
       <c r="DP159"/>
       <c r="DQ159" t="n">
-        <v>168.067620072</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR159"/>
       <c r="DS159"/>
@@ -36923,13 +36839,9 @@
         <v>0.971921495752767</v>
       </c>
       <c r="DN160"/>
-      <c r="DO160" t="n">
-        <v>1143.92856870379</v>
-      </c>
+      <c r="DO160"/>
       <c r="DP160"/>
-      <c r="DQ160" t="n">
-        <v>254.6479092</v>
-      </c>
+      <c r="DQ160"/>
       <c r="DR160"/>
       <c r="DS160"/>
       <c r="DT160"/>
@@ -37309,24 +37221,24 @@
       </c>
       <c r="DI162"/>
       <c r="DJ162" t="n">
-        <v>0.0138662989161502</v>
+        <v>0.0121732308721915</v>
       </c>
       <c r="DK162" t="n">
-        <v>-3.46154919266701</v>
+        <v>-3.42107482785887</v>
       </c>
       <c r="DL162" t="n">
-        <v>0.294603556394577</v>
+        <v>0.285381045551199</v>
       </c>
       <c r="DM162" t="n">
-        <v>1.5757187306881</v>
+        <v>1.57465294065104</v>
       </c>
       <c r="DN162"/>
       <c r="DO162" t="n">
-        <v>951.933807983212</v>
+        <v>950</v>
       </c>
       <c r="DP162"/>
       <c r="DQ162" t="n">
-        <v>250.393648187112</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR162"/>
       <c r="DS162"/>
@@ -37563,24 +37475,24 @@
       </c>
       <c r="DI163"/>
       <c r="DJ163" t="n">
-        <v>0.00963810883532457</v>
+        <v>0.00862252055515711</v>
       </c>
       <c r="DK163" t="n">
-        <v>-1.6890715899359</v>
+        <v>-1.15574391627464</v>
       </c>
       <c r="DL163" t="n">
-        <v>0.299630697823599</v>
+        <v>0.317875831916639</v>
       </c>
       <c r="DM163" t="n">
-        <v>0.291655128259034</v>
+        <v>0.280037375060317</v>
       </c>
       <c r="DN163"/>
       <c r="DO163" t="n">
-        <v>676.400597710246</v>
+        <v>650</v>
       </c>
       <c r="DP163"/>
       <c r="DQ163" t="n">
-        <v>195.268127682511</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR163"/>
       <c r="DS163"/>
@@ -37805,24 +37717,24 @@
       </c>
       <c r="DI164"/>
       <c r="DJ164" t="n">
-        <v>0.0516971523444665</v>
+        <v>0.0305242070741552</v>
       </c>
       <c r="DK164" t="n">
-        <v>-5.80735539644957</v>
+        <v>-4.37238588184118</v>
       </c>
       <c r="DL164" t="n">
-        <v>0.409429058432579</v>
+        <v>0.438662484288216</v>
       </c>
       <c r="DM164" t="n">
-        <v>0.691819652915001</v>
+        <v>0.0394219309091568</v>
       </c>
       <c r="DN164"/>
       <c r="DO164" t="n">
-        <v>781.981481161628</v>
+        <v>783.333333333333</v>
       </c>
       <c r="DP164"/>
       <c r="DQ164" t="n">
-        <v>309.664432792593</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR164"/>
       <c r="DS164"/>
@@ -38003,24 +37915,24 @@
       <c r="DH165"/>
       <c r="DI165"/>
       <c r="DJ165" t="n">
-        <v>0.0360058745801175</v>
+        <v>0.00566036431545169</v>
       </c>
       <c r="DK165" t="n">
-        <v>7.13281340897083</v>
+        <v>-5.41740728542209</v>
       </c>
       <c r="DL165" t="n">
-        <v>0.789914414286613</v>
+        <v>0.774803696997783</v>
       </c>
       <c r="DM165" t="n">
-        <v>5.60911905765533</v>
+        <v>5.84233545609209</v>
       </c>
       <c r="DN165"/>
       <c r="DO165" t="n">
-        <v>602.381676901643</v>
+        <v>600</v>
       </c>
       <c r="DP165"/>
       <c r="DQ165" t="n">
-        <v>204.489987690909</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR165"/>
       <c r="DS165"/>
@@ -38295,13 +38207,9 @@
         <v>1.03965324818082</v>
       </c>
       <c r="DN166"/>
-      <c r="DO166" t="n">
-        <v>640.663264965524</v>
-      </c>
+      <c r="DO166"/>
       <c r="DP166"/>
-      <c r="DQ166" t="n">
-        <v>200.080500085714</v>
-      </c>
+      <c r="DQ166"/>
       <c r="DR166"/>
       <c r="DS166"/>
       <c r="DT166"/>
@@ -38847,24 +38755,24 @@
       </c>
       <c r="DI168"/>
       <c r="DJ168" t="n">
-        <v>0.0318134639275069</v>
+        <v>0.0254755878233386</v>
       </c>
       <c r="DK168" t="n">
-        <v>-0.389672145247459</v>
+        <v>-6.14211704243434</v>
       </c>
       <c r="DL168" t="n">
-        <v>0.304828748106956</v>
+        <v>0.223643492612222</v>
       </c>
       <c r="DM168" t="n">
-        <v>0.689980939030647</v>
+        <v>1.01144893788057</v>
       </c>
       <c r="DN168"/>
       <c r="DO168" t="n">
-        <v>530.447375281681</v>
+        <v>509.999990463257</v>
       </c>
       <c r="DP168"/>
       <c r="DQ168" t="n">
-        <v>292.103343124218</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR168"/>
       <c r="DS168"/>
@@ -39423,24 +39331,24 @@
       </c>
       <c r="DI170"/>
       <c r="DJ170" t="n">
-        <v>0.0364765631921877</v>
+        <v>0.0301025070790123</v>
       </c>
       <c r="DK170" t="n">
-        <v>-3.38607926134766</v>
+        <v>-4.31240062736254</v>
       </c>
       <c r="DL170" t="n">
-        <v>0.158067022443214</v>
+        <v>0.248322062892839</v>
       </c>
       <c r="DM170" t="n">
-        <v>0.00994145363810182</v>
+        <v>0.227770221491519</v>
       </c>
       <c r="DN170"/>
       <c r="DO170" t="n">
-        <v>472.362921427596</v>
+        <v>450</v>
       </c>
       <c r="DP170"/>
       <c r="DQ170" t="n">
-        <v>352.266810794962</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR170"/>
       <c r="DS170"/>
@@ -39971,24 +39879,24 @@
       </c>
       <c r="DI172"/>
       <c r="DJ172" t="n">
-        <v>0.0184198587166635</v>
+        <v>0.0154247172667081</v>
       </c>
       <c r="DK172" t="n">
-        <v>-2.4701883494854</v>
+        <v>-2.62620810665723</v>
       </c>
       <c r="DL172" t="n">
-        <v>0.306559354066849</v>
+        <v>0.33239573231599</v>
       </c>
       <c r="DM172" t="n">
-        <v>2.67355558276176</v>
+        <v>2.680842301909</v>
       </c>
       <c r="DN172"/>
       <c r="DO172" t="n">
-        <v>660.600781237444</v>
+        <v>650</v>
       </c>
       <c r="DP172"/>
       <c r="DQ172" t="n">
-        <v>276.990167618182</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR172"/>
       <c r="DS172"/>
@@ -40277,24 +40185,24 @@
       </c>
       <c r="DI173"/>
       <c r="DJ173" t="n">
-        <v>0.0329773056133031</v>
+        <v>0.029332925523777</v>
       </c>
       <c r="DK173" t="n">
-        <v>-2.94574235379696</v>
+        <v>-3.02092315629125</v>
       </c>
       <c r="DL173" t="n">
-        <v>0.301288262009621</v>
+        <v>0.348350004203071</v>
       </c>
       <c r="DM173" t="n">
-        <v>0.838411897420883</v>
+        <v>0.827530351226456</v>
       </c>
       <c r="DN173"/>
       <c r="DO173" t="n">
-        <v>616.67619616544</v>
+        <v>605.499999523163</v>
       </c>
       <c r="DP173"/>
       <c r="DQ173" t="n">
-        <v>246.124570090413</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR173"/>
       <c r="DS173"/>
@@ -40559,24 +40467,24 @@
       </c>
       <c r="DI174"/>
       <c r="DJ174" t="n">
-        <v>0.0387282305048232</v>
+        <v>0.0324381600939382</v>
       </c>
       <c r="DK174" t="n">
-        <v>-1.376549936831</v>
+        <v>-3.39255475259523</v>
       </c>
       <c r="DL174" t="n">
-        <v>0.305111904969463</v>
+        <v>0.266539300675502</v>
       </c>
       <c r="DM174" t="n">
-        <v>0.365059542388205</v>
+        <v>0.371677364025556</v>
       </c>
       <c r="DN174"/>
       <c r="DO174" t="n">
-        <v>638.635385231734</v>
+        <v>625</v>
       </c>
       <c r="DP174"/>
       <c r="DQ174" t="n">
-        <v>387.568521145055</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR174"/>
       <c r="DS174"/>
@@ -40855,24 +40763,24 @@
       </c>
       <c r="DI175"/>
       <c r="DJ175" t="n">
-        <v>0.0199256707220707</v>
+        <v>0.0165769461917179</v>
       </c>
       <c r="DK175" t="n">
-        <v>-2.76491056572024</v>
+        <v>-5.87567414395948</v>
       </c>
       <c r="DL175" t="n">
-        <v>0.647846935019997</v>
+        <v>0.664215890726072</v>
       </c>
       <c r="DM175" t="n">
-        <v>0.201664297034532</v>
+        <v>0.14056769230412</v>
       </c>
       <c r="DN175"/>
       <c r="DO175" t="n">
-        <v>730.516846516884</v>
+        <v>709.999990463257</v>
       </c>
       <c r="DP175"/>
       <c r="DQ175" t="n">
-        <v>274.695461775222</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR175"/>
       <c r="DS175"/>
@@ -41137,24 +41045,24 @@
       </c>
       <c r="DI176"/>
       <c r="DJ176" t="n">
-        <v>0.0359475542055734</v>
+        <v>0.0300767327180392</v>
       </c>
       <c r="DK176" t="n">
-        <v>4.63270834025371</v>
+        <v>4.66091002523899</v>
       </c>
       <c r="DL176" t="n">
-        <v>1.4209705458929</v>
+        <v>1.38815426826477</v>
       </c>
       <c r="DM176" t="n">
-        <v>4.68651526535463</v>
+        <v>4.76193542778492</v>
       </c>
       <c r="DN176"/>
       <c r="DO176" t="n">
-        <v>970.615080343207</v>
+        <v>977.499997615815</v>
       </c>
       <c r="DP176"/>
       <c r="DQ176" t="n">
-        <v>274.236209907692</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR176"/>
       <c r="DS176"/>
@@ -41443,24 +41351,24 @@
       </c>
       <c r="DI177"/>
       <c r="DJ177" t="n">
-        <v>0.0104165405573488</v>
+        <v>0.00918457464908251</v>
       </c>
       <c r="DK177" t="n">
-        <v>-3.16997919976711</v>
+        <v>1.44537945083811</v>
       </c>
       <c r="DL177" t="n">
-        <v>0.34709258377552</v>
+        <v>0.348142037956667</v>
       </c>
       <c r="DM177" t="n">
-        <v>2.5425950139761</v>
+        <v>2.66911455401401</v>
       </c>
       <c r="DN177"/>
       <c r="DO177" t="n">
-        <v>453.748026173006</v>
+        <v>440.000009536743</v>
       </c>
       <c r="DP177"/>
       <c r="DQ177" t="n">
-        <v>207.034276761937</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR177"/>
       <c r="DS177"/>
@@ -41865,24 +41773,24 @@
       <c r="DH179"/>
       <c r="DI179"/>
       <c r="DJ179" t="n">
-        <v>0.159059884185163</v>
+        <v>0.132839445506982</v>
       </c>
       <c r="DK179" t="n">
-        <v>5.7402575068107</v>
+        <v>6.77007025806233</v>
       </c>
       <c r="DL179" t="n">
-        <v>0.701138232167702</v>
+        <v>0.785003133845396</v>
       </c>
       <c r="DM179" t="n">
-        <v>5.32356060479275</v>
+        <v>4.2198314559865</v>
       </c>
       <c r="DN179"/>
       <c r="DO179" t="n">
-        <v>576.346154009175</v>
+        <v>550</v>
       </c>
       <c r="DP179"/>
       <c r="DQ179" t="n">
-        <v>215.471307784615</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR179"/>
       <c r="DS179"/>
@@ -42707,24 +42615,24 @@
       </c>
       <c r="DI183"/>
       <c r="DJ183" t="n">
-        <v>0.0308017157416822</v>
+        <v>0.0251603238092594</v>
       </c>
       <c r="DK183" t="n">
-        <v>5.61417630220996</v>
+        <v>5.62038053572178</v>
       </c>
       <c r="DL183" t="n">
-        <v>0.925094264610711</v>
+        <v>0.951854586601257</v>
       </c>
       <c r="DM183" t="n">
-        <v>1.5371081648199</v>
+        <v>1.52965302765369</v>
       </c>
       <c r="DN183"/>
       <c r="DO183" t="n">
-        <v>1001.51631302668</v>
+        <v>1000</v>
       </c>
       <c r="DP183"/>
       <c r="DQ183" t="n">
-        <v>296.273048203846</v>
+        <v>254.6479092</v>
       </c>
       <c r="DR183"/>
       <c r="DS183"/>
@@ -43779,24 +43687,24 @@
       </c>
       <c r="DI188"/>
       <c r="DJ188" t="n">
-        <v>0.0161911372440158</v>
+        <v>0.01295683889084</v>
       </c>
       <c r="DK188" t="n">
-        <v>-5.30022653330095</v>
+        <v>-4.69148105470985</v>
       </c>
       <c r="DL188" t="n">
-        <v>0.353197594219528</v>
+        <v>0.371757798478939</v>
       </c>
       <c r="DM188" t="n">
-        <v>0.284135447521755</v>
+        <v>0.294552364866119</v>
       </c>
       <c r="DN188"/>
       <c r="DO188" t="n">
-        <v>782.407695183472</v>
+        <v>769.999980926514</v>
       </c>
       <c r="DP188"/>
       <c r="DQ188" t="n">
-        <v>297.417720574923</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR188"/>
       <c r="DS188"/>
@@ -44401,24 +44309,24 @@
       <c r="DH191"/>
       <c r="DI191"/>
       <c r="DJ191" t="n">
-        <v>0.118339959038363</v>
+        <v>0.0979696501040587</v>
       </c>
       <c r="DK191" t="n">
-        <v>2.971250846982</v>
+        <v>3.04591315984726</v>
       </c>
       <c r="DL191" t="n">
-        <v>0.275032460689545</v>
+        <v>0.268711164593697</v>
       </c>
       <c r="DM191" t="n">
-        <v>21.157757923007</v>
+        <v>21.9490392506123</v>
       </c>
       <c r="DN191"/>
       <c r="DO191" t="n">
-        <v>563.637312401064</v>
+        <v>559.999990463257</v>
       </c>
       <c r="DP191"/>
       <c r="DQ191" t="n">
-        <v>188.369686257534</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR191"/>
       <c r="DS191"/>
@@ -45673,24 +45581,24 @@
       </c>
       <c r="DI198"/>
       <c r="DJ198" t="n">
-        <v>0.0215038885598268</v>
+        <v>0.0191563287288212</v>
       </c>
       <c r="DK198" t="n">
-        <v>-4.5607442642529</v>
+        <v>-5.28033557774418</v>
       </c>
       <c r="DL198" t="n">
-        <v>0.598588566796625</v>
+        <v>0.593476683727581</v>
       </c>
       <c r="DM198" t="n">
-        <v>0.214725158733516</v>
+        <v>0.243678495256162</v>
       </c>
       <c r="DN198"/>
       <c r="DO198" t="n">
-        <v>723.020197793148</v>
+        <v>700</v>
       </c>
       <c r="DP198"/>
       <c r="DQ198" t="n">
-        <v>202.430781751685</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR198"/>
       <c r="DS198"/>
@@ -46245,24 +46153,24 @@
       <c r="DH201"/>
       <c r="DI201"/>
       <c r="DJ201" t="n">
-        <v>0.364682183856828</v>
+        <v>0.299774418069584</v>
       </c>
       <c r="DK201" t="n">
-        <v>-1.80789656192064</v>
+        <v>1.57759910472711</v>
       </c>
       <c r="DL201" t="n">
-        <v>0.296443805098534</v>
+        <v>0.296567676426072</v>
       </c>
       <c r="DM201" t="n">
-        <v>6.55143268406391</v>
+        <v>6.69308248850596</v>
       </c>
       <c r="DN201"/>
       <c r="DO201" t="n">
-        <v>582.020671455398</v>
+        <v>580.000019073486</v>
       </c>
       <c r="DP201"/>
       <c r="DQ201" t="n">
-        <v>481.241387725424</v>
+        <v>381.9718638</v>
       </c>
       <c r="DR201"/>
       <c r="DS201"/>
@@ -46481,13 +46389,9 @@
         <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197718305976818</v>
       </c>
       <c r="DN202"/>
-      <c r="DO202" t="n">
-        <v>520.3125</v>
-      </c>
+      <c r="DO202"/>
       <c r="DP202"/>
-      <c r="DQ202" t="n">
-        <v>190.9859319</v>
-      </c>
+      <c r="DQ202"/>
       <c r="DR202"/>
       <c r="DS202"/>
       <c r="DT202"/>
@@ -47849,24 +47753,24 @@
       </c>
       <c r="DI209"/>
       <c r="DJ209" t="n">
-        <v>0.0275633147828515</v>
+        <v>0.0241738789506617</v>
       </c>
       <c r="DK209" t="n">
-        <v>0.0993090973609493</v>
+        <v>-0.247264329438897</v>
       </c>
       <c r="DL209" t="n">
-        <v>0.248312828789706</v>
+        <v>0.426300001849051</v>
       </c>
       <c r="DM209" t="n">
-        <v>1.44970656716884</v>
+        <v>1.54912557596314</v>
       </c>
       <c r="DN209"/>
       <c r="DO209" t="n">
-        <v>807.655170731161</v>
+        <v>797.500002384186</v>
       </c>
       <c r="DP209"/>
       <c r="DQ209" t="n">
-        <v>188.790691303448</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR209"/>
       <c r="DS209"/>
@@ -48261,24 +48165,24 @@
       </c>
       <c r="DI211"/>
       <c r="DJ211" t="n">
-        <v>0.0147257505758747</v>
+        <v>0.0113311745991176</v>
       </c>
       <c r="DK211" t="n">
-        <v>1.17214065790176</v>
+        <v>0.323377775595992</v>
       </c>
       <c r="DL211" t="n">
-        <v>0.351067021489143</v>
+        <v>0.386199493280522</v>
       </c>
       <c r="DM211" t="n">
-        <v>0.308405116200447</v>
+        <v>0.303647044574441</v>
       </c>
       <c r="DN211"/>
       <c r="DO211" t="n">
-        <v>769.10357348427</v>
+        <v>750</v>
       </c>
       <c r="DP211"/>
       <c r="DQ211" t="n">
-        <v>225.653345281188</v>
+        <v>127.3239546</v>
       </c>
       <c r="DR211"/>
       <c r="DS211"/>
@@ -49055,13 +48959,9 @@
       <c r="DL215"/>
       <c r="DM215"/>
       <c r="DN215"/>
-      <c r="DO215" t="n">
-        <v>565.166666507721</v>
-      </c>
+      <c r="DO215"/>
       <c r="DP215"/>
-      <c r="DQ215" t="n">
-        <v>381.9718638</v>
-      </c>
+      <c r="DQ215"/>
       <c r="DR215"/>
       <c r="DS215"/>
       <c r="DT215"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3589,24 +3589,24 @@
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.02976727911809</v>
+        <v>0.0298142984807939</v>
       </c>
       <c r="DK2" t="n">
-        <v>-7.53433964351565</v>
+        <v>-6.46154014359533</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.59956682707088</v>
+        <v>0.863092982546476</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.247845048291409</v>
+        <v>0.247810632951656</v>
       </c>
       <c r="DN2"/>
       <c r="DO2" t="n">
-        <v>669.999980926514</v>
+        <v>683.378855316643</v>
       </c>
       <c r="DP2"/>
       <c r="DQ2" t="n">
-        <v>127.3239546</v>
+        <v>260.008917814737</v>
       </c>
       <c r="DR2"/>
       <c r="DS2"/>
@@ -4071,24 +4071,24 @@
       </c>
       <c r="DI4"/>
       <c r="DJ4" t="n">
-        <v>0.062283892336653</v>
+        <v>0.0621446026289175</v>
       </c>
       <c r="DK4" t="n">
-        <v>4.66031232685469</v>
+        <v>-2.47776103117936</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.525756539918418</v>
+        <v>0.591436393101183</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.789812364617237</v>
+        <v>0.830911281402262</v>
       </c>
       <c r="DN4"/>
       <c r="DO4" t="n">
-        <v>900</v>
+        <v>921.885180491361</v>
       </c>
       <c r="DP4"/>
       <c r="DQ4" t="n">
-        <v>254.6479092</v>
+        <v>416.435490609023</v>
       </c>
       <c r="DR4"/>
       <c r="DS4"/>
@@ -4339,24 +4339,24 @@
       </c>
       <c r="DI5"/>
       <c r="DJ5" t="n">
-        <v>0.0150998047569151</v>
+        <v>0.0145758639599726</v>
       </c>
       <c r="DK5" t="n">
-        <v>-2.04942534331093</v>
+        <v>-4.47452486006559</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.276592630867522</v>
+        <v>0.249308342127631</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.557948459858723</v>
+        <v>0.554756822453677</v>
       </c>
       <c r="DN5"/>
       <c r="DO5" t="n">
-        <v>750</v>
+        <v>775.126032752014</v>
       </c>
       <c r="DP5"/>
       <c r="DQ5" t="n">
-        <v>127.3239546</v>
+        <v>206.959300749818</v>
       </c>
       <c r="DR5"/>
       <c r="DS5"/>
@@ -4607,24 +4607,24 @@
       </c>
       <c r="DI6"/>
       <c r="DJ6" t="n">
-        <v>0.0210703812378987</v>
+        <v>0.0214120108744835</v>
       </c>
       <c r="DK6" t="n">
-        <v>-4.43817362042419</v>
+        <v>-4.65240520835437</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.406675060488587</v>
+        <v>0.404943477978263</v>
       </c>
       <c r="DM6" t="n">
-        <v>5.3588431830595</v>
+        <v>5.40290658936912</v>
       </c>
       <c r="DN6"/>
       <c r="DO6" t="n">
-        <v>619.9999888738</v>
+        <v>658.171428884779</v>
       </c>
       <c r="DP6"/>
       <c r="DQ6" t="n">
-        <v>127.3239546</v>
+        <v>193.714302355714</v>
       </c>
       <c r="DR6"/>
       <c r="DS6"/>
@@ -5135,24 +5135,24 @@
       </c>
       <c r="DI8"/>
       <c r="DJ8" t="n">
-        <v>0.0204246383210002</v>
+        <v>0.0202229078595244</v>
       </c>
       <c r="DK8" t="n">
-        <v>-2.45253644171237</v>
+        <v>-3.64060067973184</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.209930995926757</v>
+        <v>0.320190746640108</v>
       </c>
       <c r="DM8" t="n">
-        <v>3.45142867202192</v>
+        <v>3.45363624708095</v>
       </c>
       <c r="DN8"/>
       <c r="DO8" t="n">
-        <v>750</v>
+        <v>767.021740603398</v>
       </c>
       <c r="DP8"/>
       <c r="DQ8" t="n">
-        <v>127.3239546</v>
+        <v>204.03466016646</v>
       </c>
       <c r="DR8"/>
       <c r="DS8"/>
@@ -5663,24 +5663,24 @@
       </c>
       <c r="DI10"/>
       <c r="DJ10" t="n">
-        <v>0.0133981093928226</v>
+        <v>0.0152515317360569</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.608028388997257</v>
+        <v>0.504632286603486</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.668627252164795</v>
+        <v>0.696852472804627</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.65340055157437</v>
+        <v>1.53579782606586</v>
       </c>
       <c r="DN10"/>
       <c r="DO10" t="n">
-        <v>900</v>
+        <v>918.039804287811</v>
       </c>
       <c r="DP10"/>
       <c r="DQ10" t="n">
-        <v>127.3239546</v>
+        <v>188.135395602985</v>
       </c>
       <c r="DR10"/>
       <c r="DS10"/>
@@ -6265,24 +6265,24 @@
       </c>
       <c r="DI13"/>
       <c r="DJ13" t="n">
-        <v>0.0105023095006861</v>
+        <v>0.00838699974238455</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0.504660539876951</v>
+        <v>-1.2482670597319</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.326787410375571</v>
+        <v>0.334373183095578</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.984881452043608</v>
+        <v>0.10194331597786</v>
       </c>
       <c r="DN13"/>
       <c r="DO13" t="n">
-        <v>850</v>
+        <v>898.835348950259</v>
       </c>
       <c r="DP13"/>
       <c r="DQ13" t="n">
-        <v>127.3239546</v>
+        <v>319.064771606324</v>
       </c>
       <c r="DR13"/>
       <c r="DS13"/>
@@ -7783,24 +7783,24 @@
       </c>
       <c r="DI21"/>
       <c r="DJ21" t="n">
-        <v>0.0514958919359428</v>
+        <v>0.0514958475099265</v>
       </c>
       <c r="DK21" t="n">
-        <v>-4.22339440137148</v>
+        <v>-2.54665958881378</v>
       </c>
       <c r="DL21" t="n">
-        <v>0.275696709752083</v>
+        <v>0.281488433480263</v>
       </c>
       <c r="DM21" t="n">
-        <v>0.149565011262894</v>
+        <v>0.149857714772224</v>
       </c>
       <c r="DN21"/>
       <c r="DO21" t="n">
-        <v>500</v>
+        <v>508.728059567779</v>
       </c>
       <c r="DP21"/>
       <c r="DQ21" t="n">
-        <v>254.6479092</v>
+        <v>288.811069295644</v>
       </c>
       <c r="DR21"/>
       <c r="DS21"/>
@@ -9265,24 +9265,24 @@
       </c>
       <c r="DI28"/>
       <c r="DJ28" t="n">
-        <v>0.0180382022582474</v>
+        <v>0.0184868780652464</v>
       </c>
       <c r="DK28" t="n">
-        <v>-7.31729405699298</v>
+        <v>-5.89479622244835</v>
       </c>
       <c r="DL28" t="n">
-        <v>0.394711778535551</v>
+        <v>0.588458240032196</v>
       </c>
       <c r="DM28" t="n">
-        <v>0.5486080338605</v>
+        <v>0.752204731106758</v>
       </c>
       <c r="DN28"/>
       <c r="DO28" t="n">
-        <v>900</v>
+        <v>905.827324480683</v>
       </c>
       <c r="DP28"/>
       <c r="DQ28" t="n">
-        <v>254.6479092</v>
+        <v>336.061784016346</v>
       </c>
       <c r="DR28"/>
       <c r="DS28"/>
@@ -9677,24 +9677,24 @@
       <c r="DH30"/>
       <c r="DI30"/>
       <c r="DJ30" t="n">
-        <v>0.032079529798492</v>
+        <v>0.0324234241960064</v>
       </c>
       <c r="DK30" t="n">
-        <v>-0.494700238108635</v>
+        <v>-0.529346758931107</v>
       </c>
       <c r="DL30" t="n">
-        <v>0.67693592607975</v>
+        <v>0.676022112645934</v>
       </c>
       <c r="DM30" t="n">
-        <v>6.89330780506134</v>
+        <v>6.85390983206517</v>
       </c>
       <c r="DN30"/>
       <c r="DO30" t="n">
-        <v>500</v>
+        <v>525.368055038982</v>
       </c>
       <c r="DP30"/>
       <c r="DQ30" t="n">
-        <v>127.3239546</v>
+        <v>199.47419554</v>
       </c>
       <c r="DR30"/>
       <c r="DS30"/>
@@ -10517,24 +10517,24 @@
       </c>
       <c r="DI34"/>
       <c r="DJ34" t="n">
-        <v>0.0190067541137909</v>
+        <v>0.0194348646956444</v>
       </c>
       <c r="DK34" t="n">
-        <v>-1.16216024756432</v>
+        <v>-1.35103031519382</v>
       </c>
       <c r="DL34" t="n">
-        <v>0.519114285707474</v>
+        <v>0.519187324008431</v>
       </c>
       <c r="DM34" t="n">
-        <v>0.659772843122482</v>
+        <v>0.655819477310647</v>
       </c>
       <c r="DN34"/>
       <c r="DO34" t="n">
-        <v>810.000038146973</v>
+        <v>827.155552143589</v>
       </c>
       <c r="DP34"/>
       <c r="DQ34" t="n">
-        <v>254.6479092</v>
+        <v>366.865631898305</v>
       </c>
       <c r="DR34"/>
       <c r="DS34"/>
@@ -11147,24 +11147,24 @@
       </c>
       <c r="DI37"/>
       <c r="DJ37" t="n">
-        <v>0.248775528761805</v>
+        <v>0.30911569685402</v>
       </c>
       <c r="DK37" t="n">
-        <v>-2.51773835718632</v>
+        <v>12.8403218388557</v>
       </c>
       <c r="DL37" t="n">
-        <v>1.42656588554382</v>
+        <v>0.109745845198631</v>
       </c>
       <c r="DM37" t="n">
-        <v>6.78385546803474</v>
+        <v>6.762521058321</v>
       </c>
       <c r="DN37"/>
       <c r="DO37" t="n">
-        <v>400</v>
+        <v>393.135962203929</v>
       </c>
       <c r="DP37"/>
       <c r="DQ37" t="n">
-        <v>127.3239546</v>
+        <v>177.583410363158</v>
       </c>
       <c r="DR37"/>
       <c r="DS37"/>
@@ -15839,24 +15839,24 @@
       </c>
       <c r="DI60"/>
       <c r="DJ60" t="n">
-        <v>0.0691604444543038</v>
+        <v>0.0680426952240041</v>
       </c>
       <c r="DK60" t="n">
-        <v>-4.09947427175773</v>
+        <v>-3.08888929337263</v>
       </c>
       <c r="DL60" t="n">
-        <v>0.349379782373344</v>
+        <v>0.463548824191093</v>
       </c>
       <c r="DM60" t="n">
-        <v>0.0437215179168518</v>
+        <v>0.0439898520708084</v>
       </c>
       <c r="DN60"/>
       <c r="DO60" t="n">
-        <v>707.738095238095</v>
+        <v>720.428024859551</v>
       </c>
       <c r="DP60"/>
       <c r="DQ60" t="n">
-        <v>254.6479092</v>
+        <v>386.970725758891</v>
       </c>
       <c r="DR60"/>
       <c r="DS60"/>
@@ -16245,24 +16245,24 @@
       </c>
       <c r="DI62"/>
       <c r="DJ62" t="n">
-        <v>0.0265032370145895</v>
+        <v>0.0257729944320724</v>
       </c>
       <c r="DK62" t="n">
-        <v>-0.19170716061088</v>
+        <v>-0.141948686231876</v>
       </c>
       <c r="DL62" t="n">
-        <v>0.450236392087196</v>
+        <v>0.441048019959813</v>
       </c>
       <c r="DM62" t="n">
-        <v>0.619775425358949</v>
+        <v>1.55402537290921</v>
       </c>
       <c r="DN62"/>
       <c r="DO62" t="n">
-        <v>580.000019073486</v>
+        <v>586.043953143836</v>
       </c>
       <c r="DP62"/>
       <c r="DQ62" t="n">
-        <v>127.3239546</v>
+        <v>212.409902703952</v>
       </c>
       <c r="DR62"/>
       <c r="DS62"/>
@@ -16457,24 +16457,24 @@
       <c r="DH63"/>
       <c r="DI63"/>
       <c r="DJ63" t="n">
-        <v>0.0545404994682654</v>
+        <v>0.0456499889627909</v>
       </c>
       <c r="DK63" t="n">
-        <v>1.0942262406088</v>
+        <v>1.07954611182413</v>
       </c>
       <c r="DL63" t="n">
-        <v>0.208637565982125</v>
+        <v>0.187721471364534</v>
       </c>
       <c r="DM63" t="n">
-        <v>0.48678828170523</v>
+        <v>0.686134964296669</v>
       </c>
       <c r="DN63"/>
       <c r="DO63" t="n">
-        <v>554.999995231629</v>
+        <v>557.630951844511</v>
       </c>
       <c r="DP63"/>
       <c r="DQ63" t="n">
-        <v>254.6479092</v>
+        <v>245.098612605</v>
       </c>
       <c r="DR63"/>
       <c r="DS63"/>
@@ -20761,24 +20761,24 @@
       </c>
       <c r="DI85"/>
       <c r="DJ85" t="n">
-        <v>0.0654125879700007</v>
+        <v>0.0602015372586546</v>
       </c>
       <c r="DK85" t="n">
-        <v>5.96203147775183</v>
+        <v>5.85238097773658</v>
       </c>
       <c r="DL85" t="n">
-        <v>0.728177442681044</v>
+        <v>0.813042945331997</v>
       </c>
       <c r="DM85" t="n">
-        <v>14.2893380778842</v>
+        <v>14.0762721580086</v>
       </c>
       <c r="DN85"/>
       <c r="DO85" t="n">
-        <v>569.999980926514</v>
+        <v>596.925170528368</v>
       </c>
       <c r="DP85"/>
       <c r="DQ85" t="n">
-        <v>381.9718638</v>
+        <v>534.397690684561</v>
       </c>
       <c r="DR85"/>
       <c r="DS85"/>
@@ -23083,24 +23083,24 @@
       </c>
       <c r="DI96"/>
       <c r="DJ96" t="n">
-        <v>0.0510717414504112</v>
+        <v>0.0509574358704347</v>
       </c>
       <c r="DK96" t="n">
-        <v>-1.51709276872201</v>
+        <v>-2.92839793024366</v>
       </c>
       <c r="DL96" t="n">
-        <v>0.167141459329319</v>
+        <v>0.25147865763057</v>
       </c>
       <c r="DM96" t="n">
-        <v>0.0547284416249325</v>
+        <v>0.0578310806304216</v>
       </c>
       <c r="DN96"/>
       <c r="DO96" t="n">
-        <v>1200</v>
+        <v>1192.50261432068</v>
       </c>
       <c r="DP96"/>
       <c r="DQ96" t="n">
-        <v>254.6479092</v>
+        <v>418.392027690649</v>
       </c>
       <c r="DR96"/>
       <c r="DS96"/>
@@ -23769,24 +23769,24 @@
       </c>
       <c r="DI99"/>
       <c r="DJ99" t="n">
-        <v>0.0192384704436053</v>
+        <v>0.0191547572464035</v>
       </c>
       <c r="DK99" t="n">
-        <v>-4.66527874011454</v>
+        <v>-5.17585282161021</v>
       </c>
       <c r="DL99" t="n">
-        <v>0.31227915775763</v>
+        <v>0.371735910877415</v>
       </c>
       <c r="DM99" t="n">
-        <v>0.19357019663324</v>
+        <v>0.557950544798095</v>
       </c>
       <c r="DN99"/>
       <c r="DO99" t="n">
-        <v>840.000009536743</v>
+        <v>847.500653512742</v>
       </c>
       <c r="DP99"/>
       <c r="DQ99" t="n">
-        <v>127.3239546</v>
+        <v>307.083547583831</v>
       </c>
       <c r="DR99"/>
       <c r="DS99"/>
@@ -23983,24 +23983,24 @@
       <c r="DH100"/>
       <c r="DI100"/>
       <c r="DJ100" t="n">
-        <v>0.00048586338288481</v>
+        <v>0.000395218499815608</v>
       </c>
       <c r="DK100" t="n">
-        <v>12.1821013987064</v>
+        <v>14.2145233938216</v>
       </c>
       <c r="DL100" t="n">
-        <v>1.17418090999126</v>
+        <v>1.17751001806858</v>
       </c>
       <c r="DM100" t="n">
-        <v>26.8025541454554</v>
+        <v>9.11394618849501</v>
       </c>
       <c r="DN100"/>
       <c r="DO100" t="n">
-        <v>467.499995231629</v>
+        <v>511.280993415304</v>
       </c>
       <c r="DP100"/>
       <c r="DQ100" t="n">
-        <v>254.6479092</v>
+        <v>324.097338981818</v>
       </c>
       <c r="DR100"/>
       <c r="DS100"/>
@@ -24181,24 +24181,24 @@
       <c r="DH101"/>
       <c r="DI101"/>
       <c r="DJ101" t="n">
-        <v>0.0579351438082764</v>
+        <v>0.0579351672708783</v>
       </c>
       <c r="DK101" t="n">
-        <v>-1.1233935624361</v>
+        <v>-0.560313326120377</v>
       </c>
       <c r="DL101" t="n">
-        <v>0.479602319002152</v>
+        <v>0.574905747175217</v>
       </c>
       <c r="DM101" t="n">
-        <v>11.9647307753563</v>
+        <v>11.7182671576738</v>
       </c>
       <c r="DN101"/>
       <c r="DO101" t="n">
-        <v>654.999995231629</v>
+        <v>653.009257272438</v>
       </c>
       <c r="DP101"/>
       <c r="DQ101" t="n">
-        <v>127.3239546</v>
+        <v>190.9859319</v>
       </c>
       <c r="DR101"/>
       <c r="DS101"/>
@@ -24421,24 +24421,24 @@
       </c>
       <c r="DI102"/>
       <c r="DJ102" t="n">
-        <v>0.0137312039960974</v>
+        <v>0.0133287228143887</v>
       </c>
       <c r="DK102" t="n">
-        <v>-2.25436487793922</v>
+        <v>-3.07129081964237</v>
       </c>
       <c r="DL102" t="n">
-        <v>0.212207213044167</v>
+        <v>0.277200528478726</v>
       </c>
       <c r="DM102" t="n">
-        <v>0.128788873553276</v>
+        <v>0.156347986777374</v>
       </c>
       <c r="DN102"/>
       <c r="DO102" t="n">
-        <v>850</v>
+        <v>885.981831434435</v>
       </c>
       <c r="DP102"/>
       <c r="DQ102" t="n">
-        <v>127.3239546</v>
+        <v>210.113073061883</v>
       </c>
       <c r="DR102"/>
       <c r="DS102"/>
@@ -26553,24 +26553,24 @@
       </c>
       <c r="DI113"/>
       <c r="DJ113" t="n">
-        <v>0.0293599760645195</v>
+        <v>0.0301695646707945</v>
       </c>
       <c r="DK113" t="n">
-        <v>-3.85394444222887</v>
+        <v>-3.29703020612278</v>
       </c>
       <c r="DL113" t="n">
-        <v>0.402800692810626</v>
+        <v>0.372887855475388</v>
       </c>
       <c r="DM113" t="n">
-        <v>0.191139598820674</v>
+        <v>0.186560409351641</v>
       </c>
       <c r="DN113"/>
       <c r="DO113" t="n">
-        <v>611.249999205271</v>
+        <v>642.349923373607</v>
       </c>
       <c r="DP113"/>
       <c r="DQ113" t="n">
-        <v>127.3239546</v>
+        <v>299.2483060875</v>
       </c>
       <c r="DR113"/>
       <c r="DS113"/>
@@ -27419,24 +27419,24 @@
       </c>
       <c r="DI117"/>
       <c r="DJ117" t="n">
-        <v>0.013769194574801</v>
+        <v>0.0111191961725787</v>
       </c>
       <c r="DK117" t="n">
-        <v>-2.11169969760432</v>
+        <v>-1.83089040606176</v>
       </c>
       <c r="DL117" t="n">
-        <v>0.369101120985576</v>
+        <v>0.363635894168008</v>
       </c>
       <c r="DM117" t="n">
-        <v>1.42982643154864</v>
+        <v>1.45532735517244</v>
       </c>
       <c r="DN117"/>
       <c r="DO117" t="n">
-        <v>419.999980926514</v>
+        <v>419.439244567859</v>
       </c>
       <c r="DP117"/>
       <c r="DQ117" t="n">
-        <v>127.3239546</v>
+        <v>156.17568815468</v>
       </c>
       <c r="DR117"/>
       <c r="DS117"/>
@@ -27671,24 +27671,24 @@
       </c>
       <c r="DI118"/>
       <c r="DJ118" t="n">
-        <v>0.0173895206382718</v>
+        <v>0.0172825239092117</v>
       </c>
       <c r="DK118" t="n">
-        <v>0.40886789560318</v>
+        <v>0.409328348835495</v>
       </c>
       <c r="DL118" t="n">
-        <v>0.186026148498058</v>
+        <v>0.278607652867434</v>
       </c>
       <c r="DM118" t="n">
-        <v>7.97729961574078</v>
+        <v>8.24964504753834</v>
       </c>
       <c r="DN118"/>
       <c r="DO118" t="n">
-        <v>400</v>
+        <v>407.261798451973</v>
       </c>
       <c r="DP118"/>
       <c r="DQ118" t="n">
-        <v>127.3239546</v>
+        <v>190.84414575902</v>
       </c>
       <c r="DR118"/>
       <c r="DS118"/>
@@ -27923,24 +27923,24 @@
       </c>
       <c r="DI119"/>
       <c r="DJ119" t="n">
-        <v>0.026650366929647</v>
+        <v>0.0266498176498389</v>
       </c>
       <c r="DK119" t="n">
-        <v>-1.45945005607406</v>
+        <v>-3.63356809318066</v>
       </c>
       <c r="DL119" t="n">
-        <v>0.280763810991289</v>
+        <v>0.284504905343056</v>
       </c>
       <c r="DM119" t="n">
-        <v>1.69457022873911</v>
+        <v>1.64062345027924</v>
       </c>
       <c r="DN119"/>
       <c r="DO119" t="n">
-        <v>370.000004768372</v>
+        <v>379.13074695259</v>
       </c>
       <c r="DP119"/>
       <c r="DQ119" t="n">
-        <v>127.3239546</v>
+        <v>183.851399961207</v>
       </c>
       <c r="DR119"/>
       <c r="DS119"/>
@@ -28161,24 +28161,24 @@
       </c>
       <c r="DI120"/>
       <c r="DJ120" t="n">
-        <v>0.0179148721289449</v>
+        <v>0.0179052956572642</v>
       </c>
       <c r="DK120" t="n">
-        <v>-2.47362305892535</v>
+        <v>-2.67343939050397</v>
       </c>
       <c r="DL120" t="n">
-        <v>0.31838989854335</v>
+        <v>0.318266735869347</v>
       </c>
       <c r="DM120" t="n">
-        <v>12.6973594701247</v>
+        <v>12.7495601691606</v>
       </c>
       <c r="DN120"/>
       <c r="DO120" t="n">
-        <v>440</v>
+        <v>442.292821421213</v>
       </c>
       <c r="DP120"/>
       <c r="DQ120" t="n">
-        <v>127.3239546</v>
+        <v>181.674179996418</v>
       </c>
       <c r="DR120"/>
       <c r="DS120"/>
@@ -28555,24 +28555,24 @@
       </c>
       <c r="DI122"/>
       <c r="DJ122" t="n">
-        <v>0.249233604685473</v>
+        <v>0.29529546380949</v>
       </c>
       <c r="DK122" t="n">
-        <v>6.67972287956581</v>
+        <v>6.52610085904598</v>
       </c>
       <c r="DL122" t="n">
-        <v>1.46060751084707</v>
+        <v>1.40419088304043</v>
       </c>
       <c r="DM122" t="n">
-        <v>6.55265234802076</v>
+        <v>6.47363692522049</v>
       </c>
       <c r="DN122"/>
       <c r="DO122" t="n">
-        <v>780.000019073486</v>
+        <v>788.571436443026</v>
       </c>
       <c r="DP122"/>
       <c r="DQ122" t="n">
-        <v>127.3239546</v>
+        <v>181.891363714286</v>
       </c>
       <c r="DR122"/>
       <c r="DS122"/>
@@ -28953,24 +28953,24 @@
       </c>
       <c r="DI124"/>
       <c r="DJ124" t="n">
-        <v>0.0245126661998184</v>
+        <v>0.0251654676422371</v>
       </c>
       <c r="DK124" t="n">
-        <v>6.38745094076721</v>
+        <v>6.7050405595563</v>
       </c>
       <c r="DL124" t="n">
-        <v>0.714213582019787</v>
+        <v>0.725777572160158</v>
       </c>
       <c r="DM124" t="n">
-        <v>0.19539800070957</v>
+        <v>0.179618303131718</v>
       </c>
       <c r="DN124"/>
       <c r="DO124" t="n">
-        <v>750</v>
+        <v>776.656754283219</v>
       </c>
       <c r="DP124"/>
       <c r="DQ124" t="n">
-        <v>127.3239546</v>
+        <v>298.675818734579</v>
       </c>
       <c r="DR124"/>
       <c r="DS124"/>
@@ -29957,24 +29957,24 @@
       <c r="DH129"/>
       <c r="DI129"/>
       <c r="DJ129" t="n">
-        <v>0.0105804737784443</v>
+        <v>0.288739808346167</v>
       </c>
       <c r="DK129" t="n">
-        <v>0.239269127389655</v>
+        <v>14.0716902905917</v>
       </c>
       <c r="DL129" t="n">
-        <v>1.14719363857901</v>
+        <v>1.14085538503729</v>
       </c>
       <c r="DM129" t="n">
-        <v>6.43966883312372</v>
+        <v>4.21166865311053</v>
       </c>
       <c r="DN129"/>
       <c r="DO129" t="n">
-        <v>550</v>
+        <v>560.813491306608</v>
       </c>
       <c r="DP129"/>
       <c r="DQ129" t="n">
-        <v>127.3239546</v>
+        <v>201.59626145</v>
       </c>
       <c r="DR129"/>
       <c r="DS129"/>
@@ -30741,24 +30741,24 @@
       </c>
       <c r="DI133"/>
       <c r="DJ133" t="n">
-        <v>0.0588325949962322</v>
+        <v>0.0434413359938525</v>
       </c>
       <c r="DK133" t="n">
-        <v>4.8504207856497</v>
+        <v>5.05541340018414</v>
       </c>
       <c r="DL133" t="n">
-        <v>0.807801450697743</v>
+        <v>0.751740316499253</v>
       </c>
       <c r="DM133" t="n">
-        <v>14.6343639356141</v>
+        <v>16.0139911735849</v>
       </c>
       <c r="DN133"/>
       <c r="DO133" t="n">
-        <v>633.333333333333</v>
+        <v>654.812629351146</v>
       </c>
       <c r="DP133"/>
       <c r="DQ133" t="n">
-        <v>254.6479092</v>
+        <v>424.413182</v>
       </c>
       <c r="DR133"/>
       <c r="DS133"/>
@@ -31573,24 +31573,24 @@
       </c>
       <c r="DI137"/>
       <c r="DJ137" t="n">
-        <v>0.0233383057426948</v>
+        <v>0.0231166935598792</v>
       </c>
       <c r="DK137" t="n">
-        <v>4.96823552250862</v>
+        <v>4.93251974973693</v>
       </c>
       <c r="DL137" t="n">
-        <v>0.308166548609734</v>
+        <v>0.310614436984117</v>
       </c>
       <c r="DM137" t="n">
-        <v>7.33242458105087</v>
+        <v>8.31202376411959</v>
       </c>
       <c r="DN137"/>
       <c r="DO137" t="n">
-        <v>475</v>
+        <v>485.739782883636</v>
       </c>
       <c r="DP137"/>
       <c r="DQ137" t="n">
-        <v>127.3239546</v>
+        <v>254.897075451663</v>
       </c>
       <c r="DR137"/>
       <c r="DS137"/>
@@ -32523,24 +32523,24 @@
       </c>
       <c r="DI142"/>
       <c r="DJ142" t="n">
-        <v>0.0474058932518059</v>
+        <v>0.0554925278620572</v>
       </c>
       <c r="DK142" t="n">
-        <v>4.70847938656807</v>
+        <v>5.00944165977621</v>
       </c>
       <c r="DL142" t="n">
-        <v>0.792926412663962</v>
+        <v>0.739910812261178</v>
       </c>
       <c r="DM142" t="n">
-        <v>14.9221613661239</v>
+        <v>16.9949145263311</v>
       </c>
       <c r="DN142"/>
       <c r="DO142" t="n">
-        <v>850</v>
+        <v>857.248916522765</v>
       </c>
       <c r="DP142"/>
       <c r="DQ142" t="n">
-        <v>127.3239546</v>
+        <v>240.096600102857</v>
       </c>
       <c r="DR142"/>
       <c r="DS142"/>
@@ -32959,24 +32959,24 @@
       </c>
       <c r="DI144"/>
       <c r="DJ144" t="n">
-        <v>0.0445902792051116</v>
+        <v>0.0450507977350699</v>
       </c>
       <c r="DK144" t="n">
-        <v>-4.34647233437011</v>
+        <v>-1.99671018123627</v>
       </c>
       <c r="DL144" t="n">
-        <v>0.070044151595491</v>
+        <v>0.268309623003006</v>
       </c>
       <c r="DM144" t="n">
-        <v>0.523801703574925</v>
+        <v>0.531044170260429</v>
       </c>
       <c r="DN144"/>
       <c r="DO144" t="n">
-        <v>500</v>
+        <v>525.436668722576</v>
       </c>
       <c r="DP144"/>
       <c r="DQ144" t="n">
-        <v>127.3239546</v>
+        <v>235.134659452874</v>
       </c>
       <c r="DR144"/>
       <c r="DS144"/>
@@ -34005,24 +34005,24 @@
       </c>
       <c r="DI149"/>
       <c r="DJ149" t="n">
-        <v>0.305426611127705</v>
+        <v>0.279597806971406</v>
       </c>
       <c r="DK149" t="n">
-        <v>1.75644074380398</v>
+        <v>2.41474209725857</v>
       </c>
       <c r="DL149" t="n">
-        <v>0.481551349163055</v>
+        <v>0.476327523589134</v>
       </c>
       <c r="DM149" t="n">
-        <v>19.1779369562864</v>
+        <v>26.9388801753521</v>
       </c>
       <c r="DN149"/>
       <c r="DO149" t="n">
-        <v>500</v>
+        <v>511.541433884824</v>
       </c>
       <c r="DP149"/>
       <c r="DQ149" t="n">
-        <v>127.3239546</v>
+        <v>215.322535880506</v>
       </c>
       <c r="DR149"/>
       <c r="DS149"/>
@@ -34287,24 +34287,24 @@
       </c>
       <c r="DI150"/>
       <c r="DJ150" t="n">
-        <v>0.0245956744318702</v>
+        <v>0.0247072201213981</v>
       </c>
       <c r="DK150" t="n">
-        <v>-2.43407591086104</v>
+        <v>0.827818468860764</v>
       </c>
       <c r="DL150" t="n">
-        <v>0.133332052736714</v>
+        <v>0.140935287739928</v>
       </c>
       <c r="DM150" t="n">
-        <v>4.57541210016321</v>
+        <v>4.41127779659716</v>
       </c>
       <c r="DN150"/>
       <c r="DO150" t="n">
-        <v>550</v>
+        <v>569.364654787905</v>
       </c>
       <c r="DP150"/>
       <c r="DQ150" t="n">
-        <v>127.3239546</v>
+        <v>246.279328236052</v>
       </c>
       <c r="DR150"/>
       <c r="DS150"/>
@@ -34581,24 +34581,24 @@
       </c>
       <c r="DI151"/>
       <c r="DJ151" t="n">
-        <v>0.0238219188507542</v>
+        <v>0.0231677012418597</v>
       </c>
       <c r="DK151" t="n">
-        <v>-2.3452802980375</v>
+        <v>-3.81209142950496</v>
       </c>
       <c r="DL151" t="n">
-        <v>0.310099372550815</v>
+        <v>0.297793139924822</v>
       </c>
       <c r="DM151" t="n">
-        <v>1.73833555764606</v>
+        <v>1.73661511159841</v>
       </c>
       <c r="DN151"/>
       <c r="DO151" t="n">
-        <v>550</v>
+        <v>562.339848883984</v>
       </c>
       <c r="DP151"/>
       <c r="DQ151" t="n">
-        <v>127.3239546</v>
+        <v>292.909275937107</v>
       </c>
       <c r="DR151"/>
       <c r="DS151"/>
@@ -34839,24 +34839,24 @@
       </c>
       <c r="DI152"/>
       <c r="DJ152" t="n">
-        <v>0.0150313589182853</v>
+        <v>0.0152881877012142</v>
       </c>
       <c r="DK152" t="n">
-        <v>-0.532743036746979</v>
+        <v>-2.07715716141416</v>
       </c>
       <c r="DL152" t="n">
-        <v>0.268755897879601</v>
+        <v>0.275098818901775</v>
       </c>
       <c r="DM152" t="n">
-        <v>0.366762042045593</v>
+        <v>0.358570639982921</v>
       </c>
       <c r="DN152"/>
       <c r="DO152" t="n">
-        <v>650</v>
+        <v>687.090983443747</v>
       </c>
       <c r="DP152"/>
       <c r="DQ152" t="n">
-        <v>127.3239546</v>
+        <v>320.418653876992</v>
       </c>
       <c r="DR152"/>
       <c r="DS152"/>
@@ -35121,24 +35121,24 @@
       </c>
       <c r="DI153"/>
       <c r="DJ153" t="n">
-        <v>0.00866901871595382</v>
+        <v>0.00873559515891009</v>
       </c>
       <c r="DK153" t="n">
-        <v>1.84643415877584</v>
+        <v>-2.80608888763495</v>
       </c>
       <c r="DL153" t="n">
-        <v>0.279572405871715</v>
+        <v>0.279506580932216</v>
       </c>
       <c r="DM153" t="n">
-        <v>9.61077695708677</v>
+        <v>9.64170487660638</v>
       </c>
       <c r="DN153"/>
       <c r="DO153" t="n">
-        <v>419.999980926514</v>
+        <v>458.268104192626</v>
       </c>
       <c r="DP153"/>
       <c r="DQ153" t="n">
-        <v>127.3239546</v>
+        <v>237.593507941651</v>
       </c>
       <c r="DR153"/>
       <c r="DS153"/>
@@ -35379,24 +35379,24 @@
       </c>
       <c r="DI154"/>
       <c r="DJ154" t="n">
-        <v>0.0103893384992221</v>
+        <v>0.0114797720126577</v>
       </c>
       <c r="DK154" t="n">
-        <v>2.36283951671794</v>
+        <v>-1.26473069190979</v>
       </c>
       <c r="DL154" t="n">
-        <v>0.444145461702806</v>
+        <v>0.493881061673164</v>
       </c>
       <c r="DM154" t="n">
-        <v>0.863201217567874</v>
+        <v>0.746639296412468</v>
       </c>
       <c r="DN154"/>
       <c r="DO154" t="n">
-        <v>800</v>
+        <v>833.280202411382</v>
       </c>
       <c r="DP154"/>
       <c r="DQ154" t="n">
-        <v>254.6479092</v>
+        <v>343.41861235892</v>
       </c>
       <c r="DR154"/>
       <c r="DS154"/>
@@ -35673,24 +35673,24 @@
       </c>
       <c r="DI155"/>
       <c r="DJ155" t="n">
-        <v>0.0223321900014739</v>
+        <v>0.0223593674615142</v>
       </c>
       <c r="DK155" t="n">
-        <v>-5.76793159544468</v>
+        <v>-6.39519739151001</v>
       </c>
       <c r="DL155" t="n">
-        <v>0.195369839668274</v>
+        <v>0.283978223800659</v>
       </c>
       <c r="DM155" t="n">
-        <v>3.30391773581505</v>
+        <v>3.30461578071117</v>
       </c>
       <c r="DN155"/>
       <c r="DO155" t="n">
-        <v>600</v>
+        <v>624.886158335465</v>
       </c>
       <c r="DP155"/>
       <c r="DQ155" t="n">
-        <v>127.3239546</v>
+        <v>291.920317892626</v>
       </c>
       <c r="DR155"/>
       <c r="DS155"/>
@@ -35955,24 +35955,24 @@
       </c>
       <c r="DI156"/>
       <c r="DJ156" t="n">
-        <v>0.0324111649650554</v>
+        <v>0.0326489483464201</v>
       </c>
       <c r="DK156" t="n">
-        <v>-7.91814976511862</v>
+        <v>-6.93176510441252</v>
       </c>
       <c r="DL156" t="n">
-        <v>0.384752183572773</v>
+        <v>0.438390640817094</v>
       </c>
       <c r="DM156" t="n">
-        <v>7.8216208847687</v>
+        <v>7.80344566620327</v>
       </c>
       <c r="DN156"/>
       <c r="DO156" t="n">
-        <v>530.000019073486</v>
+        <v>548.314488471008</v>
       </c>
       <c r="DP156"/>
       <c r="DQ156" t="n">
-        <v>127.3239546</v>
+        <v>310.516989090395</v>
       </c>
       <c r="DR156"/>
       <c r="DS156"/>
@@ -36617,24 +36617,24 @@
       <c r="DH159"/>
       <c r="DI159"/>
       <c r="DJ159" t="n">
-        <v>0.0359160998994512</v>
+        <v>0.0279362043247632</v>
       </c>
       <c r="DK159" t="n">
-        <v>-2.11016289391998</v>
+        <v>-2.29278721303559</v>
       </c>
       <c r="DL159" t="n">
-        <v>0.349549238890699</v>
+        <v>0.348437162217676</v>
       </c>
       <c r="DM159" t="n">
-        <v>13.0482686452792</v>
+        <v>12.654059007467</v>
       </c>
       <c r="DN159"/>
       <c r="DO159" t="n">
-        <v>409.999990463257</v>
+        <v>436.800002257029</v>
       </c>
       <c r="DP159"/>
       <c r="DQ159" t="n">
-        <v>127.3239546</v>
+        <v>168.067620072</v>
       </c>
       <c r="DR159"/>
       <c r="DS159"/>
@@ -37221,24 +37221,24 @@
       </c>
       <c r="DI162"/>
       <c r="DJ162" t="n">
-        <v>0.0121732308721915</v>
+        <v>0.0120209067828287</v>
       </c>
       <c r="DK162" t="n">
-        <v>-3.42107482785887</v>
+        <v>-3.4572988152504</v>
       </c>
       <c r="DL162" t="n">
-        <v>0.285381045551199</v>
+        <v>0.285050645470619</v>
       </c>
       <c r="DM162" t="n">
-        <v>1.57465294065104</v>
+        <v>1.57450014352798</v>
       </c>
       <c r="DN162"/>
       <c r="DO162" t="n">
-        <v>950</v>
+        <v>951.933807983212</v>
       </c>
       <c r="DP162"/>
       <c r="DQ162" t="n">
-        <v>127.3239546</v>
+        <v>250.393648187112</v>
       </c>
       <c r="DR162"/>
       <c r="DS162"/>
@@ -37475,24 +37475,24 @@
       </c>
       <c r="DI163"/>
       <c r="DJ163" t="n">
-        <v>0.00862252055515711</v>
+        <v>0.0100390104840967</v>
       </c>
       <c r="DK163" t="n">
-        <v>-1.15574391627464</v>
+        <v>-6.43629331200591</v>
       </c>
       <c r="DL163" t="n">
-        <v>0.317875831916639</v>
+        <v>0.286106151655955</v>
       </c>
       <c r="DM163" t="n">
-        <v>0.280037375060317</v>
+        <v>0.294838381655971</v>
       </c>
       <c r="DN163"/>
       <c r="DO163" t="n">
-        <v>650</v>
+        <v>676.400597710246</v>
       </c>
       <c r="DP163"/>
       <c r="DQ163" t="n">
-        <v>127.3239546</v>
+        <v>195.268127682511</v>
       </c>
       <c r="DR163"/>
       <c r="DS163"/>
@@ -37717,24 +37717,24 @@
       </c>
       <c r="DI164"/>
       <c r="DJ164" t="n">
-        <v>0.0305242070741552</v>
+        <v>0.0307608533248235</v>
       </c>
       <c r="DK164" t="n">
-        <v>-4.37238588184118</v>
+        <v>-4.43756134808064</v>
       </c>
       <c r="DL164" t="n">
-        <v>0.438662484288216</v>
+        <v>0.396760299801826</v>
       </c>
       <c r="DM164" t="n">
-        <v>0.0394219309091568</v>
+        <v>0.72064146399498</v>
       </c>
       <c r="DN164"/>
       <c r="DO164" t="n">
-        <v>783.333333333333</v>
+        <v>781.981481161628</v>
       </c>
       <c r="DP164"/>
       <c r="DQ164" t="n">
-        <v>254.6479092</v>
+        <v>309.664432792593</v>
       </c>
       <c r="DR164"/>
       <c r="DS164"/>
@@ -37915,24 +37915,24 @@
       <c r="DH165"/>
       <c r="DI165"/>
       <c r="DJ165" t="n">
-        <v>0.00566036431545169</v>
+        <v>0.00540922504568486</v>
       </c>
       <c r="DK165" t="n">
-        <v>-5.41740728542209</v>
+        <v>-2.50874428997107</v>
       </c>
       <c r="DL165" t="n">
-        <v>0.774803696997783</v>
+        <v>0.791446651414593</v>
       </c>
       <c r="DM165" t="n">
-        <v>5.84233545609209</v>
+        <v>5.89839853691808</v>
       </c>
       <c r="DN165"/>
       <c r="DO165" t="n">
-        <v>600</v>
+        <v>602.381676901643</v>
       </c>
       <c r="DP165"/>
       <c r="DQ165" t="n">
-        <v>127.3239546</v>
+        <v>204.489987690909</v>
       </c>
       <c r="DR165"/>
       <c r="DS165"/>
@@ -38755,24 +38755,24 @@
       </c>
       <c r="DI168"/>
       <c r="DJ168" t="n">
-        <v>0.0254755878233386</v>
+        <v>0.0255013809201202</v>
       </c>
       <c r="DK168" t="n">
-        <v>-6.14211704243434</v>
+        <v>-0.23120081750676</v>
       </c>
       <c r="DL168" t="n">
-        <v>0.223643492612222</v>
+        <v>0.293023280186115</v>
       </c>
       <c r="DM168" t="n">
-        <v>1.01144893788057</v>
+        <v>0.971883258377349</v>
       </c>
       <c r="DN168"/>
       <c r="DO168" t="n">
-        <v>509.999990463257</v>
+        <v>530.447375281681</v>
       </c>
       <c r="DP168"/>
       <c r="DQ168" t="n">
-        <v>127.3239546</v>
+        <v>292.103343124218</v>
       </c>
       <c r="DR168"/>
       <c r="DS168"/>
@@ -39331,24 +39331,24 @@
       </c>
       <c r="DI170"/>
       <c r="DJ170" t="n">
-        <v>0.0301025070790123</v>
+        <v>0.0305308264602527</v>
       </c>
       <c r="DK170" t="n">
-        <v>-4.31240062736254</v>
+        <v>-5.94844720888018</v>
       </c>
       <c r="DL170" t="n">
-        <v>0.248322062892839</v>
+        <v>0.125786794204025</v>
       </c>
       <c r="DM170" t="n">
-        <v>0.227770221491519</v>
+        <v>0.123283425710641</v>
       </c>
       <c r="DN170"/>
       <c r="DO170" t="n">
-        <v>450</v>
+        <v>472.362921427596</v>
       </c>
       <c r="DP170"/>
       <c r="DQ170" t="n">
-        <v>254.6479092</v>
+        <v>352.266810794962</v>
       </c>
       <c r="DR170"/>
       <c r="DS170"/>
@@ -39879,24 +39879,24 @@
       </c>
       <c r="DI172"/>
       <c r="DJ172" t="n">
-        <v>0.0154247172667081</v>
+        <v>0.014618826992889</v>
       </c>
       <c r="DK172" t="n">
-        <v>-2.62620810665723</v>
+        <v>-2.38493020832539</v>
       </c>
       <c r="DL172" t="n">
-        <v>0.33239573231599</v>
+        <v>0.282017365098</v>
       </c>
       <c r="DM172" t="n">
-        <v>2.680842301909</v>
+        <v>2.68086610734463</v>
       </c>
       <c r="DN172"/>
       <c r="DO172" t="n">
-        <v>650</v>
+        <v>660.600781237444</v>
       </c>
       <c r="DP172"/>
       <c r="DQ172" t="n">
-        <v>127.3239546</v>
+        <v>276.990167618182</v>
       </c>
       <c r="DR172"/>
       <c r="DS172"/>
@@ -40185,24 +40185,24 @@
       </c>
       <c r="DI173"/>
       <c r="DJ173" t="n">
-        <v>0.029332925523777</v>
+        <v>0.0275218327123885</v>
       </c>
       <c r="DK173" t="n">
-        <v>-3.02092315629125</v>
+        <v>-3.7654436319293</v>
       </c>
       <c r="DL173" t="n">
-        <v>0.348350004203071</v>
+        <v>0.292021380559136</v>
       </c>
       <c r="DM173" t="n">
-        <v>0.827530351226456</v>
+        <v>0.836775697136018</v>
       </c>
       <c r="DN173"/>
       <c r="DO173" t="n">
-        <v>605.499999523163</v>
+        <v>616.67619616544</v>
       </c>
       <c r="DP173"/>
       <c r="DQ173" t="n">
-        <v>127.3239546</v>
+        <v>246.124570090413</v>
       </c>
       <c r="DR173"/>
       <c r="DS173"/>
@@ -40467,24 +40467,24 @@
       </c>
       <c r="DI174"/>
       <c r="DJ174" t="n">
-        <v>0.0324381600939382</v>
+        <v>0.0323782889306903</v>
       </c>
       <c r="DK174" t="n">
-        <v>-3.39255475259523</v>
+        <v>-3.06653189659119</v>
       </c>
       <c r="DL174" t="n">
-        <v>0.266539300675502</v>
+        <v>0.285988852381706</v>
       </c>
       <c r="DM174" t="n">
-        <v>0.371677364025556</v>
+        <v>0.357821226119995</v>
       </c>
       <c r="DN174"/>
       <c r="DO174" t="n">
-        <v>625</v>
+        <v>638.635385231734</v>
       </c>
       <c r="DP174"/>
       <c r="DQ174" t="n">
-        <v>254.6479092</v>
+        <v>387.568521145055</v>
       </c>
       <c r="DR174"/>
       <c r="DS174"/>
@@ -40763,24 +40763,24 @@
       </c>
       <c r="DI175"/>
       <c r="DJ175" t="n">
-        <v>0.0165769461917179</v>
+        <v>0.0155211354500281</v>
       </c>
       <c r="DK175" t="n">
-        <v>-5.87567414395948</v>
+        <v>-4.87639963626862</v>
       </c>
       <c r="DL175" t="n">
-        <v>0.664215890726072</v>
+        <v>0.56542557477951</v>
       </c>
       <c r="DM175" t="n">
-        <v>0.14056769230412</v>
+        <v>0.203163743019104</v>
       </c>
       <c r="DN175"/>
       <c r="DO175" t="n">
-        <v>709.999990463257</v>
+        <v>730.516846516884</v>
       </c>
       <c r="DP175"/>
       <c r="DQ175" t="n">
-        <v>127.3239546</v>
+        <v>274.695461775222</v>
       </c>
       <c r="DR175"/>
       <c r="DS175"/>
@@ -41045,24 +41045,24 @@
       </c>
       <c r="DI176"/>
       <c r="DJ176" t="n">
-        <v>0.0300767327180392</v>
+        <v>0.0300689017542057</v>
       </c>
       <c r="DK176" t="n">
-        <v>4.66091002523899</v>
+        <v>4.7926919369305</v>
       </c>
       <c r="DL176" t="n">
-        <v>1.38815426826477</v>
+        <v>1.44636604322852</v>
       </c>
       <c r="DM176" t="n">
-        <v>4.76193542778492</v>
+        <v>4.64720048243908</v>
       </c>
       <c r="DN176"/>
       <c r="DO176" t="n">
-        <v>977.499997615815</v>
+        <v>970.615080343207</v>
       </c>
       <c r="DP176"/>
       <c r="DQ176" t="n">
-        <v>127.3239546</v>
+        <v>274.236209907692</v>
       </c>
       <c r="DR176"/>
       <c r="DS176"/>
@@ -41351,24 +41351,24 @@
       </c>
       <c r="DI177"/>
       <c r="DJ177" t="n">
-        <v>0.00918457464908251</v>
+        <v>0.00878238892025329</v>
       </c>
       <c r="DK177" t="n">
-        <v>1.44537945083811</v>
+        <v>-2.31713920680259</v>
       </c>
       <c r="DL177" t="n">
-        <v>0.348142037956667</v>
+        <v>0.349600304796213</v>
       </c>
       <c r="DM177" t="n">
-        <v>2.66911455401401</v>
+        <v>2.66045764367484</v>
       </c>
       <c r="DN177"/>
       <c r="DO177" t="n">
-        <v>440.000009536743</v>
+        <v>453.748026173006</v>
       </c>
       <c r="DP177"/>
       <c r="DQ177" t="n">
-        <v>127.3239546</v>
+        <v>207.034276761937</v>
       </c>
       <c r="DR177"/>
       <c r="DS177"/>
@@ -41773,24 +41773,24 @@
       <c r="DH179"/>
       <c r="DI179"/>
       <c r="DJ179" t="n">
-        <v>0.132839445506982</v>
+        <v>0.129441244478947</v>
       </c>
       <c r="DK179" t="n">
-        <v>6.77007025806233</v>
+        <v>6.77273419499397</v>
       </c>
       <c r="DL179" t="n">
-        <v>0.785003133845396</v>
+        <v>0.744277209043503</v>
       </c>
       <c r="DM179" t="n">
-        <v>4.2198314559865</v>
+        <v>5.87924632430077</v>
       </c>
       <c r="DN179"/>
       <c r="DO179" t="n">
-        <v>550</v>
+        <v>576.346154009175</v>
       </c>
       <c r="DP179"/>
       <c r="DQ179" t="n">
-        <v>127.3239546</v>
+        <v>215.471307784615</v>
       </c>
       <c r="DR179"/>
       <c r="DS179"/>
@@ -42615,24 +42615,24 @@
       </c>
       <c r="DI183"/>
       <c r="DJ183" t="n">
-        <v>0.0251603238092594</v>
+        <v>0.0263992827264334</v>
       </c>
       <c r="DK183" t="n">
-        <v>5.62038053572178</v>
+        <v>5.62199240608242</v>
       </c>
       <c r="DL183" t="n">
-        <v>0.951854586601257</v>
+        <v>0.821053960099515</v>
       </c>
       <c r="DM183" t="n">
-        <v>1.52965302765369</v>
+        <v>1.5531588626522</v>
       </c>
       <c r="DN183"/>
       <c r="DO183" t="n">
-        <v>1000</v>
+        <v>1001.51631302668</v>
       </c>
       <c r="DP183"/>
       <c r="DQ183" t="n">
-        <v>254.6479092</v>
+        <v>296.273048203846</v>
       </c>
       <c r="DR183"/>
       <c r="DS183"/>
@@ -43687,24 +43687,24 @@
       </c>
       <c r="DI188"/>
       <c r="DJ188" t="n">
-        <v>0.01295683889084</v>
+        <v>0.0146138644854316</v>
       </c>
       <c r="DK188" t="n">
-        <v>-4.69148105470985</v>
+        <v>-5.07894434127531</v>
       </c>
       <c r="DL188" t="n">
-        <v>0.371757798478939</v>
+        <v>0.37052691562438</v>
       </c>
       <c r="DM188" t="n">
-        <v>0.294552364866119</v>
+        <v>0.0939682822415011</v>
       </c>
       <c r="DN188"/>
       <c r="DO188" t="n">
-        <v>769.999980926514</v>
+        <v>782.407695183472</v>
       </c>
       <c r="DP188"/>
       <c r="DQ188" t="n">
-        <v>127.3239546</v>
+        <v>297.220624669969</v>
       </c>
       <c r="DR188"/>
       <c r="DS188"/>
@@ -44309,24 +44309,24 @@
       <c r="DH191"/>
       <c r="DI191"/>
       <c r="DJ191" t="n">
-        <v>0.0979696501040587</v>
+        <v>0.0973181299337594</v>
       </c>
       <c r="DK191" t="n">
-        <v>3.04591315984726</v>
+        <v>2.97041421988882</v>
       </c>
       <c r="DL191" t="n">
-        <v>0.268711164593697</v>
+        <v>0.311740287961757</v>
       </c>
       <c r="DM191" t="n">
-        <v>21.9490392506123</v>
+        <v>21.2443214626949</v>
       </c>
       <c r="DN191"/>
       <c r="DO191" t="n">
-        <v>559.999990463257</v>
+        <v>563.637312401064</v>
       </c>
       <c r="DP191"/>
       <c r="DQ191" t="n">
-        <v>127.3239546</v>
+        <v>188.369686257534</v>
       </c>
       <c r="DR191"/>
       <c r="DS191"/>
@@ -45581,24 +45581,24 @@
       </c>
       <c r="DI198"/>
       <c r="DJ198" t="n">
-        <v>0.0191563287288212</v>
+        <v>0.0177763676058121</v>
       </c>
       <c r="DK198" t="n">
-        <v>-5.28033557774418</v>
+        <v>-4.6184508438904</v>
       </c>
       <c r="DL198" t="n">
-        <v>0.593476683727581</v>
+        <v>0.598546648696537</v>
       </c>
       <c r="DM198" t="n">
-        <v>0.243678495256162</v>
+        <v>0.190372573652695</v>
       </c>
       <c r="DN198"/>
       <c r="DO198" t="n">
-        <v>700</v>
+        <v>723.020197793148</v>
       </c>
       <c r="DP198"/>
       <c r="DQ198" t="n">
-        <v>127.3239546</v>
+        <v>202.430781751685</v>
       </c>
       <c r="DR198"/>
       <c r="DS198"/>
@@ -46153,24 +46153,24 @@
       <c r="DH201"/>
       <c r="DI201"/>
       <c r="DJ201" t="n">
-        <v>0.299774418069584</v>
+        <v>0.298407561759955</v>
       </c>
       <c r="DK201" t="n">
-        <v>1.57759910472711</v>
+        <v>-2.18056386709213</v>
       </c>
       <c r="DL201" t="n">
-        <v>0.296567676426072</v>
+        <v>0.296953916549683</v>
       </c>
       <c r="DM201" t="n">
-        <v>6.69308248850596</v>
+        <v>7.72792565822601</v>
       </c>
       <c r="DN201"/>
       <c r="DO201" t="n">
-        <v>580.000019073486</v>
+        <v>582.020671455398</v>
       </c>
       <c r="DP201"/>
       <c r="DQ201" t="n">
-        <v>381.9718638</v>
+        <v>481.241387725424</v>
       </c>
       <c r="DR201"/>
       <c r="DS201"/>
@@ -47753,24 +47753,24 @@
       </c>
       <c r="DI209"/>
       <c r="DJ209" t="n">
-        <v>0.0241738789506617</v>
+        <v>0.0222217670306957</v>
       </c>
       <c r="DK209" t="n">
-        <v>-0.247264329438897</v>
+        <v>-0.0058838203451075</v>
       </c>
       <c r="DL209" t="n">
-        <v>0.426300001849051</v>
+        <v>0.391962881048957</v>
       </c>
       <c r="DM209" t="n">
-        <v>1.54912557596314</v>
+        <v>1.54332483786959</v>
       </c>
       <c r="DN209"/>
       <c r="DO209" t="n">
-        <v>797.500002384186</v>
+        <v>807.655170731161</v>
       </c>
       <c r="DP209"/>
       <c r="DQ209" t="n">
-        <v>127.3239546</v>
+        <v>188.790691303448</v>
       </c>
       <c r="DR209"/>
       <c r="DS209"/>
@@ -48165,24 +48165,24 @@
       </c>
       <c r="DI211"/>
       <c r="DJ211" t="n">
-        <v>0.0113311745991176</v>
+        <v>0.0117514050934743</v>
       </c>
       <c r="DK211" t="n">
-        <v>0.323377775595992</v>
+        <v>0.563168527191747</v>
       </c>
       <c r="DL211" t="n">
-        <v>0.386199493280522</v>
+        <v>0.385632437132902</v>
       </c>
       <c r="DM211" t="n">
-        <v>0.303647044574441</v>
+        <v>0.312728148958534</v>
       </c>
       <c r="DN211"/>
       <c r="DO211" t="n">
-        <v>750</v>
+        <v>769.10357348427</v>
       </c>
       <c r="DP211"/>
       <c r="DQ211" t="n">
-        <v>127.3239546</v>
+        <v>225.653345281188</v>
       </c>
       <c r="DR211"/>
       <c r="DS211"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3404,17 +3404,13 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.123113793319351</v>
+        <v>0.170586159355792</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.45240421815065</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
+        <v>1.37822466400964</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
       <c r="AD2" t="n">
         <v>2.36476</v>
       </c>
@@ -3697,17 +3693,13 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>0.123113793319351</v>
+        <v>0.170586159355792</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.45240421815065</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
+        <v>1.37822466400964</v>
+      </c>
+      <c r="AB3"/>
+      <c r="AC3"/>
       <c r="AD3" t="n">
         <v>2.36476</v>
       </c>
@@ -4185,17 +4177,15 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>0.00817699275658141</v>
+        <v>0.0225312726520461</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.71940111568172</v>
+        <v>1.48411793827269</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00342813596851304</v>
+      </c>
+      <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
@@ -4456,17 +4446,15 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>0.00817699275658141</v>
+        <v>0.0225312726520461</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.71940111568172</v>
+        <v>1.48411793827269</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00342813596851304</v>
+      </c>
+      <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
@@ -4727,17 +4715,15 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>0.00817699275658141</v>
+        <v>0.0225312726520461</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.71940111568172</v>
+        <v>1.48411793827269</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00342813596851304</v>
+      </c>
+      <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
@@ -4990,17 +4976,15 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8" t="n">
-        <v>0.00817699275658141</v>
+        <v>0.0225312726520461</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.71940111568172</v>
+        <v>1.48411793827269</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00342813596851304</v>
+      </c>
+      <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
@@ -5261,17 +5245,15 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9" t="n">
-        <v>0.00817699275658141</v>
+        <v>0.0225312726520461</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.71940111568172</v>
+        <v>1.48411793827269</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00342813596851304</v>
+      </c>
+      <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
       <c r="AF9"/>
@@ -5524,17 +5506,15 @@
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10" t="n">
-        <v>0.00817699275658141</v>
+        <v>0.0225312726520461</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.71940111568172</v>
+        <v>1.48411793827269</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00342813596851304</v>
+      </c>
+      <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
@@ -6169,17 +6149,15 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13" t="n">
-        <v>0.0163937340520817</v>
+        <v>0.0297797476967034</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.46877614841028</v>
+        <v>1.32374481815807</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0086576843531642</v>
+      </c>
+      <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
@@ -7716,9 +7694,15 @@
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
+      <c r="Z21" t="n">
+        <v>0.104129571552347</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.33363319587974</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>-0.0116576053254417</v>
+      </c>
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
@@ -9199,18 +9183,10 @@
       <c r="Y28" t="n">
         <v>0.718581009506409</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0.0260248113482532</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1.30861407400615</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28"/>
@@ -10472,17 +10448,15 @@
       <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34" t="n">
-        <v>0.110916829428868</v>
+        <v>0.15693123474841</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.2811971569216</v>
+        <v>1.18753818522132</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.041021302291958</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0372012632763298</v>
+      </c>
+      <c r="AC34"/>
       <c r="AD34"/>
       <c r="AE34"/>
       <c r="AF34"/>
@@ -10720,18 +10694,10 @@
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35" t="n">
-        <v>0.123113793319351</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1.45240421815065</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
       <c r="AD35" t="n">
         <v>2.36476</v>
       </c>
@@ -11154,12 +11120,8 @@
       <c r="AA37" t="n">
         <v>1.62588</v>
       </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB37"/>
+      <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
@@ -16532,18 +16494,10 @@
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
-      <c r="Z63" t="n">
-        <v>0.230827770459304</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0.791981150129859</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
       <c r="AD63"/>
       <c r="AE63"/>
       <c r="AF63"/>
@@ -23235,18 +23189,10 @@
       <c r="Y96" t="n">
         <v>0.718581009506409</v>
       </c>
-      <c r="Z96" t="n">
-        <v>0.0464534286637129</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>1.75385757675244</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
       <c r="AD96"/>
       <c r="AE96"/>
       <c r="AF96"/>
@@ -23865,17 +23811,15 @@
       <c r="X99"/>
       <c r="Y99"/>
       <c r="Z99" t="n">
-        <v>0.0412831312802962</v>
+        <v>0.0612085661775946</v>
       </c>
       <c r="AA99" t="n">
-        <v>1.41577867199829</v>
+        <v>1.34159491994899</v>
       </c>
       <c r="AB99" t="n">
-        <v>-0.0166666264109415</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0186705612332132</v>
+      </c>
+      <c r="AC99"/>
       <c r="AD99" t="n">
         <v>3.85373</v>
       </c>
@@ -24586,17 +24530,13 @@
       <c r="X102"/>
       <c r="Y102"/>
       <c r="Z102" t="n">
-        <v>0.0278544080165306</v>
+        <v>0.0260828732461995</v>
       </c>
       <c r="AA102" t="n">
-        <v>1.57556868232067</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>0</v>
-      </c>
+        <v>1.68848394935853</v>
+      </c>
+      <c r="AB102"/>
+      <c r="AC102"/>
       <c r="AD102"/>
       <c r="AE102"/>
       <c r="AF102"/>
@@ -26744,18 +26684,10 @@
       <c r="Y113" t="n">
         <v>0.718581009506409</v>
       </c>
-      <c r="Z113" t="n">
-        <v>0.031283495221983</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>1.67066119455559</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
       <c r="AD113"/>
       <c r="AE113"/>
       <c r="AF113"/>
@@ -27630,18 +27562,10 @@
       <c r="Y117" t="n">
         <v>0.662962157344946</v>
       </c>
-      <c r="Z117" t="n">
-        <v>0.230827770459304</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>0.791981150129859</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
       <c r="AD117"/>
       <c r="AE117"/>
       <c r="AF117"/>
@@ -27885,18 +27809,10 @@
       <c r="Y118" t="n">
         <v>0.718581009506409</v>
       </c>
-      <c r="Z118" t="n">
-        <v>0.230827770459304</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>0.791981150129859</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
       <c r="AD118"/>
       <c r="AE118"/>
       <c r="AF118"/>
@@ -28140,18 +28056,10 @@
       <c r="Y119" t="n">
         <v>0.718581009506409</v>
       </c>
-      <c r="Z119" t="n">
-        <v>0.230827770459304</v>
-      </c>
-      <c r="AA119" t="n">
-        <v>0.791981150129859</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
       <c r="AD119"/>
       <c r="AE119"/>
       <c r="AF119"/>
@@ -28387,12 +28295,8 @@
       <c r="AA120" t="n">
         <v>1.68286</v>
       </c>
-      <c r="AB120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB120"/>
+      <c r="AC120"/>
       <c r="AD120"/>
       <c r="AE120"/>
       <c r="AF120"/>
@@ -28781,18 +28685,10 @@
       <c r="W122"/>
       <c r="X122"/>
       <c r="Y122"/>
-      <c r="Z122" t="n">
-        <v>0.230827770459304</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>0.791981150129859</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z122"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+      <c r="AC122"/>
       <c r="AD122"/>
       <c r="AE122"/>
       <c r="AF122"/>
@@ -31864,12 +31760,8 @@
       <c r="AA137" t="n">
         <v>1.53326</v>
       </c>
-      <c r="AB137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB137"/>
+      <c r="AC137"/>
       <c r="AD137"/>
       <c r="AE137"/>
       <c r="AF137"/>
@@ -34045,18 +33937,10 @@
       <c r="W148"/>
       <c r="X148"/>
       <c r="Y148"/>
-      <c r="Z148" t="n">
-        <v>0.123113793319351</v>
-      </c>
-      <c r="AA148" t="n">
-        <v>1.45240421815065</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z148"/>
+      <c r="AA148"/>
+      <c r="AB148"/>
+      <c r="AC148"/>
       <c r="AD148" t="n">
         <v>2.36476</v>
       </c>
@@ -34300,9 +34184,15 @@
       <c r="W149"/>
       <c r="X149"/>
       <c r="Y149"/>
-      <c r="Z149"/>
-      <c r="AA149"/>
-      <c r="AB149"/>
+      <c r="Z149" t="n">
+        <v>0.0631657400624959</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>1.53301990015384</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>-0.0133373327935761</v>
+      </c>
       <c r="AC149"/>
       <c r="AD149"/>
       <c r="AE149"/>
@@ -34554,17 +34444,15 @@
       <c r="X150"/>
       <c r="Y150"/>
       <c r="Z150" t="n">
-        <v>0.0568488710473838</v>
+        <v>0.0760782810354451</v>
       </c>
       <c r="AA150" t="n">
-        <v>1.52121763003559</v>
+        <v>1.46241085781959</v>
       </c>
       <c r="AB150" t="n">
-        <v>-0.0249465171770667</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0228010628318666</v>
+      </c>
+      <c r="AC150"/>
       <c r="AD150"/>
       <c r="AE150"/>
       <c r="AF150"/>
@@ -34839,17 +34727,15 @@
       <c r="X151"/>
       <c r="Y151"/>
       <c r="Z151" t="n">
-        <v>0.0488278010458133</v>
+        <v>0.0652470730915945</v>
       </c>
       <c r="AA151" t="n">
-        <v>1.6208044940538</v>
+        <v>1.56787490369701</v>
       </c>
       <c r="AB151" t="n">
-        <v>-0.028362858645325</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0263236843050215</v>
+      </c>
+      <c r="AC151"/>
       <c r="AD151" t="n">
         <v>2.26205</v>
       </c>
@@ -35136,17 +35022,15 @@
       <c r="X152"/>
       <c r="Y152"/>
       <c r="Z152" t="n">
-        <v>0.14306999757507</v>
+        <v>0.0587318572107082</v>
       </c>
       <c r="AA152" t="n">
-        <v>1.36220507204865</v>
+        <v>1.70613198664649</v>
       </c>
       <c r="AB152" t="n">
-        <v>-0.0861234049842975</v>
-      </c>
-      <c r="AC152" t="n">
-        <v>0.0261725264060524</v>
-      </c>
+        <v>-0.00968125955416343</v>
+      </c>
+      <c r="AC152"/>
       <c r="AD152"/>
       <c r="AE152"/>
       <c r="AF152"/>
@@ -35397,17 +35281,15 @@
       <c r="X153"/>
       <c r="Y153"/>
       <c r="Z153" t="n">
-        <v>0.039603626372559</v>
+        <v>0.0351413460046816</v>
       </c>
       <c r="AA153" t="n">
-        <v>1.68688278125257</v>
+        <v>1.76507771641952</v>
       </c>
       <c r="AB153" t="n">
-        <v>-0.0672902010898818</v>
-      </c>
-      <c r="AC153" t="n">
-        <v>0.0187597751625739</v>
-      </c>
+        <v>-0.00991350298011349</v>
+      </c>
+      <c r="AC153"/>
       <c r="AD153"/>
       <c r="AE153"/>
       <c r="AF153"/>
@@ -35682,17 +35564,15 @@
       <c r="X154"/>
       <c r="Y154"/>
       <c r="Z154" t="n">
-        <v>0.929364102112653</v>
+        <v>0.0631657400624959</v>
       </c>
       <c r="AA154" t="n">
-        <v>0.753200986633843</v>
+        <v>1.53301990015384</v>
       </c>
       <c r="AB154" t="n">
-        <v>-0.0285867126524247</v>
-      </c>
-      <c r="AC154" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0133373327935761</v>
+      </c>
+      <c r="AC154"/>
       <c r="AD154"/>
       <c r="AE154"/>
       <c r="AF154"/>
@@ -35943,17 +35823,15 @@
       <c r="X155"/>
       <c r="Y155"/>
       <c r="Z155" t="n">
-        <v>0.076794260426088</v>
+        <v>0.0766081013326264</v>
       </c>
       <c r="AA155" t="n">
-        <v>1.41063729815494</v>
+        <v>1.45905819366014</v>
       </c>
       <c r="AB155" t="n">
-        <v>-0.0387677691224012</v>
-      </c>
-      <c r="AC155" t="n">
-        <v>0.00824420394643428</v>
-      </c>
+        <v>-0.0151296227626452</v>
+      </c>
+      <c r="AC155"/>
       <c r="AD155" t="n">
         <v>1.50576</v>
       </c>
@@ -36240,17 +36118,15 @@
       <c r="X156"/>
       <c r="Y156"/>
       <c r="Z156" t="n">
-        <v>0.173868488462801</v>
+        <v>0.201254861405622</v>
       </c>
       <c r="AA156" t="n">
-        <v>1.23647203497902</v>
+        <v>1.22270259174321</v>
       </c>
       <c r="AB156" t="n">
-        <v>-0.0166378429635153</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0151633764047345</v>
+      </c>
+      <c r="AC156"/>
       <c r="AD156"/>
       <c r="AE156"/>
       <c r="AF156"/>
@@ -37570,17 +37446,13 @@
       <c r="X162"/>
       <c r="Y162"/>
       <c r="Z162" t="n">
-        <v>0.00597396307100675</v>
+        <v>0.0105200467520838</v>
       </c>
       <c r="AA162" t="n">
-        <v>1.933959657428</v>
-      </c>
-      <c r="AB162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC162" t="n">
-        <v>0</v>
-      </c>
+        <v>1.8857456729039</v>
+      </c>
+      <c r="AB162"/>
+      <c r="AC162"/>
       <c r="AD162"/>
       <c r="AE162"/>
       <c r="AF162"/>
@@ -37822,18 +37694,10 @@
       <c r="Y163" t="n">
         <v>0.718581009506409</v>
       </c>
-      <c r="Z163" t="n">
-        <v>0.00987159237948826</v>
-      </c>
-      <c r="AA163" t="n">
-        <v>1.92744228622547</v>
-      </c>
-      <c r="AB163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC163" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z163"/>
+      <c r="AA163"/>
+      <c r="AB163"/>
+      <c r="AC163"/>
       <c r="AD163"/>
       <c r="AE163"/>
       <c r="AF163"/>
@@ -38065,18 +37929,10 @@
       <c r="W164"/>
       <c r="X164"/>
       <c r="Y164"/>
-      <c r="Z164" t="n">
-        <v>0.123113793319351</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>1.45240421815065</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z164"/>
+      <c r="AA164"/>
+      <c r="AB164"/>
+      <c r="AC164"/>
       <c r="AD164" t="n">
         <v>2.36476</v>
       </c>
@@ -38512,17 +38368,15 @@
       <c r="X166"/>
       <c r="Y166"/>
       <c r="Z166" t="n">
-        <v>0.106305422918705</v>
+        <v>0.120391025009448</v>
       </c>
       <c r="AA166" t="n">
-        <v>1.321636004093</v>
+        <v>1.27580738412629</v>
       </c>
       <c r="AB166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC166" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0105347556562134</v>
+      </c>
+      <c r="AC166"/>
       <c r="AD166" t="n">
         <v>1.98539</v>
       </c>
@@ -39052,17 +38906,15 @@
       <c r="X168"/>
       <c r="Y168"/>
       <c r="Z168" t="n">
-        <v>0.0196870235378835</v>
+        <v>0.0991465393499568</v>
       </c>
       <c r="AA168" t="n">
-        <v>1.96752</v>
+        <v>1.25750486490282</v>
       </c>
       <c r="AB168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC168" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0100519045281116</v>
+      </c>
+      <c r="AC168"/>
       <c r="AD168" t="n">
         <v>1.98539</v>
       </c>
@@ -39634,17 +39486,15 @@
       </c>
       <c r="Y170"/>
       <c r="Z170" t="n">
-        <v>0.0631063048187397</v>
+        <v>0.0784871289113552</v>
       </c>
       <c r="AA170" t="n">
-        <v>1.54503172767883</v>
+        <v>1.49766993567333</v>
       </c>
       <c r="AB170" t="n">
-        <v>-0.00528847613004736</v>
-      </c>
-      <c r="AC170" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00309340990678338</v>
+      </c>
+      <c r="AC170"/>
       <c r="AD170" t="n">
         <v>1.98539</v>
       </c>
@@ -39949,17 +39799,15 @@
       <c r="X171"/>
       <c r="Y171"/>
       <c r="Z171" t="n">
-        <v>0.0631063048187397</v>
+        <v>0.120391025009448</v>
       </c>
       <c r="AA171" t="n">
-        <v>1.54503172767883</v>
+        <v>1.27580738412629</v>
       </c>
       <c r="AB171" t="n">
-        <v>-0.00528847613004736</v>
-      </c>
-      <c r="AC171" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0105347556562134</v>
+      </c>
+      <c r="AC171"/>
       <c r="AD171" t="n">
         <v>1.98539</v>
       </c>
@@ -40218,17 +40066,15 @@
       <c r="X172"/>
       <c r="Y172"/>
       <c r="Z172" t="n">
-        <v>0.0361945115130326</v>
+        <v>0.0536108624932178</v>
       </c>
       <c r="AA172" t="n">
-        <v>1.61026643404138</v>
+        <v>1.5370199718757</v>
       </c>
       <c r="AB172" t="n">
-        <v>-0.0329883123011257</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0353716745028002</v>
+      </c>
+      <c r="AC172"/>
       <c r="AD172" t="n">
         <v>1.98539</v>
       </c>
@@ -40503,17 +40349,15 @@
       <c r="X173"/>
       <c r="Y173"/>
       <c r="Z173" t="n">
-        <v>0.0404804756991536</v>
+        <v>0.0835158987176918</v>
       </c>
       <c r="AA173" t="n">
-        <v>1.46169575648973</v>
+        <v>1.30449190428798</v>
       </c>
       <c r="AB173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC173" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0145665711510031</v>
+      </c>
+      <c r="AC173"/>
       <c r="AD173" t="n">
         <v>1.98539</v>
       </c>
@@ -40812,17 +40656,15 @@
       <c r="X174"/>
       <c r="Y174"/>
       <c r="Z174" t="n">
-        <v>0.0631063048187397</v>
+        <v>0.120391025009448</v>
       </c>
       <c r="AA174" t="n">
-        <v>1.54503172767883</v>
+        <v>1.27580738412629</v>
       </c>
       <c r="AB174" t="n">
-        <v>-0.00528847613004736</v>
-      </c>
-      <c r="AC174" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0105347556562134</v>
+      </c>
+      <c r="AC174"/>
       <c r="AD174" t="n">
         <v>1.98539</v>
       </c>
@@ -41116,12 +40958,8 @@
       <c r="AA175" t="n">
         <v>1.73143</v>
       </c>
-      <c r="AB175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC175" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB175"/>
+      <c r="AC175"/>
       <c r="AD175" t="n">
         <v>1.98539</v>
       </c>
@@ -41396,17 +41234,15 @@
       <c r="X176"/>
       <c r="Y176"/>
       <c r="Z176" t="n">
-        <v>0.0631063048187397</v>
+        <v>0.120391025009448</v>
       </c>
       <c r="AA176" t="n">
-        <v>1.54503172767883</v>
+        <v>1.27580738412629</v>
       </c>
       <c r="AB176" t="n">
-        <v>-0.00528847613004736</v>
-      </c>
-      <c r="AC176" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.0105347556562134</v>
+      </c>
+      <c r="AC176"/>
       <c r="AD176" t="n">
         <v>1.98539</v>
       </c>
@@ -41681,17 +41517,15 @@
       <c r="X177"/>
       <c r="Y177"/>
       <c r="Z177" t="n">
-        <v>0.032248314976163</v>
+        <v>0.0784871289113552</v>
       </c>
       <c r="AA177" t="n">
-        <v>1.36447502453626</v>
+        <v>1.49766993567333</v>
       </c>
       <c r="AB177" t="n">
-        <v>-0.00987413307430693</v>
-      </c>
-      <c r="AC177" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00309340990678338</v>
+      </c>
+      <c r="AC177"/>
       <c r="AD177" t="n">
         <v>1.98539</v>
       </c>
@@ -43050,18 +42884,10 @@
       <c r="W183"/>
       <c r="X183"/>
       <c r="Y183"/>
-      <c r="Z183" t="n">
-        <v>0.513981100026922</v>
-      </c>
-      <c r="AA183" t="n">
-        <v>0.300178547251874</v>
-      </c>
-      <c r="AB183" t="n">
-        <v>-0.234664728168594</v>
-      </c>
-      <c r="AC183" t="n">
-        <v>0.091881413921219</v>
-      </c>
+      <c r="Z183"/>
+      <c r="AA183"/>
+      <c r="AB183"/>
+      <c r="AC183"/>
       <c r="AD183"/>
       <c r="AE183"/>
       <c r="AF183"/>
@@ -46863,18 +46689,10 @@
       <c r="W202"/>
       <c r="X202"/>
       <c r="Y202"/>
-      <c r="Z202" t="n">
-        <v>0.123113793319351</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>1.45240421815065</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z202"/>
+      <c r="AA202"/>
+      <c r="AB202"/>
+      <c r="AC202"/>
       <c r="AD202" t="n">
         <v>2.36476</v>
       </c>
@@ -48266,18 +48084,10 @@
       <c r="W209"/>
       <c r="X209"/>
       <c r="Y209"/>
-      <c r="Z209" t="n">
-        <v>0.0413971989699762</v>
-      </c>
-      <c r="AA209" t="n">
-        <v>1.09046425707713</v>
-      </c>
-      <c r="AB209" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC209" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z209"/>
+      <c r="AA209"/>
+      <c r="AB209"/>
+      <c r="AC209"/>
       <c r="AD209"/>
       <c r="AE209"/>
       <c r="AF209"/>
@@ -48690,18 +48500,10 @@
       <c r="W211"/>
       <c r="X211"/>
       <c r="Y211"/>
-      <c r="Z211" t="n">
-        <v>0.103161934431909</v>
-      </c>
-      <c r="AA211" t="n">
-        <v>1.18336861196189</v>
-      </c>
-      <c r="AB211" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC211" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z211"/>
+      <c r="AA211"/>
+      <c r="AB211"/>
+      <c r="AC211"/>
       <c r="AD211"/>
       <c r="AE211"/>
       <c r="AF211"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">cr</t>
   </si>
   <si>
-    <t xml:space="preserve">ba</t>
+    <t xml:space="preserve">BTsh</t>
   </si>
   <si>
     <t xml:space="preserve">a_fbt</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">b_cw</t>
   </si>
   <si>
-    <t xml:space="preserve">a_ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_ba</t>
+    <t xml:space="preserve">a_bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_bt</t>
   </si>
   <si>
     <t xml:space="preserve">LeafDuration</t>
@@ -2580,7 +2580,7 @@
     <tableColumn id="23" name="a_btsh"/>
     <tableColumn id="24" name="b_btsh"/>
     <tableColumn id="25" name="cr"/>
-    <tableColumn id="26" name="ba"/>
+    <tableColumn id="26" name="BTsh"/>
     <tableColumn id="27" name="a_fbt"/>
     <tableColumn id="28" name="b_fbt"/>
     <tableColumn id="29" name="c_fbt"/>
@@ -2592,8 +2592,8 @@
     <tableColumn id="35" name="c_2cr"/>
     <tableColumn id="36" name="a_cw"/>
     <tableColumn id="37" name="b_cw"/>
-    <tableColumn id="38" name="a_ba"/>
-    <tableColumn id="39" name="b_ba"/>
+    <tableColumn id="38" name="a_bt"/>
+    <tableColumn id="39" name="b_bt"/>
     <tableColumn id="40" name="LeafDuration"/>
     <tableColumn id="41" name="t0gdd"/>
     <tableColumn id="42" name="Sgdd"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3679,19 +3679,19 @@
       </c>
       <c r="DS2"/>
       <c r="DT2" t="n">
-        <v>683.378855316643</v>
+        <v>68.3378855316643</v>
       </c>
       <c r="DU2"/>
-      <c r="DV2" t="n">
-        <v>260.008917814737</v>
-      </c>
+      <c r="DV2"/>
       <c r="DW2"/>
       <c r="DX2"/>
       <c r="DY2"/>
       <c r="DZ2"/>
       <c r="EA2"/>
       <c r="EB2"/>
-      <c r="EC2"/>
+      <c r="EC2" t="n">
+        <v>260.008917814737</v>
+      </c>
       <c r="ED2"/>
     </row>
     <row r="3">
@@ -4183,19 +4183,25 @@
       </c>
       <c r="DS4"/>
       <c r="DT4" t="n">
-        <v>921.885180491361</v>
+        <v>92.1885180491361</v>
       </c>
       <c r="DU4"/>
-      <c r="DV4" t="n">
-        <v>416.435490609023</v>
-      </c>
+      <c r="DV4"/>
       <c r="DW4"/>
       <c r="DX4"/>
       <c r="DY4"/>
-      <c r="DZ4"/>
-      <c r="EA4"/>
-      <c r="EB4"/>
-      <c r="EC4"/>
+      <c r="DZ4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>416.435490609023</v>
+      </c>
       <c r="ED4"/>
     </row>
     <row r="5">
@@ -4465,19 +4471,25 @@
       </c>
       <c r="DS5"/>
       <c r="DT5" t="n">
-        <v>775.126032752014</v>
+        <v>77.5126032752014</v>
       </c>
       <c r="DU5"/>
-      <c r="DV5" t="n">
-        <v>206.959300749818</v>
-      </c>
+      <c r="DV5"/>
       <c r="DW5"/>
       <c r="DX5"/>
       <c r="DY5"/>
-      <c r="DZ5"/>
-      <c r="EA5"/>
-      <c r="EB5"/>
-      <c r="EC5"/>
+      <c r="DZ5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>206.959300749818</v>
+      </c>
       <c r="ED5"/>
     </row>
     <row r="6">
@@ -4741,19 +4753,25 @@
       </c>
       <c r="DS6"/>
       <c r="DT6" t="n">
-        <v>658.171428884779</v>
+        <v>65.8171428884779</v>
       </c>
       <c r="DU6"/>
-      <c r="DV6" t="n">
-        <v>193.714302355714</v>
-      </c>
+      <c r="DV6"/>
       <c r="DW6"/>
       <c r="DX6"/>
       <c r="DY6"/>
-      <c r="DZ6"/>
-      <c r="EA6"/>
-      <c r="EB6"/>
-      <c r="EC6"/>
+      <c r="DZ6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>193.714302355714</v>
+      </c>
       <c r="ED6"/>
     </row>
     <row r="7">
@@ -5018,9 +5036,15 @@
       <c r="DW7"/>
       <c r="DX7"/>
       <c r="DY7"/>
-      <c r="DZ7"/>
-      <c r="EA7"/>
-      <c r="EB7"/>
+      <c r="DZ7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC7"/>
       <c r="ED7"/>
     </row>
@@ -5291,19 +5315,25 @@
       </c>
       <c r="DS8"/>
       <c r="DT8" t="n">
-        <v>767.021740603398</v>
+        <v>76.7021740603398</v>
       </c>
       <c r="DU8"/>
-      <c r="DV8" t="n">
-        <v>204.03466016646</v>
-      </c>
+      <c r="DV8"/>
       <c r="DW8"/>
       <c r="DX8"/>
       <c r="DY8"/>
-      <c r="DZ8"/>
-      <c r="EA8"/>
-      <c r="EB8"/>
-      <c r="EC8"/>
+      <c r="DZ8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>204.03466016646</v>
+      </c>
       <c r="ED8"/>
     </row>
     <row r="9">
@@ -5568,9 +5598,15 @@
       <c r="DW9"/>
       <c r="DX9"/>
       <c r="DY9"/>
-      <c r="DZ9"/>
-      <c r="EA9"/>
-      <c r="EB9"/>
+      <c r="DZ9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC9"/>
       <c r="ED9"/>
     </row>
@@ -5835,19 +5871,25 @@
       </c>
       <c r="DS10"/>
       <c r="DT10" t="n">
-        <v>918.039804287811</v>
+        <v>91.8039804287811</v>
       </c>
       <c r="DU10"/>
-      <c r="DV10" t="n">
-        <v>188.135395602985</v>
-      </c>
+      <c r="DV10"/>
       <c r="DW10"/>
       <c r="DX10"/>
       <c r="DY10"/>
-      <c r="DZ10"/>
-      <c r="EA10"/>
-      <c r="EB10"/>
-      <c r="EC10"/>
+      <c r="DZ10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>188.135395602985</v>
+      </c>
       <c r="ED10"/>
     </row>
     <row r="11">
@@ -6232,9 +6274,15 @@
       <c r="DW12"/>
       <c r="DX12"/>
       <c r="DY12"/>
-      <c r="DZ12"/>
-      <c r="EA12"/>
-      <c r="EB12"/>
+      <c r="DZ12" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC12"/>
       <c r="ED12"/>
     </row>
@@ -6471,19 +6519,25 @@
       </c>
       <c r="DS13"/>
       <c r="DT13" t="n">
-        <v>898.835348950259</v>
+        <v>89.8835348950259</v>
       </c>
       <c r="DU13"/>
-      <c r="DV13" t="n">
-        <v>319.064771606324</v>
-      </c>
+      <c r="DV13"/>
       <c r="DW13"/>
       <c r="DX13"/>
       <c r="DY13"/>
-      <c r="DZ13"/>
-      <c r="EA13"/>
-      <c r="EB13"/>
-      <c r="EC13"/>
+      <c r="DZ13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>319.064771606324</v>
+      </c>
       <c r="ED13"/>
     </row>
     <row r="14">
@@ -6700,9 +6754,15 @@
       <c r="DW14"/>
       <c r="DX14"/>
       <c r="DY14"/>
-      <c r="DZ14"/>
-      <c r="EA14"/>
-      <c r="EB14"/>
+      <c r="DZ14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC14"/>
       <c r="ED14"/>
     </row>
@@ -6874,9 +6934,15 @@
       <c r="DW15"/>
       <c r="DX15"/>
       <c r="DY15"/>
-      <c r="DZ15"/>
-      <c r="EA15"/>
-      <c r="EB15"/>
+      <c r="DZ15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC15"/>
       <c r="ED15"/>
     </row>
@@ -7268,9 +7334,15 @@
       <c r="DW17"/>
       <c r="DX17"/>
       <c r="DY17"/>
-      <c r="DZ17"/>
-      <c r="EA17"/>
-      <c r="EB17"/>
+      <c r="DZ17" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC17"/>
       <c r="ED17"/>
     </row>
@@ -7436,9 +7508,15 @@
       <c r="DW18"/>
       <c r="DX18"/>
       <c r="DY18"/>
-      <c r="DZ18"/>
-      <c r="EA18"/>
-      <c r="EB18"/>
+      <c r="DZ18" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC18"/>
       <c r="ED18"/>
     </row>
@@ -7616,9 +7694,15 @@
       <c r="DW19"/>
       <c r="DX19"/>
       <c r="DY19"/>
-      <c r="DZ19"/>
-      <c r="EA19"/>
-      <c r="EB19"/>
+      <c r="DZ19" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC19"/>
       <c r="ED19"/>
     </row>
@@ -7840,9 +7924,15 @@
       <c r="DW20"/>
       <c r="DX20"/>
       <c r="DY20"/>
-      <c r="DZ20"/>
-      <c r="EA20"/>
-      <c r="EB20"/>
+      <c r="DZ20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC20"/>
       <c r="ED20"/>
     </row>
@@ -8081,19 +8171,25 @@
       </c>
       <c r="DS21"/>
       <c r="DT21" t="n">
-        <v>508.728059567779</v>
+        <v>50.8728059567779</v>
       </c>
       <c r="DU21"/>
-      <c r="DV21" t="n">
-        <v>288.811069295644</v>
-      </c>
+      <c r="DV21"/>
       <c r="DW21"/>
       <c r="DX21"/>
       <c r="DY21"/>
-      <c r="DZ21"/>
-      <c r="EA21"/>
-      <c r="EB21"/>
-      <c r="EC21"/>
+      <c r="DZ21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>288.811069295644</v>
+      </c>
       <c r="ED21"/>
     </row>
     <row r="22">
@@ -8304,9 +8400,15 @@
       <c r="DW22"/>
       <c r="DX22"/>
       <c r="DY22"/>
-      <c r="DZ22"/>
-      <c r="EA22"/>
-      <c r="EB22"/>
+      <c r="DZ22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC22"/>
       <c r="ED22"/>
     </row>
@@ -8538,9 +8640,15 @@
       <c r="DW23"/>
       <c r="DX23"/>
       <c r="DY23"/>
-      <c r="DZ23"/>
-      <c r="EA23"/>
-      <c r="EB23"/>
+      <c r="DZ23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>0.55</v>
+      </c>
       <c r="EC23"/>
       <c r="ED23"/>
     </row>
@@ -8736,9 +8844,15 @@
       <c r="DW24"/>
       <c r="DX24"/>
       <c r="DY24"/>
-      <c r="DZ24"/>
-      <c r="EA24"/>
-      <c r="EB24"/>
+      <c r="DZ24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC24"/>
       <c r="ED24"/>
     </row>
@@ -8944,9 +9058,15 @@
       <c r="DW25"/>
       <c r="DX25"/>
       <c r="DY25"/>
-      <c r="DZ25"/>
-      <c r="EA25"/>
-      <c r="EB25"/>
+      <c r="DZ25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC25"/>
       <c r="ED25"/>
     </row>
@@ -9370,9 +9490,15 @@
       <c r="DW27"/>
       <c r="DX27"/>
       <c r="DY27"/>
-      <c r="DZ27"/>
-      <c r="EA27"/>
-      <c r="EB27"/>
+      <c r="DZ27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB27" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC27"/>
       <c r="ED27"/>
     </row>
@@ -9631,19 +9757,25 @@
       </c>
       <c r="DS28"/>
       <c r="DT28" t="n">
-        <v>905.827324480683</v>
+        <v>90.5827324480683</v>
       </c>
       <c r="DU28"/>
-      <c r="DV28" t="n">
-        <v>336.061784016346</v>
-      </c>
+      <c r="DV28"/>
       <c r="DW28"/>
       <c r="DX28"/>
       <c r="DY28"/>
-      <c r="DZ28"/>
-      <c r="EA28"/>
-      <c r="EB28"/>
-      <c r="EC28"/>
+      <c r="DZ28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC28" t="n">
+        <v>336.061784016346</v>
+      </c>
       <c r="ED28"/>
     </row>
     <row r="29">
@@ -9842,9 +9974,15 @@
       <c r="DW29"/>
       <c r="DX29"/>
       <c r="DY29"/>
-      <c r="DZ29"/>
-      <c r="EA29"/>
-      <c r="EB29"/>
+      <c r="DZ29" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB29" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC29"/>
       <c r="ED29"/>
     </row>
@@ -10063,19 +10201,25 @@
       </c>
       <c r="DS30"/>
       <c r="DT30" t="n">
-        <v>525.368055038982</v>
+        <v>52.5368055038982</v>
       </c>
       <c r="DU30"/>
-      <c r="DV30" t="n">
-        <v>199.47419554</v>
-      </c>
+      <c r="DV30"/>
       <c r="DW30"/>
       <c r="DX30"/>
       <c r="DY30"/>
-      <c r="DZ30"/>
-      <c r="EA30"/>
-      <c r="EB30"/>
-      <c r="EC30"/>
+      <c r="DZ30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA30" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC30" t="n">
+        <v>199.47419554</v>
+      </c>
       <c r="ED30"/>
     </row>
     <row r="31">
@@ -10272,9 +10416,15 @@
       <c r="DW31"/>
       <c r="DX31"/>
       <c r="DY31"/>
-      <c r="DZ31"/>
-      <c r="EA31"/>
-      <c r="EB31"/>
+      <c r="DZ31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA31" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB31" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC31"/>
       <c r="ED31"/>
     </row>
@@ -10490,9 +10640,15 @@
       <c r="DW32"/>
       <c r="DX32"/>
       <c r="DY32"/>
-      <c r="DZ32"/>
-      <c r="EA32"/>
-      <c r="EB32"/>
+      <c r="DZ32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA32" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB32" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC32"/>
       <c r="ED32"/>
     </row>
@@ -10696,9 +10852,15 @@
       <c r="DW33"/>
       <c r="DX33"/>
       <c r="DY33"/>
-      <c r="DZ33"/>
-      <c r="EA33"/>
-      <c r="EB33"/>
+      <c r="DZ33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA33" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB33" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC33"/>
       <c r="ED33"/>
     </row>
@@ -10947,19 +11109,25 @@
       </c>
       <c r="DS34"/>
       <c r="DT34" t="n">
-        <v>827.155552143589</v>
+        <v>82.7155552143589</v>
       </c>
       <c r="DU34"/>
-      <c r="DV34" t="n">
-        <v>366.865631898305</v>
-      </c>
+      <c r="DV34"/>
       <c r="DW34"/>
       <c r="DX34"/>
       <c r="DY34"/>
-      <c r="DZ34"/>
-      <c r="EA34"/>
-      <c r="EB34"/>
-      <c r="EC34"/>
+      <c r="DZ34" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA34" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB34" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC34" t="n">
+        <v>366.865631898305</v>
+      </c>
       <c r="ED34"/>
     </row>
     <row r="35">
@@ -11394,9 +11562,15 @@
       <c r="DW36"/>
       <c r="DX36"/>
       <c r="DY36"/>
-      <c r="DZ36"/>
-      <c r="EA36"/>
-      <c r="EB36"/>
+      <c r="DZ36" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB36" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC36"/>
       <c r="ED36"/>
     </row>
@@ -11605,19 +11779,25 @@
       </c>
       <c r="DS37"/>
       <c r="DT37" t="n">
-        <v>393.135962203929</v>
+        <v>39.3135962203929</v>
       </c>
       <c r="DU37"/>
-      <c r="DV37" t="n">
-        <v>177.583410363158</v>
-      </c>
+      <c r="DV37"/>
       <c r="DW37"/>
       <c r="DX37"/>
       <c r="DY37"/>
-      <c r="DZ37"/>
-      <c r="EA37"/>
-      <c r="EB37"/>
-      <c r="EC37"/>
+      <c r="DZ37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA37" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB37" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC37" t="n">
+        <v>177.583410363158</v>
+      </c>
       <c r="ED37"/>
     </row>
     <row r="38">
@@ -12214,9 +12394,15 @@
       <c r="DW40"/>
       <c r="DX40"/>
       <c r="DY40"/>
-      <c r="DZ40"/>
-      <c r="EA40"/>
-      <c r="EB40"/>
+      <c r="DZ40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA40" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB40" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC40"/>
       <c r="ED40"/>
     </row>
@@ -14876,9 +15062,15 @@
       <c r="DW52"/>
       <c r="DX52"/>
       <c r="DY52"/>
-      <c r="DZ52"/>
-      <c r="EA52"/>
-      <c r="EB52"/>
+      <c r="DZ52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA52" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB52" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC52"/>
       <c r="ED52"/>
     </row>
@@ -15292,9 +15484,15 @@
       <c r="DW54"/>
       <c r="DX54"/>
       <c r="DY54"/>
-      <c r="DZ54"/>
-      <c r="EA54"/>
-      <c r="EB54"/>
+      <c r="DZ54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA54" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB54" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC54"/>
       <c r="ED54"/>
     </row>
@@ -15490,9 +15688,15 @@
       <c r="DW55"/>
       <c r="DX55"/>
       <c r="DY55"/>
-      <c r="DZ55"/>
-      <c r="EA55"/>
-      <c r="EB55"/>
+      <c r="DZ55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA55" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB55" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC55"/>
       <c r="ED55"/>
     </row>
@@ -15678,9 +15882,15 @@
       <c r="DW56"/>
       <c r="DX56"/>
       <c r="DY56"/>
-      <c r="DZ56"/>
-      <c r="EA56"/>
-      <c r="EB56"/>
+      <c r="DZ56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA56" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB56" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC56"/>
       <c r="ED56"/>
     </row>
@@ -15882,9 +16092,15 @@
       <c r="DW57"/>
       <c r="DX57"/>
       <c r="DY57"/>
-      <c r="DZ57"/>
-      <c r="EA57"/>
-      <c r="EB57"/>
+      <c r="DZ57" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA57" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB57" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC57"/>
       <c r="ED57"/>
     </row>
@@ -16118,9 +16334,15 @@
       <c r="DW58"/>
       <c r="DX58"/>
       <c r="DY58"/>
-      <c r="DZ58"/>
-      <c r="EA58"/>
-      <c r="EB58"/>
+      <c r="DZ58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA58" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB58" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC58"/>
       <c r="ED58"/>
     </row>
@@ -16320,9 +16542,15 @@
       <c r="DW59"/>
       <c r="DX59"/>
       <c r="DY59"/>
-      <c r="DZ59"/>
-      <c r="EA59"/>
-      <c r="EB59"/>
+      <c r="DZ59" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA59" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB59" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC59"/>
       <c r="ED59"/>
     </row>
@@ -16539,19 +16767,25 @@
       </c>
       <c r="DS60"/>
       <c r="DT60" t="n">
-        <v>720.428024859551</v>
+        <v>72.0428024859551</v>
       </c>
       <c r="DU60"/>
-      <c r="DV60" t="n">
-        <v>386.970725758891</v>
-      </c>
+      <c r="DV60"/>
       <c r="DW60"/>
       <c r="DX60"/>
       <c r="DY60"/>
-      <c r="DZ60"/>
-      <c r="EA60"/>
-      <c r="EB60"/>
-      <c r="EC60"/>
+      <c r="DZ60" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB60" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC60" t="n">
+        <v>386.970725758891</v>
+      </c>
       <c r="ED60"/>
     </row>
     <row r="61">
@@ -16758,9 +16992,15 @@
       <c r="DW61"/>
       <c r="DX61"/>
       <c r="DY61"/>
-      <c r="DZ61"/>
-      <c r="EA61"/>
-      <c r="EB61"/>
+      <c r="DZ61" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA61" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB61" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC61"/>
       <c r="ED61"/>
     </row>
@@ -16971,19 +17211,25 @@
       </c>
       <c r="DS62"/>
       <c r="DT62" t="n">
-        <v>586.043953143836</v>
+        <v>58.6043953143836</v>
       </c>
       <c r="DU62"/>
-      <c r="DV62" t="n">
-        <v>212.409902703952</v>
-      </c>
+      <c r="DV62"/>
       <c r="DW62"/>
       <c r="DX62"/>
       <c r="DY62"/>
-      <c r="DZ62"/>
-      <c r="EA62"/>
-      <c r="EB62"/>
-      <c r="EC62"/>
+      <c r="DZ62" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA62" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB62" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC62" t="n">
+        <v>212.409902703952</v>
+      </c>
       <c r="ED62"/>
     </row>
     <row r="63">
@@ -17185,19 +17431,19 @@
       </c>
       <c r="DS63"/>
       <c r="DT63" t="n">
-        <v>557.630951844511</v>
+        <v>55.7630951844511</v>
       </c>
       <c r="DU63"/>
-      <c r="DV63" t="n">
-        <v>245.098612605</v>
-      </c>
+      <c r="DV63"/>
       <c r="DW63"/>
       <c r="DX63"/>
       <c r="DY63"/>
       <c r="DZ63"/>
       <c r="EA63"/>
       <c r="EB63"/>
-      <c r="EC63"/>
+      <c r="EC63" t="n">
+        <v>245.098612605</v>
+      </c>
       <c r="ED63"/>
     </row>
     <row r="64">
@@ -17602,9 +17848,15 @@
       <c r="DW65"/>
       <c r="DX65"/>
       <c r="DY65"/>
-      <c r="DZ65"/>
-      <c r="EA65"/>
-      <c r="EB65"/>
+      <c r="DZ65" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA65" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB65" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC65"/>
       <c r="ED65"/>
     </row>
@@ -17812,9 +18064,15 @@
       <c r="DW66"/>
       <c r="DX66"/>
       <c r="DY66"/>
-      <c r="DZ66"/>
-      <c r="EA66"/>
-      <c r="EB66"/>
+      <c r="DZ66" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA66" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB66" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC66"/>
       <c r="ED66"/>
     </row>
@@ -18022,9 +18280,15 @@
       <c r="DW67"/>
       <c r="DX67"/>
       <c r="DY67"/>
-      <c r="DZ67"/>
-      <c r="EA67"/>
-      <c r="EB67"/>
+      <c r="DZ67" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA67" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB67" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC67"/>
       <c r="ED67"/>
     </row>
@@ -18232,9 +18496,15 @@
       <c r="DW68"/>
       <c r="DX68"/>
       <c r="DY68"/>
-      <c r="DZ68"/>
-      <c r="EA68"/>
-      <c r="EB68"/>
+      <c r="DZ68" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA68" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB68" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC68"/>
       <c r="ED68"/>
     </row>
@@ -18442,9 +18712,15 @@
       <c r="DW69"/>
       <c r="DX69"/>
       <c r="DY69"/>
-      <c r="DZ69"/>
-      <c r="EA69"/>
-      <c r="EB69"/>
+      <c r="DZ69" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA69" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB69" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC69"/>
       <c r="ED69"/>
     </row>
@@ -18658,9 +18934,15 @@
       <c r="DW70"/>
       <c r="DX70"/>
       <c r="DY70"/>
-      <c r="DZ70"/>
-      <c r="EA70"/>
-      <c r="EB70"/>
+      <c r="DZ70" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA70" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB70" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC70"/>
       <c r="ED70"/>
     </row>
@@ -18868,9 +19150,15 @@
       <c r="DW71"/>
       <c r="DX71"/>
       <c r="DY71"/>
-      <c r="DZ71"/>
-      <c r="EA71"/>
-      <c r="EB71"/>
+      <c r="DZ71" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA71" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB71" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC71"/>
       <c r="ED71"/>
     </row>
@@ -19078,9 +19366,15 @@
       <c r="DW72"/>
       <c r="DX72"/>
       <c r="DY72"/>
-      <c r="DZ72"/>
-      <c r="EA72"/>
-      <c r="EB72"/>
+      <c r="DZ72" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA72" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB72" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC72"/>
       <c r="ED72"/>
     </row>
@@ -19294,9 +19588,15 @@
       <c r="DW73"/>
       <c r="DX73"/>
       <c r="DY73"/>
-      <c r="DZ73"/>
-      <c r="EA73"/>
-      <c r="EB73"/>
+      <c r="DZ73" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA73" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB73" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC73"/>
       <c r="ED73"/>
     </row>
@@ -19510,9 +19810,15 @@
       <c r="DW74"/>
       <c r="DX74"/>
       <c r="DY74"/>
-      <c r="DZ74"/>
-      <c r="EA74"/>
-      <c r="EB74"/>
+      <c r="DZ74" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA74" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB74" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC74"/>
       <c r="ED74"/>
     </row>
@@ -19726,9 +20032,15 @@
       <c r="DW75"/>
       <c r="DX75"/>
       <c r="DY75"/>
-      <c r="DZ75"/>
-      <c r="EA75"/>
-      <c r="EB75"/>
+      <c r="DZ75" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA75" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB75" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC75"/>
       <c r="ED75"/>
     </row>
@@ -19936,9 +20248,15 @@
       <c r="DW76"/>
       <c r="DX76"/>
       <c r="DY76"/>
-      <c r="DZ76"/>
-      <c r="EA76"/>
-      <c r="EB76"/>
+      <c r="DZ76" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA76" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB76" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC76"/>
       <c r="ED76"/>
     </row>
@@ -20152,9 +20470,15 @@
       <c r="DW77"/>
       <c r="DX77"/>
       <c r="DY77"/>
-      <c r="DZ77"/>
-      <c r="EA77"/>
-      <c r="EB77"/>
+      <c r="DZ77" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA77" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB77" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC77"/>
       <c r="ED77"/>
     </row>
@@ -20546,9 +20870,15 @@
       <c r="DW79"/>
       <c r="DX79"/>
       <c r="DY79"/>
-      <c r="DZ79"/>
-      <c r="EA79"/>
-      <c r="EB79"/>
+      <c r="DZ79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA79" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB79" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC79"/>
       <c r="ED79"/>
     </row>
@@ -20930,9 +21260,15 @@
       <c r="DW81"/>
       <c r="DX81"/>
       <c r="DY81"/>
-      <c r="DZ81"/>
-      <c r="EA81"/>
-      <c r="EB81"/>
+      <c r="DZ81" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA81" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB81" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC81"/>
       <c r="ED81"/>
     </row>
@@ -21104,9 +21440,15 @@
       <c r="DW82"/>
       <c r="DX82"/>
       <c r="DY82"/>
-      <c r="DZ82"/>
-      <c r="EA82"/>
-      <c r="EB82"/>
+      <c r="DZ82" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA82" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB82" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC82"/>
       <c r="ED82"/>
     </row>
@@ -21715,19 +22057,25 @@
       </c>
       <c r="DS85"/>
       <c r="DT85" t="n">
-        <v>596.925170528368</v>
+        <v>59.6925170528368</v>
       </c>
       <c r="DU85"/>
-      <c r="DV85" t="n">
-        <v>534.397690684561</v>
-      </c>
+      <c r="DV85"/>
       <c r="DW85"/>
       <c r="DX85"/>
       <c r="DY85"/>
-      <c r="DZ85"/>
-      <c r="EA85"/>
-      <c r="EB85"/>
-      <c r="EC85"/>
+      <c r="DZ85" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA85" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB85" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC85" t="n">
+        <v>534.397690684561</v>
+      </c>
       <c r="ED85"/>
     </row>
     <row r="86">
@@ -21946,9 +22294,15 @@
       <c r="DW86"/>
       <c r="DX86"/>
       <c r="DY86"/>
-      <c r="DZ86"/>
-      <c r="EA86"/>
-      <c r="EB86"/>
+      <c r="DZ86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA86" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB86" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC86"/>
       <c r="ED86"/>
     </row>
@@ -22162,9 +22516,15 @@
       <c r="DW87"/>
       <c r="DX87"/>
       <c r="DY87"/>
-      <c r="DZ87"/>
-      <c r="EA87"/>
-      <c r="EB87"/>
+      <c r="DZ87" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA87" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB87" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC87"/>
       <c r="ED87"/>
     </row>
@@ -22384,9 +22744,15 @@
       <c r="DW88"/>
       <c r="DX88"/>
       <c r="DY88"/>
-      <c r="DZ88"/>
-      <c r="EA88"/>
-      <c r="EB88"/>
+      <c r="DZ88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA88" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB88" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC88"/>
       <c r="ED88"/>
     </row>
@@ -22600,9 +22966,15 @@
       <c r="DW89"/>
       <c r="DX89"/>
       <c r="DY89"/>
-      <c r="DZ89"/>
-      <c r="EA89"/>
-      <c r="EB89"/>
+      <c r="DZ89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA89" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB89" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC89"/>
       <c r="ED89"/>
     </row>
@@ -22822,9 +23194,15 @@
       <c r="DW90"/>
       <c r="DX90"/>
       <c r="DY90"/>
-      <c r="DZ90"/>
-      <c r="EA90"/>
-      <c r="EB90"/>
+      <c r="DZ90" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA90" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB90" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC90"/>
       <c r="ED90"/>
     </row>
@@ -23050,9 +23428,15 @@
       <c r="DW91"/>
       <c r="DX91"/>
       <c r="DY91"/>
-      <c r="DZ91"/>
-      <c r="EA91"/>
-      <c r="EB91"/>
+      <c r="DZ91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA91" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB91" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC91"/>
       <c r="ED91"/>
     </row>
@@ -23266,9 +23650,15 @@
       <c r="DW92"/>
       <c r="DX92"/>
       <c r="DY92"/>
-      <c r="DZ92"/>
-      <c r="EA92"/>
-      <c r="EB92"/>
+      <c r="DZ92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA92" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB92" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC92"/>
       <c r="ED92"/>
     </row>
@@ -23482,9 +23872,15 @@
       <c r="DW93"/>
       <c r="DX93"/>
       <c r="DY93"/>
-      <c r="DZ93"/>
-      <c r="EA93"/>
-      <c r="EB93"/>
+      <c r="DZ93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA93" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB93" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC93"/>
       <c r="ED93"/>
     </row>
@@ -23704,9 +24100,15 @@
       <c r="DW94"/>
       <c r="DX94"/>
       <c r="DY94"/>
-      <c r="DZ94"/>
-      <c r="EA94"/>
-      <c r="EB94"/>
+      <c r="DZ94" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA94" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB94" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC94"/>
       <c r="ED94"/>
     </row>
@@ -24145,19 +24547,25 @@
       </c>
       <c r="DS96"/>
       <c r="DT96" t="n">
-        <v>1192.50261432068</v>
+        <v>119.250261432068</v>
       </c>
       <c r="DU96"/>
-      <c r="DV96" t="n">
-        <v>418.392027690649</v>
-      </c>
+      <c r="DV96"/>
       <c r="DW96"/>
       <c r="DX96"/>
       <c r="DY96"/>
-      <c r="DZ96"/>
-      <c r="EA96"/>
-      <c r="EB96"/>
-      <c r="EC96"/>
+      <c r="DZ96" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA96" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB96" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC96" t="n">
+        <v>418.392027690649</v>
+      </c>
       <c r="ED96"/>
     </row>
     <row r="97">
@@ -24356,9 +24764,15 @@
       <c r="DW97"/>
       <c r="DX97"/>
       <c r="DY97"/>
-      <c r="DZ97"/>
-      <c r="EA97"/>
-      <c r="EB97"/>
+      <c r="DZ97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA97" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB97" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC97"/>
       <c r="ED97"/>
     </row>
@@ -24865,19 +25279,25 @@
       </c>
       <c r="DS99"/>
       <c r="DT99" t="n">
-        <v>847.500653512742</v>
+        <v>84.7500653512742</v>
       </c>
       <c r="DU99"/>
-      <c r="DV99" t="n">
-        <v>307.083547583831</v>
-      </c>
+      <c r="DV99"/>
       <c r="DW99"/>
       <c r="DX99"/>
       <c r="DY99"/>
-      <c r="DZ99"/>
-      <c r="EA99"/>
-      <c r="EB99"/>
-      <c r="EC99"/>
+      <c r="DZ99" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA99" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB99" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC99" t="n">
+        <v>307.083547583831</v>
+      </c>
       <c r="ED99"/>
     </row>
     <row r="100">
@@ -25089,19 +25509,25 @@
       </c>
       <c r="DS100"/>
       <c r="DT100" t="n">
-        <v>511.280993415304</v>
+        <v>51.1280993415304</v>
       </c>
       <c r="DU100"/>
-      <c r="DV100" t="n">
-        <v>324.097338981818</v>
-      </c>
+      <c r="DV100"/>
       <c r="DW100"/>
       <c r="DX100"/>
       <c r="DY100"/>
-      <c r="DZ100"/>
-      <c r="EA100"/>
-      <c r="EB100"/>
-      <c r="EC100"/>
+      <c r="DZ100" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA100" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB100" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC100" t="n">
+        <v>324.097338981818</v>
+      </c>
       <c r="ED100"/>
     </row>
     <row r="101">
@@ -25297,19 +25723,25 @@
       </c>
       <c r="DS101"/>
       <c r="DT101" t="n">
-        <v>653.009257272438</v>
+        <v>65.3009257272438</v>
       </c>
       <c r="DU101"/>
-      <c r="DV101" t="n">
-        <v>190.9859319</v>
-      </c>
+      <c r="DV101"/>
       <c r="DW101"/>
       <c r="DX101"/>
       <c r="DY101"/>
-      <c r="DZ101"/>
-      <c r="EA101"/>
-      <c r="EB101"/>
-      <c r="EC101"/>
+      <c r="DZ101" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA101" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB101" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC101" t="n">
+        <v>190.9859319</v>
+      </c>
       <c r="ED101"/>
     </row>
     <row r="102">
@@ -25549,19 +25981,25 @@
       </c>
       <c r="DS102"/>
       <c r="DT102" t="n">
-        <v>885.981831434435</v>
+        <v>88.5981831434435</v>
       </c>
       <c r="DU102"/>
-      <c r="DV102" t="n">
-        <v>210.113073061883</v>
-      </c>
+      <c r="DV102"/>
       <c r="DW102"/>
       <c r="DX102"/>
       <c r="DY102"/>
-      <c r="DZ102"/>
-      <c r="EA102"/>
-      <c r="EB102"/>
-      <c r="EC102"/>
+      <c r="DZ102" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA102" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB102" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC102" t="n">
+        <v>210.113073061883</v>
+      </c>
       <c r="ED102"/>
     </row>
     <row r="103">
@@ -25770,9 +26208,15 @@
       <c r="DW103"/>
       <c r="DX103"/>
       <c r="DY103"/>
-      <c r="DZ103"/>
-      <c r="EA103"/>
-      <c r="EB103"/>
+      <c r="DZ103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA103" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB103" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC103"/>
       <c r="ED103"/>
     </row>
@@ -26124,9 +26568,15 @@
       <c r="DW105"/>
       <c r="DX105"/>
       <c r="DY105"/>
-      <c r="DZ105"/>
-      <c r="EA105"/>
-      <c r="EB105"/>
+      <c r="DZ105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA105" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB105" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC105"/>
       <c r="ED105"/>
     </row>
@@ -26324,9 +26774,15 @@
       <c r="DW106"/>
       <c r="DX106"/>
       <c r="DY106"/>
-      <c r="DZ106"/>
-      <c r="EA106"/>
-      <c r="EB106"/>
+      <c r="DZ106" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA106" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB106" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC106"/>
       <c r="ED106"/>
     </row>
@@ -26910,9 +27366,15 @@
       <c r="DW109"/>
       <c r="DX109"/>
       <c r="DY109"/>
-      <c r="DZ109"/>
-      <c r="EA109"/>
-      <c r="EB109"/>
+      <c r="DZ109" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA109" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB109" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC109"/>
       <c r="ED109"/>
     </row>
@@ -27530,9 +27992,15 @@
       <c r="DW112"/>
       <c r="DX112"/>
       <c r="DY112"/>
-      <c r="DZ112"/>
-      <c r="EA112"/>
-      <c r="EB112"/>
+      <c r="DZ112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA112" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB112" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC112"/>
       <c r="ED112"/>
     </row>
@@ -27789,19 +28257,25 @@
       </c>
       <c r="DS113"/>
       <c r="DT113" t="n">
-        <v>642.349923373607</v>
+        <v>64.2349923373607</v>
       </c>
       <c r="DU113"/>
-      <c r="DV113" t="n">
-        <v>299.2483060875</v>
-      </c>
+      <c r="DV113"/>
       <c r="DW113"/>
       <c r="DX113"/>
       <c r="DY113"/>
-      <c r="DZ113"/>
-      <c r="EA113"/>
-      <c r="EB113"/>
-      <c r="EC113"/>
+      <c r="DZ113" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA113" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC113" t="n">
+        <v>299.2483060875</v>
+      </c>
       <c r="ED113"/>
     </row>
     <row r="114">
@@ -28004,9 +28478,15 @@
       <c r="DW114"/>
       <c r="DX114"/>
       <c r="DY114"/>
-      <c r="DZ114"/>
-      <c r="EA114"/>
-      <c r="EB114"/>
+      <c r="DZ114" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA114" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB114" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC114"/>
       <c r="ED114"/>
     </row>
@@ -28699,19 +29179,19 @@
       </c>
       <c r="DS117"/>
       <c r="DT117" t="n">
-        <v>419.439244567859</v>
+        <v>41.9439244567859</v>
       </c>
       <c r="DU117"/>
-      <c r="DV117" t="n">
-        <v>156.17568815468</v>
-      </c>
+      <c r="DV117"/>
       <c r="DW117"/>
       <c r="DX117"/>
       <c r="DY117"/>
       <c r="DZ117"/>
       <c r="EA117"/>
       <c r="EB117"/>
-      <c r="EC117"/>
+      <c r="EC117" t="n">
+        <v>156.17568815468</v>
+      </c>
       <c r="ED117"/>
     </row>
     <row r="118">
@@ -28959,19 +29439,25 @@
       </c>
       <c r="DS118"/>
       <c r="DT118" t="n">
-        <v>407.261798451973</v>
+        <v>40.7261798451973</v>
       </c>
       <c r="DU118"/>
-      <c r="DV118" t="n">
-        <v>190.84414575902</v>
-      </c>
+      <c r="DV118"/>
       <c r="DW118"/>
       <c r="DX118"/>
       <c r="DY118"/>
-      <c r="DZ118"/>
-      <c r="EA118"/>
-      <c r="EB118"/>
-      <c r="EC118"/>
+      <c r="DZ118" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA118" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB118" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC118" t="n">
+        <v>190.84414575902</v>
+      </c>
       <c r="ED118"/>
     </row>
     <row r="119">
@@ -29219,19 +29705,19 @@
       </c>
       <c r="DS119"/>
       <c r="DT119" t="n">
-        <v>379.13074695259</v>
+        <v>37.913074695259</v>
       </c>
       <c r="DU119"/>
-      <c r="DV119" t="n">
-        <v>183.851399961207</v>
-      </c>
+      <c r="DV119"/>
       <c r="DW119"/>
       <c r="DX119"/>
       <c r="DY119"/>
       <c r="DZ119"/>
       <c r="EA119"/>
       <c r="EB119"/>
-      <c r="EC119"/>
+      <c r="EC119" t="n">
+        <v>183.851399961207</v>
+      </c>
       <c r="ED119"/>
     </row>
     <row r="120">
@@ -29469,19 +29955,19 @@
       </c>
       <c r="DS120"/>
       <c r="DT120" t="n">
-        <v>442.292821421213</v>
+        <v>44.2292821421213</v>
       </c>
       <c r="DU120"/>
-      <c r="DV120" t="n">
-        <v>181.674179996418</v>
-      </c>
+      <c r="DV120"/>
       <c r="DW120"/>
       <c r="DX120"/>
       <c r="DY120"/>
       <c r="DZ120"/>
       <c r="EA120"/>
       <c r="EB120"/>
-      <c r="EC120"/>
+      <c r="EC120" t="n">
+        <v>181.674179996418</v>
+      </c>
       <c r="ED120"/>
     </row>
     <row r="121">
@@ -29881,19 +30367,19 @@
       </c>
       <c r="DS122"/>
       <c r="DT122" t="n">
-        <v>788.571436443026</v>
+        <v>78.8571436443026</v>
       </c>
       <c r="DU122"/>
-      <c r="DV122" t="n">
-        <v>181.891363714286</v>
-      </c>
+      <c r="DV122"/>
       <c r="DW122"/>
       <c r="DX122"/>
       <c r="DY122"/>
       <c r="DZ122"/>
       <c r="EA122"/>
       <c r="EB122"/>
-      <c r="EC122"/>
+      <c r="EC122" t="n">
+        <v>181.891363714286</v>
+      </c>
       <c r="ED122"/>
     </row>
     <row r="123">
@@ -30299,19 +30785,25 @@
       </c>
       <c r="DS124"/>
       <c r="DT124" t="n">
-        <v>776.656754283219</v>
+        <v>77.6656754283219</v>
       </c>
       <c r="DU124"/>
-      <c r="DV124" t="n">
-        <v>298.675818734579</v>
-      </c>
+      <c r="DV124"/>
       <c r="DW124"/>
       <c r="DX124"/>
       <c r="DY124"/>
-      <c r="DZ124"/>
-      <c r="EA124"/>
-      <c r="EB124"/>
-      <c r="EC124"/>
+      <c r="DZ124" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA124" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB124" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC124" t="n">
+        <v>298.675818734579</v>
+      </c>
       <c r="ED124"/>
     </row>
     <row r="125">
@@ -30742,9 +31234,15 @@
       <c r="DW126"/>
       <c r="DX126"/>
       <c r="DY126"/>
-      <c r="DZ126"/>
-      <c r="EA126"/>
-      <c r="EB126"/>
+      <c r="DZ126" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA126" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB126" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC126"/>
       <c r="ED126"/>
     </row>
@@ -30930,9 +31428,15 @@
       <c r="DW127"/>
       <c r="DX127"/>
       <c r="DY127"/>
-      <c r="DZ127"/>
-      <c r="EA127"/>
-      <c r="EB127"/>
+      <c r="DZ127" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA127" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB127" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC127"/>
       <c r="ED127"/>
     </row>
@@ -31156,9 +31660,15 @@
       <c r="DW128"/>
       <c r="DX128"/>
       <c r="DY128"/>
-      <c r="DZ128"/>
-      <c r="EA128"/>
-      <c r="EB128"/>
+      <c r="DZ128" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA128" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB128" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC128"/>
       <c r="ED128"/>
     </row>
@@ -31353,19 +31863,25 @@
       </c>
       <c r="DS129"/>
       <c r="DT129" t="n">
-        <v>560.813491306608</v>
+        <v>56.0813491306608</v>
       </c>
       <c r="DU129"/>
-      <c r="DV129" t="n">
-        <v>201.59626145</v>
-      </c>
+      <c r="DV129"/>
       <c r="DW129"/>
       <c r="DX129"/>
       <c r="DY129"/>
-      <c r="DZ129"/>
-      <c r="EA129"/>
-      <c r="EB129"/>
-      <c r="EC129"/>
+      <c r="DZ129" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA129" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB129" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC129" t="n">
+        <v>201.59626145</v>
+      </c>
       <c r="ED129"/>
     </row>
     <row r="130">
@@ -31576,9 +32092,15 @@
       <c r="DW130"/>
       <c r="DX130"/>
       <c r="DY130"/>
-      <c r="DZ130"/>
-      <c r="EA130"/>
-      <c r="EB130"/>
+      <c r="DZ130" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA130" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB130" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC130"/>
       <c r="ED130"/>
     </row>
@@ -31976,9 +32498,15 @@
       <c r="DW132"/>
       <c r="DX132"/>
       <c r="DY132"/>
-      <c r="DZ132"/>
-      <c r="EA132"/>
-      <c r="EB132"/>
+      <c r="DZ132" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA132" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB132" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC132"/>
       <c r="ED132"/>
     </row>
@@ -32183,19 +32711,25 @@
       </c>
       <c r="DS133"/>
       <c r="DT133" t="n">
-        <v>654.812629351146</v>
+        <v>65.4812629351146</v>
       </c>
       <c r="DU133"/>
-      <c r="DV133" t="n">
-        <v>424.413182</v>
-      </c>
+      <c r="DV133"/>
       <c r="DW133"/>
       <c r="DX133"/>
       <c r="DY133"/>
-      <c r="DZ133"/>
-      <c r="EA133"/>
-      <c r="EB133"/>
-      <c r="EC133"/>
+      <c r="DZ133" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA133" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB133" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC133" t="n">
+        <v>424.413182</v>
+      </c>
       <c r="ED133"/>
     </row>
     <row r="134">
@@ -32410,9 +32944,15 @@
       <c r="DW134"/>
       <c r="DX134"/>
       <c r="DY134"/>
-      <c r="DZ134"/>
-      <c r="EA134"/>
-      <c r="EB134"/>
+      <c r="DZ134" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA134" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB134" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC134"/>
       <c r="ED134"/>
     </row>
@@ -32614,9 +33154,15 @@
       <c r="DW135"/>
       <c r="DX135"/>
       <c r="DY135"/>
-      <c r="DZ135"/>
-      <c r="EA135"/>
-      <c r="EB135"/>
+      <c r="DZ135" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA135" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB135" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC135"/>
       <c r="ED135"/>
     </row>
@@ -32816,9 +33362,15 @@
       <c r="DW136"/>
       <c r="DX136"/>
       <c r="DY136"/>
-      <c r="DZ136"/>
-      <c r="EA136"/>
-      <c r="EB136"/>
+      <c r="DZ136" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA136" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB136" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC136"/>
       <c r="ED136"/>
     </row>
@@ -33057,19 +33609,25 @@
       </c>
       <c r="DS137"/>
       <c r="DT137" t="n">
-        <v>485.739782883636</v>
+        <v>48.5739782883636</v>
       </c>
       <c r="DU137"/>
-      <c r="DV137" t="n">
-        <v>254.897075451663</v>
-      </c>
+      <c r="DV137"/>
       <c r="DW137"/>
       <c r="DX137"/>
       <c r="DY137"/>
-      <c r="DZ137"/>
-      <c r="EA137"/>
-      <c r="EB137"/>
-      <c r="EC137"/>
+      <c r="DZ137" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA137" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB137" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC137" t="n">
+        <v>254.897075451663</v>
+      </c>
       <c r="ED137"/>
     </row>
     <row r="138">
@@ -33270,9 +33828,15 @@
       <c r="DW138"/>
       <c r="DX138"/>
       <c r="DY138"/>
-      <c r="DZ138"/>
-      <c r="EA138"/>
-      <c r="EB138"/>
+      <c r="DZ138" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA138" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB138" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC138"/>
       <c r="ED138"/>
     </row>
@@ -33464,9 +34028,15 @@
       <c r="DW139"/>
       <c r="DX139"/>
       <c r="DY139"/>
-      <c r="DZ139"/>
-      <c r="EA139"/>
-      <c r="EB139"/>
+      <c r="DZ139" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA139" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB139" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC139"/>
       <c r="ED139"/>
     </row>
@@ -33658,9 +34228,15 @@
       <c r="DW140"/>
       <c r="DX140"/>
       <c r="DY140"/>
-      <c r="DZ140"/>
-      <c r="EA140"/>
-      <c r="EB140"/>
+      <c r="DZ140" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA140" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB140" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC140"/>
       <c r="ED140"/>
     </row>
@@ -33848,9 +34424,15 @@
       <c r="DW141"/>
       <c r="DX141"/>
       <c r="DY141"/>
-      <c r="DZ141"/>
-      <c r="EA141"/>
-      <c r="EB141"/>
+      <c r="DZ141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA141" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB141" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC141"/>
       <c r="ED141"/>
     </row>
@@ -34057,19 +34639,25 @@
       </c>
       <c r="DS142"/>
       <c r="DT142" t="n">
-        <v>857.248916522765</v>
+        <v>85.7248916522765</v>
       </c>
       <c r="DU142"/>
-      <c r="DV142" t="n">
-        <v>240.096600102857</v>
-      </c>
+      <c r="DV142"/>
       <c r="DW142"/>
       <c r="DX142"/>
       <c r="DY142"/>
-      <c r="DZ142"/>
-      <c r="EA142"/>
-      <c r="EB142"/>
-      <c r="EC142"/>
+      <c r="DZ142" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA142" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB142" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC142" t="n">
+        <v>240.096600102857</v>
+      </c>
       <c r="ED142"/>
     </row>
     <row r="143">
@@ -34294,9 +34882,15 @@
       <c r="DW143"/>
       <c r="DX143"/>
       <c r="DY143"/>
-      <c r="DZ143"/>
-      <c r="EA143"/>
-      <c r="EB143"/>
+      <c r="DZ143" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA143" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB143" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC143"/>
       <c r="ED143"/>
     </row>
@@ -34513,19 +35107,25 @@
       </c>
       <c r="DS144"/>
       <c r="DT144" t="n">
-        <v>525.436668722576</v>
+        <v>52.5436668722576</v>
       </c>
       <c r="DU144"/>
-      <c r="DV144" t="n">
-        <v>235.134659452874</v>
-      </c>
+      <c r="DV144"/>
       <c r="DW144"/>
       <c r="DX144"/>
       <c r="DY144"/>
-      <c r="DZ144"/>
-      <c r="EA144"/>
-      <c r="EB144"/>
-      <c r="EC144"/>
+      <c r="DZ144" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA144" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB144" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC144" t="n">
+        <v>235.134659452874</v>
+      </c>
       <c r="ED144"/>
     </row>
     <row r="145">
@@ -34736,9 +35336,15 @@
       <c r="DW145"/>
       <c r="DX145"/>
       <c r="DY145"/>
-      <c r="DZ145"/>
-      <c r="EA145"/>
-      <c r="EB145"/>
+      <c r="DZ145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA145" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB145" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC145"/>
       <c r="ED145"/>
     </row>
@@ -34916,9 +35522,15 @@
       <c r="DW146"/>
       <c r="DX146"/>
       <c r="DY146"/>
-      <c r="DZ146"/>
-      <c r="EA146"/>
-      <c r="EB146"/>
+      <c r="DZ146" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA146" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB146" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC146"/>
       <c r="ED146"/>
     </row>
@@ -35096,9 +35708,15 @@
       <c r="DW147"/>
       <c r="DX147"/>
       <c r="DY147"/>
-      <c r="DZ147"/>
-      <c r="EA147"/>
-      <c r="EB147"/>
+      <c r="DZ147" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA147" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB147" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC147"/>
       <c r="ED147"/>
     </row>
@@ -35617,19 +36235,19 @@
       </c>
       <c r="DS149"/>
       <c r="DT149" t="n">
-        <v>511.541433884824</v>
+        <v>51.1541433884824</v>
       </c>
       <c r="DU149"/>
-      <c r="DV149" t="n">
-        <v>215.322535880506</v>
-      </c>
+      <c r="DV149"/>
       <c r="DW149"/>
       <c r="DX149"/>
       <c r="DY149"/>
       <c r="DZ149"/>
       <c r="EA149"/>
       <c r="EB149"/>
-      <c r="EC149"/>
+      <c r="EC149" t="n">
+        <v>215.322535880506</v>
+      </c>
       <c r="ED149"/>
     </row>
     <row r="150">
@@ -35913,19 +36531,19 @@
       </c>
       <c r="DS150"/>
       <c r="DT150" t="n">
-        <v>569.364654787905</v>
+        <v>56.9364654787905</v>
       </c>
       <c r="DU150"/>
-      <c r="DV150" t="n">
-        <v>246.279328236052</v>
-      </c>
+      <c r="DV150"/>
       <c r="DW150"/>
       <c r="DX150"/>
       <c r="DY150"/>
       <c r="DZ150"/>
       <c r="EA150"/>
       <c r="EB150"/>
-      <c r="EC150"/>
+      <c r="EC150" t="n">
+        <v>246.279328236052</v>
+      </c>
       <c r="ED150"/>
     </row>
     <row r="151">
@@ -36221,19 +36839,19 @@
       </c>
       <c r="DS151"/>
       <c r="DT151" t="n">
-        <v>562.339848883984</v>
+        <v>56.2339848883984</v>
       </c>
       <c r="DU151"/>
-      <c r="DV151" t="n">
-        <v>292.909275937107</v>
-      </c>
+      <c r="DV151"/>
       <c r="DW151"/>
       <c r="DX151"/>
       <c r="DY151"/>
       <c r="DZ151"/>
       <c r="EA151"/>
       <c r="EB151"/>
-      <c r="EC151"/>
+      <c r="EC151" t="n">
+        <v>292.909275937107</v>
+      </c>
       <c r="ED151"/>
     </row>
     <row r="152">
@@ -36493,19 +37111,19 @@
       </c>
       <c r="DS152"/>
       <c r="DT152" t="n">
-        <v>687.090983443747</v>
+        <v>68.7090983443747</v>
       </c>
       <c r="DU152"/>
-      <c r="DV152" t="n">
-        <v>320.418653876992</v>
-      </c>
+      <c r="DV152"/>
       <c r="DW152"/>
       <c r="DX152"/>
       <c r="DY152"/>
       <c r="DZ152"/>
       <c r="EA152"/>
       <c r="EB152"/>
-      <c r="EC152"/>
+      <c r="EC152" t="n">
+        <v>320.418653876992</v>
+      </c>
       <c r="ED152"/>
     </row>
     <row r="153">
@@ -36789,19 +37407,19 @@
       </c>
       <c r="DS153"/>
       <c r="DT153" t="n">
-        <v>458.268104192626</v>
+        <v>45.8268104192626</v>
       </c>
       <c r="DU153"/>
-      <c r="DV153" t="n">
-        <v>237.593507941651</v>
-      </c>
+      <c r="DV153"/>
       <c r="DW153"/>
       <c r="DX153"/>
       <c r="DY153"/>
       <c r="DZ153"/>
       <c r="EA153"/>
       <c r="EB153"/>
-      <c r="EC153"/>
+      <c r="EC153" t="n">
+        <v>237.593507941651</v>
+      </c>
       <c r="ED153"/>
     </row>
     <row r="154">
@@ -37061,19 +37679,19 @@
       </c>
       <c r="DS154"/>
       <c r="DT154" t="n">
-        <v>833.280202411382</v>
+        <v>83.3280202411382</v>
       </c>
       <c r="DU154"/>
-      <c r="DV154" t="n">
-        <v>343.41861235892</v>
-      </c>
+      <c r="DV154"/>
       <c r="DW154"/>
       <c r="DX154"/>
       <c r="DY154"/>
       <c r="DZ154"/>
       <c r="EA154"/>
       <c r="EB154"/>
-      <c r="EC154"/>
+      <c r="EC154" t="n">
+        <v>343.41861235892</v>
+      </c>
       <c r="ED154"/>
     </row>
     <row r="155">
@@ -37369,19 +37987,19 @@
       </c>
       <c r="DS155"/>
       <c r="DT155" t="n">
-        <v>624.886158335465</v>
+        <v>62.4886158335465</v>
       </c>
       <c r="DU155"/>
-      <c r="DV155" t="n">
-        <v>291.920317892626</v>
-      </c>
+      <c r="DV155"/>
       <c r="DW155"/>
       <c r="DX155"/>
       <c r="DY155"/>
       <c r="DZ155"/>
       <c r="EA155"/>
       <c r="EB155"/>
-      <c r="EC155"/>
+      <c r="EC155" t="n">
+        <v>291.920317892626</v>
+      </c>
       <c r="ED155"/>
     </row>
     <row r="156">
@@ -37665,19 +38283,19 @@
       </c>
       <c r="DS156"/>
       <c r="DT156" t="n">
-        <v>548.314488471008</v>
+        <v>54.8314488471008</v>
       </c>
       <c r="DU156"/>
-      <c r="DV156" t="n">
-        <v>310.516989090395</v>
-      </c>
+      <c r="DV156"/>
       <c r="DW156"/>
       <c r="DX156"/>
       <c r="DY156"/>
       <c r="DZ156"/>
       <c r="EA156"/>
       <c r="EB156"/>
-      <c r="EC156"/>
+      <c r="EC156" t="n">
+        <v>310.516989090395</v>
+      </c>
       <c r="ED156"/>
     </row>
     <row r="157">
@@ -37894,9 +38512,15 @@
       <c r="DW157"/>
       <c r="DX157"/>
       <c r="DY157"/>
-      <c r="DZ157"/>
-      <c r="EA157"/>
-      <c r="EB157"/>
+      <c r="DZ157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA157" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB157" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC157"/>
       <c r="ED157"/>
     </row>
@@ -38124,9 +38748,15 @@
       <c r="DW158"/>
       <c r="DX158"/>
       <c r="DY158"/>
-      <c r="DZ158"/>
-      <c r="EA158"/>
-      <c r="EB158"/>
+      <c r="DZ158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA158" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB158" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC158"/>
       <c r="ED158"/>
     </row>
@@ -38357,19 +38987,25 @@
       </c>
       <c r="DS159"/>
       <c r="DT159" t="n">
-        <v>436.800002257029</v>
+        <v>43.6800002257029</v>
       </c>
       <c r="DU159"/>
-      <c r="DV159" t="n">
-        <v>168.067620072</v>
-      </c>
+      <c r="DV159"/>
       <c r="DW159"/>
       <c r="DX159"/>
       <c r="DY159"/>
-      <c r="DZ159"/>
-      <c r="EA159"/>
-      <c r="EB159"/>
-      <c r="EC159"/>
+      <c r="DZ159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA159" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB159" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC159" t="n">
+        <v>168.067620072</v>
+      </c>
       <c r="ED159"/>
     </row>
     <row r="160">
@@ -38582,9 +39218,15 @@
       <c r="DW160"/>
       <c r="DX160"/>
       <c r="DY160"/>
-      <c r="DZ160"/>
-      <c r="EA160"/>
-      <c r="EB160"/>
+      <c r="DZ160" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA160" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB160" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC160"/>
       <c r="ED160"/>
     </row>
@@ -38754,9 +39396,15 @@
       <c r="DW161"/>
       <c r="DX161"/>
       <c r="DY161"/>
-      <c r="DZ161"/>
-      <c r="EA161"/>
-      <c r="EB161"/>
+      <c r="DZ161" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA161" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB161" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC161"/>
       <c r="ED161"/>
     </row>
@@ -38993,19 +39641,25 @@
       </c>
       <c r="DS162"/>
       <c r="DT162" t="n">
-        <v>951.933807983212</v>
+        <v>95.1933807983212</v>
       </c>
       <c r="DU162"/>
-      <c r="DV162" t="n">
-        <v>250.393648187112</v>
-      </c>
+      <c r="DV162"/>
       <c r="DW162"/>
       <c r="DX162"/>
       <c r="DY162"/>
-      <c r="DZ162"/>
-      <c r="EA162"/>
-      <c r="EB162"/>
-      <c r="EC162"/>
+      <c r="DZ162" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA162" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB162" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC162" t="n">
+        <v>250.393648187112</v>
+      </c>
       <c r="ED162"/>
     </row>
     <row r="163">
@@ -39255,19 +39909,25 @@
       </c>
       <c r="DS163"/>
       <c r="DT163" t="n">
-        <v>676.400597710246</v>
+        <v>67.6400597710246</v>
       </c>
       <c r="DU163"/>
-      <c r="DV163" t="n">
-        <v>195.268127682511</v>
-      </c>
+      <c r="DV163"/>
       <c r="DW163"/>
       <c r="DX163"/>
       <c r="DY163"/>
-      <c r="DZ163"/>
-      <c r="EA163"/>
-      <c r="EB163"/>
-      <c r="EC163"/>
+      <c r="DZ163" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA163" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB163" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC163" t="n">
+        <v>195.268127682511</v>
+      </c>
       <c r="ED163"/>
     </row>
     <row r="164">
@@ -39509,19 +40169,19 @@
       </c>
       <c r="DS164"/>
       <c r="DT164" t="n">
-        <v>781.981481161628</v>
+        <v>78.1981481161628</v>
       </c>
       <c r="DU164"/>
-      <c r="DV164" t="n">
-        <v>309.664432792593</v>
-      </c>
+      <c r="DV164"/>
       <c r="DW164"/>
       <c r="DX164"/>
       <c r="DY164"/>
       <c r="DZ164"/>
       <c r="EA164"/>
       <c r="EB164"/>
-      <c r="EC164"/>
+      <c r="EC164" t="n">
+        <v>309.664432792593</v>
+      </c>
       <c r="ED164"/>
     </row>
     <row r="165">
@@ -39717,19 +40377,25 @@
       </c>
       <c r="DS165"/>
       <c r="DT165" t="n">
-        <v>602.381676901643</v>
+        <v>60.2381676901643</v>
       </c>
       <c r="DU165"/>
-      <c r="DV165" t="n">
-        <v>204.489987690909</v>
-      </c>
+      <c r="DV165"/>
       <c r="DW165"/>
       <c r="DX165"/>
       <c r="DY165"/>
-      <c r="DZ165"/>
-      <c r="EA165"/>
-      <c r="EB165"/>
-      <c r="EC165"/>
+      <c r="DZ165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA165" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB165" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC165" t="n">
+        <v>204.489987690909</v>
+      </c>
       <c r="ED165"/>
     </row>
     <row r="166">
@@ -40016,9 +40682,15 @@
       <c r="DW166"/>
       <c r="DX166"/>
       <c r="DY166"/>
-      <c r="DZ166"/>
-      <c r="EA166"/>
-      <c r="EB166"/>
+      <c r="DZ166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA166" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB166" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC166"/>
       <c r="ED166"/>
     </row>
@@ -40284,9 +40956,15 @@
       <c r="DW167"/>
       <c r="DX167"/>
       <c r="DY167"/>
-      <c r="DZ167"/>
-      <c r="EA167"/>
-      <c r="EB167"/>
+      <c r="DZ167" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA167" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB167" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC167"/>
       <c r="ED167"/>
     </row>
@@ -40595,19 +41273,25 @@
       </c>
       <c r="DS168"/>
       <c r="DT168" t="n">
-        <v>530.447375281681</v>
+        <v>53.0447375281681</v>
       </c>
       <c r="DU168"/>
-      <c r="DV168" t="n">
-        <v>292.103343124218</v>
-      </c>
+      <c r="DV168"/>
       <c r="DW168"/>
       <c r="DX168"/>
       <c r="DY168"/>
-      <c r="DZ168"/>
-      <c r="EA168"/>
-      <c r="EB168"/>
-      <c r="EC168"/>
+      <c r="DZ168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA168" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB168" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC168" t="n">
+        <v>292.103343124218</v>
+      </c>
       <c r="ED168"/>
     </row>
     <row r="169">
@@ -40872,9 +41556,15 @@
       <c r="DW169"/>
       <c r="DX169"/>
       <c r="DY169"/>
-      <c r="DZ169"/>
-      <c r="EA169"/>
-      <c r="EB169"/>
+      <c r="DZ169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA169" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB169" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC169"/>
       <c r="ED169"/>
     </row>
@@ -41195,25 +41885,25 @@
       </c>
       <c r="DS170"/>
       <c r="DT170" t="n">
-        <v>472.362921427596</v>
+        <v>47.2362921427596</v>
       </c>
       <c r="DU170"/>
-      <c r="DV170" t="n">
-        <v>352.266810794962</v>
-      </c>
+      <c r="DV170"/>
       <c r="DW170"/>
       <c r="DX170"/>
       <c r="DY170"/>
       <c r="DZ170" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="EA170" t="n">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="EB170" t="n">
-        <v>3</v>
-      </c>
-      <c r="EC170"/>
+        <v>0.96</v>
+      </c>
+      <c r="EC170" t="n">
+        <v>352.266810794962</v>
+      </c>
       <c r="ED170"/>
     </row>
     <row r="171">
@@ -41484,9 +42174,15 @@
       <c r="DW171"/>
       <c r="DX171"/>
       <c r="DY171"/>
-      <c r="DZ171"/>
-      <c r="EA171"/>
-      <c r="EB171"/>
+      <c r="DZ171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA171" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB171" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC171"/>
       <c r="ED171"/>
     </row>
@@ -41771,19 +42467,25 @@
       </c>
       <c r="DS172"/>
       <c r="DT172" t="n">
-        <v>660.600781237444</v>
+        <v>66.0600781237444</v>
       </c>
       <c r="DU172"/>
-      <c r="DV172" t="n">
-        <v>276.990167618182</v>
-      </c>
+      <c r="DV172"/>
       <c r="DW172"/>
       <c r="DX172"/>
       <c r="DY172"/>
-      <c r="DZ172"/>
-      <c r="EA172"/>
-      <c r="EB172"/>
-      <c r="EC172"/>
+      <c r="DZ172" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA172" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB172" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC172" t="n">
+        <v>276.990167618182</v>
+      </c>
       <c r="ED172"/>
     </row>
     <row r="173">
@@ -42091,19 +42793,25 @@
       </c>
       <c r="DS173"/>
       <c r="DT173" t="n">
-        <v>616.67619616544</v>
+        <v>61.667619616544</v>
       </c>
       <c r="DU173"/>
-      <c r="DV173" t="n">
-        <v>246.124570090413</v>
-      </c>
+      <c r="DV173"/>
       <c r="DW173"/>
       <c r="DX173"/>
       <c r="DY173"/>
-      <c r="DZ173"/>
-      <c r="EA173"/>
-      <c r="EB173"/>
-      <c r="EC173"/>
+      <c r="DZ173" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA173" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB173" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC173" t="n">
+        <v>246.124570090413</v>
+      </c>
       <c r="ED173"/>
     </row>
     <row r="174">
@@ -42387,19 +43095,25 @@
       </c>
       <c r="DS174"/>
       <c r="DT174" t="n">
-        <v>638.635385231734</v>
+        <v>63.8635385231734</v>
       </c>
       <c r="DU174"/>
-      <c r="DV174" t="n">
-        <v>387.568521145055</v>
-      </c>
+      <c r="DV174"/>
       <c r="DW174"/>
       <c r="DX174"/>
       <c r="DY174"/>
-      <c r="DZ174"/>
-      <c r="EA174"/>
-      <c r="EB174"/>
-      <c r="EC174"/>
+      <c r="DZ174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA174" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB174" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC174" t="n">
+        <v>387.568521145055</v>
+      </c>
       <c r="ED174"/>
     </row>
     <row r="175">
@@ -42695,19 +43409,25 @@
       </c>
       <c r="DS175"/>
       <c r="DT175" t="n">
-        <v>730.516846516884</v>
+        <v>73.0516846516884</v>
       </c>
       <c r="DU175"/>
-      <c r="DV175" t="n">
-        <v>274.695461775222</v>
-      </c>
+      <c r="DV175"/>
       <c r="DW175"/>
       <c r="DX175"/>
       <c r="DY175"/>
-      <c r="DZ175"/>
-      <c r="EA175"/>
-      <c r="EB175"/>
-      <c r="EC175"/>
+      <c r="DZ175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA175" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB175" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC175" t="n">
+        <v>274.695461775222</v>
+      </c>
       <c r="ED175"/>
     </row>
     <row r="176">
@@ -42991,19 +43711,25 @@
       </c>
       <c r="DS176"/>
       <c r="DT176" t="n">
-        <v>970.615080343207</v>
+        <v>97.0615080343207</v>
       </c>
       <c r="DU176"/>
-      <c r="DV176" t="n">
-        <v>274.236209907692</v>
-      </c>
+      <c r="DV176"/>
       <c r="DW176"/>
       <c r="DX176"/>
       <c r="DY176"/>
-      <c r="DZ176"/>
-      <c r="EA176"/>
-      <c r="EB176"/>
-      <c r="EC176"/>
+      <c r="DZ176" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA176" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB176" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC176" t="n">
+        <v>274.236209907692</v>
+      </c>
       <c r="ED176"/>
     </row>
     <row r="177">
@@ -43311,19 +44037,25 @@
       </c>
       <c r="DS177"/>
       <c r="DT177" t="n">
-        <v>453.748026173006</v>
+        <v>45.3748026173006</v>
       </c>
       <c r="DU177"/>
-      <c r="DV177" t="n">
-        <v>207.034276761937</v>
-      </c>
+      <c r="DV177"/>
       <c r="DW177"/>
       <c r="DX177"/>
       <c r="DY177"/>
-      <c r="DZ177"/>
-      <c r="EA177"/>
-      <c r="EB177"/>
-      <c r="EC177"/>
+      <c r="DZ177" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="EA177" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB177" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC177" t="n">
+        <v>207.034276761937</v>
+      </c>
       <c r="ED177"/>
     </row>
     <row r="178">
@@ -43520,9 +44252,15 @@
       <c r="DW178"/>
       <c r="DX178"/>
       <c r="DY178"/>
-      <c r="DZ178"/>
-      <c r="EA178"/>
-      <c r="EB178"/>
+      <c r="DZ178" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA178" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB178" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC178"/>
       <c r="ED178"/>
     </row>
@@ -43753,19 +44491,25 @@
       </c>
       <c r="DS179"/>
       <c r="DT179" t="n">
-        <v>576.346154009175</v>
+        <v>57.6346154009175</v>
       </c>
       <c r="DU179"/>
-      <c r="DV179" t="n">
-        <v>215.471307784615</v>
-      </c>
+      <c r="DV179"/>
       <c r="DW179"/>
       <c r="DX179"/>
       <c r="DY179"/>
-      <c r="DZ179"/>
-      <c r="EA179"/>
-      <c r="EB179"/>
-      <c r="EC179"/>
+      <c r="DZ179" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA179" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB179" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC179" t="n">
+        <v>215.471307784615</v>
+      </c>
       <c r="ED179"/>
     </row>
     <row r="180">
@@ -44198,9 +44942,15 @@
       <c r="DW181"/>
       <c r="DX181"/>
       <c r="DY181"/>
-      <c r="DZ181"/>
-      <c r="EA181"/>
-      <c r="EB181"/>
+      <c r="DZ181" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA181" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB181" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC181"/>
       <c r="ED181"/>
     </row>
@@ -44416,9 +45166,15 @@
       <c r="DW182"/>
       <c r="DX182"/>
       <c r="DY182"/>
-      <c r="DZ182"/>
-      <c r="EA182"/>
-      <c r="EB182"/>
+      <c r="DZ182" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA182" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB182" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC182"/>
       <c r="ED182"/>
     </row>
@@ -44633,19 +45389,25 @@
       </c>
       <c r="DS183"/>
       <c r="DT183" t="n">
-        <v>1001.51631302668</v>
+        <v>100.151631302668</v>
       </c>
       <c r="DU183"/>
-      <c r="DV183" t="n">
-        <v>296.273048203846</v>
-      </c>
+      <c r="DV183"/>
       <c r="DW183"/>
       <c r="DX183"/>
       <c r="DY183"/>
-      <c r="DZ183"/>
-      <c r="EA183"/>
-      <c r="EB183"/>
-      <c r="EC183"/>
+      <c r="DZ183" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA183" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB183" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC183" t="n">
+        <v>296.273048203846</v>
+      </c>
       <c r="ED183"/>
     </row>
     <row r="184">
@@ -44866,9 +45628,15 @@
       <c r="DW184"/>
       <c r="DX184"/>
       <c r="DY184"/>
-      <c r="DZ184"/>
-      <c r="EA184"/>
-      <c r="EB184"/>
+      <c r="DZ184" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA184" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB184" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC184"/>
       <c r="ED184"/>
     </row>
@@ -45092,9 +45860,15 @@
       <c r="DW185"/>
       <c r="DX185"/>
       <c r="DY185"/>
-      <c r="DZ185"/>
-      <c r="EA185"/>
-      <c r="EB185"/>
+      <c r="DZ185" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA185" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB185" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC185"/>
       <c r="ED185"/>
     </row>
@@ -45510,9 +46284,15 @@
       <c r="DW187"/>
       <c r="DX187"/>
       <c r="DY187"/>
-      <c r="DZ187"/>
-      <c r="EA187"/>
-      <c r="EB187"/>
+      <c r="DZ187" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA187" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB187" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC187"/>
       <c r="ED187"/>
     </row>
@@ -45761,19 +46541,25 @@
       </c>
       <c r="DS188"/>
       <c r="DT188" t="n">
-        <v>782.407695183472</v>
+        <v>78.2407695183472</v>
       </c>
       <c r="DU188"/>
-      <c r="DV188" t="n">
-        <v>297.220624669969</v>
-      </c>
+      <c r="DV188"/>
       <c r="DW188"/>
       <c r="DX188"/>
       <c r="DY188"/>
-      <c r="DZ188"/>
-      <c r="EA188"/>
-      <c r="EB188"/>
-      <c r="EC188"/>
+      <c r="DZ188" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA188" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB188" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC188" t="n">
+        <v>297.220624669969</v>
+      </c>
       <c r="ED188"/>
     </row>
     <row r="189">
@@ -46419,19 +47205,25 @@
       </c>
       <c r="DS191"/>
       <c r="DT191" t="n">
-        <v>563.637312401064</v>
+        <v>56.3637312401064</v>
       </c>
       <c r="DU191"/>
-      <c r="DV191" t="n">
-        <v>188.369686257534</v>
-      </c>
+      <c r="DV191"/>
       <c r="DW191"/>
       <c r="DX191"/>
       <c r="DY191"/>
-      <c r="DZ191"/>
-      <c r="EA191"/>
-      <c r="EB191"/>
-      <c r="EC191"/>
+      <c r="DZ191" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA191" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB191" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC191" t="n">
+        <v>188.369686257534</v>
+      </c>
       <c r="ED191"/>
     </row>
     <row r="192">
@@ -46624,9 +47416,15 @@
       <c r="DW192"/>
       <c r="DX192"/>
       <c r="DY192"/>
-      <c r="DZ192"/>
-      <c r="EA192"/>
-      <c r="EB192"/>
+      <c r="DZ192" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA192" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB192" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC192"/>
       <c r="ED192"/>
     </row>
@@ -46982,9 +47780,15 @@
       <c r="DW194"/>
       <c r="DX194"/>
       <c r="DY194"/>
-      <c r="DZ194"/>
-      <c r="EA194"/>
-      <c r="EB194"/>
+      <c r="DZ194" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA194" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB194" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC194"/>
       <c r="ED194"/>
     </row>
@@ -47166,9 +47970,15 @@
       <c r="DW195"/>
       <c r="DX195"/>
       <c r="DY195"/>
-      <c r="DZ195"/>
-      <c r="EA195"/>
-      <c r="EB195"/>
+      <c r="DZ195" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA195" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB195" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC195"/>
       <c r="ED195"/>
     </row>
@@ -47356,9 +48166,15 @@
       <c r="DW196"/>
       <c r="DX196"/>
       <c r="DY196"/>
-      <c r="DZ196"/>
-      <c r="EA196"/>
-      <c r="EB196"/>
+      <c r="DZ196" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA196" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB196" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC196"/>
       <c r="ED196"/>
     </row>
@@ -47544,9 +48360,15 @@
       <c r="DW197"/>
       <c r="DX197"/>
       <c r="DY197"/>
-      <c r="DZ197"/>
-      <c r="EA197"/>
-      <c r="EB197"/>
+      <c r="DZ197" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA197" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB197" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC197"/>
       <c r="ED197"/>
     </row>
@@ -47767,19 +48589,25 @@
       </c>
       <c r="DS198"/>
       <c r="DT198" t="n">
-        <v>723.020197793148</v>
+        <v>72.3020197793148</v>
       </c>
       <c r="DU198"/>
-      <c r="DV198" t="n">
-        <v>202.430781751685</v>
-      </c>
+      <c r="DV198"/>
       <c r="DW198"/>
       <c r="DX198"/>
       <c r="DY198"/>
-      <c r="DZ198"/>
-      <c r="EA198"/>
-      <c r="EB198"/>
-      <c r="EC198"/>
+      <c r="DZ198" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA198" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB198" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC198" t="n">
+        <v>202.430781751685</v>
+      </c>
       <c r="ED198"/>
     </row>
     <row r="199">
@@ -47968,9 +48796,15 @@
       <c r="DW199"/>
       <c r="DX199"/>
       <c r="DY199"/>
-      <c r="DZ199"/>
-      <c r="EA199"/>
-      <c r="EB199"/>
+      <c r="DZ199" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA199" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB199" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC199"/>
       <c r="ED199"/>
     </row>
@@ -48369,19 +49203,25 @@
       </c>
       <c r="DS201"/>
       <c r="DT201" t="n">
-        <v>582.020671455398</v>
+        <v>58.2020671455398</v>
       </c>
       <c r="DU201"/>
-      <c r="DV201" t="n">
-        <v>481.241387725424</v>
-      </c>
+      <c r="DV201"/>
       <c r="DW201"/>
       <c r="DX201"/>
       <c r="DY201"/>
-      <c r="DZ201"/>
-      <c r="EA201"/>
-      <c r="EB201"/>
-      <c r="EC201"/>
+      <c r="DZ201" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA201" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB201" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC201" t="n">
+        <v>481.241387725424</v>
+      </c>
       <c r="ED201"/>
     </row>
     <row r="202">
@@ -48794,9 +49634,15 @@
       <c r="DW203"/>
       <c r="DX203"/>
       <c r="DY203"/>
-      <c r="DZ203"/>
-      <c r="EA203"/>
-      <c r="EB203"/>
+      <c r="DZ203" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA203" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB203" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC203"/>
       <c r="ED203"/>
     </row>
@@ -49186,9 +50032,15 @@
       <c r="DW205"/>
       <c r="DX205"/>
       <c r="DY205"/>
-      <c r="DZ205"/>
-      <c r="EA205"/>
-      <c r="EB205"/>
+      <c r="DZ205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA205" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB205" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC205"/>
       <c r="ED205"/>
     </row>
@@ -49604,9 +50456,15 @@
       <c r="DW207"/>
       <c r="DX207"/>
       <c r="DY207"/>
-      <c r="DZ207"/>
-      <c r="EA207"/>
-      <c r="EB207"/>
+      <c r="DZ207" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA207" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB207" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC207"/>
       <c r="ED207"/>
     </row>
@@ -50037,19 +50895,25 @@
       </c>
       <c r="DS209"/>
       <c r="DT209" t="n">
-        <v>807.655170731161</v>
+        <v>80.7655170731161</v>
       </c>
       <c r="DU209"/>
-      <c r="DV209" t="n">
-        <v>188.790691303448</v>
-      </c>
+      <c r="DV209"/>
       <c r="DW209"/>
       <c r="DX209"/>
       <c r="DY209"/>
-      <c r="DZ209"/>
-      <c r="EA209"/>
-      <c r="EB209"/>
-      <c r="EC209"/>
+      <c r="DZ209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA209" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB209" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC209" t="n">
+        <v>188.790691303448</v>
+      </c>
       <c r="ED209"/>
     </row>
     <row r="210">
@@ -50256,9 +51120,15 @@
       <c r="DW210"/>
       <c r="DX210"/>
       <c r="DY210"/>
-      <c r="DZ210"/>
-      <c r="EA210"/>
-      <c r="EB210"/>
+      <c r="DZ210" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA210" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB210" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC210"/>
       <c r="ED210"/>
     </row>
@@ -50467,19 +51337,25 @@
       </c>
       <c r="DS211"/>
       <c r="DT211" t="n">
-        <v>769.10357348427</v>
+        <v>76.910357348427</v>
       </c>
       <c r="DU211"/>
-      <c r="DV211" t="n">
-        <v>225.653345281188</v>
-      </c>
+      <c r="DV211"/>
       <c r="DW211"/>
       <c r="DX211"/>
       <c r="DY211"/>
-      <c r="DZ211"/>
-      <c r="EA211"/>
-      <c r="EB211"/>
-      <c r="EC211"/>
+      <c r="DZ211" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA211" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB211" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="EC211" t="n">
+        <v>225.653345281188</v>
+      </c>
       <c r="ED211"/>
     </row>
     <row r="212">
@@ -51118,9 +51994,15 @@
       <c r="DW214"/>
       <c r="DX214"/>
       <c r="DY214"/>
-      <c r="DZ214"/>
-      <c r="EA214"/>
-      <c r="EB214"/>
+      <c r="DZ214" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA214" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB214" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC214"/>
       <c r="ED214"/>
     </row>
@@ -51294,9 +52176,15 @@
       <c r="DW215"/>
       <c r="DX215"/>
       <c r="DY215"/>
-      <c r="DZ215"/>
-      <c r="EA215"/>
-      <c r="EB215"/>
+      <c r="DZ215" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EA215" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB215" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC215"/>
       <c r="ED215"/>
     </row>
@@ -51488,9 +52376,15 @@
       <c r="DW216"/>
       <c r="DX216"/>
       <c r="DY216"/>
-      <c r="DZ216"/>
-      <c r="EA216"/>
-      <c r="EB216"/>
+      <c r="DZ216" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EA216" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EB216" t="n">
+        <v>0.96</v>
+      </c>
       <c r="EC216"/>
       <c r="ED216"/>
     </row>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3484,8 +3484,12 @@
       <c r="AK2" t="n">
         <v>0.538</v>
       </c>
-      <c r="AL2"/>
-      <c r="AM2"/>
+      <c r="AL2" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AN2" t="n">
         <v>8.17182175398255</v>
       </c>
@@ -3786,8 +3790,12 @@
       <c r="AK3" t="n">
         <v>0.538</v>
       </c>
-      <c r="AL3"/>
-      <c r="AM3"/>
+      <c r="AL3" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AN3" t="n">
         <v>6.94616280688307</v>
       </c>
@@ -4286,8 +4294,12 @@
       <c r="AK5" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AL5"/>
-      <c r="AM5"/>
+      <c r="AL5" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AN5" t="n">
         <v>0.507387500517078</v>
       </c>
@@ -4574,8 +4586,12 @@
       <c r="AK6" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AL6"/>
-      <c r="AM6"/>
+      <c r="AL6" t="n">
+        <v>0.541542768478394</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.788916230201721</v>
+      </c>
       <c r="AN6" t="n">
         <v>0.495431887366819</v>
       </c>
@@ -4856,8 +4872,12 @@
       <c r="AK7" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AL7"/>
-      <c r="AM7"/>
+      <c r="AL7" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AN7" t="n">
         <v>0.484782162699793</v>
       </c>
@@ -5130,8 +5150,12 @@
       <c r="AK8" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AL8"/>
-      <c r="AM8"/>
+      <c r="AL8" t="n">
+        <v>0.505662977695465</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.660250067710876</v>
+      </c>
       <c r="AN8" t="n">
         <v>0.5</v>
       </c>
@@ -5418,8 +5442,12 @@
       <c r="AK9" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AL9"/>
-      <c r="AM9"/>
+      <c r="AL9" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AN9" t="n">
         <v>0.501066494197649</v>
       </c>
@@ -5692,8 +5720,12 @@
       <c r="AK10" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AL10"/>
-      <c r="AM10"/>
+      <c r="AL10" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AN10" t="n">
         <v>0.500799870648237</v>
       </c>
@@ -6364,8 +6396,12 @@
       <c r="AI13"/>
       <c r="AJ13"/>
       <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
+      <c r="AL13" t="n">
+        <v>0.938851535320282</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.728770196437836</v>
+      </c>
       <c r="AN13" t="n">
         <v>0.638888888888889</v>
       </c>
@@ -7778,8 +7814,12 @@
       <c r="AI20"/>
       <c r="AJ20"/>
       <c r="AK20"/>
-      <c r="AL20"/>
-      <c r="AM20"/>
+      <c r="AL20" t="n">
+        <v>0.705356061458588</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.383020341396332</v>
+      </c>
       <c r="AN20" t="n">
         <v>1.13197888302678</v>
       </c>
@@ -8014,8 +8054,12 @@
       <c r="AI21"/>
       <c r="AJ21"/>
       <c r="AK21"/>
-      <c r="AL21"/>
-      <c r="AM21"/>
+      <c r="AL21" t="n">
+        <v>0.705356061458588</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.383020341396332</v>
+      </c>
       <c r="AN21" t="n">
         <v>1.13197888302678</v>
       </c>
@@ -9588,8 +9632,12 @@
       <c r="AI28"/>
       <c r="AJ28"/>
       <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
+      <c r="AL28" t="n">
+        <v>0.394042134284973</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.00008010864258</v>
+      </c>
       <c r="AN28" t="n">
         <v>0.371978485921592</v>
       </c>
@@ -10946,8 +10994,12 @@
       <c r="AK34" t="n">
         <v>0.5856</v>
       </c>
-      <c r="AL34"/>
-      <c r="AM34"/>
+      <c r="AL34" t="n">
+        <v>0.53074312210083</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.84493887424469</v>
+      </c>
       <c r="AN34" t="n">
         <v>0.416666666666667</v>
       </c>
@@ -11222,8 +11274,12 @@
       <c r="AK35" t="n">
         <v>0.538</v>
       </c>
-      <c r="AL35"/>
-      <c r="AM35"/>
+      <c r="AL35" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AN35"/>
       <c r="AO35"/>
       <c r="AP35"/>
@@ -16626,8 +16682,12 @@
       <c r="AI60"/>
       <c r="AJ60"/>
       <c r="AK60"/>
-      <c r="AL60"/>
-      <c r="AM60"/>
+      <c r="AL60" t="n">
+        <v>0.0725040435791016</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.56645679473877</v>
+      </c>
       <c r="AN60" t="n">
         <v>0.486111111111111</v>
       </c>
@@ -17304,8 +17364,12 @@
       <c r="AI63"/>
       <c r="AJ63"/>
       <c r="AK63"/>
-      <c r="AL63"/>
-      <c r="AM63"/>
+      <c r="AL63" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AN63"/>
       <c r="AO63"/>
       <c r="AP63"/>
@@ -24392,8 +24456,12 @@
       <c r="AI96"/>
       <c r="AJ96"/>
       <c r="AK96"/>
-      <c r="AL96"/>
-      <c r="AM96"/>
+      <c r="AL96" t="n">
+        <v>0.756128251552582</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.925795018672943</v>
+      </c>
       <c r="AN96" t="n">
         <v>1.70185979385211</v>
       </c>
@@ -25074,8 +25142,12 @@
       <c r="AK99" t="n">
         <v>0.7347</v>
       </c>
-      <c r="AL99"/>
-      <c r="AM99"/>
+      <c r="AL99" t="n">
+        <v>0.446211397647858</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0.715313017368317</v>
+      </c>
       <c r="AN99" t="n">
         <v>0.66721324763218</v>
       </c>
@@ -25824,8 +25896,12 @@
       <c r="AK102" t="n">
         <v>0.5665</v>
       </c>
-      <c r="AL102"/>
-      <c r="AM102"/>
+      <c r="AL102" t="n">
+        <v>0.487450927495956</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0.890888214111328</v>
+      </c>
       <c r="AN102" t="n">
         <v>0.459454828124283</v>
       </c>
@@ -28090,8 +28166,12 @@
       <c r="AI113"/>
       <c r="AJ113"/>
       <c r="AK113"/>
-      <c r="AL113"/>
-      <c r="AM113"/>
+      <c r="AL113" t="n">
+        <v>0.456080824136734</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0.718099415302277</v>
+      </c>
       <c r="AN113" t="n">
         <v>1.332644406118</v>
       </c>
@@ -28780,8 +28860,12 @@
       <c r="AI116"/>
       <c r="AJ116"/>
       <c r="AK116"/>
-      <c r="AL116"/>
-      <c r="AM116"/>
+      <c r="AL116" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AN116" t="n">
         <v>2.68913242009132</v>
       </c>
@@ -29020,8 +29104,12 @@
       <c r="AI117"/>
       <c r="AJ117"/>
       <c r="AK117"/>
-      <c r="AL117"/>
-      <c r="AM117"/>
+      <c r="AL117" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AN117" t="n">
         <v>3.05555555555556</v>
       </c>
@@ -29280,8 +29368,12 @@
       <c r="AI118"/>
       <c r="AJ118"/>
       <c r="AK118"/>
-      <c r="AL118"/>
-      <c r="AM118"/>
+      <c r="AL118" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AN118" t="n">
         <v>1.63949771689498</v>
       </c>
@@ -29546,8 +29638,12 @@
       <c r="AI119"/>
       <c r="AJ119"/>
       <c r="AK119"/>
-      <c r="AL119"/>
-      <c r="AM119"/>
+      <c r="AL119" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AN119" t="n">
         <v>2.33333333333333</v>
       </c>
@@ -29796,8 +29892,12 @@
       <c r="AI120"/>
       <c r="AJ120"/>
       <c r="AK120"/>
-      <c r="AL120"/>
-      <c r="AM120"/>
+      <c r="AL120" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AN120" t="n">
         <v>2.33333333333333</v>
       </c>
@@ -30208,8 +30308,12 @@
       <c r="AI122"/>
       <c r="AJ122"/>
       <c r="AK122"/>
-      <c r="AL122"/>
-      <c r="AM122"/>
+      <c r="AL122" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AN122" t="n">
         <v>0.500473997421177</v>
       </c>
@@ -35812,8 +35916,12 @@
       <c r="AK148" t="n">
         <v>0.538</v>
       </c>
-      <c r="AL148"/>
-      <c r="AM148"/>
+      <c r="AL148" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AN148" t="n">
         <v>7.80672810087733</v>
       </c>
@@ -36060,8 +36168,12 @@
       <c r="AK149" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AL149"/>
-      <c r="AM149"/>
+      <c r="AL149" t="n">
+        <v>0.553574085235596</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.18486130237579</v>
+      </c>
       <c r="AN149" t="n">
         <v>2.91926994023465</v>
       </c>
@@ -36332,8 +36444,12 @@
       <c r="AK150" t="n">
         <v>0.731</v>
       </c>
-      <c r="AL150"/>
-      <c r="AM150"/>
+      <c r="AL150" t="n">
+        <v>0.553574085235596</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.18486130237579</v>
+      </c>
       <c r="AN150" t="n">
         <v>2.536875</v>
       </c>
@@ -36640,8 +36756,12 @@
       <c r="AK151" t="n">
         <v>0.7699</v>
       </c>
-      <c r="AL151"/>
-      <c r="AM151"/>
+      <c r="AL151" t="n">
+        <v>1.34397101402283</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>0.923805415630341</v>
+      </c>
       <c r="AN151" t="n">
         <v>3.84355380737052</v>
       </c>
@@ -36936,8 +37056,12 @@
       <c r="AK152" t="n">
         <v>0.8307</v>
       </c>
-      <c r="AL152"/>
-      <c r="AM152"/>
+      <c r="AL152" t="n">
+        <v>2.3167896270752</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>0.777798295021057</v>
+      </c>
       <c r="AN152" t="n">
         <v>3.30783333333333</v>
       </c>
@@ -37208,8 +37332,12 @@
       <c r="AK153" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AL153"/>
-      <c r="AM153"/>
+      <c r="AL153" t="n">
+        <v>2.04501581192017</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>0.819146513938904</v>
+      </c>
       <c r="AN153" t="n">
         <v>2.98416666666667</v>
       </c>
@@ -37504,8 +37632,12 @@
       <c r="AK154" t="n">
         <v>0.6353</v>
       </c>
-      <c r="AL154"/>
-      <c r="AM154"/>
+      <c r="AL154" t="n">
+        <v>0.402596145868301</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.16842377185822</v>
+      </c>
       <c r="AN154" t="n">
         <v>2.91926994023465</v>
       </c>
@@ -37788,8 +37920,12 @@
       <c r="AK155" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AL155"/>
-      <c r="AM155"/>
+      <c r="AL155" t="n">
+        <v>0.886833846569061</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>0.96934050321579</v>
+      </c>
       <c r="AN155" t="n">
         <v>2.8932373987381</v>
       </c>
@@ -38084,8 +38220,12 @@
       <c r="AK156" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AL156"/>
-      <c r="AM156"/>
+      <c r="AL156" t="n">
+        <v>1.21859467029572</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0.680217862129211</v>
+      </c>
       <c r="AN156" t="n">
         <v>2.91926994023465</v>
       </c>
@@ -39080,8 +39220,12 @@
       <c r="AI160"/>
       <c r="AJ160"/>
       <c r="AK160"/>
-      <c r="AL160"/>
-      <c r="AM160"/>
+      <c r="AL160" t="n">
+        <v>0.146143242716789</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.04150295257568</v>
+      </c>
       <c r="AN160"/>
       <c r="AO160"/>
       <c r="AP160"/>
@@ -39484,8 +39628,12 @@
       <c r="AI162"/>
       <c r="AJ162"/>
       <c r="AK162"/>
-      <c r="AL162"/>
-      <c r="AM162"/>
+      <c r="AL162" t="n">
+        <v>0.629264056682587</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>0.842668175697327</v>
+      </c>
       <c r="AN162" t="n">
         <v>0.429747111568763</v>
       </c>
@@ -39748,8 +39896,12 @@
       <c r="AI163"/>
       <c r="AJ163"/>
       <c r="AK163"/>
-      <c r="AL163"/>
-      <c r="AM163"/>
+      <c r="AL163" t="n">
+        <v>0.609466791152954</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>0.80167019367218</v>
+      </c>
       <c r="AN163" t="n">
         <v>0.432322667895288</v>
       </c>
@@ -40022,8 +40174,12 @@
       <c r="AK164" t="n">
         <v>0.538</v>
       </c>
-      <c r="AL164"/>
-      <c r="AM164"/>
+      <c r="AL164" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AN164" t="n">
         <v>5.39022595431107</v>
       </c>
@@ -40492,8 +40648,12 @@
       <c r="AK166" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AL166"/>
-      <c r="AM166"/>
+      <c r="AL166" t="n">
+        <v>0.747900664806366</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>0.997413754463196</v>
+      </c>
       <c r="AN166" t="n">
         <v>0.583333333333333</v>
       </c>
@@ -41062,8 +41222,12 @@
       <c r="AK168" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AL168"/>
-      <c r="AM168"/>
+      <c r="AL168" t="n">
+        <v>0.718327283859253</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.03716373443604</v>
+      </c>
       <c r="AN168" t="n">
         <v>0.571759893455099</v>
       </c>
@@ -41674,8 +41838,12 @@
       <c r="AK170" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AL170"/>
-      <c r="AM170"/>
+      <c r="AL170" t="n">
+        <v>0.562224507331848</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>0.962683916091919</v>
+      </c>
       <c r="AN170" t="n">
         <v>2.18383741030659</v>
       </c>
@@ -42000,8 +42168,12 @@
       <c r="AK171" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AL171"/>
-      <c r="AM171"/>
+      <c r="AL171" t="n">
+        <v>0.562224507331848</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0.962683916091919</v>
+      </c>
       <c r="AN171" t="n">
         <v>0.822724447091808</v>
       </c>
@@ -42280,8 +42452,12 @@
       <c r="AK172" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AL172"/>
-      <c r="AM172"/>
+      <c r="AL172" t="n">
+        <v>1.09238255023956</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0.801599025726318</v>
+      </c>
       <c r="AN172" t="n">
         <v>0.638888888888889</v>
       </c>
@@ -42582,8 +42758,12 @@
       <c r="AK173" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AL173"/>
-      <c r="AM173"/>
+      <c r="AL173" t="n">
+        <v>1.19104373455048</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>0.832718849182129</v>
+      </c>
       <c r="AN173" t="n">
         <v>0.567005707762557</v>
       </c>
@@ -42908,8 +43088,12 @@
       <c r="AK174" t="n">
         <v>0.7257</v>
       </c>
-      <c r="AL174"/>
-      <c r="AM174"/>
+      <c r="AL174" t="n">
+        <v>0.224610477685928</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.00559973716736</v>
+      </c>
       <c r="AN174" t="n">
         <v>0.438243911719939</v>
       </c>
@@ -43222,8 +43406,12 @@
       <c r="AK175" t="n">
         <v>0.6563</v>
       </c>
-      <c r="AL175"/>
-      <c r="AM175"/>
+      <c r="AL175" t="n">
+        <v>1.72258675098419</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>0.597339570522308</v>
+      </c>
       <c r="AN175" t="n">
         <v>0.594416558873531</v>
       </c>
@@ -43524,8 +43712,12 @@
       <c r="AK176" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AL176"/>
-      <c r="AM176"/>
+      <c r="AL176" t="n">
+        <v>0.562224507331848</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>0.962683916091919</v>
+      </c>
       <c r="AN176" t="n">
         <v>0.501066494197649</v>
       </c>
@@ -43826,8 +44018,12 @@
       <c r="AK177" t="n">
         <v>0.7918</v>
       </c>
-      <c r="AL177"/>
-      <c r="AM177"/>
+      <c r="AL177" t="n">
+        <v>4.93406963348389</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>0.554376125335693</v>
+      </c>
       <c r="AN177" t="n">
         <v>1.26540810502283</v>
       </c>
@@ -46382,8 +46578,12 @@
       <c r="AI188"/>
       <c r="AJ188"/>
       <c r="AK188"/>
-      <c r="AL188"/>
-      <c r="AM188"/>
+      <c r="AL188" t="n">
+        <v>2.73270869255066</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>0.246382355690002</v>
+      </c>
       <c r="AN188" t="n">
         <v>0.330552253406135</v>
       </c>
@@ -48444,8 +48644,12 @@
       <c r="AI198"/>
       <c r="AJ198"/>
       <c r="AK198"/>
-      <c r="AL198"/>
-      <c r="AM198"/>
+      <c r="AL198" t="n">
+        <v>0.840311110019684</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>0.657690107822418</v>
+      </c>
       <c r="AN198" t="n">
         <v>0.467590183119923</v>
       </c>
@@ -49316,8 +49520,12 @@
       <c r="AK202" t="n">
         <v>0.538</v>
       </c>
-      <c r="AL202"/>
-      <c r="AM202"/>
+      <c r="AL202" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AN202" t="n">
         <v>2.77777777777778</v>
       </c>
@@ -50762,8 +50970,12 @@
       <c r="AI209"/>
       <c r="AJ209"/>
       <c r="AK209"/>
-      <c r="AL209"/>
-      <c r="AM209"/>
+      <c r="AL209" t="n">
+        <v>1.00817120075226</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>0.778777182102203</v>
+      </c>
       <c r="AN209" t="n">
         <v>0.442829148510321</v>
       </c>
@@ -51204,8 +51416,12 @@
       <c r="AI211"/>
       <c r="AJ211"/>
       <c r="AK211"/>
-      <c r="AL211"/>
-      <c r="AM211"/>
+      <c r="AL211" t="n">
+        <v>0.677649855613708</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>0.962278425693512</v>
+      </c>
       <c r="AN211" t="n">
         <v>0.463086513112454</v>
       </c>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3712,13 +3712,23 @@
       <c r="CR2" t="n">
         <v>1.3</v>
       </c>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
+      <c r="CS2" t="n">
+        <v>-3.0182899404</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-3.7882</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-4.5441100596</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>58.779564664</v>
+      </c>
       <c r="CW2"/>
       <c r="CX2"/>
-      <c r="CY2"/>
+      <c r="CY2" t="n">
+        <v>-3.57605166666667</v>
+      </c>
       <c r="CZ2"/>
       <c r="DA2"/>
       <c r="DB2" t="n">
@@ -4005,13 +4015,23 @@
       <c r="CR3" t="n">
         <v>0.904972825714286</v>
       </c>
-      <c r="CS3"/>
-      <c r="CT3"/>
-      <c r="CU3"/>
-      <c r="CV3"/>
+      <c r="CS3" t="n">
+        <v>-3.5884728085</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>-4.1503333335</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>-4.7121938585</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>67.632443985</v>
+      </c>
       <c r="CW3"/>
       <c r="CX3"/>
-      <c r="CY3"/>
+      <c r="CY3" t="n">
+        <v>-3.57605166666667</v>
+      </c>
       <c r="CZ3"/>
       <c r="DA3"/>
       <c r="DB3" t="n">
@@ -4254,10 +4274,18 @@
       <c r="CR4" t="n">
         <v>3.22055555555556</v>
       </c>
-      <c r="CS4"/>
-      <c r="CT4"/>
-      <c r="CU4"/>
-      <c r="CV4"/>
+      <c r="CS4" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>-0.8955</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>-3.17666666666667</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>38.18011207</v>
+      </c>
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
@@ -4534,22 +4562,46 @@
       <c r="CK5"/>
       <c r="CL5"/>
       <c r="CM5"/>
-      <c r="CN5"/>
-      <c r="CO5"/>
-      <c r="CP5"/>
-      <c r="CQ5"/>
+      <c r="CN5" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>66.66666667</v>
+      </c>
       <c r="CR5" t="n">
         <v>0.43</v>
       </c>
-      <c r="CS5"/>
-      <c r="CT5"/>
-      <c r="CU5"/>
-      <c r="CV5"/>
+      <c r="CS5" t="n">
+        <v>-3.187465517</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>-3.8685</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>-4.599534483</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>53.706666665</v>
+      </c>
       <c r="CW5"/>
-      <c r="CX5"/>
-      <c r="CY5"/>
-      <c r="CZ5"/>
-      <c r="DA5"/>
+      <c r="CX5" t="n">
+        <v>-0.6570318484</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>-2.3355681516</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>54.497619256</v>
+      </c>
       <c r="DB5" t="n">
         <v>35.4719936517273</v>
       </c>
@@ -4837,22 +4889,46 @@
       <c r="CK6"/>
       <c r="CL6"/>
       <c r="CM6"/>
-      <c r="CN6"/>
-      <c r="CO6"/>
-      <c r="CP6"/>
-      <c r="CQ6"/>
+      <c r="CN6" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>66.66666667</v>
+      </c>
       <c r="CR6" t="n">
         <v>0.534947645333333</v>
       </c>
-      <c r="CS6"/>
-      <c r="CT6"/>
-      <c r="CU6"/>
-      <c r="CV6"/>
+      <c r="CS6" t="n">
+        <v>-3.55403288633333</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>-4.53166666666667</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>-5.41596711366667</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>58.53825194</v>
+      </c>
       <c r="CW6"/>
-      <c r="CX6"/>
-      <c r="CY6"/>
-      <c r="CZ6"/>
-      <c r="DA6"/>
+      <c r="CX6" t="n">
+        <v>-0.862159242</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>-2.277840758</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>53.684391</v>
+      </c>
       <c r="DB6" t="n">
         <v>35.4719936517273</v>
       </c>
@@ -5134,22 +5210,46 @@
       <c r="CK7"/>
       <c r="CL7"/>
       <c r="CM7"/>
-      <c r="CN7"/>
-      <c r="CO7"/>
-      <c r="CP7"/>
-      <c r="CQ7"/>
+      <c r="CN7" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>66.66666667</v>
+      </c>
       <c r="CR7" t="n">
         <v>4.68996428571429</v>
       </c>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
-      <c r="CV7"/>
+      <c r="CS7" t="n">
+        <v>-1.20705123033333</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>-1.53443328571429</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>-2.39957892066667</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>81.30270377</v>
+      </c>
       <c r="CW7"/>
-      <c r="CX7"/>
-      <c r="CY7"/>
-      <c r="CZ7"/>
-      <c r="DA7"/>
+      <c r="CX7" t="n">
+        <v>-0.6570318484</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>-2.3355681516</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>54.497619256</v>
+      </c>
       <c r="DB7" t="n">
         <v>35.4719936517273</v>
       </c>
@@ -5423,22 +5523,46 @@
       <c r="CK8"/>
       <c r="CL8"/>
       <c r="CM8"/>
-      <c r="CN8"/>
-      <c r="CO8"/>
-      <c r="CP8"/>
-      <c r="CQ8"/>
+      <c r="CN8" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>66.66666667</v>
+      </c>
       <c r="CR8" t="n">
         <v>0.18</v>
       </c>
-      <c r="CS8"/>
-      <c r="CT8"/>
-      <c r="CU8"/>
-      <c r="CV8"/>
+      <c r="CS8" t="n">
+        <v>-2.963409091</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>-3.4225</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>-3.781590909</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>160.10666665</v>
+      </c>
       <c r="CW8"/>
-      <c r="CX8"/>
-      <c r="CY8"/>
-      <c r="CZ8"/>
-      <c r="DA8"/>
+      <c r="CX8" t="n">
+        <v>-0.6570318484</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>-2.3355681516</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>54.497619256</v>
+      </c>
       <c r="DB8" t="n">
         <v>35.4719936517273</v>
       </c>
@@ -5726,22 +5850,46 @@
       <c r="CK9"/>
       <c r="CL9"/>
       <c r="CM9"/>
-      <c r="CN9"/>
-      <c r="CO9"/>
-      <c r="CP9"/>
-      <c r="CQ9"/>
+      <c r="CN9" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>66.66666667</v>
+      </c>
       <c r="CR9" t="n">
         <v>0.45</v>
       </c>
-      <c r="CS9"/>
-      <c r="CT9"/>
-      <c r="CU9"/>
-      <c r="CV9"/>
+      <c r="CS9" t="n">
+        <v>-2.4629747475</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>-2.9905</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-3.4930252525</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>75.62</v>
+      </c>
       <c r="CW9"/>
-      <c r="CX9"/>
-      <c r="CY9"/>
-      <c r="CZ9"/>
-      <c r="DA9"/>
+      <c r="CX9" t="n">
+        <v>-0.6570318484</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>-2.3355681516</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>54.497619256</v>
+      </c>
       <c r="DB9" t="n">
         <v>24.3448927299294</v>
       </c>
@@ -6015,22 +6163,46 @@
       <c r="CK10"/>
       <c r="CL10"/>
       <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
+      <c r="CN10" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>66.66666667</v>
+      </c>
       <c r="CR10" t="n">
         <v>0.38</v>
       </c>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
+      <c r="CS10" t="n">
+        <v>-1.945401961</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>-2.3655</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>-2.710598039</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>133.76</v>
+      </c>
       <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
+      <c r="CX10" t="n">
+        <v>-0.6570318484</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>-2.3355681516</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>54.497619256</v>
+      </c>
       <c r="DB10" t="n">
         <v>60.2604222222222</v>
       </c>
@@ -6715,15 +6887,31 @@
       <c r="CR13" t="n">
         <v>4.153866</v>
       </c>
-      <c r="CS13"/>
-      <c r="CT13"/>
-      <c r="CU13"/>
-      <c r="CV13"/>
+      <c r="CS13" t="n">
+        <v>-1.3621567205</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>-1.9137696235</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>-2.765382527</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>61.735384615</v>
+      </c>
       <c r="CW13"/>
-      <c r="CX13"/>
-      <c r="CY13"/>
-      <c r="CZ13"/>
-      <c r="DA13"/>
+      <c r="CX13" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>34.54545455</v>
+      </c>
       <c r="DB13" t="n">
         <v>39.9796035</v>
       </c>
@@ -6980,10 +7168,18 @@
       <c r="CR14" t="n">
         <v>5.05159666666666</v>
       </c>
-      <c r="CS14"/>
-      <c r="CT14"/>
-      <c r="CU14"/>
-      <c r="CV14"/>
+      <c r="CS14" t="n">
+        <v>-5.723908046</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>-6.873333333</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>-8.022758621</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>33.06</v>
+      </c>
       <c r="CW14"/>
       <c r="CX14"/>
       <c r="CY14"/>
@@ -7605,10 +7801,18 @@
       <c r="CR17" t="n">
         <v>0.0722</v>
       </c>
-      <c r="CS17"/>
-      <c r="CT17"/>
-      <c r="CU17"/>
-      <c r="CV17"/>
+      <c r="CS17" t="n">
+        <v>-1.4612631045</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>-2.1137368955</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>117.6762377</v>
+      </c>
       <c r="CW17"/>
       <c r="CX17"/>
       <c r="CY17"/>
@@ -8234,15 +8438,31 @@
       <c r="CR20" t="n">
         <v>0.541070936</v>
       </c>
-      <c r="CS20"/>
-      <c r="CT20"/>
-      <c r="CU20"/>
-      <c r="CV20"/>
+      <c r="CS20" t="n">
+        <v>-2.169910393</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>-3.36775</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>-7.364119476</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>22.6918478656667</v>
+      </c>
       <c r="CW20"/>
-      <c r="CX20"/>
-      <c r="CY20"/>
-      <c r="CZ20"/>
-      <c r="DA20"/>
+      <c r="CX20" t="n">
+        <v>-0.207608509</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>-2.152391491</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>39.07891046</v>
+      </c>
       <c r="DB20" t="n">
         <v>49.27631579</v>
       </c>
@@ -8485,15 +8705,31 @@
       <c r="CR21" t="n">
         <v>0.541070936</v>
       </c>
-      <c r="CS21"/>
-      <c r="CT21"/>
-      <c r="CU21"/>
-      <c r="CV21"/>
+      <c r="CS21" t="n">
+        <v>-2.169910393</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>-3.36775</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>-7.364119476</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>22.6918478656667</v>
+      </c>
       <c r="CW21"/>
-      <c r="CX21"/>
-      <c r="CY21"/>
-      <c r="CZ21"/>
-      <c r="DA21"/>
+      <c r="CX21" t="n">
+        <v>-0.207608509</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>-2.152391491</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>39.07891046</v>
+      </c>
       <c r="DB21" t="n">
         <v>49.27631579</v>
       </c>
@@ -8744,10 +8980,18 @@
       <c r="CR22" t="n">
         <v>1.0225</v>
       </c>
-      <c r="CS22"/>
-      <c r="CT22"/>
-      <c r="CU22"/>
-      <c r="CV22"/>
+      <c r="CS22" t="n">
+        <v>-1.111585014</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>-4.67819337</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>-12.85365796</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>4.74764050633333</v>
+      </c>
       <c r="CW22"/>
       <c r="CX22"/>
       <c r="CY22"/>
@@ -8989,10 +9233,18 @@
       <c r="CR23" t="n">
         <v>0.6696</v>
       </c>
-      <c r="CS23"/>
-      <c r="CT23"/>
-      <c r="CU23"/>
-      <c r="CV23"/>
+      <c r="CS23" t="n">
+        <v>-1.4622538176</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>-3.09112101</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>-4.8179206796</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>22.696880538</v>
+      </c>
       <c r="CW23"/>
       <c r="CX23"/>
       <c r="CY23"/>
@@ -9676,15 +9928,31 @@
       <c r="CP26"/>
       <c r="CQ26"/>
       <c r="CR26"/>
-      <c r="CS26"/>
-      <c r="CT26"/>
-      <c r="CU26"/>
-      <c r="CV26"/>
+      <c r="CS26" t="n">
+        <v>-1.0230246494</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>-2.6783321532</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>-4.85047702</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>25.1682032348</v>
+      </c>
       <c r="CW26"/>
-      <c r="CX26"/>
-      <c r="CY26"/>
-      <c r="CZ26"/>
-      <c r="DA26"/>
+      <c r="CX26" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>-1.52383333333333</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>-3.7155</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>18.4971316833333</v>
+      </c>
       <c r="DB26"/>
       <c r="DC26"/>
       <c r="DD26" t="n">
@@ -9903,10 +10171,18 @@
       <c r="CR27" t="n">
         <v>0.0873333333333333</v>
       </c>
-      <c r="CS27"/>
-      <c r="CT27"/>
-      <c r="CU27"/>
-      <c r="CV27"/>
+      <c r="CS27" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>15.76763485</v>
+      </c>
       <c r="CW27"/>
       <c r="CX27"/>
       <c r="CY27"/>
@@ -10168,15 +10444,31 @@
       <c r="CR28" t="n">
         <v>1.6794775</v>
       </c>
-      <c r="CS28"/>
-      <c r="CT28"/>
-      <c r="CU28"/>
-      <c r="CV28"/>
+      <c r="CS28" t="n">
+        <v>-0.9373002</v>
+      </c>
+      <c r="CT28" t="n">
+        <v>-1.73559352941176</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>-2.30625538461538</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>83.9327860530769</v>
+      </c>
       <c r="CW28"/>
-      <c r="CX28"/>
-      <c r="CY28"/>
-      <c r="CZ28"/>
-      <c r="DA28"/>
+      <c r="CX28" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="CY28" t="n">
+        <v>-0.635666666666667</v>
+      </c>
+      <c r="CZ28" t="n">
+        <v>-1.4715</v>
+      </c>
+      <c r="DA28" t="n">
+        <v>90.734915665</v>
+      </c>
       <c r="DB28" t="n">
         <v>66.833827773087</v>
       </c>
@@ -10659,7 +10951,9 @@
       <c r="CQ30"/>
       <c r="CR30"/>
       <c r="CS30"/>
-      <c r="CT30"/>
+      <c r="CT30" t="n">
+        <v>-8</v>
+      </c>
       <c r="CU30"/>
       <c r="CV30"/>
       <c r="CW30"/>
@@ -11349,10 +11643,18 @@
       <c r="CR33" t="n">
         <v>2.7</v>
       </c>
-      <c r="CS33"/>
-      <c r="CT33"/>
-      <c r="CU33"/>
-      <c r="CV33"/>
+      <c r="CS33" t="n">
+        <v>-3.162551971</v>
+      </c>
+      <c r="CT33" t="n">
+        <v>-3.74982</v>
+      </c>
+      <c r="CU33" t="n">
+        <v>-4.337088029</v>
+      </c>
+      <c r="CV33" t="n">
+        <v>64.7064</v>
+      </c>
       <c r="CW33"/>
       <c r="CX33"/>
       <c r="CY33"/>
@@ -11861,10 +12163,16 @@
       <c r="CR35" t="n">
         <v>0.739420634920635</v>
       </c>
-      <c r="CS35"/>
-      <c r="CT35"/>
+      <c r="CS35" t="n">
+        <v>-4.51966631242857</v>
+      </c>
+      <c r="CT35" t="n">
+        <v>-6.83593137252941</v>
+      </c>
       <c r="CU35"/>
-      <c r="CV35"/>
+      <c r="CV35" t="n">
+        <v>32.8358502157143</v>
+      </c>
       <c r="CW35"/>
       <c r="CX35"/>
       <c r="CY35"/>
@@ -12318,9 +12626,15 @@
       <c r="CQ37"/>
       <c r="CR37"/>
       <c r="CS37"/>
-      <c r="CT37"/>
-      <c r="CU37"/>
-      <c r="CV37"/>
+      <c r="CT37" t="n">
+        <v>-5.7616666665</v>
+      </c>
+      <c r="CU37" t="n">
+        <v>-9.049259259</v>
+      </c>
+      <c r="CV37" t="n">
+        <v>41.04</v>
+      </c>
       <c r="CW37"/>
       <c r="CX37"/>
       <c r="CY37"/>
@@ -12544,10 +12858,18 @@
       <c r="CR38" t="n">
         <v>0.258515333333333</v>
       </c>
-      <c r="CS38"/>
-      <c r="CT38"/>
-      <c r="CU38"/>
-      <c r="CV38"/>
+      <c r="CS38" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="CT38" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="CU38" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="CV38" t="n">
+        <v>15.83137476</v>
+      </c>
       <c r="CW38"/>
       <c r="CX38"/>
       <c r="CY38"/>
@@ -13432,15 +13754,31 @@
       <c r="CR42" t="n">
         <v>0.1759298855</v>
       </c>
-      <c r="CS42"/>
-      <c r="CT42"/>
-      <c r="CU42"/>
-      <c r="CV42"/>
+      <c r="CS42" t="n">
+        <v>-2.701302862</v>
+      </c>
+      <c r="CT42" t="n">
+        <v>-5.78</v>
+      </c>
+      <c r="CU42" t="n">
+        <v>-8.858697138</v>
+      </c>
+      <c r="CV42" t="n">
+        <v>12.34288346</v>
+      </c>
       <c r="CW42"/>
-      <c r="CX42"/>
-      <c r="CY42"/>
-      <c r="CZ42"/>
-      <c r="DA42"/>
+      <c r="CX42" t="n">
+        <v>-0.815399802</v>
+      </c>
+      <c r="CY42" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="CZ42" t="n">
+        <v>-3.244600198</v>
+      </c>
+      <c r="DA42" t="n">
+        <v>31.28601499</v>
+      </c>
       <c r="DB42" t="n">
         <v>95.28947368</v>
       </c>
@@ -13669,15 +14007,31 @@
       <c r="CR43" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS43"/>
-      <c r="CT43"/>
-      <c r="CU43"/>
-      <c r="CV43"/>
+      <c r="CS43" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT43" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU43" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV43" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW43"/>
-      <c r="CX43"/>
-      <c r="CY43"/>
-      <c r="CZ43"/>
-      <c r="DA43"/>
+      <c r="CX43" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY43" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ43" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA43" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB43" t="n">
         <v>95.28947368</v>
       </c>
@@ -13906,15 +14260,31 @@
       <c r="CR44" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS44"/>
-      <c r="CT44"/>
-      <c r="CU44"/>
-      <c r="CV44"/>
+      <c r="CS44" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="CT44" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="CU44" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="CV44" t="n">
+        <v>48.10126582</v>
+      </c>
       <c r="CW44"/>
-      <c r="CX44"/>
-      <c r="CY44"/>
-      <c r="CZ44"/>
-      <c r="DA44"/>
+      <c r="CX44" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY44" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ44" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA44" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB44" t="n">
         <v>95.28947368</v>
       </c>
@@ -14137,15 +14507,31 @@
       <c r="CR45" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS45"/>
-      <c r="CT45"/>
-      <c r="CU45"/>
-      <c r="CV45"/>
+      <c r="CS45" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT45" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU45" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV45" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW45"/>
-      <c r="CX45"/>
-      <c r="CY45"/>
-      <c r="CZ45"/>
-      <c r="DA45"/>
+      <c r="CX45" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY45" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ45" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA45" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB45" t="n">
         <v>95.28947368</v>
       </c>
@@ -14374,15 +14760,31 @@
       <c r="CR46" t="n">
         <v>0.501333333333333</v>
       </c>
-      <c r="CS46"/>
-      <c r="CT46"/>
-      <c r="CU46"/>
-      <c r="CV46"/>
+      <c r="CS46" t="n">
+        <v>-1.219462294</v>
+      </c>
+      <c r="CT46" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="CU46" t="n">
+        <v>-11.180537705</v>
+      </c>
+      <c r="CV46" t="n">
+        <v>7.629437331</v>
+      </c>
       <c r="CW46"/>
-      <c r="CX46"/>
-      <c r="CY46"/>
-      <c r="CZ46"/>
-      <c r="DA46"/>
+      <c r="CX46" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY46" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ46" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA46" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB46" t="n">
         <v>95.28947368</v>
       </c>
@@ -14611,15 +15013,31 @@
       <c r="CR47" t="n">
         <v>0.510281297</v>
       </c>
-      <c r="CS47"/>
-      <c r="CT47"/>
-      <c r="CU47"/>
-      <c r="CV47"/>
+      <c r="CS47" t="n">
+        <v>-0.943353487</v>
+      </c>
+      <c r="CT47" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="CU47" t="n">
+        <v>-6.356646513</v>
+      </c>
+      <c r="CV47" t="n">
+        <v>14.0395134</v>
+      </c>
       <c r="CW47"/>
-      <c r="CX47"/>
-      <c r="CY47"/>
-      <c r="CZ47"/>
-      <c r="DA47"/>
+      <c r="CX47" t="n">
+        <v>-0.01735189</v>
+      </c>
+      <c r="CY47" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="CZ47" t="n">
+        <v>-1.76264811</v>
+      </c>
+      <c r="DA47" t="n">
+        <v>43.54561657</v>
+      </c>
       <c r="DB47" t="n">
         <v>95.28947368</v>
       </c>
@@ -14848,15 +15266,31 @@
       <c r="CR48" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS48"/>
-      <c r="CT48"/>
-      <c r="CU48"/>
-      <c r="CV48"/>
+      <c r="CS48" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT48" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU48" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV48" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW48"/>
-      <c r="CX48"/>
-      <c r="CY48"/>
-      <c r="CZ48"/>
-      <c r="DA48"/>
+      <c r="CX48" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY48" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA48" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB48" t="n">
         <v>95.28947368</v>
       </c>
@@ -15079,15 +15513,31 @@
       <c r="CR49" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS49"/>
-      <c r="CT49"/>
-      <c r="CU49"/>
-      <c r="CV49"/>
+      <c r="CS49" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT49" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU49" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV49" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW49"/>
-      <c r="CX49"/>
-      <c r="CY49"/>
-      <c r="CZ49"/>
-      <c r="DA49"/>
+      <c r="CX49" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY49" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB49" t="n">
         <v>95.28947368</v>
       </c>
@@ -15316,15 +15766,31 @@
       <c r="CR50" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS50"/>
-      <c r="CT50"/>
-      <c r="CU50"/>
-      <c r="CV50"/>
+      <c r="CS50" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT50" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU50" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV50" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW50"/>
-      <c r="CX50"/>
-      <c r="CY50"/>
-      <c r="CZ50"/>
-      <c r="DA50"/>
+      <c r="CX50" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB50" t="n">
         <v>95.28947368</v>
       </c>
@@ -15553,15 +16019,31 @@
       <c r="CR51" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS51"/>
-      <c r="CT51"/>
-      <c r="CU51"/>
-      <c r="CV51"/>
+      <c r="CS51" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT51" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU51" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV51" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW51"/>
-      <c r="CX51"/>
-      <c r="CY51"/>
-      <c r="CZ51"/>
-      <c r="DA51"/>
+      <c r="CX51" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY51" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ51" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA51" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB51" t="n">
         <v>95.28947368</v>
       </c>
@@ -15784,15 +16266,31 @@
       <c r="CR52" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS52"/>
-      <c r="CT52"/>
-      <c r="CU52"/>
-      <c r="CV52"/>
+      <c r="CS52" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT52" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU52" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV52" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW52"/>
-      <c r="CX52"/>
-      <c r="CY52"/>
-      <c r="CZ52"/>
-      <c r="DA52"/>
+      <c r="CX52" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY52" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB52" t="n">
         <v>95.28947368</v>
       </c>
@@ -16027,15 +16525,31 @@
       <c r="CR53" t="n">
         <v>0.395848171944444</v>
       </c>
-      <c r="CS53"/>
-      <c r="CT53"/>
-      <c r="CU53"/>
-      <c r="CV53"/>
+      <c r="CS53" t="n">
+        <v>-1.8527161874</v>
+      </c>
+      <c r="CT53" t="n">
+        <v>-5.406</v>
+      </c>
+      <c r="CU53" t="n">
+        <v>-8.7132838122</v>
+      </c>
+      <c r="CV53" t="n">
+        <v>17.9485074684</v>
+      </c>
       <c r="CW53"/>
-      <c r="CX53"/>
-      <c r="CY53"/>
-      <c r="CZ53"/>
-      <c r="DA53"/>
+      <c r="CX53" t="n">
+        <v>-0.416375846</v>
+      </c>
+      <c r="CY53" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>-2.503624154</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>37.41581578</v>
+      </c>
       <c r="DB53" t="n">
         <v>95.28947368</v>
       </c>
@@ -17132,15 +17646,31 @@
       <c r="CR58" t="n">
         <v>0.4909665</v>
       </c>
-      <c r="CS58"/>
-      <c r="CT58"/>
-      <c r="CU58"/>
-      <c r="CV58"/>
+      <c r="CS58" t="n">
+        <v>-4.894411765</v>
+      </c>
+      <c r="CT58" t="n">
+        <v>-6.365</v>
+      </c>
+      <c r="CU58" t="n">
+        <v>-7.835588235</v>
+      </c>
+      <c r="CV58" t="n">
+        <v>25.84</v>
+      </c>
       <c r="CW58"/>
-      <c r="CX58"/>
-      <c r="CY58"/>
-      <c r="CZ58"/>
-      <c r="DA58"/>
+      <c r="CX58" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="CY58" t="n">
+        <v>-1.605</v>
+      </c>
+      <c r="CZ58" t="n">
+        <v>-3</v>
+      </c>
+      <c r="DA58" t="n">
+        <v>33.05274972</v>
+      </c>
       <c r="DB58" t="n">
         <v>27.8765763414896</v>
       </c>
@@ -17588,14 +18118,24 @@
       <c r="CL60"/>
       <c r="CM60"/>
       <c r="CN60"/>
-      <c r="CO60"/>
+      <c r="CO60" t="n">
+        <v>-2.51</v>
+      </c>
       <c r="CP60"/>
       <c r="CQ60"/>
       <c r="CR60"/>
-      <c r="CS60"/>
-      <c r="CT60"/>
-      <c r="CU60"/>
-      <c r="CV60"/>
+      <c r="CS60" t="n">
+        <v>-1.971694581</v>
+      </c>
+      <c r="CT60" t="n">
+        <v>-2.218</v>
+      </c>
+      <c r="CU60" t="n">
+        <v>-2.464305419</v>
+      </c>
+      <c r="CV60" t="n">
+        <v>154.28</v>
+      </c>
       <c r="CW60"/>
       <c r="CX60"/>
       <c r="CY60"/>
@@ -18066,10 +18606,18 @@
       <c r="CP62"/>
       <c r="CQ62"/>
       <c r="CR62"/>
-      <c r="CS62"/>
-      <c r="CT62"/>
-      <c r="CU62"/>
-      <c r="CV62"/>
+      <c r="CS62" t="n">
+        <v>-6.308916197</v>
+      </c>
+      <c r="CT62" t="n">
+        <v>-7.6184400065</v>
+      </c>
+      <c r="CU62" t="n">
+        <v>-8.9279638155</v>
+      </c>
+      <c r="CV62" t="n">
+        <v>29.26</v>
+      </c>
       <c r="CW62"/>
       <c r="CX62"/>
       <c r="CY62"/>
@@ -18307,10 +18855,18 @@
       <c r="CR63" t="n">
         <v>0.57</v>
       </c>
-      <c r="CS63"/>
-      <c r="CT63"/>
-      <c r="CU63"/>
-      <c r="CV63"/>
+      <c r="CS63" t="n">
+        <v>-7.402085222</v>
+      </c>
+      <c r="CT63" t="n">
+        <v>-10.81724</v>
+      </c>
+      <c r="CU63" t="n">
+        <v>-13.990394778</v>
+      </c>
+      <c r="CV63" t="n">
+        <v>12.196090316</v>
+      </c>
       <c r="CW63"/>
       <c r="CX63"/>
       <c r="CY63"/>
@@ -18757,10 +19313,18 @@
       <c r="CP65"/>
       <c r="CQ65"/>
       <c r="CR65"/>
-      <c r="CS65"/>
-      <c r="CT65"/>
-      <c r="CU65"/>
-      <c r="CV65"/>
+      <c r="CS65" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT65" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU65" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV65" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW65"/>
       <c r="CX65"/>
       <c r="CY65"/>
@@ -18984,10 +19548,18 @@
       <c r="CP66"/>
       <c r="CQ66"/>
       <c r="CR66"/>
-      <c r="CS66"/>
-      <c r="CT66"/>
-      <c r="CU66"/>
-      <c r="CV66"/>
+      <c r="CS66" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT66" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU66" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV66" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW66"/>
       <c r="CX66"/>
       <c r="CY66"/>
@@ -19211,10 +19783,18 @@
       <c r="CP67"/>
       <c r="CQ67"/>
       <c r="CR67"/>
-      <c r="CS67"/>
-      <c r="CT67"/>
-      <c r="CU67"/>
-      <c r="CV67"/>
+      <c r="CS67" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT67" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU67" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV67" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW67"/>
       <c r="CX67"/>
       <c r="CY67"/>
@@ -19438,10 +20018,18 @@
       <c r="CP68"/>
       <c r="CQ68"/>
       <c r="CR68"/>
-      <c r="CS68"/>
-      <c r="CT68"/>
-      <c r="CU68"/>
-      <c r="CV68"/>
+      <c r="CS68" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT68" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU68" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV68" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW68"/>
       <c r="CX68"/>
       <c r="CY68"/>
@@ -19665,10 +20253,18 @@
       <c r="CP69"/>
       <c r="CQ69"/>
       <c r="CR69"/>
-      <c r="CS69"/>
-      <c r="CT69"/>
-      <c r="CU69"/>
-      <c r="CV69"/>
+      <c r="CS69" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT69" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU69" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV69" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW69"/>
       <c r="CX69"/>
       <c r="CY69"/>
@@ -19892,10 +20488,18 @@
       <c r="CP70"/>
       <c r="CQ70"/>
       <c r="CR70"/>
-      <c r="CS70"/>
-      <c r="CT70"/>
-      <c r="CU70"/>
-      <c r="CV70"/>
+      <c r="CS70" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT70" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU70" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV70" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW70"/>
       <c r="CX70"/>
       <c r="CY70"/>
@@ -20125,10 +20729,18 @@
       <c r="CP71"/>
       <c r="CQ71"/>
       <c r="CR71"/>
-      <c r="CS71"/>
-      <c r="CT71"/>
-      <c r="CU71"/>
-      <c r="CV71"/>
+      <c r="CS71" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT71" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU71" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV71" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW71"/>
       <c r="CX71"/>
       <c r="CY71"/>
@@ -20352,10 +20964,18 @@
       <c r="CP72"/>
       <c r="CQ72"/>
       <c r="CR72"/>
-      <c r="CS72"/>
-      <c r="CT72"/>
-      <c r="CU72"/>
-      <c r="CV72"/>
+      <c r="CS72" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT72" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU72" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV72" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW72"/>
       <c r="CX72"/>
       <c r="CY72"/>
@@ -20579,10 +21199,18 @@
       <c r="CP73"/>
       <c r="CQ73"/>
       <c r="CR73"/>
-      <c r="CS73"/>
-      <c r="CT73"/>
-      <c r="CU73"/>
-      <c r="CV73"/>
+      <c r="CS73" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT73" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU73" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV73" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW73"/>
       <c r="CX73"/>
       <c r="CY73"/>
@@ -20812,10 +21440,18 @@
       <c r="CP74"/>
       <c r="CQ74"/>
       <c r="CR74"/>
-      <c r="CS74"/>
-      <c r="CT74"/>
-      <c r="CU74"/>
-      <c r="CV74"/>
+      <c r="CS74" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT74" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU74" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV74" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW74"/>
       <c r="CX74"/>
       <c r="CY74"/>
@@ -21045,10 +21681,18 @@
       <c r="CP75"/>
       <c r="CQ75"/>
       <c r="CR75"/>
-      <c r="CS75"/>
-      <c r="CT75"/>
-      <c r="CU75"/>
-      <c r="CV75"/>
+      <c r="CS75" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT75" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU75" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV75" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW75"/>
       <c r="CX75"/>
       <c r="CY75"/>
@@ -21278,10 +21922,18 @@
       <c r="CP76"/>
       <c r="CQ76"/>
       <c r="CR76"/>
-      <c r="CS76"/>
-      <c r="CT76"/>
-      <c r="CU76"/>
-      <c r="CV76"/>
+      <c r="CS76" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT76" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU76" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV76" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW76"/>
       <c r="CX76"/>
       <c r="CY76"/>
@@ -21505,10 +22157,18 @@
       <c r="CP77"/>
       <c r="CQ77"/>
       <c r="CR77"/>
-      <c r="CS77"/>
-      <c r="CT77"/>
-      <c r="CU77"/>
-      <c r="CV77"/>
+      <c r="CS77" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CT77" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="CU77" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="CV77" t="n">
+        <v>65.51724138</v>
+      </c>
       <c r="CW77"/>
       <c r="CX77"/>
       <c r="CY77"/>
@@ -21929,10 +22589,18 @@
       <c r="CR79" t="n">
         <v>0.37</v>
       </c>
-      <c r="CS79"/>
-      <c r="CT79"/>
-      <c r="CU79"/>
-      <c r="CV79"/>
+      <c r="CS79" t="n">
+        <v>-1.110657211</v>
+      </c>
+      <c r="CT79" t="n">
+        <v>-3.345</v>
+      </c>
+      <c r="CU79" t="n">
+        <v>-5.589342789</v>
+      </c>
+      <c r="CV79" t="n">
+        <v>16.93712306</v>
+      </c>
       <c r="CW79"/>
       <c r="CX79"/>
       <c r="CY79"/>
@@ -23195,10 +23863,18 @@
       <c r="CR85" t="n">
         <v>0.73</v>
       </c>
-      <c r="CS85"/>
-      <c r="CT85"/>
-      <c r="CU85"/>
-      <c r="CV85"/>
+      <c r="CS85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CT85" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="CU85" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="CV85" t="n">
+        <v>20</v>
+      </c>
       <c r="CW85"/>
       <c r="CX85"/>
       <c r="CY85"/>
@@ -23450,10 +24126,18 @@
       <c r="CR86" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS86"/>
-      <c r="CT86"/>
-      <c r="CU86"/>
-      <c r="CV86"/>
+      <c r="CS86" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT86" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU86" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV86" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW86"/>
       <c r="CX86"/>
       <c r="CY86"/>
@@ -23689,10 +24373,18 @@
       <c r="CR87" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS87"/>
-      <c r="CT87"/>
-      <c r="CU87"/>
-      <c r="CV87"/>
+      <c r="CS87" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT87" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU87" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV87" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW87"/>
       <c r="CX87"/>
       <c r="CY87"/>
@@ -23922,10 +24614,18 @@
       <c r="CR88" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS88"/>
-      <c r="CT88"/>
-      <c r="CU88"/>
-      <c r="CV88"/>
+      <c r="CS88" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT88" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU88" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV88" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW88"/>
       <c r="CX88"/>
       <c r="CY88"/>
@@ -24161,10 +24861,18 @@
       <c r="CR89" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS89"/>
-      <c r="CT89"/>
-      <c r="CU89"/>
-      <c r="CV89"/>
+      <c r="CS89" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT89" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU89" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV89" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW89"/>
       <c r="CX89"/>
       <c r="CY89"/>
@@ -24394,10 +25102,18 @@
       <c r="CR90" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS90"/>
-      <c r="CT90"/>
-      <c r="CU90"/>
-      <c r="CV90"/>
+      <c r="CS90" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT90" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU90" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV90" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW90"/>
       <c r="CX90"/>
       <c r="CY90"/>
@@ -24637,10 +25353,18 @@
       <c r="CR91" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS91"/>
-      <c r="CT91"/>
-      <c r="CU91"/>
-      <c r="CV91"/>
+      <c r="CS91" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT91" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU91" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV91" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW91"/>
       <c r="CX91"/>
       <c r="CY91"/>
@@ -24878,10 +25602,18 @@
       <c r="CR92" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS92"/>
-      <c r="CT92"/>
-      <c r="CU92"/>
-      <c r="CV92"/>
+      <c r="CS92" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT92" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU92" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV92" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW92"/>
       <c r="CX92"/>
       <c r="CY92"/>
@@ -25111,10 +25843,18 @@
       <c r="CR93" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS93"/>
-      <c r="CT93"/>
-      <c r="CU93"/>
-      <c r="CV93"/>
+      <c r="CS93" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT93" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU93" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV93" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW93"/>
       <c r="CX93"/>
       <c r="CY93"/>
@@ -25344,10 +26084,18 @@
       <c r="CR94" t="n">
         <v>0.335</v>
       </c>
-      <c r="CS94"/>
-      <c r="CT94"/>
-      <c r="CU94"/>
-      <c r="CV94"/>
+      <c r="CS94" t="n">
+        <v>-0.686643472</v>
+      </c>
+      <c r="CT94" t="n">
+        <v>-2.75478268366667</v>
+      </c>
+      <c r="CU94" t="n">
+        <v>-7.11469934233333</v>
+      </c>
+      <c r="CV94" t="n">
+        <v>11.204337833</v>
+      </c>
       <c r="CW94"/>
       <c r="CX94"/>
       <c r="CY94"/>
@@ -25812,10 +26560,18 @@
       <c r="CR96" t="n">
         <v>3.43054099419048</v>
       </c>
-      <c r="CS96"/>
-      <c r="CT96"/>
-      <c r="CU96"/>
-      <c r="CV96"/>
+      <c r="CS96" t="n">
+        <v>-0.890550578384615</v>
+      </c>
+      <c r="CT96" t="n">
+        <v>-2.18527272727273</v>
+      </c>
+      <c r="CU96" t="n">
+        <v>-3.83207658918182</v>
+      </c>
+      <c r="CV96" t="n">
+        <v>25.1639261709091</v>
+      </c>
       <c r="CW96"/>
       <c r="CX96"/>
       <c r="CY96"/>
@@ -26045,10 +26801,18 @@
       <c r="CP97"/>
       <c r="CQ97"/>
       <c r="CR97"/>
-      <c r="CS97"/>
-      <c r="CT97"/>
-      <c r="CU97"/>
-      <c r="CV97"/>
+      <c r="CS97" t="n">
+        <v>-3.892</v>
+      </c>
+      <c r="CT97" t="n">
+        <v>-5.142</v>
+      </c>
+      <c r="CU97" t="n">
+        <v>-6.392</v>
+      </c>
+      <c r="CV97" t="n">
+        <v>30.4</v>
+      </c>
       <c r="CW97"/>
       <c r="CX97"/>
       <c r="CY97"/>
@@ -26569,10 +27333,18 @@
       <c r="CR99" t="n">
         <v>0.9</v>
       </c>
-      <c r="CS99"/>
-      <c r="CT99"/>
-      <c r="CU99"/>
-      <c r="CV99"/>
+      <c r="CS99" t="n">
+        <v>-2.43333333333333</v>
+      </c>
+      <c r="CT99" t="n">
+        <v>-3.08333333333333</v>
+      </c>
+      <c r="CU99" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="CV99" t="n">
+        <v>49.0079365066667</v>
+      </c>
       <c r="CW99"/>
       <c r="CX99"/>
       <c r="CY99"/>
@@ -26826,10 +27598,18 @@
       <c r="CR100" t="n">
         <v>4.5633829965625</v>
       </c>
-      <c r="CS100"/>
-      <c r="CT100"/>
-      <c r="CU100"/>
-      <c r="CV100"/>
+      <c r="CS100" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="CT100" t="n">
+        <v>-1.576</v>
+      </c>
+      <c r="CU100" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="CV100" t="n">
+        <v>63.33333333</v>
+      </c>
       <c r="CW100"/>
       <c r="CX100"/>
       <c r="CY100"/>
@@ -27059,10 +27839,18 @@
       <c r="CP101"/>
       <c r="CQ101"/>
       <c r="CR101"/>
-      <c r="CS101"/>
-      <c r="CT101"/>
-      <c r="CU101"/>
-      <c r="CV101"/>
+      <c r="CS101" t="n">
+        <v>-2.502985019</v>
+      </c>
+      <c r="CT101" t="n">
+        <v>-2.924333333</v>
+      </c>
+      <c r="CU101" t="n">
+        <v>-3.345681648</v>
+      </c>
+      <c r="CV101" t="n">
+        <v>90.18666667</v>
+      </c>
       <c r="CW101"/>
       <c r="CX101"/>
       <c r="CY101"/>
@@ -27314,10 +28102,18 @@
       <c r="CR102" t="n">
         <v>0.71</v>
       </c>
-      <c r="CS102"/>
-      <c r="CT102"/>
-      <c r="CU102"/>
-      <c r="CV102"/>
+      <c r="CS102" t="n">
+        <v>-0.541882725</v>
+      </c>
+      <c r="CT102" t="n">
+        <v>-1.135996125</v>
+      </c>
+      <c r="CU102" t="n">
+        <v>-1.75629033333333</v>
+      </c>
+      <c r="CV102" t="n">
+        <v>103.74129862</v>
+      </c>
       <c r="CW102"/>
       <c r="CX102"/>
       <c r="CY102"/>
@@ -28817,7 +29613,9 @@
       <c r="CL109"/>
       <c r="CM109"/>
       <c r="CN109"/>
-      <c r="CO109"/>
+      <c r="CO109" t="n">
+        <v>-0.64</v>
+      </c>
       <c r="CP109"/>
       <c r="CQ109"/>
       <c r="CR109"/>
@@ -29755,15 +30553,29 @@
       <c r="CR113" t="n">
         <v>0.22557571725</v>
       </c>
-      <c r="CS113"/>
-      <c r="CT113"/>
-      <c r="CU113"/>
-      <c r="CV113"/>
+      <c r="CS113" t="n">
+        <v>-3.5844945705</v>
+      </c>
+      <c r="CT113" t="n">
+        <v>-5.702</v>
+      </c>
+      <c r="CU113" t="n">
+        <v>-7.8195054295</v>
+      </c>
+      <c r="CV113" t="n">
+        <v>22.85170801</v>
+      </c>
       <c r="CW113"/>
       <c r="CX113"/>
-      <c r="CY113"/>
-      <c r="CZ113"/>
-      <c r="DA113"/>
+      <c r="CY113" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="CZ113" t="n">
+        <v>-3.75849815</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>18.91960916</v>
+      </c>
       <c r="DB113" t="n">
         <v>31.7241261830769</v>
       </c>
@@ -30231,10 +31043,18 @@
       <c r="CP115"/>
       <c r="CQ115"/>
       <c r="CR115"/>
-      <c r="CS115"/>
-      <c r="CT115"/>
-      <c r="CU115"/>
-      <c r="CV115"/>
+      <c r="CS115" t="n">
+        <v>-1.875</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="CV115" t="n">
+        <v>145</v>
+      </c>
       <c r="CW115"/>
       <c r="CX115"/>
       <c r="CY115"/>
@@ -30480,15 +31300,31 @@
       <c r="CR116" t="n">
         <v>0.324370809928571</v>
       </c>
-      <c r="CS116"/>
-      <c r="CT116"/>
-      <c r="CU116"/>
-      <c r="CV116"/>
+      <c r="CS116" t="n">
+        <v>-5.00023131378261</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>-7.8968780247</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>-10.1199189152571</v>
+      </c>
+      <c r="CV116" t="n">
+        <v>27.4785803952</v>
+      </c>
       <c r="CW116"/>
-      <c r="CX116"/>
-      <c r="CY116"/>
-      <c r="CZ116"/>
-      <c r="DA116"/>
+      <c r="CX116" t="n">
+        <v>-4.10007895865</v>
+      </c>
+      <c r="CY116" t="n">
+        <v>-7.5708473625</v>
+      </c>
+      <c r="CZ116" t="n">
+        <v>-10.3591591045882</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>34.8489164170588</v>
+      </c>
       <c r="DB116" t="n">
         <v>55.01</v>
       </c>
@@ -30735,15 +31571,31 @@
       <c r="CR117" t="n">
         <v>0.525633333333333</v>
       </c>
-      <c r="CS117"/>
-      <c r="CT117"/>
-      <c r="CU117"/>
-      <c r="CV117"/>
+      <c r="CS117" t="n">
+        <v>-3.735468254</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>-5.82757575754545</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>-7.861501443</v>
+      </c>
+      <c r="CV117" t="n">
+        <v>19.4791643818182</v>
+      </c>
       <c r="CW117"/>
-      <c r="CX117"/>
-      <c r="CY117"/>
-      <c r="CZ117"/>
-      <c r="DA117"/>
+      <c r="CX117" t="n">
+        <v>-4.10007895865</v>
+      </c>
+      <c r="CY117" t="n">
+        <v>-7.5708473625</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>-10.3591591045882</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>34.8489164170588</v>
+      </c>
       <c r="DB117" t="n">
         <v>55.01</v>
       </c>
@@ -31010,15 +31862,31 @@
       <c r="CR118" t="n">
         <v>0.325891339</v>
       </c>
-      <c r="CS118"/>
-      <c r="CT118"/>
-      <c r="CU118"/>
-      <c r="CV118"/>
+      <c r="CS118" t="n">
+        <v>-5.00023131378261</v>
+      </c>
+      <c r="CT118" t="n">
+        <v>-7.8968780247</v>
+      </c>
+      <c r="CU118" t="n">
+        <v>-10.1199189152571</v>
+      </c>
+      <c r="CV118" t="n">
+        <v>27.4785803952</v>
+      </c>
       <c r="CW118"/>
-      <c r="CX118"/>
-      <c r="CY118"/>
-      <c r="CZ118"/>
-      <c r="DA118"/>
+      <c r="CX118" t="n">
+        <v>-4.10007895865</v>
+      </c>
+      <c r="CY118" t="n">
+        <v>-7.5708473625</v>
+      </c>
+      <c r="CZ118" t="n">
+        <v>-10.3591591045882</v>
+      </c>
+      <c r="DA118" t="n">
+        <v>34.8489164170588</v>
+      </c>
       <c r="DB118" t="n">
         <v>55.01</v>
       </c>
@@ -31291,15 +32159,31 @@
       <c r="CR119" t="n">
         <v>0.324370809928571</v>
       </c>
-      <c r="CS119"/>
-      <c r="CT119"/>
-      <c r="CU119"/>
-      <c r="CV119"/>
+      <c r="CS119" t="n">
+        <v>-5.00023131378261</v>
+      </c>
+      <c r="CT119" t="n">
+        <v>-7.8968780247</v>
+      </c>
+      <c r="CU119" t="n">
+        <v>-10.1199189152571</v>
+      </c>
+      <c r="CV119" t="n">
+        <v>27.4785803952</v>
+      </c>
       <c r="CW119"/>
-      <c r="CX119"/>
-      <c r="CY119"/>
-      <c r="CZ119"/>
-      <c r="DA119"/>
+      <c r="CX119" t="n">
+        <v>-4.10007895865</v>
+      </c>
+      <c r="CY119" t="n">
+        <v>-7.5708473625</v>
+      </c>
+      <c r="CZ119" t="n">
+        <v>-10.3591591045882</v>
+      </c>
+      <c r="DA119" t="n">
+        <v>34.8489164170588</v>
+      </c>
       <c r="DB119" t="n">
         <v>55.01</v>
       </c>
@@ -31556,15 +32440,31 @@
       <c r="CR120" t="n">
         <v>0.324370809928571</v>
       </c>
-      <c r="CS120"/>
-      <c r="CT120"/>
-      <c r="CU120"/>
-      <c r="CV120"/>
+      <c r="CS120" t="n">
+        <v>-5.00023131378261</v>
+      </c>
+      <c r="CT120" t="n">
+        <v>-7.8968780247</v>
+      </c>
+      <c r="CU120" t="n">
+        <v>-10.1199189152571</v>
+      </c>
+      <c r="CV120" t="n">
+        <v>27.4785803952</v>
+      </c>
       <c r="CW120"/>
-      <c r="CX120"/>
-      <c r="CY120"/>
-      <c r="CZ120"/>
-      <c r="DA120"/>
+      <c r="CX120" t="n">
+        <v>-4.10007895865</v>
+      </c>
+      <c r="CY120" t="n">
+        <v>-7.5708473625</v>
+      </c>
+      <c r="CZ120" t="n">
+        <v>-10.3591591045882</v>
+      </c>
+      <c r="DA120" t="n">
+        <v>34.8489164170588</v>
+      </c>
       <c r="DB120" t="n">
         <v>55.01</v>
       </c>
@@ -31996,10 +32896,18 @@
       <c r="CR122" t="n">
         <v>0.299624666666667</v>
       </c>
-      <c r="CS122"/>
-      <c r="CT122"/>
-      <c r="CU122"/>
-      <c r="CV122"/>
+      <c r="CS122" t="n">
+        <v>-2.921220005125</v>
+      </c>
+      <c r="CT122" t="n">
+        <v>-3.92201375</v>
+      </c>
+      <c r="CU122" t="n">
+        <v>-4.863643744875</v>
+      </c>
+      <c r="CV122" t="n">
+        <v>55.83453075125</v>
+      </c>
       <c r="CW122"/>
       <c r="CX122"/>
       <c r="CY122"/>
@@ -32239,10 +33147,18 @@
       <c r="CR123" t="n">
         <v>0.251</v>
       </c>
-      <c r="CS123"/>
-      <c r="CT123"/>
-      <c r="CU123"/>
-      <c r="CV123"/>
+      <c r="CS123" t="n">
+        <v>-0.614879758</v>
+      </c>
+      <c r="CT123" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="CU123" t="n">
+        <v>-2.325120242</v>
+      </c>
+      <c r="CV123" t="n">
+        <v>44.43819491</v>
+      </c>
       <c r="CW123"/>
       <c r="CX123"/>
       <c r="CY123"/>
@@ -32456,10 +33372,18 @@
       <c r="CP124"/>
       <c r="CQ124"/>
       <c r="CR124"/>
-      <c r="CS124"/>
-      <c r="CT124"/>
-      <c r="CU124"/>
-      <c r="CV124"/>
+      <c r="CS124" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CT124" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="CU124" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="CV124" t="n">
+        <v>25.33333333</v>
+      </c>
       <c r="CW124"/>
       <c r="CX124"/>
       <c r="CY124"/>
@@ -32930,10 +33854,18 @@
       <c r="CR126" t="n">
         <v>0.8</v>
       </c>
-      <c r="CS126"/>
-      <c r="CT126"/>
-      <c r="CU126"/>
-      <c r="CV126"/>
+      <c r="CS126" t="n">
+        <v>-2.7886742425</v>
+      </c>
+      <c r="CT126" t="n">
+        <v>-4.89708333325</v>
+      </c>
+      <c r="CU126" t="n">
+        <v>-7.002992425</v>
+      </c>
+      <c r="CV126" t="n">
+        <v>20.29504425</v>
+      </c>
       <c r="CW126"/>
       <c r="CX126"/>
       <c r="CY126"/>
@@ -33378,10 +34310,18 @@
       <c r="CR128" t="n">
         <v>0.252101</v>
       </c>
-      <c r="CS128"/>
-      <c r="CT128"/>
-      <c r="CU128"/>
-      <c r="CV128"/>
+      <c r="CS128" t="n">
+        <v>-4.542218745</v>
+      </c>
+      <c r="CT128" t="n">
+        <v>-5.514981391</v>
+      </c>
+      <c r="CU128" t="n">
+        <v>-6.487744037</v>
+      </c>
+      <c r="CV128" t="n">
+        <v>39.064</v>
+      </c>
       <c r="CW128"/>
       <c r="CX128"/>
       <c r="CY128"/>
@@ -33595,10 +34535,18 @@
       <c r="CP129"/>
       <c r="CQ129"/>
       <c r="CR129"/>
-      <c r="CS129"/>
-      <c r="CT129"/>
-      <c r="CU129"/>
-      <c r="CV129"/>
+      <c r="CS129" t="n">
+        <v>-4.784825137</v>
+      </c>
+      <c r="CT129" t="n">
+        <v>-6.014333333</v>
+      </c>
+      <c r="CU129" t="n">
+        <v>-7.24384153</v>
+      </c>
+      <c r="CV129" t="n">
+        <v>30.90666667</v>
+      </c>
       <c r="CW129"/>
       <c r="CX129"/>
       <c r="CY129"/>
@@ -34277,7 +35225,9 @@
       <c r="CQ132"/>
       <c r="CR132"/>
       <c r="CS132"/>
-      <c r="CT132"/>
+      <c r="CT132" t="n">
+        <v>-0.529692</v>
+      </c>
       <c r="CU132"/>
       <c r="CV132"/>
       <c r="CW132"/>
@@ -34489,10 +35439,18 @@
       <c r="CP133"/>
       <c r="CQ133"/>
       <c r="CR133"/>
-      <c r="CS133"/>
-      <c r="CT133"/>
-      <c r="CU133"/>
-      <c r="CV133"/>
+      <c r="CS133" t="n">
+        <v>-0.479586712</v>
+      </c>
+      <c r="CT133" t="n">
+        <v>-1.639912572</v>
+      </c>
+      <c r="CU133" t="n">
+        <v>-3.697947983</v>
+      </c>
+      <c r="CV133" t="n">
+        <v>18.46421097</v>
+      </c>
       <c r="CW133"/>
       <c r="CX133"/>
       <c r="CY133"/>
@@ -34748,10 +35706,18 @@
       <c r="CR134" t="n">
         <v>0.669333333333333</v>
       </c>
-      <c r="CS134"/>
-      <c r="CT134"/>
-      <c r="CU134"/>
-      <c r="CV134"/>
+      <c r="CS134" t="n">
+        <v>-2.11101590325</v>
+      </c>
+      <c r="CT134" t="n">
+        <v>-4.42158333325</v>
+      </c>
+      <c r="CU134" t="n">
+        <v>-7.1271507635</v>
+      </c>
+      <c r="CV134" t="n">
+        <v>17.01119378</v>
+      </c>
       <c r="CW134"/>
       <c r="CX134"/>
       <c r="CY134"/>
@@ -34968,7 +35934,9 @@
       <c r="CQ135"/>
       <c r="CR135"/>
       <c r="CS135"/>
-      <c r="CT135"/>
+      <c r="CT135" t="n">
+        <v>-1.7</v>
+      </c>
       <c r="CU135"/>
       <c r="CV135"/>
       <c r="CW135"/>
@@ -35441,10 +36409,18 @@
       <c r="CR137" t="n">
         <v>0.14</v>
       </c>
-      <c r="CS137"/>
-      <c r="CT137"/>
-      <c r="CU137"/>
-      <c r="CV137"/>
+      <c r="CS137" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="CT137" t="n">
+        <v>-5.55833333333333</v>
+      </c>
+      <c r="CU137" t="n">
+        <v>-11.683333335</v>
+      </c>
+      <c r="CV137" t="n">
+        <v>8.36</v>
+      </c>
       <c r="CW137"/>
       <c r="CX137"/>
       <c r="CY137"/>
@@ -36805,15 +37781,31 @@
       <c r="CR143" t="n">
         <v>0.40837685</v>
       </c>
-      <c r="CS143"/>
-      <c r="CT143"/>
-      <c r="CU143"/>
-      <c r="CV143"/>
+      <c r="CS143" t="n">
+        <v>-8.643647059</v>
+      </c>
+      <c r="CT143" t="n">
+        <v>-9.526</v>
+      </c>
+      <c r="CU143" t="n">
+        <v>-10.40835294</v>
+      </c>
+      <c r="CV143" t="n">
+        <v>43.06666667</v>
+      </c>
       <c r="CW143"/>
-      <c r="CX143"/>
-      <c r="CY143"/>
-      <c r="CZ143"/>
-      <c r="DA143"/>
+      <c r="CX143" t="n">
+        <v>-3.122480694</v>
+      </c>
+      <c r="CY143" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="CZ143" t="n">
+        <v>-7.477519306</v>
+      </c>
+      <c r="DA143" t="n">
+        <v>17.45105079</v>
+      </c>
       <c r="DB143" t="n">
         <v>65.2325</v>
       </c>
@@ -37040,15 +38032,31 @@
       <c r="CR144" t="n">
         <v>0.40837685</v>
       </c>
-      <c r="CS144"/>
-      <c r="CT144"/>
-      <c r="CU144"/>
-      <c r="CV144"/>
+      <c r="CS144" t="n">
+        <v>-2.4463329945</v>
+      </c>
+      <c r="CT144" t="n">
+        <v>-6.775</v>
+      </c>
+      <c r="CU144" t="n">
+        <v>-11.103667005</v>
+      </c>
+      <c r="CV144" t="n">
+        <v>9.123336346</v>
+      </c>
       <c r="CW144"/>
-      <c r="CX144"/>
-      <c r="CY144"/>
-      <c r="CZ144"/>
-      <c r="DA144"/>
+      <c r="CX144" t="n">
+        <v>-3.122480694</v>
+      </c>
+      <c r="CY144" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="CZ144" t="n">
+        <v>-7.477519306</v>
+      </c>
+      <c r="DA144" t="n">
+        <v>17.45105079</v>
+      </c>
       <c r="DB144" t="n">
         <v>65.2325</v>
       </c>
@@ -37285,10 +38293,18 @@
       <c r="CP145"/>
       <c r="CQ145"/>
       <c r="CR145"/>
-      <c r="CS145"/>
-      <c r="CT145"/>
-      <c r="CU145"/>
-      <c r="CV145"/>
+      <c r="CS145" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CT145" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="CU145" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="CV145" t="n">
+        <v>11.58536585</v>
+      </c>
       <c r="CW145"/>
       <c r="CX145"/>
       <c r="CY145"/>
@@ -37948,13 +38964,23 @@
       <c r="CR148" t="n">
         <v>0.558377777777778</v>
       </c>
-      <c r="CS148"/>
-      <c r="CT148"/>
-      <c r="CU148"/>
-      <c r="CV148"/>
+      <c r="CS148" t="n">
+        <v>-3.0671827998</v>
+      </c>
+      <c r="CT148" t="n">
+        <v>-3.6967777778</v>
+      </c>
+      <c r="CU148" t="n">
+        <v>-4.3570394224</v>
+      </c>
+      <c r="CV148" t="n">
+        <v>65.6764135766667</v>
+      </c>
       <c r="CW148"/>
       <c r="CX148"/>
-      <c r="CY148"/>
+      <c r="CY148" t="n">
+        <v>-4.88657136644444</v>
+      </c>
       <c r="CZ148"/>
       <c r="DA148"/>
       <c r="DB148" t="n">
@@ -38212,22 +39238,44 @@
       <c r="CK149"/>
       <c r="CL149"/>
       <c r="CM149"/>
-      <c r="CN149"/>
-      <c r="CO149"/>
+      <c r="CN149" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO149" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP149"/>
-      <c r="CQ149"/>
+      <c r="CQ149" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR149" t="n">
         <v>0.689537624043571</v>
       </c>
-      <c r="CS149"/>
-      <c r="CT149"/>
-      <c r="CU149"/>
-      <c r="CV149"/>
+      <c r="CS149" t="n">
+        <v>-2.35106237928378</v>
+      </c>
+      <c r="CT149" t="n">
+        <v>-3.56925547656977</v>
+      </c>
+      <c r="CU149" t="n">
+        <v>-4.57111167152703</v>
+      </c>
+      <c r="CV149" t="n">
+        <v>55.0152415971622</v>
+      </c>
       <c r="CW149"/>
-      <c r="CX149"/>
-      <c r="CY149"/>
-      <c r="CZ149"/>
-      <c r="DA149"/>
+      <c r="CX149" t="n">
+        <v>-0.7299655780625</v>
+      </c>
+      <c r="CY149" t="n">
+        <v>-1.7415652173913</v>
+      </c>
+      <c r="CZ149" t="n">
+        <v>-2.30148170838889</v>
+      </c>
+      <c r="DA149" t="n">
+        <v>60.8508700966667</v>
+      </c>
       <c r="DB149" t="n">
         <v>58.8994789583385</v>
       </c>
@@ -38515,22 +39563,44 @@
       <c r="CM150" t="n">
         <v>4</v>
       </c>
-      <c r="CN150"/>
-      <c r="CO150"/>
+      <c r="CN150" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO150" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP150"/>
-      <c r="CQ150"/>
+      <c r="CQ150" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR150" t="n">
         <v>0.15</v>
       </c>
-      <c r="CS150"/>
-      <c r="CT150"/>
-      <c r="CU150"/>
-      <c r="CV150"/>
+      <c r="CS150" t="n">
+        <v>-3.35037241866667</v>
+      </c>
+      <c r="CT150" t="n">
+        <v>-4.46044444433333</v>
+      </c>
+      <c r="CU150" t="n">
+        <v>-5.57051647</v>
+      </c>
+      <c r="CV150" t="n">
+        <v>45.8698235333333</v>
+      </c>
       <c r="CW150"/>
-      <c r="CX150"/>
-      <c r="CY150"/>
-      <c r="CZ150"/>
-      <c r="DA150"/>
+      <c r="CX150" t="n">
+        <v>-0.511031451</v>
+      </c>
+      <c r="CY150" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="CZ150" t="n">
+        <v>-1.248968549</v>
+      </c>
+      <c r="DA150" t="n">
+        <v>102.9898079</v>
+      </c>
       <c r="DB150" t="n">
         <v>72.196165126121</v>
       </c>
@@ -38830,22 +39900,44 @@
       <c r="CM151" t="n">
         <v>5</v>
       </c>
-      <c r="CN151"/>
-      <c r="CO151"/>
+      <c r="CN151" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO151" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP151"/>
-      <c r="CQ151"/>
+      <c r="CQ151" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR151" t="n">
         <v>0.41</v>
       </c>
-      <c r="CS151"/>
-      <c r="CT151"/>
-      <c r="CU151"/>
-      <c r="CV151"/>
+      <c r="CS151" t="n">
+        <v>-1.748027934</v>
+      </c>
+      <c r="CT151" t="n">
+        <v>-3.26666666666667</v>
+      </c>
+      <c r="CU151" t="n">
+        <v>-4.246972066</v>
+      </c>
+      <c r="CV151" t="n">
+        <v>33.03122777</v>
+      </c>
       <c r="CW151"/>
-      <c r="CX151"/>
-      <c r="CY151"/>
-      <c r="CZ151"/>
-      <c r="DA151"/>
+      <c r="CX151" t="n">
+        <v>-0.7299655780625</v>
+      </c>
+      <c r="CY151" t="n">
+        <v>-1.7415652173913</v>
+      </c>
+      <c r="CZ151" t="n">
+        <v>-2.30148170838889</v>
+      </c>
+      <c r="DA151" t="n">
+        <v>60.8508700966667</v>
+      </c>
       <c r="DB151" t="n">
         <v>68.5029549657468</v>
       </c>
@@ -39117,22 +40209,44 @@
       <c r="CK152"/>
       <c r="CL152"/>
       <c r="CM152"/>
-      <c r="CN152"/>
-      <c r="CO152"/>
+      <c r="CN152" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO152" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP152"/>
-      <c r="CQ152"/>
+      <c r="CQ152" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR152" t="n">
         <v>0.352</v>
       </c>
-      <c r="CS152"/>
-      <c r="CT152"/>
-      <c r="CU152"/>
-      <c r="CV152"/>
+      <c r="CS152" t="n">
+        <v>-2.491982608</v>
+      </c>
+      <c r="CT152" t="n">
+        <v>-3.489</v>
+      </c>
+      <c r="CU152" t="n">
+        <v>-4.486017392</v>
+      </c>
+      <c r="CV152" t="n">
+        <v>43.2274519866667</v>
+      </c>
       <c r="CW152"/>
-      <c r="CX152"/>
-      <c r="CY152"/>
-      <c r="CZ152"/>
-      <c r="DA152"/>
+      <c r="CX152" t="n">
+        <v>-0.7299655780625</v>
+      </c>
+      <c r="CY152" t="n">
+        <v>-1.7415652173913</v>
+      </c>
+      <c r="CZ152" t="n">
+        <v>-2.30148170838889</v>
+      </c>
+      <c r="DA152" t="n">
+        <v>60.8508700966667</v>
+      </c>
       <c r="DB152" t="n">
         <v>44.5175</v>
       </c>
@@ -39420,22 +40534,44 @@
       <c r="CM153" t="n">
         <v>4</v>
       </c>
-      <c r="CN153"/>
-      <c r="CO153"/>
+      <c r="CN153" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO153" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP153"/>
-      <c r="CQ153"/>
+      <c r="CQ153" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR153" t="n">
         <v>0.25</v>
       </c>
-      <c r="CS153"/>
-      <c r="CT153"/>
-      <c r="CU153"/>
-      <c r="CV153"/>
+      <c r="CS153" t="n">
+        <v>-2.3304690645</v>
+      </c>
+      <c r="CT153" t="n">
+        <v>-3.995</v>
+      </c>
+      <c r="CU153" t="n">
+        <v>-5.6595309355</v>
+      </c>
+      <c r="CV153" t="n">
+        <v>40.685987195</v>
+      </c>
       <c r="CW153"/>
-      <c r="CX153"/>
-      <c r="CY153"/>
-      <c r="CZ153"/>
-      <c r="DA153"/>
+      <c r="CX153" t="n">
+        <v>-0.298417798</v>
+      </c>
+      <c r="CY153" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="CZ153" t="n">
+        <v>-1.721582202</v>
+      </c>
+      <c r="DA153" t="n">
+        <v>53.40212264</v>
+      </c>
       <c r="DB153" t="n">
         <v>72.4217252350715</v>
       </c>
@@ -39707,22 +40843,44 @@
       <c r="CK154"/>
       <c r="CL154"/>
       <c r="CM154"/>
-      <c r="CN154"/>
-      <c r="CO154"/>
+      <c r="CN154" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO154" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP154"/>
-      <c r="CQ154"/>
+      <c r="CQ154" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR154" t="n">
         <v>0.689537624043571</v>
       </c>
-      <c r="CS154"/>
-      <c r="CT154"/>
-      <c r="CU154"/>
-      <c r="CV154"/>
+      <c r="CS154" t="n">
+        <v>-2.35106237928378</v>
+      </c>
+      <c r="CT154" t="n">
+        <v>-3.56925547656977</v>
+      </c>
+      <c r="CU154" t="n">
+        <v>-4.57111167152703</v>
+      </c>
+      <c r="CV154" t="n">
+        <v>55.0152415971622</v>
+      </c>
       <c r="CW154"/>
-      <c r="CX154"/>
-      <c r="CY154"/>
-      <c r="CZ154"/>
-      <c r="DA154"/>
+      <c r="CX154" t="n">
+        <v>-0.7299655780625</v>
+      </c>
+      <c r="CY154" t="n">
+        <v>-1.7415652173913</v>
+      </c>
+      <c r="CZ154" t="n">
+        <v>-2.30148170838889</v>
+      </c>
+      <c r="DA154" t="n">
+        <v>60.8508700966667</v>
+      </c>
       <c r="DB154" t="n">
         <v>58.2586391034884</v>
       </c>
@@ -40022,22 +41180,44 @@
       <c r="CM155" t="n">
         <v>5</v>
       </c>
-      <c r="CN155"/>
-      <c r="CO155"/>
+      <c r="CN155" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO155" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP155"/>
-      <c r="CQ155"/>
+      <c r="CQ155" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR155" t="n">
         <v>0.45</v>
       </c>
-      <c r="CS155"/>
-      <c r="CT155"/>
-      <c r="CU155"/>
-      <c r="CV155"/>
+      <c r="CS155" t="n">
+        <v>-1.75624118165</v>
+      </c>
+      <c r="CT155" t="n">
+        <v>-3.190707619</v>
+      </c>
+      <c r="CU155" t="n">
+        <v>-4.7101740564</v>
+      </c>
+      <c r="CV155" t="n">
+        <v>34.428056248</v>
+      </c>
       <c r="CW155"/>
-      <c r="CX155"/>
-      <c r="CY155"/>
-      <c r="CZ155"/>
-      <c r="DA155"/>
+      <c r="CX155" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="CY155" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="CZ155" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="DA155" t="n">
+        <v>35.51401869</v>
+      </c>
       <c r="DB155" t="n">
         <v>83</v>
       </c>
@@ -40325,22 +41505,44 @@
       <c r="CM156" t="n">
         <v>5</v>
       </c>
-      <c r="CN156"/>
-      <c r="CO156"/>
+      <c r="CN156" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="CO156" t="n">
+        <v>-1.195</v>
+      </c>
       <c r="CP156"/>
-      <c r="CQ156"/>
+      <c r="CQ156" t="n">
+        <v>115.1515152</v>
+      </c>
       <c r="CR156" t="n">
         <v>0.689537624043571</v>
       </c>
-      <c r="CS156"/>
-      <c r="CT156"/>
-      <c r="CU156"/>
-      <c r="CV156"/>
+      <c r="CS156" t="n">
+        <v>-3.787693691</v>
+      </c>
+      <c r="CT156" t="n">
+        <v>-4.17975</v>
+      </c>
+      <c r="CU156" t="n">
+        <v>-4.571806309</v>
+      </c>
+      <c r="CV156" t="n">
+        <v>96.92485259</v>
+      </c>
       <c r="CW156"/>
-      <c r="CX156"/>
-      <c r="CY156"/>
-      <c r="CZ156"/>
-      <c r="DA156"/>
+      <c r="CX156" t="n">
+        <v>-0.7299655780625</v>
+      </c>
+      <c r="CY156" t="n">
+        <v>-1.7415652173913</v>
+      </c>
+      <c r="CZ156" t="n">
+        <v>-2.30148170838889</v>
+      </c>
+      <c r="DA156" t="n">
+        <v>60.8508700966667</v>
+      </c>
       <c r="DB156" t="n">
         <v>73.4127461440193</v>
       </c>
@@ -40589,10 +41791,18 @@
       <c r="CR157" t="n">
         <v>1.64566666666667</v>
       </c>
-      <c r="CS157"/>
-      <c r="CT157"/>
-      <c r="CU157"/>
-      <c r="CV157"/>
+      <c r="CS157" t="n">
+        <v>-3.19489921933333</v>
+      </c>
+      <c r="CT157" t="n">
+        <v>-5.10338888883333</v>
+      </c>
+      <c r="CU157" t="n">
+        <v>-7.02187855833333</v>
+      </c>
+      <c r="CV157" t="n">
+        <v>22.8758950316667</v>
+      </c>
       <c r="CW157"/>
       <c r="CX157"/>
       <c r="CY157"/>
@@ -40836,10 +42046,18 @@
       <c r="CR158" t="n">
         <v>0.631333333333333</v>
       </c>
-      <c r="CS158"/>
-      <c r="CT158"/>
-      <c r="CU158"/>
-      <c r="CV158"/>
+      <c r="CS158" t="n">
+        <v>-2.5494790632</v>
+      </c>
+      <c r="CT158" t="n">
+        <v>-4.4396666666</v>
+      </c>
+      <c r="CU158" t="n">
+        <v>-6.34185427</v>
+      </c>
+      <c r="CV158" t="n">
+        <v>23.651074038</v>
+      </c>
       <c r="CW158"/>
       <c r="CX158"/>
       <c r="CY158"/>
@@ -41087,10 +42305,18 @@
       <c r="CR159" t="n">
         <v>1.64566666666667</v>
       </c>
-      <c r="CS159"/>
-      <c r="CT159"/>
-      <c r="CU159"/>
-      <c r="CV159"/>
+      <c r="CS159" t="n">
+        <v>-6.422</v>
+      </c>
+      <c r="CT159" t="n">
+        <v>-8.422</v>
+      </c>
+      <c r="CU159" t="n">
+        <v>-10.422</v>
+      </c>
+      <c r="CV159" t="n">
+        <v>19</v>
+      </c>
       <c r="CW159"/>
       <c r="CX159"/>
       <c r="CY159"/>
@@ -41326,14 +42552,24 @@
       <c r="CL160"/>
       <c r="CM160"/>
       <c r="CN160"/>
-      <c r="CO160"/>
+      <c r="CO160" t="n">
+        <v>-0.09</v>
+      </c>
       <c r="CP160"/>
       <c r="CQ160"/>
       <c r="CR160"/>
-      <c r="CS160"/>
-      <c r="CT160"/>
-      <c r="CU160"/>
-      <c r="CV160"/>
+      <c r="CS160" t="n">
+        <v>-1.651560976</v>
+      </c>
+      <c r="CT160" t="n">
+        <v>-1.682</v>
+      </c>
+      <c r="CU160" t="n">
+        <v>-1.956439024</v>
+      </c>
+      <c r="CV160" t="n">
+        <v>249.28</v>
+      </c>
       <c r="CW160"/>
       <c r="CX160"/>
       <c r="CY160"/>
@@ -41765,22 +43001,46 @@
       <c r="CK162"/>
       <c r="CL162"/>
       <c r="CM162"/>
-      <c r="CN162"/>
-      <c r="CO162"/>
-      <c r="CP162"/>
-      <c r="CQ162"/>
+      <c r="CN162" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="CO162" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="CP162" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="CQ162" t="n">
+        <v>97.43589744</v>
+      </c>
       <c r="CR162" t="n">
         <v>1.13218465255208</v>
       </c>
-      <c r="CS162"/>
-      <c r="CT162"/>
-      <c r="CU162"/>
-      <c r="CV162"/>
+      <c r="CS162" t="n">
+        <v>-1.05899600956098</v>
+      </c>
+      <c r="CT162" t="n">
+        <v>-1.58920631016949</v>
+      </c>
+      <c r="CU162" t="n">
+        <v>-2.25814252897143</v>
+      </c>
+      <c r="CV162" t="n">
+        <v>88.4807950791429</v>
+      </c>
       <c r="CW162"/>
-      <c r="CX162"/>
-      <c r="CY162"/>
-      <c r="CZ162"/>
-      <c r="DA162"/>
+      <c r="CX162" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="CY162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ162" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="DA162" t="n">
+        <v>34.54545455</v>
+      </c>
       <c r="DB162" t="n">
         <v>63.0790186679553</v>
       </c>
@@ -42057,10 +43317,18 @@
       <c r="CR163" t="n">
         <v>2.82347981233333</v>
       </c>
-      <c r="CS163"/>
-      <c r="CT163"/>
-      <c r="CU163"/>
-      <c r="CV163"/>
+      <c r="CS163" t="n">
+        <v>-4.3984006072</v>
+      </c>
+      <c r="CT163" t="n">
+        <v>-5.17456260869565</v>
+      </c>
+      <c r="CU163" t="n">
+        <v>-6.2483793928</v>
+      </c>
+      <c r="CV163" t="n">
+        <v>46.003433334</v>
+      </c>
       <c r="CW163"/>
       <c r="CX163"/>
       <c r="CY163"/>
@@ -42336,15 +43604,31 @@
       <c r="CR164" t="n">
         <v>1.1684526</v>
       </c>
-      <c r="CS164"/>
-      <c r="CT164"/>
-      <c r="CU164"/>
-      <c r="CV164"/>
+      <c r="CS164" t="n">
+        <v>-2.43384996958824</v>
+      </c>
+      <c r="CT164" t="n">
+        <v>-4.12646769230769</v>
+      </c>
+      <c r="CU164" t="n">
+        <v>-5.04604773207692</v>
+      </c>
+      <c r="CV164" t="n">
+        <v>50.5444158769231</v>
+      </c>
       <c r="CW164"/>
-      <c r="CX164"/>
-      <c r="CY164"/>
-      <c r="CZ164"/>
-      <c r="DA164"/>
+      <c r="CX164" t="n">
+        <v>-1.37859875</v>
+      </c>
+      <c r="CY164" t="n">
+        <v>-2.62372222222222</v>
+      </c>
+      <c r="CZ164" t="n">
+        <v>-4.38428777777778</v>
+      </c>
+      <c r="DA164" t="n">
+        <v>22.84265482</v>
+      </c>
       <c r="DB164" t="n">
         <v>37.017</v>
       </c>
@@ -42567,10 +43851,18 @@
       <c r="CP165"/>
       <c r="CQ165"/>
       <c r="CR165"/>
-      <c r="CS165"/>
-      <c r="CT165"/>
-      <c r="CU165"/>
-      <c r="CV165"/>
+      <c r="CS165" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="CT165" t="n">
+        <v>-3.29</v>
+      </c>
+      <c r="CU165" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="CV165" t="n">
+        <v>20.43010753</v>
+      </c>
       <c r="CW165"/>
       <c r="CX165"/>
       <c r="CY165"/>
@@ -42860,21 +44152,39 @@
       <c r="CL166"/>
       <c r="CM166"/>
       <c r="CN166"/>
-      <c r="CO166"/>
+      <c r="CO166" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP166"/>
       <c r="CQ166"/>
       <c r="CR166" t="n">
         <v>1.98122620582857</v>
       </c>
-      <c r="CS166"/>
-      <c r="CT166"/>
-      <c r="CU166"/>
-      <c r="CV166"/>
+      <c r="CS166" t="n">
+        <v>-1.32772935931579</v>
+      </c>
+      <c r="CT166" t="n">
+        <v>-2.59617461608</v>
+      </c>
+      <c r="CU166" t="n">
+        <v>-4.34540299745238</v>
+      </c>
+      <c r="CV166" t="n">
+        <v>36.4775925397143</v>
+      </c>
       <c r="CW166"/>
-      <c r="CX166"/>
-      <c r="CY166"/>
-      <c r="CZ166"/>
-      <c r="DA166"/>
+      <c r="CX166" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY166" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ166" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA166" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB166" t="n">
         <v>62.7809963658907</v>
       </c>
@@ -43155,21 +44465,39 @@
       <c r="CL167"/>
       <c r="CM167"/>
       <c r="CN167"/>
-      <c r="CO167"/>
+      <c r="CO167" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP167"/>
       <c r="CQ167"/>
       <c r="CR167" t="n">
         <v>0.29</v>
       </c>
-      <c r="CS167"/>
-      <c r="CT167"/>
-      <c r="CU167"/>
-      <c r="CV167"/>
+      <c r="CS167" t="n">
+        <v>-3.843413934</v>
+      </c>
+      <c r="CT167" t="n">
+        <v>-6.98</v>
+      </c>
+      <c r="CU167" t="n">
+        <v>-10.016586065</v>
+      </c>
+      <c r="CV167" t="n">
+        <v>12.522018655</v>
+      </c>
       <c r="CW167"/>
-      <c r="CX167"/>
-      <c r="CY167"/>
-      <c r="CZ167"/>
-      <c r="DA167"/>
+      <c r="CX167" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY167" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ167" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA167" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB167" t="n">
         <v>62.7809963658907</v>
       </c>
@@ -43472,21 +44800,39 @@
         <v>6</v>
       </c>
       <c r="CN168"/>
-      <c r="CO168"/>
+      <c r="CO168" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP168"/>
       <c r="CQ168"/>
       <c r="CR168" t="n">
         <v>0.7</v>
       </c>
-      <c r="CS168"/>
-      <c r="CT168"/>
-      <c r="CU168"/>
-      <c r="CV168"/>
+      <c r="CS168" t="n">
+        <v>-1.32772935931579</v>
+      </c>
+      <c r="CT168" t="n">
+        <v>-2.59617461608</v>
+      </c>
+      <c r="CU168" t="n">
+        <v>-4.34540299745238</v>
+      </c>
+      <c r="CV168" t="n">
+        <v>36.4775925397143</v>
+      </c>
       <c r="CW168"/>
-      <c r="CX168"/>
-      <c r="CY168"/>
-      <c r="CZ168"/>
-      <c r="DA168"/>
+      <c r="CX168" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY168" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ168" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA168" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB168" t="n">
         <v>71.2153456498992</v>
       </c>
@@ -43773,21 +45119,39 @@
       <c r="CL169"/>
       <c r="CM169"/>
       <c r="CN169"/>
-      <c r="CO169"/>
+      <c r="CO169" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP169"/>
       <c r="CQ169"/>
       <c r="CR169" t="n">
         <v>1.98122620582857</v>
       </c>
-      <c r="CS169"/>
-      <c r="CT169"/>
-      <c r="CU169"/>
-      <c r="CV169"/>
+      <c r="CS169" t="n">
+        <v>-1.32772935931579</v>
+      </c>
+      <c r="CT169" t="n">
+        <v>-2.59617461608</v>
+      </c>
+      <c r="CU169" t="n">
+        <v>-4.34540299745238</v>
+      </c>
+      <c r="CV169" t="n">
+        <v>36.4775925397143</v>
+      </c>
       <c r="CW169"/>
-      <c r="CX169"/>
-      <c r="CY169"/>
-      <c r="CZ169"/>
-      <c r="DA169"/>
+      <c r="CX169" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY169" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ169" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA169" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB169" t="n">
         <v>62.7809963658907</v>
       </c>
@@ -44102,21 +45466,39 @@
         <v>4</v>
       </c>
       <c r="CN170"/>
-      <c r="CO170"/>
+      <c r="CO170" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP170"/>
       <c r="CQ170"/>
       <c r="CR170" t="n">
         <v>0.4</v>
       </c>
-      <c r="CS170"/>
-      <c r="CT170"/>
-      <c r="CU170"/>
-      <c r="CV170"/>
+      <c r="CS170" t="n">
+        <v>-1.57333333333333</v>
+      </c>
+      <c r="CT170" t="n">
+        <v>-3.74111111111111</v>
+      </c>
+      <c r="CU170" t="n">
+        <v>-5.63301024328571</v>
+      </c>
+      <c r="CV170" t="n">
+        <v>23.7202925074286</v>
+      </c>
       <c r="CW170"/>
-      <c r="CX170"/>
-      <c r="CY170"/>
-      <c r="CZ170"/>
-      <c r="DA170"/>
+      <c r="CX170" t="n">
+        <v>-0.257277594</v>
+      </c>
+      <c r="CY170" t="n">
+        <v>-1.83666666666667</v>
+      </c>
+      <c r="CZ170" t="n">
+        <v>-4.728481604</v>
+      </c>
+      <c r="DA170" t="n">
+        <v>22.5633544573333</v>
+      </c>
       <c r="DB170" t="n">
         <v>68.5159959927983</v>
       </c>
@@ -44419,21 +45801,39 @@
       <c r="CL171"/>
       <c r="CM171"/>
       <c r="CN171"/>
-      <c r="CO171"/>
+      <c r="CO171" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP171"/>
       <c r="CQ171"/>
       <c r="CR171" t="n">
         <v>1.98122620582857</v>
       </c>
-      <c r="CS171"/>
-      <c r="CT171"/>
-      <c r="CU171"/>
-      <c r="CV171"/>
+      <c r="CS171" t="n">
+        <v>-1.32772935931579</v>
+      </c>
+      <c r="CT171" t="n">
+        <v>-2.59617461608</v>
+      </c>
+      <c r="CU171" t="n">
+        <v>-4.34540299745238</v>
+      </c>
+      <c r="CV171" t="n">
+        <v>36.4775925397143</v>
+      </c>
       <c r="CW171"/>
-      <c r="CX171"/>
-      <c r="CY171"/>
-      <c r="CZ171"/>
-      <c r="DA171"/>
+      <c r="CX171" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY171" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ171" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA171" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB171" t="n">
         <v>62.7809963658907</v>
       </c>
@@ -44714,21 +46114,39 @@
       <c r="CL172"/>
       <c r="CM172"/>
       <c r="CN172"/>
-      <c r="CO172"/>
+      <c r="CO172" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP172"/>
       <c r="CQ172"/>
       <c r="CR172" t="n">
         <v>1.98122620582857</v>
       </c>
-      <c r="CS172"/>
-      <c r="CT172"/>
-      <c r="CU172"/>
-      <c r="CV172"/>
+      <c r="CS172" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="CT172" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="CU172" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="CV172" t="n">
+        <v>50.66666667</v>
+      </c>
       <c r="CW172"/>
-      <c r="CX172"/>
-      <c r="CY172"/>
-      <c r="CZ172"/>
-      <c r="DA172"/>
+      <c r="CX172" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY172" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ172" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA172" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB172" t="n">
         <v>67.7878757009346</v>
       </c>
@@ -45047,21 +46465,39 @@
         <v>6</v>
       </c>
       <c r="CN173"/>
-      <c r="CO173"/>
+      <c r="CO173" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP173"/>
       <c r="CQ173"/>
       <c r="CR173" t="n">
         <v>0.7</v>
       </c>
-      <c r="CS173"/>
-      <c r="CT173"/>
-      <c r="CU173"/>
-      <c r="CV173"/>
+      <c r="CS173" t="n">
+        <v>-1.055</v>
+      </c>
+      <c r="CT173" t="n">
+        <v>-2.475</v>
+      </c>
+      <c r="CU173" t="n">
+        <v>-4.175</v>
+      </c>
+      <c r="CV173" t="n">
+        <v>22.9788961025</v>
+      </c>
       <c r="CW173"/>
-      <c r="CX173"/>
-      <c r="CY173"/>
-      <c r="CZ173"/>
-      <c r="DA173"/>
+      <c r="CX173" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY173" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ173" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA173" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB173" t="n">
         <v>57.3391881702308</v>
       </c>
@@ -45364,21 +46800,39 @@
       <c r="CL174"/>
       <c r="CM174"/>
       <c r="CN174"/>
-      <c r="CO174"/>
+      <c r="CO174" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP174"/>
       <c r="CQ174"/>
       <c r="CR174" t="n">
         <v>1.98122620582857</v>
       </c>
-      <c r="CS174"/>
-      <c r="CT174"/>
-      <c r="CU174"/>
-      <c r="CV174"/>
+      <c r="CS174" t="n">
+        <v>-1.32772935931579</v>
+      </c>
+      <c r="CT174" t="n">
+        <v>-2.59617461608</v>
+      </c>
+      <c r="CU174" t="n">
+        <v>-4.34540299745238</v>
+      </c>
+      <c r="CV174" t="n">
+        <v>36.4775925397143</v>
+      </c>
       <c r="CW174"/>
-      <c r="CX174"/>
-      <c r="CY174"/>
-      <c r="CZ174"/>
-      <c r="DA174"/>
+      <c r="CX174" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY174" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ174" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA174" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB174" t="n">
         <v>61.1615609843146</v>
       </c>
@@ -45693,21 +47147,39 @@
       <c r="CL175"/>
       <c r="CM175"/>
       <c r="CN175"/>
-      <c r="CO175"/>
+      <c r="CO175" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP175"/>
       <c r="CQ175"/>
       <c r="CR175" t="n">
         <v>1.98122620582857</v>
       </c>
-      <c r="CS175"/>
-      <c r="CT175"/>
-      <c r="CU175"/>
-      <c r="CV175"/>
+      <c r="CS175" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="CT175" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="CU175" t="n">
+        <v>-3.46</v>
+      </c>
+      <c r="CV175" t="n">
+        <v>57.57575758</v>
+      </c>
       <c r="CW175"/>
-      <c r="CX175"/>
-      <c r="CY175"/>
-      <c r="CZ175"/>
-      <c r="DA175"/>
+      <c r="CX175" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY175" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ175" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA175" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB175" t="n">
         <v>69.1585508333333</v>
       </c>
@@ -46010,21 +47482,39 @@
       <c r="CL176"/>
       <c r="CM176"/>
       <c r="CN176"/>
-      <c r="CO176"/>
+      <c r="CO176" t="n">
+        <v>-1.98</v>
+      </c>
       <c r="CP176"/>
       <c r="CQ176"/>
       <c r="CR176" t="n">
         <v>1.98122620582857</v>
       </c>
-      <c r="CS176"/>
-      <c r="CT176"/>
-      <c r="CU176"/>
-      <c r="CV176"/>
+      <c r="CS176" t="n">
+        <v>-1.5201754385</v>
+      </c>
+      <c r="CT176" t="n">
+        <v>-2.282</v>
+      </c>
+      <c r="CU176" t="n">
+        <v>-3.35</v>
+      </c>
+      <c r="CV176" t="n">
+        <v>49.915461444</v>
+      </c>
       <c r="CW176"/>
-      <c r="CX176"/>
-      <c r="CY176"/>
-      <c r="CZ176"/>
-      <c r="DA176"/>
+      <c r="CX176" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="CY176" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="CZ176" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="DA176" t="n">
+        <v>40</v>
+      </c>
       <c r="DB176" t="n">
         <v>49.3771273544801</v>
       </c>
@@ -46343,21 +47833,39 @@
         <v>4</v>
       </c>
       <c r="CN177"/>
-      <c r="CO177"/>
+      <c r="CO177" t="n">
+        <v>-2.66333333333333</v>
+      </c>
       <c r="CP177"/>
       <c r="CQ177"/>
       <c r="CR177" t="n">
         <v>0.4</v>
       </c>
-      <c r="CS177"/>
-      <c r="CT177"/>
-      <c r="CU177"/>
-      <c r="CV177"/>
+      <c r="CS177" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="CT177" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="CU177" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="CV177" t="n">
+        <v>63.33333333</v>
+      </c>
       <c r="CW177"/>
-      <c r="CX177"/>
-      <c r="CY177"/>
-      <c r="CZ177"/>
-      <c r="DA177"/>
+      <c r="CX177" t="n">
+        <v>-0.180619776428571</v>
+      </c>
+      <c r="CY177" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="CZ177" t="n">
+        <v>-2.6032396073</v>
+      </c>
+      <c r="DA177" t="n">
+        <v>45.0005623432</v>
+      </c>
       <c r="DB177" t="n">
         <v>70.2783307709581</v>
       </c>
@@ -46604,10 +48112,18 @@
       <c r="CR178" t="n">
         <v>0.549</v>
       </c>
-      <c r="CS178"/>
-      <c r="CT178"/>
-      <c r="CU178"/>
-      <c r="CV178"/>
+      <c r="CS178" t="n">
+        <v>-0.293671193</v>
+      </c>
+      <c r="CT178" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="CU178" t="n">
+        <v>-5.9531644035</v>
+      </c>
+      <c r="CV178" t="n">
+        <v>13.509797705</v>
+      </c>
       <c r="CW178"/>
       <c r="CX178"/>
       <c r="CY178"/>
@@ -46843,15 +48359,31 @@
       <c r="CR179" t="n">
         <v>1.15875</v>
       </c>
-      <c r="CS179"/>
-      <c r="CT179"/>
-      <c r="CU179"/>
-      <c r="CV179"/>
+      <c r="CS179" t="n">
+        <v>-3.095820522375</v>
+      </c>
+      <c r="CT179" t="n">
+        <v>-5.17418927263636</v>
+      </c>
+      <c r="CU179" t="n">
+        <v>-8.85298411</v>
+      </c>
+      <c r="CV179" t="n">
+        <v>20.408524691875</v>
+      </c>
       <c r="CW179"/>
-      <c r="CX179"/>
-      <c r="CY179"/>
-      <c r="CZ179"/>
-      <c r="DA179"/>
+      <c r="CX179" t="n">
+        <v>-0.368704286166667</v>
+      </c>
+      <c r="CY179" t="n">
+        <v>-1.65949104066667</v>
+      </c>
+      <c r="CZ179" t="n">
+        <v>-5.01649254583333</v>
+      </c>
+      <c r="DA179" t="n">
+        <v>15.252421162</v>
+      </c>
       <c r="DB179" t="n">
         <v>36.6082366071429</v>
       </c>
@@ -47092,16 +48624,26 @@
       <c r="CL180"/>
       <c r="CM180"/>
       <c r="CN180"/>
-      <c r="CO180"/>
+      <c r="CO180" t="n">
+        <v>-1.95</v>
+      </c>
       <c r="CP180"/>
       <c r="CQ180"/>
       <c r="CR180" t="n">
         <v>0.2785</v>
       </c>
-      <c r="CS180"/>
-      <c r="CT180"/>
-      <c r="CU180"/>
-      <c r="CV180"/>
+      <c r="CS180" t="n">
+        <v>-0.708333333333333</v>
+      </c>
+      <c r="CT180" t="n">
+        <v>-2.49142857142857</v>
+      </c>
+      <c r="CU180" t="n">
+        <v>-4.71571428571429</v>
+      </c>
+      <c r="CV180" t="n">
+        <v>18.1552625271429</v>
+      </c>
       <c r="CW180"/>
       <c r="CX180"/>
       <c r="CY180"/>
@@ -47319,10 +48861,18 @@
       <c r="CR181" t="n">
         <v>4.025</v>
       </c>
-      <c r="CS181"/>
-      <c r="CT181"/>
-      <c r="CU181"/>
-      <c r="CV181"/>
+      <c r="CS181" t="n">
+        <v>-0.411659784714286</v>
+      </c>
+      <c r="CT181" t="n">
+        <v>-1.52467870536364</v>
+      </c>
+      <c r="CU181" t="n">
+        <v>-3.12384069075</v>
+      </c>
+      <c r="CV181" t="n">
+        <v>27.7282590805</v>
+      </c>
       <c r="CW181"/>
       <c r="CX181"/>
       <c r="CY181"/>
@@ -47552,10 +49102,18 @@
       <c r="CP182"/>
       <c r="CQ182"/>
       <c r="CR182"/>
-      <c r="CS182"/>
-      <c r="CT182"/>
-      <c r="CU182"/>
-      <c r="CV182"/>
+      <c r="CS182" t="n">
+        <v>-2.983604651</v>
+      </c>
+      <c r="CT182" t="n">
+        <v>-3.565</v>
+      </c>
+      <c r="CU182" t="n">
+        <v>-4.146395349</v>
+      </c>
+      <c r="CV182" t="n">
+        <v>65.36</v>
+      </c>
       <c r="CW182"/>
       <c r="CX182"/>
       <c r="CY182"/>
@@ -47775,10 +49333,18 @@
       <c r="CP183"/>
       <c r="CQ183"/>
       <c r="CR183"/>
-      <c r="CS183"/>
-      <c r="CT183"/>
-      <c r="CU183"/>
-      <c r="CV183"/>
+      <c r="CS183" t="n">
+        <v>-0.130447406</v>
+      </c>
+      <c r="CT183" t="n">
+        <v>-0.504700163</v>
+      </c>
+      <c r="CU183" t="n">
+        <v>-1.234958274</v>
+      </c>
+      <c r="CV183" t="n">
+        <v>52.03639561</v>
+      </c>
       <c r="CW183"/>
       <c r="CX183"/>
       <c r="CY183"/>
@@ -48037,7 +49603,9 @@
         <v>10.61</v>
       </c>
       <c r="CS184"/>
-      <c r="CT184"/>
+      <c r="CT184" t="n">
+        <v>-1.56</v>
+      </c>
       <c r="CU184"/>
       <c r="CV184"/>
       <c r="CW184"/>
@@ -48284,7 +49852,9 @@
         <v>15.64</v>
       </c>
       <c r="CS185"/>
-      <c r="CT185"/>
+      <c r="CT185" t="n">
+        <v>-1.585</v>
+      </c>
       <c r="CU185"/>
       <c r="CV185"/>
       <c r="CW185"/>
@@ -49000,10 +50570,18 @@
       <c r="CR188" t="n">
         <v>5.9</v>
       </c>
-      <c r="CS188"/>
-      <c r="CT188"/>
-      <c r="CU188"/>
-      <c r="CV188"/>
+      <c r="CS188" t="n">
+        <v>-1.36044087982353</v>
+      </c>
+      <c r="CT188" t="n">
+        <v>-1.64229592905263</v>
+      </c>
+      <c r="CU188" t="n">
+        <v>-1.96116178505882</v>
+      </c>
+      <c r="CV188" t="n">
+        <v>156.079967531765</v>
+      </c>
       <c r="CW188"/>
       <c r="CX188"/>
       <c r="CY188"/>
@@ -49255,10 +50833,18 @@
       <c r="CR189" t="n">
         <v>0.0819</v>
       </c>
-      <c r="CS189"/>
-      <c r="CT189"/>
-      <c r="CU189"/>
-      <c r="CV189"/>
+      <c r="CS189" t="n">
+        <v>-1.38523462525</v>
+      </c>
+      <c r="CT189" t="n">
+        <v>-2.505</v>
+      </c>
+      <c r="CU189" t="n">
+        <v>-3.54226537475</v>
+      </c>
+      <c r="CV189" t="n">
+        <v>38.51722998</v>
+      </c>
       <c r="CW189"/>
       <c r="CX189"/>
       <c r="CY189"/>
@@ -49486,10 +51072,18 @@
       <c r="CR190" t="n">
         <v>1.6975</v>
       </c>
-      <c r="CS190"/>
-      <c r="CT190"/>
-      <c r="CU190"/>
-      <c r="CV190"/>
+      <c r="CS190" t="n">
+        <v>-1.68275016371429</v>
+      </c>
+      <c r="CT190" t="n">
+        <v>-4.00408638828571</v>
+      </c>
+      <c r="CU190" t="n">
+        <v>-7.18861091942857</v>
+      </c>
+      <c r="CV190" t="n">
+        <v>12.21663076</v>
+      </c>
       <c r="CW190"/>
       <c r="CX190"/>
       <c r="CY190"/>
@@ -49715,10 +51309,18 @@
       <c r="CR191" t="n">
         <v>10.53</v>
       </c>
-      <c r="CS191"/>
-      <c r="CT191"/>
-      <c r="CU191"/>
-      <c r="CV191"/>
+      <c r="CS191" t="n">
+        <v>-0.975767286</v>
+      </c>
+      <c r="CT191" t="n">
+        <v>-1.38277777766667</v>
+      </c>
+      <c r="CU191" t="n">
+        <v>-1.8915660475</v>
+      </c>
+      <c r="CV191" t="n">
+        <v>143.61912088</v>
+      </c>
       <c r="CW191"/>
       <c r="CX191"/>
       <c r="CY191"/>
@@ -50968,7 +52570,9 @@
       <c r="CQ197"/>
       <c r="CR197"/>
       <c r="CS197"/>
-      <c r="CT197"/>
+      <c r="CT197" t="n">
+        <v>-2.6</v>
+      </c>
       <c r="CU197"/>
       <c r="CV197"/>
       <c r="CW197"/>
@@ -51200,15 +52804,29 @@
       <c r="CR198" t="n">
         <v>4.623847378</v>
       </c>
-      <c r="CS198"/>
-      <c r="CT198"/>
-      <c r="CU198"/>
-      <c r="CV198"/>
+      <c r="CS198" t="n">
+        <v>-3.347338792</v>
+      </c>
+      <c r="CT198" t="n">
+        <v>-4.03897666666667</v>
+      </c>
+      <c r="CU198" t="n">
+        <v>-5.9116729662</v>
+      </c>
+      <c r="CV198" t="n">
+        <v>26.392327474</v>
+      </c>
       <c r="CW198"/>
       <c r="CX198"/>
-      <c r="CY198"/>
-      <c r="CZ198"/>
-      <c r="DA198"/>
+      <c r="CY198" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="CZ198" t="n">
+        <v>-1.894491259</v>
+      </c>
+      <c r="DA198" t="n">
+        <v>36.7330315</v>
+      </c>
       <c r="DB198"/>
       <c r="DC198"/>
       <c r="DD198" t="n">
@@ -51865,10 +53483,18 @@
       <c r="CR201" t="n">
         <v>2.66</v>
       </c>
-      <c r="CS201"/>
-      <c r="CT201"/>
-      <c r="CU201"/>
-      <c r="CV201"/>
+      <c r="CS201" t="n">
+        <v>-0.19764148</v>
+      </c>
+      <c r="CT201" t="n">
+        <v>-1.1286043435</v>
+      </c>
+      <c r="CU201" t="n">
+        <v>-2.854135269</v>
+      </c>
+      <c r="CV201" t="n">
+        <v>31.73089583</v>
+      </c>
       <c r="CW201"/>
       <c r="CX201"/>
       <c r="CY201"/>
@@ -52114,10 +53740,18 @@
       <c r="CR202" t="n">
         <v>0.32</v>
       </c>
-      <c r="CS202"/>
-      <c r="CT202"/>
-      <c r="CU202"/>
-      <c r="CV202"/>
+      <c r="CS202" t="n">
+        <v>-5.03152509633333</v>
+      </c>
+      <c r="CT202" t="n">
+        <v>-7.35966666666667</v>
+      </c>
+      <c r="CU202" t="n">
+        <v>-9.55447490366667</v>
+      </c>
+      <c r="CV202" t="n">
+        <v>17.4259089966667</v>
+      </c>
       <c r="CW202"/>
       <c r="CX202"/>
       <c r="CY202"/>
@@ -52532,15 +54166,31 @@
       <c r="CR204" t="n">
         <v>0.16</v>
       </c>
-      <c r="CS204"/>
-      <c r="CT204"/>
-      <c r="CU204"/>
-      <c r="CV204"/>
+      <c r="CS204" t="n">
+        <v>-7.08497782</v>
+      </c>
+      <c r="CT204" t="n">
+        <v>-8.55</v>
+      </c>
+      <c r="CU204" t="n">
+        <v>-10.01502218</v>
+      </c>
+      <c r="CV204" t="n">
+        <v>25.93817385</v>
+      </c>
       <c r="CW204"/>
-      <c r="CX204"/>
-      <c r="CY204"/>
-      <c r="CZ204"/>
-      <c r="DA204"/>
+      <c r="CX204" t="n">
+        <v>-1.536910523</v>
+      </c>
+      <c r="CY204" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="CZ204" t="n">
+        <v>-3.763089477</v>
+      </c>
+      <c r="DA204" t="n">
+        <v>34.13921411</v>
+      </c>
       <c r="DB204"/>
       <c r="DC204"/>
       <c r="DD204"/>
@@ -52976,10 +54626,18 @@
       <c r="CR206" t="n">
         <v>0.52</v>
       </c>
-      <c r="CS206"/>
-      <c r="CT206"/>
-      <c r="CU206"/>
-      <c r="CV206"/>
+      <c r="CS206" t="n">
+        <v>-2.63743320633333</v>
+      </c>
+      <c r="CT206" t="n">
+        <v>-4.34866666666667</v>
+      </c>
+      <c r="CU206" t="n">
+        <v>-5.96656679366667</v>
+      </c>
+      <c r="CV206" t="n">
+        <v>25.1824679566667</v>
+      </c>
       <c r="CW206"/>
       <c r="CX206"/>
       <c r="CY206"/>
@@ -53657,10 +55315,18 @@
       <c r="CR209" t="n">
         <v>3.143625</v>
       </c>
-      <c r="CS209"/>
-      <c r="CT209"/>
-      <c r="CU209"/>
-      <c r="CV209"/>
+      <c r="CS209" t="n">
+        <v>-2.497977358</v>
+      </c>
+      <c r="CT209" t="n">
+        <v>-2.6710575</v>
+      </c>
+      <c r="CU209" t="n">
+        <v>-3.677222642</v>
+      </c>
+      <c r="CV209" t="n">
+        <v>64.448</v>
+      </c>
       <c r="CW209"/>
       <c r="CX209"/>
       <c r="CY209"/>
@@ -53902,10 +55568,18 @@
       <c r="CP210"/>
       <c r="CQ210"/>
       <c r="CR210"/>
-      <c r="CS210"/>
-      <c r="CT210"/>
-      <c r="CU210"/>
-      <c r="CV210"/>
+      <c r="CS210" t="n">
+        <v>-5.096184818</v>
+      </c>
+      <c r="CT210" t="n">
+        <v>-6.581333333</v>
+      </c>
+      <c r="CU210" t="n">
+        <v>-8.066481848</v>
+      </c>
+      <c r="CV210" t="n">
+        <v>25.58666667</v>
+      </c>
       <c r="CW210"/>
       <c r="CX210"/>
       <c r="CY210"/>
@@ -54123,15 +55797,31 @@
       <c r="CP211"/>
       <c r="CQ211"/>
       <c r="CR211"/>
-      <c r="CS211"/>
-      <c r="CT211"/>
-      <c r="CU211"/>
-      <c r="CV211"/>
+      <c r="CS211" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="CT211" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="CU211" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="CV211" t="n">
+        <v>18.0952381</v>
+      </c>
       <c r="CW211"/>
-      <c r="CX211"/>
-      <c r="CY211"/>
-      <c r="CZ211"/>
-      <c r="DA211"/>
+      <c r="CX211" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="CY211" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="CZ211" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DA211" t="n">
+        <v>43.67816092</v>
+      </c>
       <c r="DB211" t="n">
         <v>52.3918365853846</v>
       </c>
@@ -54830,10 +56520,18 @@
       <c r="CR214" t="n">
         <v>0.81533625</v>
       </c>
-      <c r="CS214"/>
-      <c r="CT214"/>
-      <c r="CU214"/>
-      <c r="CV214"/>
+      <c r="CS214" t="n">
+        <v>-3.217116402</v>
+      </c>
+      <c r="CT214" t="n">
+        <v>-4.38214285714286</v>
+      </c>
+      <c r="CU214" t="n">
+        <v>-5.4971626985</v>
+      </c>
+      <c r="CV214" t="n">
+        <v>27.5684180825</v>
+      </c>
       <c r="CW214"/>
       <c r="CX214"/>
       <c r="CY214"/>
@@ -55249,9 +56947,15 @@
       <c r="CQ216"/>
       <c r="CR216"/>
       <c r="CS216"/>
-      <c r="CT216"/>
-      <c r="CU216"/>
-      <c r="CV216"/>
+      <c r="CT216" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="CU216" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="CV216" t="n">
+        <v>13.39443074</v>
+      </c>
       <c r="CW216"/>
       <c r="CX216"/>
       <c r="CY216"/>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -236,13 +236,13 @@
     <t xml:space="preserve">LigninPercent</t>
   </si>
   <si>
+    <t xml:space="preserve">LeafAngle</t>
+  </si>
+  <si>
     <t xml:space="preserve">gammaSWR</t>
   </si>
   <si>
     <t xml:space="preserve">alphaSWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kDIR</t>
   </si>
   <si>
     <t xml:space="preserve">kPAR</t>
@@ -2695,9 +2695,9 @@
     <tableColumn id="72" name="SAV"/>
     <tableColumn id="73" name="HeatContent"/>
     <tableColumn id="74" name="LigninPercent"/>
-    <tableColumn id="75" name="gammaSWR"/>
-    <tableColumn id="76" name="alphaSWR"/>
-    <tableColumn id="77" name="kDIR"/>
+    <tableColumn id="75" name="LeafAngle"/>
+    <tableColumn id="76" name="gammaSWR"/>
+    <tableColumn id="77" name="alphaSWR"/>
     <tableColumn id="78" name="kPAR"/>
     <tableColumn id="79" name="g"/>
     <tableColumn id="80" name="Tmax_LAI"/>
@@ -3620,8 +3620,12 @@
       <c r="AN2" t="n">
         <v>0.538</v>
       </c>
-      <c r="AO2"/>
-      <c r="AP2"/>
+      <c r="AO2" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AQ2" t="n">
         <v>8.17182175398255</v>
       </c>
@@ -3942,8 +3946,12 @@
       <c r="AN3" t="n">
         <v>0.538</v>
       </c>
-      <c r="AO3"/>
-      <c r="AP3"/>
+      <c r="AO3" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AQ3" t="n">
         <v>6.94616280688307</v>
       </c>
@@ -4494,8 +4502,12 @@
       <c r="AN5" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AO5"/>
-      <c r="AP5"/>
+      <c r="AO5" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AQ5" t="n">
         <v>0.507387500517078</v>
       </c>
@@ -4824,8 +4836,12 @@
       <c r="AN6" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AO6"/>
-      <c r="AP6"/>
+      <c r="AO6" t="n">
+        <v>0.541542768478394</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.788916230201721</v>
+      </c>
       <c r="AQ6" t="n">
         <v>0.495431887366819</v>
       </c>
@@ -5148,8 +5164,12 @@
       <c r="AN7" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AO7"/>
-      <c r="AP7"/>
+      <c r="AO7" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AQ7" t="n">
         <v>0.484782162699793</v>
       </c>
@@ -5464,8 +5484,12 @@
       <c r="AN8" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AO8"/>
-      <c r="AP8"/>
+      <c r="AO8" t="n">
+        <v>0.505662977695465</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.660250067710876</v>
+      </c>
       <c r="AQ8" t="n">
         <v>0.5</v>
       </c>
@@ -5794,8 +5818,12 @@
       <c r="AN9" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AO9"/>
-      <c r="AP9"/>
+      <c r="AO9" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AQ9" t="n">
         <v>0.501066494197649</v>
       </c>
@@ -6110,8 +6138,12 @@
       <c r="AN10" t="n">
         <v>0.5285</v>
       </c>
-      <c r="AO10"/>
-      <c r="AP10"/>
+      <c r="AO10" t="n">
+        <v>0.524572908878326</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.858532607555389</v>
+      </c>
       <c r="AQ10" t="n">
         <v>0.500799870648237</v>
       </c>
@@ -6866,8 +6898,12 @@
       <c r="AL13"/>
       <c r="AM13"/>
       <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
+      <c r="AO13" t="n">
+        <v>0.938851535320282</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.728770196437836</v>
+      </c>
       <c r="AQ13" t="n">
         <v>0.638888888888889</v>
       </c>
@@ -8456,8 +8492,12 @@
       <c r="AL20"/>
       <c r="AM20"/>
       <c r="AN20"/>
-      <c r="AO20"/>
-      <c r="AP20"/>
+      <c r="AO20" t="n">
+        <v>0.705356061458588</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.383020341396332</v>
+      </c>
       <c r="AQ20" t="n">
         <v>1.13197888302678</v>
       </c>
@@ -8726,8 +8766,12 @@
       <c r="AL21"/>
       <c r="AM21"/>
       <c r="AN21"/>
-      <c r="AO21"/>
-      <c r="AP21"/>
+      <c r="AO21" t="n">
+        <v>0.705356061458588</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.383020341396332</v>
+      </c>
       <c r="AQ21" t="n">
         <v>1.13197888302678</v>
       </c>
@@ -10492,8 +10536,12 @@
       <c r="AL28"/>
       <c r="AM28"/>
       <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
+      <c r="AO28" t="n">
+        <v>0.394042134284973</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.00008010864258</v>
+      </c>
       <c r="AQ28" t="n">
         <v>0.371978485921592</v>
       </c>
@@ -11992,8 +12040,12 @@
       <c r="AN34" t="n">
         <v>0.5856</v>
       </c>
-      <c r="AO34"/>
-      <c r="AP34"/>
+      <c r="AO34" t="n">
+        <v>0.53074312210083</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.84493887424469</v>
+      </c>
       <c r="AQ34" t="n">
         <v>0.416666666666667</v>
       </c>
@@ -12276,8 +12328,12 @@
       <c r="AN35" t="n">
         <v>0.538</v>
       </c>
-      <c r="AO35"/>
-      <c r="AP35"/>
+      <c r="AO35" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AQ35"/>
       <c r="AR35"/>
       <c r="AS35"/>
@@ -18392,8 +18448,12 @@
       <c r="AL60"/>
       <c r="AM60"/>
       <c r="AN60"/>
-      <c r="AO60"/>
-      <c r="AP60"/>
+      <c r="AO60" t="n">
+        <v>0.0725040435791016</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.56645679473877</v>
+      </c>
       <c r="AQ60" t="n">
         <v>0.486111111111111</v>
       </c>
@@ -19140,8 +19200,12 @@
       <c r="AL63"/>
       <c r="AM63"/>
       <c r="AN63"/>
-      <c r="AO63"/>
-      <c r="AP63"/>
+      <c r="AO63" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AQ63"/>
       <c r="AR63"/>
       <c r="AS63"/>
@@ -27042,8 +27106,12 @@
       <c r="AL96"/>
       <c r="AM96"/>
       <c r="AN96"/>
-      <c r="AO96"/>
-      <c r="AP96"/>
+      <c r="AO96" t="n">
+        <v>0.756128251552582</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0.925795018672943</v>
+      </c>
       <c r="AQ96" t="n">
         <v>1.70185979385211</v>
       </c>
@@ -27796,8 +27864,12 @@
       <c r="AN99" t="n">
         <v>0.7347</v>
       </c>
-      <c r="AO99"/>
-      <c r="AP99"/>
+      <c r="AO99" t="n">
+        <v>0.446211397647858</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.715313017368317</v>
+      </c>
       <c r="AQ99" t="n">
         <v>0.66721324763218</v>
       </c>
@@ -28618,8 +28690,12 @@
       <c r="AN102" t="n">
         <v>0.5665</v>
       </c>
-      <c r="AO102"/>
-      <c r="AP102"/>
+      <c r="AO102" t="n">
+        <v>0.487450927495956</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0.890888214111328</v>
+      </c>
       <c r="AQ102" t="n">
         <v>0.459454828124283</v>
       </c>
@@ -31120,8 +31196,12 @@
       <c r="AL113"/>
       <c r="AM113"/>
       <c r="AN113"/>
-      <c r="AO113"/>
-      <c r="AP113"/>
+      <c r="AO113" t="n">
+        <v>0.456080824136734</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.718099415302277</v>
+      </c>
       <c r="AQ113" t="n">
         <v>1.332644406118</v>
       </c>
@@ -31888,8 +31968,12 @@
       <c r="AL116"/>
       <c r="AM116"/>
       <c r="AN116"/>
-      <c r="AO116"/>
-      <c r="AP116"/>
+      <c r="AO116" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AQ116" t="n">
         <v>2.68913242009132</v>
       </c>
@@ -32162,8 +32246,12 @@
       <c r="AL117"/>
       <c r="AM117"/>
       <c r="AN117"/>
-      <c r="AO117"/>
-      <c r="AP117"/>
+      <c r="AO117" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AQ117" t="n">
         <v>3.05555555555556</v>
       </c>
@@ -32456,8 +32544,12 @@
       <c r="AL118"/>
       <c r="AM118"/>
       <c r="AN118"/>
-      <c r="AO118"/>
-      <c r="AP118"/>
+      <c r="AO118" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AQ118" t="n">
         <v>1.63949771689498</v>
       </c>
@@ -32756,8 +32848,12 @@
       <c r="AL119"/>
       <c r="AM119"/>
       <c r="AN119"/>
-      <c r="AO119"/>
-      <c r="AP119"/>
+      <c r="AO119" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AQ119" t="n">
         <v>2.33333333333333</v>
       </c>
@@ -33040,8 +33136,12 @@
       <c r="AL120"/>
       <c r="AM120"/>
       <c r="AN120"/>
-      <c r="AO120"/>
-      <c r="AP120"/>
+      <c r="AO120" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AQ120" t="n">
         <v>2.33333333333333</v>
       </c>
@@ -33506,8 +33606,12 @@
       <c r="AL122"/>
       <c r="AM122"/>
       <c r="AN122"/>
-      <c r="AO122"/>
-      <c r="AP122"/>
+      <c r="AO122" t="n">
+        <v>0.303729951381683</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.02632653713226</v>
+      </c>
       <c r="AQ122" t="n">
         <v>0.500473997421177</v>
       </c>
@@ -39736,8 +39840,12 @@
       <c r="AN148" t="n">
         <v>0.538</v>
       </c>
-      <c r="AO148"/>
-      <c r="AP148"/>
+      <c r="AO148" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AQ148" t="n">
         <v>7.80672810087733</v>
       </c>
@@ -40012,8 +40120,12 @@
       <c r="AN149" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AO149"/>
-      <c r="AP149"/>
+      <c r="AO149" t="n">
+        <v>0.553574085235596</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.18486130237579</v>
+      </c>
       <c r="AQ149" t="n">
         <v>2.91926994023465</v>
       </c>
@@ -40324,8 +40436,12 @@
       <c r="AN150" t="n">
         <v>0.731</v>
       </c>
-      <c r="AO150"/>
-      <c r="AP150"/>
+      <c r="AO150" t="n">
+        <v>0.553574085235596</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.18486130237579</v>
+      </c>
       <c r="AQ150" t="n">
         <v>2.536875</v>
       </c>
@@ -40664,8 +40780,12 @@
       <c r="AN151" t="n">
         <v>0.7699</v>
       </c>
-      <c r="AO151"/>
-      <c r="AP151"/>
+      <c r="AO151" t="n">
+        <v>1.34397101402283</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0.923805415630341</v>
+      </c>
       <c r="AQ151" t="n">
         <v>3.84355380737052</v>
       </c>
@@ -40992,8 +41112,12 @@
       <c r="AN152" t="n">
         <v>0.8307</v>
       </c>
-      <c r="AO152"/>
-      <c r="AP152"/>
+      <c r="AO152" t="n">
+        <v>2.3167896270752</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>0.777798295021057</v>
+      </c>
       <c r="AQ152" t="n">
         <v>3.30783333333333</v>
       </c>
@@ -41304,8 +41428,12 @@
       <c r="AN153" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AO153"/>
-      <c r="AP153"/>
+      <c r="AO153" t="n">
+        <v>2.04501581192017</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0.819146513938904</v>
+      </c>
       <c r="AQ153" t="n">
         <v>2.98416666666667</v>
       </c>
@@ -41632,8 +41760,12 @@
       <c r="AN154" t="n">
         <v>0.6353</v>
       </c>
-      <c r="AO154"/>
-      <c r="AP154"/>
+      <c r="AO154" t="n">
+        <v>0.402596145868301</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.16842377185822</v>
+      </c>
       <c r="AQ154" t="n">
         <v>2.91926994023465</v>
       </c>
@@ -41956,8 +42088,12 @@
       <c r="AN155" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AO155"/>
-      <c r="AP155"/>
+      <c r="AO155" t="n">
+        <v>0.886833846569061</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0.96934050321579</v>
+      </c>
       <c r="AQ155" t="n">
         <v>2.8932373987381</v>
       </c>
@@ -42284,8 +42420,12 @@
       <c r="AN156" t="n">
         <v>0.6716</v>
       </c>
-      <c r="AO156"/>
-      <c r="AP156"/>
+      <c r="AO156" t="n">
+        <v>1.21859467029572</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0.680217862129211</v>
+      </c>
       <c r="AQ156" t="n">
         <v>2.91926994023465</v>
       </c>
@@ -43388,8 +43528,12 @@
       <c r="AL160"/>
       <c r="AM160"/>
       <c r="AN160"/>
-      <c r="AO160"/>
-      <c r="AP160"/>
+      <c r="AO160" t="n">
+        <v>0.146143242716789</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.04150295257568</v>
+      </c>
       <c r="AQ160"/>
       <c r="AR160"/>
       <c r="AS160"/>
@@ -43840,8 +43984,12 @@
       <c r="AL162"/>
       <c r="AM162"/>
       <c r="AN162"/>
-      <c r="AO162"/>
-      <c r="AP162"/>
+      <c r="AO162" t="n">
+        <v>0.629264056682587</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0.842668175697327</v>
+      </c>
       <c r="AQ162" t="n">
         <v>0.429747111568763</v>
       </c>
@@ -44144,8 +44292,12 @@
       <c r="AL163"/>
       <c r="AM163"/>
       <c r="AN163"/>
-      <c r="AO163"/>
-      <c r="AP163"/>
+      <c r="AO163" t="n">
+        <v>0.609466791152954</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>0.80167019367218</v>
+      </c>
       <c r="AQ163" t="n">
         <v>0.432322667895288</v>
       </c>
@@ -44444,8 +44596,12 @@
       <c r="AN164" t="n">
         <v>0.538</v>
       </c>
-      <c r="AO164"/>
-      <c r="AP164"/>
+      <c r="AO164" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AQ164" t="n">
         <v>5.39022595431107</v>
       </c>
@@ -44972,8 +45128,12 @@
       <c r="AN166" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AO166"/>
-      <c r="AP166"/>
+      <c r="AO166" t="n">
+        <v>0.747900664806366</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0.997413754463196</v>
+      </c>
       <c r="AQ166" t="n">
         <v>0.583333333333333</v>
       </c>
@@ -45614,8 +45774,12 @@
       <c r="AN168" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AO168"/>
-      <c r="AP168"/>
+      <c r="AO168" t="n">
+        <v>0.718327283859253</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.03716373443604</v>
+      </c>
       <c r="AQ168" t="n">
         <v>0.571759893455099</v>
       </c>
@@ -46290,8 +46454,12 @@
       <c r="AN170" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AO170"/>
-      <c r="AP170"/>
+      <c r="AO170" t="n">
+        <v>0.562224507331848</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>0.962683916091919</v>
+      </c>
       <c r="AQ170" t="n">
         <v>2.18383741030659</v>
       </c>
@@ -46644,8 +46812,12 @@
       <c r="AN171" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AO171"/>
-      <c r="AP171"/>
+      <c r="AO171" t="n">
+        <v>0.562224507331848</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0.962683916091919</v>
+      </c>
       <c r="AQ171" t="n">
         <v>0.822724447091808</v>
       </c>
@@ -46960,8 +47132,12 @@
       <c r="AN172" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AO172"/>
-      <c r="AP172"/>
+      <c r="AO172" t="n">
+        <v>1.09238255023956</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>0.801599025726318</v>
+      </c>
       <c r="AQ172" t="n">
         <v>0.638888888888889</v>
       </c>
@@ -47298,8 +47474,12 @@
       <c r="AN173" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AO173"/>
-      <c r="AP173"/>
+      <c r="AO173" t="n">
+        <v>1.19104373455048</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>0.832718849182129</v>
+      </c>
       <c r="AQ173" t="n">
         <v>0.567005707762557</v>
       </c>
@@ -47652,8 +47832,12 @@
       <c r="AN174" t="n">
         <v>0.7257</v>
       </c>
-      <c r="AO174"/>
-      <c r="AP174"/>
+      <c r="AO174" t="n">
+        <v>0.224610477685928</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.00559973716736</v>
+      </c>
       <c r="AQ174" t="n">
         <v>0.438243911719939</v>
       </c>
@@ -48002,8 +48186,12 @@
       <c r="AN175" t="n">
         <v>0.6563</v>
       </c>
-      <c r="AO175"/>
-      <c r="AP175"/>
+      <c r="AO175" t="n">
+        <v>1.72258675098419</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0.597339570522308</v>
+      </c>
       <c r="AQ175" t="n">
         <v>0.594416558873531</v>
       </c>
@@ -48340,8 +48528,12 @@
       <c r="AN176" t="n">
         <v>0.7974</v>
       </c>
-      <c r="AO176"/>
-      <c r="AP176"/>
+      <c r="AO176" t="n">
+        <v>0.562224507331848</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>0.962683916091919</v>
+      </c>
       <c r="AQ176" t="n">
         <v>0.501066494197649</v>
       </c>
@@ -48678,8 +48870,12 @@
       <c r="AN177" t="n">
         <v>0.7918</v>
       </c>
-      <c r="AO177"/>
-      <c r="AP177"/>
+      <c r="AO177" t="n">
+        <v>4.93406963348389</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>0.554376125335693</v>
+      </c>
       <c r="AQ177" t="n">
         <v>1.26540810502283</v>
       </c>
@@ -51508,8 +51704,12 @@
       <c r="AL188"/>
       <c r="AM188"/>
       <c r="AN188"/>
-      <c r="AO188"/>
-      <c r="AP188"/>
+      <c r="AO188" t="n">
+        <v>2.73270869255066</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>0.246382355690002</v>
+      </c>
       <c r="AQ188" t="n">
         <v>0.330552253406135</v>
       </c>
@@ -53802,8 +54002,12 @@
       <c r="AL198"/>
       <c r="AM198"/>
       <c r="AN198"/>
-      <c r="AO198"/>
-      <c r="AP198"/>
+      <c r="AO198" t="n">
+        <v>0.840311110019684</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>0.657690107822418</v>
+      </c>
       <c r="AQ198" t="n">
         <v>0.467590183119923</v>
       </c>
@@ -54770,8 +54974,12 @@
       <c r="AN202" t="n">
         <v>0.538</v>
       </c>
-      <c r="AO202"/>
-      <c r="AP202"/>
+      <c r="AO202" t="n">
+        <v>0.667239487171173</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>0.817502081394196</v>
+      </c>
       <c r="AQ202" t="n">
         <v>2.77777777777778</v>
       </c>
@@ -56378,8 +56586,12 @@
       <c r="AL209"/>
       <c r="AM209"/>
       <c r="AN209"/>
-      <c r="AO209"/>
-      <c r="AP209"/>
+      <c r="AO209" t="n">
+        <v>1.00817120075226</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>0.778777182102203</v>
+      </c>
       <c r="AQ209" t="n">
         <v>0.442829148510321</v>
       </c>
@@ -56868,8 +57080,12 @@
       <c r="AL211"/>
       <c r="AM211"/>
       <c r="AN211"/>
-      <c r="AO211"/>
-      <c r="AP211"/>
+      <c r="AO211" t="n">
+        <v>0.677649855613708</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>0.962278425693512</v>
+      </c>
       <c r="AQ211" t="n">
         <v>0.463086513112454</v>
       </c>

--- a/data-raw/SpParamsMED.xlsx
+++ b/data-raw/SpParamsMED.xlsx
@@ -3755,28 +3755,28 @@
       <c r="CC2"/>
       <c r="CD2"/>
       <c r="CE2" t="n">
-        <v>0.094633079382952</v>
+        <v>0.0887222795952396</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00423730206192322</v>
+        <v>-0.00397263938486147</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.75026841276321</v>
+        <v>-1.74701473393704</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.39468872006905</v>
+        <v>1.47913901724651</v>
       </c>
       <c r="CI2" t="n">
-        <v>8.56931310976075</v>
+        <v>8.53640096501076</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.185333354998002</v>
+        <v>0.154039614077237</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00434464209064597</v>
+        <v>0.00432163059221708</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.376341582994473</v>
+        <v>-0.378174338483691</v>
       </c>
       <c r="CM2" t="n">
         <v>0.00391201428571428</v>
@@ -3792,32 +3792,46 @@
       <c r="CT2" t="n">
         <v>6</v>
       </c>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
+      <c r="CU2" t="n">
+        <v>-0.737031686031509</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-2.03812951201276</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>-3.99381962171243</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>23.3358761764481</v>
+      </c>
       <c r="CY2" t="n">
         <v>1.3</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-3.0182899404</v>
+        <v>-2.89349134377568</v>
       </c>
       <c r="DA2" t="n">
-        <v>-3.7882</v>
+        <v>-3.72207993250131</v>
       </c>
       <c r="DB2" t="n">
-        <v>-4.5441100596</v>
+        <v>-4.39658306334088</v>
       </c>
       <c r="DC2" t="n">
-        <v>58.779564664</v>
+        <v>50.5624500559317</v>
       </c>
       <c r="DD2"/>
-      <c r="DE2"/>
+      <c r="DE2" t="n">
+        <v>-0.870065425747431</v>
+      </c>
       <c r="DF2" t="n">
-        <v>-3.57605166666667</v>
-      </c>
-      <c r="DG2"/>
-      <c r="DH2"/>
+        <v>-2.27253616681976</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-4.28819287440797</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>22.2343962129856</v>
+      </c>
       <c r="DI2" t="n">
         <v>58.0871168833344</v>
       </c>
@@ -3849,7 +3863,7 @@
       <c r="DU2"/>
       <c r="DV2"/>
       <c r="DW2" t="n">
-        <v>0.00252086838375229</v>
+        <v>0.00254742968965764</v>
       </c>
       <c r="DX2"/>
       <c r="DY2"/>
@@ -4168,7 +4182,7 @@
       <c r="DU3"/>
       <c r="DV3"/>
       <c r="DW3" t="n">
-        <v>0.0055308380530609</v>
+        <v>0.00558911411474947</v>
       </c>
       <c r="DX3"/>
       <c r="DY3"/>
@@ -4435,7 +4449,7 @@
       <c r="DU4"/>
       <c r="DV4"/>
       <c r="DW4" t="n">
-        <v>0.00693269802005727</v>
+        <v>0.00700574487726212</v>
       </c>
       <c r="DX4"/>
       <c r="DY4"/>
@@ -4768,7 +4782,7 @@
       <c r="DU5"/>
       <c r="DV5"/>
       <c r="DW5" t="n">
-        <v>0.00172565253064492</v>
+        <v>0.00174383498913748</v>
       </c>
       <c r="DX5"/>
       <c r="DY5"/>
@@ -5109,7 +5123,7 @@
       <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6" t="n">
-        <v>0.00099753510008667</v>
+        <v>0.00100804569838506</v>
       </c>
       <c r="DX6"/>
       <c r="DY6"/>
@@ -5440,7 +5454,7 @@
       <c r="DU7"/>
       <c r="DV7"/>
       <c r="DW7" t="n">
-        <v>0.00111496463196549</v>
+        <v>0.0011267125347335</v>
       </c>
       <c r="DX7"/>
       <c r="DY7"/>
@@ -5769,7 +5783,7 @@
       <c r="DU8"/>
       <c r="DV8"/>
       <c r="DW8" t="n">
-        <v>0.0018673449654812</v>
+        <v>0.0018870203762161</v>
       </c>
       <c r="DX8"/>
       <c r="DY8"/>
@@ -6106,7 +6120,7 @@
       <c r="DU9"/>
       <c r="DV9"/>
       <c r="DW9" t="n">
-        <v>0.00171379575025697</v>
+        <v>0.00173185327895433</v>
       </c>
       <c r="DX9"/>
       <c r="DY9"/>
@@ -6431,7 +6445,7 @@
       <c r="DU10"/>
       <c r="DV10"/>
       <c r="DW10" t="n">
-        <v>0.00304495323066844</v>
+        <v>0.00307703659319087</v>
       </c>
       <c r="DX10"/>
       <c r="DY10"/>
@@ -7178,7 +7192,7 @@
       <c r="DU13"/>
       <c r="DV13"/>
       <c r="DW13" t="n">
-        <v>0.00181510027260932</v>
+        <v>0.00183422520348648</v>
       </c>
       <c r="DX13"/>
       <c r="DY13"/>
@@ -8550,7 +8564,7 @@
       <c r="DU19"/>
       <c r="DV19"/>
       <c r="DW19" t="n">
-        <v>0.00611261784403888</v>
+        <v>0.00617702386915485</v>
       </c>
       <c r="DX19"/>
       <c r="DY19"/>
@@ -8819,7 +8833,7 @@
       <c r="DU20"/>
       <c r="DV20"/>
       <c r="DW20" t="n">
-        <v>0.00668888863521934</v>
+        <v>0.00675936657780135</v>
       </c>
       <c r="DX20"/>
       <c r="DY20"/>
@@ -9100,7 +9114,7 @@
       <c r="DU21"/>
       <c r="DV21"/>
       <c r="DW21" t="n">
-        <v>0.000660973246619984</v>
+        <v>0.000667937637427486</v>
       </c>
       <c r="DX21"/>
       <c r="DY21"/>
@@ -10927,7 +10941,7 @@
       <c r="DU28"/>
       <c r="DV28"/>
       <c r="DW28" t="n">
-        <v>0.000968894318255613</v>
+        <v>0.000979103140954574</v>
       </c>
       <c r="DX28"/>
       <c r="DY28"/>
@@ -11435,7 +11449,7 @@
       <c r="DU30"/>
       <c r="DV30"/>
       <c r="DW30" t="n">
-        <v>0.000512085622456926</v>
+        <v>0.000517481248406887</v>
       </c>
       <c r="DX30"/>
       <c r="DY30"/>
@@ -12381,28 +12395,28 @@
       <c r="CC34"/>
       <c r="CD34"/>
       <c r="CE34" t="n">
-        <v>0.129826478441371</v>
+        <v>0.114447387305089</v>
       </c>
       <c r="CF34" t="n">
-        <v>-0.00581312590035991</v>
+        <v>-0.00512450987933233</v>
       </c>
       <c r="CG34" t="n">
-        <v>-1.28679594693294</v>
+        <v>-0.778609029328174</v>
       </c>
       <c r="CH34" t="n">
-        <v>1.1320252987292</v>
+        <v>1.39875257966896</v>
       </c>
       <c r="CI34" t="n">
-        <v>7.58176197623786</v>
+        <v>8.21576988577056</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0.135676068124243</v>
+        <v>0.107024175468147</v>
       </c>
       <c r="CK34" t="n">
-        <v>0.00262494532785761</v>
+        <v>0.00246248721651079</v>
       </c>
       <c r="CL34" t="n">
-        <v>-0.451236301004839</v>
+        <v>-0.467361204979683</v>
       </c>
       <c r="CM34" t="n">
         <v>0.00447333333333333</v>
@@ -12418,22 +12432,46 @@
       <c r="CT34" t="n">
         <v>8</v>
       </c>
-      <c r="CU34"/>
-      <c r="CV34"/>
-      <c r="CW34"/>
-      <c r="CX34"/>
+      <c r="CU34" t="n">
+        <v>-0.579279839744021</v>
+      </c>
+      <c r="CV34" t="n">
+        <v>-1.42837599487457</v>
+      </c>
+      <c r="CW34" t="n">
+        <v>-2.59458967257395</v>
+      </c>
+      <c r="CX34" t="n">
+        <v>37.7113229747307</v>
+      </c>
       <c r="CY34" t="n">
         <v>1</v>
       </c>
-      <c r="CZ34"/>
-      <c r="DA34"/>
-      <c r="DB34"/>
-      <c r="DC34"/>
+      <c r="CZ34" t="n">
+        <v>-1.60044329246975</v>
+      </c>
+      <c r="DA34" t="n">
+        <v>-1.97991050950533</v>
+      </c>
+      <c r="DB34" t="n">
+        <v>-2.27907964593336</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>111.98928500089</v>
+      </c>
       <c r="DD34"/>
-      <c r="DE34"/>
-      <c r="DF34"/>
-      <c r="DG34"/>
-      <c r="DH34"/>
+      <c r="DE34" t="n">
+        <v>-0.349240297358525</v>
+      </c>
+      <c r="DF34" t="n">
+        <v>-0.861149349527185</v>
+      </c>
+      <c r="DG34" t="n">
+        <v>-1.56424444043055</v>
+      </c>
+      <c r="DH34" t="n">
+        <v>62.5512270335483</v>
+      </c>
       <c r="DI34" t="n">
         <v>51.3450511957304</v>
       </c>
@@ -12461,7 +12499,7 @@
       <c r="DU34"/>
       <c r="DV34"/>
       <c r="DW34" t="n">
-        <v>0.00177678145043944</v>
+        <v>0.00179550263236875</v>
       </c>
       <c r="DX34"/>
       <c r="DY34"/>
@@ -12983,7 +13021,7 @@
       <c r="DU36"/>
       <c r="DV36"/>
       <c r="DW36" t="n">
-        <v>0.00237352841960588</v>
+        <v>0.00239853726768162</v>
       </c>
       <c r="DX36"/>
       <c r="DY36"/>
@@ -13228,7 +13266,7 @@
       <c r="DU37"/>
       <c r="DV37"/>
       <c r="DW37" t="n">
-        <v>0.00102842626506837</v>
+        <v>0.00103926235028552</v>
       </c>
       <c r="DX37"/>
       <c r="DY37"/>
@@ -13479,7 +13517,7 @@
       <c r="DU38"/>
       <c r="DV38"/>
       <c r="DW38" t="n">
-        <v>0.00579059818593064</v>
+        <v>0.00585161122841346</v>
       </c>
       <c r="DX38"/>
       <c r="DY38"/>
@@ -25116,7 +25154,7 @@
       <c r="DU85"/>
       <c r="DV85"/>
       <c r="DW85" t="n">
-        <v>0.00188752817926975</v>
+        <v>0.00190741625184732</v>
       </c>
       <c r="DX85"/>
       <c r="DY85"/>
@@ -28686,28 +28724,28 @@
       <c r="CC99"/>
       <c r="CD99"/>
       <c r="CE99" t="n">
-        <v>0.188933314706534</v>
+        <v>0.154998475695913</v>
       </c>
       <c r="CF99" t="n">
-        <v>-0.00845970065850151</v>
+        <v>-0.00694023025504087</v>
       </c>
       <c r="CG99" t="n">
-        <v>-1.45900043282118</v>
+        <v>-0.729118290805362</v>
       </c>
       <c r="CH99" t="n">
-        <v>1.52046555578063</v>
+        <v>1.4048544474723</v>
       </c>
       <c r="CI99" t="n">
-        <v>7.91885851226364</v>
+        <v>9.42030763554629</v>
       </c>
       <c r="CJ99" t="n">
-        <v>0.171947756393981</v>
+        <v>0.154294558290831</v>
       </c>
       <c r="CK99" t="n">
-        <v>0.00244027921463295</v>
+        <v>0.0021851360009659</v>
       </c>
       <c r="CL99" t="n">
-        <v>-0.429585371661567</v>
+        <v>-0.406131030667514</v>
       </c>
       <c r="CM99" t="n">
         <v>0.00447333333333333</v>
@@ -28723,30 +28761,46 @@
       <c r="CT99" t="n">
         <v>8</v>
       </c>
-      <c r="CU99"/>
-      <c r="CV99"/>
-      <c r="CW99"/>
-      <c r="CX99"/>
+      <c r="CU99" t="n">
+        <v>-0.579279839744021</v>
+      </c>
+      <c r="CV99" t="n">
+        <v>-1.42837599487457</v>
+      </c>
+      <c r="CW99" t="n">
+        <v>-2.59458967257395</v>
+      </c>
+      <c r="CX99" t="n">
+        <v>37.7113229747307</v>
+      </c>
       <c r="CY99" t="n">
         <v>0.9</v>
       </c>
       <c r="CZ99" t="n">
-        <v>-2.43333333333333</v>
+        <v>-2.50000003152918</v>
       </c>
       <c r="DA99" t="n">
-        <v>-3.08333333333333</v>
+        <v>-3.15000002826897</v>
       </c>
       <c r="DB99" t="n">
-        <v>-3.9</v>
+        <v>-3.6702232388229</v>
       </c>
       <c r="DC99" t="n">
-        <v>49.0079365066667</v>
+        <v>64.9448750685427</v>
       </c>
       <c r="DD99"/>
-      <c r="DE99"/>
-      <c r="DF99"/>
-      <c r="DG99"/>
-      <c r="DH99"/>
+      <c r="DE99" t="n">
+        <v>-0.349240297358525</v>
+      </c>
+      <c r="DF99" t="n">
+        <v>-0.861149349527185</v>
+      </c>
+      <c r="DG99" t="n">
+        <v>-1.56424444043055</v>
+      </c>
+      <c r="DH99" t="n">
+        <v>62.5512270335483</v>
+      </c>
       <c r="DI99" t="n">
         <v>94.5</v>
       </c>
@@ -28778,7 +28832,7 @@
       <c r="DU99"/>
       <c r="DV99"/>
       <c r="DW99" t="n">
-        <v>0.00219727417519401</v>
+        <v>0.00222042590810534</v>
       </c>
       <c r="DX99"/>
       <c r="DY99"/>
@@ -29057,7 +29111,7 @@
       <c r="DU100"/>
       <c r="DV100"/>
       <c r="DW100" t="n">
-        <v>0.00112847332862796</v>
+        <v>0.00114036356672246</v>
       </c>
       <c r="DX100"/>
       <c r="DY100"/>
@@ -30262,7 +30316,7 @@
       <c r="DU105"/>
       <c r="DV105"/>
       <c r="DW105" t="n">
-        <v>0.00455586645293556</v>
+        <v>0.00460386965822002</v>
       </c>
       <c r="DX105"/>
       <c r="DY105"/>
@@ -30949,7 +31003,7 @@
       <c r="DU108"/>
       <c r="DV108"/>
       <c r="DW108" t="n">
-        <v>0.000921012491786519</v>
+        <v>0.000930716804274495</v>
       </c>
       <c r="DX108"/>
       <c r="DY108"/>
@@ -32965,7 +33019,7 @@
       <c r="DU116"/>
       <c r="DV116"/>
       <c r="DW116" t="n">
-        <v>0.00302190246034762</v>
+        <v>0.00305374294681758</v>
       </c>
       <c r="DX116"/>
       <c r="DY116"/>
@@ -33246,7 +33300,7 @@
       <c r="DU117"/>
       <c r="DV117"/>
       <c r="DW117" t="n">
-        <v>0.000328584418593929</v>
+        <v>0.000332046571284746</v>
       </c>
       <c r="DX117"/>
       <c r="DY117"/>
@@ -33551,7 +33605,7 @@
       <c r="DU118"/>
       <c r="DV118"/>
       <c r="DW118" t="n">
-        <v>0.000634996040627636</v>
+        <v>0.000641686720788689</v>
       </c>
       <c r="DX118"/>
       <c r="DY118"/>
@@ -33858,7 +33912,7 @@
       <c r="DU119"/>
       <c r="DV119"/>
       <c r="DW119" t="n">
-        <v>0.000551703613943443</v>
+        <v>0.000557516677629547</v>
       </c>
       <c r="DX119"/>
       <c r="DY119"/>
@@ -34149,7 +34203,7 @@
       <c r="DU120"/>
       <c r="DV120"/>
       <c r="DW120" t="n">
-        <v>0.000789813215495953</v>
+        <v>0.000798135137639961</v>
       </c>
       <c r="DX120"/>
       <c r="DY120"/>
@@ -34621,7 +34675,7 @@
       <c r="DU122"/>
       <c r="DV122"/>
       <c r="DW122" t="n">
-        <v>0.00377943933443514</v>
+        <v>0.00381926166112211</v>
       </c>
       <c r="DX122"/>
       <c r="DY122"/>
@@ -36346,7 +36400,7 @@
       <c r="DU129"/>
       <c r="DV129"/>
       <c r="DW129" t="n">
-        <v>0.00124082688123995</v>
+        <v>0.00125390094039378</v>
       </c>
       <c r="DX129"/>
       <c r="DY129"/>
@@ -37063,7 +37117,7 @@
       <c r="DU132"/>
       <c r="DV132"/>
       <c r="DW132" t="n">
-        <v>0.000113911103507252</v>
+        <v>0.000115111335810443</v>
       </c>
       <c r="DX132"/>
       <c r="DY132"/>
@@ -37306,7 +37360,7 @@
       <c r="DU133"/>
       <c r="DV133"/>
       <c r="DW133" t="n">
-        <v>0.00253889750331407</v>
+        <v>0.00256564877429772</v>
       </c>
       <c r="DX133"/>
       <c r="DY133"/>
@@ -38332,7 +38386,7 @@
       <c r="DU137"/>
       <c r="DV137"/>
       <c r="DW137" t="n">
-        <v>0.00045563253274799</v>
+        <v>0.000460433336772805</v>
       </c>
       <c r="DX137"/>
       <c r="DY137"/>
@@ -39507,7 +39561,7 @@
       <c r="DU142"/>
       <c r="DV142"/>
       <c r="DW142" t="n">
-        <v>0.00461632305626443</v>
+        <v>0.00466496326677509</v>
       </c>
       <c r="DX142"/>
       <c r="DY142"/>
@@ -40059,7 +40113,7 @@
       <c r="DU144"/>
       <c r="DV144"/>
       <c r="DW144" t="n">
-        <v>0.00065844198281712</v>
+        <v>0.000665379702786656</v>
       </c>
       <c r="DX144"/>
       <c r="DY144"/>
@@ -40531,7 +40585,7 @@
       <c r="DU146"/>
       <c r="DV146"/>
       <c r="DW146" t="n">
-        <v>0.00256231318217687</v>
+        <v>0.00258931117409734</v>
       </c>
       <c r="DX146"/>
       <c r="DY146"/>
@@ -40752,7 +40806,7 @@
       <c r="DU147"/>
       <c r="DV147"/>
       <c r="DW147" t="n">
-        <v>0.00372476516532498</v>
+        <v>0.00376401141380803</v>
       </c>
       <c r="DX147"/>
       <c r="DY147"/>
@@ -41045,7 +41099,7 @@
       <c r="DU148"/>
       <c r="DV148"/>
       <c r="DW148" t="n">
-        <v>0.00380775188788868</v>
+        <v>0.00384787253177384</v>
       </c>
       <c r="DX148"/>
       <c r="DY148"/>
@@ -41354,7 +41408,7 @@
       <c r="DU149"/>
       <c r="DV149"/>
       <c r="DW149" t="n">
-        <v>0.00146647494705235</v>
+        <v>0.00148192656282184</v>
       </c>
       <c r="DX149"/>
       <c r="DY149"/>
@@ -41583,28 +41637,28 @@
       <c r="CC150"/>
       <c r="CD150"/>
       <c r="CE150" t="n">
-        <v>0.0898533191849875</v>
+        <v>0.186984889437377</v>
       </c>
       <c r="CF150" t="n">
-        <v>-0.00402328294858153</v>
+        <v>-0.00837245773600196</v>
       </c>
       <c r="CG150" t="n">
-        <v>-0.400337953354755</v>
+        <v>-0.921821906002538</v>
       </c>
       <c r="CH150" t="n">
-        <v>0.816861029846673</v>
+        <v>1.50454247869255</v>
       </c>
       <c r="CI150" t="n">
-        <v>13.464953885542</v>
+        <v>8.52555033077022</v>
       </c>
       <c r="CJ150" t="n">
-        <v>0.220135214093193</v>
+        <v>0.523913620115666</v>
       </c>
       <c r="CK150" t="n">
-        <v>0.00208329465936754</v>
+        <v>0.00258632695115065</v>
       </c>
       <c r="CL150" t="n">
-        <v>-0.656570314924007</v>
+        <v>-0.264716874994345</v>
       </c>
       <c r="CM150" t="n">
         <v>0.00308666666666667</v>
@@ -41621,42 +41675,44 @@
         <v>4</v>
       </c>
       <c r="CU150" t="n">
-        <v>-0.65</v>
+        <v>-1.97932458265969</v>
       </c>
       <c r="CV150" t="n">
-        <v>-1.195</v>
-      </c>
-      <c r="CW150"/>
+        <v>-2.30377162801938</v>
+      </c>
+      <c r="CW150" t="n">
+        <v>-2.54705564826939</v>
+      </c>
       <c r="CX150" t="n">
-        <v>115.1515152</v>
+        <v>133.866199339262</v>
       </c>
       <c r="CY150" t="n">
         <v>0.15</v>
       </c>
       <c r="CZ150" t="n">
-        <v>-3.35037241866667</v>
+        <v>-4.49953924050847</v>
       </c>
       <c r="DA150" t="n">
-        <v>-4.46044444433333</v>
+        <v>-5.13963295175498</v>
       </c>
       <c r="DB150" t="n">
-        <v>-5.57051647</v>
+        <v>-5.61222972290256</v>
       </c>
       <c r="DC150" t="n">
-        <v>45.8698235333333</v>
+        <v>68.3029119081495</v>
       </c>
       <c r="DD150"/>
       <c r="DE150" t="n">
-        <v>-0.511031451</v>
+        <v>-2.54856860134837</v>
       </c>
       <c r="DF150" t="n">
-        <v>-0.88</v>
+        <v>-2.96632502182028</v>
       </c>
       <c r="DG150" t="n">
-        <v>-1.248968549</v>
+        <v>-3.27957633019629</v>
       </c>
       <c r="DH150" t="n">
-        <v>102.9898079</v>
+        <v>103.96606903155</v>
       </c>
       <c r="DI150" t="n">
         <v>72.196165126121</v>
@@ -41693,7 +41749,7 @@
       <c r="DU150"/>
       <c r="DV150"/>
       <c r="DW150" t="n">
-        <v>0.00260069247873231</v>
+        <v>0.00262809485679321</v>
       </c>
       <c r="DX150"/>
       <c r="DY150"/>
@@ -41934,28 +41990,28 @@
       <c r="CC151"/>
       <c r="CD151"/>
       <c r="CE151" t="n">
-        <v>0.118890450573196</v>
+        <v>0.156668656294463</v>
       </c>
       <c r="CF151" t="n">
-        <v>-0.00532345301074013</v>
+        <v>-0.00701501446094612</v>
       </c>
       <c r="CG151" t="n">
-        <v>-1.1665325343107</v>
+        <v>-1.25042411312164</v>
       </c>
       <c r="CH151" t="n">
-        <v>1.47259932609731</v>
+        <v>1.29941053420784</v>
       </c>
       <c r="CI151" t="n">
-        <v>10.1348932986912</v>
+        <v>7.92438157604883</v>
       </c>
       <c r="CJ151" t="n">
-        <v>0.101275366917722</v>
+        <v>0.155348056827969</v>
       </c>
       <c r="CK151" t="n">
-        <v>0.00254077652694333</v>
+        <v>0.00284938965082605</v>
       </c>
       <c r="CL151" t="n">
-        <v>-0.587656264367017</v>
+        <v>-0.436884712421173</v>
       </c>
       <c r="CM151" t="n">
         <v>0.00308666666666667</v>
@@ -41972,42 +42028,44 @@
         <v>5</v>
       </c>
       <c r="CU151" t="n">
-        <v>-0.65</v>
+        <v>-0.898240849432444</v>
       </c>
       <c r="CV151" t="n">
-        <v>-1.195</v>
-      </c>
-      <c r="CW151"/>
+        <v>-1.91307757819462</v>
+      </c>
+      <c r="CW151" t="n">
+        <v>-3.15417796236341</v>
+      </c>
       <c r="CX151" t="n">
-        <v>115.1515152</v>
+        <v>33.688882355971</v>
       </c>
       <c r="CY151" t="n">
         <v>0.41</v>
       </c>
       <c r="CZ151" t="n">
-        <v>-1.748027934</v>
+        <v>-1.75033709973302</v>
       </c>
       <c r="DA151" t="n">
-        <v>-3.26666666666667</v>
+        <v>-2.99873005578385</v>
       </c>
       <c r="DB151" t="n">
-        <v>-4.246972066</v>
+        <v>-4.28130049652503</v>
       </c>
       <c r="DC151" t="n">
-        <v>33.03122777</v>
+        <v>30.0280913174524</v>
       </c>
       <c r="DD151"/>
       <c r="DE151" t="n">
-        <v>-0.7299655780625</v>
+        <v>-0.861688585476671</v>
       </c>
       <c r="DF151" t="n">
-        <v>-1.7415652173913</v>
+        <v>-1.83522839481555</v>
       </c>
       <c r="DG151" t="n">
-        <v>-2.30148170838889</v>
+        <v>-3.02582447508142</v>
       </c>
       <c r="DH151" t="n">
-        <v>60.8508700966667</v>
+        <v>35.1179426232243</v>
       </c>
       <c r="DI151" t="n">
         <v>68.5029549657468</v>
@@ -42044,7 +42102,7 @@
       <c r="DU151"/>
       <c r="DV151"/>
       <c r="DW151" t="n">
-        <v>0.00195405081797942</v>
+        <v>0.00197463981098892</v>
       </c>
       <c r="DX151"/>
       <c r="DY151"/>
@@ -42367,7 +42425,7 @@
       <c r="DU152"/>
       <c r="DV152"/>
       <c r="DW152" t="n">
-        <v>0.0035611877340165</v>
+        <v>0.00359871043746236</v>
       </c>
       <c r="DX152"/>
       <c r="DY152"/>
@@ -42596,28 +42654,28 @@
       <c r="CC153"/>
       <c r="CD153"/>
       <c r="CE153" t="n">
-        <v>0.101595292971208</v>
+        <v>0.228528106143061</v>
       </c>
       <c r="CF153" t="n">
-        <v>-0.00454904296886008</v>
+        <v>-0.0102326017675997</v>
       </c>
       <c r="CG153" t="n">
-        <v>-0.711876964577045</v>
+        <v>-0.964984671175299</v>
       </c>
       <c r="CH153" t="n">
-        <v>1.57016716859888</v>
+        <v>1.49120118543177</v>
       </c>
       <c r="CI153" t="n">
-        <v>12.4880442983444</v>
+        <v>7.15609119720359</v>
       </c>
       <c r="CJ153" t="n">
-        <v>0.214794517846992</v>
+        <v>0.519078598667925</v>
       </c>
       <c r="CK153" t="n">
-        <v>0.00219984899035602</v>
+        <v>0.00281800163534104</v>
       </c>
       <c r="CL153" t="n">
-        <v>-0.652969926308895</v>
+        <v>-0.357879477961969</v>
       </c>
       <c r="CM153" t="n">
         <v>0.00308666666666667</v>
@@ -42634,42 +42692,44 @@
         <v>4</v>
       </c>
       <c r="CU153" t="n">
-        <v>-0.65</v>
+        <v>-1.97932458265969</v>
       </c>
       <c r="CV153" t="n">
-        <v>-1.195</v>
-      </c>
-      <c r="CW153"/>
+        <v>-2.30377162801938</v>
+      </c>
+      <c r="CW153" t="n">
+        <v>-2.54705564826939</v>
+      </c>
       <c r="CX153" t="n">
-        <v>115.1515152</v>
+        <v>133.866199339262</v>
       </c>
       <c r="CY153" t="n">
         <v>0.25</v>
       </c>
       <c r="CZ153" t="n">
-        <v>-2.3304690645</v>
+        <v>-3.31830242932512</v>
       </c>
       <c r="DA153" t="n">
-        <v>-3.995</v>
+        <v>-4.20910087711617</v>
       </c>
       <c r="DB153" t="n">
-        <v>-5.6595309355</v>
+        <v>-4.92596242987117</v>
       </c>
       <c r="DC153" t="n">
-        <v>40.685987195</v>
+        <v>47.2736772540129</v>
       </c>
       <c r="DD153"/>
       <c r="DE153" t="n">
-        <v>-0.298417798</v>
+        <v>-2.54856860134837</v>
       </c>
       <c r="DF153" t="n">
-        <v>-1.01</v>
+        <v>-2.96632502182028</v>
       </c>
       <c r="DG153" t="n">
-        <v>-1.721582202</v>
+        <v>-3.27957633019629</v>
       </c>
       <c r="DH153" t="n">
-        <v>53.40212264</v>
+        <v>103.96606903155</v>
       </c>
       <c r="DI153" t="n">
         <v>72.4217252350715</v>
@@ -42706,7 +42766,7 @@
       <c r="DU153"/>
       <c r="DV153"/>
       <c r="DW153" t="n">
-        <v>0.00311656240720071</v>
+        <v>0.00314940028481634</v>
       </c>
       <c r="DX153"/>
       <c r="DY153"/>
@@ -43031,7 +43091,7 @@
       <c r="DU154"/>
       <c r="DV154"/>
       <c r="DW154" t="n">
-        <v>0.0062231719426977</v>
+        <v>0.00628874282880066</v>
       </c>
       <c r="DX154"/>
       <c r="DY154"/>
@@ -43272,28 +43332,28 @@
       <c r="CC155"/>
       <c r="CD155"/>
       <c r="CE155" t="n">
-        <v>0.115394065891046</v>
+        <v>0.157364879269259</v>
       </c>
       <c r="CF155" t="n">
-        <v>-0.00516689847273338</v>
+        <v>-0.00704618862399667</v>
       </c>
       <c r="CG155" t="n">
-        <v>-1.25164962433751</v>
+        <v>-1.18505796438935</v>
       </c>
       <c r="CH155" t="n">
-        <v>1.29530870803937</v>
+        <v>1.32598740622841</v>
       </c>
       <c r="CI155" t="n">
-        <v>10.4282770897469</v>
+        <v>8.67836824815945</v>
       </c>
       <c r="CJ155" t="n">
-        <v>0.106428598152513</v>
+        <v>0.170821363471625</v>
       </c>
       <c r="CK155" t="n">
-        <v>0.00272931102097691</v>
+        <v>0.00300294086060872</v>
       </c>
       <c r="CL155" t="n">
-        <v>-0.537280782478549</v>
+        <v>-0.412864656267284</v>
       </c>
       <c r="CM155" t="n">
         <v>0.00308666666666667</v>
@@ -43310,42 +43370,44 @@
         <v>5</v>
       </c>
       <c r="CU155" t="n">
-        <v>-0.65</v>
+        <v>-0.884844900457354</v>
       </c>
       <c r="CV155" t="n">
-        <v>-1.195</v>
-      </c>
-      <c r="CW155"/>
+        <v>-1.76504161215624</v>
+      </c>
+      <c r="CW155" t="n">
+        <v>-2.78670702390886</v>
+      </c>
       <c r="CX155" t="n">
-        <v>115.1515152</v>
+        <v>39.9608357844969</v>
       </c>
       <c r="CY155" t="n">
         <v>0.45</v>
       </c>
       <c r="CZ155" t="n">
-        <v>-1.75624118165</v>
+        <v>-2.61762967356941</v>
       </c>
       <c r="DA155" t="n">
-        <v>-3.190707619</v>
+        <v>-3.08749021403307</v>
       </c>
       <c r="DB155" t="n">
-        <v>-4.7101740564</v>
+        <v>-3.44368950123089</v>
       </c>
       <c r="DC155" t="n">
-        <v>34.428056248</v>
+        <v>92.0030213975544</v>
       </c>
       <c r="DD155"/>
       <c r="DE155" t="n">
-        <v>-1.01</v>
+        <v>-0.898223164792513</v>
       </c>
       <c r="DF155" t="n">
-        <v>-1.65</v>
+        <v>-1.7917278633148</v>
       </c>
       <c r="DG155" t="n">
-        <v>-2.72</v>
+        <v>-2.82884017421715</v>
       </c>
       <c r="DH155" t="n">
-        <v>35.51401869</v>
+        <v>39.3656533786831</v>
       </c>
       <c r="DI155" t="n">
         <v>83</v>
@@ -43382,7 +43444,7 @@
       <c r="DU155"/>
       <c r="DV155"/>
       <c r="DW155" t="n">
-        <v>0.00206470692794468</v>
+        <v>0.00208646185679043</v>
       </c>
       <c r="DX155"/>
       <c r="DY155"/>
@@ -43611,28 +43673,28 @@
       <c r="CC156"/>
       <c r="CD156"/>
       <c r="CE156" t="n">
-        <v>0.107822945776499</v>
+        <v>0.148597538570169</v>
       </c>
       <c r="CF156" t="n">
-        <v>-0.00482789309447009</v>
+        <v>-0.00665362113000755</v>
       </c>
       <c r="CG156" t="n">
-        <v>-1.16979326949944</v>
+        <v>-1.12788750562579</v>
       </c>
       <c r="CH156" t="n">
-        <v>1.52038384160512</v>
+        <v>1.24793447999007</v>
       </c>
       <c r="CI156" t="n">
-        <v>8.19983901844823</v>
+        <v>6.72571654929693</v>
       </c>
       <c r="CJ156" t="n">
-        <v>0.0640202289894923</v>
+        <v>0.135513809606549</v>
       </c>
       <c r="CK156" t="n">
-        <v>0.00369877315445389</v>
+        <v>0.00396100960942119</v>
       </c>
       <c r="CL156" t="n">
-        <v>-0.435230454814104</v>
+        <v>-0.294765518908132</v>
       </c>
       <c r="CM156" t="n">
         <v>0.00308666666666667</v>
@@ -43649,42 +43711,44 @@
         <v>5</v>
       </c>
       <c r="CU156" t="n">
-        <v>-0.65</v>
+        <v>-0.884844900457354</v>
       </c>
       <c r="CV156" t="n">
-        <v>-1.195</v>
-      </c>
-      <c r="CW156"/>
+        <v>-1.76504161215624</v>
+      </c>
+      <c r="CW156" t="n">
+        <v>-2.78670702390886</v>
+      </c>
       <c r="CX156" t="n">
-        <v>115.1515152</v>
+        <v>39.9608357844969</v>
       </c>
       <c r="CY156" t="n">
         <v>0.689537624043571</v>
       </c>
       <c r="CZ156" t="n">
-        <v>-3.787693691</v>
+        <v>-3.78999999466843</v>
       </c>
       <c r="DA156" t="n">
-        <v>-4.17975</v>
+        <v>-4.17999999320776</v>
       </c>
       <c r="DB156" t="n">
-        <v>-4.571806309</v>
+        <v>-4.45973407564199</v>
       </c>
       <c r="DC156" t="n">
-        <v>96.92485259</v>
+        <v>113.47787451629</v>
       </c>
       <c r="DD156"/>
       <c r="DE156" t="n">
-        <v>-0.7299655780625</v>
+        <v>-0.898223164792513</v>
       </c>
       <c r="DF156" t="n">
-        <v>-1.7415652173913</v>
+        <v>-1.7917278633148</v>
       </c>
       <c r="DG156" t="n">
-        <v>-2.30148170838889</v>
+        <v>-2.82884017421715</v>
       </c>
       <c r="DH156" t="n">
-        <v>60.8508700966667</v>
+        <v>39.3656533786831</v>
       </c>
       <c r="DI156" t="n">
         <v>73.4127461440193</v>
@@ -43721,7 +43785,7 @@
       <c r="DU156"/>
       <c r="DV156"/>
       <c r="DW156" t="n">
-        <v>0.0014279720187838</v>
+        <v>0.00144301794575867</v>
       </c>
       <c r="DX156"/>
       <c r="DY156"/>
@@ -44534,7 +44598,7 @@
       <c r="DU159"/>
       <c r="DV159"/>
       <c r="DW159" t="n">
-        <v>0.000376395364839956</v>
+        <v>0.000380361280907335</v>
       </c>
       <c r="DX159"/>
       <c r="DY159"/>
@@ -45590,7 +45654,7 @@
       <c r="DU163"/>
       <c r="DV163"/>
       <c r="DW163" t="n">
-        <v>0.00202660824201599</v>
+        <v>0.0020479617413948</v>
       </c>
       <c r="DX163"/>
       <c r="DY163"/>
@@ -45897,7 +45961,7 @@
       <c r="DU164"/>
       <c r="DV164"/>
       <c r="DW164" t="n">
-        <v>0.00560987386224791</v>
+        <v>0.00566898269026368</v>
       </c>
       <c r="DX164"/>
       <c r="DY164"/>
@@ -46146,7 +46210,7 @@
       <c r="DU165"/>
       <c r="DV165"/>
       <c r="DW165" t="n">
-        <v>0.00107750093840507</v>
+        <v>0.0010888541023476</v>
       </c>
       <c r="DX165"/>
       <c r="DY165"/>
@@ -46487,7 +46551,7 @@
       <c r="DU166"/>
       <c r="DV166"/>
       <c r="DW166" t="n">
-        <v>0.00131097062731342</v>
+        <v>0.00132478376095</v>
       </c>
       <c r="DX166"/>
       <c r="DY166"/>
@@ -47061,28 +47125,28 @@
       <c r="CC168"/>
       <c r="CD168"/>
       <c r="CE168" t="n">
-        <v>0.189719509223941</v>
+        <v>0.178934382637538</v>
       </c>
       <c r="CF168" t="n">
-        <v>-0.00849490339808691</v>
+        <v>-0.00801198728227784</v>
       </c>
       <c r="CG168" t="n">
-        <v>-1.1672160628968</v>
+        <v>-0.769637158092648</v>
       </c>
       <c r="CH168" t="n">
-        <v>1.19294446117608</v>
+        <v>1.39045892423709</v>
       </c>
       <c r="CI168" t="n">
-        <v>8.2946867211717</v>
+        <v>8.570751689229</v>
       </c>
       <c r="CJ168" t="n">
-        <v>0.182865182099694</v>
+        <v>0.154980808050668</v>
       </c>
       <c r="CK168" t="n">
-        <v>0.00193510736128068</v>
+        <v>0.0018383169308012</v>
       </c>
       <c r="CL168" t="n">
-        <v>-0.532325601141289</v>
+        <v>-0.50067647811642</v>
       </c>
       <c r="CM168" t="n">
         <v>0.006003125635375</v>
@@ -47098,39 +47162,45 @@
       <c r="CT168" t="n">
         <v>6</v>
       </c>
-      <c r="CU168"/>
+      <c r="CU168" t="n">
+        <v>-0.905415773424582</v>
+      </c>
       <c r="CV168" t="n">
-        <v>-2.66333333333333</v>
-      </c>
-      <c r="CW168"/>
-      <c r="CX168"/>
+        <v>-1.96520222020113</v>
+      </c>
+      <c r="CW168" t="n">
+        <v>-3.28092963947014</v>
+      </c>
+      <c r="CX168" t="n">
+        <v>31.9930778288888</v>
+      </c>
       <c r="CY168" t="n">
         <v>0.7</v>
       </c>
       <c r="CZ168" t="n">
-        <v>-1.32772935931579</v>
+        <v>-2.30709076226917</v>
       </c>
       <c r="DA168" t="n">
-        <v>-2.59617461608</v>
+        <v>-3.72040653077695</v>
       </c>
       <c r="DB168" t="n">
-        <v>-4.34540299745238</v>
+        <v>-5.103185858535</v>
       </c>
       <c r="DC168" t="n">
-        <v>36.4775925397143</v>
+        <v>27.1807636662635</v>
       </c>
       <c r="DD168"/>
       <c r="DE168" t="n">
-        <v>-0.180619776428571</v>
+        <v>-0.533872733767788</v>
       </c>
       <c r="DF168" t="n">
-        <v>-1.173</v>
+        <v>-1.15876916716063</v>
       </c>
       <c r="DG168" t="n">
-        <v>-2.6032396073</v>
+        <v>-1.93457959021253</v>
       </c>
       <c r="DH168" t="n">
-        <v>45.0005623432</v>
+        <v>54.2583193980377</v>
       </c>
       <c r="DI168" t="n">
         <v>71.2153456498992</v>
@@ -47163,7 +47233,7 @@
       <c r="DU168"/>
       <c r="DV168"/>
       <c r="DW168" t="n">
-        <v>0.00171775416408139</v>
+        <v>0.00173585340088265</v>
       </c>
       <c r="DX168"/>
       <c r="DY168"/>
@@ -47755,28 +47825,28 @@
       <c r="CC170"/>
       <c r="CD170"/>
       <c r="CE170" t="n">
-        <v>0.142078207791835</v>
+        <v>0.125102737466834</v>
       </c>
       <c r="CF170" t="n">
-        <v>-0.00636171079664933</v>
+        <v>-0.00560161511045525</v>
       </c>
       <c r="CG170" t="n">
-        <v>-1.73904296985829</v>
+        <v>-1.972687140309</v>
       </c>
       <c r="CH170" t="n">
-        <v>1.15709935254124</v>
+        <v>1.14905198959057</v>
       </c>
       <c r="CI170" t="n">
-        <v>8.19969020920845</v>
+        <v>8.96820798428443</v>
       </c>
       <c r="CJ170" t="n">
-        <v>0.199413476434758</v>
+        <v>0.141226630784714</v>
       </c>
       <c r="CK170" t="n">
-        <v>0.00253865692287323</v>
+        <v>0.00241309087176414</v>
       </c>
       <c r="CL170" t="n">
-        <v>-0.514211496865467</v>
+        <v>-0.566487883541101</v>
       </c>
       <c r="CM170" t="n">
         <v>0.00447333333333333</v>
@@ -47792,39 +47862,45 @@
       <c r="CT170" t="n">
         <v>4</v>
       </c>
-      <c r="CU170"/>
+      <c r="CU170" t="n">
+        <v>-0.555912348251537</v>
+      </c>
       <c r="CV170" t="n">
-        <v>-2.66333333333333</v>
-      </c>
-      <c r="CW170"/>
-      <c r="CX170"/>
+        <v>-1.964085109864</v>
+      </c>
+      <c r="CW170" t="n">
+        <v>-4.52576625105786</v>
+      </c>
+      <c r="CX170" t="n">
+        <v>19.144281341506</v>
+      </c>
       <c r="CY170" t="n">
         <v>0.4</v>
       </c>
       <c r="CZ170" t="n">
-        <v>-1.57333333333333</v>
+        <v>-4.33186259021071</v>
       </c>
       <c r="DA170" t="n">
-        <v>-3.74111111111111</v>
+        <v>-6.9647471000492</v>
       </c>
       <c r="DB170" t="n">
-        <v>-5.63301024328571</v>
+        <v>-9.53454210448679</v>
       </c>
       <c r="DC170" t="n">
-        <v>23.7202925074286</v>
+        <v>14.607857314958</v>
       </c>
       <c r="DD170"/>
       <c r="DE170" t="n">
-        <v>-0.257277594</v>
+        <v>-0.4766469282514</v>
       </c>
       <c r="DF170" t="n">
-        <v>-1.83666666666667</v>
+        <v>-1.68403371032404</v>
       </c>
       <c r="DG170" t="n">
-        <v>-4.728481604</v>
+        <v>-3.88045451470077</v>
       </c>
       <c r="DH170" t="n">
-        <v>22.5633544573333</v>
+        <v>22.3279366032785</v>
       </c>
       <c r="DI170" t="n">
         <v>68.5159959927983</v>
@@ -48529,7 +48605,7 @@
       <c r="DU172"/>
       <c r="DV172"/>
       <c r="DW172" t="n">
-        <v>0.00169454967827396</v>
+        <v>0.00171240441938878</v>
       </c>
       <c r="DX172"/>
       <c r="DY172"/>
@@ -48790,28 +48866,28 @@
       <c r="CC173"/>
       <c r="CD173"/>
       <c r="CE173" t="n">
-        <v>0.150754565594929</v>
+        <v>0.156227962257125</v>
       </c>
       <c r="CF173" t="n">
-        <v>-0.00675020442962367</v>
+        <v>-0.00699528189211009</v>
       </c>
       <c r="CG173" t="n">
-        <v>-1.20948325615871</v>
+        <v>-0.81450072682737</v>
       </c>
       <c r="CH173" t="n">
-        <v>1.21987873406375</v>
+        <v>1.42205416344065</v>
       </c>
       <c r="CI173" t="n">
-        <v>9.10627791806284</v>
+        <v>8.78721093416095</v>
       </c>
       <c r="CJ173" t="n">
-        <v>0.257065100101796</v>
+        <v>0.149158812685174</v>
       </c>
       <c r="CK173" t="n">
-        <v>0.00185179025473505</v>
+        <v>0.00183274387467187</v>
       </c>
       <c r="CL173" t="n">
-        <v>-0.519163883805448</v>
+        <v>-0.514088872612354</v>
       </c>
       <c r="CM173" t="n">
         <v>0.00447333333333333</v>
@@ -48827,39 +48903,45 @@
       <c r="CT173" t="n">
         <v>6</v>
       </c>
-      <c r="CU173"/>
+      <c r="CU173" t="n">
+        <v>-0.905415773424582</v>
+      </c>
       <c r="CV173" t="n">
-        <v>-2.66333333333333</v>
-      </c>
-      <c r="CW173"/>
-      <c r="CX173"/>
+        <v>-1.96520222020113</v>
+      </c>
+      <c r="CW173" t="n">
+        <v>-3.28092963947014</v>
+      </c>
+      <c r="CX173" t="n">
+        <v>31.9930778288888</v>
+      </c>
       <c r="CY173" t="n">
         <v>0.7</v>
       </c>
       <c r="CZ173" t="n">
-        <v>-1.055</v>
+        <v>-4.07607732487189</v>
       </c>
       <c r="DA173" t="n">
-        <v>-2.475</v>
+        <v>-4.8054090434732</v>
       </c>
       <c r="DB173" t="n">
-        <v>-4.175</v>
+        <v>-5.35809294515293</v>
       </c>
       <c r="DC173" t="n">
-        <v>22.9788961025</v>
+        <v>59.2816489890656</v>
       </c>
       <c r="DD173"/>
       <c r="DE173" t="n">
-        <v>-0.180619776428571</v>
+        <v>-0.533872733767788</v>
       </c>
       <c r="DF173" t="n">
-        <v>-1.173</v>
+        <v>-1.15876916716063</v>
       </c>
       <c r="DG173" t="n">
-        <v>-2.6032396073</v>
+        <v>-1.93457959021253</v>
       </c>
       <c r="DH173" t="n">
-        <v>45.0005623432</v>
+        <v>54.2583193980377</v>
       </c>
       <c r="DI173" t="n">
         <v>57.3391881702308</v>
@@ -49241,7 +49323,7 @@
       <c r="DU174"/>
       <c r="DV174"/>
       <c r="DW174" t="n">
-        <v>0.00160050568109677</v>
+        <v>0.00161736952106274</v>
       </c>
       <c r="DX174"/>
       <c r="DY174"/>
@@ -49602,7 +49684,7 @@
       <c r="DU175"/>
       <c r="DV175"/>
       <c r="DW175" t="n">
-        <v>0.00242113849022929</v>
+        <v>0.00244664898514155</v>
       </c>
       <c r="DX175"/>
       <c r="DY175"/>
@@ -49947,7 +50029,7 @@
       <c r="DU176"/>
       <c r="DV176"/>
       <c r="DW176" t="n">
-        <v>0.00177161677056243</v>
+        <v>0.00179028353448127</v>
       </c>
       <c r="DX176"/>
       <c r="DY176"/>
@@ -50212,28 +50294,28 @@
       <c r="CC177"/>
       <c r="CD177"/>
       <c r="CE177" t="n">
-        <v>0.175400420120135</v>
+        <v>0.156328786971329</v>
       </c>
       <c r="CF177" t="n">
-        <v>-0.00785375015463292</v>
+        <v>-0.00699979643155206</v>
       </c>
       <c r="CG177" t="n">
-        <v>-1.24965051126688</v>
+        <v>-1.76508138377436</v>
       </c>
       <c r="CH177" t="n">
-        <v>1.32320063649352</v>
+        <v>1.607616380902</v>
       </c>
       <c r="CI177" t="n">
-        <v>8.90897023069117</v>
+        <v>9.65919286385313</v>
       </c>
       <c r="CJ177" t="n">
-        <v>0.184831133708166</v>
+        <v>0.149870706782219</v>
       </c>
       <c r="CK177" t="n">
-        <v>0.00188184420856703</v>
+        <v>0.00192274858299828</v>
       </c>
       <c r="CL177" t="n">
-        <v>-0.560756522979527</v>
+        <v>-0.610488135392939</v>
       </c>
       <c r="CM177" t="n">
         <v>0.006003125635375</v>
@@ -50249,39 +50331,45 @@
       <c r="CT177" t="n">
         <v>4</v>
       </c>
-      <c r="CU177"/>
+      <c r="CU177" t="n">
+        <v>-0.555912348251537</v>
+      </c>
       <c r="CV177" t="n">
-        <v>-2.66333333333333</v>
-      </c>
-      <c r="CW177"/>
-      <c r="CX177"/>
+        <v>-1.964085109864</v>
+      </c>
+      <c r="CW177" t="n">
+        <v>-4.52576625105786</v>
+      </c>
+      <c r="CX177" t="n">
+        <v>19.144281341506</v>
+      </c>
       <c r="CY177" t="n">
         <v>0.4</v>
       </c>
       <c r="CZ177" t="n">
-        <v>-3.7</v>
+        <v>-3.69999998191456</v>
       </c>
       <c r="DA177" t="n">
-        <v>-5.2</v>
+        <v>-5.19999997064032</v>
       </c>
       <c r="DB177" t="n">
-        <v>-5.8</v>
+        <v>-6.51260423073386</v>
       </c>
       <c r="DC177" t="n">
-        <v>63.33333333</v>
+        <v>27.0212206469872</v>
       </c>
       <c r="DD177"/>
       <c r="DE177" t="n">
-        <v>-0.180619776428571</v>
+        <v>-0.4766469282514</v>
       </c>
       <c r="DF177" t="n">
-        <v>-1.173</v>
+        <v>-1.68403371032404</v>
       </c>
       <c r="DG177" t="n">
-        <v>-2.6032396073</v>
+        <v>-3.88045451470077</v>
       </c>
       <c r="DH177" t="n">
-        <v>45.0005623432</v>
+        <v>22.3279366032785</v>
       </c>
       <c r="DI177" t="n">
         <v>70.2783307709581</v>
@@ -50314,7 +50402,7 @@
       <c r="DU177"/>
       <c r="DV177"/>
       <c r="DW177" t="n">
-        <v>0.0017145509674767</v>
+        <v>0.00173261645357307</v>
       </c>
       <c r="DX177"/>
       <c r="DY177"/>
@@ -53163,7 +53251,7 @@
       <c r="DU188"/>
       <c r="DV188"/>
       <c r="DW188" t="n">
-        <v>0.000799511831552967</v>
+        <v>0.000807935943842882</v>
       </c>
       <c r="DX188"/>
       <c r="DY188"/>
@@ -56226,7 +56314,7 @@
       <c r="DU201"/>
       <c r="DV201"/>
       <c r="DW201" t="n">
-        <v>0.00216899761216587</v>
+        <v>0.00219185140709465</v>
       </c>
       <c r="DX201"/>
       <c r="DY201"/>
@@ -56501,7 +56589,7 @@
       <c r="DU202"/>
       <c r="DV202"/>
       <c r="DW202" t="n">
-        <v>0.00525840098997349</v>
+        <v>0.0053138064995066</v>
       </c>
       <c r="DX202"/>
       <c r="DY202"/>
@@ -57443,7 +57531,7 @@
       <c r="DU206"/>
       <c r="DV206"/>
       <c r="DW206" t="n">
-        <v>0.000505126519431979</v>
+        <v>0.000510448820306556</v>
       </c>
       <c r="DX206"/>
       <c r="DY206"/>
@@ -58166,7 +58254,7 @@
       <c r="DU209"/>
       <c r="DV209"/>
       <c r="DW209" t="n">
-        <v>0.00262701995173332</v>
+        <v>0.00265469973105349</v>
       </c>
       <c r="DX209"/>
       <c r="DY209"/>
